--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -819,7 +819,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Mz3</t>
+          <t>Mz</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>K1_2</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Mz3</t>
+          <t>Mz</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -11439,7 +11439,7 @@
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr"/>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr"/>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr"/>
@@ -18659,7 +18659,7 @@
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr"/>
@@ -19083,7 +19083,7 @@
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr"/>
@@ -19404,7 +19404,7 @@
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr"/>
@@ -22491,7 +22491,7 @@
       </c>
       <c r="AA208" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB208" t="inlineStr"/>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="AA215" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB215" t="inlineStr"/>
@@ -41110,7 +41110,7 @@
       </c>
       <c r="AA385" t="inlineStr">
         <is>
-          <t>J3-K1</t>
+          <t>J-K</t>
         </is>
       </c>
       <c r="AB385" t="inlineStr"/>

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE477"/>
+  <dimension ref="A1:AF477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,14 +369,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Y_UTM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>X_UTM</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_UTM</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ZoneNumber</t>
@@ -515,6 +515,11 @@
       <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>sampler+year</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
         </is>
       </c>
     </row>
@@ -628,6 +633,9 @@
           <t>A.I.Sadovsky,1963</t>
         </is>
       </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -731,6 +739,9 @@
           <t>A.S.Bochkarev,1984</t>
         </is>
       </c>
+      <c r="AF3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -834,6 +845,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -941,6 +955,9 @@
           <t>K.V.laraketsov,1955</t>
         </is>
       </c>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1044,6 +1061,9 @@
           <t>V.K.Sadakov,1967</t>
         </is>
       </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1147,6 +1167,9 @@
           <t>I.A.Nikitin,1957</t>
         </is>
       </c>
+      <c r="AF7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1250,6 +1273,9 @@
           <t>V.A.Kitaev,1958</t>
         </is>
       </c>
+      <c r="AF8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1357,6 +1383,9 @@
           <t>S.A.Palandzhyan,1976</t>
         </is>
       </c>
+      <c r="AF9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1464,6 +1493,9 @@
           <t>A.V.Andrianov,1940</t>
         </is>
       </c>
+      <c r="AF10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1571,6 +1603,9 @@
           <t>I.N.Zubrev,1952</t>
         </is>
       </c>
+      <c r="AF11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1678,6 +1713,9 @@
           <t>V.N.Lipatov,1958</t>
         </is>
       </c>
+      <c r="AF12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1789,6 +1827,9 @@
           <t>V.I.Noskov,1960</t>
         </is>
       </c>
+      <c r="AF13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1900,6 +1941,9 @@
           <t>A.O.Andrianov,1939</t>
         </is>
       </c>
+      <c r="AF14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2003,6 +2047,9 @@
           <t>A.V.Andrianov,1940</t>
         </is>
       </c>
+      <c r="AF15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2106,6 +2153,9 @@
           <t>E.P.Fedorov,1952</t>
         </is>
       </c>
+      <c r="AF16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2217,6 +2267,9 @@
           <t>L.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2324,6 +2377,9 @@
           <t>A.P.Shpetny,1947</t>
         </is>
       </c>
+      <c r="AF18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2431,6 +2487,9 @@
           <t>I.E.Zaedinova,1957</t>
         </is>
       </c>
+      <c r="AF19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2534,6 +2593,9 @@
           <t>V.I.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2641,6 +2703,9 @@
           <t>A.K.savel'ev,1950</t>
         </is>
       </c>
+      <c r="AF21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2744,6 +2809,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2851,6 +2919,9 @@
           <t>Yu.R.Vasil'ev,1959</t>
         </is>
       </c>
+      <c r="AF23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2954,6 +3025,9 @@
           <t>G.S.Basiladze,1952</t>
         </is>
       </c>
+      <c r="AF24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3065,6 +3139,9 @@
           <t>Z.A.Abdrakhimov,1951</t>
         </is>
       </c>
+      <c r="AF25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3172,6 +3249,9 @@
           <t>V.G.Zheltovsky,1974</t>
         </is>
       </c>
+      <c r="AF26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3275,6 +3355,9 @@
           <t>S.A.Palandzhyan,1980</t>
         </is>
       </c>
+      <c r="AF27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3374,6 +3457,9 @@
           <t>E.G.Bordyugov,1978</t>
         </is>
       </c>
+      <c r="AF28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3477,6 +3563,9 @@
           <t>N.M.Yanchuk,1954</t>
         </is>
       </c>
+      <c r="AF29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3580,6 +3669,9 @@
           <t>Z.G.Karaeva,1967</t>
         </is>
       </c>
+      <c r="AF30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3687,6 +3779,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3794,6 +3889,9 @@
           <t>Z.G.Karaeva,1967</t>
         </is>
       </c>
+      <c r="AF32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3905,6 +4003,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4012,6 +4113,9 @@
           <t>V.I.Teplykh,1964</t>
         </is>
       </c>
+      <c r="AF34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4119,6 +4223,9 @@
           <t>A.V.Andrianov,1940</t>
         </is>
       </c>
+      <c r="AF35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4226,6 +4333,9 @@
           <t>A.K.Savel'ev,1950</t>
         </is>
       </c>
+      <c r="AF36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4333,6 +4443,9 @@
           <t>I.E.Rozhdestvensky,1950</t>
         </is>
       </c>
+      <c r="AF37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4440,6 +4553,9 @@
           <t>L.A.Andrianov,1951</t>
         </is>
       </c>
+      <c r="AF38" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4547,6 +4663,9 @@
           <t>V.A.Zakharov,1961</t>
         </is>
       </c>
+      <c r="AF39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4654,6 +4773,9 @@
           <t>A.K.Savel'ev,1949</t>
         </is>
       </c>
+      <c r="AF40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4757,6 +4879,9 @@
           <t>E.E.Petrenko,1977</t>
         </is>
       </c>
+      <c r="AF41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4864,6 +4989,9 @@
           <t>G.P.Preobrazhensky,1969</t>
         </is>
       </c>
+      <c r="AF42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4971,6 +5099,9 @@
           <t>V.A.Ivanov,1967</t>
         </is>
       </c>
+      <c r="AF43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5082,6 +5213,9 @@
           <t>V.G.Zheltovsky,1974</t>
         </is>
       </c>
+      <c r="AF44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5193,6 +5327,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5300,6 +5437,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5403,6 +5543,9 @@
           <t>V.I.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5510,6 +5653,9 @@
           <t>O.N.Ivanov,1971</t>
         </is>
       </c>
+      <c r="AF48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5609,6 +5755,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5716,6 +5865,9 @@
           <t>I.M.Rusakov,1957</t>
         </is>
       </c>
+      <c r="AF50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5827,6 +5979,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5930,6 +6085,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6041,6 +6199,9 @@
           <t>V.S.Degtyarev,1964</t>
         </is>
       </c>
+      <c r="AF53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6152,6 +6313,9 @@
           <t>V.S.Degtyarev,1964</t>
         </is>
       </c>
+      <c r="AF54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6255,6 +6419,9 @@
           <t>S.A.Palandzhyan,1976</t>
         </is>
       </c>
+      <c r="AF55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6358,6 +6525,9 @@
           <t>A.V.Andrianov,1939</t>
         </is>
       </c>
+      <c r="AF56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6465,6 +6635,9 @@
           <t>V.A.Kasatkin,1963</t>
         </is>
       </c>
+      <c r="AF57" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6576,6 +6749,9 @@
           <t>G.S.Basiladze,1952</t>
         </is>
       </c>
+      <c r="AF58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6687,6 +6863,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6794,6 +6973,9 @@
           <t>M.I.Rabkin,1941</t>
         </is>
       </c>
+      <c r="AF60" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6905,6 +7087,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7008,6 +7193,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7111,6 +7299,9 @@
           <t>I.M.Rusakov,1957</t>
         </is>
       </c>
+      <c r="AF63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7222,6 +7413,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF64" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7325,6 +7519,9 @@
           <t>G.S.Basiladze,1952</t>
         </is>
       </c>
+      <c r="AF65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7432,6 +7629,9 @@
           <t>V.l.Shkursky,1962</t>
         </is>
       </c>
+      <c r="AF66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7531,6 +7731,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7634,6 +7837,9 @@
           <t>V.I.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7745,6 +7951,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7852,6 +8061,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7963,6 +8175,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8070,6 +8285,9 @@
           <t>K.S.Sukhov,1964</t>
         </is>
       </c>
+      <c r="AF72" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8181,6 +8399,9 @@
           <t>V.I.Noskov,1960</t>
         </is>
       </c>
+      <c r="AF73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8284,6 +8505,9 @@
           <t>S.A.Palandzhyan,1976</t>
         </is>
       </c>
+      <c r="AF74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8383,6 +8607,9 @@
           <t>I.I.Sonin,1968</t>
         </is>
       </c>
+      <c r="AF75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8486,6 +8713,9 @@
           <t>V.I.Kopytin,1961</t>
         </is>
       </c>
+      <c r="AF76" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8589,6 +8819,9 @@
           <t>V.N.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8696,6 +8929,9 @@
           <t>O.N.Ivanov,1971</t>
         </is>
       </c>
+      <c r="AF78" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8803,6 +9039,9 @@
           <t>V.G.Zheltovsky,1974</t>
         </is>
       </c>
+      <c r="AF79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8914,6 +9153,9 @@
           <t>G.S.Basiladze,1952</t>
         </is>
       </c>
+      <c r="AF80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -9017,6 +9259,9 @@
           <t>V.N.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -9124,6 +9369,9 @@
           <t>G.B.Zhilinsky,1941</t>
         </is>
       </c>
+      <c r="AF82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9231,6 +9479,9 @@
           <t>N.A.Lavrov,1953</t>
         </is>
       </c>
+      <c r="AF83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9338,6 +9589,9 @@
           <t>Yu.R.Vasil'ev,1959</t>
         </is>
       </c>
+      <c r="AF84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9449,6 +9703,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9560,6 +9817,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9663,6 +9923,9 @@
           <t>K.L.Bykov,1955</t>
         </is>
       </c>
+      <c r="AF87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9766,6 +10029,9 @@
           <t>V.N.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9865,6 +10131,9 @@
           <t>E.G.Bordyugov,1978</t>
         </is>
       </c>
+      <c r="AF89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9964,6 +10233,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -10071,6 +10343,9 @@
           <t>V.P.Fedorov,1952</t>
         </is>
       </c>
+      <c r="AF91" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -10174,6 +10449,9 @@
           <t>G.M.Sosunov,1958</t>
         </is>
       </c>
+      <c r="AF92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -10277,6 +10555,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF93" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -10380,6 +10661,9 @@
           <t>O.N.Ivanov,1972</t>
         </is>
       </c>
+      <c r="AF94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10487,6 +10771,9 @@
           <t>M.G.Ravich,1938</t>
         </is>
       </c>
+      <c r="AF95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -10590,6 +10877,9 @@
           <t>V.I.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10701,6 +10991,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10812,6 +11105,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10915,6 +11211,9 @@
           <t>O.N.Ivanov,1979</t>
         </is>
       </c>
+      <c r="AF99" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -11018,6 +11317,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -11129,6 +11431,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -11240,6 +11545,9 @@
           <t>G.S.Basiladze,1952</t>
         </is>
       </c>
+      <c r="AF102" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -11351,6 +11659,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -11454,6 +11765,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -11561,6 +11875,9 @@
           <t>I.M.Sargina,1960</t>
         </is>
       </c>
+      <c r="AF105" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -11664,6 +11981,9 @@
           <t>O.N.Ivanov,1974</t>
         </is>
       </c>
+      <c r="AF106" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -11771,6 +12091,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF107" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -11878,6 +12201,9 @@
           <t>E.B.Nevretdinov,1972</t>
         </is>
       </c>
+      <c r="AF108" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -11989,6 +12315,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -12096,6 +12425,9 @@
           <t>M.I.Rabkin,1941</t>
         </is>
       </c>
+      <c r="AF110" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -12199,6 +12531,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF111" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -12298,6 +12633,9 @@
           <t>E.G.Bordyugov,1978</t>
         </is>
       </c>
+      <c r="AF112" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -12405,6 +12743,9 @@
           <t>M.N.Bogdanov,1967</t>
         </is>
       </c>
+      <c r="AF113" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -12508,6 +12849,9 @@
           <t>V.N.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF114" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -12615,6 +12959,9 @@
           <t>V.G.Ditmar,1938</t>
         </is>
       </c>
+      <c r="AF115" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -12726,6 +13073,9 @@
           <t>V.G.Zheltovsky,1974</t>
         </is>
       </c>
+      <c r="AF116" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -12837,6 +13187,9 @@
           <t>M.L.Gel'man,1963</t>
         </is>
       </c>
+      <c r="AF117" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -12944,6 +13297,9 @@
           <t>M.I.Rabkin,1941</t>
         </is>
       </c>
+      <c r="AF118" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -13051,6 +13407,9 @@
           <t>N.Vorob'ev's coll.,1977</t>
         </is>
       </c>
+      <c r="AF119" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -13158,6 +13517,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF120" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -13265,6 +13627,9 @@
           <t>V.G.Silkin,1967</t>
         </is>
       </c>
+      <c r="AF121" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -13368,6 +13733,9 @@
           <t>L.M.Karpasov,1965</t>
         </is>
       </c>
+      <c r="AF122" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -13479,6 +13847,9 @@
           <t>G.A.Kibanov,1958</t>
         </is>
       </c>
+      <c r="AF123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -13590,6 +13961,9 @@
           <t>V.A.Kitaev,1958</t>
         </is>
       </c>
+      <c r="AF124" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -13701,6 +14075,9 @@
           <t>V.I.Noskov,1960</t>
         </is>
       </c>
+      <c r="AF125" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -13804,6 +14181,9 @@
           <t>V.P.Pole,1962</t>
         </is>
       </c>
+      <c r="AF126" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -13907,6 +14287,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -14006,6 +14389,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF128" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -14113,6 +14499,9 @@
           <t>V.G.Ditmar,1938</t>
         </is>
       </c>
+      <c r="AF129" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -14212,6 +14601,9 @@
           <t>V.N.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF130" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -14323,6 +14715,9 @@
           <t>V.S.Degtyarev,1962</t>
         </is>
       </c>
+      <c r="AF131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -14434,6 +14829,9 @@
           <t>O.N.Ivanov,1979</t>
         </is>
       </c>
+      <c r="AF132" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -14537,6 +14935,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -14644,6 +15045,9 @@
           <t>V.P.Pole,1962</t>
         </is>
       </c>
+      <c r="AF134" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -14747,6 +15151,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF135" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -14846,6 +15253,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -14957,6 +15367,9 @@
           <t>M.L.Gel'man,1963</t>
         </is>
       </c>
+      <c r="AF137" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -15060,6 +15473,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF138" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -15167,6 +15583,9 @@
           <t>L.A.Andrianov,1951</t>
         </is>
       </c>
+      <c r="AF139" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -15274,6 +15693,9 @@
           <t>A.I.Timoschenko,1960</t>
         </is>
       </c>
+      <c r="AF140" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -15373,6 +15795,9 @@
           <t>I.I.Sonin,1968</t>
         </is>
       </c>
+      <c r="AF141" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -15484,6 +15909,9 @@
           <t>S.A.Palandzhyan,1980</t>
         </is>
       </c>
+      <c r="AF142" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -15591,6 +16019,9 @@
           <t>S.M.Til'man,1956</t>
         </is>
       </c>
+      <c r="AF143" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -15694,6 +16125,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -15805,6 +16239,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF145" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -15912,6 +16349,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF146" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -16015,6 +16455,9 @@
           <t>V.A.Kasatkin,1963</t>
         </is>
       </c>
+      <c r="AF147" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -16118,6 +16561,9 @@
           <t>A.M.Avdeev,1957</t>
         </is>
       </c>
+      <c r="AF148" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -16221,6 +16667,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF149" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -16324,6 +16773,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF150" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -16427,6 +16879,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF151" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -16538,6 +16993,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF152" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -16649,6 +17107,9 @@
           <t>L.A.Andrianov,1951</t>
         </is>
       </c>
+      <c r="AF153" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -16756,6 +17217,9 @@
           <t>N.Vorob'ev's coll.,1977</t>
         </is>
       </c>
+      <c r="AF154" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -16867,6 +17331,9 @@
           <t>D.S.Golota,1953</t>
         </is>
       </c>
+      <c r="AF155" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -16974,6 +17441,9 @@
           <t>V.I.Teplykh,1964</t>
         </is>
       </c>
+      <c r="AF156" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -17077,6 +17547,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF157" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -17184,6 +17657,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF158" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -17295,6 +17771,9 @@
           <t>A.S.Skalatsky,1964</t>
         </is>
       </c>
+      <c r="AF159" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -17402,6 +17881,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF160" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -17505,6 +17987,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF161" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -17604,6 +18089,9 @@
           <t>N.I.Filatova,1968</t>
         </is>
       </c>
+      <c r="AF162" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -17715,6 +18203,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF163" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -17822,6 +18313,9 @@
           <t>L.A.Andrianov,1951</t>
         </is>
       </c>
+      <c r="AF164" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -17933,6 +18427,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF165" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -18040,6 +18537,9 @@
           <t>N.Vorob'ev's coll.,1977</t>
         </is>
       </c>
+      <c r="AF166" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -18151,6 +18651,9 @@
           <t>B.L.Flerov,1958</t>
         </is>
       </c>
+      <c r="AF167" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -18258,6 +18761,9 @@
           <t>K.S.Sukhov,1964</t>
         </is>
       </c>
+      <c r="AF168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -18361,6 +18867,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF169" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -18468,6 +18977,9 @@
           <t>V.V.Gulevich,1958</t>
         </is>
       </c>
+      <c r="AF170" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -18571,6 +19083,9 @@
           <t>O.N.Ivanov,1971</t>
         </is>
       </c>
+      <c r="AF171" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -18674,6 +19189,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF172" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -18777,6 +19295,9 @@
           <t>A.V.Andrianov,1939</t>
         </is>
       </c>
+      <c r="AF173" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -18884,6 +19405,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF174" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -18995,6 +19519,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF175" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -19098,6 +19625,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF176" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -19205,6 +19735,9 @@
           <t>I.A.Sklyar,1938</t>
         </is>
       </c>
+      <c r="AF177" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -19316,6 +19849,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF178" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -19423,6 +19959,9 @@
           <t>O.N.Ivanov,1971</t>
         </is>
       </c>
+      <c r="AF179" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -19530,6 +20069,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF180" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -19637,6 +20179,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF181" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -19740,6 +20285,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF182" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -19847,6 +20395,9 @@
           <t>A.G.Maltizov,1959</t>
         </is>
       </c>
+      <c r="AF183" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -19954,6 +20505,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF184" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -20057,6 +20611,9 @@
           <t>V.N.Voevodin,1967</t>
         </is>
       </c>
+      <c r="AF185" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -20164,6 +20721,9 @@
           <t>N.Vorob'ev's coll.,1977</t>
         </is>
       </c>
+      <c r="AF186" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -20271,6 +20831,9 @@
           <t>V.A.Kitaev,1958</t>
         </is>
       </c>
+      <c r="AF187" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -20374,6 +20937,9 @@
           <t>V.S.Degtyarev,1966</t>
         </is>
       </c>
+      <c r="AF188" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -20477,6 +21043,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF189" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -20588,6 +21157,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF190" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -20695,6 +21267,9 @@
           <t>D.S.Golota,1953</t>
         </is>
       </c>
+      <c r="AF191" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -20806,6 +21381,9 @@
           <t>A.S.Skalatsky,1960</t>
         </is>
       </c>
+      <c r="AF192" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -20913,6 +21491,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF193" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -21020,6 +21601,9 @@
           <t>P.K.Fedorov,1952</t>
         </is>
       </c>
+      <c r="AF194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -21123,6 +21707,9 @@
           <t>G.S.Basiladze,1950</t>
         </is>
       </c>
+      <c r="AF195" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -21230,6 +21817,9 @@
           <t>E.B.Nevretdinov,1972</t>
         </is>
       </c>
+      <c r="AF196" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -21341,6 +21931,9 @@
           <t>V.V.Gulevich,1958</t>
         </is>
       </c>
+      <c r="AF197" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -21448,6 +22041,9 @@
           <t>A.M.Demin,1950</t>
         </is>
       </c>
+      <c r="AF198" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -21555,6 +22151,9 @@
           <t>P.K.Fedorov,1952</t>
         </is>
       </c>
+      <c r="AF199" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -21662,6 +22261,9 @@
           <t>A.A.Zhitetsky,1963</t>
         </is>
       </c>
+      <c r="AF200" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -21769,6 +22371,9 @@
           <t>V.V.Gulevich,1958</t>
         </is>
       </c>
+      <c r="AF201" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -21868,6 +22473,9 @@
           <t>N.I.Filatova,1968</t>
         </is>
       </c>
+      <c r="AF202" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -21971,6 +22579,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -22082,6 +22693,9 @@
           <t>G.I.Bogomolov,1965</t>
         </is>
       </c>
+      <c r="AF204" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -22189,6 +22803,9 @@
           <t>N.Vorob'ev's coll.,1977</t>
         </is>
       </c>
+      <c r="AF205" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -22296,6 +22913,9 @@
           <t>V.A.Kasatkin,1963</t>
         </is>
       </c>
+      <c r="AF206" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -22403,6 +23023,9 @@
           <t>V.A.Kasatkin,1963</t>
         </is>
       </c>
+      <c r="AF207" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -22506,6 +23129,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF208" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -22609,6 +23235,9 @@
           <t>V.G.Zheltovsky,1972</t>
         </is>
       </c>
+      <c r="AF209" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -22716,6 +23345,9 @@
           <t>S.P.Skuratovsky,1966</t>
         </is>
       </c>
+      <c r="AF210" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -22815,6 +23447,9 @@
           <t>S.S.Lobunetz,1968</t>
         </is>
       </c>
+      <c r="AF211" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -22918,6 +23553,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF212" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -23021,6 +23659,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF213" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -23128,6 +23769,9 @@
           <t>D.S.Golota,1953</t>
         </is>
       </c>
+      <c r="AF214" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -23231,6 +23875,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -23338,6 +23985,9 @@
           <t>Yu.P.Misans,1956</t>
         </is>
       </c>
+      <c r="AF216" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -23441,6 +24091,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF217" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -23548,6 +24201,9 @@
           <t>V.I.Teplykh,1963</t>
         </is>
       </c>
+      <c r="AF218" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -23655,6 +24311,9 @@
           <t>V.l.Shkursky,1966</t>
         </is>
       </c>
+      <c r="AF219" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -23758,6 +24417,9 @@
           <t>N.N.Tevyashov,1966</t>
         </is>
       </c>
+      <c r="AF220" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -23865,6 +24527,9 @@
           <t>N.Vorob'ev's coll.,1977</t>
         </is>
       </c>
+      <c r="AF221" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -23972,6 +24637,9 @@
           <t>A.I.Grigor'ev,1961</t>
         </is>
       </c>
+      <c r="AF222" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -24079,6 +24747,9 @@
           <t>V.G.Zheltovsky,1974</t>
         </is>
       </c>
+      <c r="AF223" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -24186,6 +24857,9 @@
           <t>V.G.Ditmar,1938</t>
         </is>
       </c>
+      <c r="AF224" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -24297,6 +24971,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF225" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -24408,6 +25085,9 @@
           <t>V.G.Zheltovsky,1974</t>
         </is>
       </c>
+      <c r="AF226" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -24519,6 +25199,9 @@
           <t>V.S.Smolich,1947</t>
         </is>
       </c>
+      <c r="AF227" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -24626,6 +25309,9 @@
           <t>I.A.Nikitin,1957</t>
         </is>
       </c>
+      <c r="AF228" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -24729,6 +25415,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF229" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -24836,6 +25525,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF230" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -24935,6 +25627,9 @@
           <t>N.I.Filatova,1967</t>
         </is>
       </c>
+      <c r="AF231" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -25042,6 +25737,9 @@
           <t>N.I.Tikhomirov,1940</t>
         </is>
       </c>
+      <c r="AF232" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -25145,6 +25843,9 @@
           <t>N.N.Tevyashov,1966</t>
         </is>
       </c>
+      <c r="AF233" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -25248,6 +25949,9 @@
           <t>I.N.Trumpe,1958</t>
         </is>
       </c>
+      <c r="AF234" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -25351,6 +26055,9 @@
           <t>O.N.Ivanov,1972</t>
         </is>
       </c>
+      <c r="AF235" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -25454,6 +26161,9 @@
           <t>S.P.Skuratovsky,1966</t>
         </is>
       </c>
+      <c r="AF236" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -25561,6 +26271,9 @@
           <t>V.I.Shkursky,1966</t>
         </is>
       </c>
+      <c r="AF237" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -25660,6 +26373,9 @@
           <t>E.G.Bordyugov,1978</t>
         </is>
       </c>
+      <c r="AF238" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -25763,6 +26479,9 @@
           <t>G.M.Sosunov,1958</t>
         </is>
       </c>
+      <c r="AF239" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -25870,6 +26589,9 @@
           <t>G.B.Zhilinsky,1941</t>
         </is>
       </c>
+      <c r="AF240" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -25977,6 +26699,9 @@
           <t>N.I.Tikhomirov,1938</t>
         </is>
       </c>
+      <c r="AF241" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -26076,6 +26801,9 @@
           <t>E.K.Zotov,1965</t>
         </is>
       </c>
+      <c r="AF242" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -26183,6 +26911,9 @@
           <t>L.M.Karpasov,1965</t>
         </is>
       </c>
+      <c r="AF243" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -26286,6 +27017,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF244" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -26393,6 +27127,9 @@
           <t>G.A.Kremchukov,1936</t>
         </is>
       </c>
+      <c r="AF245" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -26496,6 +27233,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF246" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -26599,6 +27339,9 @@
           <t>N.N.Neznanov,1964</t>
         </is>
       </c>
+      <c r="AF247" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -26702,6 +27445,9 @@
           <t>Yu.K.Usenko,1963</t>
         </is>
       </c>
+      <c r="AF248" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -26805,6 +27551,9 @@
           <t>G.M.Dautov,1940</t>
         </is>
       </c>
+      <c r="AF249" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -26916,6 +27665,9 @@
           <t>V.S.Bogoyavlensky,1964</t>
         </is>
       </c>
+      <c r="AF250" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -27019,6 +27771,9 @@
           <t>A.S.Ulitin</t>
         </is>
       </c>
+      <c r="AF251" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -27126,6 +27881,9 @@
           <t>V.V.Gulevich,1963</t>
         </is>
       </c>
+      <c r="AF252" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -27237,6 +27995,9 @@
           <t>M.I.Rabkin,1941</t>
         </is>
       </c>
+      <c r="AF253" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -27344,6 +28105,9 @@
           <t>L.M.Karpasov,1965</t>
         </is>
       </c>
+      <c r="AF254" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -27451,6 +28215,9 @@
           <t>N.Vorob'ev's coll.,1977</t>
         </is>
       </c>
+      <c r="AF255" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -27558,6 +28325,9 @@
           <t>B.L.Flerov,1958</t>
         </is>
       </c>
+      <c r="AF256" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -27665,6 +28435,9 @@
           <t>V.V.Isaev,1963</t>
         </is>
       </c>
+      <c r="AF257" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -27772,6 +28545,9 @@
           <t>G.B.Zhilinsky,1941</t>
         </is>
       </c>
+      <c r="AF258" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -27875,6 +28651,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF259" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -27978,6 +28757,9 @@
           <t>M.O.Chasovitov,1959</t>
         </is>
       </c>
+      <c r="AF260" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -28081,6 +28863,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF261" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -28184,6 +28969,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF262" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -28287,6 +29075,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF263" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -28394,6 +29185,9 @@
           <t>V.P.Pole,1962</t>
         </is>
       </c>
+      <c r="AF264" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -28505,6 +29299,9 @@
           <t>A.S.Skalatsky,1964</t>
         </is>
       </c>
+      <c r="AF265" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -28612,6 +29409,9 @@
           <t>K.S.Sukhov,1964</t>
         </is>
       </c>
+      <c r="AF266" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -28715,6 +29515,9 @@
           <t>V.I.Kopytin,1961</t>
         </is>
       </c>
+      <c r="AF267" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -28826,6 +29629,9 @@
           <t>V.S.Smolich,1947</t>
         </is>
       </c>
+      <c r="AF268" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -28929,6 +29735,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF269" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -29032,6 +29841,9 @@
           <t>G.A.Klimov,1960</t>
         </is>
       </c>
+      <c r="AF270" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -29143,6 +29955,9 @@
           <t>M.I.Rabkin,1941</t>
         </is>
       </c>
+      <c r="AF271" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -29250,6 +30065,9 @@
           <t>A.I.Grigor'ev,1965</t>
         </is>
       </c>
+      <c r="AF272" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -29349,6 +30167,9 @@
           <t>E.G.Bordyugov,1978</t>
         </is>
       </c>
+      <c r="AF273" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -29452,6 +30273,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF274" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -29555,6 +30379,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF275" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -29662,6 +30489,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF276" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -29765,6 +30595,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF277" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -29872,6 +30705,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF278" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -29983,6 +30819,9 @@
           <t>V.I.Noskov,1957</t>
         </is>
       </c>
+      <c r="AF279" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -30082,6 +30921,9 @@
           <t>V.I.Shavel',1967</t>
         </is>
       </c>
+      <c r="AF280" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -30189,6 +31031,9 @@
           <t>Ya.P.Misans,1956</t>
         </is>
       </c>
+      <c r="AF281" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -30292,6 +31137,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF282" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -30399,6 +31247,9 @@
           <t>A.G.Maltizov,1959</t>
         </is>
       </c>
+      <c r="AF283" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -30506,6 +31357,9 @@
           <t>A.V.Andrianov,1939</t>
         </is>
       </c>
+      <c r="AF284" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -30613,6 +31467,9 @@
           <t>A.S.Monyakin,1954</t>
         </is>
       </c>
+      <c r="AF285" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -30716,6 +31573,9 @@
           <t>P.P.Ushakov,1940</t>
         </is>
       </c>
+      <c r="AF286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -30827,6 +31687,9 @@
           <t>V.S.Bogoyavlensky,1964</t>
         </is>
       </c>
+      <c r="AF287" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -30930,6 +31793,9 @@
           <t>V.I.Shavel',1967</t>
         </is>
       </c>
+      <c r="AF288" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -31037,6 +31903,9 @@
           <t>K.S.Sukhov,1964</t>
         </is>
       </c>
+      <c r="AF289" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -31144,6 +32013,9 @@
           <t>R.M.Beschastnaya,1962</t>
         </is>
       </c>
+      <c r="AF290" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -31243,6 +32115,9 @@
           <t>N.I.Filatova,1967</t>
         </is>
       </c>
+      <c r="AF291" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -31346,6 +32221,9 @@
           <t>G.B.Zhilinsky,1941</t>
         </is>
       </c>
+      <c r="AF292" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -31453,6 +32331,9 @@
           <t>R.M.Beschastnova,1962</t>
         </is>
       </c>
+      <c r="AF293" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -31564,6 +32445,9 @@
           <t>N.N.Neznanov,1959</t>
         </is>
       </c>
+      <c r="AF294" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -31667,6 +32551,9 @@
           <t>A.Ya.Radzivill,1965</t>
         </is>
       </c>
+      <c r="AF295" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -31774,6 +32661,9 @@
           <t>A.K.Savel'ev,1949</t>
         </is>
       </c>
+      <c r="AF296" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -31885,6 +32775,9 @@
           <t>V.S.Bogoyavlensky,1964</t>
         </is>
       </c>
+      <c r="AF297" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -31992,6 +32885,9 @@
           <t>V.A.Shkursky,1962</t>
         </is>
       </c>
+      <c r="AF298" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -32099,6 +32995,9 @@
           <t>L.I.Sereda,1966</t>
         </is>
       </c>
+      <c r="AF299" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -32206,6 +33105,9 @@
           <t>A.V.Andrianov,1939</t>
         </is>
       </c>
+      <c r="AF300" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -32309,6 +33211,9 @@
           <t>G.B.Zhilinsky,1940</t>
         </is>
       </c>
+      <c r="AF301" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -32420,6 +33325,9 @@
           <t>A.M.Demin,1950</t>
         </is>
       </c>
+      <c r="AF302" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -32531,6 +33439,9 @@
           <t>B.L.Flerov,1958</t>
         </is>
       </c>
+      <c r="AF303" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -32642,6 +33553,9 @@
           <t>V.I.Teplykh,1963</t>
         </is>
       </c>
+      <c r="AF304" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -32749,6 +33663,9 @@
           <t>V.S.Degtyarev,1960</t>
         </is>
       </c>
+      <c r="AF305" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -32852,6 +33769,9 @@
           <t>V.G.Zheltovsky,1975</t>
         </is>
       </c>
+      <c r="AF306" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -32959,6 +33879,9 @@
           <t>A.Ya.Radzivill,1960</t>
         </is>
       </c>
+      <c r="AF307" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -33066,6 +33989,9 @@
           <t>D.F.Egorov,1957</t>
         </is>
       </c>
+      <c r="AF308" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -33177,6 +34103,9 @@
           <t>A.I.Grigor'ev,1965</t>
         </is>
       </c>
+      <c r="AF309" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -33280,6 +34209,9 @@
           <t>M.I.Rokhlin,1930</t>
         </is>
       </c>
+      <c r="AF310" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -33379,6 +34311,9 @@
           <t>V.I.Shavel',1967</t>
         </is>
       </c>
+      <c r="AF311" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -33482,6 +34417,9 @@
           <t>V.G.Zheltovsky,1973</t>
         </is>
       </c>
+      <c r="AF312" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -33589,6 +34527,9 @@
           <t>B.D.Trunov,1963</t>
         </is>
       </c>
+      <c r="AF313" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -33696,6 +34637,9 @@
           <t>A.G.Senotrusov,1964</t>
         </is>
       </c>
+      <c r="AF314" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -33803,6 +34747,9 @@
           <t>A.S.Bochkarev,l984</t>
         </is>
       </c>
+      <c r="AF315" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -33906,6 +34853,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF316" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -34009,6 +34959,9 @@
           <t>V.A.Kasatkin,1963</t>
         </is>
       </c>
+      <c r="AF317" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -34120,6 +35073,9 @@
           <t>S.G.Zhelnina'1957</t>
         </is>
       </c>
+      <c r="AF318" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -34223,6 +35179,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF319" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -34326,6 +35285,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF320" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -34437,6 +35399,9 @@
           <t>D.S.Golota,1953</t>
         </is>
       </c>
+      <c r="AF321" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -34548,6 +35513,9 @@
           <t>V.A.Zakharov,1958</t>
         </is>
       </c>
+      <c r="AF322" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -34651,6 +35619,9 @@
           <t>Yu.M.Dovgal',1962</t>
         </is>
       </c>
+      <c r="AF323" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -34758,6 +35729,9 @@
           <t>M.I.Rokhlin,1936</t>
         </is>
       </c>
+      <c r="AF324" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -34869,6 +35843,9 @@
           <t>B.L.Flerov,1959</t>
         </is>
       </c>
+      <c r="AF325" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -34972,6 +35949,9 @@
           <t>V.A.Kitaev,1963</t>
         </is>
       </c>
+      <c r="AF326" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -35075,6 +36055,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF327" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -35182,6 +36165,9 @@
           <t>V.P.Vasilenko,1966</t>
         </is>
       </c>
+      <c r="AF328" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -35285,6 +36271,9 @@
           <t>S.G.Zhelnina,1965</t>
         </is>
       </c>
+      <c r="AF329" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -35388,6 +36377,9 @@
           <t>M.I.Rokhlin,1937</t>
         </is>
       </c>
+      <c r="AF330" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -35491,6 +36483,9 @@
           <t>A.K.Savel'ev,1949</t>
         </is>
       </c>
+      <c r="AF331" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -35590,6 +36585,9 @@
           <t>A.A.Alekseev,1968</t>
         </is>
       </c>
+      <c r="AF332" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -35697,6 +36695,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF333" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -35796,6 +36797,9 @@
           <t>S.S.Lobunetz,1968</t>
         </is>
       </c>
+      <c r="AF334" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -35907,6 +36911,9 @@
           <t>A.V.Andrianov,1940</t>
         </is>
       </c>
+      <c r="AF335" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -36010,6 +37017,9 @@
           <t>G.V.Zhilinsky,1940</t>
         </is>
       </c>
+      <c r="AF336" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -36113,6 +37123,9 @@
           <t>N.M.Keppen,1941</t>
         </is>
       </c>
+      <c r="AF337" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -36212,6 +37225,9 @@
           <t>E.G.Bordyugov,1978</t>
         </is>
       </c>
+      <c r="AF338" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -36323,6 +37339,9 @@
           <t>B.L.Flerov,1958</t>
         </is>
       </c>
+      <c r="AF339" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -36434,6 +37453,9 @@
           <t>A.M.Demin,1950</t>
         </is>
       </c>
+      <c r="AF340" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -36537,6 +37559,9 @@
           <t>A.G.Senotrusov,1965</t>
         </is>
       </c>
+      <c r="AF341" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -36644,6 +37669,9 @@
           <t>V.I.Shkursky,1962</t>
         </is>
       </c>
+      <c r="AF342" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -36743,6 +37771,9 @@
           <t>A.A.Alekseev 1968</t>
         </is>
       </c>
+      <c r="AF343" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -36850,6 +37881,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF344" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -36953,6 +37987,9 @@
           <t>B.F.Palymsky,1964</t>
         </is>
       </c>
+      <c r="AF345" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -37052,6 +38089,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF346" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -37159,6 +38199,9 @@
           <t>A.G.Maltizov,1959</t>
         </is>
       </c>
+      <c r="AF347" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -37266,6 +38309,9 @@
           <t>I.I.Akramovsky,1960</t>
         </is>
       </c>
+      <c r="AF348" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -37373,6 +38419,9 @@
           <t>V.S.Degtyarev,1961</t>
         </is>
       </c>
+      <c r="AF349" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -37484,6 +38533,9 @@
           <t>A.M.Demin,1950</t>
         </is>
       </c>
+      <c r="AF350" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -37587,6 +38639,9 @@
           <t>S.P.Skuratovsky,1966</t>
         </is>
       </c>
+      <c r="AF351" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -37694,6 +38749,9 @@
           <t>M.N.Kozhemyako,1947</t>
         </is>
       </c>
+      <c r="AF352" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -37797,6 +38855,9 @@
           <t>M.I.Rokhlin,1937</t>
         </is>
       </c>
+      <c r="AF353" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -37900,6 +38961,9 @@
           <t>V.V.Gulevich,1963</t>
         </is>
       </c>
+      <c r="AF354" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -38011,6 +39075,9 @@
           <t>V.S.Degtyarev,1964</t>
         </is>
       </c>
+      <c r="AF355" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -38114,6 +39181,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF356" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -38213,6 +39283,9 @@
           <t>S.S.Lobunetz,1968</t>
         </is>
       </c>
+      <c r="AF357" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -38324,6 +39397,9 @@
           <t>I.A.Yudakov,1959</t>
         </is>
       </c>
+      <c r="AF358" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -38431,6 +39507,9 @@
           <t>B.M.Flerov,1953</t>
         </is>
       </c>
+      <c r="AF359" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -38534,6 +39613,9 @@
           <t>O.N.Ivanov,1972</t>
         </is>
       </c>
+      <c r="AF360" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -38645,6 +39727,9 @@
           <t>G.A.Kibanov,1958</t>
         </is>
       </c>
+      <c r="AF361" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -38748,6 +39833,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF362" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -38855,6 +39943,9 @@
           <t>K.S.Sukhov,1964</t>
         </is>
       </c>
+      <c r="AF363" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -38962,6 +40053,9 @@
           <t>N.N.Zlobin,1941</t>
         </is>
       </c>
+      <c r="AF364" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -39061,6 +40155,9 @@
           <t>E.K.Zotov,1965</t>
         </is>
       </c>
+      <c r="AF365" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -39164,6 +40261,9 @@
           <t>M.I.Rokhlin,1938</t>
         </is>
       </c>
+      <c r="AF366" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -39275,6 +40375,9 @@
           <t>B.L.Flerov,1959</t>
         </is>
       </c>
+      <c r="AF367" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -39378,6 +40481,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF368" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -39485,6 +40591,9 @@
           <t>G.P.Preobrazhensky,1969</t>
         </is>
       </c>
+      <c r="AF369" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -39588,6 +40697,9 @@
           <t>N.M.Zlobin,1941</t>
         </is>
       </c>
+      <c r="AF370" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -39691,6 +40803,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF371" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -39790,6 +40905,9 @@
           <t>E.K.Zotov,1965</t>
         </is>
       </c>
+      <c r="AF372" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -39889,6 +41007,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF373" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -39996,6 +41117,9 @@
           <t>G.I.Bogomolov'1965</t>
         </is>
       </c>
+      <c r="AF374" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -40099,6 +41223,9 @@
           <t>O.N.Ivanov,1972</t>
         </is>
       </c>
+      <c r="AF375" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -40206,6 +41333,9 @@
           <t>V.A.Ivanov,1967</t>
         </is>
       </c>
+      <c r="AF376" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -40305,6 +41435,9 @@
           <t>S.S.Lobunetz,1968</t>
         </is>
       </c>
+      <c r="AF377" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -40408,6 +41541,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF378" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -40511,6 +41647,9 @@
           <t>G.B.Zhilinsky,1940</t>
         </is>
       </c>
+      <c r="AF379" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -40614,6 +41753,9 @@
           <t>L.M.Karpasov,1965</t>
         </is>
       </c>
+      <c r="AF380" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -40713,6 +41855,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF381" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -40812,6 +41957,9 @@
           <t>Yu.I.Evstaf'ev,1966</t>
         </is>
       </c>
+      <c r="AF382" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -40915,6 +42063,9 @@
           <t>V.A.Ivanov,1967</t>
         </is>
       </c>
+      <c r="AF383" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -41022,6 +42173,9 @@
           <t>A.I.Timoschenko,1960</t>
         </is>
       </c>
+      <c r="AF384" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -41125,6 +42279,9 @@
           <t>O.N.Ivanov,1977</t>
         </is>
       </c>
+      <c r="AF385" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -41228,6 +42385,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF386" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -41335,6 +42495,9 @@
           <t>M.I.Rabkin,1940</t>
         </is>
       </c>
+      <c r="AF387" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -41442,6 +42605,9 @@
           <t>M.N.Zlobin,1941</t>
         </is>
       </c>
+      <c r="AF388" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -41541,6 +42707,9 @@
           <t>S.S.Lobunetz,1968</t>
         </is>
       </c>
+      <c r="AF389" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -41648,6 +42817,9 @@
           <t>G.P.Preobrazhensky,1969</t>
         </is>
       </c>
+      <c r="AF390" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -41747,6 +42919,9 @@
           <t>N.I.Filatova,1967</t>
         </is>
       </c>
+      <c r="AF391" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -41854,6 +43029,9 @@
           <t>L.M.Karpasov,1965</t>
         </is>
       </c>
+      <c r="AF392" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -41957,6 +43135,9 @@
           <t>S.F.Lugov,1953</t>
         </is>
       </c>
+      <c r="AF393" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -42068,6 +43249,9 @@
           <t>A.M.Demin,1950</t>
         </is>
       </c>
+      <c r="AF394" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -42171,6 +43355,9 @@
           <t>M.I.Rabkin,1941</t>
         </is>
       </c>
+      <c r="AF395" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -42282,6 +43469,9 @@
           <t>A.S.Skalatsky,1960</t>
         </is>
       </c>
+      <c r="AF396" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -42385,6 +43575,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF397" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -42496,6 +43689,9 @@
           <t>V.S.Degtyarev,1964</t>
         </is>
       </c>
+      <c r="AF398" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -42603,6 +43799,9 @@
           <t>A.G.Senotrusov,1965</t>
         </is>
       </c>
+      <c r="AF399" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -42702,6 +43901,9 @@
           <t>S.S.Lobunetz,1972</t>
         </is>
       </c>
+      <c r="AF400" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -42805,6 +44007,9 @@
           <t>S.P.Skuratovsky,1966</t>
         </is>
       </c>
+      <c r="AF401" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -42916,6 +44121,9 @@
           <t>A.I.Sadovsky,1963</t>
         </is>
       </c>
+      <c r="AF402" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -43019,6 +44227,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF403" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -43126,6 +44337,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF404" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -43225,6 +44439,9 @@
           <t>E.K.Zotov,1964</t>
         </is>
       </c>
+      <c r="AF405" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -43324,6 +44541,9 @@
           <t>I.I.Sonin,1968</t>
         </is>
       </c>
+      <c r="AF406" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -43427,6 +44647,9 @@
           <t>M.I.Rokhlin,1938</t>
         </is>
       </c>
+      <c r="AF407" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -43534,6 +44757,9 @@
           <t>R.M.Dautov,1940</t>
         </is>
       </c>
+      <c r="AF408" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -43637,6 +44863,9 @@
           <t>N.M.Keppen,1940</t>
         </is>
       </c>
+      <c r="AF409" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -43744,6 +44973,9 @@
           <t>V.A.Ivanov,1967</t>
         </is>
       </c>
+      <c r="AF410" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -43847,6 +45079,9 @@
           <t>S.M.Til'man,1956</t>
         </is>
       </c>
+      <c r="AF411" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -43950,6 +45185,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF412" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -44057,6 +45295,9 @@
           <t>S.E.Sinitsky,1953</t>
         </is>
       </c>
+      <c r="AF413" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -44160,6 +45401,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF414" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -44259,6 +45503,9 @@
           <t>V.I.Shavel',1967</t>
         </is>
       </c>
+      <c r="AF415" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -44366,6 +45613,9 @@
           <t>A.P.Shpetny,1948</t>
         </is>
       </c>
+      <c r="AF416" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -44469,6 +45719,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF417" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -44572,6 +45825,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF418" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -44679,6 +45935,9 @@
           <t>L.M.Karpasov,1965</t>
         </is>
       </c>
+      <c r="AF419" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -44778,6 +46037,9 @@
           <t>G.I.Agal'tsov,1961</t>
         </is>
       </c>
+      <c r="AF420" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -44881,6 +46143,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF421" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -44988,6 +46253,9 @@
           <t>V.I.Shkursky,1962</t>
         </is>
       </c>
+      <c r="AF422" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -45099,6 +46367,9 @@
           <t>Vlodavetz,1932</t>
         </is>
       </c>
+      <c r="AF423" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -45206,6 +46477,9 @@
           <t>M.N.Bogdanova,1967</t>
         </is>
       </c>
+      <c r="AF424" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -45313,6 +46587,9 @@
           <t>I.I.Akramovsky,1960</t>
         </is>
       </c>
+      <c r="AF425" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -45412,6 +46689,9 @@
           <t>A.A.Alekseev,1968</t>
         </is>
       </c>
+      <c r="AF426" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -45511,6 +46791,9 @@
           <t>A.S.Bochkarev,1984</t>
         </is>
       </c>
+      <c r="AF427" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -45610,6 +46893,9 @@
           <t>V.I.Shavel',1967</t>
         </is>
       </c>
+      <c r="AF428" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -45717,6 +47003,9 @@
           <t>G.P.Preobrazhensky,1969</t>
         </is>
       </c>
+      <c r="AF429" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -45820,6 +47109,9 @@
           <t>R.M.Dautov,1940</t>
         </is>
       </c>
+      <c r="AF430" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -45927,6 +47219,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF431" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -46034,6 +47329,9 @@
           <t>K.S.Sukhov,1964</t>
         </is>
       </c>
+      <c r="AF432" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -46145,6 +47443,9 @@
           <t>M.I.Gel'man,1960</t>
         </is>
       </c>
+      <c r="AF433" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -46248,6 +47549,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF434" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -46355,6 +47659,9 @@
           <t>N.M.Zlobin,1941</t>
         </is>
       </c>
+      <c r="AF435" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -46458,6 +47765,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF436" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -46561,6 +47871,9 @@
           <t>N.I.Filatova,1968</t>
         </is>
       </c>
+      <c r="AF437" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -46664,6 +47977,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF438" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -46767,6 +48083,9 @@
           <t>A.S.Bochkarev,1984</t>
         </is>
       </c>
+      <c r="AF439" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -46870,6 +48189,9 @@
           <t>S.S.Lobunetz,1968</t>
         </is>
       </c>
+      <c r="AF440" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -46977,6 +48299,9 @@
           <t>I.E.Zaedinova,1957</t>
         </is>
       </c>
+      <c r="AF441" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -47088,6 +48413,9 @@
           <t>G.K.Kleschev,1958</t>
         </is>
       </c>
+      <c r="AF442" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -47191,6 +48519,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF443" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -47294,6 +48625,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF444" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -47397,6 +48731,9 @@
           <t>E.G.Bordyugov,1973</t>
         </is>
       </c>
+      <c r="AF445" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -47500,6 +48837,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF446" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -47607,6 +48947,9 @@
           <t>S.P.Skuratovsky,1966</t>
         </is>
       </c>
+      <c r="AF447" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -47714,6 +49057,9 @@
           <t>V.P.Vasilenko,1966</t>
         </is>
       </c>
+      <c r="AF448" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -47817,6 +49163,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF449" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -47920,6 +49269,9 @@
           <t>S.G.Belobzhinsky's coll.,1973</t>
         </is>
       </c>
+      <c r="AF450" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -48023,6 +49375,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF451" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -48130,6 +49485,9 @@
           <t>V.l.Shkursky,1962</t>
         </is>
       </c>
+      <c r="AF452" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -48229,6 +49587,9 @@
           <t>N.I.Filatova,1968</t>
         </is>
       </c>
+      <c r="AF453" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -48328,6 +49689,9 @@
           <t>N.I.Filatova,1968</t>
         </is>
       </c>
+      <c r="AF454" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -48431,6 +49795,9 @@
           <t>A.B.Tsukernik,1969</t>
         </is>
       </c>
+      <c r="AF455" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -48530,6 +49897,9 @@
           <t>I.M.Mertsalov,1969</t>
         </is>
       </c>
+      <c r="AF456" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -48637,6 +50007,9 @@
           <t>A.V.Volokhin,1963</t>
         </is>
       </c>
+      <c r="AF457" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -48740,6 +50113,9 @@
           <t>V.A.Kasatkin,1963</t>
         </is>
       </c>
+      <c r="AF458" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -48847,6 +50223,9 @@
           <t>Yu.A.Novoselov,1968</t>
         </is>
       </c>
+      <c r="AF459" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -48950,6 +50329,9 @@
           <t>A.S.Bochkarev,1984</t>
         </is>
       </c>
+      <c r="AF460" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -49049,6 +50431,9 @@
           <t>Yu.I.Evstaf'ev,1966</t>
         </is>
       </c>
+      <c r="AF461" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -49148,6 +50533,9 @@
           <t>N.I.Filatova,1968</t>
         </is>
       </c>
+      <c r="AF462" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -49247,6 +50635,9 @@
           <t>A.A.Alekseev,1968</t>
         </is>
       </c>
+      <c r="AF463" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -49350,6 +50741,9 @@
           <t>L.I.Karpasov,1965</t>
         </is>
       </c>
+      <c r="AF464" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -49449,6 +50843,9 @@
           <t>I.M.Mertsalov,1969</t>
         </is>
       </c>
+      <c r="AF465" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -49552,6 +50949,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF466" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -49659,6 +51059,9 @@
           <t>A.G.Senotrusov,1965</t>
         </is>
       </c>
+      <c r="AF467" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -49762,6 +51165,9 @@
           <t>N.I.Filatova,1967</t>
         </is>
       </c>
+      <c r="AF468" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -49873,6 +51279,9 @@
           <t>L.l.Sereda,1966</t>
         </is>
       </c>
+      <c r="AF469" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -49980,6 +51389,9 @@
           <t>Yu.A.Novoselov,1968</t>
         </is>
       </c>
+      <c r="AF470" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -50083,6 +51495,9 @@
           <t>V.A.Faradzhev,1971</t>
         </is>
       </c>
+      <c r="AF471" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -50186,6 +51601,9 @@
           <t>A.G.Senotrusov,1965</t>
         </is>
       </c>
+      <c r="AF472" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -50285,6 +51703,9 @@
           <t>A.A.Alekseev,1968</t>
         </is>
       </c>
+      <c r="AF473" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -50388,6 +51809,9 @@
           <t>S.S.Lobunetz,1968</t>
         </is>
       </c>
+      <c r="AF474" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -50487,6 +51911,9 @@
           <t>E.A.Struve,1940</t>
         </is>
       </c>
+      <c r="AF475" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -50594,6 +52021,9 @@
           <t>V.A.lgnat'ev,1964</t>
         </is>
       </c>
+      <c r="AF476" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -50704,6 +52134,9 @@
         <is>
           <t>M.G.Ravich,1938</t>
         </is>
+      </c>
+      <c r="AF477" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -528,13 +528,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2658756.199843404</v>
+        <v>2050353.428231929</v>
       </c>
       <c r="C2" t="n">
-        <v>8977876.47730417</v>
+        <v>8197871.095554211</v>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -642,13 +642,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>3407252.23465374</v>
+        <v>2854771.282159828</v>
       </c>
       <c r="C3" t="n">
-        <v>9268630.981326904</v>
+        <v>8130272.218795746</v>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -748,13 +748,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>3541576.742367718</v>
+        <v>2922611.642515131</v>
       </c>
       <c r="C4" t="n">
-        <v>9166210.135311997</v>
+        <v>7983956.459408976</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="n">
-        <v>2918794.805360467</v>
+        <v>2510216.288098942</v>
       </c>
       <c r="C5" t="n">
-        <v>9463232.836515026</v>
+        <v>8514109.925894653</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>62</v>
       </c>
       <c r="B6" t="n">
-        <v>3011466.283924336</v>
+        <v>2632070.028298804</v>
       </c>
       <c r="C6" t="n">
-        <v>9534472.805270422</v>
+        <v>8534833.048167717</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1070,13 +1070,13 @@
         <v>72</v>
       </c>
       <c r="B7" t="n">
-        <v>3027703.15147494</v>
+        <v>2475431.191650053</v>
       </c>
       <c r="C7" t="n">
-        <v>9183555.761794262</v>
+        <v>8223820.974042245</v>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1176,13 +1176,13 @@
         <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>2976093.436674807</v>
+        <v>2519725.600780226</v>
       </c>
       <c r="C8" t="n">
-        <v>9375757.761765605</v>
+        <v>8412977.971442502</v>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1282,13 +1282,13 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>3410959.214459116</v>
+        <v>2851352.402997625</v>
       </c>
       <c r="C9" t="n">
-        <v>9254884.19481704</v>
+        <v>8117012.731305528</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1392,13 +1392,13 @@
         <v>107</v>
       </c>
       <c r="B10" t="n">
-        <v>2645711.747949637</v>
+        <v>2177610.65885314</v>
       </c>
       <c r="C10" t="n">
-        <v>9294354.796445863</v>
+        <v>8482802.816237705</v>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1502,13 +1502,13 @@
         <v>115</v>
       </c>
       <c r="B11" t="n">
-        <v>2674497.141302613</v>
+        <v>2205346.284126809</v>
       </c>
       <c r="C11" t="n">
-        <v>9297060.58882224</v>
+        <v>8473099.585284036</v>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1612,13 +1612,13 @@
         <v>130</v>
       </c>
       <c r="B12" t="n">
-        <v>3331368.445693372</v>
+        <v>2419354.655741303</v>
       </c>
       <c r="C12" t="n">
-        <v>8433726.220796464</v>
+        <v>7450588.876818015</v>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1722,13 +1722,13 @@
         <v>156</v>
       </c>
       <c r="B13" t="n">
-        <v>2916178.306624892</v>
+        <v>2512841.981194024</v>
       </c>
       <c r="C13" t="n">
-        <v>9473305.010904402</v>
+        <v>8524028.341028662</v>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1836,13 +1836,13 @@
         <v>187</v>
       </c>
       <c r="B14" t="n">
-        <v>2712489.963461259</v>
+        <v>2317179.246580563</v>
       </c>
       <c r="C14" t="n">
-        <v>9459977.915399974</v>
+        <v>8600699.178188352</v>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1950,13 +1950,13 @@
         <v>231</v>
       </c>
       <c r="B15" t="n">
-        <v>2646771.193475692</v>
+        <v>2180299.589886772</v>
       </c>
       <c r="C15" t="n">
-        <v>9298113.027167434</v>
+        <v>8485680.043282401</v>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2056,13 +2056,13 @@
         <v>266</v>
       </c>
       <c r="B16" t="n">
-        <v>2675358.718184735</v>
+        <v>2207597.41434201</v>
       </c>
       <c r="C16" t="n">
-        <v>9300243.872338412</v>
+        <v>8475547.422605775</v>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2162,13 +2162,13 @@
         <v>273</v>
       </c>
       <c r="B17" t="n">
-        <v>2749677.245757556</v>
+        <v>2358918.085654525</v>
       </c>
       <c r="C17" t="n">
-        <v>9474559.781442642</v>
+        <v>8597551.411126243</v>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2276,13 +2276,13 @@
         <v>323</v>
       </c>
       <c r="B18" t="n">
-        <v>3164456.714396954</v>
+        <v>2372325.663925354</v>
       </c>
       <c r="C18" t="n">
-        <v>8671979.18071801</v>
+        <v>7723545.585964266</v>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2386,13 +2386,13 @@
         <v>331</v>
       </c>
       <c r="B19" t="n">
-        <v>3448894.348717041</v>
+        <v>2600447.501489391</v>
       </c>
       <c r="C19" t="n">
-        <v>8624544.851424746</v>
+        <v>7565775.243686185</v>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2496,13 +2496,13 @@
         <v>338</v>
       </c>
       <c r="B20" t="n">
-        <v>2924627.287025966</v>
+        <v>2531881.899552428</v>
       </c>
       <c r="C20" t="n">
-        <v>9495574.039477844</v>
+        <v>8539694.352940984</v>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2602,13 +2602,13 @@
         <v>352</v>
       </c>
       <c r="B21" t="n">
-        <v>2668706.96701075</v>
+        <v>2197105.815174512</v>
       </c>
       <c r="C21" t="n">
-        <v>9290692.309091385</v>
+        <v>8469911.063149946</v>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2712,13 +2712,13 @@
         <v>361</v>
       </c>
       <c r="B22" t="n">
-        <v>2772490.418235084</v>
+        <v>2327106.282661563</v>
       </c>
       <c r="C22" t="n">
-        <v>9364591.058810141</v>
+        <v>8491069.743229151</v>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2818,13 +2818,13 @@
         <v>368</v>
       </c>
       <c r="B23" t="n">
-        <v>2954525.648327742</v>
+        <v>2181523.57951439</v>
       </c>
       <c r="C23" t="n">
-        <v>8659493.474458123</v>
+        <v>7798088.361922031</v>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2928,13 +2928,13 @@
         <v>371</v>
       </c>
       <c r="B24" t="n">
-        <v>2773921.482899557</v>
+        <v>2327227.947673808</v>
       </c>
       <c r="C24" t="n">
-        <v>9362058.165019497</v>
+        <v>8488232.807320725</v>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         <v>372</v>
       </c>
       <c r="B25" t="n">
-        <v>2650458.416957316</v>
+        <v>2183119.604478056</v>
       </c>
       <c r="C25" t="n">
-        <v>9296851.734699868</v>
+        <v>8483017.319505638</v>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3148,13 +3148,13 @@
         <v>377</v>
       </c>
       <c r="B26" t="n">
-        <v>2915303.891963307</v>
+        <v>2510847.85970035</v>
       </c>
       <c r="C26" t="n">
-        <v>9470939.866376691</v>
+        <v>8522352.518634558</v>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3258,13 +3258,13 @@
         <v>392</v>
       </c>
       <c r="B27" t="n">
-        <v>3297885.347635768</v>
+        <v>2695213.430659981</v>
       </c>
       <c r="C27" t="n">
-        <v>9136313.252824312</v>
+        <v>8066374.629229059</v>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3364,13 +3364,13 @@
         <v>427</v>
       </c>
       <c r="B28" t="n">
-        <v>3203395.371723018</v>
+        <v>2803535.237729592</v>
       </c>
       <c r="C28" t="n">
-        <v>9527012.923788844</v>
+        <v>8441491.50634994</v>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3466,13 +3466,13 @@
         <v>429</v>
       </c>
       <c r="B29" t="n">
-        <v>3386275.722454259</v>
+        <v>2537183.659782406</v>
       </c>
       <c r="C29" t="n">
-        <v>8603075.27690931</v>
+        <v>7573295.803466639</v>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3572,13 +3572,13 @@
         <v>446</v>
       </c>
       <c r="B30" t="n">
-        <v>2663448.866946047</v>
+        <v>2190236.007538082</v>
       </c>
       <c r="C30" t="n">
-        <v>9286238.013134507</v>
+        <v>8468185.936898705</v>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3678,13 +3678,13 @@
         <v>453</v>
       </c>
       <c r="B31" t="n">
-        <v>2721339.886874362</v>
+        <v>2233108.624084522</v>
       </c>
       <c r="C31" t="n">
-        <v>9263613.066707408</v>
+        <v>8423891.494360333</v>
       </c>
       <c r="D31" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3788,13 +3788,13 @@
         <v>503</v>
       </c>
       <c r="B32" t="n">
-        <v>2907691.273031177</v>
+        <v>2527860.419310238</v>
       </c>
       <c r="C32" t="n">
-        <v>9518533.017751275</v>
+        <v>8567144.873842461</v>
       </c>
       <c r="D32" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3898,13 +3898,13 @@
         <v>537</v>
       </c>
       <c r="B33" t="n">
-        <v>2751365.627439505</v>
+        <v>2359621.099511299</v>
       </c>
       <c r="C33" t="n">
-        <v>9472786.560055654</v>
+        <v>8595263.652841667</v>
       </c>
       <c r="D33" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4012,13 +4012,13 @@
         <v>538</v>
       </c>
       <c r="B34" t="n">
-        <v>2633725.628513035</v>
+        <v>2059139.103020129</v>
       </c>
       <c r="C34" t="n">
-        <v>9051308.360629469</v>
+        <v>8272987.920538742</v>
       </c>
       <c r="D34" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4122,13 +4122,13 @@
         <v>539</v>
       </c>
       <c r="B35" t="n">
-        <v>2648948.530338438</v>
+        <v>2182595.407087046</v>
       </c>
       <c r="C35" t="n">
-        <v>9298750.013589391</v>
+        <v>8485328.920143953</v>
       </c>
       <c r="D35" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4232,13 +4232,13 @@
         <v>562</v>
       </c>
       <c r="B36" t="n">
-        <v>2668723.976772764</v>
+        <v>2197115.578998066</v>
       </c>
       <c r="C36" t="n">
-        <v>9290679.414193269</v>
+        <v>8469892.528581299</v>
       </c>
       <c r="D36" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4342,13 +4342,13 @@
         <v>573</v>
       </c>
       <c r="B37" t="n">
-        <v>2675371.235771031</v>
+        <v>2207604.634426291</v>
       </c>
       <c r="C37" t="n">
-        <v>9300234.478590246</v>
+        <v>8475533.862326106</v>
       </c>
       <c r="D37" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4452,13 +4452,13 @@
         <v>582</v>
       </c>
       <c r="B38" t="n">
-        <v>2672938.234819045</v>
+        <v>2176500.923346499</v>
       </c>
       <c r="C38" t="n">
-        <v>9236688.045127306</v>
+        <v>8420456.395126259</v>
       </c>
       <c r="D38" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4562,13 +4562,13 @@
         <v>586</v>
       </c>
       <c r="B39" t="n">
-        <v>3075080.303221834</v>
+        <v>2587018.10201094</v>
       </c>
       <c r="C39" t="n">
-        <v>9328603.430631695</v>
+        <v>8328868.18115938</v>
       </c>
       <c r="D39" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4672,13 +4672,13 @@
         <v>599</v>
       </c>
       <c r="B40" t="n">
-        <v>2648070.827771703</v>
+        <v>2180355.99260833</v>
       </c>
       <c r="C40" t="n">
-        <v>9295612.553028788</v>
+        <v>8482924.45459778</v>
       </c>
       <c r="D40" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4782,13 +4782,13 @@
         <v>624</v>
       </c>
       <c r="B41" t="n">
-        <v>3075289.361395899</v>
+        <v>2690589.022608177</v>
       </c>
       <c r="C41" t="n">
-        <v>9534154.965313278</v>
+        <v>8505857.477886576</v>
       </c>
       <c r="D41" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4888,13 +4888,13 @@
         <v>647</v>
       </c>
       <c r="B42" t="n">
-        <v>3278004.518350101</v>
+        <v>2500263.959371219</v>
       </c>
       <c r="C42" t="n">
-        <v>8738492.516252842</v>
+        <v>7734066.131996347</v>
       </c>
       <c r="D42" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4998,13 +4998,13 @@
         <v>648</v>
       </c>
       <c r="B43" t="n">
-        <v>3365988.136348491</v>
+        <v>2443816.029641709</v>
       </c>
       <c r="C43" t="n">
-        <v>8420177.012532027</v>
+        <v>7425028.292691658</v>
       </c>
       <c r="D43" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -5108,13 +5108,13 @@
         <v>650</v>
       </c>
       <c r="B44" t="n">
-        <v>2915135.425686534</v>
+        <v>2510821.39986896</v>
       </c>
       <c r="C44" t="n">
-        <v>9471197.810882002</v>
+        <v>8522651.074649399</v>
       </c>
       <c r="D44" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         <v>664</v>
       </c>
       <c r="B45" t="n">
-        <v>2753967.674096747</v>
+        <v>2358064.987385472</v>
       </c>
       <c r="C45" t="n">
-        <v>9464658.691713659</v>
+        <v>8586993.064707676</v>
       </c>
       <c r="D45" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5336,13 +5336,13 @@
         <v>687</v>
       </c>
       <c r="B46" t="n">
-        <v>2704691.851955715</v>
+        <v>2304376.473295202</v>
       </c>
       <c r="C46" t="n">
-        <v>9448511.137836143</v>
+        <v>8593929.819878889</v>
       </c>
       <c r="D46" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5446,13 +5446,13 @@
         <v>711</v>
       </c>
       <c r="B47" t="n">
-        <v>2928340.238885718</v>
+        <v>2534561.739116629</v>
       </c>
       <c r="C47" t="n">
-        <v>9494082.402528843</v>
+        <v>8536760.177732658</v>
       </c>
       <c r="D47" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5552,13 +5552,13 @@
         <v>712</v>
       </c>
       <c r="B48" t="n">
-        <v>3532564.672712003</v>
+        <v>2908976.09172021</v>
       </c>
       <c r="C48" t="n">
-        <v>9153884.874204947</v>
+        <v>7977659.963387194</v>
       </c>
       <c r="D48" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5662,13 +5662,13 @@
         <v>760</v>
       </c>
       <c r="B49" t="n">
-        <v>3264948.123995324</v>
+        <v>2546595.409583373</v>
       </c>
       <c r="C49" t="n">
-        <v>8871871.532618441</v>
+        <v>7854059.083222367</v>
       </c>
       <c r="D49" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5764,13 +5764,13 @@
         <v>774</v>
       </c>
       <c r="B50" t="n">
-        <v>3563617.753337681</v>
+        <v>2938932.345625798</v>
       </c>
       <c r="C50" t="n">
-        <v>9160511.345455293</v>
+        <v>7969315.592642202</v>
       </c>
       <c r="D50" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5874,13 +5874,13 @@
         <v>782</v>
       </c>
       <c r="B51" t="n">
-        <v>2749400.354908955</v>
+        <v>2357687.582661331</v>
       </c>
       <c r="C51" t="n">
-        <v>9472575.082679145</v>
+        <v>8595924.772327472</v>
       </c>
       <c r="D51" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5988,13 +5988,13 @@
         <v>797</v>
       </c>
       <c r="B52" t="n">
-        <v>3218283.236980504</v>
+        <v>2521447.696487566</v>
       </c>
       <c r="C52" t="n">
-        <v>8908268.001004379</v>
+        <v>7904993.358570579</v>
       </c>
       <c r="D52" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6094,13 +6094,13 @@
         <v>800</v>
       </c>
       <c r="B53" t="n">
-        <v>2904571.761130568</v>
+        <v>2341860.942699676</v>
       </c>
       <c r="C53" t="n">
-        <v>9135091.70708649</v>
+        <v>8233939.169158965</v>
       </c>
       <c r="D53" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6208,13 +6208,13 @@
         <v>806</v>
       </c>
       <c r="B54" t="n">
-        <v>2882244.445535488</v>
+        <v>2313680.828458767</v>
       </c>
       <c r="C54" t="n">
-        <v>9117419.055164274</v>
+        <v>8227889.503350131</v>
       </c>
       <c r="D54" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6322,13 +6322,13 @@
         <v>808</v>
       </c>
       <c r="B55" t="n">
-        <v>3403200.600803012</v>
+        <v>2845891.300074123</v>
       </c>
       <c r="C55" t="n">
-        <v>9257680.155061025</v>
+        <v>8122850.610625232</v>
       </c>
       <c r="D55" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6428,13 +6428,13 @@
         <v>811</v>
       </c>
       <c r="B56" t="n">
-        <v>2777472.998678516</v>
+        <v>2255639.226705811</v>
       </c>
       <c r="C56" t="n">
-        <v>9200119.062687067</v>
+        <v>8344417.456186407</v>
       </c>
       <c r="D56" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         <v>821</v>
       </c>
       <c r="B57" t="n">
-        <v>2561564.575779501</v>
+        <v>1958360.692844832</v>
       </c>
       <c r="C57" t="n">
-        <v>8968369.924460959</v>
+        <v>8229137.546517346</v>
       </c>
       <c r="D57" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6644,13 +6644,13 @@
         <v>831</v>
       </c>
       <c r="B58" t="n">
-        <v>2770918.23399578</v>
+        <v>2326536.992963608</v>
       </c>
       <c r="C58" t="n">
-        <v>9366453.081429565</v>
+        <v>8493377.524551291</v>
       </c>
       <c r="D58" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6758,13 +6758,13 @@
         <v>833</v>
       </c>
       <c r="B59" t="n">
-        <v>2656260.643780697</v>
+        <v>2188201.307637976</v>
       </c>
       <c r="C59" t="n">
-        <v>9296280.582118789</v>
+        <v>8480076.043024193</v>
       </c>
       <c r="D59" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -6872,13 +6872,13 @@
         <v>838</v>
       </c>
       <c r="B60" t="n">
-        <v>2769169.75229965</v>
+        <v>2359641.32806659</v>
       </c>
       <c r="C60" t="n">
-        <v>9438889.970150681</v>
+        <v>8557792.040358284</v>
       </c>
       <c r="D60" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -6982,13 +6982,13 @@
         <v>840</v>
       </c>
       <c r="B61" t="n">
-        <v>2705013.696236042</v>
+        <v>2163903.50170965</v>
       </c>
       <c r="C61" t="n">
-        <v>9142775.534011597</v>
+        <v>8324237.894215667</v>
       </c>
       <c r="D61" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7096,13 +7096,13 @@
         <v>852</v>
       </c>
       <c r="B62" t="n">
-        <v>3249032.834684411</v>
+        <v>2488753.664253624</v>
       </c>
       <c r="C62" t="n">
-        <v>8770898.541669672</v>
+        <v>7773950.84532095</v>
       </c>
       <c r="D62" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7202,13 +7202,13 @@
         <v>866</v>
       </c>
       <c r="B63" t="n">
-        <v>3517248.793483561</v>
+        <v>2899011.895176025</v>
       </c>
       <c r="C63" t="n">
-        <v>9160847.476577654</v>
+        <v>7990337.452619149</v>
       </c>
       <c r="D63" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7308,13 +7308,13 @@
         <v>867</v>
       </c>
       <c r="B64" t="n">
-        <v>2661039.561349898</v>
+        <v>2197224.87106977</v>
       </c>
       <c r="C64" t="n">
-        <v>9306387.87627364</v>
+        <v>8486996.842594221</v>
       </c>
       <c r="D64" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7422,13 +7422,13 @@
         <v>891</v>
       </c>
       <c r="B65" t="n">
-        <v>2770904.72191145</v>
+        <v>2326528.983494611</v>
       </c>
       <c r="C65" t="n">
-        <v>9366462.503712334</v>
+        <v>8493391.575325865</v>
       </c>
       <c r="D65" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7528,13 +7528,13 @@
         <v>909</v>
       </c>
       <c r="B66" t="n">
-        <v>3269422.932190659</v>
+        <v>2821488.770674709</v>
       </c>
       <c r="C66" t="n">
-        <v>9447054.892230552</v>
+        <v>8343479.282399743</v>
       </c>
       <c r="D66" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7638,13 +7638,13 @@
         <v>916</v>
       </c>
       <c r="B67" t="n">
-        <v>3285782.395556006</v>
+        <v>2547552.29901594</v>
       </c>
       <c r="C67" t="n">
-        <v>8832181.692498064</v>
+        <v>7811241.863596868</v>
       </c>
       <c r="D67" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7740,13 +7740,13 @@
         <v>918</v>
       </c>
       <c r="B68" t="n">
-        <v>2924781.596855125</v>
+        <v>2532747.317862433</v>
       </c>
       <c r="C68" t="n">
-        <v>9497000.157676168</v>
+        <v>8540866.987837341</v>
       </c>
       <c r="D68" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7846,13 +7846,13 @@
         <v>919</v>
       </c>
       <c r="B69" t="n">
-        <v>2756176.732334226</v>
+        <v>2367222.436459986</v>
       </c>
       <c r="C69" t="n">
-        <v>9479144.85478865</v>
+        <v>8598780.485264035</v>
       </c>
       <c r="D69" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7960,13 +7960,13 @@
         <v>929</v>
       </c>
       <c r="B70" t="n">
-        <v>2757133.472846899</v>
+        <v>2371357.425874321</v>
       </c>
       <c r="C70" t="n">
-        <v>9485733.96507849</v>
+        <v>8604161.512002427</v>
       </c>
       <c r="D70" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         <v>942</v>
       </c>
       <c r="B71" t="n">
-        <v>2667523.008419007</v>
+        <v>2200625.037228531</v>
       </c>
       <c r="C71" t="n">
-        <v>9300773.017037965</v>
+        <v>8479310.897096239</v>
       </c>
       <c r="D71" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -8184,13 +8184,13 @@
         <v>950</v>
       </c>
       <c r="B72" t="n">
-        <v>2879399.353552055</v>
+        <v>2528471.147604715</v>
       </c>
       <c r="C72" t="n">
-        <v>9570837.968409216</v>
+        <v>8625220.09017442</v>
       </c>
       <c r="D72" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -8294,13 +8294,13 @@
         <v>957</v>
       </c>
       <c r="B73" t="n">
-        <v>2919769.506709809</v>
+        <v>2515042.104278532</v>
       </c>
       <c r="C73" t="n">
-        <v>9471073.42882707</v>
+        <v>8520508.785107736</v>
       </c>
       <c r="D73" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -8408,13 +8408,13 @@
         <v>958</v>
       </c>
       <c r="B74" t="n">
-        <v>3436866.592813374</v>
+        <v>2908168.03242852</v>
       </c>
       <c r="C74" t="n">
-        <v>9324483.750231747</v>
+        <v>8163893.133824119</v>
       </c>
       <c r="D74" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -8514,13 +8514,13 @@
         <v>963</v>
       </c>
       <c r="B75" t="n">
-        <v>3235523.953723602</v>
+        <v>2453959.958511464</v>
       </c>
       <c r="C75" t="n">
-        <v>8717288.031760121</v>
+        <v>7733416.135329748</v>
       </c>
       <c r="D75" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -8616,13 +8616,13 @@
         <v>975</v>
       </c>
       <c r="B76" t="n">
-        <v>2911959.079198888</v>
+        <v>2515612.654290889</v>
       </c>
       <c r="C76" t="n">
-        <v>9486577.874491192</v>
+        <v>8537439.879362496</v>
       </c>
       <c r="D76" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -8722,13 +8722,13 @@
         <v>977</v>
       </c>
       <c r="B77" t="n">
-        <v>2926348.726270922</v>
+        <v>2532560.603447909</v>
       </c>
       <c r="C77" t="n">
-        <v>9493768.982629152</v>
+        <v>8537365.386940112</v>
       </c>
       <c r="D77" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -8828,13 +8828,13 @@
         <v>979</v>
       </c>
       <c r="B78" t="n">
-        <v>3520732.455949947</v>
+        <v>2929812.467730111</v>
       </c>
       <c r="C78" t="n">
-        <v>9219022.408356534</v>
+        <v>8037532.944310261</v>
       </c>
       <c r="D78" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -8938,13 +8938,13 @@
         <v>984</v>
       </c>
       <c r="B79" t="n">
-        <v>2941026.779661916</v>
+        <v>2542338.530956963</v>
       </c>
       <c r="C79" t="n">
-        <v>9486274.041604785</v>
+        <v>8524377.402882632</v>
       </c>
       <c r="D79" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -9048,13 +9048,13 @@
         <v>991</v>
       </c>
       <c r="B80" t="n">
-        <v>2772487.107471717</v>
+        <v>2327104.322257858</v>
       </c>
       <c r="C80" t="n">
-        <v>9364593.371624826</v>
+        <v>8491073.189398311</v>
       </c>
       <c r="D80" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -9162,13 +9162,13 @@
         <v>1003</v>
       </c>
       <c r="B81" t="n">
-        <v>2926607.988969998</v>
+        <v>2533876.875549186</v>
       </c>
       <c r="C81" t="n">
-        <v>9495894.061221348</v>
+        <v>8539099.63501949</v>
       </c>
       <c r="D81" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -9268,13 +9268,13 @@
         <v>1070</v>
       </c>
       <c r="B82" t="n">
-        <v>2776789.214815497</v>
+        <v>2331828.299951927</v>
       </c>
       <c r="C82" t="n">
-        <v>9366184.169870997</v>
+        <v>8490633.826943085</v>
       </c>
       <c r="D82" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -9378,13 +9378,13 @@
         <v>1074</v>
       </c>
       <c r="B83" t="n">
-        <v>3326580.439885982</v>
+        <v>2423598.573669677</v>
       </c>
       <c r="C83" t="n">
-        <v>8454240.939576356</v>
+        <v>7470125.027214079</v>
       </c>
       <c r="D83" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -9488,13 +9488,13 @@
         <v>1076</v>
       </c>
       <c r="B84" t="n">
-        <v>2952807.45017234</v>
+        <v>2180405.267539099</v>
       </c>
       <c r="C84" t="n">
-        <v>8660474.527002199</v>
+        <v>7799639.078895715</v>
       </c>
       <c r="D84" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -9598,13 +9598,13 @@
         <v>1085</v>
       </c>
       <c r="B85" t="n">
-        <v>2744089.795230936</v>
+        <v>2354365.042821431</v>
       </c>
       <c r="C85" t="n">
-        <v>9475888.154191133</v>
+        <v>8601128.539321097</v>
       </c>
       <c r="D85" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -9712,13 +9712,13 @@
         <v>1086</v>
       </c>
       <c r="B86" t="n">
-        <v>2749278.01990779</v>
+        <v>2357258.667148654</v>
       </c>
       <c r="C86" t="n">
-        <v>9471931.976706807</v>
+        <v>8595411.730716133</v>
       </c>
       <c r="D86" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -9826,13 +9826,13 @@
         <v>1090</v>
       </c>
       <c r="B87" t="n">
-        <v>3061946.526432114</v>
+        <v>2370991.354244962</v>
       </c>
       <c r="C87" t="n">
-        <v>8881350.834339308</v>
+        <v>7947135.011841515</v>
       </c>
       <c r="D87" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -9932,13 +9932,13 @@
         <v>1091</v>
       </c>
       <c r="B88" t="n">
-        <v>2926529.474371098</v>
+        <v>2533442.983872842</v>
       </c>
       <c r="C88" t="n">
-        <v>9495181.079652235</v>
+        <v>8538514.061659856</v>
       </c>
       <c r="D88" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -10038,13 +10038,13 @@
         <v>1094</v>
       </c>
       <c r="B89" t="n">
-        <v>3218285.535368457</v>
+        <v>2790162.261541323</v>
       </c>
       <c r="C89" t="n">
-        <v>9475520.378335327</v>
+        <v>8390924.937871741</v>
       </c>
       <c r="D89" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -10140,13 +10140,13 @@
         <v>1097</v>
       </c>
       <c r="B90" t="n">
-        <v>3260412.642791842</v>
+        <v>2548360.581193153</v>
       </c>
       <c r="C90" t="n">
-        <v>8884980.434174869</v>
+        <v>7867224.373530711</v>
       </c>
       <c r="D90" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -10242,13 +10242,13 @@
         <v>1100</v>
       </c>
       <c r="B91" t="n">
-        <v>2675364.575357866</v>
+        <v>2207600.792736878</v>
       </c>
       <c r="C91" t="n">
-        <v>9300239.476867516</v>
+        <v>8475541.077548401</v>
       </c>
       <c r="D91" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -10352,13 +10352,13 @@
         <v>1118</v>
       </c>
       <c r="B92" t="n">
-        <v>3093820.846869575</v>
+        <v>2366093.103586061</v>
       </c>
       <c r="C92" t="n">
-        <v>8804275.165050866</v>
+        <v>7867087.456258206</v>
       </c>
       <c r="D92" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -10458,13 +10458,13 @@
         <v>1119</v>
       </c>
       <c r="B93" t="n">
-        <v>3357691.633365138</v>
+        <v>2605491.408761897</v>
       </c>
       <c r="C93" t="n">
-        <v>8820662.080954645</v>
+        <v>7771150.488806945</v>
       </c>
       <c r="D93" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -10564,13 +10564,13 @@
         <v>1126</v>
       </c>
       <c r="B94" t="n">
-        <v>3526848.177320354</v>
+        <v>2889970.891647284</v>
       </c>
       <c r="C94" t="n">
-        <v>9124067.567002589</v>
+        <v>7955193.229357097</v>
       </c>
       <c r="D94" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -10670,13 +10670,13 @@
         <v>1134</v>
       </c>
       <c r="B95" t="n">
-        <v>3090077.441353897</v>
+        <v>2395993.663608578</v>
       </c>
       <c r="C95" t="n">
-        <v>8881295.344837515</v>
+        <v>7935386.931777221</v>
       </c>
       <c r="D95" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -10780,13 +10780,13 @@
         <v>1136</v>
       </c>
       <c r="B96" t="n">
-        <v>2920752.269362784</v>
+        <v>2528331.380862618</v>
       </c>
       <c r="C96" t="n">
-        <v>9495644.781627202</v>
+        <v>8541463.421799723</v>
       </c>
       <c r="D96" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -10886,13 +10886,13 @@
         <v>1173</v>
       </c>
       <c r="B97" t="n">
-        <v>2749570.663988313</v>
+        <v>2358498.974346311</v>
       </c>
       <c r="C97" t="n">
-        <v>9473907.291188128</v>
+        <v>8597023.347934933</v>
       </c>
       <c r="D97" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -11000,13 +11000,13 @@
         <v>1179</v>
       </c>
       <c r="B98" t="n">
-        <v>2640468.698644625</v>
+        <v>2164544.280206938</v>
       </c>
       <c r="C98" t="n">
-        <v>9276215.675171759</v>
+        <v>8468966.231797768</v>
       </c>
       <c r="D98" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -11114,13 +11114,13 @@
         <v>1182</v>
       </c>
       <c r="B99" t="n">
-        <v>3405574.656225937</v>
+        <v>2854384.017874563</v>
       </c>
       <c r="C99" t="n">
-        <v>9270864.787465362</v>
+        <v>8132910.021529789</v>
       </c>
       <c r="D99" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -11220,13 +11220,13 @@
         <v>1185</v>
       </c>
       <c r="B100" t="n">
-        <v>3596282.751361175</v>
+        <v>2713043.337604723</v>
       </c>
       <c r="C100" t="n">
-        <v>8591436.819637183</v>
+        <v>7476543.673813507</v>
       </c>
       <c r="D100" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -11326,13 +11326,13 @@
         <v>1195</v>
       </c>
       <c r="B101" t="n">
-        <v>2664379.429660737</v>
+        <v>2199157.84081033</v>
       </c>
       <c r="C101" t="n">
-        <v>9303891.243381184</v>
+        <v>8483386.924250077</v>
       </c>
       <c r="D101" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -11440,13 +11440,13 @@
         <v>1237</v>
       </c>
       <c r="B102" t="n">
-        <v>2772475.323298991</v>
+        <v>2327097.344467715</v>
       </c>
       <c r="C102" t="n">
-        <v>9364601.6037066</v>
+        <v>8491085.45549464</v>
       </c>
       <c r="D102" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -11554,13 +11554,13 @@
         <v>1271</v>
       </c>
       <c r="B103" t="n">
-        <v>2673883.282692875</v>
+        <v>2197255.710304403</v>
       </c>
       <c r="C103" t="n">
-        <v>9280583.124241123</v>
+        <v>8458810.641817162</v>
       </c>
       <c r="D103" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -11668,13 +11668,13 @@
         <v>1318</v>
       </c>
       <c r="B104" t="n">
-        <v>3565029.011934507</v>
+        <v>2920783.283362731</v>
       </c>
       <c r="C104" t="n">
-        <v>9119473.431990076</v>
+        <v>7934355.475886483</v>
       </c>
       <c r="D104" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -11774,13 +11774,13 @@
         <v>1351</v>
       </c>
       <c r="B105" t="n">
-        <v>3070886.811822322</v>
+        <v>2468999.25766527</v>
       </c>
       <c r="C105" t="n">
-        <v>9084601.311024569</v>
+        <v>8119609.63119794</v>
       </c>
       <c r="D105" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -11884,13 +11884,13 @@
         <v>1409</v>
       </c>
       <c r="B106" t="n">
-        <v>3446639.695541106</v>
+        <v>2878466.218094109</v>
       </c>
       <c r="C106" t="n">
-        <v>9246303.29416834</v>
+        <v>8093766.668961994</v>
       </c>
       <c r="D106" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -11990,13 +11990,13 @@
         <v>1410</v>
       </c>
       <c r="B107" t="n">
-        <v>2954101.748410244</v>
+        <v>2552032.633137147</v>
       </c>
       <c r="C107" t="n">
-        <v>9481569.403318429</v>
+        <v>8514521.439707335</v>
       </c>
       <c r="D107" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -12100,13 +12100,13 @@
         <v>1430</v>
       </c>
       <c r="B108" t="n">
-        <v>3440357.682052491</v>
+        <v>2854794.497499005</v>
       </c>
       <c r="C108" t="n">
-        <v>9208551.120932098</v>
+        <v>8064786.852040312</v>
       </c>
       <c r="D108" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -12210,13 +12210,13 @@
         <v>1438</v>
       </c>
       <c r="B109" t="n">
-        <v>2681939.933564357</v>
+        <v>2201489.964081734</v>
       </c>
       <c r="C109" t="n">
-        <v>9273620.879945211</v>
+        <v>8449281.453240586</v>
       </c>
       <c r="D109" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -12324,13 +12324,13 @@
         <v>1441</v>
       </c>
       <c r="B110" t="n">
-        <v>2792480.332710965</v>
+        <v>2430826.537725993</v>
       </c>
       <c r="C110" t="n">
-        <v>9538744.012454765</v>
+        <v>8635371.786399355</v>
       </c>
       <c r="D110" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -12434,13 +12434,13 @@
         <v>1442</v>
       </c>
       <c r="B111" t="n">
-        <v>3552710.003813799</v>
+        <v>2921998.905631982</v>
       </c>
       <c r="C111" t="n">
-        <v>9144612.362689693</v>
+        <v>7960895.132427508</v>
       </c>
       <c r="D111" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -12540,13 +12540,13 @@
         <v>1448</v>
       </c>
       <c r="B112" t="n">
-        <v>3208955.872125605</v>
+        <v>2782931.016193982</v>
       </c>
       <c r="C112" t="n">
-        <v>9477817.153927507</v>
+        <v>8397121.95128883</v>
       </c>
       <c r="D112" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -12642,13 +12642,13 @@
         <v>1460</v>
       </c>
       <c r="B113" t="n">
-        <v>2641731.696581714</v>
+        <v>2161433.738233706</v>
       </c>
       <c r="C113" t="n">
-        <v>9266777.738244707</v>
+        <v>8460094.330094861</v>
       </c>
       <c r="D113" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -12752,13 +12752,13 @@
         <v>1474</v>
       </c>
       <c r="B114" t="n">
-        <v>2924691.775808915</v>
+        <v>2532306.765746454</v>
       </c>
       <c r="C114" t="n">
-        <v>9496294.861098321</v>
+        <v>8540293.013713188</v>
       </c>
       <c r="D114" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -12858,13 +12858,13 @@
         <v>1486</v>
       </c>
       <c r="B115" t="n">
-        <v>2757022.542222034</v>
+        <v>2370934.280960543</v>
       </c>
       <c r="C115" t="n">
-        <v>9485085.161979327</v>
+        <v>8603638.923899945</v>
       </c>
       <c r="D115" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -12968,13 +12968,13 @@
         <v>1488</v>
       </c>
       <c r="B116" t="n">
-        <v>2914984.00195085</v>
+        <v>2508579.990237438</v>
       </c>
       <c r="C116" t="n">
-        <v>9467001.144073363</v>
+        <v>8519062.670016909</v>
       </c>
       <c r="D116" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -13082,13 +13082,13 @@
         <v>1495</v>
       </c>
       <c r="B117" t="n">
-        <v>2631369.04612076</v>
+        <v>2030022.003740918</v>
       </c>
       <c r="C117" t="n">
-        <v>8988327.660064165</v>
+        <v>8218306.530684993</v>
       </c>
       <c r="D117" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -13196,13 +13196,13 @@
         <v>1496</v>
       </c>
       <c r="B118" t="n">
-        <v>2570510.451925617</v>
+        <v>1981973.378533948</v>
       </c>
       <c r="C118" t="n">
-        <v>9005002.339486737</v>
+        <v>8257927.967970906</v>
       </c>
       <c r="D118" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -13306,13 +13306,13 @@
         <v>1497</v>
       </c>
       <c r="B119" t="n">
-        <v>2398569.586338749</v>
+        <v>1802587.124474776</v>
       </c>
       <c r="C119" t="n">
-        <v>8948879.085562414</v>
+        <v>8277927.480825451</v>
       </c>
       <c r="D119" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -13416,13 +13416,13 @@
         <v>1540</v>
       </c>
       <c r="B120" t="n">
-        <v>2990118.949540897</v>
+        <v>2576666.690611673</v>
       </c>
       <c r="C120" t="n">
-        <v>9464643.247018052</v>
+        <v>8483927.173138214</v>
       </c>
       <c r="D120" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -13526,13 +13526,13 @@
         <v>1541</v>
       </c>
       <c r="B121" t="n">
-        <v>3111399.494263656</v>
+        <v>2681900.783319375</v>
       </c>
       <c r="C121" t="n">
-        <v>9453265.675711242</v>
+        <v>8420146.944601908</v>
       </c>
       <c r="D121" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -13636,13 +13636,13 @@
         <v>1545</v>
       </c>
       <c r="B122" t="n">
-        <v>3278880.907510998</v>
+        <v>2460294.446788446</v>
       </c>
       <c r="C122" t="n">
-        <v>8642557.425827617</v>
+        <v>7651279.487443026</v>
       </c>
       <c r="D122" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -13742,13 +13742,13 @@
         <v>1551</v>
       </c>
       <c r="B123" t="n">
-        <v>3037367.684209274</v>
+        <v>2594303.128876168</v>
       </c>
       <c r="C123" t="n">
-        <v>9413366.377506943</v>
+        <v>8418678.743423926</v>
       </c>
       <c r="D123" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -13856,13 +13856,13 @@
         <v>1569</v>
       </c>
       <c r="B124" t="n">
-        <v>3027712.746730898</v>
+        <v>2555995.583606442</v>
       </c>
       <c r="C124" t="n">
-        <v>9353415.273326196</v>
+        <v>8371055.337990424</v>
       </c>
       <c r="D124" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -13970,13 +13970,13 @@
         <v>1593</v>
       </c>
       <c r="B125" t="n">
-        <v>2916085.62617209</v>
+        <v>2512401.35731882</v>
       </c>
       <c r="C125" t="n">
-        <v>9472597.315852674</v>
+        <v>8523452.778424878</v>
       </c>
       <c r="D125" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -14084,13 +14084,13 @@
         <v>1607</v>
       </c>
       <c r="B126" t="n">
-        <v>2791621.84683154</v>
+        <v>2425969.453233939</v>
       </c>
       <c r="C126" t="n">
-        <v>9530720.948301367</v>
+        <v>8628708.070373613</v>
       </c>
       <c r="D126" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -14190,13 +14190,13 @@
         <v>1627</v>
       </c>
       <c r="B127" t="n">
-        <v>3224705.149699279</v>
+        <v>2476249.884988956</v>
       </c>
       <c r="C127" t="n">
-        <v>8791541.7511115</v>
+        <v>7801831.214582358</v>
       </c>
       <c r="D127" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -14296,13 +14296,13 @@
         <v>1640</v>
       </c>
       <c r="B128" t="n">
-        <v>3264750.460782998</v>
+        <v>2546806.605151532</v>
       </c>
       <c r="C128" t="n">
-        <v>8872749.350074971</v>
+        <v>7854895.916960541</v>
       </c>
       <c r="D128" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -14398,13 +14398,13 @@
         <v>1645</v>
       </c>
       <c r="B129" t="n">
-        <v>2920611.702234498</v>
+        <v>2527475.96544302</v>
       </c>
       <c r="C129" t="n">
-        <v>9494211.854539679</v>
+        <v>8540278.387099527</v>
       </c>
       <c r="D129" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -14508,13 +14508,13 @@
         <v>1659</v>
       </c>
       <c r="B130" t="n">
-        <v>2928479.44828969</v>
+        <v>2535419.188279403</v>
       </c>
       <c r="C130" t="n">
-        <v>9495520.647902677</v>
+        <v>8537949.710646246</v>
       </c>
       <c r="D130" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -14610,13 +14610,13 @@
         <v>1677</v>
       </c>
       <c r="B131" t="n">
-        <v>2900944.639801648</v>
+        <v>2322400.797037154</v>
       </c>
       <c r="C131" t="n">
-        <v>9099094.908197414</v>
+        <v>8204014.303205427</v>
       </c>
       <c r="D131" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -14724,13 +14724,13 @@
         <v>1698</v>
       </c>
       <c r="B132" t="n">
-        <v>3409216.365850065</v>
+        <v>2856275.225804502</v>
       </c>
       <c r="C132" t="n">
-        <v>9268174.921941772</v>
+        <v>8129005.229625715</v>
       </c>
       <c r="D132" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -14838,13 +14838,13 @@
         <v>1703</v>
       </c>
       <c r="B133" t="n">
-        <v>3241101.336387115</v>
+        <v>2557365.070797338</v>
       </c>
       <c r="C133" t="n">
-        <v>8943865.229695177</v>
+        <v>7925958.374384288</v>
       </c>
       <c r="D133" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -14944,13 +14944,13 @@
         <v>1777</v>
       </c>
       <c r="B134" t="n">
-        <v>2789389.100007406</v>
+        <v>2422391.734616367</v>
       </c>
       <c r="C134" t="n">
-        <v>9527761.07422985</v>
+        <v>8627084.360038539</v>
       </c>
       <c r="D134" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -15054,13 +15054,13 @@
         <v>1779</v>
       </c>
       <c r="B135" t="n">
-        <v>3239156.515349821</v>
+        <v>2492562.024340007</v>
       </c>
       <c r="C135" t="n">
-        <v>8799877.241462227</v>
+        <v>7802987.907110197</v>
       </c>
       <c r="D135" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -15160,13 +15160,13 @@
         <v>1782</v>
       </c>
       <c r="B136" t="n">
-        <v>3266367.986919456</v>
+        <v>2547408.774231691</v>
       </c>
       <c r="C136" t="n">
-        <v>8870877.428337112</v>
+        <v>7852607.988880948</v>
       </c>
       <c r="D136" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -15262,13 +15262,13 @@
         <v>1805</v>
       </c>
       <c r="B137" t="n">
-        <v>2686399.318281664</v>
+        <v>2087494.027927425</v>
       </c>
       <c r="C137" t="n">
-        <v>9006209.969445862</v>
+        <v>8211532.989602925</v>
       </c>
       <c r="D137" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -15376,13 +15376,13 @@
         <v>1815</v>
       </c>
       <c r="B138" t="n">
-        <v>3559801.143625873</v>
+        <v>2931894.754815274</v>
       </c>
       <c r="C138" t="n">
-        <v>9152603.126930339</v>
+        <v>7964411.723943605</v>
       </c>
       <c r="D138" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -15482,13 +15482,13 @@
         <v>1822</v>
       </c>
       <c r="B139" t="n">
-        <v>2665863.832166006</v>
+        <v>2171488.905880701</v>
       </c>
       <c r="C139" t="n">
-        <v>9239963.107693318</v>
+        <v>8426307.247840662</v>
       </c>
       <c r="D139" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -15592,13 +15592,13 @@
         <v>1829</v>
       </c>
       <c r="B140" t="n">
-        <v>2871038.099063895</v>
+        <v>2259060.699593963</v>
       </c>
       <c r="C140" t="n">
-        <v>9017030.281036546</v>
+        <v>8144742.99554194</v>
       </c>
       <c r="D140" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -15702,13 +15702,13 @@
         <v>1845</v>
       </c>
       <c r="B141" t="n">
-        <v>3229565.130601009</v>
+        <v>2437293.900710106</v>
       </c>
       <c r="C141" t="n">
-        <v>8690348.597769376</v>
+        <v>7712673.61533662</v>
       </c>
       <c r="D141" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -15804,13 +15804,13 @@
         <v>1857</v>
       </c>
       <c r="B142" t="n">
-        <v>3300244.224277901</v>
+        <v>2697809.365552577</v>
       </c>
       <c r="C142" t="n">
-        <v>9137401.366641035</v>
+        <v>8066274.101550961</v>
       </c>
       <c r="D142" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -15918,13 +15918,13 @@
         <v>1867</v>
       </c>
       <c r="B143" t="n">
-        <v>2880847.969075227</v>
+        <v>2302378.49469801</v>
       </c>
       <c r="C143" t="n">
-        <v>9094975.789829986</v>
+        <v>8208845.850542209</v>
       </c>
       <c r="D143" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -16028,13 +16028,13 @@
         <v>1873</v>
       </c>
       <c r="B144" t="n">
-        <v>3218581.365213453</v>
+        <v>2453294.804742144</v>
       </c>
       <c r="C144" t="n">
-        <v>8750621.230767623</v>
+        <v>7769128.892934784</v>
       </c>
       <c r="D144" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -16134,13 +16134,13 @@
         <v>1881</v>
       </c>
       <c r="B145" t="n">
-        <v>2752241.924914398</v>
+        <v>2363344.649225693</v>
       </c>
       <c r="C145" t="n">
-        <v>9478712.216239655</v>
+        <v>8600098.012454495</v>
       </c>
       <c r="D145" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -16248,13 +16248,13 @@
         <v>1882</v>
       </c>
       <c r="B146" t="n">
-        <v>2644852.954890704</v>
+        <v>2172260.840694903</v>
       </c>
       <c r="C146" t="n">
-        <v>9284334.096530193</v>
+        <v>8474305.641124096</v>
       </c>
       <c r="D146" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -16358,13 +16358,13 @@
         <v>1893</v>
       </c>
       <c r="B147" t="n">
-        <v>2556337.833593867</v>
+        <v>1940118.409441593</v>
       </c>
       <c r="C147" t="n">
-        <v>8936255.736242384</v>
+        <v>8202822.030025099</v>
       </c>
       <c r="D147" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -16464,13 +16464,13 @@
         <v>1896</v>
       </c>
       <c r="B148" t="n">
-        <v>2761410.154188421</v>
+        <v>2162597.75989265</v>
       </c>
       <c r="C148" t="n">
-        <v>9022919.410326542</v>
+        <v>8195345.444286561</v>
       </c>
       <c r="D148" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -16570,13 +16570,13 @@
         <v>1900</v>
       </c>
       <c r="B149" t="n">
-        <v>3233113.953392858</v>
+        <v>2544450.612741273</v>
       </c>
       <c r="C149" t="n">
-        <v>8930668.118464429</v>
+        <v>7917998.83214919</v>
       </c>
       <c r="D149" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -16676,13 +16676,13 @@
         <v>1901</v>
       </c>
       <c r="B150" t="n">
-        <v>3233111.367305406</v>
+        <v>2544449.466417588</v>
       </c>
       <c r="C150" t="n">
-        <v>8930670.687247874</v>
+        <v>7918002.133727681</v>
       </c>
       <c r="D150" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -16782,13 +16782,13 @@
         <v>1907</v>
       </c>
       <c r="B151" t="n">
-        <v>2939948.251778821</v>
+        <v>2578935.080200225</v>
       </c>
       <c r="C151" t="n">
-        <v>9559521.842005905</v>
+        <v>8588473.590151437</v>
       </c>
       <c r="D151" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -16888,13 +16888,13 @@
         <v>1915</v>
       </c>
       <c r="B152" t="n">
-        <v>2845503.549694158</v>
+        <v>2303699.309076569</v>
       </c>
       <c r="C152" t="n">
-        <v>9169310.614148846</v>
+        <v>8288766.373494728</v>
       </c>
       <c r="D152" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -17002,13 +17002,13 @@
         <v>1924</v>
       </c>
       <c r="B153" t="n">
-        <v>2672748.208548973</v>
+        <v>2176037.999515941</v>
       </c>
       <c r="C153" t="n">
-        <v>9236047.133973345</v>
+        <v>8419970.119837983</v>
       </c>
       <c r="D153" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -17116,13 +17116,13 @@
         <v>1926</v>
       </c>
       <c r="B154" t="n">
-        <v>2405254.357223716</v>
+        <v>1810368.546574525</v>
       </c>
       <c r="C154" t="n">
-        <v>8953035.040689351</v>
+        <v>8278924.30998089</v>
       </c>
       <c r="D154" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -17226,13 +17226,13 @@
         <v>1927</v>
       </c>
       <c r="B155" t="n">
-        <v>2675491.118690518</v>
+        <v>2188614.446598423</v>
       </c>
       <c r="C155" t="n">
-        <v>9258315.496843785</v>
+        <v>8438478.666906985</v>
       </c>
       <c r="D155" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -17340,13 +17340,13 @@
         <v>1955</v>
       </c>
       <c r="B156" t="n">
-        <v>2569615.992635114</v>
+        <v>1982300.545753671</v>
       </c>
       <c r="C156" t="n">
-        <v>9007681.57777152</v>
+        <v>8260665.544619408</v>
       </c>
       <c r="D156" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -17450,13 +17450,13 @@
         <v>1973</v>
       </c>
       <c r="B157" t="n">
-        <v>2975327.711963008</v>
+        <v>2564811.913117652</v>
       </c>
       <c r="C157" t="n">
-        <v>9468126.365938883</v>
+        <v>8493483.245243769</v>
       </c>
       <c r="D157" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -17556,13 +17556,13 @@
         <v>1988</v>
       </c>
       <c r="B158" t="n">
-        <v>2716770.692602054</v>
+        <v>2231251.584028837</v>
       </c>
       <c r="C158" t="n">
-        <v>9268730.240614049</v>
+        <v>8430323.413266327</v>
       </c>
       <c r="D158" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -17666,13 +17666,13 @@
         <v>1994</v>
       </c>
       <c r="B159" t="n">
-        <v>2764995.957829083</v>
+        <v>2165139.354674189</v>
       </c>
       <c r="C159" t="n">
-        <v>9021301.59309788</v>
+        <v>8192441.519470518</v>
       </c>
       <c r="D159" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -17780,13 +17780,13 @@
         <v>1995</v>
       </c>
       <c r="B160" t="n">
-        <v>2990827.156887816</v>
+        <v>2578647.856039047</v>
       </c>
       <c r="C160" t="n">
-        <v>9467278.603364624</v>
+        <v>8485897.10979096</v>
       </c>
       <c r="D160" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -17890,13 +17890,13 @@
         <v>1998</v>
       </c>
       <c r="B161" t="n">
-        <v>3122216.016771544</v>
+        <v>2381888.685195218</v>
       </c>
       <c r="C161" t="n">
-        <v>8782422.258464294</v>
+        <v>7836432.586088446</v>
       </c>
       <c r="D161" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -17996,13 +17996,13 @@
         <v>2003</v>
       </c>
       <c r="B162" t="n">
-        <v>3107251.252056607</v>
+        <v>2329584.146517267</v>
       </c>
       <c r="C162" t="n">
-        <v>8690247.955311034</v>
+        <v>7762751.37415346</v>
       </c>
       <c r="D162" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -18098,13 +18098,13 @@
         <v>2029</v>
       </c>
       <c r="B163" t="n">
-        <v>2644481.358996349</v>
+        <v>2168223.431551447</v>
       </c>
       <c r="C163" t="n">
-        <v>9276191.546804333</v>
+        <v>8467264.158230333</v>
       </c>
       <c r="D163" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -18212,13 +18212,13 @@
         <v>2035</v>
       </c>
       <c r="B164" t="n">
-        <v>2673155.596394035</v>
+        <v>2176979.066599506</v>
       </c>
       <c r="C164" t="n">
-        <v>9237306.974596225</v>
+        <v>8420911.820257604</v>
       </c>
       <c r="D164" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -18322,13 +18322,13 @@
         <v>2047</v>
       </c>
       <c r="B165" t="n">
-        <v>2730159.215975852</v>
+        <v>2242436.611643739</v>
       </c>
       <c r="C165" t="n">
-        <v>9266315.395957079</v>
+        <v>8422558.026970478</v>
       </c>
       <c r="D165" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -18436,13 +18436,13 @@
         <v>2058</v>
       </c>
       <c r="B166" t="n">
-        <v>2398569.479402701</v>
+        <v>1802587.076615645</v>
       </c>
       <c r="C166" t="n">
-        <v>8948879.203635432</v>
+        <v>8277927.629107055</v>
       </c>
       <c r="D166" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -18546,13 +18546,13 @@
         <v>2071</v>
       </c>
       <c r="B167" t="n">
-        <v>2669338.875360245</v>
+        <v>2170928.521132144</v>
       </c>
       <c r="C167" t="n">
-        <v>9231638.783715067</v>
+        <v>8417504.126491316</v>
       </c>
       <c r="D167" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -18660,13 +18660,13 @@
         <v>2074</v>
       </c>
       <c r="B168" t="n">
-        <v>2910303.132282287</v>
+        <v>2545532.238231248</v>
       </c>
       <c r="C168" t="n">
-        <v>9548227.277416117</v>
+        <v>8591834.631928185</v>
       </c>
       <c r="D168" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -18770,13 +18770,13 @@
         <v>2093</v>
       </c>
       <c r="B169" t="n">
-        <v>2978336.022702858</v>
+        <v>2565527.877195036</v>
       </c>
       <c r="C169" t="n">
-        <v>9464051.110632436</v>
+        <v>8488620.616002847</v>
       </c>
       <c r="D169" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -18876,13 +18876,13 @@
         <v>2112</v>
       </c>
       <c r="B170" t="n">
-        <v>2681847.279799786</v>
+        <v>2080988.226422739</v>
       </c>
       <c r="C170" t="n">
-        <v>9000653.720754785</v>
+        <v>8208502.3979201</v>
       </c>
       <c r="D170" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -18986,13 +18986,13 @@
         <v>2136</v>
       </c>
       <c r="B171" t="n">
-        <v>3553193.702787206</v>
+        <v>2934950.25210278</v>
       </c>
       <c r="C171" t="n">
-        <v>9171060.676773861</v>
+        <v>7982810.024280421</v>
       </c>
       <c r="D171" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -19092,13 +19092,13 @@
         <v>2140</v>
       </c>
       <c r="B172" t="n">
-        <v>3567598.916540013</v>
+        <v>2917521.202949784</v>
       </c>
       <c r="C172" t="n">
-        <v>9107794.662110977</v>
+        <v>7923434.669632301</v>
       </c>
       <c r="D172" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -19198,13 +19198,13 @@
         <v>2141</v>
       </c>
       <c r="B173" t="n">
-        <v>3144047.814327041</v>
+        <v>2756205.290944179</v>
       </c>
       <c r="C173" t="n">
-        <v>9539443.859041478</v>
+        <v>8479197.087280534</v>
       </c>
       <c r="D173" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -19304,13 +19304,13 @@
         <v>2177</v>
       </c>
       <c r="B174" t="n">
-        <v>2714010.919674721</v>
+        <v>2227527.042757575</v>
       </c>
       <c r="C174" t="n">
-        <v>9266121.763355682</v>
+        <v>8429186.186349828</v>
       </c>
       <c r="D174" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -19414,13 +19414,13 @@
         <v>2180</v>
       </c>
       <c r="B175" t="n">
-        <v>2683413.200186449</v>
+        <v>2205163.808463904</v>
       </c>
       <c r="C175" t="n">
-        <v>9278711.531050073</v>
+        <v>8453154.966732148</v>
       </c>
       <c r="D175" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -19528,13 +19528,13 @@
         <v>2204</v>
       </c>
       <c r="B176" t="n">
-        <v>3539595.463291871</v>
+        <v>2916490.292327904</v>
       </c>
       <c r="C176" t="n">
-        <v>9156913.869944371</v>
+        <v>7977057.105067106</v>
       </c>
       <c r="D176" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -19634,13 +19634,13 @@
         <v>2208</v>
       </c>
       <c r="B177" t="n">
-        <v>3055882.191518815</v>
+        <v>2486269.507176285</v>
       </c>
       <c r="C177" t="n">
-        <v>9151962.697355587</v>
+        <v>8184367.192863829</v>
       </c>
       <c r="D177" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -19744,13 +19744,13 @@
         <v>2270</v>
       </c>
       <c r="B178" t="n">
-        <v>2730360.046831365</v>
+        <v>2242913.327755781</v>
       </c>
       <c r="C178" t="n">
-        <v>9266954.701702982</v>
+        <v>8423036.418601707</v>
       </c>
       <c r="D178" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -19858,13 +19858,13 @@
         <v>2278</v>
       </c>
       <c r="B179" t="n">
-        <v>3543548.020493737</v>
+        <v>2928727.870440624</v>
       </c>
       <c r="C179" t="n">
-        <v>9175492.36298033</v>
+        <v>7990843.334738241</v>
       </c>
       <c r="D179" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -19968,13 +19968,13 @@
         <v>2292</v>
       </c>
       <c r="B180" t="n">
-        <v>2716775.715239738</v>
+        <v>2231254.424566107</v>
       </c>
       <c r="C180" t="n">
-        <v>9268726.365047162</v>
+        <v>8430317.883968361</v>
       </c>
       <c r="D180" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -20078,13 +20078,13 @@
         <v>2302</v>
       </c>
       <c r="B181" t="n">
-        <v>2718035.574078734</v>
+        <v>2227988.595456943</v>
       </c>
       <c r="C181" t="n">
-        <v>9259035.075431092</v>
+        <v>8421248.323515018</v>
       </c>
       <c r="D181" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -20188,13 +20188,13 @@
         <v>2313</v>
       </c>
       <c r="B182" t="n">
-        <v>3333310.694513173</v>
+        <v>2558500.800696678</v>
       </c>
       <c r="C182" t="n">
-        <v>8761429.397515167</v>
+        <v>7730714.145023065</v>
       </c>
       <c r="D182" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -20294,13 +20294,13 @@
         <v>2335</v>
       </c>
       <c r="B183" t="n">
-        <v>2949581.617403612</v>
+        <v>2588144.836943462</v>
       </c>
       <c r="C183" t="n">
-        <v>9560036.872201368</v>
+        <v>8584624.553886253</v>
       </c>
       <c r="D183" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -20404,13 +20404,13 @@
         <v>2339</v>
       </c>
       <c r="B184" t="n">
-        <v>2712902.739312039</v>
+        <v>2227981.841857939</v>
       </c>
       <c r="C184" t="n">
-        <v>9269346.482298516</v>
+        <v>8432494.460890396</v>
       </c>
       <c r="D184" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -20514,13 +20514,13 @@
         <v>2350</v>
       </c>
       <c r="B185" t="n">
-        <v>2930387.773476358</v>
+        <v>2536984.156990817</v>
       </c>
       <c r="C185" t="n">
-        <v>9495125.158430228</v>
+        <v>8536764.232146755</v>
       </c>
       <c r="D185" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -20620,13 +20620,13 @@
         <v>2370</v>
       </c>
       <c r="B186" t="n">
-        <v>2420361.213158733</v>
+        <v>1834077.287984174</v>
       </c>
       <c r="C186" t="n">
-        <v>8977091.199268511</v>
+        <v>8294212.752953429</v>
       </c>
       <c r="D186" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -20730,13 +20730,13 @@
         <v>2387</v>
       </c>
       <c r="B187" t="n">
-        <v>2976123.416598777</v>
+        <v>2519743.058446601</v>
       </c>
       <c r="C187" t="n">
-        <v>9375737.276955023</v>
+        <v>8412947.101364797</v>
       </c>
       <c r="D187" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -20840,13 +20840,13 @@
         <v>2391</v>
       </c>
       <c r="B188" t="n">
-        <v>2847101.577021051</v>
+        <v>2298628.013297073</v>
       </c>
       <c r="C188" t="n">
-        <v>9154861.667011607</v>
+        <v>8275436.5422894</v>
       </c>
       <c r="D188" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -20946,13 +20946,13 @@
         <v>2394</v>
       </c>
       <c r="B189" t="n">
-        <v>3303447.610724476</v>
+        <v>2503740.047807002</v>
       </c>
       <c r="C189" t="n">
-        <v>8694479.688509414</v>
+        <v>7685742.35322732</v>
       </c>
       <c r="D189" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -21052,13 +21052,13 @@
         <v>2413</v>
       </c>
       <c r="B190" t="n">
-        <v>2703007.954174278</v>
+        <v>2164715.257481686</v>
       </c>
       <c r="C190" t="n">
-        <v>9148740.202755583</v>
+        <v>8330329.885834486</v>
       </c>
       <c r="D190" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -21166,13 +21166,13 @@
         <v>2430</v>
       </c>
       <c r="B191" t="n">
-        <v>2678269.060711039</v>
+        <v>2201876.102597649</v>
       </c>
       <c r="C191" t="n">
-        <v>9281872.282021634</v>
+        <v>8458106.195170036</v>
       </c>
       <c r="D191" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -21276,13 +21276,13 @@
         <v>2446</v>
       </c>
       <c r="B192" t="n">
-        <v>2611905.463256705</v>
+        <v>2016161.724851805</v>
       </c>
       <c r="C192" t="n">
-        <v>8997172.966657309</v>
+        <v>8234084.885539011</v>
       </c>
       <c r="D192" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -21390,13 +21390,13 @@
         <v>2455</v>
       </c>
       <c r="B193" t="n">
-        <v>2939946.557174491</v>
+        <v>2578934.00633123</v>
       </c>
       <c r="C193" t="n">
-        <v>9559522.800427223</v>
+        <v>8588475.177168351</v>
       </c>
       <c r="D193" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -21500,13 +21500,13 @@
         <v>2472</v>
       </c>
       <c r="B194" t="n">
-        <v>2683792.320132157</v>
+        <v>2202897.055451768</v>
       </c>
       <c r="C194" t="n">
-        <v>9272972.901935354</v>
+        <v>8447931.592210762</v>
       </c>
       <c r="D194" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -21610,13 +21610,13 @@
         <v>2473</v>
       </c>
       <c r="B195" t="n">
-        <v>2769483.194940147</v>
+        <v>2326409.223959795</v>
       </c>
       <c r="C195" t="n">
-        <v>9368979.454258319</v>
+        <v>8496210.862900363</v>
       </c>
       <c r="D195" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -21716,13 +21716,13 @@
         <v>2485</v>
       </c>
       <c r="B196" t="n">
-        <v>3439721.958892416</v>
+        <v>2855216.704836217</v>
       </c>
       <c r="C196" t="n">
-        <v>9210593.009233765</v>
+        <v>8066791.886343439</v>
       </c>
       <c r="D196" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -21826,13 +21826,13 @@
         <v>2486</v>
       </c>
       <c r="B197" t="n">
-        <v>2691160.941963346</v>
+        <v>2090166.853041542</v>
       </c>
       <c r="C197" t="n">
-        <v>9002397.525978344</v>
+        <v>8206215.404922847</v>
       </c>
       <c r="D197" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -21940,13 +21940,13 @@
         <v>2512</v>
       </c>
       <c r="B198" t="n">
-        <v>2676988.375094783</v>
+        <v>2180185.374695804</v>
       </c>
       <c r="C198" t="n">
-        <v>9236623.942107465</v>
+        <v>8418705.14607707</v>
       </c>
       <c r="D198" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -22050,13 +22050,13 @@
         <v>2533</v>
       </c>
       <c r="B199" t="n">
-        <v>2680327.042048927</v>
+        <v>2203757.606784924</v>
       </c>
       <c r="C199" t="n">
-        <v>9281848.699355604</v>
+        <v>8457220.567083204</v>
       </c>
       <c r="D199" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -22160,13 +22160,13 @@
         <v>2535</v>
       </c>
       <c r="B200" t="n">
-        <v>2741349.402540504</v>
+        <v>2097937.655164927</v>
       </c>
       <c r="C200" t="n">
-        <v>8914494.865907177</v>
+        <v>8108223.60529146</v>
       </c>
       <c r="D200" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -22270,13 +22270,13 @@
         <v>2546</v>
       </c>
       <c r="B201" t="n">
-        <v>2667185.949053965</v>
+        <v>2070056.208466647</v>
       </c>
       <c r="C201" t="n">
-        <v>9006115.549187135</v>
+        <v>8219338.4890322</v>
       </c>
       <c r="D201" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -22380,13 +22380,13 @@
         <v>2567</v>
       </c>
       <c r="B202" t="n">
-        <v>3134162.133091786</v>
+        <v>2357432.761860046</v>
       </c>
       <c r="C202" t="n">
-        <v>8699983.472467326</v>
+        <v>7760169.491837058</v>
       </c>
       <c r="D202" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -22482,13 +22482,13 @@
         <v>2584</v>
       </c>
       <c r="B203" t="n">
-        <v>3171592.138290955</v>
+        <v>2500867.723734303</v>
       </c>
       <c r="C203" t="n">
-        <v>8955241.758355206</v>
+        <v>7965147.540524391</v>
       </c>
       <c r="D203" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -22588,13 +22588,13 @@
         <v>2592</v>
       </c>
       <c r="B204" t="n">
-        <v>2980171.621628631</v>
+        <v>2589597.194337878</v>
       </c>
       <c r="C204" t="n">
-        <v>9508106.683632666</v>
+        <v>8525991.089110607</v>
       </c>
       <c r="D204" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -22702,13 +22702,13 @@
         <v>2610</v>
       </c>
       <c r="B205" t="n">
-        <v>2450766.897267171</v>
+        <v>1870418.174264145</v>
       </c>
       <c r="C205" t="n">
-        <v>8998031.17373958</v>
+        <v>8300499.877351571</v>
       </c>
       <c r="D205" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -22812,13 +22812,13 @@
         <v>2618</v>
       </c>
       <c r="B206" t="n">
-        <v>2589078.29157923</v>
+        <v>1986539.334784996</v>
       </c>
       <c r="C206" t="n">
-        <v>8976101.162982019</v>
+        <v>8224769.82717201</v>
       </c>
       <c r="D206" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -22922,13 +22922,13 @@
         <v>2619</v>
       </c>
       <c r="B207" t="n">
-        <v>2581310.93028027</v>
+        <v>1963516.158395175</v>
       </c>
       <c r="C207" t="n">
-        <v>8938201.911653388</v>
+        <v>8194397.409971538</v>
       </c>
       <c r="D207" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -23032,13 +23032,13 @@
         <v>2655</v>
       </c>
       <c r="B208" t="n">
-        <v>3554334.947933787</v>
+        <v>2924595.886006482</v>
       </c>
       <c r="C208" t="n">
-        <v>9147140.889888378</v>
+        <v>7962285.730853182</v>
       </c>
       <c r="D208" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -23138,13 +23138,13 @@
         <v>2665</v>
       </c>
       <c r="B209" t="n">
-        <v>2965669.934431442</v>
+        <v>2533653.18888581</v>
       </c>
       <c r="C209" t="n">
-        <v>9423548.560019504</v>
+        <v>8459043.953574443</v>
       </c>
       <c r="D209" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -23244,13 +23244,13 @@
         <v>2675</v>
       </c>
       <c r="B210" t="n">
-        <v>3249932.079067013</v>
+        <v>2544723.538478671</v>
       </c>
       <c r="C210" t="n">
-        <v>8897696.861196507</v>
+        <v>7882564.191811271</v>
       </c>
       <c r="D210" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -23354,13 +23354,13 @@
         <v>2689</v>
       </c>
       <c r="B211" t="n">
-        <v>3144829.864423387</v>
+        <v>2374181.21445109</v>
       </c>
       <c r="C211" t="n">
-        <v>8717349.964827798</v>
+        <v>7770817.781818343</v>
       </c>
       <c r="D211" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -23456,13 +23456,13 @@
         <v>2696</v>
       </c>
       <c r="B212" t="n">
-        <v>2952901.497992571</v>
+        <v>2539415.070141149</v>
       </c>
       <c r="C212" t="n">
-        <v>9458698.893913995</v>
+        <v>8495185.491382271</v>
       </c>
       <c r="D212" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -23562,13 +23562,13 @@
         <v>2702</v>
       </c>
       <c r="B213" t="n">
-        <v>2917110.61097417</v>
+        <v>2482000.145256268</v>
       </c>
       <c r="C213" t="n">
-        <v>9409350.52803505</v>
+        <v>8467909.103651056</v>
       </c>
       <c r="D213" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -23668,13 +23668,13 @@
         <v>2712</v>
       </c>
       <c r="B214" t="n">
-        <v>2643526.107174327</v>
+        <v>2162800.140365487</v>
       </c>
       <c r="C214" t="n">
-        <v>9266152.465679772</v>
+        <v>8458790.640497653</v>
       </c>
       <c r="D214" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -23778,13 +23778,13 @@
         <v>2719</v>
       </c>
       <c r="B215" t="n">
-        <v>3568132.693746469</v>
+        <v>2925393.627151504</v>
       </c>
       <c r="C215" t="n">
-        <v>9123595.649978651</v>
+        <v>7936422.248755591</v>
       </c>
       <c r="D215" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -23884,13 +23884,13 @@
         <v>2731</v>
       </c>
       <c r="B216" t="n">
-        <v>3030589.817253784</v>
+        <v>2242876.592230676</v>
       </c>
       <c r="C216" t="n">
-        <v>8644915.223000128</v>
+        <v>7754597.368336814</v>
       </c>
       <c r="D216" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -23994,13 +23994,13 @@
         <v>2753</v>
       </c>
       <c r="B217" t="n">
-        <v>2975223.884772659</v>
+        <v>2563484.244500295</v>
       </c>
       <c r="C217" t="n">
-        <v>9465681.456012113</v>
+        <v>8491408.633722123</v>
       </c>
       <c r="D217" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -24100,13 +24100,13 @@
         <v>2754</v>
       </c>
       <c r="B218" t="n">
-        <v>2608017.287930017</v>
+        <v>2016991.083229236</v>
       </c>
       <c r="C218" t="n">
-        <v>9007387.334960407</v>
+        <v>8244707.142702512</v>
       </c>
       <c r="D218" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -24210,13 +24210,13 @@
         <v>2795</v>
       </c>
       <c r="B219" t="n">
-        <v>3186284.941703403</v>
+        <v>2648804.085205337</v>
       </c>
       <c r="C219" t="n">
-        <v>9248572.863371003</v>
+        <v>8211248.120176828</v>
       </c>
       <c r="D219" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -24320,13 +24320,13 @@
         <v>2807</v>
       </c>
       <c r="B220" t="n">
-        <v>2941359.351205565</v>
+        <v>2220255.727356635</v>
       </c>
       <c r="C220" t="n">
-        <v>8780081.996669186</v>
+        <v>7908668.827639322</v>
       </c>
       <c r="D220" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -24426,13 +24426,13 @@
         <v>2835</v>
       </c>
       <c r="B221" t="n">
-        <v>2450194.042599439</v>
+        <v>1871237.356784044</v>
       </c>
       <c r="C221" t="n">
-        <v>9001220.753501672</v>
+        <v>8303567.289312782</v>
       </c>
       <c r="D221" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -24536,13 +24536,13 @@
         <v>2866</v>
       </c>
       <c r="B222" t="n">
-        <v>2700743.357475555</v>
+        <v>2162401.919238788</v>
       </c>
       <c r="C222" t="n">
-        <v>9148178.20391483</v>
+        <v>8330776.613560342</v>
       </c>
       <c r="D222" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -24646,13 +24646,13 @@
         <v>2871</v>
       </c>
       <c r="B223" t="n">
-        <v>2951126.31546999</v>
+        <v>2547321.792989145</v>
       </c>
       <c r="C223" t="n">
-        <v>9477678.826531079</v>
+        <v>8512455.298895443</v>
       </c>
       <c r="D223" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -24756,13 +24756,13 @@
         <v>2892</v>
       </c>
       <c r="B224" t="n">
-        <v>2973028.427371088</v>
+        <v>2598189.80525204</v>
       </c>
       <c r="C224" t="n">
-        <v>9537586.320730055</v>
+        <v>8554706.710361823</v>
       </c>
       <c r="D224" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -24866,13 +24866,13 @@
         <v>2902</v>
       </c>
       <c r="B225" t="n">
-        <v>2758141.81807552</v>
+        <v>2369160.75874979</v>
       </c>
       <c r="C225" t="n">
-        <v>9479364.529785601</v>
+        <v>8598125.34679063</v>
       </c>
       <c r="D225" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -24980,13 +24980,13 @@
         <v>2908</v>
       </c>
       <c r="B226" t="n">
-        <v>2944874.43898117</v>
+        <v>2543066.805740652</v>
       </c>
       <c r="C226" t="n">
-        <v>9480682.080454435</v>
+        <v>8517821.216231268</v>
       </c>
       <c r="D226" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -25094,13 +25094,13 @@
         <v>2920</v>
       </c>
       <c r="B227" t="n">
-        <v>3360821.512929319</v>
+        <v>2466582.442979667</v>
       </c>
       <c r="C227" t="n">
-        <v>8486537.563712198</v>
+        <v>7483966.963506631</v>
       </c>
       <c r="D227" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -25208,13 +25208,13 @@
         <v>2947</v>
       </c>
       <c r="B228" t="n">
-        <v>3052116.671327231</v>
+        <v>2504425.88907019</v>
       </c>
       <c r="C228" t="n">
-        <v>9198517.877273735</v>
+        <v>8226316.48793835</v>
       </c>
       <c r="D228" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -25318,13 +25318,13 @@
         <v>2966</v>
       </c>
       <c r="B229" t="n">
-        <v>2689125.988440136</v>
+        <v>2270313.007720758</v>
       </c>
       <c r="C229" t="n">
-        <v>9407523.213975189</v>
+        <v>8564414.044537831</v>
       </c>
       <c r="D229" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -25424,13 +25424,13 @@
         <v>2975</v>
       </c>
       <c r="B230" t="n">
-        <v>2928631.330956219</v>
+        <v>2563075.898853526</v>
       </c>
       <c r="C230" t="n">
-        <v>9549223.576622356</v>
+        <v>8584566.731654705</v>
       </c>
       <c r="D230" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -25534,13 +25534,13 @@
         <v>2977</v>
       </c>
       <c r="B231" t="n">
-        <v>3147749.174020394</v>
+        <v>2350271.430052502</v>
       </c>
       <c r="C231" t="n">
-        <v>8654478.265498042</v>
+        <v>7715242.592925212</v>
       </c>
       <c r="D231" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -25636,13 +25636,13 @@
         <v>2988</v>
       </c>
       <c r="B232" t="n">
-        <v>2758233.358988302</v>
+        <v>2219908.890939415</v>
       </c>
       <c r="C232" t="n">
-        <v>9159664.247621167</v>
+        <v>8316916.475610748</v>
       </c>
       <c r="D232" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -25746,13 +25746,13 @@
         <v>3005</v>
       </c>
       <c r="B233" t="n">
-        <v>2939599.348041221</v>
+        <v>2219075.496922349</v>
       </c>
       <c r="C233" t="n">
-        <v>8781002.614118125</v>
+        <v>7910191.372210616</v>
       </c>
       <c r="D233" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -25852,13 +25852,13 @@
         <v>3018</v>
       </c>
       <c r="B234" t="n">
-        <v>3162349.876691276</v>
+        <v>2512097.97111309</v>
       </c>
       <c r="C234" t="n">
-        <v>8998875.888930913</v>
+        <v>8006688.333262212</v>
       </c>
       <c r="D234" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -25958,13 +25958,13 @@
         <v>3022</v>
       </c>
       <c r="B235" t="n">
-        <v>3516028.760590043</v>
+        <v>2880181.336425193</v>
       </c>
       <c r="C235" t="n">
-        <v>9123171.162952365</v>
+        <v>7959245.303135016</v>
       </c>
       <c r="D235" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -26064,13 +26064,13 @@
         <v>3031</v>
       </c>
       <c r="B236" t="n">
-        <v>3232964.446375696</v>
+        <v>2533871.908971644</v>
       </c>
       <c r="C236" t="n">
-        <v>8907037.093678769</v>
+        <v>7897746.735791739</v>
       </c>
       <c r="D236" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -26170,13 +26170,13 @@
         <v>3046</v>
       </c>
       <c r="B237" t="n">
-        <v>3142683.334894057</v>
+        <v>2626171.193938775</v>
       </c>
       <c r="C237" t="n">
-        <v>9283112.137103543</v>
+        <v>8260035.824048754</v>
       </c>
       <c r="D237" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -26280,13 +26280,13 @@
         <v>3047</v>
       </c>
       <c r="B238" t="n">
-        <v>3579563.952842306</v>
+        <v>3072237.79786796</v>
       </c>
       <c r="C238" t="n">
-        <v>9404628.651825517</v>
+        <v>8164877.219127951</v>
       </c>
       <c r="D238" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -26382,13 +26382,13 @@
         <v>3056</v>
       </c>
       <c r="B239" t="n">
-        <v>3095545.061219141</v>
+        <v>2358876.288381652</v>
       </c>
       <c r="C239" t="n">
-        <v>8783825.731412819</v>
+        <v>7848652.478758121</v>
       </c>
       <c r="D239" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -26488,13 +26488,13 @@
         <v>3068</v>
       </c>
       <c r="B240" t="n">
-        <v>2774904.775086238</v>
+        <v>2330348.948966326</v>
       </c>
       <c r="C240" t="n">
-        <v>9366732.382165775</v>
+        <v>8491920.512427485</v>
       </c>
       <c r="D240" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -26598,13 +26598,13 @@
         <v>3102</v>
       </c>
       <c r="B241" t="n">
-        <v>2758240.521395336</v>
+        <v>2219912.686941784</v>
       </c>
       <c r="C241" t="n">
-        <v>9159658.136488857</v>
+        <v>8316908.106638836</v>
       </c>
       <c r="D241" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -26708,13 +26708,13 @@
         <v>3103</v>
       </c>
       <c r="B242" t="n">
-        <v>3013847.835368365</v>
+        <v>2316864.39418375</v>
       </c>
       <c r="C242" t="n">
-        <v>8855213.870448904</v>
+        <v>7944356.209215428</v>
       </c>
       <c r="D242" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -26810,13 +26810,13 @@
         <v>3107</v>
       </c>
       <c r="B243" t="n">
-        <v>3236354.686214137</v>
+        <v>2407783.584867693</v>
       </c>
       <c r="C243" t="n">
-        <v>8606046.542443765</v>
+        <v>7637272.154239465</v>
       </c>
       <c r="D243" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         <v>3127</v>
       </c>
       <c r="B244" t="n">
-        <v>3316770.330869425</v>
+        <v>2538872.102060273</v>
       </c>
       <c r="C244" t="n">
-        <v>8749408.318049438</v>
+        <v>7727314.992494686</v>
       </c>
       <c r="D244" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -27026,13 +27026,13 @@
         <v>3132</v>
       </c>
       <c r="B245" t="n">
-        <v>2949665.510037493</v>
+        <v>2554305.289230273</v>
       </c>
       <c r="C245" t="n">
-        <v>9494139.231195347</v>
+        <v>8527396.584807243</v>
       </c>
       <c r="D245" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -27136,13 +27136,13 @@
         <v>3146</v>
       </c>
       <c r="B246" t="n">
-        <v>3270678.952340767</v>
+        <v>2507647.889590831</v>
       </c>
       <c r="C246" t="n">
-        <v>8770650.919324247</v>
+        <v>7764733.575591461</v>
       </c>
       <c r="D246" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -27242,13 +27242,13 @@
         <v>3161</v>
       </c>
       <c r="B247" t="n">
-        <v>2666664.424314048</v>
+        <v>2017072.271471737</v>
       </c>
       <c r="C247" t="n">
-        <v>8882347.370083267</v>
+        <v>8110347.200889233</v>
       </c>
       <c r="D247" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -27348,13 +27348,13 @@
         <v>3205</v>
       </c>
       <c r="B248" t="n">
-        <v>3207480.487901815</v>
+        <v>2787252.357366241</v>
       </c>
       <c r="C248" t="n">
-        <v>9488746.770168969</v>
+        <v>8407092.753723348</v>
       </c>
       <c r="D248" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -27454,13 +27454,13 @@
         <v>3213</v>
       </c>
       <c r="B249" t="n">
-        <v>2771562.167161249</v>
+        <v>2289310.641385553</v>
       </c>
       <c r="C249" t="n">
-        <v>9285614.47718915</v>
+        <v>8422049.981429607</v>
       </c>
       <c r="D249" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -27560,13 +27560,13 @@
         <v>3214</v>
       </c>
       <c r="B250" t="n">
-        <v>2583315.703835267</v>
+        <v>1965208.005697134</v>
       </c>
       <c r="C250" t="n">
-        <v>8937915.278173454</v>
+        <v>8193328.627501134</v>
       </c>
       <c r="D250" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -27674,13 +27674,13 @@
         <v>3218</v>
       </c>
       <c r="B251" t="n">
-        <v>2678292.733161001</v>
+        <v>2201889.617927831</v>
       </c>
       <c r="C251" t="n">
-        <v>9281854.192164006</v>
+        <v>8458080.280833371</v>
       </c>
       <c r="D251" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -27780,13 +27780,13 @@
         <v>3232</v>
       </c>
       <c r="B252" t="n">
-        <v>2586346.533662255</v>
+        <v>1964998.891181818</v>
       </c>
       <c r="C252" t="n">
-        <v>8930903.888071889</v>
+        <v>8185892.711557245</v>
       </c>
       <c r="D252" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -27890,13 +27890,13 @@
         <v>3240</v>
       </c>
       <c r="B253" t="n">
-        <v>2688055.894814954</v>
+        <v>2266903.52676113</v>
       </c>
       <c r="C253" t="n">
-        <v>9402423.159384785</v>
+        <v>8560368.474820349</v>
       </c>
       <c r="D253" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -28004,13 +28004,13 @@
         <v>3247</v>
       </c>
       <c r="B254" t="n">
-        <v>3277987.064648033</v>
+        <v>2459053.403135003</v>
       </c>
       <c r="C254" t="n">
-        <v>8641465.485651592</v>
+        <v>7650708.044278911</v>
       </c>
       <c r="D254" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -28114,13 +28114,13 @@
         <v>3255</v>
       </c>
       <c r="B255" t="n">
-        <v>2402285.39522546</v>
+        <v>1820664.379872172</v>
       </c>
       <c r="C255" t="n">
-        <v>8984230.248989942</v>
+        <v>8307885.250562994</v>
       </c>
       <c r="D255" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -28224,13 +28224,13 @@
         <v>3259</v>
       </c>
       <c r="B256" t="n">
-        <v>2671576.346892626</v>
+        <v>2173242.747580637</v>
       </c>
       <c r="C256" t="n">
-        <v>9232224.112372676</v>
+        <v>8417085.353717962</v>
       </c>
       <c r="D256" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -28334,13 +28334,13 @@
         <v>3267</v>
       </c>
       <c r="B257" t="n">
-        <v>2688280.377784366</v>
+        <v>2108276.435021318</v>
       </c>
       <c r="C257" t="n">
-        <v>9050436.386016071</v>
+        <v>8249758.479325105</v>
       </c>
       <c r="D257" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -28444,13 +28444,13 @@
         <v>3268</v>
       </c>
       <c r="B258" t="n">
-        <v>2773338.97011835</v>
+        <v>2329782.938792196</v>
       </c>
       <c r="C258" t="n">
-        <v>9368587.253722804</v>
+        <v>8494219.377788253</v>
       </c>
       <c r="D258" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -28554,13 +28554,13 @@
         <v>3289</v>
       </c>
       <c r="B259" t="n">
-        <v>2692792.830449851</v>
+        <v>2268741.383874267</v>
       </c>
       <c r="C259" t="n">
-        <v>9397026.266039941</v>
+        <v>8553591.619371751</v>
       </c>
       <c r="D259" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -28660,13 +28660,13 @@
         <v>3293</v>
       </c>
       <c r="B260" t="n">
-        <v>2596489.068224793</v>
+        <v>1962733.2767272</v>
       </c>
       <c r="C260" t="n">
-        <v>8903678.2866598</v>
+        <v>8157690.103858377</v>
       </c>
       <c r="D260" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -28766,13 +28766,13 @@
         <v>3296</v>
       </c>
       <c r="B261" t="n">
-        <v>2932175.499178836</v>
+        <v>2514406.686285493</v>
       </c>
       <c r="C261" t="n">
-        <v>9446875.810496565</v>
+        <v>8494006.102476576</v>
       </c>
       <c r="D261" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -28872,13 +28872,13 @@
         <v>3300</v>
       </c>
       <c r="B262" t="n">
-        <v>3266003.07161796</v>
+        <v>2521189.97343095</v>
       </c>
       <c r="C262" t="n">
-        <v>8811495.866817309</v>
+        <v>7801769.466038155</v>
       </c>
       <c r="D262" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -28978,13 +28978,13 @@
         <v>3301</v>
       </c>
       <c r="B263" t="n">
-        <v>3199854.126604371</v>
+        <v>2484106.819445109</v>
       </c>
       <c r="C263" t="n">
-        <v>8860219.257688086</v>
+        <v>7871355.863584026</v>
       </c>
       <c r="D263" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -29084,13 +29084,13 @@
         <v>3319</v>
       </c>
       <c r="B264" t="n">
-        <v>2801658.198419355</v>
+        <v>2437419.1625711</v>
       </c>
       <c r="C264" t="n">
-        <v>9534826.517543167</v>
+        <v>8627929.056416361</v>
       </c>
       <c r="D264" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -29194,13 +29194,13 @@
         <v>3330</v>
       </c>
       <c r="B265" t="n">
-        <v>2749119.079378236</v>
+        <v>2140988.330330157</v>
       </c>
       <c r="C265" t="n">
-        <v>8998672.093072947</v>
+        <v>8179091.384091006</v>
       </c>
       <c r="D265" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -29308,13 +29308,13 @@
         <v>3337</v>
       </c>
       <c r="B266" t="n">
-        <v>2912078.916849283</v>
+        <v>2546274.63047718</v>
       </c>
       <c r="C266" t="n">
-        <v>9546469.353179377</v>
+        <v>8589518.087378852</v>
       </c>
       <c r="D266" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -29418,13 +29418,13 @@
         <v>3339</v>
       </c>
       <c r="B267" t="n">
-        <v>2886899.842288466</v>
+        <v>2492896.736674628</v>
       </c>
       <c r="C267" t="n">
-        <v>9487559.53060418</v>
+        <v>8549295.241479767</v>
       </c>
       <c r="D267" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -29524,13 +29524,13 @@
         <v>3342</v>
       </c>
       <c r="B268" t="n">
-        <v>2897368.468658772</v>
+        <v>2156111.395923057</v>
       </c>
       <c r="C268" t="n">
-        <v>8720618.259981789</v>
+        <v>7874621.697832912</v>
       </c>
       <c r="D268" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -29638,13 +29638,13 @@
         <v>3346</v>
       </c>
       <c r="B269" t="n">
-        <v>3174140.059726655</v>
+        <v>2506535.400956144</v>
       </c>
       <c r="C269" t="n">
-        <v>8962912.869022943</v>
+        <v>7970686.170122322</v>
       </c>
       <c r="D269" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -29744,13 +29744,13 @@
         <v>3352</v>
       </c>
       <c r="B270" t="n">
-        <v>2804670.191448623</v>
+        <v>2176179.217564579</v>
       </c>
       <c r="C270" t="n">
-        <v>8964001.15437576</v>
+        <v>8125735.966790143</v>
       </c>
       <c r="D270" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -29850,13 +29850,13 @@
         <v>3379</v>
       </c>
       <c r="B271" t="n">
-        <v>2836628.652649688</v>
+        <v>2426074.117556709</v>
       </c>
       <c r="C271" t="n">
-        <v>9446833.448705312</v>
+        <v>8535621.135043612</v>
       </c>
       <c r="D271" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -29964,13 +29964,13 @@
         <v>3392</v>
       </c>
       <c r="B272" t="n">
-        <v>2741551.193684777</v>
+        <v>2272485.867152099</v>
       </c>
       <c r="C272" t="n">
-        <v>9308847.612707537</v>
+        <v>8455193.82689807</v>
       </c>
       <c r="D272" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -30074,13 +30074,13 @@
         <v>3395</v>
       </c>
       <c r="B273" t="n">
-        <v>3216972.053877503</v>
+        <v>2799678.551750755</v>
       </c>
       <c r="C273" t="n">
-        <v>9496178.216629371</v>
+        <v>8409083.686653633</v>
       </c>
       <c r="D273" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -30176,13 +30176,13 @@
         <v>3403</v>
       </c>
       <c r="B274" t="n">
-        <v>3201105.108192557</v>
+        <v>2516607.251470174</v>
       </c>
       <c r="C274" t="n">
-        <v>8931716.891344946</v>
+        <v>7932420.561276552</v>
       </c>
       <c r="D274" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -30282,13 +30282,13 @@
         <v>3412</v>
       </c>
       <c r="B275" t="n">
-        <v>2687412.235889928</v>
+        <v>2264788.122529677</v>
       </c>
       <c r="C275" t="n">
-        <v>9399213.968900628</v>
+        <v>8557809.954274271</v>
       </c>
       <c r="D275" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -30388,13 +30388,13 @@
         <v>3416</v>
       </c>
       <c r="B276" t="n">
-        <v>2678614.144118289</v>
+        <v>2216141.379107901</v>
       </c>
       <c r="C276" t="n">
-        <v>9312322.764102362</v>
+        <v>8484839.595362216</v>
       </c>
       <c r="D276" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -30498,13 +30498,13 @@
         <v>3420</v>
       </c>
       <c r="B277" t="n">
-        <v>3234227.1007863</v>
+        <v>2540901.392022933</v>
       </c>
       <c r="C277" t="n">
-        <v>8920430.090973733</v>
+        <v>7908727.838296425</v>
       </c>
       <c r="D277" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -30604,13 +30604,13 @@
         <v>3423</v>
       </c>
       <c r="B278" t="n">
-        <v>2954735.080064913</v>
+        <v>2575393.071010412</v>
       </c>
       <c r="C278" t="n">
-        <v>9526218.137173062</v>
+        <v>8552995.214888601</v>
       </c>
       <c r="D278" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -30714,13 +30714,13 @@
         <v>3428</v>
       </c>
       <c r="B279" t="n">
-        <v>3206233.308112256</v>
+        <v>2383734.859872781</v>
       </c>
       <c r="C279" t="n">
-        <v>8611645.06904419</v>
+        <v>7654384.425529505</v>
       </c>
       <c r="D279" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -30828,13 +30828,13 @@
         <v>3442</v>
       </c>
       <c r="B280" t="n">
-        <v>3143894.869698103</v>
+        <v>2507597.171741503</v>
       </c>
       <c r="C280" t="n">
-        <v>9025473.732278047</v>
+        <v>8037467.215620791</v>
       </c>
       <c r="D280" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -30930,13 +30930,13 @@
         <v>3445</v>
       </c>
       <c r="B281" t="n">
-        <v>3041714.953506898</v>
+        <v>2252529.667609482</v>
       </c>
       <c r="C281" t="n">
-        <v>8644465.635991428</v>
+        <v>7749696.319027138</v>
       </c>
       <c r="D281" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -31040,13 +31040,13 @@
         <v>3448</v>
       </c>
       <c r="B282" t="n">
-        <v>3357743.149881263</v>
+        <v>2605724.424730036</v>
       </c>
       <c r="C282" t="n">
-        <v>8821092.791086294</v>
+        <v>7771496.785747431</v>
       </c>
       <c r="D282" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -31146,13 +31146,13 @@
         <v>3450</v>
       </c>
       <c r="B283" t="n">
-        <v>2933172.547894008</v>
+        <v>2580045.464065288</v>
       </c>
       <c r="C283" t="n">
-        <v>9573694.015869504</v>
+        <v>8603796.418736672</v>
       </c>
       <c r="D283" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -31256,13 +31256,13 @@
         <v>3463</v>
       </c>
       <c r="B284" t="n">
-        <v>2670360.862131834</v>
+        <v>2170423.201769321</v>
       </c>
       <c r="C284" t="n">
-        <v>9228431.25183114</v>
+        <v>8414245.120842647</v>
       </c>
       <c r="D284" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -31366,13 +31366,13 @@
         <v>3466</v>
       </c>
       <c r="B285" t="n">
-        <v>2858422.53674347</v>
+        <v>2435230.20190432</v>
       </c>
       <c r="C285" t="n">
-        <v>9424377.771392893</v>
+        <v>8506523.971587842</v>
       </c>
       <c r="D285" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -31476,13 +31476,13 @@
         <v>3470</v>
       </c>
       <c r="B286" t="n">
-        <v>2751093.558818893</v>
+        <v>2144755.712069944</v>
       </c>
       <c r="C286" t="n">
-        <v>9003263.374530012</v>
+        <v>8182316.418968084</v>
       </c>
       <c r="D286" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -31582,13 +31582,13 @@
         <v>3471</v>
       </c>
       <c r="B287" t="n">
-        <v>2596881.73387287</v>
+        <v>1981580.331923767</v>
       </c>
       <c r="C287" t="n">
-        <v>8947663.190708406</v>
+        <v>8196432.627654034</v>
       </c>
       <c r="D287" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -31696,13 +31696,13 @@
         <v>3496</v>
       </c>
       <c r="B288" t="n">
-        <v>3139860.174914377</v>
+        <v>2490399.798197079</v>
       </c>
       <c r="C288" t="n">
-        <v>8995110.411109596</v>
+        <v>8012961.893303819</v>
       </c>
       <c r="D288" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -31802,13 +31802,13 @@
         <v>3498</v>
       </c>
       <c r="B289" t="n">
-        <v>2908371.33421305</v>
+        <v>2543545.144034196</v>
       </c>
       <c r="C289" t="n">
-        <v>9547857.145457517</v>
+        <v>8592368.758759944</v>
       </c>
       <c r="D289" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -31912,13 +31912,13 @@
         <v>3501</v>
       </c>
       <c r="B290" t="n">
-        <v>2619012.052644097</v>
+        <v>1996376.047539041</v>
       </c>
       <c r="C290" t="n">
-        <v>8935318.683332533</v>
+        <v>8176507.578395233</v>
       </c>
       <c r="D290" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -32022,13 +32022,13 @@
         <v>3513</v>
       </c>
       <c r="B291" t="n">
-        <v>3159331.268214357</v>
+        <v>2380753.2544612</v>
       </c>
       <c r="C291" t="n">
-        <v>8702667.540230239</v>
+        <v>7752169.507352252</v>
       </c>
       <c r="D291" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -32124,13 +32124,13 @@
         <v>3515</v>
       </c>
       <c r="B292" t="n">
-        <v>3070504.124334742</v>
+        <v>2413919.085521421</v>
       </c>
       <c r="C292" t="n">
-        <v>8962101.30308843</v>
+        <v>8013605.328985555</v>
       </c>
       <c r="D292" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -32230,13 +32230,13 @@
         <v>3520</v>
       </c>
       <c r="B293" t="n">
-        <v>2608988.534231329</v>
+        <v>1977090.164729771</v>
       </c>
       <c r="C293" t="n">
-        <v>8911004.597975856</v>
+        <v>8159092.741616622</v>
       </c>
       <c r="D293" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -32340,13 +32340,13 @@
         <v>3528</v>
       </c>
       <c r="B294" t="n">
-        <v>2598220.490308981</v>
+        <v>1980223.040505738</v>
       </c>
       <c r="C294" t="n">
-        <v>8941573.992479749</v>
+        <v>8190502.008919428</v>
       </c>
       <c r="D294" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -32454,13 +32454,13 @@
         <v>3529</v>
       </c>
       <c r="B295" t="n">
-        <v>2937688.850938656</v>
+        <v>2325533.11712771</v>
       </c>
       <c r="C295" t="n">
-        <v>9031593.005773073</v>
+        <v>8129672.274287116</v>
       </c>
       <c r="D295" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -32560,13 +32560,13 @@
         <v>3532</v>
       </c>
       <c r="B296" t="n">
-        <v>2670964.500513683</v>
+        <v>2171830.701805416</v>
       </c>
       <c r="C296" t="n">
-        <v>9230331.578842843</v>
+        <v>8415670.435646456</v>
       </c>
       <c r="D296" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -32670,13 +32670,13 @@
         <v>3537</v>
       </c>
       <c r="B297" t="n">
-        <v>2595152.961486505</v>
+        <v>1980398.978495668</v>
       </c>
       <c r="C297" t="n">
-        <v>8948568.533220904</v>
+        <v>8197937.278822308</v>
       </c>
       <c r="D297" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -32784,13 +32784,13 @@
         <v>3547</v>
       </c>
       <c r="B298" t="n">
-        <v>3276027.164015523</v>
+        <v>2820285.050012343</v>
       </c>
       <c r="C298" t="n">
-        <v>9433125.268377097</v>
+        <v>8328667.552716535</v>
       </c>
       <c r="D298" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -32894,13 +32894,13 @@
         <v>3548</v>
       </c>
       <c r="B299" t="n">
-        <v>3092563.84613198</v>
+        <v>2630537.274332249</v>
       </c>
       <c r="C299" t="n">
-        <v>9385010.179808529</v>
+        <v>8369821.497112781</v>
       </c>
       <c r="D299" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -33004,13 +33004,13 @@
         <v>3566</v>
       </c>
       <c r="B300" t="n">
-        <v>2665070.720847986</v>
+        <v>2169623.957053789</v>
       </c>
       <c r="C300" t="n">
-        <v>9237436.71458701</v>
+        <v>8424408.044104202</v>
       </c>
       <c r="D300" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -33114,13 +33114,13 @@
         <v>3575</v>
       </c>
       <c r="B301" t="n">
-        <v>3080462.611091036</v>
+        <v>2407321.703183286</v>
       </c>
       <c r="C301" t="n">
-        <v>8926879.963414844</v>
+        <v>7978903.406602217</v>
       </c>
       <c r="D301" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -33220,13 +33220,13 @@
         <v>3579</v>
       </c>
       <c r="B302" t="n">
-        <v>2666062.391926686</v>
+        <v>2171955.298137464</v>
       </c>
       <c r="C302" t="n">
-        <v>9240594.148963803</v>
+        <v>8426781.4161426</v>
       </c>
       <c r="D302" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -33334,13 +33334,13 @@
         <v>3591</v>
       </c>
       <c r="B303" t="n">
-        <v>2670563.987500263</v>
+        <v>2170893.430283464</v>
       </c>
       <c r="C303" t="n">
-        <v>9229063.287317457</v>
+        <v>8414718.193648838</v>
       </c>
       <c r="D303" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -33448,13 +33448,13 @@
         <v>3603</v>
       </c>
       <c r="B304" t="n">
-        <v>2655980.756189537</v>
+        <v>2063504.856791245</v>
       </c>
       <c r="C304" t="n">
-        <v>9014507.937709367</v>
+        <v>8231344.286441962</v>
       </c>
       <c r="D304" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -33562,13 +33562,13 @@
         <v>3605</v>
       </c>
       <c r="B305" t="n">
-        <v>2748118.070028385</v>
+        <v>2110173.298603442</v>
       </c>
       <c r="C305" t="n">
-        <v>8928917.378716448</v>
+        <v>8118141.685122175</v>
       </c>
       <c r="D305" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -33672,13 +33672,13 @@
         <v>3615</v>
       </c>
       <c r="B306" t="n">
-        <v>2981686.043870387</v>
+        <v>2542288.480692517</v>
       </c>
       <c r="C306" t="n">
-        <v>9411283.639579223</v>
+        <v>8441372.948086677</v>
       </c>
       <c r="D306" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -33778,13 +33778,13 @@
         <v>3618</v>
       </c>
       <c r="B307" t="n">
-        <v>2848937.061238425</v>
+        <v>2233398.208220131</v>
       </c>
       <c r="C307" t="n">
-        <v>9003921.535609633</v>
+        <v>8142442.185274888</v>
       </c>
       <c r="D307" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -33888,13 +33888,13 @@
         <v>3628</v>
       </c>
       <c r="B308" t="n">
-        <v>2839917.284158716</v>
+        <v>2250851.673172713</v>
       </c>
       <c r="C308" t="n">
-        <v>9062298.849541765</v>
+        <v>8197342.655859414</v>
       </c>
       <c r="D308" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -33998,13 +33998,13 @@
         <v>3632</v>
       </c>
       <c r="B309" t="n">
-        <v>2736145.319894447</v>
+        <v>2283712.035973805</v>
       </c>
       <c r="C309" t="n">
-        <v>9343643.675085025</v>
+        <v>8488118.24284976</v>
       </c>
       <c r="D309" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -34112,13 +34112,13 @@
         <v>3634</v>
       </c>
       <c r="B310" t="n">
-        <v>2666690.145557267</v>
+        <v>2170525.885702211</v>
       </c>
       <c r="C310" t="n">
-        <v>9236141.33541799</v>
+        <v>8422587.036286296</v>
       </c>
       <c r="D310" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -34218,13 +34218,13 @@
         <v>3635</v>
       </c>
       <c r="B311" t="n">
-        <v>3139839.842490068</v>
+        <v>2507049.375691386</v>
       </c>
       <c r="C311" t="n">
-        <v>9032291.91650488</v>
+        <v>8045075.095538711</v>
       </c>
       <c r="D311" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -34320,13 +34320,13 @@
         <v>3645</v>
       </c>
       <c r="B312" t="n">
-        <v>2927649.003642464</v>
+        <v>2505980.776982622</v>
       </c>
       <c r="C312" t="n">
-        <v>9438312.601316357</v>
+        <v>8488535.164452951</v>
       </c>
       <c r="D312" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -34426,13 +34426,13 @@
         <v>3646</v>
       </c>
       <c r="B313" t="n">
-        <v>3103178.159550285</v>
+        <v>2493385.082080713</v>
       </c>
       <c r="C313" t="n">
-        <v>9074555.96422</v>
+        <v>8097181.735833417</v>
       </c>
       <c r="D313" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -34536,13 +34536,13 @@
         <v>3664</v>
       </c>
       <c r="B314" t="n">
-        <v>3003934.738714433</v>
+        <v>2342053.06533508</v>
       </c>
       <c r="C314" t="n">
-        <v>8933844.636958456</v>
+        <v>8016869.390471315</v>
       </c>
       <c r="D314" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -34646,13 +34646,13 @@
         <v>3671</v>
       </c>
       <c r="B315" t="n">
-        <v>3390946.845862339</v>
+        <v>2840980.761769736</v>
       </c>
       <c r="C315" t="n">
-        <v>9269763.875465965</v>
+        <v>8138547.714613959</v>
       </c>
       <c r="D315" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -34756,13 +34756,13 @@
         <v>3674</v>
       </c>
       <c r="B316" t="n">
-        <v>3153967.101352792</v>
+        <v>2452289.755748259</v>
       </c>
       <c r="C316" t="n">
-        <v>8880347.214396618</v>
+        <v>7907913.387460232</v>
       </c>
       <c r="D316" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -34862,13 +34862,13 @@
         <v>3675</v>
       </c>
       <c r="B317" t="n">
-        <v>2550322.331582379</v>
+        <v>1940496.389635561</v>
       </c>
       <c r="C317" t="n">
-        <v>8950111.421809644</v>
+        <v>8217538.462796457</v>
       </c>
       <c r="D317" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -34968,13 +34968,13 @@
         <v>3693</v>
       </c>
       <c r="B318" t="n">
-        <v>2864004.179869235</v>
+        <v>2229087.404899741</v>
       </c>
       <c r="C318" t="n">
-        <v>8962776.057699541</v>
+        <v>8100167.7609651</v>
       </c>
       <c r="D318" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -35082,13 +35082,13 @@
         <v>3710</v>
       </c>
       <c r="B319" t="n">
-        <v>3308193.381383794</v>
+        <v>2532799.561116383</v>
       </c>
       <c r="C319" t="n">
-        <v>8752729.104429308</v>
+        <v>7733733.641951376</v>
       </c>
       <c r="D319" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -35188,13 +35188,13 @@
         <v>3713</v>
       </c>
       <c r="B320" t="n">
-        <v>3195476.154583221</v>
+        <v>2431432.060561588</v>
       </c>
       <c r="C320" t="n">
-        <v>8747036.25161491</v>
+        <v>7775594.846820764</v>
       </c>
       <c r="D320" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -35294,13 +35294,13 @@
         <v>3714</v>
       </c>
       <c r="B321" t="n">
-        <v>2675466.941828451</v>
+        <v>2188600.821176633</v>
       </c>
       <c r="C321" t="n">
-        <v>9258334.413087724</v>
+        <v>8438505.500271169</v>
       </c>
       <c r="D321" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -35408,13 +35408,13 @@
         <v>3717</v>
       </c>
       <c r="B322" t="n">
-        <v>3111734.487071496</v>
+        <v>2666909.731511009</v>
       </c>
       <c r="C322" t="n">
-        <v>9422995.177839547</v>
+        <v>8393993.245431738</v>
       </c>
       <c r="D322" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -35522,13 +35522,13 @@
         <v>3734</v>
       </c>
       <c r="B323" t="n">
-        <v>2869742.130927215</v>
+        <v>2227012.397702243</v>
       </c>
       <c r="C323" t="n">
-        <v>8946051.018639402</v>
+        <v>8083154.884843433</v>
       </c>
       <c r="D323" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -35628,13 +35628,13 @@
         <v>3740</v>
       </c>
       <c r="B324" t="n">
-        <v>2666892.701323431</v>
+        <v>2170994.828228682</v>
       </c>
       <c r="C324" t="n">
-        <v>9236770.540555147</v>
+        <v>8423057.909674646</v>
       </c>
       <c r="D324" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -35738,13 +35738,13 @@
         <v>3745</v>
       </c>
       <c r="B325" t="n">
-        <v>2670567.25245423</v>
+        <v>2170895.240197766</v>
       </c>
       <c r="C325" t="n">
-        <v>9229060.657053586</v>
+        <v>8414714.506778365</v>
       </c>
       <c r="D325" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -35852,13 +35852,13 @@
         <v>3747</v>
       </c>
       <c r="B326" t="n">
-        <v>3056705.915728998</v>
+        <v>2397962.200915168</v>
       </c>
       <c r="C326" t="n">
-        <v>8953836.518841684</v>
+        <v>8012217.038412164</v>
       </c>
       <c r="D326" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -35958,13 +35958,13 @@
         <v>3748</v>
       </c>
       <c r="B327" t="n">
-        <v>3237151.476804461</v>
+        <v>2551224.079348498</v>
       </c>
       <c r="C327" t="n">
-        <v>8937897.085813241</v>
+        <v>7922503.533234362</v>
       </c>
       <c r="D327" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -36064,13 +36064,13 @@
         <v>3769</v>
       </c>
       <c r="B328" t="n">
-        <v>3223956.401861851</v>
+        <v>2507103.250721258</v>
       </c>
       <c r="C328" t="n">
-        <v>8864164.114113094</v>
+        <v>7864656.374449341</v>
       </c>
       <c r="D328" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -36174,13 +36174,13 @@
         <v>3773</v>
       </c>
       <c r="B329" t="n">
-        <v>2869156.193832414</v>
+        <v>2225881.731594482</v>
       </c>
       <c r="C329" t="n">
-        <v>8944653.105363488</v>
+        <v>8082173.261413917</v>
       </c>
       <c r="D329" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -36280,13 +36280,13 @@
         <v>3798</v>
       </c>
       <c r="B330" t="n">
-        <v>2666700.174837194</v>
+        <v>2170531.469148024</v>
       </c>
       <c r="C330" t="n">
-        <v>9236133.308497565</v>
+        <v>8422575.754853109</v>
       </c>
       <c r="D330" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -36386,13 +36386,13 @@
         <v>3809</v>
       </c>
       <c r="B331" t="n">
-        <v>2670556.028243611</v>
+        <v>2170889.018088421</v>
       </c>
       <c r="C331" t="n">
-        <v>9229069.699311191</v>
+        <v>8414727.181426801</v>
       </c>
       <c r="D331" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -36492,13 +36492,13 @@
         <v>3810</v>
       </c>
       <c r="B332" t="n">
-        <v>3242166.884799346</v>
+        <v>2433022.266795315</v>
       </c>
       <c r="C332" t="n">
-        <v>8654075.656711033</v>
+        <v>7676257.797845589</v>
       </c>
       <c r="D332" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -36594,13 +36594,13 @@
         <v>3812</v>
       </c>
       <c r="B333" t="n">
-        <v>2756293.766925238</v>
+        <v>2374361.515898338</v>
       </c>
       <c r="C333" t="n">
-        <v>9493405.481241314</v>
+        <v>8611270.21878255</v>
       </c>
       <c r="D333" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -36704,13 +36704,13 @@
         <v>3813</v>
       </c>
       <c r="B334" t="n">
-        <v>3158427.11616958</v>
+        <v>2394983.512020971</v>
       </c>
       <c r="C334" t="n">
-        <v>8738114.28053211</v>
+        <v>7783176.906441138</v>
       </c>
       <c r="D334" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -36806,13 +36806,13 @@
         <v>3814</v>
       </c>
       <c r="B335" t="n">
-        <v>2756648.298941062</v>
+        <v>2219068.450850352</v>
       </c>
       <c r="C335" t="n">
-        <v>9161015.910416288</v>
+        <v>8318767.93897393</v>
       </c>
       <c r="D335" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -36920,13 +36920,13 @@
         <v>3858</v>
       </c>
       <c r="B336" t="n">
-        <v>3077397.426421846</v>
+        <v>2405947.433057404</v>
       </c>
       <c r="C336" t="n">
-        <v>8929977.27350322</v>
+        <v>7982869.567454091</v>
       </c>
       <c r="D336" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -37026,13 +37026,13 @@
         <v>3867</v>
       </c>
       <c r="B337" t="n">
-        <v>2929508.000225511</v>
+        <v>2160992.817728267</v>
       </c>
       <c r="C337" t="n">
-        <v>8663560.538946498</v>
+        <v>7811750.367584372</v>
       </c>
       <c r="D337" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -37132,13 +37132,13 @@
         <v>3887</v>
       </c>
       <c r="B338" t="n">
-        <v>3204895.189035531</v>
+        <v>2806189.599254008</v>
       </c>
       <c r="C338" t="n">
-        <v>9529479.894277178</v>
+        <v>8442899.917367173</v>
       </c>
       <c r="D338" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -37234,13 +37234,13 @@
         <v>3898</v>
       </c>
       <c r="B339" t="n">
-        <v>2670559.434175549</v>
+        <v>2170890.906160905</v>
       </c>
       <c r="C339" t="n">
-        <v>9229066.955489624</v>
+        <v>8414723.335372703</v>
       </c>
       <c r="D339" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -37348,13 +37348,13 @@
         <v>3901</v>
       </c>
       <c r="B340" t="n">
-        <v>2665497.690751947</v>
+        <v>2167724.939841012</v>
       </c>
       <c r="C340" t="n">
-        <v>9232344.989901256</v>
+        <v>8419733.391685987</v>
       </c>
       <c r="D340" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -37462,13 +37462,13 @@
         <v>3903</v>
       </c>
       <c r="B341" t="n">
-        <v>2980347.864810939</v>
+        <v>2311955.146347855</v>
       </c>
       <c r="C341" t="n">
-        <v>8913132.83730205</v>
+        <v>8008636.919501284</v>
       </c>
       <c r="D341" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -37568,13 +37568,13 @@
         <v>3917</v>
       </c>
       <c r="B342" t="n">
-        <v>3279875.076553489</v>
+        <v>2822929.098840213</v>
       </c>
       <c r="C342" t="n">
-        <v>9431558.583960334</v>
+        <v>8325589.735184518</v>
       </c>
       <c r="D342" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -37678,13 +37678,13 @@
         <v>3924</v>
       </c>
       <c r="B343" t="n">
-        <v>3241255.925342937</v>
+        <v>2431922.009645914</v>
       </c>
       <c r="C343" t="n">
-        <v>8653358.077173861</v>
+        <v>7676013.695652372</v>
       </c>
       <c r="D343" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -37780,13 +37780,13 @@
         <v>3926</v>
       </c>
       <c r="B344" t="n">
-        <v>2931422.812660272</v>
+        <v>2565032.363020209</v>
       </c>
       <c r="C344" t="n">
-        <v>9547997.610099085</v>
+        <v>8582261.181759385</v>
       </c>
       <c r="D344" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -37890,13 +37890,13 @@
         <v>3935</v>
       </c>
       <c r="B345" t="n">
-        <v>2949929.28102304</v>
+        <v>2297787.819128815</v>
       </c>
       <c r="C345" t="n">
-        <v>8943241.580721084</v>
+        <v>8047499.323692499</v>
       </c>
       <c r="D345" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -37996,13 +37996,13 @@
         <v>3936</v>
       </c>
       <c r="B346" t="n">
-        <v>3293623.632655634</v>
+        <v>2549123.123307816</v>
       </c>
       <c r="C346" t="n">
-        <v>8819987.327307232</v>
+        <v>7797493.869458325</v>
       </c>
       <c r="D346" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -38098,13 +38098,13 @@
         <v>3939</v>
       </c>
       <c r="B347" t="n">
-        <v>2957753.13155094</v>
+        <v>2585095.808506263</v>
       </c>
       <c r="C347" t="n">
-        <v>9539599.973214226</v>
+        <v>8563259.465157466</v>
       </c>
       <c r="D347" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -38208,13 +38208,13 @@
         <v>3944</v>
       </c>
       <c r="B348" t="n">
-        <v>2782900.866800808</v>
+        <v>2305738.160737399</v>
       </c>
       <c r="C348" t="n">
-        <v>9298595.269082943</v>
+        <v>8428649.306751261</v>
       </c>
       <c r="D348" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -38318,13 +38318,13 @@
         <v>3970</v>
       </c>
       <c r="B349" t="n">
-        <v>2745104.651525208</v>
+        <v>2118732.98340753</v>
       </c>
       <c r="C349" t="n">
-        <v>8955322.594290096</v>
+        <v>8142606.255263149</v>
       </c>
       <c r="D349" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -38428,13 +38428,13 @@
         <v>3974</v>
       </c>
       <c r="B350" t="n">
-        <v>2666650.022403016</v>
+        <v>2173349.974803118</v>
       </c>
       <c r="C350" t="n">
-        <v>9242492.882035239</v>
+        <v>8428212.186465587</v>
       </c>
       <c r="D350" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -38542,13 +38542,13 @@
         <v>3988</v>
       </c>
       <c r="B351" t="n">
-        <v>3235096.046531391</v>
+        <v>2538264.727504854</v>
       </c>
       <c r="C351" t="n">
-        <v>8912727.322663076</v>
+        <v>7901739.481287833</v>
       </c>
       <c r="D351" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -38648,13 +38648,13 @@
         <v>3995</v>
       </c>
       <c r="B352" t="n">
-        <v>3122406.242305913</v>
+        <v>2345335.993189169</v>
       </c>
       <c r="C352" t="n">
-        <v>8695890.73326014</v>
+        <v>7761440.792009416</v>
       </c>
       <c r="D352" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -38758,13 +38758,13 @@
         <v>4004</v>
       </c>
       <c r="B353" t="n">
-        <v>2662807.385359169</v>
+        <v>2170136.992700261</v>
       </c>
       <c r="C353" t="n">
-        <v>9243185.180301797</v>
+        <v>8430431.053701339</v>
       </c>
       <c r="D353" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -38864,13 +38864,13 @@
         <v>4013</v>
       </c>
       <c r="B354" t="n">
-        <v>2640965.709104928</v>
+        <v>2012681.308849612</v>
       </c>
       <c r="C354" t="n">
-        <v>8926967.499372514</v>
+        <v>8160188.72942288</v>
       </c>
       <c r="D354" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -38970,13 +38970,13 @@
         <v>4021</v>
       </c>
       <c r="B355" t="n">
-        <v>2884980.895669016</v>
+        <v>2314270.236385097</v>
       </c>
       <c r="C355" t="n">
-        <v>9113204.725849476</v>
+        <v>8223054.230801582</v>
       </c>
       <c r="D355" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -39084,13 +39084,13 @@
         <v>4025</v>
       </c>
       <c r="B356" t="n">
-        <v>3264752.42122414</v>
+        <v>2566509.947997891</v>
       </c>
       <c r="C356" t="n">
-        <v>8917445.278755995</v>
+        <v>7893258.892021471</v>
       </c>
       <c r="D356" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -39190,13 +39190,13 @@
         <v>4038</v>
       </c>
       <c r="B357" t="n">
-        <v>3142403.057765845</v>
+        <v>2378910.656793996</v>
       </c>
       <c r="C357" t="n">
-        <v>8733557.504477499</v>
+        <v>7785833.112982605</v>
       </c>
       <c r="D357" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -39292,13 +39292,13 @@
         <v>4042</v>
       </c>
       <c r="B358" t="n">
-        <v>2901846.20699808</v>
+        <v>2276310.91046354</v>
       </c>
       <c r="C358" t="n">
-        <v>8993033.506440356</v>
+        <v>8110946.189656938</v>
       </c>
       <c r="D358" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -39406,13 +39406,13 @@
         <v>4063</v>
       </c>
       <c r="B359" t="n">
-        <v>2670559.567443053</v>
+        <v>2170890.980037449</v>
       </c>
       <c r="C359" t="n">
-        <v>9229066.848129086</v>
+        <v>8414723.184883967</v>
       </c>
       <c r="D359" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -39516,13 +39516,13 @@
         <v>4071</v>
       </c>
       <c r="B360" t="n">
-        <v>3509653.882055385</v>
+        <v>2866328.729880522</v>
       </c>
       <c r="C360" t="n">
-        <v>9105394.181577127</v>
+        <v>7947126.444534699</v>
       </c>
       <c r="D360" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -39622,13 +39622,13 @@
         <v>4074</v>
       </c>
       <c r="B361" t="n">
-        <v>3016635.323716062</v>
+        <v>2585707.848441406</v>
       </c>
       <c r="C361" t="n">
-        <v>9434174.884907626</v>
+        <v>8445828.020095699</v>
       </c>
       <c r="D361" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -39736,13 +39736,13 @@
         <v>4075</v>
       </c>
       <c r="B362" t="n">
-        <v>2670558.990375487</v>
+        <v>2170890.660141295</v>
       </c>
       <c r="C362" t="n">
-        <v>9229067.313015686</v>
+        <v>8414723.836521907</v>
       </c>
       <c r="D362" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -39842,13 +39842,13 @@
         <v>4087</v>
       </c>
       <c r="B363" t="n">
-        <v>2914087.034033256</v>
+        <v>2548692.665063212</v>
       </c>
       <c r="C363" t="n">
-        <v>9547537.374038363</v>
+        <v>8589556.863475747</v>
       </c>
       <c r="D363" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -39952,13 +39952,13 @@
         <v>4089</v>
       </c>
       <c r="B364" t="n">
-        <v>2835970.965781542</v>
+        <v>2207974.77536617</v>
       </c>
       <c r="C364" t="n">
-        <v>8972308.83780976</v>
+        <v>8120106.818256385</v>
       </c>
       <c r="D364" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -40062,13 +40062,13 @@
         <v>4097</v>
       </c>
       <c r="B365" t="n">
-        <v>3012149.396150538</v>
+        <v>2328735.192576426</v>
       </c>
       <c r="C365" t="n">
-        <v>8886264.769091304</v>
+        <v>7972067.821708092</v>
       </c>
       <c r="D365" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -40164,13 +40164,13 @@
         <v>4103</v>
       </c>
       <c r="B366" t="n">
-        <v>2666300.592657755</v>
+        <v>2169596.656580852</v>
       </c>
       <c r="C366" t="n">
-        <v>9234870.067356667</v>
+        <v>8421627.403049724</v>
       </c>
       <c r="D366" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -40270,13 +40270,13 @@
         <v>4106</v>
       </c>
       <c r="B367" t="n">
-        <v>2670556.54918429</v>
+        <v>2170889.306871198</v>
       </c>
       <c r="C367" t="n">
-        <v>9229069.279641366</v>
+        <v>8414726.593169343</v>
       </c>
       <c r="D367" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -40384,13 +40384,13 @@
         <v>4110</v>
       </c>
       <c r="B368" t="n">
-        <v>3312485.394066167</v>
+        <v>2553104.071641739</v>
       </c>
       <c r="C368" t="n">
-        <v>8791081.543912735</v>
+        <v>7764815.479333393</v>
       </c>
       <c r="D368" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -40490,13 +40490,13 @@
         <v>4112</v>
       </c>
       <c r="B369" t="n">
-        <v>3249067.499454953</v>
+        <v>2473625.881233213</v>
       </c>
       <c r="C369" t="n">
-        <v>8735532.020175658</v>
+        <v>7743516.576097585</v>
       </c>
       <c r="D369" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -40600,13 +40600,13 @@
         <v>4117</v>
       </c>
       <c r="B370" t="n">
-        <v>2846419.417872964</v>
+        <v>2214960.175567432</v>
       </c>
       <c r="C370" t="n">
-        <v>8966705.668966953</v>
+        <v>8110878.920429597</v>
       </c>
       <c r="D370" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -40706,13 +40706,13 @@
         <v>4118</v>
       </c>
       <c r="B371" t="n">
-        <v>2687516.851463882</v>
+        <v>2265196.554786201</v>
       </c>
       <c r="C371" t="n">
-        <v>9399872.428612772</v>
+        <v>8558346.595076241</v>
       </c>
       <c r="D371" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -40812,13 +40812,13 @@
         <v>4121</v>
       </c>
       <c r="B372" t="n">
-        <v>2989950.89038038</v>
+        <v>2301951.897702774</v>
       </c>
       <c r="C372" t="n">
-        <v>8870098.435557475</v>
+        <v>7967183.559010287</v>
       </c>
       <c r="D372" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -40914,13 +40914,13 @@
         <v>4129</v>
       </c>
       <c r="B373" t="n">
-        <v>3275387.779717189</v>
+        <v>2542569.527486725</v>
       </c>
       <c r="C373" t="n">
-        <v>8841689.575742453</v>
+        <v>7823762.709241537</v>
       </c>
       <c r="D373" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -41016,13 +41016,13 @@
         <v>4141</v>
       </c>
       <c r="B374" t="n">
-        <v>2982866.995238304</v>
+        <v>2585712.843130814</v>
       </c>
       <c r="C374" t="n">
-        <v>9495646.036891857</v>
+        <v>8513999.516352588</v>
       </c>
       <c r="D374" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -41126,13 +41126,13 @@
         <v>4152</v>
       </c>
       <c r="B375" t="n">
-        <v>3510096.426788877</v>
+        <v>2867569.831640071</v>
       </c>
       <c r="C375" t="n">
-        <v>9107228.299974108</v>
+        <v>7948473.151458855</v>
       </c>
       <c r="D375" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -41232,13 +41232,13 @@
         <v>4155</v>
       </c>
       <c r="B376" t="n">
-        <v>3393588.697462017</v>
+        <v>2480964.866820504</v>
       </c>
       <c r="C376" t="n">
-        <v>8452571.937681284</v>
+        <v>7441616.42768318</v>
       </c>
       <c r="D376" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -41342,13 +41342,13 @@
         <v>4170</v>
       </c>
       <c r="B377" t="n">
-        <v>3173045.884758596</v>
+        <v>2398995.928326447</v>
       </c>
       <c r="C377" t="n">
-        <v>8717221.632284839</v>
+        <v>7759108.940866827</v>
       </c>
       <c r="D377" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -41444,13 +41444,13 @@
         <v>4172</v>
       </c>
       <c r="B378" t="n">
-        <v>3185756.661264513</v>
+        <v>2488667.111888873</v>
       </c>
       <c r="C378" t="n">
-        <v>8899139.660389407</v>
+        <v>7910810.940610434</v>
       </c>
       <c r="D378" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -41550,13 +41550,13 @@
         <v>4174</v>
       </c>
       <c r="B379" t="n">
-        <v>3098132.321043231</v>
+        <v>2423659.878986632</v>
       </c>
       <c r="C379" t="n">
-        <v>8928252.582797194</v>
+        <v>7972701.126857938</v>
       </c>
       <c r="D379" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -41656,13 +41656,13 @@
         <v>4180</v>
       </c>
       <c r="B380" t="n">
-        <v>3250693.619880088</v>
+        <v>2435066.240174468</v>
       </c>
       <c r="C380" t="n">
-        <v>8641191.452056438</v>
+        <v>7661669.709677344</v>
       </c>
       <c r="D380" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -41762,13 +41762,13 @@
         <v>4182</v>
       </c>
       <c r="B381" t="n">
-        <v>3252319.634359051</v>
+        <v>2534289.911374513</v>
       </c>
       <c r="C381" t="n">
-        <v>8869162.638618995</v>
+        <v>7857045.11140857</v>
       </c>
       <c r="D381" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -41864,13 +41864,13 @@
         <v>4192</v>
       </c>
       <c r="B382" t="n">
-        <v>2971566.455076247</v>
+        <v>2258133.154856622</v>
       </c>
       <c r="C382" t="n">
-        <v>8805953.72330272</v>
+        <v>7918869.232632509</v>
       </c>
       <c r="D382" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -41966,13 +41966,13 @@
         <v>4207</v>
       </c>
       <c r="B383" t="n">
-        <v>3389151.812915564</v>
+        <v>2465257.611475052</v>
       </c>
       <c r="C383" t="n">
-        <v>8423616.176753562</v>
+        <v>7418636.236044366</v>
       </c>
       <c r="D383" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -42072,13 +42072,13 @@
         <v>4211</v>
       </c>
       <c r="B384" t="n">
-        <v>2869323.677027928</v>
+        <v>2260324.674967282</v>
       </c>
       <c r="C384" t="n">
-        <v>9023440.149827991</v>
+        <v>8151066.140137866</v>
       </c>
       <c r="D384" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -42182,13 +42182,13 @@
         <v>4221</v>
       </c>
       <c r="B385" t="n">
-        <v>3564594.723943025</v>
+        <v>2919529.411961578</v>
       </c>
       <c r="C385" t="n">
-        <v>9117599.515461376</v>
+        <v>7932980.219603932</v>
       </c>
       <c r="D385" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -42288,13 +42288,13 @@
         <v>4222</v>
       </c>
       <c r="B386" t="n">
-        <v>3238924.932418972</v>
+        <v>2513388.478907291</v>
       </c>
       <c r="C386" t="n">
-        <v>8848334.523700349</v>
+        <v>7844764.16547998</v>
       </c>
       <c r="D386" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -42394,13 +42394,13 @@
         <v>4226</v>
       </c>
       <c r="B387" t="n">
-        <v>2833457.732935536</v>
+        <v>2446227.442719556</v>
       </c>
       <c r="C387" t="n">
-        <v>9493429.178649891</v>
+        <v>8577788.284013171</v>
       </c>
       <c r="D387" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -42504,13 +42504,13 @@
         <v>4231</v>
       </c>
       <c r="B388" t="n">
-        <v>2824467.762590565</v>
+        <v>2214614.485573145</v>
       </c>
       <c r="C388" t="n">
-        <v>9011482.967556387</v>
+        <v>8159213.115596196</v>
       </c>
       <c r="D388" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -42614,13 +42614,13 @@
         <v>4233</v>
       </c>
       <c r="B389" t="n">
-        <v>3171726.568297191</v>
+        <v>2396666.344202346</v>
       </c>
       <c r="C389" t="n">
-        <v>8714467.500847265</v>
+        <v>7757272.791801809</v>
       </c>
       <c r="D389" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -42716,13 +42716,13 @@
         <v>4234</v>
       </c>
       <c r="B390" t="n">
-        <v>3280448.238226673</v>
+        <v>2512405.473730264</v>
       </c>
       <c r="C390" t="n">
-        <v>8761798.786853805</v>
+        <v>7753065.226654519</v>
       </c>
       <c r="D390" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -42826,13 +42826,13 @@
         <v>4235</v>
       </c>
       <c r="B391" t="n">
-        <v>3260413.632077041</v>
+        <v>2445115.627494422</v>
       </c>
       <c r="C391" t="n">
-        <v>8644859.418518107</v>
+        <v>7660839.394498191</v>
       </c>
       <c r="D391" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -42928,13 +42928,13 @@
         <v>4239</v>
       </c>
       <c r="B392" t="n">
-        <v>3278160.327670518</v>
+        <v>2457442.049650997</v>
       </c>
       <c r="C392" t="n">
-        <v>8637278.064317081</v>
+        <v>7647037.901172952</v>
       </c>
       <c r="D392" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -43038,13 +43038,13 @@
         <v>4240</v>
       </c>
       <c r="B393" t="n">
-        <v>2730550.97344076</v>
+        <v>2283267.917596482</v>
       </c>
       <c r="C393" t="n">
-        <v>9353713.598389275</v>
+        <v>8499361.770781139</v>
       </c>
       <c r="D393" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -43144,13 +43144,13 @@
         <v>4243</v>
       </c>
       <c r="B394" t="n">
-        <v>2667523.15773121</v>
+        <v>2169563.251471584</v>
       </c>
       <c r="C394" t="n">
-        <v>9232303.956429759</v>
+        <v>8418850.488454789</v>
       </c>
       <c r="D394" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -43258,13 +43258,13 @@
         <v>4261</v>
       </c>
       <c r="B395" t="n">
-        <v>3153527.289220861</v>
+        <v>2628131.044320841</v>
       </c>
       <c r="C395" t="n">
-        <v>9266860.139323201</v>
+        <v>8241307.678919541</v>
       </c>
       <c r="D395" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -43364,13 +43364,13 @@
         <v>4271</v>
       </c>
       <c r="B396" t="n">
-        <v>2613402.496788053</v>
+        <v>2013012.483562346</v>
       </c>
       <c r="C396" t="n">
-        <v>8986585.080124663</v>
+        <v>8224111.994230928</v>
       </c>
       <c r="D396" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -43478,13 +43478,13 @@
         <v>4273</v>
       </c>
       <c r="B397" t="n">
-        <v>2769357.691409186</v>
+        <v>2286952.15371625</v>
       </c>
       <c r="C397" t="n">
-        <v>9284889.816184592</v>
+        <v>8422346.457066968</v>
       </c>
       <c r="D397" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -43584,13 +43584,13 @@
         <v>4276</v>
       </c>
       <c r="B398" t="n">
-        <v>2891080.762626627</v>
+        <v>2314112.983025042</v>
       </c>
       <c r="C398" t="n">
-        <v>9100517.008164776</v>
+        <v>8209398.979498566</v>
       </c>
       <c r="D398" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -43698,13 +43698,13 @@
         <v>4277</v>
       </c>
       <c r="B399" t="n">
-        <v>2976440.254768054</v>
+        <v>2297922.903560648</v>
       </c>
       <c r="C399" t="n">
-        <v>8888757.187877934</v>
+        <v>7989020.236057447</v>
       </c>
       <c r="D399" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -43808,13 +43808,13 @@
         <v>4281</v>
       </c>
       <c r="B400" t="n">
-        <v>3253643.936591542</v>
+        <v>2521354.524545691</v>
       </c>
       <c r="C400" t="n">
-        <v>8836878.849897692</v>
+        <v>7828749.361293081</v>
       </c>
       <c r="D400" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -43910,13 +43910,13 @@
         <v>4287</v>
       </c>
       <c r="B401" t="n">
-        <v>3225048.210117823</v>
+        <v>2526464.505605451</v>
       </c>
       <c r="C401" t="n">
-        <v>8906090.5290167</v>
+        <v>7900269.661740997</v>
       </c>
       <c r="D401" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -44016,13 +44016,13 @@
         <v>4290</v>
       </c>
       <c r="B402" t="n">
-        <v>2658752.839723731</v>
+        <v>2050351.853010726</v>
       </c>
       <c r="C402" t="n">
-        <v>8977879.91222761</v>
+        <v>8197875.502654549</v>
       </c>
       <c r="D402" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -44130,13 +44130,13 @@
         <v>4291</v>
       </c>
       <c r="B403" t="n">
-        <v>2716771.517045519</v>
+        <v>2228000.768307307</v>
       </c>
       <c r="C403" t="n">
-        <v>9261606.052955756</v>
+        <v>8424045.427836996</v>
       </c>
       <c r="D403" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -44236,13 +44236,13 @@
         <v>4292</v>
       </c>
       <c r="B404" t="n">
-        <v>2758276.360847904</v>
+        <v>2278441.285615122</v>
       </c>
       <c r="C404" t="n">
-        <v>9288491.301122023</v>
+        <v>8430203.594666101</v>
       </c>
       <c r="D404" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -44346,13 +44346,13 @@
         <v>4300</v>
       </c>
       <c r="B405" t="n">
-        <v>3012267.633910232</v>
+        <v>2324605.126907974</v>
       </c>
       <c r="C405" t="n">
-        <v>8876458.070681803</v>
+        <v>7963488.722286854</v>
       </c>
       <c r="D405" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -44448,13 +44448,13 @@
         <v>4303</v>
       </c>
       <c r="B406" t="n">
-        <v>3234545.500318951</v>
+        <v>2451194.030172086</v>
       </c>
       <c r="C406" t="n">
-        <v>8712804.99765902</v>
+        <v>7729960.221643923</v>
       </c>
       <c r="D406" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -44550,13 +44550,13 @@
         <v>4308</v>
       </c>
       <c r="B407" t="n">
-        <v>2662793.79670867</v>
+        <v>2170129.395609882</v>
       </c>
       <c r="C407" t="n">
-        <v>9243195.984938672</v>
+        <v>8430446.279752038</v>
       </c>
       <c r="D407" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -44656,13 +44656,13 @@
         <v>4320</v>
       </c>
       <c r="B408" t="n">
-        <v>2749333.911624793</v>
+        <v>2268596.736517326</v>
       </c>
       <c r="C408" t="n">
-        <v>9284954.469851594</v>
+        <v>8430874.120316997</v>
       </c>
       <c r="D408" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -44766,13 +44766,13 @@
         <v>4322</v>
       </c>
       <c r="B409" t="n">
-        <v>2954645.704529214</v>
+        <v>2208034.287346805</v>
       </c>
       <c r="C409" t="n">
-        <v>8722868.090913072</v>
+        <v>7853328.988471585</v>
       </c>
       <c r="D409" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -44872,13 +44872,13 @@
         <v>4323</v>
       </c>
       <c r="B410" t="n">
-        <v>3390026.605931198</v>
+        <v>2478710.383256547</v>
       </c>
       <c r="C410" t="n">
-        <v>8454580.763001326</v>
+        <v>7444776.6081699</v>
       </c>
       <c r="D410" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -44982,13 +44982,13 @@
         <v>4326</v>
       </c>
       <c r="B411" t="n">
-        <v>2895608.488327106</v>
+        <v>2310642.63507379</v>
       </c>
       <c r="C411" t="n">
-        <v>9083567.32917415</v>
+        <v>8192682.623651045</v>
       </c>
       <c r="D411" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -45088,13 +45088,13 @@
         <v>4328</v>
       </c>
       <c r="B412" t="n">
-        <v>3303956.449754464</v>
+        <v>2504027.535826284</v>
       </c>
       <c r="C412" t="n">
-        <v>8694110.427907428</v>
+        <v>7685215.072982507</v>
       </c>
       <c r="D412" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -45194,13 +45194,13 @@
         <v>4333</v>
       </c>
       <c r="B413" t="n">
-        <v>3243784.257429858</v>
+        <v>2647113.513748808</v>
       </c>
       <c r="C413" t="n">
-        <v>9136085.379116135</v>
+        <v>8089721.380482254</v>
       </c>
       <c r="D413" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -45304,13 +45304,13 @@
         <v>4341</v>
       </c>
       <c r="B414" t="n">
-        <v>3341183.245927763</v>
+        <v>2572450.058947838</v>
       </c>
       <c r="C414" t="n">
-        <v>8777806.196304908</v>
+        <v>7741439.399685441</v>
       </c>
       <c r="D414" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -45410,13 +45410,13 @@
         <v>4344</v>
       </c>
       <c r="B415" t="n">
-        <v>3146552.480677927</v>
+        <v>2496782.283705208</v>
       </c>
       <c r="C415" t="n">
-        <v>8996060.189161254</v>
+        <v>8010950.27404107</v>
       </c>
       <c r="D415" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -45512,13 +45512,13 @@
         <v>4346</v>
       </c>
       <c r="B416" t="n">
-        <v>3241363.105669237</v>
+        <v>2398817.149310745</v>
       </c>
       <c r="C416" t="n">
-        <v>8574026.18849542</v>
+        <v>7607648.325951241</v>
       </c>
       <c r="D416" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -45622,13 +45622,13 @@
         <v>4351</v>
       </c>
       <c r="B417" t="n">
-        <v>3286245.228019497</v>
+        <v>2543947.170942569</v>
       </c>
       <c r="C417" t="n">
-        <v>8822969.934638962</v>
+        <v>7803145.292708222</v>
       </c>
       <c r="D417" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -45728,13 +45728,13 @@
         <v>4355</v>
       </c>
       <c r="B418" t="n">
-        <v>3293533.118780769</v>
+        <v>2505886.061179927</v>
       </c>
       <c r="C418" t="n">
-        <v>8719849.331252659</v>
+        <v>7711618.6840756</v>
       </c>
       <c r="D418" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -45834,13 +45834,13 @@
         <v>4357</v>
       </c>
       <c r="B419" t="n">
-        <v>3239630.194244303</v>
+        <v>2417085.232426117</v>
       </c>
       <c r="C419" t="n">
-        <v>8621425.348850571</v>
+        <v>7649180.882510897</v>
       </c>
       <c r="D419" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -45944,13 +45944,13 @@
         <v>4366</v>
       </c>
       <c r="B420" t="n">
-        <v>3214379.107549813</v>
+        <v>2639151.401677032</v>
       </c>
       <c r="C420" t="n">
-        <v>9175101.614503341</v>
+        <v>8135944.874150861</v>
       </c>
       <c r="D420" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -46046,13 +46046,13 @@
         <v>4367</v>
       </c>
       <c r="B421" t="n">
-        <v>3272883.468326846</v>
+        <v>2489642.479632893</v>
       </c>
       <c r="C421" t="n">
-        <v>8724142.786281494</v>
+        <v>7723861.884687577</v>
       </c>
       <c r="D421" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -46152,13 +46152,13 @@
         <v>4369</v>
       </c>
       <c r="B422" t="n">
-        <v>3276629.394727433</v>
+        <v>2823801.721162798</v>
       </c>
       <c r="C422" t="n">
-        <v>9438960.861472428</v>
+        <v>8333338.634240361</v>
       </c>
       <c r="D422" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -46262,13 +46262,13 @@
         <v>4371</v>
       </c>
       <c r="B423" t="n">
-        <v>3267161.239043973</v>
+        <v>2858989.305939019</v>
       </c>
       <c r="C423" t="n">
-        <v>9523199.875559516</v>
+        <v>8408946.953668777</v>
       </c>
       <c r="D423" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -46376,13 +46376,13 @@
         <v>4372</v>
       </c>
       <c r="B424" t="n">
-        <v>2754398.684319981</v>
+        <v>2372813.443291792</v>
       </c>
       <c r="C424" t="n">
-        <v>9493848.938813267</v>
+        <v>8612479.476819605</v>
       </c>
       <c r="D424" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -46486,13 +46486,13 @@
         <v>4375</v>
       </c>
       <c r="B425" t="n">
-        <v>2784909.692248676</v>
+        <v>2307626.158839813</v>
       </c>
       <c r="C425" t="n">
-        <v>9298687.923150925</v>
+        <v>8427877.966209427</v>
       </c>
       <c r="D425" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -46596,13 +46596,13 @@
         <v>4379</v>
       </c>
       <c r="B426" t="n">
-        <v>3242756.942249314</v>
+        <v>2433048.744068481</v>
       </c>
       <c r="C426" t="n">
-        <v>8652911.321536178</v>
+        <v>7675013.244451894</v>
       </c>
       <c r="D426" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -46698,13 +46698,13 @@
         <v>4382</v>
       </c>
       <c r="B427" t="n">
-        <v>3392170.141936292</v>
+        <v>2839690.910695611</v>
       </c>
       <c r="C427" t="n">
-        <v>9264894.966180572</v>
+        <v>8133887.036459356</v>
       </c>
       <c r="D427" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -46800,13 +46800,13 @@
         <v>4393</v>
       </c>
       <c r="B428" t="n">
-        <v>3142719.483252478</v>
+        <v>2510725.27913279</v>
       </c>
       <c r="C428" t="n">
-        <v>9034752.341416085</v>
+        <v>8045975.418934457</v>
       </c>
       <c r="D428" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -46902,13 +46902,13 @@
         <v>4402</v>
       </c>
       <c r="B429" t="n">
-        <v>3249188.705566485</v>
+        <v>2476453.759476559</v>
       </c>
       <c r="C429" t="n">
-        <v>8741898.155886022</v>
+        <v>7748942.630984841</v>
       </c>
       <c r="D429" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -47012,13 +47012,13 @@
         <v>4409</v>
       </c>
       <c r="B430" t="n">
-        <v>2761267.367981904</v>
+        <v>2279411.502537394</v>
       </c>
       <c r="C430" t="n">
-        <v>9284643.997710438</v>
+        <v>8425554.473310668</v>
       </c>
       <c r="D430" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -47118,13 +47118,13 @@
         <v>4412</v>
       </c>
       <c r="B431" t="n">
-        <v>2984525.10292814</v>
+        <v>2623193.997237547</v>
       </c>
       <c r="C431" t="n">
-        <v>9565127.151411263</v>
+        <v>8573399.523924543</v>
       </c>
       <c r="D431" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -47228,13 +47228,13 @@
         <v>4417</v>
       </c>
       <c r="B432" t="n">
-        <v>2878939.84735248</v>
+        <v>2524794.287609638</v>
       </c>
       <c r="C432" t="n">
-        <v>9564579.669014258</v>
+        <v>8619968.055247324</v>
       </c>
       <c r="D432" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -47338,13 +47338,13 @@
         <v>4424</v>
       </c>
       <c r="B433" t="n">
-        <v>2693477.593704519</v>
+        <v>2092458.759940217</v>
       </c>
       <c r="C433" t="n">
-        <v>9002851.782293033</v>
+        <v>8205664.158407463</v>
       </c>
       <c r="D433" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -47452,13 +47452,13 @@
         <v>4436</v>
       </c>
       <c r="B434" t="n">
-        <v>3304163.597811861</v>
+        <v>2504450.770942709</v>
       </c>
       <c r="C434" t="n">
-        <v>8694679.855462708</v>
+        <v>7685617.95499767</v>
       </c>
       <c r="D434" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -47558,13 +47558,13 @@
         <v>4442</v>
       </c>
       <c r="B435" t="n">
-        <v>2793327.440368438</v>
+        <v>2150784.819923677</v>
       </c>
       <c r="C435" t="n">
-        <v>8928656.991150945</v>
+        <v>8099373.105807129</v>
       </c>
       <c r="D435" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -47668,13 +47668,13 @@
         <v>4454</v>
       </c>
       <c r="B436" t="n">
-        <v>3278421.713266709</v>
+        <v>2500085.002275786</v>
       </c>
       <c r="C436" t="n">
-        <v>8737220.792501017</v>
+        <v>7732800.743700575</v>
       </c>
       <c r="D436" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -47774,13 +47774,13 @@
         <v>4459</v>
       </c>
       <c r="B437" t="n">
-        <v>3133380.189898352</v>
+        <v>2356707.29208557</v>
       </c>
       <c r="C437" t="n">
-        <v>8699898.700547336</v>
+        <v>7760416.50595647</v>
       </c>
       <c r="D437" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -47880,13 +47880,13 @@
         <v>4462</v>
       </c>
       <c r="B438" t="n">
-        <v>3318342.430481981</v>
+        <v>2548461.214602785</v>
       </c>
       <c r="C438" t="n">
-        <v>8768484.181435036</v>
+        <v>7743005.471262147</v>
       </c>
       <c r="D438" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -47986,13 +47986,13 @@
         <v>4464</v>
       </c>
       <c r="B439" t="n">
-        <v>3414698.773440337</v>
+        <v>2859115.747608935</v>
       </c>
       <c r="C439" t="n">
-        <v>9264114.192651037</v>
+        <v>8123118.317601789</v>
       </c>
       <c r="D439" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -48092,13 +48092,13 @@
         <v>4467</v>
       </c>
       <c r="B440" t="n">
-        <v>3151128.648736496</v>
+        <v>2385984.654844944</v>
       </c>
       <c r="C440" t="n">
-        <v>8732085.835246375</v>
+        <v>7780970.760232796</v>
       </c>
       <c r="D440" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -48198,13 +48198,13 @@
         <v>4468</v>
       </c>
       <c r="B441" t="n">
-        <v>3441270.57437434</v>
+        <v>2593158.801766279</v>
       </c>
       <c r="C441" t="n">
-        <v>8622889.021690166</v>
+        <v>7567519.293350521</v>
       </c>
       <c r="D441" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -48308,13 +48308,13 @@
         <v>4470</v>
       </c>
       <c r="B442" t="n">
-        <v>2956049.321048133</v>
+        <v>2276679.557050803</v>
       </c>
       <c r="C442" t="n">
-        <v>8881754.484437745</v>
+        <v>7991340.88469192</v>
       </c>
       <c r="D442" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -48422,13 +48422,13 @@
         <v>4478</v>
       </c>
       <c r="B443" t="n">
-        <v>2923254.049923404</v>
+        <v>2567938.033852742</v>
       </c>
       <c r="C443" t="n">
-        <v>9568180.111192707</v>
+        <v>8603428.992432581</v>
       </c>
       <c r="D443" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -48528,13 +48528,13 @@
         <v>4482</v>
       </c>
       <c r="B444" t="n">
-        <v>2952259.742448919</v>
+        <v>2559804.823095553</v>
       </c>
       <c r="C444" t="n">
-        <v>9500240.723543299</v>
+        <v>8531547.395900458</v>
       </c>
       <c r="D444" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -48634,13 +48634,13 @@
         <v>4491</v>
       </c>
       <c r="B445" t="n">
-        <v>2953645.453623195</v>
+        <v>2579786.85520915</v>
       </c>
       <c r="C445" t="n">
-        <v>9536691.485548858</v>
+        <v>8562565.333192619</v>
       </c>
       <c r="D445" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -48740,13 +48740,13 @@
         <v>4509</v>
       </c>
       <c r="B446" t="n">
-        <v>3244410.80104951</v>
+        <v>2502050.626810342</v>
       </c>
       <c r="C446" t="n">
-        <v>8811129.147614304</v>
+        <v>7810474.425763415</v>
       </c>
       <c r="D446" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -48846,13 +48846,13 @@
         <v>4518</v>
       </c>
       <c r="B447" t="n">
-        <v>3242895.430278829</v>
+        <v>2549346.572149011</v>
       </c>
       <c r="C447" t="n">
-        <v>8922220.038589999</v>
+        <v>7906603.285642543</v>
       </c>
       <c r="D447" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -48956,13 +48956,13 @@
         <v>4519</v>
       </c>
       <c r="B448" t="n">
-        <v>3235618.680313625</v>
+        <v>2533044.634958512</v>
       </c>
       <c r="C448" t="n">
-        <v>8899844.106043281</v>
+        <v>7890443.666305007</v>
       </c>
       <c r="D448" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -49066,13 +49066,13 @@
         <v>4528</v>
       </c>
       <c r="B449" t="n">
-        <v>3263423.374465536</v>
+        <v>2515233.288751156</v>
       </c>
       <c r="C449" t="n">
-        <v>8802977.506946143</v>
+        <v>7795529.691848141</v>
       </c>
       <c r="D449" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -49172,13 +49172,13 @@
         <v>4533</v>
       </c>
       <c r="B450" t="n">
-        <v>3417690.304000002</v>
+        <v>2858714.925393302</v>
       </c>
       <c r="C450" t="n">
-        <v>9257881.229837596</v>
+        <v>8116520.162914395</v>
       </c>
       <c r="D450" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -49278,13 +49278,13 @@
         <v>4537</v>
       </c>
       <c r="B451" t="n">
-        <v>3234632.211168983</v>
+        <v>2513118.967963689</v>
       </c>
       <c r="C451" t="n">
-        <v>8856385.925204545</v>
+        <v>7853487.986549406</v>
       </c>
       <c r="D451" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -49384,13 +49384,13 @@
         <v>4545</v>
       </c>
       <c r="B452" t="n">
-        <v>3274494.021965779</v>
+        <v>2821223.369138663</v>
       </c>
       <c r="C452" t="n">
-        <v>9437654.399963474</v>
+        <v>8333203.503838061</v>
       </c>
       <c r="D452" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -49494,13 +49494,13 @@
         <v>4549</v>
       </c>
       <c r="B453" t="n">
-        <v>3133549.268713493</v>
+        <v>2357030.957029045</v>
       </c>
       <c r="C453" t="n">
-        <v>8700312.406811811</v>
+        <v>7760705.260043889</v>
       </c>
       <c r="D453" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -49596,13 +49596,13 @@
         <v>4550</v>
       </c>
       <c r="B454" t="n">
-        <v>3108721.363199939</v>
+        <v>2331166.601597659</v>
       </c>
       <c r="C454" t="n">
-        <v>8690924.473264243</v>
+        <v>7762736.674006972</v>
       </c>
       <c r="D454" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -49698,13 +49698,13 @@
         <v>4561</v>
       </c>
       <c r="B455" t="n">
-        <v>3122018.746704604</v>
+        <v>2335241.328156523</v>
       </c>
       <c r="C455" t="n">
-        <v>8672697.101544354</v>
+        <v>7741515.025563862</v>
       </c>
       <c r="D455" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -49804,13 +49804,13 @@
         <v>4563</v>
       </c>
       <c r="B456" t="n">
-        <v>3139579.609747944</v>
+        <v>2348456.682455549</v>
       </c>
       <c r="C456" t="n">
-        <v>8667304.878388809</v>
+        <v>7729675.202729165</v>
       </c>
       <c r="D456" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -49906,13 +49906,13 @@
         <v>4567</v>
       </c>
       <c r="B457" t="n">
-        <v>2825748.201449246</v>
+        <v>2367244.02596404</v>
       </c>
       <c r="C457" t="n">
-        <v>9345720.080041273</v>
+        <v>8451735.435047714</v>
       </c>
       <c r="D457" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -50016,13 +50016,13 @@
         <v>4569</v>
       </c>
       <c r="B458" t="n">
-        <v>2568938.597608513</v>
+        <v>1960218.760851423</v>
       </c>
       <c r="C458" t="n">
-        <v>8956947.929992437</v>
+        <v>8216022.529813723</v>
       </c>
       <c r="D458" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -50122,13 +50122,13 @@
         <v>4576</v>
       </c>
       <c r="B459" t="n">
-        <v>3660738.791937691</v>
+        <v>2657655.380927747</v>
       </c>
       <c r="C459" t="n">
-        <v>8325365.613984443</v>
+        <v>7225479.049004153</v>
       </c>
       <c r="D459" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -50232,13 +50232,13 @@
         <v>4577</v>
       </c>
       <c r="B460" t="n">
-        <v>3303658.932726507</v>
+        <v>2703309.074445615</v>
       </c>
       <c r="C460" t="n">
-        <v>9142702.213555736</v>
+        <v>8069305.928269252</v>
       </c>
       <c r="D460" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -50338,13 +50338,13 @@
         <v>4579</v>
       </c>
       <c r="B461" t="n">
-        <v>2930123.559188171</v>
+        <v>2184538.453286471</v>
       </c>
       <c r="C461" t="n">
-        <v>8718848.041066339</v>
+        <v>7859784.803632502</v>
       </c>
       <c r="D461" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -50440,13 +50440,13 @@
         <v>4580</v>
       </c>
       <c r="B462" t="n">
-        <v>3108710.066455834</v>
+        <v>2331162.436089578</v>
       </c>
       <c r="C462" t="n">
-        <v>8690938.281655805</v>
+        <v>7762753.256313736</v>
       </c>
       <c r="D462" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -50542,13 +50542,13 @@
         <v>4584</v>
       </c>
       <c r="B463" t="n">
-        <v>3220049.869435803</v>
+        <v>2403726.21064889</v>
       </c>
       <c r="C463" t="n">
-        <v>8630477.662677957</v>
+        <v>7664985.200634722</v>
       </c>
       <c r="D463" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -50644,13 +50644,13 @@
         <v>4588</v>
       </c>
       <c r="B464" t="n">
-        <v>3248709.853695151</v>
+        <v>2426888.434295351</v>
       </c>
       <c r="C464" t="n">
-        <v>8625853.298924316</v>
+        <v>7649279.76548728</v>
       </c>
       <c r="D464" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -50750,13 +50750,13 @@
         <v>4607</v>
       </c>
       <c r="B465" t="n">
-        <v>3117479.877996639</v>
+        <v>2333067.932259144</v>
       </c>
       <c r="C465" t="n">
-        <v>8677056.177195489</v>
+        <v>7747143.807065994</v>
       </c>
       <c r="D465" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -50852,13 +50852,13 @@
         <v>4611</v>
       </c>
       <c r="B466" t="n">
-        <v>3187171.91493044</v>
+        <v>2461500.776380384</v>
       </c>
       <c r="C466" t="n">
-        <v>8833981.02466521</v>
+        <v>7854033.20599095</v>
       </c>
       <c r="D466" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -50958,13 +50958,13 @@
         <v>4612</v>
       </c>
       <c r="B467" t="n">
-        <v>2980659.712220057</v>
+        <v>2301602.377233604</v>
       </c>
       <c r="C467" t="n">
-        <v>8888546.125397477</v>
+        <v>7987091.155213338</v>
       </c>
       <c r="D467" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -51068,13 +51068,13 @@
         <v>4614</v>
       </c>
       <c r="B468" t="n">
-        <v>3132596.222512139</v>
+        <v>2343994.216111306</v>
       </c>
       <c r="C468" t="n">
-        <v>8671333.360750347</v>
+        <v>7736014.279549765</v>
       </c>
       <c r="D468" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -51174,13 +51174,13 @@
         <v>4622</v>
       </c>
       <c r="B469" t="n">
-        <v>3084531.01000104</v>
+        <v>2616696.687340997</v>
       </c>
       <c r="C469" t="n">
-        <v>9371765.266296538</v>
+        <v>8361955.121924409</v>
       </c>
       <c r="D469" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -51288,13 +51288,13 @@
         <v>4626</v>
       </c>
       <c r="B470" t="n">
-        <v>3672866.258785429</v>
+        <v>2663635.776256619</v>
       </c>
       <c r="C470" t="n">
-        <v>8314803.247952238</v>
+        <v>7211670.099428145</v>
       </c>
       <c r="D470" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -51398,13 +51398,13 @@
         <v>4631</v>
       </c>
       <c r="B471" t="n">
-        <v>3237870.438449393</v>
+        <v>2480741.63124031</v>
       </c>
       <c r="C471" t="n">
-        <v>8775076.385379324</v>
+        <v>7782184.499963421</v>
       </c>
       <c r="D471" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -51504,13 +51504,13 @@
         <v>4634</v>
       </c>
       <c r="B472" t="n">
-        <v>2981819.74409574</v>
+        <v>2310336.993120349</v>
       </c>
       <c r="C472" t="n">
-        <v>8906358.4813818</v>
+        <v>8002126.194020266</v>
       </c>
       <c r="D472" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -51610,13 +51610,13 @@
         <v>4635</v>
       </c>
       <c r="B473" t="n">
-        <v>3266713.231696134</v>
+        <v>2485805.765772057</v>
       </c>
       <c r="C473" t="n">
-        <v>8727818.832180273</v>
+        <v>7729576.531263228</v>
       </c>
       <c r="D473" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -51712,13 +51712,13 @@
         <v>4639</v>
       </c>
       <c r="B474" t="n">
-        <v>3193445.946826315</v>
+        <v>2429476.677039132</v>
       </c>
       <c r="C474" t="n">
-        <v>8746643.066489831</v>
+        <v>7776094.549686404</v>
       </c>
       <c r="D474" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -51818,13 +51818,13 @@
         <v>4651</v>
       </c>
       <c r="B475" t="n">
-        <v>2638398.193327633</v>
+        <v>1988281.659246541</v>
       </c>
       <c r="C475" t="n">
-        <v>8874428.206654381</v>
+        <v>8114835.199065001</v>
       </c>
       <c r="D475" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -51920,13 +51920,13 @@
         <v>4655</v>
       </c>
       <c r="B476" t="n">
-        <v>2892509.789973543</v>
+        <v>2211108.927219345</v>
       </c>
       <c r="C476" t="n">
-        <v>8861395.258167861</v>
+        <v>7999712.998832119</v>
       </c>
       <c r="D476" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -52030,13 +52030,13 @@
         <v>4659</v>
       </c>
       <c r="B477" t="n">
-        <v>2954999.879691322</v>
+        <v>2278952.950636916</v>
       </c>
       <c r="C477" t="n">
-        <v>8889218.51230471</v>
+        <v>7998283.528084856</v>
       </c>
       <c r="D477" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -528,13 +528,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1852093.438748213</v>
+        <v>716545.3069265599</v>
       </c>
       <c r="C2" t="n">
-        <v>8051003.770786498</v>
+        <v>7654589.650507458</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -642,13 +642,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>2639272.158338214</v>
+        <v>1317109.434335054</v>
       </c>
       <c r="C3" t="n">
-        <v>7900951.193148344</v>
+        <v>7163467.76034487</v>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -748,13 +748,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>2690329.35314429</v>
+        <v>1291318.869783413</v>
       </c>
       <c r="C4" t="n">
-        <v>7750050.496842982</v>
+        <v>7013925.435213597</v>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="n">
-        <v>2340468.123693108</v>
+        <v>1257901.619600638</v>
       </c>
       <c r="C5" t="n">
-        <v>8315505.004193214</v>
+        <v>7650809.978011907</v>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>62</v>
       </c>
       <c r="B6" t="n">
-        <v>2463462.35658043</v>
+        <v>1365606.063928074</v>
       </c>
       <c r="C6" t="n">
-        <v>8323004.731211872</v>
+        <v>7599094.647634769</v>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1070,13 +1070,13 @@
         <v>72</v>
       </c>
       <c r="B7" t="n">
-        <v>2274943.556610626</v>
+        <v>1069869.444811051</v>
       </c>
       <c r="C7" t="n">
-        <v>8032853.588648868</v>
+        <v>7442350.681928407</v>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1176,13 +1176,13 @@
         <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>2338920.216379512</v>
+        <v>1209081.86383385</v>
       </c>
       <c r="C8" t="n">
-        <v>8214725.596522023</v>
+        <v>7566463.230602886</v>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1282,13 +1282,13 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>2634472.361635698</v>
+        <v>1307277.207413263</v>
       </c>
       <c r="C9" t="n">
-        <v>7888281.655556674</v>
+        <v>7155049.473832305</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1392,13 +1392,13 @@
         <v>107</v>
       </c>
       <c r="B10" t="n">
-        <v>2007653.904565806</v>
+        <v>976243.837006319</v>
       </c>
       <c r="C10" t="n">
-        <v>8319423.499343518</v>
+        <v>7811336.278019895</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1502,13 +1502,13 @@
         <v>115</v>
       </c>
       <c r="B11" t="n">
-        <v>2034099.701530159</v>
+        <v>992954.9348838349</v>
       </c>
       <c r="C11" t="n">
-        <v>8306953.332123009</v>
+        <v>7788195.094970963</v>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1612,13 +1612,13 @@
         <v>130</v>
       </c>
       <c r="B12" t="n">
-        <v>2140709.554655668</v>
+        <v>613207.7691637869</v>
       </c>
       <c r="C12" t="n">
-        <v>7277364.701297241</v>
+        <v>6857478.69049342</v>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1722,13 +1722,13 @@
         <v>156</v>
       </c>
       <c r="B13" t="n">
-        <v>2344150.5220241</v>
+        <v>1265526.457405787</v>
       </c>
       <c r="C13" t="n">
-        <v>8325015.610455016</v>
+        <v>7657095.969186667</v>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1836,13 +1836,13 @@
         <v>187</v>
       </c>
       <c r="B14" t="n">
-        <v>2158526.88621364</v>
+        <v>1153453.643495219</v>
       </c>
       <c r="C14" t="n">
-        <v>8421353.385968748</v>
+        <v>7826518.910732556</v>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1950,13 +1950,13 @@
         <v>231</v>
       </c>
       <c r="B15" t="n">
-        <v>2010620.71085339</v>
+        <v>979995.7358453544</v>
       </c>
       <c r="C15" t="n">
-        <v>8321987.578397905</v>
+        <v>7812120.042808705</v>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2056,13 +2056,13 @@
         <v>266</v>
       </c>
       <c r="B16" t="n">
-        <v>2036587.716330204</v>
+        <v>996115.4200828257</v>
       </c>
       <c r="C16" t="n">
-        <v>8309137.998332461</v>
+        <v>7788881.611347905</v>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2162,13 +2162,13 @@
         <v>273</v>
       </c>
       <c r="B17" t="n">
-        <v>2199573.359793198</v>
+        <v>1184846.687168772</v>
       </c>
       <c r="C17" t="n">
-        <v>8413856.157287423</v>
+        <v>7800661.652034893</v>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2276,13 +2276,13 @@
         <v>323</v>
       </c>
       <c r="B18" t="n">
-        <v>2121660.836102365</v>
+        <v>718595.4453576277</v>
       </c>
       <c r="C18" t="n">
-        <v>7550602.382151841</v>
+        <v>7100953.376766212</v>
       </c>
       <c r="D18" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2386,13 +2386,13 @@
         <v>331</v>
       </c>
       <c r="B19" t="n">
-        <v>2330265.39199483</v>
+        <v>817906.3644586715</v>
       </c>
       <c r="C19" t="n">
-        <v>7372554.543287394</v>
+        <v>6855471.294381556</v>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2496,13 +2496,13 @@
         <v>338</v>
       </c>
       <c r="B20" t="n">
-        <v>2364727.803456953</v>
+        <v>1289343.99919946</v>
       </c>
       <c r="C20" t="n">
-        <v>8338459.625021471</v>
+        <v>7658714.591242018</v>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2602,13 +2602,13 @@
         <v>352</v>
       </c>
       <c r="B21" t="n">
-        <v>2025602.099442901</v>
+        <v>984604.5458906151</v>
       </c>
       <c r="C21" t="n">
-        <v>8304659.06691811</v>
+        <v>7790255.022108324</v>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2712,13 +2712,13 @@
         <v>361</v>
       </c>
       <c r="B22" t="n">
-        <v>2156602.00218085</v>
+        <v>1099911.427408059</v>
       </c>
       <c r="C22" t="n">
-        <v>8312011.571413549</v>
+        <v>7734628.197918099</v>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2818,13 +2818,13 @@
         <v>368</v>
       </c>
       <c r="B23" t="n">
-        <v>1941047.062876788</v>
+        <v>605006.4034488304</v>
       </c>
       <c r="C23" t="n">
-        <v>7643176.850648028</v>
+        <v>7262366.437419397</v>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2928,13 +2928,13 @@
         <v>371</v>
       </c>
       <c r="B24" t="n">
-        <v>2156419.546994574</v>
+        <v>1098424.835945983</v>
       </c>
       <c r="C24" t="n">
-        <v>8309197.065814246</v>
+        <v>7732324.276248082</v>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         <v>372</v>
       </c>
       <c r="B25" t="n">
-        <v>2013132.91139089</v>
+        <v>980759.3883899424</v>
       </c>
       <c r="C25" t="n">
-        <v>8319063.2198891</v>
+        <v>7808436.827824852</v>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3148,13 +3148,13 @@
         <v>377</v>
       </c>
       <c r="B26" t="n">
-        <v>2341992.118336803</v>
+        <v>1263012.575800503</v>
       </c>
       <c r="C26" t="n">
-        <v>8323572.729345333</v>
+        <v>7656897.570337172</v>
       </c>
       <c r="D26" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3258,13 +3258,13 @@
         <v>392</v>
       </c>
       <c r="B27" t="n">
-        <v>2475188.115149915</v>
+        <v>1157744.635303447</v>
       </c>
       <c r="C27" t="n">
-        <v>7854913.143695055</v>
+        <v>7199727.021158991</v>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3364,13 +3364,13 @@
         <v>427</v>
       </c>
       <c r="B28" t="n">
-        <v>2622835.33826658</v>
+        <v>1447881.949587269</v>
       </c>
       <c r="C28" t="n">
-        <v>8212619.631935432</v>
+        <v>7431729.165202651</v>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3466,13 +3466,13 @@
         <v>429</v>
       </c>
       <c r="B29" t="n">
-        <v>2268821.659200547</v>
+        <v>771419.7362182932</v>
       </c>
       <c r="C29" t="n">
-        <v>7386283.021533143</v>
+        <v>6894388.496487468</v>
       </c>
       <c r="D29" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3572,13 +3572,13 @@
         <v>446</v>
       </c>
       <c r="B30" t="n">
-        <v>2018616.659446624</v>
+        <v>978162.385763769</v>
       </c>
       <c r="C30" t="n">
-        <v>8303668.014324577</v>
+        <v>7792711.278856824</v>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3678,13 +3678,13 @@
         <v>453</v>
       </c>
       <c r="B31" t="n">
-        <v>2056397.445075672</v>
+        <v>987687.8038031845</v>
       </c>
       <c r="C31" t="n">
-        <v>8255455.34377418</v>
+        <v>7733771.065505034</v>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3788,13 +3788,13 @@
         <v>503</v>
       </c>
       <c r="B32" t="n">
-        <v>2363751.868755724</v>
+        <v>1301574.429829562</v>
       </c>
       <c r="C32" t="n">
-        <v>8365979.429334726</v>
+        <v>7682368.409099434</v>
       </c>
       <c r="D32" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3898,13 +3898,13 @@
         <v>537</v>
       </c>
       <c r="B33" t="n">
-        <v>2200022.895045715</v>
+        <v>1184117.962264954</v>
       </c>
       <c r="C33" t="n">
-        <v>8411521.957719814</v>
+        <v>7798470.613414782</v>
       </c>
       <c r="D33" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4012,13 +4012,13 @@
         <v>538</v>
       </c>
       <c r="B34" t="n">
-        <v>1868512.848084452</v>
+        <v>765000.9327314259</v>
       </c>
       <c r="C34" t="n">
-        <v>8124319.325773414</v>
+        <v>7709895.433042902</v>
       </c>
       <c r="D34" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4122,13 +4122,13 @@
         <v>539</v>
       </c>
       <c r="B35" t="n">
-        <v>2012857.618519944</v>
+        <v>981631.5596356103</v>
       </c>
       <c r="C35" t="n">
-        <v>8321402.064379013</v>
+        <v>7810562.171573332</v>
       </c>
       <c r="D35" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4232,13 +4232,13 @@
         <v>562</v>
       </c>
       <c r="B36" t="n">
-        <v>2025609.81348579</v>
+        <v>984601.9975371652</v>
       </c>
       <c r="C36" t="n">
-        <v>8304639.738413235</v>
+        <v>7790234.892417417</v>
       </c>
       <c r="D36" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4342,13 +4342,13 @@
         <v>573</v>
       </c>
       <c r="B37" t="n">
-        <v>2036593.43454975</v>
+        <v>996113.6128297481</v>
       </c>
       <c r="C37" t="n">
-        <v>8309123.849057751</v>
+        <v>7788866.846235733</v>
       </c>
       <c r="D37" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4452,13 +4452,13 @@
         <v>582</v>
       </c>
       <c r="B38" t="n">
-        <v>1999995.575184518</v>
+        <v>940623.1732359559</v>
       </c>
       <c r="C38" t="n">
-        <v>8257932.453271148</v>
+        <v>7762468.58874333</v>
       </c>
       <c r="D38" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4562,13 +4562,13 @@
         <v>586</v>
       </c>
       <c r="B39" t="n">
-        <v>2396410.980045228</v>
+        <v>1215671.591087865</v>
       </c>
       <c r="C39" t="n">
-        <v>8124712.848425786</v>
+        <v>7463628.186775266</v>
       </c>
       <c r="D39" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4672,13 +4672,13 @@
         <v>599</v>
       </c>
       <c r="B40" t="n">
-        <v>2010385.872678819</v>
+        <v>978502.4323821636</v>
       </c>
       <c r="C40" t="n">
-        <v>8319258.543072321</v>
+        <v>7809903.037452126</v>
       </c>
       <c r="D40" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4782,13 +4782,13 @@
         <v>624</v>
       </c>
       <c r="B41" t="n">
-        <v>2518214.544389718</v>
+        <v>1395369.291707831</v>
       </c>
       <c r="C41" t="n">
-        <v>8288174.304385794</v>
+        <v>7544065.702328905</v>
       </c>
       <c r="D41" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4888,13 +4888,13 @@
         <v>647</v>
       </c>
       <c r="B42" t="n">
-        <v>2248727.498340966</v>
+        <v>826350.3057048488</v>
       </c>
       <c r="C42" t="n">
-        <v>7548069.878245566</v>
+        <v>7041694.674429433</v>
       </c>
       <c r="D42" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4998,13 +4998,13 @@
         <v>648</v>
       </c>
       <c r="B43" t="n">
-        <v>2162242.745502123</v>
+        <v>619632.1958069949</v>
       </c>
       <c r="C43" t="n">
-        <v>7249822.904509745</v>
+        <v>6824263.560986303</v>
       </c>
       <c r="D43" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -5108,13 +5108,13 @@
         <v>650</v>
       </c>
       <c r="B44" t="n">
-        <v>2341998.457932863</v>
+        <v>1263158.771712763</v>
       </c>
       <c r="C44" t="n">
-        <v>8323870.177021156</v>
+        <v>7657145.518444227</v>
       </c>
       <c r="D44" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         <v>664</v>
       </c>
       <c r="B45" t="n">
-        <v>2197585.670166767</v>
+        <v>1178231.506268718</v>
       </c>
       <c r="C45" t="n">
-        <v>8403514.74805692</v>
+        <v>7792843.475297939</v>
       </c>
       <c r="D45" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5336,13 +5336,13 @@
         <v>687</v>
       </c>
       <c r="B46" t="n">
-        <v>2145103.674059173</v>
+        <v>1139466.388212251</v>
       </c>
       <c r="C46" t="n">
-        <v>8416007.802177584</v>
+        <v>7828361.872455263</v>
       </c>
       <c r="D46" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5446,13 +5446,13 @@
         <v>711</v>
       </c>
       <c r="B47" t="n">
-        <v>2367061.974559759</v>
+        <v>1289815.635090805</v>
       </c>
       <c r="C47" t="n">
-        <v>8335279.780862161</v>
+        <v>7654931.959355357</v>
       </c>
       <c r="D47" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5552,13 +5552,13 @@
         <v>712</v>
       </c>
       <c r="B48" t="n">
-        <v>2676245.00648669</v>
+        <v>1277353.564574054</v>
       </c>
       <c r="C48" t="n">
-        <v>7745307.811321536</v>
+        <v>7016313.405409556</v>
       </c>
       <c r="D48" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5662,13 +5662,13 @@
         <v>760</v>
       </c>
       <c r="B49" t="n">
-        <v>2306611.778344066</v>
+        <v>926769.1618215935</v>
       </c>
       <c r="C49" t="n">
-        <v>7661401.558861186</v>
+        <v>7112289.289315744</v>
       </c>
       <c r="D49" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5764,13 +5764,13 @@
         <v>774</v>
       </c>
       <c r="B50" t="n">
-        <v>2704813.347780006</v>
+        <v>1296199.209881424</v>
       </c>
       <c r="C50" t="n">
-        <v>7733956.241105281</v>
+        <v>6993920.367529894</v>
       </c>
       <c r="D50" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5874,13 +5874,13 @@
         <v>782</v>
       </c>
       <c r="B51" t="n">
-        <v>2198177.268506652</v>
+        <v>1182954.423963473</v>
       </c>
       <c r="C51" t="n">
-        <v>8412378.534055747</v>
+        <v>7800072.818773687</v>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5988,13 +5988,13 @@
         <v>797</v>
       </c>
       <c r="B52" t="n">
-        <v>2287080.924333466</v>
+        <v>933972.8689864292</v>
       </c>
       <c r="C52" t="n">
-        <v>7714088.798475574</v>
+        <v>7165969.772624996</v>
       </c>
       <c r="D52" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6094,13 +6094,13 @@
         <v>800</v>
       </c>
       <c r="B53" t="n">
-        <v>2144020.572293398</v>
+        <v>969399.4100434722</v>
       </c>
       <c r="C53" t="n">
-        <v>8056680.213751432</v>
+        <v>7523377.41203678</v>
       </c>
       <c r="D53" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6208,13 +6208,13 @@
         <v>806</v>
       </c>
       <c r="B54" t="n">
-        <v>2115535.700764748</v>
+        <v>943653.5888887567</v>
       </c>
       <c r="C54" t="n">
-        <v>8053622.791113428</v>
+        <v>7534018.995320976</v>
       </c>
       <c r="D54" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6322,13 +6322,13 @@
         <v>808</v>
       </c>
       <c r="B55" t="n">
-        <v>2629721.064068513</v>
+        <v>1306174.23881721</v>
       </c>
       <c r="C55" t="n">
-        <v>7894598.127099914</v>
+        <v>7162512.046347829</v>
       </c>
       <c r="D55" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6428,13 +6428,13 @@
         <v>811</v>
       </c>
       <c r="B56" t="n">
-        <v>2070336.724069931</v>
+        <v>961583.1122829969</v>
       </c>
       <c r="C56" t="n">
-        <v>8174634.0119202</v>
+        <v>7658312.715738625</v>
       </c>
       <c r="D56" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         <v>821</v>
       </c>
       <c r="B57" t="n">
-        <v>1764306.741233862</v>
+        <v>659791.6919986999</v>
       </c>
       <c r="C57" t="n">
-        <v>8091281.869141079</v>
+        <v>7730369.296077661</v>
       </c>
       <c r="D57" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6644,13 +6644,13 @@
         <v>831</v>
       </c>
       <c r="B58" t="n">
-        <v>2156284.624665534</v>
+        <v>1100747.207668099</v>
       </c>
       <c r="C58" t="n">
-        <v>8314350.325315871</v>
+        <v>7736764.095026573</v>
       </c>
       <c r="D58" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6758,13 +6758,13 @@
         <v>833</v>
       </c>
       <c r="B59" t="n">
-        <v>2017855.7137926</v>
+        <v>983172.1199407734</v>
       </c>
       <c r="C59" t="n">
-        <v>8315628.683623448</v>
+        <v>7803273.24599669</v>
       </c>
       <c r="D59" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -6872,13 +6872,13 @@
         <v>838</v>
       </c>
       <c r="B60" t="n">
-        <v>2195996.410969757</v>
+        <v>1163086.230637999</v>
       </c>
       <c r="C60" t="n">
-        <v>8374502.723408097</v>
+        <v>7769010.616870533</v>
       </c>
       <c r="D60" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -6982,13 +6982,13 @@
         <v>840</v>
       </c>
       <c r="B61" t="n">
-        <v>1977468.850044923</v>
+        <v>877210.4665742893</v>
       </c>
       <c r="C61" t="n">
-        <v>8164183.260950015</v>
+        <v>7692943.6989805</v>
       </c>
       <c r="D61" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7096,13 +7096,13 @@
         <v>852</v>
       </c>
       <c r="B62" t="n">
-        <v>2241448.942549306</v>
+        <v>838278.3538878042</v>
       </c>
       <c r="C62" t="n">
-        <v>7588471.052923762</v>
+        <v>7079476.659341978</v>
       </c>
       <c r="D62" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7202,13 +7202,13 @@
         <v>866</v>
       </c>
       <c r="B63" t="n">
-        <v>2667797.44586015</v>
+        <v>1276363.705185957</v>
       </c>
       <c r="C63" t="n">
-        <v>7758805.033906454</v>
+        <v>7031436.477282028</v>
       </c>
       <c r="D63" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7308,13 +7308,13 @@
         <v>867</v>
       </c>
       <c r="B64" t="n">
-        <v>2027523.925892813</v>
+        <v>994233.0387874746</v>
       </c>
       <c r="C64" t="n">
-        <v>8321529.850209043</v>
+        <v>7803732.505514419</v>
       </c>
       <c r="D64" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7422,13 +7422,13 @@
         <v>891</v>
       </c>
       <c r="B65" t="n">
-        <v>2156278.192165036</v>
+        <v>1100748.686225923</v>
       </c>
       <c r="C65" t="n">
-        <v>8314365.039955202</v>
+        <v>7736779.62819042</v>
       </c>
       <c r="D65" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7528,13 +7528,13 @@
         <v>909</v>
       </c>
       <c r="B66" t="n">
-        <v>2629710.537302796</v>
+        <v>1407593.56543087</v>
       </c>
       <c r="C66" t="n">
-        <v>8114195.285708099</v>
+        <v>7346281.374202767</v>
       </c>
       <c r="D66" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7638,13 +7638,13 @@
         <v>916</v>
       </c>
       <c r="B67" t="n">
-        <v>2303159.217323777</v>
+        <v>904787.1745641358</v>
       </c>
       <c r="C67" t="n">
-        <v>7619185.215285856</v>
+        <v>7077901.709296967</v>
       </c>
       <c r="D67" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7740,13 +7740,13 @@
         <v>918</v>
       </c>
       <c r="B68" t="n">
-        <v>2365713.768658844</v>
+        <v>1290684.901944543</v>
       </c>
       <c r="C68" t="n">
-        <v>8339525.133063725</v>
+        <v>7659146.800656578</v>
       </c>
       <c r="D68" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7846,13 +7846,13 @@
         <v>919</v>
       </c>
       <c r="B69" t="n">
-        <v>2207940.726972455</v>
+        <v>1192132.089914491</v>
       </c>
       <c r="C69" t="n">
-        <v>8414196.503435722</v>
+        <v>7796975.877846763</v>
       </c>
       <c r="D69" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7960,13 +7960,13 @@
         <v>929</v>
       </c>
       <c r="B70" t="n">
-        <v>2212624.11653096</v>
+        <v>1198443.377826289</v>
       </c>
       <c r="C70" t="n">
-        <v>8419077.346327858</v>
+        <v>7798884.693372183</v>
       </c>
       <c r="D70" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         <v>942</v>
       </c>
       <c r="B71" t="n">
-        <v>2030079.749090697</v>
+        <v>992654.98101819</v>
       </c>
       <c r="C71" t="n">
-        <v>8313581.50424387</v>
+        <v>7795746.705734865</v>
       </c>
       <c r="D71" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -8184,13 +8184,13 @@
         <v>950</v>
       </c>
       <c r="B72" t="n">
-        <v>2370755.554974334</v>
+        <v>1334774.628198704</v>
       </c>
       <c r="C72" t="n">
-        <v>8423247.898963079</v>
+        <v>7727287.848503093</v>
       </c>
       <c r="D72" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -8294,13 +8294,13 @@
         <v>957</v>
       </c>
       <c r="B73" t="n">
-        <v>2345946.348795016</v>
+        <v>1265295.017096241</v>
       </c>
       <c r="C73" t="n">
-        <v>8321309.357338045</v>
+        <v>7653121.923246186</v>
       </c>
       <c r="D73" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -8408,13 +8408,13 @@
         <v>958</v>
       </c>
       <c r="B74" t="n">
-        <v>2695535.059953071</v>
+        <v>1376869.025016262</v>
       </c>
       <c r="C74" t="n">
-        <v>7928308.838540534</v>
+        <v>7160603.209204636</v>
       </c>
       <c r="D74" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -8514,13 +8514,13 @@
         <v>963</v>
       </c>
       <c r="B75" t="n">
-        <v>2203068.156699481</v>
+        <v>789089.2370049354</v>
       </c>
       <c r="C75" t="n">
-        <v>7552104.064962784</v>
+        <v>7065637.5475065</v>
       </c>
       <c r="D75" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -8616,13 +8616,13 @@
         <v>975</v>
       </c>
       <c r="B76" t="n">
-        <v>2348359.973612214</v>
+        <v>1275227.842817889</v>
       </c>
       <c r="C76" t="n">
-        <v>8337958.641277158</v>
+        <v>7666024.974995402</v>
       </c>
       <c r="D76" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -8722,13 +8722,13 @@
         <v>977</v>
       </c>
       <c r="B77" t="n">
-        <v>2365145.351163618</v>
+        <v>1288574.506436826</v>
       </c>
       <c r="C77" t="n">
-        <v>8336089.227224595</v>
+        <v>7656519.48107017</v>
       </c>
       <c r="D77" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -8828,13 +8828,13 @@
         <v>979</v>
       </c>
       <c r="B78" t="n">
-        <v>2703162.377832241</v>
+        <v>1325565.010734642</v>
       </c>
       <c r="C78" t="n">
-        <v>7801887.667661927</v>
+        <v>7051485.772339288</v>
       </c>
       <c r="D78" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -8938,13 +8938,13 @@
         <v>984</v>
       </c>
       <c r="B79" t="n">
-        <v>2373411.839136363</v>
+        <v>1289019.168612078</v>
       </c>
       <c r="C79" t="n">
-        <v>8322235.641298331</v>
+        <v>7640941.251221206</v>
       </c>
       <c r="D79" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -9048,13 +9048,13 @@
         <v>991</v>
       </c>
       <c r="B80" t="n">
-        <v>2156600.428499082</v>
+        <v>1099911.792962415</v>
       </c>
       <c r="C80" t="n">
-        <v>8312015.179923786</v>
+        <v>7734632.005301744</v>
       </c>
       <c r="D80" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -9162,13 +9162,13 @@
         <v>1003</v>
       </c>
       <c r="B81" t="n">
-        <v>2366639.515331647</v>
+        <v>1290586.133360659</v>
       </c>
       <c r="C81" t="n">
-        <v>8337661.162817011</v>
+        <v>7657138.50883689</v>
       </c>
       <c r="D81" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -9268,13 +9268,13 @@
         <v>1070</v>
       </c>
       <c r="B82" t="n">
-        <v>2161232.50465455</v>
+        <v>1103420.446603166</v>
       </c>
       <c r="C82" t="n">
-        <v>8311087.173799707</v>
+        <v>7731656.840806731</v>
       </c>
       <c r="D82" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -9378,13 +9378,13 @@
         <v>1074</v>
       </c>
       <c r="B83" t="n">
-        <v>2146817.054232659</v>
+        <v>626765.0559981896</v>
       </c>
       <c r="C83" t="n">
-        <v>7296155.358474685</v>
+        <v>6870970.438198091</v>
       </c>
       <c r="D83" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -9488,13 +9488,13 @@
         <v>1076</v>
       </c>
       <c r="B84" t="n">
-        <v>1940099.564055592</v>
+        <v>604935.8241788865</v>
       </c>
       <c r="C84" t="n">
-        <v>7644817.831134021</v>
+        <v>7264213.123815491</v>
       </c>
       <c r="D84" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -9598,13 +9598,13 @@
         <v>1085</v>
       </c>
       <c r="B85" t="n">
-        <v>2195445.73798072</v>
+        <v>1183243.561898906</v>
       </c>
       <c r="C85" t="n">
-        <v>8417869.356032733</v>
+        <v>7806022.506910689</v>
       </c>
       <c r="D85" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -9712,13 +9712,13 @@
         <v>1086</v>
       </c>
       <c r="B86" t="n">
-        <v>2197696.487239017</v>
+        <v>1182325.211327434</v>
       </c>
       <c r="C86" t="n">
-        <v>8411916.782962151</v>
+        <v>7799909.921631613</v>
       </c>
       <c r="D86" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -9826,13 +9826,13 @@
         <v>1090</v>
       </c>
       <c r="B87" t="n">
-        <v>2143075.013715704</v>
+        <v>836861.3790207192</v>
       </c>
       <c r="C87" t="n">
-        <v>7770942.354202003</v>
+        <v>7279990.7271967</v>
       </c>
       <c r="D87" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -9932,13 +9932,13 @@
         <v>1091</v>
       </c>
       <c r="B88" t="n">
-        <v>2366145.45182155</v>
+        <v>1289915.221627235</v>
       </c>
       <c r="C88" t="n">
-        <v>8337129.277949953</v>
+        <v>7656923.635255026</v>
       </c>
       <c r="D88" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -10038,13 +10038,13 @@
         <v>1094</v>
       </c>
       <c r="B89" t="n">
-        <v>2603996.612984551</v>
+        <v>1409359.799312466</v>
       </c>
       <c r="C89" t="n">
-        <v>8164261.988309227</v>
+        <v>7400114.159695893</v>
       </c>
       <c r="D89" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -10140,13 +10140,13 @@
         <v>1097</v>
       </c>
       <c r="B90" t="n">
-        <v>2309704.994298369</v>
+        <v>935175.5479990015</v>
       </c>
       <c r="C90" t="n">
-        <v>7674173.152331115</v>
+        <v>7121760.586731764</v>
       </c>
       <c r="D90" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -10242,13 +10242,13 @@
         <v>1100</v>
       </c>
       <c r="B91" t="n">
-        <v>2036590.391980047</v>
+        <v>996114.5744490115</v>
       </c>
       <c r="C91" t="n">
-        <v>8309131.377674341</v>
+        <v>7788874.702525561</v>
       </c>
       <c r="D91" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -10352,13 +10352,13 @@
         <v>1118</v>
       </c>
       <c r="B92" t="n">
-        <v>2130063.472276483</v>
+        <v>790020.5210857922</v>
       </c>
       <c r="C92" t="n">
-        <v>7692582.877890865</v>
+        <v>7218873.875846167</v>
       </c>
       <c r="D92" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -10458,13 +10458,13 @@
         <v>1119</v>
       </c>
       <c r="B93" t="n">
-        <v>2356085.707228937</v>
+        <v>929517.9696849707</v>
       </c>
       <c r="C93" t="n">
-        <v>7573862.256510351</v>
+        <v>7015550.910753055</v>
       </c>
       <c r="D93" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -10564,13 +10564,13 @@
         <v>1126</v>
       </c>
       <c r="B94" t="n">
-        <v>2655157.975412164</v>
+        <v>1250582.293829853</v>
       </c>
       <c r="C94" t="n">
-        <v>7725251.484975281</v>
+        <v>7009017.683968499</v>
       </c>
       <c r="D94" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -10670,13 +10670,13 @@
         <v>1134</v>
       </c>
       <c r="B95" t="n">
-        <v>2166530.384006762</v>
+        <v>850484.8921374951</v>
       </c>
       <c r="C95" t="n">
-        <v>7756821.85691337</v>
+        <v>7257221.013787333</v>
       </c>
       <c r="D95" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -10780,13 +10780,13 @@
         <v>1136</v>
       </c>
       <c r="B96" t="n">
-        <v>2361403.197960415</v>
+        <v>1287531.517504689</v>
       </c>
       <c r="C96" t="n">
-        <v>8340581.976051449</v>
+        <v>7662074.249157267</v>
       </c>
       <c r="D96" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -10886,13 +10886,13 @@
         <v>1173</v>
       </c>
       <c r="B97" t="n">
-        <v>2199100.650815934</v>
+        <v>1184216.78015425</v>
       </c>
       <c r="C97" t="n">
-        <v>8413378.538085733</v>
+        <v>7800481.519248006</v>
       </c>
       <c r="D97" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -11000,13 +11000,13 @@
         <v>1179</v>
       </c>
       <c r="B98" t="n">
-        <v>1993255.072872046</v>
+        <v>958093.9354796396</v>
       </c>
       <c r="C98" t="n">
-        <v>8307105.977058376</v>
+        <v>7807634.872172534</v>
       </c>
       <c r="D98" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -11114,13 +11114,13 @@
         <v>1182</v>
       </c>
       <c r="B99" t="n">
-        <v>2639175.539107326</v>
+        <v>1318234.448884461</v>
       </c>
       <c r="C99" t="n">
-        <v>7903584.90551908</v>
+        <v>7165717.460870856</v>
       </c>
       <c r="D99" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -11220,13 +11220,13 @@
         <v>1185</v>
       </c>
       <c r="B100" t="n">
-        <v>2431890.128974184</v>
+        <v>861172.6897843553</v>
       </c>
       <c r="C100" t="n">
-        <v>7273662.67010576</v>
+        <v>6726464.112298721</v>
       </c>
       <c r="D100" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -11326,13 +11326,13 @@
         <v>1195</v>
       </c>
       <c r="B101" t="n">
-        <v>2029057.110859393</v>
+        <v>993759.5695739661</v>
       </c>
       <c r="C101" t="n">
-        <v>8317761.708365378</v>
+        <v>7799794.467441583</v>
       </c>
       <c r="D101" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -11440,13 +11440,13 @@
         <v>1237</v>
       </c>
       <c r="B102" t="n">
-        <v>2156594.827185051</v>
+        <v>1099913.094065461</v>
       </c>
       <c r="C102" t="n">
-        <v>8312028.023852763</v>
+        <v>7734645.557110015</v>
       </c>
       <c r="D102" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -11554,13 +11554,13 @@
         <v>1271</v>
       </c>
       <c r="B103" t="n">
-        <v>2024579.84435138</v>
+        <v>978535.8351695081</v>
       </c>
       <c r="C103" t="n">
-        <v>8293675.333324634</v>
+        <v>7781370.16122144</v>
       </c>
       <c r="D103" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -11668,13 +11668,13 @@
         <v>1318</v>
       </c>
       <c r="B104" t="n">
-        <v>2683239.9111665</v>
+        <v>1263490.579900381</v>
       </c>
       <c r="C104" t="n">
-        <v>7701557.494262672</v>
+        <v>6976509.562373237</v>
       </c>
       <c r="D104" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -11774,13 +11774,13 @@
         <v>1351</v>
       </c>
       <c r="B105" t="n">
-        <v>2257640.663375728</v>
+        <v>1007978.330005782</v>
       </c>
       <c r="C105" t="n">
-        <v>7930820.193974303</v>
+        <v>7363726.480688116</v>
       </c>
       <c r="D105" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -11884,13 +11884,13 @@
         <v>1409</v>
       </c>
       <c r="B106" t="n">
-        <v>2658674.618292357</v>
+        <v>1315857.061541582</v>
       </c>
       <c r="C106" t="n">
-        <v>7862564.526722243</v>
+        <v>7122471.091267567</v>
       </c>
       <c r="D106" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -11990,13 +11990,13 @@
         <v>1410</v>
       </c>
       <c r="B107" t="n">
-        <v>2381936.953261338</v>
+        <v>1291154.321539701</v>
       </c>
       <c r="C107" t="n">
-        <v>8311482.655828548</v>
+        <v>7627859.173652189</v>
       </c>
       <c r="D107" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -12100,13 +12100,13 @@
         <v>1430</v>
       </c>
       <c r="B108" t="n">
-        <v>2632245.822748863</v>
+        <v>1281810.611341784</v>
       </c>
       <c r="C108" t="n">
-        <v>7836595.885617644</v>
+        <v>7112751.44980066</v>
       </c>
       <c r="D108" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -12210,13 +12210,13 @@
         <v>1438</v>
       </c>
       <c r="B109" t="n">
-        <v>2027768.365969332</v>
+        <v>976604.5062420471</v>
       </c>
       <c r="C109" t="n">
-        <v>8283820.522044486</v>
+        <v>7771458.936291059</v>
       </c>
       <c r="D109" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -12324,13 +12324,13 @@
         <v>1441</v>
       </c>
       <c r="B110" t="n">
-        <v>2275007.686154719</v>
+        <v>1263215.711949453</v>
       </c>
       <c r="C110" t="n">
-        <v>8443633.5404984</v>
+        <v>7789998.303437549</v>
       </c>
       <c r="D110" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -12434,13 +12434,13 @@
         <v>1442</v>
       </c>
       <c r="B111" t="n">
-        <v>2687262.9764104</v>
+        <v>1278551.107544656</v>
       </c>
       <c r="C111" t="n">
-        <v>7727478.028962913</v>
+        <v>6996409.882631944</v>
       </c>
       <c r="D111" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -12540,13 +12540,13 @@
         <v>1448</v>
       </c>
       <c r="B112" t="n">
-        <v>2597533.537329544</v>
+        <v>1407142.644124627</v>
       </c>
       <c r="C112" t="n">
-        <v>8171139.767221468</v>
+        <v>7408882.482123856</v>
       </c>
       <c r="D112" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -12642,13 +12642,13 @@
         <v>1460</v>
       </c>
       <c r="B113" t="n">
-        <v>1989241.24090875</v>
+        <v>950663.1976005753</v>
       </c>
       <c r="C113" t="n">
-        <v>8298661.079055008</v>
+        <v>7802322.724555846</v>
       </c>
       <c r="D113" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -12752,13 +12752,13 @@
         <v>1474</v>
       </c>
       <c r="B114" t="n">
-        <v>2365214.360914759</v>
+        <v>1290015.169724274</v>
       </c>
       <c r="C114" t="n">
-        <v>8339005.393281618</v>
+        <v>7658944.709160653</v>
       </c>
       <c r="D114" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -12858,13 +12858,13 @@
         <v>1486</v>
       </c>
       <c r="B115" t="n">
-        <v>2212147.857217941</v>
+        <v>1197813.276422491</v>
       </c>
       <c r="C115" t="n">
-        <v>8418605.611695584</v>
+        <v>7798711.484120715</v>
       </c>
       <c r="D115" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -12968,13 +12968,13 @@
         <v>1488</v>
       </c>
       <c r="B116" t="n">
-        <v>2339386.718669576</v>
+        <v>1259379.210916098</v>
       </c>
       <c r="C116" t="n">
-        <v>8320565.865293842</v>
+        <v>7655590.34042567</v>
       </c>
       <c r="D116" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -13082,13 +13082,13 @@
         <v>1495</v>
       </c>
       <c r="B117" t="n">
-        <v>1834083.414894152</v>
+        <v>711459.913195891</v>
       </c>
       <c r="C117" t="n">
-        <v>8073268.490512866</v>
+        <v>7682159.728179698</v>
       </c>
       <c r="D117" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -13196,13 +13196,13 @@
         <v>1496</v>
       </c>
       <c r="B118" t="n">
-        <v>1790620.459471967</v>
+        <v>694697.6209007114</v>
       </c>
       <c r="C118" t="n">
-        <v>8117329.953394829</v>
+        <v>7740446.675683501</v>
       </c>
       <c r="D118" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -13306,13 +13306,13 @@
         <v>1497</v>
       </c>
       <c r="B119" t="n">
-        <v>1615134.074132143</v>
+        <v>561167.5031534544</v>
       </c>
       <c r="C119" t="n">
-        <v>8155393.648384036</v>
+        <v>7855932.40496891</v>
       </c>
       <c r="D119" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -13416,13 +13416,13 @@
         <v>1540</v>
       </c>
       <c r="B120" t="n">
-        <v>2402988.550511402</v>
+        <v>1293489.083865763</v>
       </c>
       <c r="C120" t="n">
-        <v>8278688.074903381</v>
+        <v>7590320.312216024</v>
       </c>
       <c r="D120" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -13526,13 +13526,13 @@
         <v>1541</v>
       </c>
       <c r="B121" t="n">
-        <v>2500157.0590222</v>
+        <v>1340775.630501401</v>
       </c>
       <c r="C121" t="n">
-        <v>8204619.864541429</v>
+        <v>7482446.910422856</v>
       </c>
       <c r="D121" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -13636,13 +13636,13 @@
         <v>1545</v>
       </c>
       <c r="B122" t="n">
-        <v>2201011.612616654</v>
+        <v>750846.9923962961</v>
       </c>
       <c r="C122" t="n">
-        <v>7470661.230736786</v>
+        <v>6996813.444971907</v>
       </c>
       <c r="D122" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -13742,13 +13742,13 @@
         <v>1551</v>
       </c>
       <c r="B123" t="n">
-        <v>2413331.698008357</v>
+        <v>1271073.456554543</v>
       </c>
       <c r="C123" t="n">
-        <v>8212473.804500654</v>
+        <v>7529700.285792477</v>
       </c>
       <c r="D123" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -13856,13 +13856,13 @@
         <v>1569</v>
       </c>
       <c r="B124" t="n">
-        <v>2370280.686754898</v>
+        <v>1214495.375454555</v>
       </c>
       <c r="C124" t="n">
-        <v>8169565.088983035</v>
+        <v>7513660.484088336</v>
       </c>
       <c r="D124" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -13970,13 +13970,13 @@
         <v>1593</v>
       </c>
       <c r="B125" t="n">
-        <v>2343651.200327517</v>
+        <v>1264856.0782337</v>
       </c>
       <c r="C125" t="n">
-        <v>8324494.209978645</v>
+        <v>7656891.826771535</v>
       </c>
       <c r="D125" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -14084,13 +14084,13 @@
         <v>1607</v>
       </c>
       <c r="B126" t="n">
-        <v>2269460.44588225</v>
+        <v>1255603.583468147</v>
       </c>
       <c r="C126" t="n">
-        <v>8437564.403362211</v>
+        <v>7787508.802159904</v>
       </c>
       <c r="D126" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -14190,13 +14190,13 @@
         <v>1627</v>
       </c>
       <c r="B127" t="n">
-        <v>2231974.25906612</v>
+        <v>843107.7577382643</v>
       </c>
       <c r="C127" t="n">
-        <v>7617171.226809793</v>
+        <v>7108256.023841661</v>
       </c>
       <c r="D127" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -14296,13 +14296,13 @@
         <v>1640</v>
       </c>
       <c r="B128" t="n">
-        <v>2306905.847829671</v>
+        <v>927381.8428808105</v>
       </c>
       <c r="C128" t="n">
-        <v>7662203.24962014</v>
+        <v>7112838.832754357</v>
       </c>
       <c r="D128" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -14398,13 +14398,13 @@
         <v>1645</v>
       </c>
       <c r="B129" t="n">
-        <v>2360425.83134383</v>
+        <v>1286191.449374038</v>
       </c>
       <c r="C129" t="n">
-        <v>8339503.117016904</v>
+        <v>7661626.626349166</v>
       </c>
       <c r="D129" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -14508,13 +14508,13 @@
         <v>1659</v>
       </c>
       <c r="B130" t="n">
-        <v>2368041.856452228</v>
+        <v>1291159.492129554</v>
       </c>
       <c r="C130" t="n">
-        <v>8336362.77262168</v>
+        <v>7655381.824496387</v>
       </c>
       <c r="D130" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -14610,13 +14610,13 @@
         <v>1677</v>
       </c>
       <c r="B131" t="n">
-        <v>2121662.652691294</v>
+        <v>937516.3871031932</v>
       </c>
       <c r="C131" t="n">
-        <v>8029169.399930802</v>
+        <v>7510320.573719691</v>
       </c>
       <c r="D131" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -14724,13 +14724,13 @@
         <v>1698</v>
       </c>
       <c r="B132" t="n">
-        <v>2640617.219008205</v>
+        <v>1317596.279432883</v>
       </c>
       <c r="C132" t="n">
-        <v>7899546.373417733</v>
+        <v>7161676.434093359</v>
       </c>
       <c r="D132" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -14838,13 +14838,13 @@
         <v>1703</v>
       </c>
       <c r="B133" t="n">
-        <v>2324639.48053066</v>
+        <v>973646.565159217</v>
       </c>
       <c r="C133" t="n">
-        <v>7731039.012177847</v>
+        <v>7163351.951049128</v>
       </c>
       <c r="D133" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -14944,13 +14944,13 @@
         <v>1777</v>
       </c>
       <c r="B134" t="n">
-        <v>2265734.061553331</v>
+        <v>1251850.847396482</v>
       </c>
       <c r="C134" t="n">
-        <v>8436338.645714084</v>
+        <v>7788244.904215088</v>
       </c>
       <c r="D134" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -15054,13 +15054,13 @@
         <v>1779</v>
       </c>
       <c r="B135" t="n">
-        <v>2248159.642280076</v>
+        <v>856706.370733253</v>
       </c>
       <c r="C135" t="n">
-        <v>7616654.757904733</v>
+        <v>7100518.707566812</v>
       </c>
       <c r="D135" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -15160,13 +15160,13 @@
         <v>1782</v>
       </c>
       <c r="B136" t="n">
-        <v>2307263.699062871</v>
+        <v>926642.42932437</v>
       </c>
       <c r="C136" t="n">
-        <v>7659890.975997087</v>
+        <v>7110709.259476858</v>
       </c>
       <c r="D136" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -15262,13 +15262,13 @@
         <v>1805</v>
       </c>
       <c r="B137" t="n">
-        <v>1890225.696431468</v>
+        <v>753876.7349086334</v>
       </c>
       <c r="C137" t="n">
-        <v>8060705.686945784</v>
+        <v>7645107.183915169</v>
       </c>
       <c r="D137" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -15376,13 +15376,13 @@
         <v>1815</v>
       </c>
       <c r="B138" t="n">
-        <v>2697369.195390011</v>
+        <v>1288118.109346545</v>
       </c>
       <c r="C138" t="n">
-        <v>7729886.082345173</v>
+        <v>6993870.294928522</v>
       </c>
       <c r="D138" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -15482,13 +15482,13 @@
         <v>1822</v>
       </c>
       <c r="B139" t="n">
-        <v>1995647.719905939</v>
+        <v>939875.8258675184</v>
       </c>
       <c r="C139" t="n">
-        <v>8264232.468987422</v>
+        <v>7769899.005393733</v>
       </c>
       <c r="D139" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -15592,13 +15592,13 @@
         <v>1829</v>
       </c>
       <c r="B140" t="n">
-        <v>2052922.66573829</v>
+        <v>854606.734983815</v>
       </c>
       <c r="C140" t="n">
-        <v>7977208.954594003</v>
+        <v>7497837.633150277</v>
       </c>
       <c r="D140" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -15702,13 +15702,13 @@
         <v>1845</v>
       </c>
       <c r="B141" t="n">
-        <v>2184557.434111803</v>
+        <v>764818.3069981275</v>
       </c>
       <c r="C141" t="n">
-        <v>7533372.29353724</v>
+        <v>7057910.004358158</v>
       </c>
       <c r="D141" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -15804,13 +15804,13 @@
         <v>1857</v>
       </c>
       <c r="B142" t="n">
-        <v>2477736.28157576</v>
+        <v>1159730.100759031</v>
       </c>
       <c r="C142" t="n">
-        <v>7854543.163468475</v>
+        <v>7198251.802415779</v>
       </c>
       <c r="D142" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -15918,13 +15918,13 @@
         <v>1867</v>
       </c>
       <c r="B143" t="n">
-        <v>2102379.214294159</v>
+        <v>924213.9339616366</v>
       </c>
       <c r="C143" t="n">
-        <v>8035999.987411955</v>
+        <v>7525104.853106213</v>
       </c>
       <c r="D143" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -16028,13 +16028,13 @@
         <v>1873</v>
       </c>
       <c r="B144" t="n">
-        <v>2206035.273568152</v>
+        <v>807465.4396816383</v>
       </c>
       <c r="C144" t="n">
-        <v>7587313.508523165</v>
+        <v>7094425.57477705</v>
       </c>
       <c r="D144" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -16134,13 +16134,13 @@
         <v>1881</v>
       </c>
       <c r="B145" t="n">
-        <v>2204238.272224988</v>
+        <v>1189794.575474169</v>
       </c>
       <c r="C145" t="n">
-        <v>8415906.325830722</v>
+        <v>7800182.681011333</v>
       </c>
       <c r="D145" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -16248,13 +16248,13 @@
         <v>1882</v>
       </c>
       <c r="B146" t="n">
-        <v>2001459.632119082</v>
+        <v>967232.2577123863</v>
       </c>
       <c r="C146" t="n">
-        <v>8311581.770784743</v>
+        <v>7807575.086716989</v>
       </c>
       <c r="D146" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -16358,13 +16358,13 @@
         <v>1893</v>
       </c>
       <c r="B147" t="n">
-        <v>1743568.111070261</v>
+        <v>630572.7494814795</v>
       </c>
       <c r="C147" t="n">
-        <v>8067127.695141637</v>
+        <v>7719276.830797356</v>
       </c>
       <c r="D147" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -16464,13 +16464,13 @@
         <v>1896</v>
       </c>
       <c r="B148" t="n">
-        <v>1962815.217494993</v>
+        <v>805173.1787222649</v>
       </c>
       <c r="C148" t="n">
-        <v>8037035.292570882</v>
+        <v>7590931.114441661</v>
       </c>
       <c r="D148" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -16570,13 +16570,13 @@
         <v>1900</v>
       </c>
       <c r="B149" t="n">
-        <v>2311090.561457309</v>
+        <v>959161.4360879404</v>
       </c>
       <c r="C149" t="n">
-        <v>7724531.510612126</v>
+        <v>7163965.842597931</v>
       </c>
       <c r="D149" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -16676,13 +16676,13 @@
         <v>1901</v>
       </c>
       <c r="B150" t="n">
-        <v>2311089.773153185</v>
+        <v>959162.2922145881</v>
       </c>
       <c r="C150" t="n">
-        <v>7724534.876996046</v>
+        <v>7163969.062343721</v>
       </c>
       <c r="D150" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -16782,13 +16782,13 @@
         <v>1907</v>
       </c>
       <c r="B151" t="n">
-        <v>2416736.558655374</v>
+        <v>1353892.105190421</v>
       </c>
       <c r="C151" t="n">
-        <v>8381598.112950662</v>
+        <v>7670426.838594964</v>
       </c>
       <c r="D151" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -16888,13 +16888,13 @@
         <v>1915</v>
       </c>
       <c r="B152" t="n">
-        <v>2112036.242165802</v>
+        <v>969156.9771305906</v>
       </c>
       <c r="C152" t="n">
-        <v>8114724.523585263</v>
+        <v>7587732.721193841</v>
       </c>
       <c r="D152" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -17002,13 +17002,13 @@
         <v>1924</v>
       </c>
       <c r="B153" t="n">
-        <v>1999486.246360546</v>
+        <v>939983.2141906936</v>
       </c>
       <c r="C153" t="n">
-        <v>8257499.957799217</v>
+        <v>7762339.442013818</v>
       </c>
       <c r="D153" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -17116,13 +17116,13 @@
         <v>1926</v>
       </c>
       <c r="B154" t="n">
-        <v>1622939.097541402</v>
+        <v>568008.190856082</v>
       </c>
       <c r="C154" t="n">
-        <v>8155587.902826171</v>
+        <v>7852413.740178096</v>
       </c>
       <c r="D154" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -17226,13 +17226,13 @@
         <v>1927</v>
       </c>
       <c r="B155" t="n">
-        <v>2013882.306204229</v>
+        <v>960317.8494905173</v>
       </c>
       <c r="C155" t="n">
-        <v>8274483.225050749</v>
+        <v>7770046.539915258</v>
       </c>
       <c r="D155" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -17340,13 +17340,13 @@
         <v>1955</v>
       </c>
       <c r="B156" t="n">
-        <v>1791225.310461252</v>
+        <v>696473.9308007021</v>
       </c>
       <c r="C156" t="n">
-        <v>8120002.393565523</v>
+        <v>7742462.560435812</v>
       </c>
       <c r="D156" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -17450,13 +17450,13 @@
         <v>1973</v>
       </c>
       <c r="B157" t="n">
-        <v>2392293.675593924</v>
+        <v>1289476.177031039</v>
       </c>
       <c r="C157" t="n">
-        <v>8289371.717848667</v>
+        <v>7604352.168563469</v>
       </c>
       <c r="D157" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -17556,13 +17556,13 @@
         <v>1988</v>
       </c>
       <c r="B158" t="n">
-        <v>2055237.098656853</v>
+        <v>989783.8463492303</v>
       </c>
       <c r="C158" t="n">
-        <v>8262001.512418284</v>
+        <v>7739897.839355263</v>
       </c>
       <c r="D158" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -17666,13 +17666,13 @@
         <v>1994</v>
       </c>
       <c r="B159" t="n">
-        <v>1965028.09519314</v>
+        <v>805614.6543642993</v>
       </c>
       <c r="C159" t="n">
-        <v>8033908.004699106</v>
+        <v>7587219.95039202</v>
       </c>
       <c r="D159" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -17780,13 +17780,13 @@
         <v>1995</v>
       </c>
       <c r="B160" t="n">
-        <v>2405165.749690806</v>
+        <v>1296150.38852792</v>
       </c>
       <c r="C160" t="n">
-        <v>8280421.013456983</v>
+        <v>7590755.079737671</v>
       </c>
       <c r="D160" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -17890,13 +17890,13 @@
         <v>1998</v>
       </c>
       <c r="B161" t="n">
-        <v>2142515.163161625</v>
+        <v>786262.1590514146</v>
       </c>
       <c r="C161" t="n">
-        <v>7660791.478498062</v>
+        <v>7186001.07086686</v>
       </c>
       <c r="D161" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -17996,13 +17996,13 @@
         <v>2003</v>
       </c>
       <c r="B162" t="n">
-        <v>2083495.403750893</v>
+        <v>705153.3651574381</v>
       </c>
       <c r="C162" t="n">
-        <v>7593501.075674666</v>
+        <v>7155001.793080285</v>
       </c>
       <c r="D162" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -18098,13 +18098,13 @@
         <v>2029</v>
       </c>
       <c r="B163" t="n">
-        <v>1996719.565525453</v>
+        <v>960081.6829096316</v>
       </c>
       <c r="C163" t="n">
-        <v>8305042.188649594</v>
+        <v>7804235.040183336</v>
       </c>
       <c r="D163" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -18212,13 +18212,13 @@
         <v>2035</v>
       </c>
       <c r="B164" t="n">
-        <v>2000516.737840954</v>
+        <v>941258.1280865852</v>
       </c>
       <c r="C164" t="n">
-        <v>8258332.889883729</v>
+        <v>7762564.768914432</v>
       </c>
       <c r="D164" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -18322,13 +18322,13 @@
         <v>2047</v>
       </c>
       <c r="B165" t="n">
-        <v>2065491.173568208</v>
+        <v>994380.3418932953</v>
       </c>
       <c r="C165" t="n">
-        <v>8253169.504454981</v>
+        <v>7727539.001440947</v>
       </c>
       <c r="D165" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -18436,13 +18436,13 @@
         <v>2058</v>
       </c>
       <c r="B166" t="n">
-        <v>1615134.041889577</v>
+        <v>561167.5468705659</v>
       </c>
       <c r="C166" t="n">
-        <v>8155393.79995542</v>
+        <v>7855932.551217092</v>
       </c>
       <c r="D166" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -18546,13 +18546,13 @@
         <v>2071</v>
       </c>
       <c r="B167" t="n">
-        <v>1994169.19635744</v>
+        <v>934532.6716758551</v>
       </c>
       <c r="C167" t="n">
-        <v>8255592.663389376</v>
+        <v>7763217.728749148</v>
       </c>
       <c r="D167" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -18660,13 +18660,13 @@
         <v>2074</v>
       </c>
       <c r="B168" t="n">
-        <v>2383988.754157419</v>
+        <v>1329422.452456971</v>
       </c>
       <c r="C168" t="n">
-        <v>8388472.777713791</v>
+        <v>7691729.138907047</v>
       </c>
       <c r="D168" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -18770,13 +18770,13 @@
         <v>2093</v>
       </c>
       <c r="B169" t="n">
-        <v>2392471.318240511</v>
+        <v>1287325.620925704</v>
       </c>
       <c r="C169" t="n">
-        <v>8284498.946637246</v>
+        <v>7600163.915490242</v>
       </c>
       <c r="D169" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -18876,13 +18876,13 @@
         <v>2112</v>
       </c>
       <c r="B170" t="n">
-        <v>1883480.436977438</v>
+        <v>746989.7734844527</v>
       </c>
       <c r="C170" t="n">
-        <v>8058377.220732585</v>
+        <v>7646259.090969583</v>
       </c>
       <c r="D170" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -18986,13 +18986,13 @@
         <v>2136</v>
       </c>
       <c r="B171" t="n">
-        <v>2702341.519689083</v>
+        <v>1300298.023733964</v>
       </c>
       <c r="C171" t="n">
-        <v>7747621.829970609</v>
+        <v>7006469.595316742</v>
       </c>
       <c r="D171" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -19092,13 +19092,13 @@
         <v>2140</v>
       </c>
       <c r="B172" t="n">
-        <v>2678871.850968518</v>
+        <v>1255153.163068274</v>
       </c>
       <c r="C172" t="n">
-        <v>7691182.492640055</v>
+        <v>6969779.818348994</v>
       </c>
       <c r="D172" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -19198,13 +19198,13 @@
         <v>2141</v>
       </c>
       <c r="B173" t="n">
-        <v>2580209.681289844</v>
+        <v>1431900.883137417</v>
       </c>
       <c r="C173" t="n">
-        <v>8254856.893781683</v>
+        <v>7487019.648891437</v>
       </c>
       <c r="D173" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -19304,13 +19304,13 @@
         <v>2177</v>
       </c>
       <c r="B174" t="n">
-        <v>2051429.840390463</v>
+        <v>986182.6301207168</v>
       </c>
       <c r="C174" t="n">
-        <v>8261264.929700029</v>
+        <v>7741064.369151028</v>
       </c>
       <c r="D174" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -19414,13 +19414,13 @@
         <v>2180</v>
       </c>
       <c r="B175" t="n">
-        <v>2031814.500693758</v>
+        <v>981692.1869721236</v>
       </c>
       <c r="C175" t="n">
-        <v>8287266.116243298</v>
+        <v>7772487.440195537</v>
       </c>
       <c r="D175" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -19528,13 +19528,13 @@
         <v>2204</v>
       </c>
       <c r="B176" t="n">
-        <v>2683571.250258565</v>
+        <v>1282878.271840583</v>
       </c>
       <c r="C176" t="n">
-        <v>7743923.628929269</v>
+        <v>7011846.862619011</v>
       </c>
       <c r="D176" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -19634,13 +19634,13 @@
         <v>2208</v>
       </c>
       <c r="B177" t="n">
-        <v>2281488.646755354</v>
+        <v>1056901.034259978</v>
       </c>
       <c r="C177" t="n">
-        <v>7992842.103038554</v>
+        <v>7405382.530895287</v>
       </c>
       <c r="D177" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -19744,13 +19744,13 @@
         <v>2270</v>
       </c>
       <c r="B178" t="n">
-        <v>2066013.558075343</v>
+        <v>995026.0885854417</v>
       </c>
       <c r="C178" t="n">
-        <v>8253592.502331893</v>
+        <v>7727653.41763708</v>
       </c>
       <c r="D178" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -19858,13 +19858,13 @@
         <v>2278</v>
       </c>
       <c r="B179" t="n">
-        <v>2697082.08499278</v>
+        <v>1299748.767965176</v>
       </c>
       <c r="C179" t="n">
-        <v>7756164.919469877</v>
+        <v>7015992.909775327</v>
       </c>
       <c r="D179" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -19968,13 +19968,13 @@
         <v>2292</v>
       </c>
       <c r="B180" t="n">
-        <v>2055239.327788758</v>
+        <v>989783.0354109097</v>
       </c>
       <c r="C180" t="n">
-        <v>8261995.75558577</v>
+        <v>7739891.881644828</v>
       </c>
       <c r="D180" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -20078,13 +20078,13 @@
         <v>2302</v>
       </c>
       <c r="B181" t="n">
-        <v>2051050.281424538</v>
+        <v>982137.4456807245</v>
       </c>
       <c r="C181" t="n">
-        <v>8253376.042383305</v>
+        <v>7734517.618889306</v>
       </c>
       <c r="D181" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -20188,13 +20188,13 @@
         <v>2313</v>
       </c>
       <c r="B182" t="n">
-        <v>2305710.865709625</v>
+        <v>870908.7192145777</v>
       </c>
       <c r="C182" t="n">
-        <v>7538881.106981037</v>
+        <v>7008321.638323177</v>
       </c>
       <c r="D182" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -20294,13 +20294,13 @@
         <v>2335</v>
       </c>
       <c r="B183" t="n">
-        <v>2425441.346987365</v>
+        <v>1358987.445044669</v>
       </c>
       <c r="C183" t="n">
-        <v>8376817.360769556</v>
+        <v>7662284.022116767</v>
       </c>
       <c r="D183" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -20404,13 +20404,13 @@
         <v>2339</v>
       </c>
       <c r="B184" t="n">
-        <v>2052228.881718584</v>
+        <v>988385.0827293897</v>
       </c>
       <c r="C184" t="n">
-        <v>8264485.667660138</v>
+        <v>7743433.340111808</v>
       </c>
       <c r="D184" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -20514,13 +20514,13 @@
         <v>2350</v>
       </c>
       <c r="B185" t="n">
-        <v>2369462.725862395</v>
+        <v>1291730.799322537</v>
       </c>
       <c r="C185" t="n">
-        <v>8335026.900497684</v>
+        <v>7653584.905254651</v>
       </c>
       <c r="D185" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -20620,13 +20620,13 @@
         <v>2370</v>
       </c>
       <c r="B186" t="n">
-        <v>1647971.753907307</v>
+        <v>595646.3023194812</v>
       </c>
       <c r="C186" t="n">
-        <v>8168297.550249895</v>
+        <v>7851570.03713532</v>
       </c>
       <c r="D186" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -20730,13 +20730,13 @@
         <v>2387</v>
       </c>
       <c r="B187" t="n">
-        <v>2338934.160929347</v>
+        <v>1209078.528045419</v>
       </c>
       <c r="C187" t="n">
-        <v>8214693.310426517</v>
+        <v>7566429.426695289</v>
       </c>
       <c r="D187" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -20840,13 +20840,13 @@
         <v>2391</v>
       </c>
       <c r="B188" t="n">
-        <v>2105625.387166066</v>
+        <v>957782.5102545165</v>
       </c>
       <c r="C188" t="n">
-        <v>8102094.178339045</v>
+        <v>7579959.953656659</v>
       </c>
       <c r="D188" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -20946,13 +20946,13 @@
         <v>2394</v>
       </c>
       <c r="B189" t="n">
-        <v>2247251.63252653</v>
+        <v>803647.6617594857</v>
       </c>
       <c r="C189" t="n">
-        <v>7500190.497186998</v>
+        <v>7001431.841920082</v>
       </c>
       <c r="D189" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -21052,13 +21052,13 @@
         <v>2413</v>
       </c>
       <c r="B190" t="n">
-        <v>1978906.582648241</v>
+        <v>881228.147575083</v>
       </c>
       <c r="C190" t="n">
-        <v>8170116.831225831</v>
+        <v>7697344.098197219</v>
       </c>
       <c r="D190" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -21166,13 +21166,13 @@
         <v>2430</v>
       </c>
       <c r="B191" t="n">
-        <v>2029080.962545086</v>
+        <v>981828.6242820675</v>
       </c>
       <c r="C191" t="n">
-        <v>8292499.480918687</v>
+        <v>7778241.356020996</v>
       </c>
       <c r="D191" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -21276,13 +21276,13 @@
         <v>2446</v>
       </c>
       <c r="B192" t="n">
-        <v>1821993.977848344</v>
+        <v>709019.2764111313</v>
       </c>
       <c r="C192" t="n">
-        <v>8090274.442147154</v>
+        <v>7702449.035020803</v>
       </c>
       <c r="D192" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -21390,13 +21390,13 @@
         <v>2455</v>
       </c>
       <c r="B193" t="n">
-        <v>2416735.669630602</v>
+        <v>1353892.152101476</v>
       </c>
       <c r="C193" t="n">
-        <v>8381599.793728762</v>
+        <v>7670428.673132488</v>
       </c>
       <c r="D193" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -21500,13 +21500,13 @@
         <v>2472</v>
       </c>
       <c r="B194" t="n">
-        <v>2029019.402949533</v>
+        <v>976975.0776960705</v>
       </c>
       <c r="C194" t="n">
-        <v>8282340.779197267</v>
+        <v>7769606.278906141</v>
       </c>
       <c r="D194" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -21610,13 +21610,13 @@
         <v>2473</v>
       </c>
       <c r="B195" t="n">
-        <v>2156460.764805143</v>
+        <v>1102227.519671826</v>
       </c>
       <c r="C195" t="n">
-        <v>8317161.99259523</v>
+        <v>7739068.459021348</v>
       </c>
       <c r="D195" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -21716,13 +21716,13 @@
         <v>2485</v>
       </c>
       <c r="B196" t="n">
-        <v>2632876.703556378</v>
+        <v>1283218.174881197</v>
       </c>
       <c r="C196" t="n">
-        <v>7838521.337869373</v>
+        <v>7114078.465424569</v>
       </c>
       <c r="D196" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -21826,13 +21826,13 @@
         <v>2486</v>
       </c>
       <c r="B197" t="n">
-        <v>1892321.594508285</v>
+        <v>753096.5791323695</v>
       </c>
       <c r="C197" t="n">
-        <v>8055180.153788939</v>
+        <v>7639383.117737186</v>
       </c>
       <c r="D197" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -21940,13 +21940,13 @@
         <v>2512</v>
       </c>
       <c r="B198" t="n">
-        <v>2003459.310122256</v>
+        <v>942590.7079712577</v>
       </c>
       <c r="C198" t="n">
-        <v>8255820.561525193</v>
+        <v>7759032.151999168</v>
       </c>
       <c r="D198" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -22050,13 +22050,13 @@
         <v>2533</v>
       </c>
       <c r="B199" t="n">
-        <v>2030850.734193985</v>
+        <v>982835.7455509398</v>
       </c>
       <c r="C199" t="n">
-        <v>8291429.039251965</v>
+        <v>7776492.665937817</v>
       </c>
       <c r="D199" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -22160,13 +22160,13 @@
         <v>2535</v>
       </c>
       <c r="B200" t="n">
-        <v>1889952.40017265</v>
+        <v>705606.9292885725</v>
       </c>
       <c r="C200" t="n">
-        <v>7957617.171008595</v>
+        <v>7556649.646430125</v>
       </c>
       <c r="D200" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -22270,13 +22270,13 @@
         <v>2546</v>
       </c>
       <c r="B201" t="n">
-        <v>1873784.105063914</v>
+        <v>744179.3218058764</v>
       </c>
       <c r="C201" t="n">
-        <v>8070198.52647865</v>
+        <v>7660945.987030333</v>
       </c>
       <c r="D201" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -22380,13 +22380,13 @@
         <v>2567</v>
       </c>
       <c r="B202" t="n">
-        <v>2110681.333804977</v>
+        <v>726096.067258717</v>
       </c>
       <c r="C202" t="n">
-        <v>7588158.67720805</v>
+        <v>7138136.478293262</v>
       </c>
       <c r="D202" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -22482,13 +22482,13 @@
         <v>2584</v>
       </c>
       <c r="B203" t="n">
-        <v>2273009.381658714</v>
+        <v>949858.3086686517</v>
       </c>
       <c r="C203" t="n">
-        <v>7775408.060621628</v>
+        <v>7224547.053889313</v>
       </c>
       <c r="D203" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -22588,13 +22588,13 @@
         <v>2592</v>
       </c>
       <c r="B204" t="n">
-        <v>2420408.374383822</v>
+        <v>1327200.375281696</v>
       </c>
       <c r="C204" t="n">
-        <v>8318808.780734252</v>
+        <v>7615881.254893317</v>
       </c>
       <c r="D204" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -22702,13 +22702,13 @@
         <v>2610</v>
       </c>
       <c r="B205" t="n">
-        <v>1684589.155546621</v>
+        <v>628453.6391966136</v>
       </c>
       <c r="C205" t="n">
-        <v>8170810.590749681</v>
+        <v>7836449.860515113</v>
       </c>
       <c r="D205" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -22812,13 +22812,13 @@
         <v>2618</v>
       </c>
       <c r="B206" t="n">
-        <v>1791735.634084604</v>
+        <v>680060.4662733198</v>
       </c>
       <c r="C206" t="n">
-        <v>8084092.023973919</v>
+        <v>7711311.648330972</v>
       </c>
       <c r="D206" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -22922,13 +22922,13 @@
         <v>2619</v>
       </c>
       <c r="B207" t="n">
-        <v>1765852.532933903</v>
+        <v>644779.3154245637</v>
       </c>
       <c r="C207" t="n">
-        <v>8056420.081619988</v>
+        <v>7699601.830151052</v>
       </c>
       <c r="D207" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -23032,13 +23032,13 @@
         <v>2655</v>
       </c>
       <c r="B208" t="n">
-        <v>2689965.091372953</v>
+        <v>1281311.252842816</v>
       </c>
       <c r="C208" t="n">
-        <v>7728569.202778104</v>
+        <v>6996105.547589625</v>
       </c>
       <c r="D208" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -23138,13 +23138,13 @@
         <v>2665</v>
       </c>
       <c r="B209" t="n">
-        <v>2357690.176829088</v>
+        <v>1245683.066034322</v>
       </c>
       <c r="C209" t="n">
-        <v>8258695.73560149</v>
+        <v>7594770.29702403</v>
       </c>
       <c r="D209" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -23244,13 +23244,13 @@
         <v>2675</v>
       </c>
       <c r="B210" t="n">
-        <v>2307702.237398569</v>
+        <v>940464.1154558179</v>
       </c>
       <c r="C210" t="n">
-        <v>7689637.137513207</v>
+        <v>7135823.108819139</v>
       </c>
       <c r="D210" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -23354,13 +23354,13 @@
         <v>2689</v>
       </c>
       <c r="B211" t="n">
-        <v>2128262.620806932</v>
+        <v>745161.0244509948</v>
       </c>
       <c r="C211" t="n">
-        <v>7596957.887095327</v>
+        <v>7137748.464508668</v>
       </c>
       <c r="D211" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -23456,13 +23456,13 @@
         <v>2696</v>
       </c>
       <c r="B212" t="n">
-        <v>2367327.386460776</v>
+        <v>1270386.863915385</v>
       </c>
       <c r="C212" t="n">
-        <v>8293741.808673516</v>
+        <v>7619792.84975382</v>
       </c>
       <c r="D212" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -23562,13 +23562,13 @@
         <v>2702</v>
       </c>
       <c r="B213" t="n">
-        <v>2307509.927375518</v>
+        <v>1209803.713335724</v>
       </c>
       <c r="C213" t="n">
-        <v>8272891.306519387</v>
+        <v>7630354.38671801</v>
       </c>
       <c r="D213" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -23668,13 +23668,13 @@
         <v>2712</v>
       </c>
       <c r="B214" t="n">
-        <v>1990457.278613106</v>
+        <v>951027.4146440395</v>
       </c>
       <c r="C214" t="n">
-        <v>8297231.045646916</v>
+        <v>7800526.961978114</v>
       </c>
       <c r="D214" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -23778,13 +23778,13 @@
         <v>2719</v>
       </c>
       <c r="B215" t="n">
-        <v>2687992.360264859</v>
+        <v>1268175.193077699</v>
       </c>
       <c r="C215" t="n">
-        <v>7703100.811272348</v>
+        <v>6975664.488843685</v>
       </c>
       <c r="D215" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -23884,13 +23884,13 @@
         <v>2731</v>
       </c>
       <c r="B216" t="n">
-        <v>1997192.928651975</v>
+        <v>631170.8854002282</v>
       </c>
       <c r="C216" t="n">
-        <v>7594164.08380811</v>
+        <v>7194619.707176876</v>
       </c>
       <c r="D216" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -23994,13 +23994,13 @@
         <v>2753</v>
       </c>
       <c r="B217" t="n">
-        <v>2390752.126606281</v>
+        <v>1287270.4217841</v>
       </c>
       <c r="C217" t="n">
-        <v>8287465.902119888</v>
+        <v>7603472.572022188</v>
       </c>
       <c r="D217" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -24100,13 +24100,13 @@
         <v>2754</v>
       </c>
       <c r="B218" t="n">
-        <v>1823905.692475903</v>
+        <v>715546.5848713694</v>
       </c>
       <c r="C218" t="n">
-        <v>8100686.469125583</v>
+        <v>7710508.006336154</v>
       </c>
       <c r="D218" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -24210,13 +24210,13 @@
         <v>2795</v>
       </c>
       <c r="B219" t="n">
-        <v>2444825.785073393</v>
+        <v>1199824.791299401</v>
       </c>
       <c r="C219" t="n">
-        <v>8002349.447685944</v>
+        <v>7337993.310199557</v>
       </c>
       <c r="D219" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -24320,13 +24320,13 @@
         <v>2807</v>
       </c>
       <c r="B220" t="n">
-        <v>1990429.719264764</v>
+        <v>695539.0832983456</v>
       </c>
       <c r="C220" t="n">
-        <v>7748314.013853339</v>
+        <v>7330361.278168046</v>
       </c>
       <c r="D220" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -24426,13 +24426,13 @@
         <v>2835</v>
       </c>
       <c r="B221" t="n">
-        <v>1685714.373448972</v>
+        <v>630817.5353313932</v>
       </c>
       <c r="C221" t="n">
-        <v>8173760.890260397</v>
+        <v>7838463.615204567</v>
       </c>
       <c r="D221" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -24536,13 +24536,13 @@
         <v>2866</v>
       </c>
       <c r="B222" t="n">
-        <v>1976664.310597369</v>
+        <v>879626.3220678106</v>
       </c>
       <c r="C222" t="n">
-        <v>8170796.606995979</v>
+        <v>7698977.986733856</v>
       </c>
       <c r="D222" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -24646,13 +24646,13 @@
         <v>2871</v>
       </c>
       <c r="B223" t="n">
-        <v>2377044.467959478</v>
+        <v>1286280.686933513</v>
       </c>
       <c r="C223" t="n">
-        <v>8309943.525439115</v>
+        <v>7628869.384760081</v>
       </c>
       <c r="D223" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -24756,13 +24756,13 @@
         <v>2892</v>
       </c>
       <c r="B224" t="n">
-        <v>2432088.31455087</v>
+        <v>1350079.39727754</v>
       </c>
       <c r="C224" t="n">
-        <v>8346224.463199235</v>
+        <v>7633421.17247866</v>
       </c>
       <c r="D224" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -24866,13 +24866,13 @@
         <v>2902</v>
       </c>
       <c r="B225" t="n">
-        <v>2209791.749855306</v>
+        <v>1193302.326707007</v>
       </c>
       <c r="C225" t="n">
-        <v>8413345.221569678</v>
+        <v>7795375.785665431</v>
       </c>
       <c r="D225" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -24980,13 +24980,13 @@
         <v>2908</v>
       </c>
       <c r="B226" t="n">
-        <v>2373416.159126529</v>
+        <v>1285924.218523527</v>
       </c>
       <c r="C226" t="n">
-        <v>8315689.134408514</v>
+        <v>7635422.40205175</v>
       </c>
       <c r="D226" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -25094,13 +25094,13 @@
         <v>2920</v>
       </c>
       <c r="B227" t="n">
-        <v>2190468.856691393</v>
+        <v>668467.5004860456</v>
       </c>
       <c r="C227" t="n">
-        <v>7305510.771581489</v>
+        <v>6859747.870110781</v>
       </c>
       <c r="D227" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -25208,13 +25208,13 @@
         <v>2947</v>
       </c>
       <c r="B228" t="n">
-        <v>2303850.635505079</v>
+        <v>1094179.868409905</v>
       </c>
       <c r="C228" t="n">
-        <v>8032294.811102267</v>
+        <v>7428483.863466927</v>
       </c>
       <c r="D228" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -25318,13 +25318,13 @@
         <v>2966</v>
       </c>
       <c r="B229" t="n">
-        <v>2108169.425374413</v>
+        <v>1095788.064429961</v>
       </c>
       <c r="C229" t="n">
-        <v>8390409.35136334</v>
+        <v>7824158.777754895</v>
       </c>
       <c r="D229" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -25424,13 +25424,13 @@
         <v>2975</v>
       </c>
       <c r="B230" t="n">
-        <v>2400580.802625231</v>
+        <v>1339179.363398675</v>
       </c>
       <c r="C230" t="n">
-        <v>8379431.848898312</v>
+        <v>7676258.007191008</v>
       </c>
       <c r="D230" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -25534,13 +25534,13 @@
         <v>2977</v>
       </c>
       <c r="B231" t="n">
-        <v>2099095.562123356</v>
+        <v>696522.2433366963</v>
       </c>
       <c r="C231" t="n">
-        <v>7544640.336205534</v>
+        <v>7105991.190078752</v>
       </c>
       <c r="D231" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -25636,13 +25636,13 @@
         <v>2988</v>
       </c>
       <c r="B232" t="n">
-        <v>2032110.486451298</v>
+        <v>917893.3822280704</v>
       </c>
       <c r="C232" t="n">
-        <v>8151174.772097094</v>
+        <v>7656207.359608166</v>
       </c>
       <c r="D232" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -25746,13 +25746,13 @@
         <v>3005</v>
       </c>
       <c r="B233" t="n">
-        <v>1989419.412799039</v>
+        <v>695411.6103058327</v>
       </c>
       <c r="C233" t="n">
-        <v>7749934.530973132</v>
+        <v>7332216.769657646</v>
       </c>
       <c r="D233" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -25852,13 +25852,13 @@
         <v>3018</v>
       </c>
       <c r="B234" t="n">
-        <v>2288390.410045098</v>
+        <v>981091.3479000281</v>
       </c>
       <c r="C234" t="n">
-        <v>7815152.941908973</v>
+        <v>7251332.253579291</v>
       </c>
       <c r="D234" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -25958,13 +25958,13 @@
         <v>3022</v>
       </c>
       <c r="B235" t="n">
-        <v>2645960.012419447</v>
+        <v>1245110.976124048</v>
       </c>
       <c r="C235" t="n">
-        <v>7730258.449341666</v>
+        <v>7017365.507491435</v>
       </c>
       <c r="D235" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -26064,13 +26064,13 @@
         <v>3031</v>
       </c>
       <c r="B236" t="n">
-        <v>2298576.064810495</v>
+        <v>939958.1362456426</v>
       </c>
       <c r="C236" t="n">
-        <v>7705686.33012169</v>
+        <v>7153609.53225896</v>
       </c>
       <c r="D236" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -26170,13 +26170,13 @@
         <v>3046</v>
       </c>
       <c r="B237" t="n">
-        <v>2427702.871548403</v>
+        <v>1208690.112439581</v>
       </c>
       <c r="C237" t="n">
-        <v>8052774.44921901</v>
+        <v>7388424.977720258</v>
       </c>
       <c r="D237" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -26280,13 +26280,13 @@
         <v>3047</v>
       </c>
       <c r="B238" t="n">
-        <v>2857211.203909316</v>
+        <v>1504304.851634499</v>
       </c>
       <c r="C238" t="n">
-        <v>7911621.212370518</v>
+        <v>7072761.604959681</v>
       </c>
       <c r="D238" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -26382,13 +26382,13 @@
         <v>3056</v>
       </c>
       <c r="B239" t="n">
-        <v>2121071.651350191</v>
+        <v>774396.6462200845</v>
       </c>
       <c r="C239" t="n">
-        <v>7675155.136716642</v>
+        <v>7208030.437855239</v>
       </c>
       <c r="D239" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -26488,13 +26488,13 @@
         <v>3068</v>
       </c>
       <c r="B240" t="n">
-        <v>2159904.704348206</v>
+        <v>1102963.115588889</v>
       </c>
       <c r="C240" t="n">
-        <v>8312512.645301493</v>
+        <v>7733494.132142186</v>
       </c>
       <c r="D240" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -26598,13 +26598,13 @@
         <v>3102</v>
       </c>
       <c r="B241" t="n">
-        <v>2032113.367277993</v>
+        <v>917891.7899519508</v>
       </c>
       <c r="C241" t="n">
-        <v>8151166.116403899</v>
+        <v>7656198.617882285</v>
       </c>
       <c r="D241" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -26708,13 +26708,13 @@
         <v>3103</v>
       </c>
       <c r="B242" t="n">
-        <v>2089393.090321547</v>
+        <v>792144.3201732324</v>
       </c>
       <c r="C242" t="n">
-        <v>7773709.723195027</v>
+        <v>7306886.578451409</v>
       </c>
       <c r="D242" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -26810,13 +26810,13 @@
         <v>3107</v>
       </c>
       <c r="B243" t="n">
-        <v>2147909.680389656</v>
+        <v>701460.411918486</v>
       </c>
       <c r="C243" t="n">
-        <v>7462138.10046085</v>
+        <v>7013226.907939135</v>
       </c>
       <c r="D243" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         <v>3127</v>
       </c>
       <c r="B244" t="n">
-        <v>2286046.540464832</v>
+        <v>853514.89382653</v>
       </c>
       <c r="C244" t="n">
-        <v>7537526.189324903</v>
+        <v>7015968.59414346</v>
       </c>
       <c r="D244" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -27026,13 +27026,13 @@
         <v>3132</v>
       </c>
       <c r="B245" t="n">
-        <v>2385598.352284722</v>
+        <v>1300155.093501842</v>
       </c>
       <c r="C245" t="n">
-        <v>8323945.386789556</v>
+        <v>7636630.423972027</v>
       </c>
       <c r="D245" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -27136,13 +27136,13 @@
         <v>3146</v>
       </c>
       <c r="B246" t="n">
-        <v>2259116.08817268</v>
+        <v>848438.8411357364</v>
       </c>
       <c r="C246" t="n">
-        <v>7577489.633714482</v>
+        <v>7062156.498153231</v>
       </c>
       <c r="D246" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -27242,13 +27242,13 @@
         <v>3161</v>
       </c>
       <c r="B247" t="n">
-        <v>1810235.552244127</v>
+        <v>641727.436038692</v>
       </c>
       <c r="C247" t="n">
-        <v>7967929.998257601</v>
+        <v>7602603.142966197</v>
       </c>
       <c r="D247" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -27348,13 +27348,13 @@
         <v>3205</v>
       </c>
       <c r="B248" t="n">
-        <v>2602909.822902141</v>
+        <v>1416048.179092123</v>
       </c>
       <c r="C248" t="n">
-        <v>8180494.748657036</v>
+        <v>7414196.782176352</v>
       </c>
       <c r="D248" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -27454,13 +27454,13 @@
         <v>3213</v>
       </c>
       <c r="B249" t="n">
-        <v>2111839.36699665</v>
+        <v>1031423.022146086</v>
       </c>
       <c r="C249" t="n">
-        <v>8247794.163026954</v>
+        <v>7701140.034389379</v>
       </c>
       <c r="D249" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -27560,13 +27560,13 @@
         <v>3214</v>
       </c>
       <c r="B250" t="n">
-        <v>1767416.78667297</v>
+        <v>645553.0700570464</v>
       </c>
       <c r="C250" t="n">
-        <v>8055191.615709071</v>
+        <v>7697810.334713333</v>
       </c>
       <c r="D250" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -27674,13 +27674,13 @@
         <v>3218</v>
       </c>
       <c r="B251" t="n">
-        <v>2029091.613532835</v>
+        <v>981824.9633127094</v>
       </c>
       <c r="C251" t="n">
-        <v>8292472.472858272</v>
+        <v>7778213.292319008</v>
       </c>
       <c r="D251" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -27780,13 +27780,13 @@
         <v>3232</v>
       </c>
       <c r="B252" t="n">
-        <v>1766450.083736948</v>
+        <v>641287.8145443674</v>
       </c>
       <c r="C252" t="n">
-        <v>8047863.927058814</v>
+        <v>7691946.682113572</v>
       </c>
       <c r="D252" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -27890,13 +27890,13 @@
         <v>3240</v>
       </c>
       <c r="B253" t="n">
-        <v>2104357.511532363</v>
+        <v>1090804.783426451</v>
       </c>
       <c r="C253" t="n">
-        <v>8386768.215961656</v>
+        <v>7822872.668099906</v>
       </c>
       <c r="D253" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -28004,13 +28004,13 @@
         <v>3247</v>
       </c>
       <c r="B254" t="n">
-        <v>2199732.503636166</v>
+        <v>749554.7422016589</v>
       </c>
       <c r="C254" t="n">
-        <v>7470223.585142499</v>
+        <v>6997009.623628081</v>
       </c>
       <c r="D254" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -28114,13 +28114,13 @@
         <v>3255</v>
       </c>
       <c r="B255" t="n">
-        <v>1636091.954876105</v>
+        <v>592420.2429846491</v>
       </c>
       <c r="C255" t="n">
-        <v>8183190.644914379</v>
+        <v>7870044.718777128</v>
       </c>
       <c r="D255" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -28224,13 +28224,13 @@
         <v>3259</v>
       </c>
       <c r="B256" t="n">
-        <v>1996416.2942551</v>
+        <v>936147.6192644082</v>
       </c>
       <c r="C256" t="n">
-        <v>8254939.267447734</v>
+        <v>7761600.186260979</v>
       </c>
       <c r="D256" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -28334,13 +28334,13 @@
         <v>3267</v>
       </c>
       <c r="B257" t="n">
-        <v>1914719.347735883</v>
+        <v>791584.3952708081</v>
       </c>
       <c r="C257" t="n">
-        <v>8096335.222056132</v>
+        <v>7664232.058077877</v>
       </c>
       <c r="D257" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -28444,13 +28444,13 @@
         <v>3268</v>
       </c>
       <c r="B258" t="n">
-        <v>2159589.706904728</v>
+        <v>1103796.63837273</v>
       </c>
       <c r="C258" t="n">
-        <v>8314842.237087375</v>
+        <v>7735620.899316698</v>
       </c>
       <c r="D258" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -28554,13 +28554,13 @@
         <v>3289</v>
       </c>
       <c r="B259" t="n">
-        <v>2105454.699756816</v>
+        <v>1088467.360159056</v>
       </c>
       <c r="C259" t="n">
-        <v>8379879.355489057</v>
+        <v>7816496.201293737</v>
       </c>
       <c r="D259" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -28660,13 +28660,13 @@
         <v>3293</v>
       </c>
       <c r="B260" t="n">
-        <v>1761330.572336285</v>
+        <v>623938.0246091066</v>
       </c>
       <c r="C260" t="n">
-        <v>8020222.570945106</v>
+        <v>7670507.802210705</v>
       </c>
       <c r="D260" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -28766,13 +28766,13 @@
         <v>3296</v>
       </c>
       <c r="B261" t="n">
-        <v>2342430.751444635</v>
+        <v>1249977.534997655</v>
       </c>
       <c r="C261" t="n">
-        <v>8295223.367500679</v>
+        <v>7632771.040069625</v>
       </c>
       <c r="D261" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -28872,13 +28872,13 @@
         <v>3300</v>
       </c>
       <c r="B262" t="n">
-        <v>2276229.91504611</v>
+        <v>878826.0888453191</v>
       </c>
       <c r="C262" t="n">
-        <v>7612548.897630748</v>
+        <v>7084370.664899795</v>
       </c>
       <c r="D262" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -28978,13 +28978,13 @@
         <v>3301</v>
       </c>
       <c r="B263" t="n">
-        <v>2246825.56198707</v>
+        <v>886359.5320041741</v>
       </c>
       <c r="C263" t="n">
-        <v>7684795.48924694</v>
+        <v>7159254.964711838</v>
       </c>
       <c r="D263" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -29084,13 +29084,13 @@
         <v>3319</v>
       </c>
       <c r="B264" t="n">
-        <v>2280732.887224261</v>
+        <v>1264239.731179495</v>
       </c>
       <c r="C264" t="n">
-        <v>8435583.838672109</v>
+        <v>7780475.493699586</v>
       </c>
       <c r="D264" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -29194,13 +29194,13 @@
         <v>3330</v>
       </c>
       <c r="B265" t="n">
-        <v>1939777.202026059</v>
+        <v>778949.4173158791</v>
       </c>
       <c r="C265" t="n">
-        <v>8023198.635817947</v>
+        <v>7589799.336146829</v>
       </c>
       <c r="D265" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -29308,13 +29308,13 @@
         <v>3337</v>
       </c>
       <c r="B266" t="n">
-        <v>2384469.299951036</v>
+        <v>1328704.034478826</v>
       </c>
       <c r="C266" t="n">
-        <v>8386107.118023135</v>
+        <v>7689509.793573966</v>
       </c>
       <c r="D266" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -29418,13 +29418,13 @@
         <v>3339</v>
       </c>
       <c r="B267" t="n">
-        <v>2327143.969067517</v>
+        <v>1263917.688386291</v>
       </c>
       <c r="C267" t="n">
-        <v>8352065.177976644</v>
+        <v>7687953.698049333</v>
       </c>
       <c r="D267" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -29524,13 +29524,13 @@
         <v>3342</v>
       </c>
       <c r="B268" t="n">
-        <v>1923676.79783909</v>
+        <v>625634.8725377694</v>
       </c>
       <c r="C268" t="n">
-        <v>7721200.961086096</v>
+        <v>7337569.003031509</v>
       </c>
       <c r="D268" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -29638,13 +29638,13 @@
         <v>3346</v>
       </c>
       <c r="B269" t="n">
-        <v>2279170.630069531</v>
+        <v>957327.3812749988</v>
       </c>
       <c r="C269" t="n">
-        <v>7780279.173588451</v>
+        <v>7225884.552364523</v>
       </c>
       <c r="D269" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -29744,13 +29744,13 @@
         <v>3352</v>
       </c>
       <c r="B270" t="n">
-        <v>1969069.626439728</v>
+        <v>777938.9268474444</v>
       </c>
       <c r="C270" t="n">
-        <v>7966931.941695631</v>
+        <v>7527919.675720907</v>
       </c>
       <c r="D270" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -29850,13 +29850,13 @@
         <v>3379</v>
       </c>
       <c r="B271" t="n">
-        <v>2259438.07396815</v>
+        <v>1203355.166404626</v>
       </c>
       <c r="C271" t="n">
-        <v>8345619.475216147</v>
+        <v>7714523.295233181</v>
       </c>
       <c r="D271" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -29964,13 +29964,13 @@
         <v>3392</v>
       </c>
       <c r="B272" t="n">
-        <v>2098692.594723278</v>
+        <v>1036468.274160743</v>
       </c>
       <c r="C272" t="n">
-        <v>8282278.813873661</v>
+        <v>7736680.228810211</v>
       </c>
       <c r="D272" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -30074,13 +30074,13 @@
         <v>3395</v>
       </c>
       <c r="B273" t="n">
-        <v>2615416.501560089</v>
+        <v>1426859.962330731</v>
       </c>
       <c r="C273" t="n">
-        <v>8181120.48807975</v>
+        <v>7408878.906567815</v>
       </c>
       <c r="D273" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -30176,13 +30176,13 @@
         <v>3403</v>
       </c>
       <c r="B274" t="n">
-        <v>2285141.140546298</v>
+        <v>944800.5789475247</v>
       </c>
       <c r="C274" t="n">
-        <v>7741578.349294866</v>
+        <v>7190243.740476328</v>
       </c>
       <c r="D274" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -30282,13 +30282,13 @@
         <v>3412</v>
       </c>
       <c r="B275" t="n">
-        <v>2101987.451733347</v>
+        <v>1087685.948516788</v>
       </c>
       <c r="C275" t="n">
-        <v>8384461.149587899</v>
+        <v>7822035.907335639</v>
       </c>
       <c r="D275" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -30388,13 +30388,13 @@
         <v>3416</v>
       </c>
       <c r="B276" t="n">
-        <v>2046032.165894144</v>
+        <v>1008112.276767024</v>
       </c>
       <c r="C276" t="n">
-        <v>8317430.888534028</v>
+        <v>7791484.863793153</v>
       </c>
       <c r="D276" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -30498,13 +30498,13 @@
         <v>3420</v>
       </c>
       <c r="B277" t="n">
-        <v>2306635.500448901</v>
+        <v>951395.062821285</v>
       </c>
       <c r="C277" t="n">
-        <v>7715772.306329971</v>
+        <v>7158537.238432925</v>
       </c>
       <c r="D277" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -30604,13 +30604,13 @@
         <v>3423</v>
       </c>
       <c r="B278" t="n">
-        <v>2409307.106450942</v>
+        <v>1331146.298309648</v>
       </c>
       <c r="C278" t="n">
-        <v>8346963.602166119</v>
+        <v>7644810.190606979</v>
       </c>
       <c r="D278" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -30714,13 +30714,13 @@
         <v>3428</v>
       </c>
       <c r="B279" t="n">
-        <v>2125945.100510614</v>
+        <v>691194.7940718955</v>
       </c>
       <c r="C279" t="n">
-        <v>7481381.770190354</v>
+        <v>7039584.61531129</v>
       </c>
       <c r="D279" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -30828,13 +30828,13 @@
         <v>3442</v>
       </c>
       <c r="B280" t="n">
-        <v>2287153.545496374</v>
+        <v>994110.2066487197</v>
       </c>
       <c r="C280" t="n">
-        <v>7845923.4584281</v>
+        <v>7278046.413003726</v>
       </c>
       <c r="D280" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -30930,13 +30930,13 @@
         <v>3445</v>
       </c>
       <c r="B281" t="n">
-        <v>2006219.062654035</v>
+        <v>636325.3533101038</v>
       </c>
       <c r="C281" t="n">
-        <v>7588368.267061937</v>
+        <v>7185539.202978248</v>
       </c>
       <c r="D281" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -31040,13 +31040,13 @@
         <v>3448</v>
       </c>
       <c r="B282" t="n">
-        <v>2356350.502622393</v>
+        <v>929885.3897137641</v>
       </c>
       <c r="C282" t="n">
-        <v>7574178.950024675</v>
+        <v>7015701.60116192</v>
       </c>
       <c r="D282" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -31146,13 +31146,13 @@
         <v>3450</v>
       </c>
       <c r="B283" t="n">
-        <v>2419535.674352411</v>
+        <v>1363405.443341691</v>
       </c>
       <c r="C283" t="n">
-        <v>8396603.029434865</v>
+        <v>7681716.155439919</v>
       </c>
       <c r="D283" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -31256,13 +31256,13 @@
         <v>3463</v>
       </c>
       <c r="B284" t="n">
-        <v>1993327.134521686</v>
+        <v>932317.3968460555</v>
       </c>
       <c r="C284" t="n">
-        <v>8252425.017639091</v>
+        <v>7760909.239184254</v>
       </c>
       <c r="D284" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -31366,13 +31366,13 @@
         <v>3466</v>
       </c>
       <c r="B285" t="n">
-        <v>2265362.89717258</v>
+        <v>1194330.95313891</v>
       </c>
       <c r="C285" t="n">
-        <v>8315928.315632622</v>
+        <v>7686606.063067343</v>
       </c>
       <c r="D285" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -31476,13 +31476,13 @@
         <v>3470</v>
       </c>
       <c r="B286" t="n">
-        <v>1943833.634889311</v>
+        <v>783736.6983660171</v>
       </c>
       <c r="C286" t="n">
-        <v>8025997.598115717</v>
+        <v>7590310.703098295</v>
       </c>
       <c r="D286" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -31582,13 +31582,13 @@
         <v>3471</v>
       </c>
       <c r="B287" t="n">
-        <v>1783928.545683637</v>
+        <v>660447.0750001537</v>
       </c>
       <c r="C287" t="n">
-        <v>8056592.64791248</v>
+        <v>7691285.696472754</v>
       </c>
       <c r="D287" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -31696,13 +31696,13 @@
         <v>3496</v>
       </c>
       <c r="B288" t="n">
-        <v>2267643.009248615</v>
+        <v>967266.5005588008</v>
       </c>
       <c r="C288" t="n">
-        <v>7823562.537866626</v>
+        <v>7267959.869643143</v>
       </c>
       <c r="D288" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -31802,13 +31802,13 @@
         <v>3498</v>
       </c>
       <c r="B289" t="n">
-        <v>2382077.39041491</v>
+        <v>1328154.059630599</v>
       </c>
       <c r="C289" t="n">
-        <v>8389211.399830563</v>
+        <v>7693256.949634533</v>
       </c>
       <c r="D289" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -31912,13 +31912,13 @@
         <v>3501</v>
       </c>
       <c r="B290" t="n">
-        <v>1796524.412388136</v>
+        <v>661387.9095019172</v>
       </c>
       <c r="C290" t="n">
-        <v>8035397.096952594</v>
+        <v>7667133.422745484</v>
       </c>
       <c r="D290" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -32022,13 +32022,13 @@
         <v>3513</v>
       </c>
       <c r="B291" t="n">
-        <v>2132852.999855725</v>
+        <v>740517.9110555237</v>
       </c>
       <c r="C291" t="n">
-        <v>7577935.618405355</v>
+        <v>7119364.064350913</v>
       </c>
       <c r="D291" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -32124,13 +32124,13 @@
         <v>3515</v>
       </c>
       <c r="B292" t="n">
-        <v>2192264.898898815</v>
+        <v>906860.8410744863</v>
       </c>
       <c r="C292" t="n">
-        <v>7832046.454845878</v>
+        <v>7309669.625674401</v>
       </c>
       <c r="D292" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -32230,13 +32230,13 @@
         <v>3520</v>
       </c>
       <c r="B293" t="n">
-        <v>1775672.410889028</v>
+        <v>636278.6687481962</v>
       </c>
       <c r="C293" t="n">
-        <v>8020150.093912881</v>
+        <v>7663741.207198158</v>
       </c>
       <c r="D293" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -32340,13 +32340,13 @@
         <v>3528</v>
       </c>
       <c r="B294" t="n">
-        <v>1781979.461390287</v>
+        <v>656087.4728319976</v>
       </c>
       <c r="C294" t="n">
-        <v>8050869.981293221</v>
+        <v>7687267.754463362</v>
       </c>
       <c r="D294" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -32454,13 +32454,13 @@
         <v>3529</v>
       </c>
       <c r="B295" t="n">
-        <v>2117027.292736126</v>
+        <v>899415.3151114343</v>
       </c>
       <c r="C295" t="n">
-        <v>7955521.874560667</v>
+        <v>7449635.211107451</v>
       </c>
       <c r="D295" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -32560,13 +32560,13 @@
         <v>3532</v>
       </c>
       <c r="B296" t="n">
-        <v>1994869.988504274</v>
+        <v>934233.5827032961</v>
       </c>
       <c r="C296" t="n">
-        <v>8253687.523343773</v>
+        <v>7761260.172608385</v>
       </c>
       <c r="D296" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -32670,13 +32670,13 @@
         <v>3537</v>
       </c>
       <c r="B297" t="n">
-        <v>1782913.981400027</v>
+        <v>660325.0431990777</v>
       </c>
       <c r="C297" t="n">
-        <v>8058199.905808346</v>
+        <v>7693145.390364203</v>
       </c>
       <c r="D297" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -32784,13 +32784,13 @@
         <v>3547</v>
       </c>
       <c r="B298" t="n">
-        <v>2626888.753941618</v>
+        <v>1398492.112251941</v>
       </c>
       <c r="C298" t="n">
-        <v>8099747.324837649</v>
+        <v>7335513.807803744</v>
       </c>
       <c r="D298" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -32894,13 +32894,13 @@
         <v>3548</v>
       </c>
       <c r="B299" t="n">
-        <v>2443864.384783539</v>
+        <v>1272534.811309337</v>
       </c>
       <c r="C299" t="n">
-        <v>8160478.9233163</v>
+        <v>7471645.905877761</v>
       </c>
       <c r="D299" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -33004,13 +33004,13 @@
         <v>3566</v>
       </c>
       <c r="B300" t="n">
-        <v>1993602.024115915</v>
+        <v>937330.3522339901</v>
       </c>
       <c r="C300" t="n">
-        <v>8262549.122640902</v>
+        <v>7769426.422573877</v>
       </c>
       <c r="D300" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -33114,13 +33114,13 @@
         <v>3575</v>
       </c>
       <c r="B301" t="n">
-        <v>2182176.555294372</v>
+        <v>882906.4632230308</v>
       </c>
       <c r="C301" t="n">
-        <v>7798533.802771849</v>
+        <v>7285696.390073527</v>
       </c>
       <c r="D301" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -33220,13 +33220,13 @@
         <v>3579</v>
       </c>
       <c r="B302" t="n">
-        <v>1996159.242800754</v>
+        <v>940511.9671389447</v>
       </c>
       <c r="C302" t="n">
-        <v>8264652.65933431</v>
+        <v>7770016.524445752</v>
       </c>
       <c r="D302" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -33334,13 +33334,13 @@
         <v>3591</v>
       </c>
       <c r="B303" t="n">
-        <v>1993842.252542917</v>
+        <v>932955.8435390415</v>
       </c>
       <c r="C303" t="n">
-        <v>8252843.737247504</v>
+        <v>7761024.028409406</v>
       </c>
       <c r="D303" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -33448,13 +33448,13 @@
         <v>3603</v>
       </c>
       <c r="B304" t="n">
-        <v>1868540.092736681</v>
+        <v>745533.0613449832</v>
       </c>
       <c r="C304" t="n">
-        <v>8082728.691366238</v>
+        <v>7674163.372555957</v>
       </c>
       <c r="D304" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -33562,13 +33562,13 @@
         <v>3605</v>
       </c>
       <c r="B305" t="n">
-        <v>1903060.193631795</v>
+        <v>720856.0514023926</v>
       </c>
       <c r="C305" t="n">
-        <v>7966164.590009189</v>
+        <v>7557908.219210621</v>
       </c>
       <c r="D305" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -33672,13 +33672,13 @@
         <v>3615</v>
       </c>
       <c r="B306" t="n">
-        <v>2364321.032347963</v>
+        <v>1242666.956316649</v>
       </c>
       <c r="C306" t="n">
-        <v>8240352.879243047</v>
+        <v>7576181.339321886</v>
       </c>
       <c r="D306" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -33778,13 +33778,13 @@
         <v>3618</v>
       </c>
       <c r="B307" t="n">
-        <v>2027329.400096157</v>
+        <v>832847.8444632411</v>
       </c>
       <c r="C307" t="n">
-        <v>7977568.265733846</v>
+        <v>7510009.82457608</v>
       </c>
       <c r="D307" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -33888,13 +33888,13 @@
         <v>3628</v>
       </c>
       <c r="B308" t="n">
-        <v>2050258.311415594</v>
+        <v>876819.3451502406</v>
       </c>
       <c r="C308" t="n">
-        <v>8029952.520457373</v>
+        <v>7544168.64192751</v>
       </c>
       <c r="D308" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -33998,13 +33998,13 @@
         <v>3632</v>
       </c>
       <c r="B309" t="n">
-        <v>2113306.388991037</v>
+        <v>1063757.402085037</v>
       </c>
       <c r="C309" t="n">
-        <v>8313629.616303268</v>
+        <v>7756452.358480101</v>
       </c>
       <c r="D309" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -34112,13 +34112,13 @@
         <v>3634</v>
       </c>
       <c r="B310" t="n">
-        <v>1994303.862149735</v>
+        <v>937037.6605270836</v>
       </c>
       <c r="C310" t="n">
-        <v>8260656.458324953</v>
+        <v>7767478.985777365</v>
       </c>
       <c r="D310" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -34218,13 +34218,13 @@
         <v>3635</v>
       </c>
       <c r="B311" t="n">
-        <v>2287405.829528831</v>
+        <v>997781.5772948437</v>
       </c>
       <c r="C311" t="n">
-        <v>7853471.866690428</v>
+        <v>7284344.155476289</v>
       </c>
       <c r="D311" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -34320,13 +34320,13 @@
         <v>3645</v>
       </c>
       <c r="B312" t="n">
-        <v>2333491.430480619</v>
+        <v>1240265.11844501</v>
       </c>
       <c r="C312" t="n">
-        <v>8290715.062565199</v>
+        <v>7633177.140605113</v>
       </c>
       <c r="D312" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -34426,13 +34426,13 @@
         <v>3646</v>
       </c>
       <c r="B313" t="n">
-        <v>2279363.763214902</v>
+        <v>1015137.83047013</v>
       </c>
       <c r="C313" t="n">
-        <v>7906203.702278097</v>
+        <v>7332823.757942825</v>
       </c>
       <c r="D313" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -34536,13 +34536,13 @@
         <v>3664</v>
       </c>
       <c r="B314" t="n">
-        <v>2121685.318845043</v>
+        <v>851374.17317705</v>
       </c>
       <c r="C314" t="n">
-        <v>7842614.551610816</v>
+        <v>7351048.910195568</v>
       </c>
       <c r="D314" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -34646,13 +34646,13 @@
         <v>3671</v>
       </c>
       <c r="B315" t="n">
-        <v>2626576.028865629</v>
+        <v>1310836.093049647</v>
       </c>
       <c r="C315" t="n">
-        <v>7910548.049077759</v>
+        <v>7177313.192988577</v>
       </c>
       <c r="D315" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -34756,13 +34756,13 @@
         <v>3674</v>
       </c>
       <c r="B316" t="n">
-        <v>2219218.998350399</v>
+        <v>880587.8108814436</v>
       </c>
       <c r="C316" t="n">
-        <v>7724026.959386935</v>
+        <v>7205240.494811949</v>
       </c>
       <c r="D316" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -34862,13 +34862,13 @@
         <v>3675</v>
       </c>
       <c r="B317" t="n">
-        <v>1745446.222348809</v>
+        <v>638998.9656855417</v>
       </c>
       <c r="C317" t="n">
-        <v>8081636.255326241</v>
+        <v>7730906.170873526</v>
       </c>
       <c r="D317" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -34968,13 +34968,13 @@
         <v>3693</v>
       </c>
       <c r="B318" t="n">
-        <v>2018713.949153011</v>
+        <v>806341.4575047644</v>
       </c>
       <c r="C318" t="n">
-        <v>7936298.042107687</v>
+        <v>7478661.62470316</v>
       </c>
       <c r="D318" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -35082,13 +35082,13 @@
         <v>3710</v>
       </c>
       <c r="B319" t="n">
-        <v>2280722.309792995</v>
+        <v>852070.5000030847</v>
       </c>
       <c r="C319" t="n">
-        <v>7544452.710503372</v>
+        <v>7024263.996584867</v>
       </c>
       <c r="D319" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -35188,13 +35188,13 @@
         <v>3713</v>
       </c>
       <c r="B320" t="n">
-        <v>2185155.55418056</v>
+        <v>793451.0722239073</v>
       </c>
       <c r="C320" t="n">
-        <v>7595886.064757099</v>
+        <v>7111165.796282979</v>
       </c>
       <c r="D320" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -35294,13 +35294,13 @@
         <v>3714</v>
       </c>
       <c r="B321" t="n">
-        <v>2013871.638066677</v>
+        <v>960321.9127553552</v>
       </c>
       <c r="C321" t="n">
-        <v>8274511.150206463</v>
+        <v>7770075.405277894</v>
       </c>
       <c r="D321" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -35408,13 +35408,13 @@
         <v>3717</v>
       </c>
       <c r="B322" t="n">
-        <v>2482465.684090299</v>
+        <v>1314500.340813246</v>
       </c>
       <c r="C322" t="n">
-        <v>8180441.928603793</v>
+        <v>7470411.55631114</v>
       </c>
       <c r="D322" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -35522,13 +35522,13 @@
         <v>3734</v>
       </c>
       <c r="B323" t="n">
-        <v>2014915.033323976</v>
+        <v>795417.6251992576</v>
       </c>
       <c r="C323" t="n">
-        <v>7919725.105312599</v>
+        <v>7466219.108343782</v>
       </c>
       <c r="D323" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -35628,13 +35628,13 @@
         <v>3740</v>
       </c>
       <c r="B324" t="n">
-        <v>1994817.53504457</v>
+        <v>937673.9675345563</v>
       </c>
       <c r="C324" t="n">
-        <v>8261073.134225663</v>
+        <v>7767592.561358443</v>
       </c>
       <c r="D324" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -35738,13 +35738,13 @@
         <v>3745</v>
       </c>
       <c r="B325" t="n">
-        <v>1993843.657623132</v>
+        <v>932955.2392240467</v>
       </c>
       <c r="C325" t="n">
-        <v>8252839.907173458</v>
+        <v>7761020.094674127</v>
       </c>
       <c r="D325" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -35852,13 +35852,13 @@
         <v>3747</v>
       </c>
       <c r="B326" t="n">
-        <v>2176377.652220235</v>
+        <v>893413.2740193857</v>
       </c>
       <c r="C326" t="n">
-        <v>7832312.769380885</v>
+        <v>7317173.702014156</v>
       </c>
       <c r="D326" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -35958,13 +35958,13 @@
         <v>3748</v>
       </c>
       <c r="B327" t="n">
-        <v>2318230.803401171</v>
+        <v>966935.8110655572</v>
       </c>
       <c r="C327" t="n">
-        <v>7728269.609302429</v>
+        <v>7163905.234143174</v>
       </c>
       <c r="D327" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -36064,13 +36064,13 @@
         <v>3769</v>
       </c>
       <c r="B328" t="n">
-        <v>2268796.913746734</v>
+        <v>901063.3573547465</v>
       </c>
       <c r="C328" t="n">
-        <v>7675858.036434767</v>
+        <v>7141691.456389145</v>
       </c>
       <c r="D328" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -36174,13 +36174,13 @@
         <v>3773</v>
       </c>
       <c r="B329" t="n">
-        <v>2013697.355417734</v>
+        <v>793978.6563722049</v>
       </c>
       <c r="C329" t="n">
-        <v>7918872.038709952</v>
+        <v>7466050.894299788</v>
       </c>
       <c r="D329" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -36280,13 +36280,13 @@
         <v>3798</v>
       </c>
       <c r="B330" t="n">
-        <v>1994308.206048329</v>
+        <v>937035.8443000868</v>
       </c>
       <c r="C330" t="n">
-        <v>8260644.733472871</v>
+        <v>7767466.92359018</v>
       </c>
       <c r="D330" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -36386,13 +36386,13 @@
         <v>3809</v>
       </c>
       <c r="B331" t="n">
-        <v>1993838.827244448</v>
+        <v>932957.3167096926</v>
       </c>
       <c r="C331" t="n">
-        <v>8252853.074127</v>
+        <v>7761033.618003026</v>
       </c>
       <c r="D331" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -36492,13 +36492,13 @@
         <v>3810</v>
       </c>
       <c r="B332" t="n">
-        <v>2176677.783417338</v>
+        <v>742189.8295238431</v>
       </c>
       <c r="C332" t="n">
-        <v>7497969.850695196</v>
+        <v>7031102.616702136</v>
       </c>
       <c r="D332" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -36594,13 +36594,13 @@
         <v>3812</v>
       </c>
       <c r="B333" t="n">
-        <v>2216374.306144523</v>
+        <v>1204831.096630455</v>
       </c>
       <c r="C333" t="n">
-        <v>8425784.103115521</v>
+        <v>7802781.437205079</v>
       </c>
       <c r="D333" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -36704,13 +36704,13 @@
         <v>3813</v>
       </c>
       <c r="B334" t="n">
-        <v>2150013.083133275</v>
+        <v>768364.9432803101</v>
       </c>
       <c r="C334" t="n">
-        <v>7607029.344791971</v>
+        <v>7136561.243197758</v>
       </c>
       <c r="D334" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -36806,13 +36806,13 @@
         <v>3814</v>
       </c>
       <c r="B335" t="n">
-        <v>2031472.519289806</v>
+        <v>918245.1823576771</v>
       </c>
       <c r="C335" t="n">
-        <v>8153089.746638555</v>
+        <v>7658141.67416576</v>
       </c>
       <c r="D335" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -36920,13 +36920,13 @@
         <v>3858</v>
       </c>
       <c r="B336" t="n">
-        <v>2181229.463254426</v>
+        <v>883948.0062963058</v>
       </c>
       <c r="C336" t="n">
-        <v>7802581.548031705</v>
+        <v>7289583.671315713</v>
       </c>
       <c r="D336" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -37026,13 +37026,13 @@
         <v>3867</v>
       </c>
       <c r="B337" t="n">
-        <v>1922162.828998401</v>
+        <v>595781.8793388287</v>
       </c>
       <c r="C337" t="n">
-        <v>7658704.929836089</v>
+        <v>7284364.541069679</v>
       </c>
       <c r="D337" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -37132,13 +37132,13 @@
         <v>3887</v>
       </c>
       <c r="B338" t="n">
-        <v>2625617.79006124</v>
+        <v>1450738.651482512</v>
       </c>
       <c r="C338" t="n">
-        <v>8213720.712965899</v>
+        <v>7431346.226469016</v>
       </c>
       <c r="D338" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -37234,13 +37234,13 @@
         <v>3898</v>
       </c>
       <c r="B339" t="n">
-        <v>1993840.293003649</v>
+        <v>932956.6863126344</v>
       </c>
       <c r="C339" t="n">
-        <v>8252849.078684731</v>
+        <v>7761029.514417323</v>
       </c>
       <c r="D339" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -37348,13 +37348,13 @@
         <v>3901</v>
       </c>
       <c r="B340" t="n">
-        <v>1991231.525637249</v>
+        <v>933214.175000439</v>
       </c>
       <c r="C340" t="n">
-        <v>8258126.978750909</v>
+        <v>7766767.591439922</v>
       </c>
       <c r="D340" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -37462,13 +37462,13 @@
         <v>3903</v>
       </c>
       <c r="B341" t="n">
-        <v>2091133.140903533</v>
+        <v>822900.4347418221</v>
       </c>
       <c r="C341" t="n">
-        <v>7837570.904515554</v>
+        <v>7360759.539254025</v>
       </c>
       <c r="D341" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -37568,13 +37568,13 @@
         <v>3917</v>
       </c>
       <c r="B342" t="n">
-        <v>2629161.140655557</v>
+        <v>1398859.961382667</v>
       </c>
       <c r="C342" t="n">
-        <v>8096435.137788029</v>
+        <v>7331689.938450952</v>
       </c>
       <c r="D342" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -37678,13 +37678,13 @@
         <v>3924</v>
       </c>
       <c r="B343" t="n">
-        <v>2175569.859526965</v>
+        <v>741181.2521927026</v>
       </c>
       <c r="C343" t="n">
-        <v>7497840.066297086</v>
+        <v>7031487.433753423</v>
       </c>
       <c r="D343" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -37780,13 +37780,13 @@
         <v>3926</v>
       </c>
       <c r="B344" t="n">
-        <v>2402265.842732496</v>
+        <v>1339425.420928823</v>
       </c>
       <c r="C344" t="n">
-        <v>8376947.994554054</v>
+        <v>7673369.967671252</v>
       </c>
       <c r="D344" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -37890,13 +37890,13 @@
         <v>3935</v>
       </c>
       <c r="B345" t="n">
-        <v>2081141.886447563</v>
+        <v>832626.1591297847</v>
       </c>
       <c r="C345" t="n">
-        <v>7877332.405179486</v>
+        <v>7399372.425750453</v>
       </c>
       <c r="D345" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -37996,13 +37996,13 @@
         <v>3936</v>
       </c>
       <c r="B346" t="n">
-        <v>2303297.983351455</v>
+        <v>898747.3662114993</v>
       </c>
       <c r="C346" t="n">
-        <v>7605503.205180399</v>
+        <v>7066184.645066248</v>
       </c>
       <c r="D346" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -38098,13 +38098,13 @@
         <v>3939</v>
       </c>
       <c r="B347" t="n">
-        <v>2420055.736148268</v>
+        <v>1344563.454622347</v>
       </c>
       <c r="C347" t="n">
-        <v>8356058.899385452</v>
+        <v>7647378.951688493</v>
       </c>
       <c r="D347" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -38208,13 +38208,13 @@
         <v>3944</v>
       </c>
       <c r="B348" t="n">
-        <v>2128800.496650093</v>
+        <v>1048158.744441703</v>
       </c>
       <c r="C348" t="n">
-        <v>8252600.149213325</v>
+        <v>7697245.96729626</v>
       </c>
       <c r="D348" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -38318,13 +38318,13 @@
         <v>3970</v>
       </c>
       <c r="B349" t="n">
-        <v>1914027.902662219</v>
+        <v>741112.6057255134</v>
       </c>
       <c r="C349" t="n">
-        <v>7989447.373147317</v>
+        <v>7572813.603890932</v>
       </c>
       <c r="D349" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -38428,13 +38428,13 @@
         <v>3974</v>
       </c>
       <c r="B350" t="n">
-        <v>1997690.252480078</v>
+        <v>942421.3991615695</v>
       </c>
       <c r="C350" t="n">
-        <v>8265921.851054018</v>
+        <v>7770378.05435971</v>
       </c>
       <c r="D350" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -38542,13 +38542,13 @@
         <v>3988</v>
       </c>
       <c r="B351" t="n">
-        <v>2303316.190281907</v>
+        <v>945572.9309526996</v>
       </c>
       <c r="C351" t="n">
-        <v>7709165.656991275</v>
+        <v>7154422.044654272</v>
       </c>
       <c r="D351" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -38648,13 +38648,13 @@
         <v>3995</v>
       </c>
       <c r="B352" t="n">
-        <v>2098888.146441844</v>
+        <v>717081.4386109823</v>
       </c>
       <c r="C352" t="n">
-        <v>7590627.069644775</v>
+        <v>7145579.977586001</v>
       </c>
       <c r="D352" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -38758,13 +38758,13 @@
         <v>4004</v>
       </c>
       <c r="B353" t="n">
-        <v>1994742.167832555</v>
+        <v>941090.7619412541</v>
       </c>
       <c r="C353" t="n">
-        <v>8268447.117807875</v>
+        <v>7773925.371255712</v>
       </c>
       <c r="D353" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -38864,13 +38864,13 @@
         <v>4013</v>
       </c>
       <c r="B354" t="n">
-        <v>1810980.769363631</v>
+        <v>665539.1291105201</v>
       </c>
       <c r="C354" t="n">
-        <v>8017614.368551562</v>
+        <v>7645061.967565375</v>
       </c>
       <c r="D354" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -38970,13 +38970,13 @@
         <v>4021</v>
       </c>
       <c r="B355" t="n">
-        <v>2115613.542114401</v>
+        <v>941471.968636106</v>
       </c>
       <c r="C355" t="n">
-        <v>8048791.508175132</v>
+        <v>7529863.309869869</v>
       </c>
       <c r="D355" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -39084,13 +39084,13 @@
         <v>4025</v>
       </c>
       <c r="B356" t="n">
-        <v>2330267.982816422</v>
+        <v>963430.161283389</v>
       </c>
       <c r="C356" t="n">
-        <v>7697928.591152991</v>
+        <v>7132663.739116039</v>
       </c>
       <c r="D356" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -39190,13 +39190,13 @@
         <v>4038</v>
       </c>
       <c r="B357" t="n">
-        <v>2134443.434665957</v>
+        <v>756926.5886178723</v>
       </c>
       <c r="C357" t="n">
-        <v>7611265.885220139</v>
+        <v>7147224.038688864</v>
       </c>
       <c r="D357" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -39292,13 +39292,13 @@
         <v>4042</v>
       </c>
       <c r="B358" t="n">
-        <v>2066471.964634498</v>
+        <v>849952.5094616212</v>
       </c>
       <c r="C358" t="n">
-        <v>7942101.085670856</v>
+        <v>7461540.88379485</v>
       </c>
       <c r="D358" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -39406,13 +39406,13 @@
         <v>4063</v>
       </c>
       <c r="B359" t="n">
-        <v>1993840.350355884</v>
+        <v>932956.6616463196</v>
       </c>
       <c r="C359" t="n">
-        <v>8252848.922350737</v>
+        <v>7761029.353851941</v>
       </c>
       <c r="D359" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -39516,13 +39516,13 @@
         <v>4071</v>
       </c>
       <c r="B360" t="n">
-        <v>2631047.023413632</v>
+        <v>1227854.147484486</v>
       </c>
       <c r="C360" t="n">
-        <v>7719812.857464591</v>
+        <v>7015325.011235176</v>
       </c>
       <c r="D360" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -39622,13 +39622,13 @@
         <v>4074</v>
       </c>
       <c r="B361" t="n">
-        <v>2407780.931047636</v>
+        <v>1279387.055679167</v>
       </c>
       <c r="C361" t="n">
-        <v>8240154.221552623</v>
+        <v>7555616.698784092</v>
       </c>
       <c r="D361" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -39736,13 +39736,13 @@
         <v>4075</v>
       </c>
       <c r="B362" t="n">
-        <v>1993840.102012373</v>
+        <v>932956.7684549807</v>
       </c>
       <c r="C362" t="n">
-        <v>8252849.599299499</v>
+        <v>7761030.049123255</v>
       </c>
       <c r="D362" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -39842,13 +39842,13 @@
         <v>4087</v>
       </c>
       <c r="B363" t="n">
-        <v>2386871.080725969</v>
+        <v>1330635.212176623</v>
       </c>
       <c r="C363" t="n">
-        <v>8385888.159242895</v>
+        <v>7688187.266888417</v>
       </c>
       <c r="D363" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -39952,13 +39952,13 @@
         <v>4089</v>
       </c>
       <c r="B364" t="n">
-        <v>1999907.729969696</v>
+        <v>800321.7313554658</v>
       </c>
       <c r="C364" t="n">
-        <v>7958129.078954296</v>
+        <v>7506073.586262429</v>
       </c>
       <c r="D364" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -40062,13 +40062,13 @@
         <v>4097</v>
       </c>
       <c r="B365" t="n">
-        <v>2103941.917277626</v>
+        <v>816558.4935699872</v>
       </c>
       <c r="C365" t="n">
-        <v>7799814.639744907</v>
+        <v>7322578.642948418</v>
       </c>
       <c r="D365" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -40164,13 +40164,13 @@
         <v>4103</v>
       </c>
       <c r="B366" t="n">
-        <v>1993283.223208155</v>
+        <v>935762.0112128834</v>
       </c>
       <c r="C366" t="n">
-        <v>8259804.531244095</v>
+        <v>7767232.773530058</v>
       </c>
       <c r="D366" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -40270,13 +40270,13 @@
         <v>4106</v>
       </c>
       <c r="B367" t="n">
-        <v>1993839.051434021</v>
+        <v>932957.2202901614</v>
       </c>
       <c r="C367" t="n">
-        <v>8252852.463020439</v>
+        <v>7761032.990355647</v>
       </c>
       <c r="D367" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -40384,13 +40384,13 @@
         <v>4110</v>
       </c>
       <c r="B368" t="n">
-        <v>2303876.490994884</v>
+        <v>884618.5196295383</v>
       </c>
       <c r="C368" t="n">
-        <v>7572960.558960572</v>
+        <v>7038195.382624815</v>
       </c>
       <c r="D368" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -40490,13 +40490,13 @@
         <v>4112</v>
       </c>
       <c r="B369" t="n">
-        <v>2223458.310642924</v>
+        <v>810117.1405484569</v>
       </c>
       <c r="C369" t="n">
-        <v>7560057.640641637</v>
+        <v>7063282.586836583</v>
       </c>
       <c r="D369" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -40600,13 +40600,13 @@
         <v>4117</v>
       </c>
       <c r="B370" t="n">
-        <v>2005859.692718976</v>
+        <v>800877.479968342</v>
       </c>
       <c r="C370" t="n">
-        <v>7948309.616897732</v>
+        <v>7494902.194817801</v>
       </c>
       <c r="D370" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -40706,13 +40706,13 @@
         <v>4118</v>
       </c>
       <c r="B371" t="n">
-        <v>2102449.597098643</v>
+        <v>1088312.026990883</v>
       </c>
       <c r="C371" t="n">
-        <v>8384948.739681113</v>
+        <v>7822231.168221163</v>
       </c>
       <c r="D371" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -40812,13 +40812,13 @@
         <v>4121</v>
       </c>
       <c r="B372" t="n">
-        <v>2077012.544258117</v>
+        <v>792522.8517208797</v>
       </c>
       <c r="C372" t="n">
-        <v>7797725.31308213</v>
+        <v>7333122.484146098</v>
       </c>
       <c r="D372" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -40914,13 +40914,13 @@
         <v>4129</v>
       </c>
       <c r="B373" t="n">
-        <v>2299535.901558273</v>
+        <v>907475.4468771147</v>
       </c>
       <c r="C373" t="n">
-        <v>7632008.744433518</v>
+        <v>7090455.812982022</v>
       </c>
       <c r="D373" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -41016,13 +41016,13 @@
         <v>4141</v>
       </c>
       <c r="B374" t="n">
-        <v>2415242.506210751</v>
+        <v>1317425.047422073</v>
       </c>
       <c r="C374" t="n">
-        <v>8307391.963115654</v>
+        <v>7608711.751457619</v>
       </c>
       <c r="D374" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -41126,13 +41126,13 @@
         <v>4152</v>
       </c>
       <c r="B375" t="n">
-        <v>2632410.690028227</v>
+        <v>1229539.330205559</v>
       </c>
       <c r="C375" t="n">
-        <v>7721005.066140982</v>
+        <v>7015711.036293506</v>
       </c>
       <c r="D375" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -41232,13 +41232,13 @@
         <v>4155</v>
       </c>
       <c r="B376" t="n">
-        <v>2200411.143767362</v>
+        <v>658051.8477913656</v>
       </c>
       <c r="C376" t="n">
-        <v>7262460.690270209</v>
+        <v>6818352.73326298</v>
       </c>
       <c r="D376" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -41342,13 +41342,13 @@
         <v>4170</v>
       </c>
       <c r="B377" t="n">
-        <v>2151528.826438505</v>
+        <v>758791.7945581494</v>
       </c>
       <c r="C377" t="n">
-        <v>7582930.43981819</v>
+        <v>7115227.673961877</v>
       </c>
       <c r="D377" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -41444,13 +41444,13 @@
         <v>4172</v>
       </c>
       <c r="B378" t="n">
-        <v>2255374.306247531</v>
+        <v>911058.4929123854</v>
       </c>
       <c r="C378" t="n">
-        <v>7723166.315432159</v>
+        <v>7188085.33775318</v>
       </c>
       <c r="D378" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -41550,13 +41550,13 @@
         <v>4174</v>
       </c>
       <c r="B379" t="n">
-        <v>2197653.191739293</v>
+        <v>892572.7018842557</v>
       </c>
       <c r="C379" t="n">
-        <v>7790753.847981699</v>
+        <v>7271987.959522819</v>
       </c>
       <c r="D379" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -41656,13 +41656,13 @@
         <v>4180</v>
       </c>
       <c r="B380" t="n">
-        <v>2177221.752499881</v>
+        <v>736140.9447997462</v>
       </c>
       <c r="C380" t="n">
-        <v>7483411.950017008</v>
+        <v>7018376.531445957</v>
       </c>
       <c r="D380" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -41762,13 +41762,13 @@
         <v>4182</v>
       </c>
       <c r="B381" t="n">
-        <v>2294797.815875747</v>
+        <v>918595.2735081387</v>
       </c>
       <c r="C381" t="n">
-        <v>7665595.409880829</v>
+        <v>7121195.303258172</v>
       </c>
       <c r="D381" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -41864,13 +41864,13 @@
         <v>4192</v>
       </c>
       <c r="B382" t="n">
-        <v>2028844.433280598</v>
+        <v>731413.8905097654</v>
       </c>
       <c r="C382" t="n">
-        <v>7754541.87028825</v>
+        <v>7318138.062029734</v>
       </c>
       <c r="D382" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -41966,13 +41966,13 @@
         <v>4207</v>
       </c>
       <c r="B383" t="n">
-        <v>2182694.813791182</v>
+        <v>633557.9051497146</v>
       </c>
       <c r="C383" t="n">
-        <v>7241426.271130272</v>
+        <v>6808041.547381579</v>
       </c>
       <c r="D383" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -42072,13 +42072,13 @@
         <v>4211</v>
       </c>
       <c r="B384" t="n">
-        <v>2054825.451478366</v>
+        <v>859068.8439565091</v>
       </c>
       <c r="C384" t="n">
-        <v>7983317.814060022</v>
+        <v>7502179.611384838</v>
       </c>
       <c r="D384" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -42182,13 +42182,13 @@
         <v>4221</v>
       </c>
       <c r="B385" t="n">
-        <v>2681860.897605714</v>
+        <v>1261784.406171691</v>
       </c>
       <c r="C385" t="n">
-        <v>7700339.639956024</v>
+        <v>6976109.48943565</v>
       </c>
       <c r="D385" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -42288,13 +42288,13 @@
         <v>4222</v>
       </c>
       <c r="B386" t="n">
-        <v>2272947.859779079</v>
+        <v>895464.5893220461</v>
       </c>
       <c r="C386" t="n">
-        <v>7655643.154227937</v>
+        <v>7122587.717520681</v>
       </c>
       <c r="D386" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -42394,13 +42394,13 @@
         <v>4226</v>
       </c>
       <c r="B387" t="n">
-        <v>2283992.159184923</v>
+        <v>1242979.438939674</v>
       </c>
       <c r="C387" t="n">
-        <v>8385131.016722424</v>
+        <v>7736304.724697713</v>
       </c>
       <c r="D387" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -42504,13 +42504,13 @@
         <v>4231</v>
       </c>
       <c r="B388" t="n">
-        <v>2010499.502102016</v>
+        <v>826997.3063466386</v>
       </c>
       <c r="C388" t="n">
-        <v>7996041.764875422</v>
+        <v>7533634.112855488</v>
       </c>
       <c r="D388" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -42614,13 +42614,13 @@
         <v>4233</v>
       </c>
       <c r="B389" t="n">
-        <v>2149047.821831806</v>
+        <v>755954.953592106</v>
       </c>
       <c r="C389" t="n">
-        <v>7581357.570230121</v>
+        <v>7114997.899509427</v>
       </c>
       <c r="D389" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -42716,13 +42716,13 @@
         <v>4234</v>
       </c>
       <c r="B390" t="n">
-        <v>2262612.543007493</v>
+        <v>846054.0797774419</v>
       </c>
       <c r="C390" t="n">
-        <v>7565530.082127435</v>
+        <v>7050376.340893129</v>
       </c>
       <c r="D390" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -42826,13 +42826,13 @@
         <v>4235</v>
       </c>
       <c r="B391" t="n">
-        <v>2187031.846234927</v>
+        <v>743740.8649608215</v>
       </c>
       <c r="C391" t="n">
-        <v>7481587.506749432</v>
+        <v>7012425.186389853</v>
       </c>
       <c r="D391" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -42928,13 +42928,13 @@
         <v>4239</v>
       </c>
       <c r="B392" t="n">
-        <v>2197777.104912033</v>
+        <v>746337.8616099986</v>
       </c>
       <c r="C392" t="n">
-        <v>7466775.028169523</v>
+        <v>6994927.191403398</v>
       </c>
       <c r="D392" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -43038,13 +43038,13 @@
         <v>4240</v>
       </c>
       <c r="B393" t="n">
-        <v>2114063.176835079</v>
+        <v>1069681.430785734</v>
       </c>
       <c r="C393" t="n">
-        <v>8324782.582341613</v>
+        <v>7765578.331985452</v>
       </c>
       <c r="D393" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -43144,13 +43144,13 @@
         <v>4243</v>
       </c>
       <c r="B394" t="n">
-        <v>1992958.830672772</v>
+        <v>934191.1304383193</v>
       </c>
       <c r="C394" t="n">
-        <v>8257064.281829186</v>
+        <v>7765045.357648998</v>
       </c>
       <c r="D394" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -43258,13 +43258,13 @@
         <v>4261</v>
       </c>
       <c r="B395" t="n">
-        <v>2427631.07358416</v>
+        <v>1199981.113510629</v>
       </c>
       <c r="C395" t="n">
-        <v>8034122.393850728</v>
+        <v>7372729.705773313</v>
       </c>
       <c r="D395" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -43364,13 +43364,13 @@
         <v>4271</v>
       </c>
       <c r="B396" t="n">
-        <v>1817855.02138696</v>
+        <v>700988.1585922581</v>
       </c>
       <c r="C396" t="n">
-        <v>8080741.09610232</v>
+        <v>7696187.191234428</v>
       </c>
       <c r="D396" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -43478,13 +43478,13 @@
         <v>4273</v>
       </c>
       <c r="B397" t="n">
-        <v>2109536.06342261</v>
+        <v>1029710.941166419</v>
       </c>
       <c r="C397" t="n">
-        <v>8248332.388942234</v>
+        <v>7702682.060825936</v>
       </c>
       <c r="D397" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -43584,13 +43584,13 @@
         <v>4276</v>
       </c>
       <c r="B398" t="n">
-        <v>2114033.770409708</v>
+        <v>933864.6865614713</v>
       </c>
       <c r="C398" t="n">
-        <v>8035336.018148851</v>
+        <v>7519122.989052285</v>
       </c>
       <c r="D398" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -43698,13 +43698,13 @@
         <v>4277</v>
       </c>
       <c r="B399" t="n">
-        <v>2075271.715659077</v>
+        <v>801088.0348656627</v>
       </c>
       <c r="C399" t="n">
-        <v>7819661.621506109</v>
+        <v>7352707.953988129</v>
       </c>
       <c r="D399" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -43808,13 +43808,13 @@
         <v>4281</v>
       </c>
       <c r="B400" t="n">
-        <v>2279153.062191104</v>
+        <v>893278.0735982689</v>
       </c>
       <c r="C400" t="n">
-        <v>7639074.917849093</v>
+        <v>7105666.154510666</v>
       </c>
       <c r="D400" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -43910,13 +43910,13 @@
         <v>4287</v>
       </c>
       <c r="B401" t="n">
-        <v>2291537.434540577</v>
+        <v>935429.8592254971</v>
       </c>
       <c r="C401" t="n">
-        <v>7708926.914008274</v>
+        <v>7159556.414963406</v>
       </c>
       <c r="D401" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -44016,13 +44016,13 @@
         <v>4290</v>
       </c>
       <c r="B402" t="n">
-        <v>1852092.333285735</v>
+        <v>716546.465768992</v>
       </c>
       <c r="C402" t="n">
-        <v>8051008.285252707</v>
+        <v>7654594.048810294</v>
       </c>
       <c r="D402" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -44130,13 +44130,13 @@
         <v>4291</v>
       </c>
       <c r="B403" t="n">
-        <v>2051357.035715708</v>
+        <v>983701.9591929991</v>
       </c>
       <c r="C403" t="n">
-        <v>8256137.709369063</v>
+        <v>7736727.592965069</v>
       </c>
       <c r="D403" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -44236,13 +44236,13 @@
         <v>4292</v>
       </c>
       <c r="B404" t="n">
-        <v>2101942.266632606</v>
+        <v>1027304.066563739</v>
       </c>
       <c r="C404" t="n">
-        <v>8256977.348700395</v>
+        <v>7713614.724844063</v>
       </c>
       <c r="D404" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -44346,13 +44346,13 @@
         <v>4300</v>
       </c>
       <c r="B405" t="n">
-        <v>2098987.869594794</v>
+        <v>808635.2399149899</v>
       </c>
       <c r="C405" t="n">
-        <v>7791779.460371195</v>
+        <v>7317969.387485085</v>
       </c>
       <c r="D405" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -44448,13 +44448,13 @@
         <v>4303</v>
       </c>
       <c r="B406" t="n">
-        <v>2199994.345785041</v>
+        <v>785054.4047317558</v>
       </c>
       <c r="C406" t="n">
-        <v>7548982.386971687</v>
+        <v>7064346.353197711</v>
       </c>
       <c r="D406" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -44550,13 +44550,13 @@
         <v>4308</v>
       </c>
       <c r="B407" t="n">
-        <v>1994736.244772053</v>
+        <v>941093.168617904</v>
       </c>
       <c r="C407" t="n">
-        <v>8268462.949409432</v>
+        <v>7773941.685477682</v>
       </c>
       <c r="D407" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -44656,13 +44656,13 @@
         <v>4320</v>
       </c>
       <c r="B408" t="n">
-        <v>2092267.222091226</v>
+        <v>1019839.856118537</v>
       </c>
       <c r="C408" t="n">
-        <v>8258663.836582507</v>
+        <v>7719607.072087442</v>
       </c>
       <c r="D408" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -44766,13 +44766,13 @@
         <v>4322</v>
       </c>
       <c r="B409" t="n">
-        <v>1972768.262063627</v>
+        <v>655963.8947753001</v>
       </c>
       <c r="C409" t="n">
-        <v>7694980.570591651</v>
+        <v>7292549.41708691</v>
       </c>
       <c r="D409" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -44872,13 +44872,13 @@
         <v>4323</v>
       </c>
       <c r="B410" t="n">
-        <v>2198507.541777441</v>
+        <v>657878.4500441813</v>
       </c>
       <c r="C410" t="n">
-        <v>7265789.361850658</v>
+        <v>6822052.60540196</v>
       </c>
       <c r="D410" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -44982,13 +44982,13 @@
         <v>4326</v>
       </c>
       <c r="B411" t="n">
-        <v>2108862.931575197</v>
+        <v>921949.8163392654</v>
       </c>
       <c r="C411" t="n">
-        <v>8019202.791734438</v>
+        <v>7507762.249294478</v>
       </c>
       <c r="D411" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -45088,13 +45088,13 @@
         <v>4328</v>
       </c>
       <c r="B412" t="n">
-        <v>2247481.247634914</v>
+        <v>803599.3848936844</v>
       </c>
       <c r="C412" t="n">
-        <v>7499642.988248495</v>
+        <v>7000861.058985945</v>
       </c>
       <c r="D412" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -45194,13 +45194,13 @@
         <v>4333</v>
       </c>
       <c r="B413" t="n">
-        <v>2430235.146504897</v>
+        <v>1132513.143785673</v>
       </c>
       <c r="C413" t="n">
-        <v>7882901.866447367</v>
+        <v>7243899.79349531</v>
       </c>
       <c r="D413" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -45304,13 +45304,13 @@
         <v>4341</v>
       </c>
       <c r="B414" t="n">
-        <v>2320531.925468946</v>
+        <v>887640.3656196744</v>
       </c>
       <c r="C414" t="n">
-        <v>7548011.864029911</v>
+        <v>7009469.959449735</v>
       </c>
       <c r="D414" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -45410,13 +45410,13 @@
         <v>4344</v>
       </c>
       <c r="B415" t="n">
-        <v>2273728.94142738</v>
+        <v>971244.631381192</v>
       </c>
       <c r="C415" t="n">
-        <v>7820925.21782269</v>
+        <v>7262936.003014339</v>
       </c>
       <c r="D415" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -45512,13 +45512,13 @@
         <v>4346</v>
       </c>
       <c r="B416" t="n">
-        <v>2136115.147788384</v>
+        <v>678703.3495062788</v>
       </c>
       <c r="C416" t="n">
-        <v>7433885.165704549</v>
+        <v>6994220.969581655</v>
       </c>
       <c r="D416" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -45622,13 +45622,13 @@
         <v>4351</v>
       </c>
       <c r="B417" t="n">
-        <v>2298780.115662868</v>
+        <v>897632.8050516389</v>
       </c>
       <c r="C417" t="n">
-        <v>7611588.35003183</v>
+        <v>7073401.308640633</v>
       </c>
       <c r="D417" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -45728,13 +45728,13 @@
         <v>4355</v>
       </c>
       <c r="B418" t="n">
-        <v>2251984.517969217</v>
+        <v>818985.6247727564</v>
       </c>
       <c r="C418" t="n">
-        <v>7525423.167781547</v>
+        <v>7020883.93838266</v>
       </c>
       <c r="D418" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -45834,13 +45834,13 @@
         <v>4357</v>
       </c>
       <c r="B419" t="n">
-        <v>2158263.028723856</v>
+        <v>715176.7682708891</v>
       </c>
       <c r="C419" t="n">
-        <v>7472925.306797261</v>
+        <v>7017859.088678977</v>
       </c>
       <c r="D419" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -45944,13 +45944,13 @@
         <v>4366</v>
       </c>
       <c r="B420" t="n">
-        <v>2427277.226457895</v>
+        <v>1151268.626958098</v>
       </c>
       <c r="C420" t="n">
-        <v>7929226.389298909</v>
+        <v>7284377.771682632</v>
       </c>
       <c r="D420" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -46046,13 +46046,13 @@
         <v>4367</v>
       </c>
       <c r="B421" t="n">
-        <v>2237235.011910537</v>
+        <v>812500.3938900877</v>
       </c>
       <c r="C421" t="n">
-        <v>7539104.945990385</v>
+        <v>7039186.458984583</v>
       </c>
       <c r="D421" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -46152,13 +46152,13 @@
         <v>4369</v>
       </c>
       <c r="B422" t="n">
-        <v>2630876.74919063</v>
+        <v>1403808.236667383</v>
       </c>
       <c r="C422" t="n">
-        <v>8103967.307134362</v>
+        <v>7337190.225941119</v>
       </c>
       <c r="D422" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -46262,13 +46262,13 @@
         <v>4371</v>
       </c>
       <c r="B423" t="n">
-        <v>2674033.516746684</v>
+        <v>1473038.200221292</v>
       </c>
       <c r="C423" t="n">
-        <v>8174594.424351345</v>
+        <v>7376061.910436039</v>
       </c>
       <c r="D423" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -46376,13 +46376,13 @@
         <v>4372</v>
       </c>
       <c r="B424" t="n">
-        <v>2214970.282619593</v>
+        <v>1204283.315785436</v>
       </c>
       <c r="C424" t="n">
-        <v>8427141.93084077</v>
+        <v>7804598.354878897</v>
       </c>
       <c r="D424" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -46486,13 +46486,13 @@
         <v>4375</v>
       </c>
       <c r="B425" t="n">
-        <v>2130587.705599616</v>
+        <v>1049231.602475701</v>
       </c>
       <c r="C425" t="n">
-        <v>8251641.787436702</v>
+        <v>7695589.812407699</v>
       </c>
       <c r="D425" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -46596,13 +46596,13 @@
         <v>4379</v>
       </c>
       <c r="B426" t="n">
-        <v>2176578.51254447</v>
+        <v>741555.1601668685</v>
       </c>
       <c r="C426" t="n">
-        <v>7496742.66762246</v>
+        <v>7030094.917851634</v>
       </c>
       <c r="D426" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -46698,13 +46698,13 @@
         <v>4382</v>
       </c>
       <c r="B427" t="n">
-        <v>2624801.71226552</v>
+        <v>1307307.75626615</v>
       </c>
       <c r="C427" t="n">
-        <v>7906103.349016677</v>
+        <v>7174401.016910886</v>
       </c>
       <c r="D427" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -46800,13 +46800,13 @@
         <v>4393</v>
       </c>
       <c r="B428" t="n">
-        <v>2291125.695209254</v>
+        <v>1001179.676160902</v>
       </c>
       <c r="C428" t="n">
-        <v>7853979.345404285</v>
+        <v>7283072.355525585</v>
       </c>
       <c r="D428" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -46902,13 +46902,13 @@
         <v>4402</v>
       </c>
       <c r="B429" t="n">
-        <v>2226793.773827454</v>
+        <v>815241.2551401245</v>
       </c>
       <c r="C429" t="n">
-        <v>7565110.488203862</v>
+        <v>7066104.139167313</v>
       </c>
       <c r="D429" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -47012,13 +47012,13 @@
         <v>4409</v>
       </c>
       <c r="B430" t="n">
-        <v>2102410.824506523</v>
+        <v>1025492.154410649</v>
       </c>
       <c r="C430" t="n">
-        <v>8252285.073454519</v>
+        <v>7709400.16853808</v>
       </c>
       <c r="D430" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -47118,13 +47118,13 @@
         <v>4412</v>
       </c>
       <c r="B431" t="n">
-        <v>2458941.735285241</v>
+        <v>1380286.019433746</v>
       </c>
       <c r="C431" t="n">
-        <v>8361998.672923153</v>
+        <v>7633975.751870103</v>
       </c>
       <c r="D431" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -47228,13 +47228,13 @@
         <v>4417</v>
       </c>
       <c r="B432" t="n">
-        <v>2366528.014094003</v>
+        <v>1328902.754502517</v>
       </c>
       <c r="C432" t="n">
-        <v>8418453.295497626</v>
+        <v>7725258.188436828</v>
       </c>
       <c r="D432" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -47338,13 +47338,13 @@
         <v>4424</v>
       </c>
       <c r="B433" t="n">
-        <v>1894531.209639438</v>
+        <v>754632.1239694392</v>
       </c>
       <c r="C433" t="n">
-        <v>8054401.409754331</v>
+        <v>7637682.392250299</v>
       </c>
       <c r="D433" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -47452,13 +47452,13 @@
         <v>4436</v>
       </c>
       <c r="B434" t="n">
-        <v>2247938.562765587</v>
+        <v>804148.7317468097</v>
       </c>
       <c r="C434" t="n">
-        <v>7499996.569598135</v>
+        <v>7000958.990562608</v>
       </c>
       <c r="D434" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -47558,13 +47558,13 @@
         <v>4442</v>
       </c>
       <c r="B435" t="n">
-        <v>1941271.194953093</v>
+        <v>743190.8139517823</v>
       </c>
       <c r="C435" t="n">
-        <v>7943500.753811404</v>
+        <v>7520704.263634744</v>
       </c>
       <c r="D435" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -47668,13 +47668,13 @@
         <v>4454</v>
       </c>
       <c r="B436" t="n">
-        <v>2248422.831646652</v>
+        <v>825539.6019553869</v>
       </c>
       <c r="C436" t="n">
-        <v>7546843.269494887</v>
+        <v>7040783.296693402</v>
       </c>
       <c r="D436" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -47774,13 +47774,13 @@
         <v>4459</v>
       </c>
       <c r="B437" t="n">
-        <v>2109991.344830406</v>
+        <v>725646.2862649208</v>
       </c>
       <c r="C437" t="n">
-        <v>7588474.883441264</v>
+        <v>7138719.315813894</v>
       </c>
       <c r="D437" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -47880,13 +47880,13 @@
         <v>4462</v>
       </c>
       <c r="B438" t="n">
-        <v>2297081.908917488</v>
+        <v>869413.4325444818</v>
       </c>
       <c r="C438" t="n">
-        <v>7551984.289152632</v>
+        <v>7023359.130377598</v>
       </c>
       <c r="D438" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -47986,13 +47986,13 @@
         <v>4464</v>
       </c>
       <c r="B439" t="n">
-        <v>2642780.20929843</v>
+        <v>1316627.087103874</v>
       </c>
       <c r="C439" t="n">
-        <v>7893459.24986664</v>
+        <v>7155590.619163917</v>
       </c>
       <c r="D439" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -48092,13 +48092,13 @@
         <v>4467</v>
       </c>
       <c r="B440" t="n">
-        <v>2140921.974123405</v>
+        <v>759998.2711238523</v>
       </c>
       <c r="C440" t="n">
-        <v>7605764.974948375</v>
+        <v>7139582.832866422</v>
       </c>
       <c r="D440" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -48198,13 +48198,13 @@
         <v>4468</v>
       </c>
       <c r="B441" t="n">
-        <v>2323276.386417226</v>
+        <v>813013.733108615</v>
       </c>
       <c r="C441" t="n">
-        <v>7374998.982604897</v>
+        <v>6860647.069206988</v>
       </c>
       <c r="D441" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -48308,13 +48308,13 @@
         <v>4470</v>
       </c>
       <c r="B442" t="n">
-        <v>2054541.833947855</v>
+        <v>785355.0676290115</v>
       </c>
       <c r="C442" t="n">
-        <v>7824111.037424103</v>
+        <v>7366032.468815591</v>
       </c>
       <c r="D442" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -48422,13 +48422,13 @@
         <v>4478</v>
       </c>
       <c r="B443" t="n">
-        <v>2407488.265893972</v>
+        <v>1353645.198373404</v>
       </c>
       <c r="C443" t="n">
-        <v>8397531.592831589</v>
+        <v>7688210.415547162</v>
       </c>
       <c r="D443" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -48528,13 +48528,13 @@
         <v>4482</v>
       </c>
       <c r="B444" t="n">
-        <v>2391502.29754794</v>
+        <v>1306819.906852901</v>
       </c>
       <c r="C444" t="n">
-        <v>8327457.253648513</v>
+        <v>7636801.36517616</v>
       </c>
       <c r="D444" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -48634,13 +48634,13 @@
         <v>4491</v>
       </c>
       <c r="B445" t="n">
-        <v>2414717.117329908</v>
+        <v>1339987.087739875</v>
       </c>
       <c r="C445" t="n">
-        <v>8355939.418859291</v>
+        <v>7649803.326145631</v>
       </c>
       <c r="D445" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -48740,13 +48740,13 @@
         <v>4509</v>
       </c>
       <c r="B446" t="n">
-        <v>2258269.982846784</v>
+        <v>868228.669114528</v>
       </c>
       <c r="C446" t="n">
-        <v>7623057.584253755</v>
+        <v>7101425.226468498</v>
       </c>
       <c r="D446" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -48846,13 +48846,13 @@
         <v>4518</v>
       </c>
       <c r="B447" t="n">
-        <v>2314737.20100526</v>
+        <v>956953.654913855</v>
       </c>
       <c r="C447" t="n">
-        <v>7712816.540801683</v>
+        <v>7152352.132933694</v>
       </c>
       <c r="D447" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -48956,13 +48956,13 @@
         <v>4519</v>
       </c>
       <c r="B448" t="n">
-        <v>2297008.12905308</v>
+        <v>935404.6545233275</v>
       </c>
       <c r="C448" t="n">
-        <v>7698584.635582749</v>
+        <v>7148276.677335054</v>
       </c>
       <c r="D448" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -49066,13 +49066,13 @@
         <v>4528</v>
       </c>
       <c r="B449" t="n">
-        <v>2269726.304350814</v>
+        <v>870782.6060115555</v>
       </c>
       <c r="C449" t="n">
-        <v>7607015.551423666</v>
+        <v>7082579.702642032</v>
       </c>
       <c r="D449" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -49172,13 +49172,13 @@
         <v>4533</v>
       </c>
       <c r="B450" t="n">
-        <v>2641673.07821545</v>
+        <v>1312749.542992215</v>
       </c>
       <c r="C450" t="n">
-        <v>7887017.191272856</v>
+        <v>7150701.59799769</v>
       </c>
       <c r="D450" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -49278,13 +49278,13 @@
         <v>4537</v>
       </c>
       <c r="B451" t="n">
-        <v>2273577.211471032</v>
+        <v>899893.37193707</v>
       </c>
       <c r="C451" t="n">
-        <v>7664254.664548175</v>
+        <v>7129642.153771379</v>
       </c>
       <c r="D451" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -49384,13 +49384,13 @@
         <v>4545</v>
       </c>
       <c r="B452" t="n">
-        <v>2628315.229852502</v>
+        <v>1401722.570740789</v>
       </c>
       <c r="C452" t="n">
-        <v>8104110.715657272</v>
+        <v>7338499.516503187</v>
       </c>
       <c r="D452" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -49494,13 +49494,13 @@
         <v>4549</v>
       </c>
       <c r="B453" t="n">
-        <v>2110339.475979378</v>
+        <v>726058.9151955633</v>
       </c>
       <c r="C453" t="n">
-        <v>7588726.666707815</v>
+        <v>7138778.247586998</v>
       </c>
       <c r="D453" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -49596,13 +49596,13 @@
         <v>4550</v>
       </c>
       <c r="B454" t="n">
-        <v>2085053.653319571</v>
+        <v>706414.2047294204</v>
       </c>
       <c r="C454" t="n">
-        <v>7593327.576465827</v>
+        <v>7154148.621156714</v>
       </c>
       <c r="D454" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -49698,13 +49698,13 @@
         <v>4561</v>
       </c>
       <c r="B455" t="n">
-        <v>2086930.011903788</v>
+        <v>698404.5065780235</v>
       </c>
       <c r="C455" t="n">
-        <v>7572018.448698799</v>
+        <v>7134996.105120971</v>
       </c>
       <c r="D455" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -49804,13 +49804,13 @@
         <v>4563</v>
       </c>
       <c r="B456" t="n">
-        <v>2098760.35249541</v>
+        <v>702717.4776401871</v>
       </c>
       <c r="C456" t="n">
-        <v>7559033.206502917</v>
+        <v>7118506.468513691</v>
       </c>
       <c r="D456" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -49906,13 +49906,13 @@
         <v>4567</v>
       </c>
       <c r="B457" t="n">
-        <v>2192149.131447597</v>
+        <v>1109868.194280577</v>
       </c>
       <c r="C457" t="n">
-        <v>8268973.324317764</v>
+        <v>7681333.95040018</v>
       </c>
       <c r="D457" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -50016,13 +50016,13 @@
         <v>4569</v>
       </c>
       <c r="B458" t="n">
-        <v>1764802.348952319</v>
+        <v>654048.655040067</v>
       </c>
       <c r="C458" t="n">
-        <v>8078129.320672407</v>
+        <v>7718803.829059006</v>
       </c>
       <c r="D458" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -50122,13 +50122,13 @@
         <v>4576</v>
       </c>
       <c r="B459" t="n">
-        <v>2352628.736686416</v>
+        <v>689043.3440754219</v>
       </c>
       <c r="C459" t="n">
-        <v>7032886.172575481</v>
+        <v>6554941.437867071</v>
       </c>
       <c r="D459" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -50232,13 +50232,13 @@
         <v>4577</v>
       </c>
       <c r="B460" t="n">
-        <v>2483478.485208211</v>
+        <v>1165684.610376059</v>
       </c>
       <c r="C460" t="n">
-        <v>7856950.814438472</v>
+        <v>7197661.008526952</v>
       </c>
       <c r="D460" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -50338,13 +50338,13 @@
         <v>4579</v>
       </c>
       <c r="B461" t="n">
-        <v>1950235.151437901</v>
+        <v>640534.0427043657</v>
       </c>
       <c r="C461" t="n">
-        <v>7703709.630964168</v>
+        <v>7310353.859851683</v>
       </c>
       <c r="D461" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -50440,13 +50440,13 @@
         <v>4580</v>
       </c>
       <c r="B462" t="n">
-        <v>2085051.220670764</v>
+        <v>706419.6835784412</v>
       </c>
       <c r="C462" t="n">
-        <v>7593344.326757673</v>
+        <v>7154164.107549788</v>
       </c>
       <c r="D462" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -50542,13 +50542,13 @@
         <v>4584</v>
       </c>
       <c r="B463" t="n">
-        <v>2146696.440656656</v>
+        <v>712802.2557810557</v>
       </c>
       <c r="C463" t="n">
-        <v>7489814.113295539</v>
+        <v>7037532.177732982</v>
       </c>
       <c r="D463" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -50644,13 +50644,13 @@
         <v>4588</v>
       </c>
       <c r="B464" t="n">
-        <v>2167924.763393313</v>
+        <v>723076.9747472624</v>
       </c>
       <c r="C464" t="n">
-        <v>7472041.30636695</v>
+        <v>7012780.509478183</v>
       </c>
       <c r="D464" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -50750,13 +50750,13 @@
         <v>4607</v>
       </c>
       <c r="B465" t="n">
-        <v>2085355.250178564</v>
+        <v>699651.0857749057</v>
       </c>
       <c r="C465" t="n">
-        <v>7577779.885879137</v>
+        <v>7140656.639148206</v>
       </c>
       <c r="D465" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -50852,13 +50852,13 @@
         <v>4611</v>
       </c>
       <c r="B466" t="n">
-        <v>2222774.681607968</v>
+        <v>859137.7153092435</v>
       </c>
       <c r="C466" t="n">
-        <v>7670045.745024931</v>
+        <v>7157559.744527712</v>
       </c>
       <c r="D466" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -50958,13 +50958,13 @@
         <v>4612</v>
       </c>
       <c r="B467" t="n">
-        <v>2078705.556107599</v>
+        <v>802987.1524434208</v>
       </c>
       <c r="C467" t="n">
-        <v>7817385.358662476</v>
+        <v>7349183.721803095</v>
       </c>
       <c r="D467" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -51068,13 +51068,13 @@
         <v>4614</v>
       </c>
       <c r="B468" t="n">
-        <v>2095001.566245204</v>
+        <v>702502.7661407557</v>
       </c>
       <c r="C468" t="n">
-        <v>7565723.061924597</v>
+        <v>7125947.262864502</v>
       </c>
       <c r="D468" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -51174,13 +51174,13 @@
         <v>4622</v>
       </c>
       <c r="B469" t="n">
-        <v>2429325.669192642</v>
+        <v>1257297.633256143</v>
       </c>
       <c r="C469" t="n">
-        <v>8154190.358395401</v>
+        <v>7473134.234206335</v>
       </c>
       <c r="D469" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -51288,13 +51288,13 @@
         <v>4626</v>
       </c>
       <c r="B470" t="n">
-        <v>2357141.425560463</v>
+        <v>686851.8138008178</v>
       </c>
       <c r="C470" t="n">
-        <v>7018759.582775199</v>
+        <v>6540879.465764278</v>
       </c>
       <c r="D470" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -51398,13 +51398,13 @@
         <v>4631</v>
       </c>
       <c r="B471" t="n">
-        <v>2234396.57539626</v>
+        <v>836261.263998023</v>
       </c>
       <c r="C471" t="n">
-        <v>7597383.63245501</v>
+        <v>7090263.418918243</v>
       </c>
       <c r="D471" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -51504,13 +51504,13 @@
         <v>4634</v>
       </c>
       <c r="B472" t="n">
-        <v>2088867.775127316</v>
+        <v>818088.6829599985</v>
       </c>
       <c r="C472" t="n">
-        <v>7831317.459589899</v>
+        <v>7356448.009733859</v>
       </c>
       <c r="D472" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -51610,13 +51610,13 @@
         <v>4635</v>
       </c>
       <c r="B473" t="n">
-        <v>2234037.094340334</v>
+        <v>812459.5887319738</v>
       </c>
       <c r="C473" t="n">
-        <v>7545113.736628363</v>
+        <v>7045757.429179742</v>
       </c>
       <c r="D473" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -51712,13 +51712,13 @@
         <v>4639</v>
       </c>
       <c r="B474" t="n">
-        <v>2183279.923459436</v>
+        <v>792155.4301664867</v>
       </c>
       <c r="C474" t="n">
-        <v>7596575.409676681</v>
+        <v>7112601.233078413</v>
       </c>
       <c r="D474" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -51818,13 +51818,13 @@
         <v>4651</v>
       </c>
       <c r="B475" t="n">
-        <v>1782227.935893131</v>
+        <v>620991.8827321788</v>
       </c>
       <c r="C475" t="n">
-        <v>7975284.342736386</v>
+        <v>7621992.967163532</v>
       </c>
       <c r="D475" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -51920,13 +51920,13 @@
         <v>4655</v>
       </c>
       <c r="B476" t="n">
-        <v>1990664.667860467</v>
+        <v>737374.9123652017</v>
       </c>
       <c r="C476" t="n">
-        <v>7839029.925156388</v>
+        <v>7408188.687970732</v>
       </c>
       <c r="D476" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -52030,13 +52030,13 @@
         <v>4659</v>
       </c>
       <c r="B477" t="n">
-        <v>2057496.590304912</v>
+        <v>790926.6699975308</v>
       </c>
       <c r="C477" t="n">
-        <v>7830725.071474226</v>
+        <v>7370342.798530737</v>
       </c>
       <c r="D477" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -528,13 +528,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-217468467.6867994</v>
+        <v>475909.0684290038</v>
       </c>
       <c r="C2" t="n">
-        <v>-617469983.0455326</v>
+        <v>7645177.30232153</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -642,17 +642,17 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-471379442.6253235</v>
+        <v>432279.5782729008</v>
       </c>
       <c r="C3" t="n">
-        <v>-1111161673.513613</v>
+        <v>7056873.57142363</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -748,17 +748,17 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>-517630121.4528617</v>
+        <v>366503.1214957335</v>
       </c>
       <c r="C4" t="n">
-        <v>-1143097010.490477</v>
+        <v>6921425.31263926</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="n">
-        <v>-296522256.0805036</v>
+        <v>513265.7624563178</v>
       </c>
       <c r="C5" t="n">
-        <v>-852987262.5856819</v>
+        <v>7537321.206885193</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>62</v>
       </c>
       <c r="B6" t="n">
-        <v>-335136185.9777746</v>
+        <v>600811.1581206499</v>
       </c>
       <c r="C6" t="n">
-        <v>-941299522.4800583</v>
+        <v>7457420.513003741</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1070,13 +1070,13 @@
         <v>72</v>
       </c>
       <c r="B7" t="n">
-        <v>-328145240.514551</v>
+        <v>540680.9915228969</v>
       </c>
       <c r="C7" t="n">
-        <v>-869409129.1310506</v>
+        <v>7383381.183093672</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1176,13 +1176,13 @@
         <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>-313639464.0122511</v>
+        <v>442707.6747874363</v>
       </c>
       <c r="C8" t="n">
-        <v>-872999616.7391227</v>
+        <v>7471022.362866471</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1282,17 +1282,17 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>-472072788.7748741</v>
+        <v>420582.467150072</v>
       </c>
       <c r="C9" t="n">
-        <v>-1109136264.784571</v>
+        <v>7051576.160009312</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1392,13 +1392,13 @@
         <v>107</v>
       </c>
       <c r="B10" t="n">
-        <v>-204318101.8022821</v>
+        <v>520390.7069837855</v>
       </c>
       <c r="C10" t="n">
-        <v>-627863728.1861471</v>
+        <v>7762246.292954486</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1502,13 +1502,13 @@
         <v>115</v>
       </c>
       <c r="B11" t="n">
-        <v>-212839504.9420095</v>
+        <v>532214.7574865688</v>
       </c>
       <c r="C11" t="n">
-        <v>-647868579.2473606</v>
+        <v>7736355.828630781</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1612,17 +1612,17 @@
         <v>130</v>
       </c>
       <c r="B12" t="n">
-        <v>-449269301.9708187</v>
+        <v>613207.7691637869</v>
       </c>
       <c r="C12" t="n">
-        <v>-912348591.6415609</v>
+        <v>6857478.69049342</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1722,13 +1722,13 @@
         <v>156</v>
       </c>
       <c r="B13" t="n">
-        <v>-296052472.3075569</v>
+        <v>522315.6800607677</v>
       </c>
       <c r="C13" t="n">
-        <v>-853645703.4686735</v>
+        <v>7541113.282467674</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1836,13 +1836,13 @@
         <v>187</v>
       </c>
       <c r="B14" t="n">
-        <v>-225808266.1513141</v>
+        <v>464542.6353001116</v>
       </c>
       <c r="C14" t="n">
-        <v>-699653958.1013718</v>
+        <v>7734560.744379604</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1950,13 +1950,13 @@
         <v>231</v>
       </c>
       <c r="B15" t="n">
-        <v>-204592085.0307156</v>
+        <v>524212.7800685474</v>
       </c>
       <c r="C15" t="n">
-        <v>-628984187.8071328</v>
+        <v>7762279.857873715</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2056,13 +2056,13 @@
         <v>266</v>
       </c>
       <c r="B16" t="n">
-        <v>-213074720.1368273</v>
+        <v>535438.8752055331</v>
       </c>
       <c r="C16" t="n">
-        <v>-648825166.4330786</v>
+        <v>7736410.638722531</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2162,13 +2162,13 @@
         <v>273</v>
       </c>
       <c r="B17" t="n">
-        <v>-238359806.7947017</v>
+        <v>486924.4318839556</v>
       </c>
       <c r="C17" t="n">
-        <v>-730181896.7412739</v>
+        <v>7700867.727012008</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2276,17 +2276,17 @@
         <v>323</v>
       </c>
       <c r="B18" t="n">
-        <v>-384927022.7911859</v>
+        <v>424913.9262066795</v>
       </c>
       <c r="C18" t="n">
-        <v>-877118220.3624132</v>
+        <v>7094194.888329547</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2386,17 +2386,17 @@
         <v>331</v>
       </c>
       <c r="B19" t="n">
-        <v>-480173862.4728748</v>
+        <v>500878.9057201908</v>
       </c>
       <c r="C19" t="n">
-        <v>-984130063.9017655</v>
+        <v>6840755.173939293</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2496,13 +2496,13 @@
         <v>338</v>
       </c>
       <c r="B20" t="n">
-        <v>-300251845.4010933</v>
+        <v>545416.7588531141</v>
       </c>
       <c r="C20" t="n">
-        <v>-865798060.2129164</v>
+        <v>7535829.221461653</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2602,13 +2602,13 @@
         <v>352</v>
       </c>
       <c r="B21" t="n">
-        <v>-211160994.2214929</v>
+        <v>524451.3336049236</v>
       </c>
       <c r="C21" t="n">
-        <v>-643186406.7015983</v>
+        <v>7739998.954414731</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2712,13 +2712,13 @@
         <v>361</v>
       </c>
       <c r="B22" t="n">
-        <v>-243571607.4952672</v>
+        <v>386971.4622520024</v>
       </c>
       <c r="C22" t="n">
-        <v>-726035563.6398314</v>
+        <v>7662539.899435673</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2818,13 +2818,13 @@
         <v>368</v>
       </c>
       <c r="B23" t="n">
-        <v>-320175908.4206232</v>
+        <v>605006.4034488304</v>
       </c>
       <c r="C23" t="n">
-        <v>-773291265.7830989</v>
+        <v>7262366.437419397</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2928,13 +2928,13 @@
         <v>371</v>
       </c>
       <c r="B24" t="n">
-        <v>-244006594.1059366</v>
+        <v>384889.6358906295</v>
       </c>
       <c r="C24" t="n">
-        <v>-726631828.9907572</v>
+        <v>7660773.339158178</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         <v>372</v>
       </c>
       <c r="B25" t="n">
-        <v>-205690966.2480239</v>
+        <v>524240.1537526948</v>
       </c>
       <c r="C25" t="n">
-        <v>-631370331.3381221</v>
+        <v>7758528.980495282</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3148,13 +3148,13 @@
         <v>377</v>
       </c>
       <c r="B26" t="n">
-        <v>-295624273.0996019</v>
+        <v>519868.9353987444</v>
       </c>
       <c r="C26" t="n">
-        <v>-852392081.7959423</v>
+        <v>7541644.88889637</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3258,13 +3258,13 @@
         <v>392</v>
       </c>
       <c r="B27" t="n">
-        <v>-424884349.1136768</v>
+        <v>580686.6409214654</v>
       </c>
       <c r="C27" t="n">
-        <v>-1020315986.670887</v>
+        <v>7129644.607468256</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3364,13 +3364,13 @@
         <v>427</v>
       </c>
       <c r="B28" t="n">
-        <v>-409705803.9163854</v>
+        <v>631468.9841552131</v>
       </c>
       <c r="C28" t="n">
-        <v>-1072903989.048495</v>
+        <v>7275319.569060782</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3466,17 +3466,17 @@
         <v>429</v>
       </c>
       <c r="B29" t="n">
-        <v>-460017427.7649795</v>
+        <v>458227.9417328001</v>
       </c>
       <c r="C29" t="n">
-        <v>-958767936.495545</v>
+        <v>6883751.393190502</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3572,13 +3572,13 @@
         <v>446</v>
       </c>
       <c r="B30" t="n">
-        <v>-209639268.3833636</v>
+        <v>518630.7442311976</v>
       </c>
       <c r="C30" t="n">
-        <v>-639110002.5339013</v>
+        <v>7743657.839706157</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3678,13 +3678,13 @@
         <v>453</v>
       </c>
       <c r="B31" t="n">
-        <v>-227304674.5586133</v>
+        <v>516465.1925835744</v>
       </c>
       <c r="C31" t="n">
-        <v>-676119788.8580266</v>
+        <v>7684162.054552753</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3788,13 +3788,13 @@
         <v>503</v>
       </c>
       <c r="B32" t="n">
-        <v>-295349296.0809018</v>
+        <v>563815.3321886825</v>
       </c>
       <c r="C32" t="n">
-        <v>-859505800.3855546</v>
+        <v>7554796.816804713</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3898,13 +3898,13 @@
         <v>537</v>
       </c>
       <c r="B33" t="n">
-        <v>-238866925.8169549</v>
+        <v>485597.3756318409</v>
       </c>
       <c r="C33" t="n">
-        <v>-731064248.9522312</v>
+        <v>7698994.230324683</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4012,13 +4012,13 @@
         <v>538</v>
       </c>
       <c r="B34" t="n">
-        <v>-207339020.7240706</v>
+        <v>529500.7013090657</v>
       </c>
       <c r="C34" t="n">
-        <v>-604153622.5799174</v>
+        <v>7695446.139762676</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4122,13 +4122,13 @@
         <v>539</v>
       </c>
       <c r="B35" t="n">
-        <v>-205227537.8969994</v>
+        <v>525508.1118559322</v>
       </c>
       <c r="C35" t="n">
-        <v>-630541103.621554</v>
+        <v>7760436.94755727</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4232,13 +4232,13 @@
         <v>562</v>
       </c>
       <c r="B36" t="n">
-        <v>-211166182.1460412</v>
+        <v>524444.9146285515</v>
       </c>
       <c r="C36" t="n">
-        <v>-643196632.1228288</v>
+        <v>7739979.7673326</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4342,13 +4342,13 @@
         <v>573</v>
       </c>
       <c r="B37" t="n">
-        <v>-213078545.1886572</v>
+        <v>535434.2282784401</v>
       </c>
       <c r="C37" t="n">
-        <v>-648832695.6145897</v>
+        <v>7736396.554690162</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4452,13 +4452,13 @@
         <v>582</v>
       </c>
       <c r="B38" t="n">
-        <v>-213097790.0040876</v>
+        <v>476013.4104436862</v>
       </c>
       <c r="C38" t="n">
-        <v>-640592218.4371145</v>
+        <v>7721395.316389321</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4562,13 +4562,13 @@
         <v>586</v>
       </c>
       <c r="B39" t="n">
-        <v>-348016496.6899912</v>
+        <v>419750.1109377904</v>
       </c>
       <c r="C39" t="n">
-        <v>-929768029.090446</v>
+        <v>7371213.583324131</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4672,13 +4672,13 @@
         <v>599</v>
       </c>
       <c r="B40" t="n">
-        <v>-204999328.0278002</v>
+        <v>522319.4611532006</v>
       </c>
       <c r="C40" t="n">
-        <v>-629606777.5614036</v>
+        <v>7760403.557924333</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4782,13 +4782,13 @@
         <v>624</v>
       </c>
       <c r="B41" t="n">
-        <v>-359714384.0250391</v>
+        <v>613406.4696687374</v>
       </c>
       <c r="C41" t="n">
-        <v>-987347616.618191</v>
+        <v>7396731.718785426</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4888,17 +4888,17 @@
         <v>647</v>
       </c>
       <c r="B42" t="n">
-        <v>-419842358.9164256</v>
+        <v>526545.7608924899</v>
       </c>
       <c r="C42" t="n">
-        <v>-937446284.8475142</v>
+        <v>7025155.924505884</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4998,17 +4998,17 @@
         <v>648</v>
       </c>
       <c r="B43" t="n">
-        <v>-460801413.0567588</v>
+        <v>619632.1958069949</v>
       </c>
       <c r="C43" t="n">
-        <v>-921278998.905911</v>
+        <v>6824263.560986303</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5108,13 +5108,13 @@
         <v>650</v>
       </c>
       <c r="B44" t="n">
-        <v>-295575756.005916</v>
+        <v>520078.9621132805</v>
       </c>
       <c r="C44" t="n">
-        <v>-852334384.7913653</v>
+        <v>7541838.724542987</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         <v>664</v>
       </c>
       <c r="B45" t="n">
-        <v>-239493452.2688763</v>
+        <v>478369.6278921589</v>
       </c>
       <c r="C45" t="n">
-        <v>-731295007.3376286</v>
+        <v>7695343.364450878</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5336,13 +5336,13 @@
         <v>687</v>
       </c>
       <c r="B46" t="n">
-        <v>-223055139.3602362</v>
+        <v>451764.4129598491</v>
       </c>
       <c r="C46" t="n">
-        <v>-691743782.8822234</v>
+        <v>7740369.94026612</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5446,13 +5446,13 @@
         <v>711</v>
       </c>
       <c r="B47" t="n">
-        <v>-301526531.0567568</v>
+        <v>544781.703011522</v>
       </c>
       <c r="C47" t="n">
-        <v>-868142670.7093195</v>
+        <v>7532099.792276452</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5552,17 +5552,17 @@
         <v>712</v>
       </c>
       <c r="B48" t="n">
-        <v>-513635094.7044441</v>
+        <v>353832.1881843063</v>
       </c>
       <c r="C48" t="n">
-        <v>-1136025666.50945</v>
+        <v>6927531.033857625</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5662,17 +5662,17 @@
         <v>760</v>
       </c>
       <c r="B49" t="n">
-        <v>-412423674.7467039</v>
+        <v>632968.0218949895</v>
       </c>
       <c r="C49" t="n">
-        <v>-952422261.4956169</v>
+        <v>7085917.789956923</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5764,17 +5764,17 @@
         <v>774</v>
       </c>
       <c r="B50" t="n">
-        <v>-525717724.9150521</v>
+        <v>365682.9191468855</v>
       </c>
       <c r="C50" t="n">
-        <v>-1150129537.876174</v>
+        <v>6901003.470697692</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5874,13 +5874,13 @@
         <v>782</v>
       </c>
       <c r="B51" t="n">
-        <v>-238209124.9139598</v>
+        <v>484953.9711500676</v>
       </c>
       <c r="C51" t="n">
-        <v>-729556931.9541936</v>
+        <v>7700854.998761931</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5988,13 +5988,13 @@
         <v>797</v>
       </c>
       <c r="B52" t="n">
-        <v>-395763585.5349071</v>
+        <v>355378.8227574636</v>
       </c>
       <c r="C52" t="n">
-        <v>-935066391.1477774</v>
+        <v>7138546.908206594</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6094,13 +6094,13 @@
         <v>800</v>
       </c>
       <c r="B53" t="n">
-        <v>-286709831.4608996</v>
+        <v>457914.5997655272</v>
       </c>
       <c r="C53" t="n">
-        <v>-782910498.2546835</v>
+        <v>7481867.403259292</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6208,13 +6208,13 @@
         <v>806</v>
       </c>
       <c r="B54" t="n">
-        <v>-279711857.7717359</v>
+        <v>434758.7529351815</v>
       </c>
       <c r="C54" t="n">
-        <v>-766424227.9123237</v>
+        <v>7497229.876229928</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6322,17 +6322,17 @@
         <v>808</v>
       </c>
       <c r="B55" t="n">
-        <v>-469228745.186645</v>
+        <v>421597.8308311539</v>
       </c>
       <c r="C55" t="n">
-        <v>-1106026424.097881</v>
+        <v>7058991.440648565</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6428,13 +6428,13 @@
         <v>811</v>
       </c>
       <c r="B56" t="n">
-        <v>-245322210.7076643</v>
+        <v>476287.2311587706</v>
       </c>
       <c r="C56" t="n">
-        <v>-706904191.6092867</v>
+        <v>7615415.140773211</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         <v>821</v>
       </c>
       <c r="B57" t="n">
-        <v>-192052695.6776228</v>
+        <v>426859.4673085146</v>
       </c>
       <c r="C57" t="n">
-        <v>-559558906.4641432</v>
+        <v>7726111.86364754</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6644,13 +6644,13 @@
         <v>831</v>
       </c>
       <c r="B58" t="n">
-        <v>-243083457.2135011</v>
+        <v>388384.5812116057</v>
       </c>
       <c r="C58" t="n">
-        <v>-725226249.8910034</v>
+        <v>7664334.103744115</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6758,13 +6758,13 @@
         <v>833</v>
       </c>
       <c r="B59" t="n">
-        <v>-207411477.5524246</v>
+        <v>525591.2339131399</v>
       </c>
       <c r="C59" t="n">
-        <v>-635277834.0052775</v>
+        <v>7753008.56754196</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -6872,13 +6872,13 @@
         <v>838</v>
       </c>
       <c r="B60" t="n">
-        <v>-243844388.7965486</v>
+        <v>457068.3433486031</v>
       </c>
       <c r="C60" t="n">
-        <v>-737268142.0921921</v>
+        <v>7677041.638658816</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -6982,13 +6982,13 @@
         <v>840</v>
       </c>
       <c r="B61" t="n">
-        <v>-224525774.1656589</v>
+        <v>400414.3194445177</v>
       </c>
       <c r="C61" t="n">
-        <v>-653996650.2157954</v>
+        <v>7665678.384609031</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7096,17 +7096,17 @@
         <v>852</v>
       </c>
       <c r="B62" t="n">
-        <v>-409204802.944397</v>
+        <v>541940.455349664</v>
       </c>
       <c r="C62" t="n">
-        <v>-929189705.9574885</v>
+        <v>7061605.418643821</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7202,17 +7202,17 @@
         <v>866</v>
       </c>
       <c r="B63" t="n">
-        <v>-508145278.5742041</v>
+        <v>357035.6458472469</v>
       </c>
       <c r="C63" t="n">
-        <v>-1131673591.978986</v>
+        <v>6942234.010722276</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7308,13 +7308,13 @@
         <v>867</v>
       </c>
       <c r="B64" t="n">
-        <v>-208747438.9103583</v>
+        <v>536496.2558667781</v>
       </c>
       <c r="C64" t="n">
-        <v>-639677425.4935565</v>
+        <v>7751298.284287358</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7422,13 +7422,13 @@
         <v>891</v>
       </c>
       <c r="B65" t="n">
-        <v>-243079184.5907249</v>
+        <v>388390.474840668</v>
       </c>
       <c r="C65" t="n">
-        <v>-725218186.8446755</v>
+        <v>7664348.479630945</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7528,13 +7528,13 @@
         <v>909</v>
       </c>
       <c r="B66" t="n">
-        <v>-429205124.4910151</v>
+        <v>569243.1456429309</v>
       </c>
       <c r="C66" t="n">
-        <v>-1087996627.843257</v>
+        <v>7205539.506129202</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7638,17 +7638,17 @@
         <v>916</v>
       </c>
       <c r="B67" t="n">
-        <v>-420270767.2090816</v>
+        <v>607901.0904673205</v>
       </c>
       <c r="C67" t="n">
-        <v>-955765871.6664758</v>
+        <v>7053809.886527923</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7740,13 +7740,13 @@
         <v>918</v>
       </c>
       <c r="B68" t="n">
-        <v>-300385208.4293734</v>
+        <v>546814.7115085836</v>
       </c>
       <c r="C68" t="n">
-        <v>-866301230.7598978</v>
+        <v>7535855.873530297</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7846,13 +7846,13 @@
         <v>919</v>
       </c>
       <c r="B69" t="n">
-        <v>-240661499.656688</v>
+        <v>492788.4686534476</v>
       </c>
       <c r="C69" t="n">
-        <v>-736007917.5509952</v>
+        <v>7695254.44567359</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7960,13 +7960,13 @@
         <v>929</v>
       </c>
       <c r="B70" t="n">
-        <v>-241193265.9101989</v>
+        <v>499343.3594356337</v>
       </c>
       <c r="C70" t="n">
-        <v>-738156999.3423748</v>
+        <v>7695244.732745643</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         <v>942</v>
       </c>
       <c r="B71" t="n">
-        <v>-210723837.297516</v>
+        <v>533394.6961649545</v>
       </c>
       <c r="C71" t="n">
-        <v>-643498515.2166101</v>
+        <v>7743798.132693753</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -8184,13 +8184,13 @@
         <v>950</v>
       </c>
       <c r="B72" t="n">
-        <v>-288238469.3568991</v>
+        <v>608234.8761851449</v>
       </c>
       <c r="C72" t="n">
-        <v>-853236704.6293627</v>
+        <v>7587917.618226927</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -8294,13 +8294,13 @@
         <v>957</v>
       </c>
       <c r="B73" t="n">
-        <v>-297242306.2872264</v>
+        <v>520957.2587464949</v>
       </c>
       <c r="C73" t="n">
-        <v>-855712433.9240118</v>
+        <v>7537401.626056713</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -8408,17 +8408,17 @@
         <v>958</v>
       </c>
       <c r="B74" t="n">
-        <v>-486325387.2365526</v>
+        <v>488372.4854496043</v>
       </c>
       <c r="C74" t="n">
-        <v>-1142417726.466127</v>
+        <v>7037611.926817156</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8514,17 +8514,17 @@
         <v>963</v>
       </c>
       <c r="B75" t="n">
-        <v>-406359705.848904</v>
+        <v>491730.6951663017</v>
       </c>
       <c r="C75" t="n">
-        <v>-915383817.6390866</v>
+        <v>7052450.956129391</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8616,13 +8616,13 @@
         <v>975</v>
       </c>
       <c r="B76" t="n">
-        <v>-295180850.4527491</v>
+        <v>534095.9444070833</v>
       </c>
       <c r="C76" t="n">
-        <v>-853997169.0135065</v>
+        <v>7546820.767350835</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -8722,13 +8722,13 @@
         <v>977</v>
       </c>
       <c r="B77" t="n">
-        <v>-300782774.7395212</v>
+        <v>544056.897047954</v>
       </c>
       <c r="C77" t="n">
-        <v>-866582713.918857</v>
+        <v>7533963.719575781</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -8828,17 +8828,17 @@
         <v>979</v>
       </c>
       <c r="B78" t="n">
-        <v>-512398792.227158</v>
+        <v>409459.4975049956</v>
       </c>
       <c r="C78" t="n">
-        <v>-1149600913.848869</v>
+        <v>6947848.549109576</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8938,13 +8938,13 @@
         <v>984</v>
       </c>
       <c r="B79" t="n">
-        <v>-305746044.7014883</v>
+        <v>540020.4799746281</v>
       </c>
       <c r="C79" t="n">
-        <v>-875384785.2293694</v>
+        <v>7519032.720696938</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -9048,13 +9048,13 @@
         <v>991</v>
       </c>
       <c r="B80" t="n">
-        <v>-243570559.8860445</v>
+        <v>386972.9097462784</v>
       </c>
       <c r="C80" t="n">
-        <v>-726033589.5697596</v>
+        <v>7662543.422358231</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -9162,13 +9162,13 @@
         <v>1003</v>
       </c>
       <c r="B81" t="n">
-        <v>-300991954.6336312</v>
+        <v>546145.7118065662</v>
       </c>
       <c r="C81" t="n">
-        <v>-867353454.0401053</v>
+        <v>7533975.871560731</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -9268,13 +9268,13 @@
         <v>1070</v>
       </c>
       <c r="B82" t="n">
-        <v>-244989105.4816539</v>
+        <v>389457.8464060152</v>
       </c>
       <c r="C82" t="n">
-        <v>-729372964.9572613</v>
+        <v>7658695.377641452</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -9378,17 +9378,17 @@
         <v>1074</v>
       </c>
       <c r="B83" t="n">
-        <v>-446764659.8819459</v>
+        <v>626765.0559981896</v>
       </c>
       <c r="C83" t="n">
-        <v>-913891755.6219542</v>
+        <v>6870970.438198091</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9488,13 +9488,13 @@
         <v>1076</v>
       </c>
       <c r="B84" t="n">
-        <v>-319602588.2417294</v>
+        <v>604935.8241788865</v>
       </c>
       <c r="C84" t="n">
-        <v>-772466456.1924626</v>
+        <v>7264213.123815491</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -9598,13 +9598,13 @@
         <v>1085</v>
       </c>
       <c r="B85" t="n">
-        <v>-236549174.9631914</v>
+        <v>486950.5268839319</v>
       </c>
       <c r="C85" t="n">
-        <v>-726300235.6245806</v>
+        <v>7706431.216490216</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -9712,13 +9712,13 @@
         <v>1086</v>
       </c>
       <c r="B86" t="n">
-        <v>-238149692.9415912</v>
+        <v>484308.2604986596</v>
       </c>
       <c r="C86" t="n">
-        <v>-729330652.1437021</v>
+        <v>7700882.061149633</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -9826,13 +9826,13 @@
         <v>1090</v>
       </c>
       <c r="B87" t="n">
-        <v>-343772741.3327925</v>
+        <v>559461.4476169028</v>
       </c>
       <c r="C87" t="n">
-        <v>-848143027.3325452</v>
+        <v>7261083.296156893</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -9932,13 +9932,13 @@
         <v>1091</v>
       </c>
       <c r="B88" t="n">
-        <v>-300924735.9798021</v>
+        <v>545446.6545242378</v>
       </c>
       <c r="C88" t="n">
-        <v>-867100846.3845575</v>
+        <v>7533963.823177459</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -10038,13 +10038,13 @@
         <v>1094</v>
       </c>
       <c r="B89" t="n">
-        <v>-411206198.9314424</v>
+        <v>586023.0436662077</v>
       </c>
       <c r="C89" t="n">
-        <v>-1065195425.705213</v>
+        <v>7256156.625584047</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -10140,17 +10140,17 @@
         <v>1097</v>
       </c>
       <c r="B90" t="n">
-        <v>-410659061.8580649</v>
+        <v>642209.6008844867</v>
       </c>
       <c r="C90" t="n">
-        <v>-952379698.8276182</v>
+        <v>7094538.262660371</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -10242,13 +10242,13 @@
         <v>1100</v>
       </c>
       <c r="B91" t="n">
-        <v>-213076509.934908</v>
+        <v>535436.7008442618</v>
       </c>
       <c r="C91" t="n">
-        <v>-648828689.4570878</v>
+        <v>7736404.048586512</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -10352,13 +10352,13 @@
         <v>1118</v>
       </c>
       <c r="B92" t="n">
-        <v>-356761959.0070492</v>
+        <v>507087.6137390989</v>
       </c>
       <c r="C92" t="n">
-        <v>-856835424.2047803</v>
+        <v>7204760.66582494</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -10458,17 +10458,17 @@
         <v>1119</v>
       </c>
       <c r="B93" t="n">
-        <v>-445261137.3222376</v>
+        <v>626650.3525104477</v>
       </c>
       <c r="C93" t="n">
-        <v>-985910024.6405058</v>
+        <v>6989544.205551373</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10564,17 +10564,17 @@
         <v>1126</v>
       </c>
       <c r="B94" t="n">
-        <v>-510198379.7173789</v>
+        <v>635896.5464363473</v>
       </c>
       <c r="C94" t="n">
-        <v>-1125548872.759401</v>
+        <v>6926147.977814394</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10670,13 +10670,13 @@
         <v>1134</v>
       </c>
       <c r="B95" t="n">
-        <v>-353032720.5081052</v>
+        <v>570840.6923447943</v>
       </c>
       <c r="C95" t="n">
-        <v>-863535761.1584134</v>
+        <v>7237153.966799532</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -10780,13 +10780,13 @@
         <v>1136</v>
       </c>
       <c r="B96" t="n">
-        <v>-298843335.8943771</v>
+        <v>544656.7747877439</v>
       </c>
       <c r="C96" t="n">
-        <v>-862943332.5795701</v>
+        <v>7539540.834429317</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -10886,13 +10886,13 @@
         <v>1173</v>
       </c>
       <c r="B97" t="n">
-        <v>-238305012.1651827</v>
+        <v>486273.0954199679</v>
       </c>
       <c r="C97" t="n">
-        <v>-729964599.2266111</v>
+        <v>7700878.599785771</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -11000,13 +11000,13 @@
         <v>1179</v>
       </c>
       <c r="B98" t="n">
-        <v>-202998151.9661122</v>
+        <v>501916.6847385927</v>
       </c>
       <c r="C98" t="n">
-        <v>-622471329.9884008</v>
+        <v>7762171.519083307</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -11114,17 +11114,17 @@
         <v>1182</v>
       </c>
       <c r="B99" t="n">
-        <v>-470853467.2069699</v>
+        <v>433974.1383359028</v>
       </c>
       <c r="C99" t="n">
-        <v>-1110950339.977633</v>
+        <v>7058704.822261151</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -11220,13 +11220,13 @@
         <v>1195</v>
       </c>
       <c r="B100" t="n">
-        <v>-209761733.5340449</v>
+        <v>535264.6451962179</v>
       </c>
       <c r="C100" t="n">
-        <v>-641691099.0231043</v>
+        <v>7747540.311451338</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -11334,13 +11334,13 @@
         <v>1237</v>
       </c>
       <c r="B101" t="n">
-        <v>-243566831.0875027</v>
+        <v>386978.0618547027</v>
       </c>
       <c r="C101" t="n">
-        <v>-726026563.137508</v>
+        <v>7662555.96167851</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -11448,13 +11448,13 @@
         <v>1271</v>
       </c>
       <c r="B102" t="n">
-        <v>-212801111.3368927</v>
+        <v>516783.7222434226</v>
       </c>
       <c r="C102" t="n">
-        <v>-645623933.6690443</v>
+        <v>7732493.991572574</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -11562,17 +11562,17 @@
         <v>1318</v>
       </c>
       <c r="B103" t="n">
-        <v>-524371194.6235802</v>
+        <v>642509.0269960376</v>
       </c>
       <c r="C103" t="n">
-        <v>-1139168927.506419</v>
+        <v>6892041.841423776</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -11668,13 +11668,13 @@
         <v>1351</v>
       </c>
       <c r="B104" t="n">
-        <v>-343068409.1981544</v>
+        <v>465179.0179792318</v>
       </c>
       <c r="C104" t="n">
-        <v>-880078722.3316373</v>
+        <v>7318258.953759422</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -11778,17 +11778,17 @@
         <v>1409</v>
       </c>
       <c r="B105" t="n">
-        <v>-485371985.5652357</v>
+        <v>419751.2957725933</v>
       </c>
       <c r="C105" t="n">
-        <v>-1124113399.235568</v>
+        <v>7018164.633168827</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -11884,13 +11884,13 @@
         <v>1410</v>
       </c>
       <c r="B106" t="n">
-        <v>-310290620.022946</v>
+        <v>538308.4756595395</v>
       </c>
       <c r="C106" t="n">
-        <v>-883706721.7980634</v>
+        <v>7505989.815628693</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -11994,17 +11994,17 @@
         <v>1430</v>
       </c>
       <c r="B107" t="n">
-        <v>-481055405.1495805</v>
+        <v>384615.5737436903</v>
       </c>
       <c r="C107" t="n">
-        <v>-1110586638.100602</v>
+        <v>7018299.927383657</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -12104,13 +12104,13 @@
         <v>1438</v>
       </c>
       <c r="B108" t="n">
-        <v>-215280119.6450671</v>
+        <v>512962.7551331244</v>
       </c>
       <c r="C108" t="n">
-        <v>-650367511.507249</v>
+        <v>7723177.546654188</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -12218,13 +12218,13 @@
         <v>1441</v>
       </c>
       <c r="B109" t="n">
-        <v>-255383130.411328</v>
+        <v>558346.2352522487</v>
       </c>
       <c r="C109" t="n">
-        <v>-777559780.2341226</v>
+        <v>7668080.316411733</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -12328,17 +12328,17 @@
         <v>1442</v>
       </c>
       <c r="B110" t="n">
-        <v>-520836278.9119021</v>
+        <v>349523.3320857971</v>
       </c>
       <c r="C110" t="n">
-        <v>-1141436331.241267</v>
+        <v>6908207.707181016</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -12434,13 +12434,13 @@
         <v>1448</v>
       </c>
       <c r="B111" t="n">
-        <v>-407698081.2881649</v>
+        <v>586383.5117118701</v>
       </c>
       <c r="C111" t="n">
-        <v>-1059933229.399035</v>
+        <v>7265103.888240045</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -12536,13 +12536,13 @@
         <v>1460</v>
       </c>
       <c r="B112" t="n">
-        <v>-203497056.4647572</v>
+        <v>493610.6234110885</v>
       </c>
       <c r="C112" t="n">
-        <v>-622422487.9200234</v>
+        <v>7758426.641713913</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -12646,13 +12646,13 @@
         <v>1474</v>
       </c>
       <c r="B113" t="n">
-        <v>-300314260.8967208</v>
+        <v>546120.4361398201</v>
       </c>
       <c r="C113" t="n">
-        <v>-866042222.0956748</v>
+        <v>7535855.658581806</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -12752,13 +12752,13 @@
         <v>1486</v>
       </c>
       <c r="B114" t="n">
-        <v>-241134856.1951707</v>
+        <v>498693.989850805</v>
       </c>
       <c r="C114" t="n">
-        <v>-737931722.7770139</v>
+        <v>7695262.224146913</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -12862,13 +12862,13 @@
         <v>1488</v>
       </c>
       <c r="B115" t="n">
-        <v>-295324192.6355504</v>
+        <v>516040.0324423579</v>
       </c>
       <c r="C115" t="n">
-        <v>-851148258.6223927</v>
+        <v>7541443.028280313</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -12976,13 +12976,13 @@
         <v>1495</v>
       </c>
       <c r="B116" t="n">
-        <v>-209491001.1343353</v>
+        <v>473542.0210741824</v>
       </c>
       <c r="C116" t="n">
-        <v>-601194154.7532594</v>
+        <v>7673096.816827226</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -13090,13 +13090,13 @@
         <v>1496</v>
       </c>
       <c r="B117" t="n">
-        <v>-192497286.8177467</v>
+        <v>462572.9410948528</v>
       </c>
       <c r="C117" t="n">
-        <v>-564906254.2929554</v>
+        <v>7732715.621616725</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -13200,13 +13200,13 @@
         <v>1540</v>
       </c>
       <c r="B118" t="n">
-        <v>-322676410.6258059</v>
+        <v>529809.491901787</v>
       </c>
       <c r="C118" t="n">
-        <v>-905264408.9686936</v>
+        <v>7469645.559044581</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -13310,13 +13310,13 @@
         <v>1541</v>
       </c>
       <c r="B119" t="n">
-        <v>-367846936.3166549</v>
+        <v>544103.4585230578</v>
       </c>
       <c r="C119" t="n">
-        <v>-987309464.441787</v>
+        <v>7353695.309962614</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -13420,17 +13420,17 @@
         <v>1545</v>
       </c>
       <c r="B120" t="n">
-        <v>-423310063.5098895</v>
+        <v>447261.8505934777</v>
       </c>
       <c r="C120" t="n">
-        <v>-923654148.343697</v>
+        <v>6987559.984152482</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -13526,13 +13526,13 @@
         <v>1551</v>
       </c>
       <c r="B121" t="n">
-        <v>-337597814.8914024</v>
+        <v>491236.9403707554</v>
       </c>
       <c r="C121" t="n">
-        <v>-925064479.7214996</v>
+        <v>7418386.539599704</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -13640,13 +13640,13 @@
         <v>1569</v>
       </c>
       <c r="B122" t="n">
-        <v>-331549469.3419992</v>
+        <v>432828.2127526441</v>
       </c>
       <c r="C122" t="n">
-        <v>-903597789.5898231</v>
+        <v>7419201.176676215</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -13754,13 +13754,13 @@
         <v>1593</v>
       </c>
       <c r="B123" t="n">
-        <v>-295985126.9846449</v>
+        <v>521619.8875736745</v>
       </c>
       <c r="C123" t="n">
-        <v>-853394630.9564105</v>
+        <v>7541111.272231011</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -13868,13 +13868,13 @@
         <v>1607</v>
       </c>
       <c r="B124" t="n">
-        <v>-254705222.0987702</v>
+        <v>550394.8593927949</v>
       </c>
       <c r="C124" t="n">
-        <v>-774849659.9204817</v>
+        <v>7667912.974268452</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -13974,17 +13974,17 @@
         <v>1627</v>
       </c>
       <c r="B125" t="n">
-        <v>-400462740.3212573</v>
+        <v>549441.2640159908</v>
       </c>
       <c r="C125" t="n">
-        <v>-920752593.2546927</v>
+        <v>7089764.595004798</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -14080,17 +14080,17 @@
         <v>1640</v>
       </c>
       <c r="B126" t="n">
-        <v>-412341766.8810986</v>
+        <v>633628.3556474807</v>
       </c>
       <c r="C126" t="n">
-        <v>-952471174.8141943</v>
+        <v>7086406.268459944</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -14182,13 +14182,13 @@
         <v>1645</v>
       </c>
       <c r="B127" t="n">
-        <v>-298715819.3757662</v>
+        <v>543255.1174382293</v>
       </c>
       <c r="C127" t="n">
-        <v>-862451013.1314778</v>
+        <v>7539499.367662515</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -14292,13 +14292,13 @@
         <v>1659</v>
       </c>
       <c r="B128" t="n">
-        <v>-301655214.7702181</v>
+        <v>546187.5026596489</v>
       </c>
       <c r="C128" t="n">
-        <v>-868638112.3721575</v>
+        <v>7532142.470738708</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -14394,13 +14394,13 @@
         <v>1677</v>
       </c>
       <c r="B129" t="n">
-        <v>-286046213.8750972</v>
+        <v>424198.1480871029</v>
       </c>
       <c r="C129" t="n">
-        <v>-776297876.7968783</v>
+        <v>7475207.440813574</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -14508,17 +14508,17 @@
         <v>1698</v>
       </c>
       <c r="B130" t="n">
-        <v>-472113683.1871948</v>
+        <v>432247.308194178</v>
       </c>
       <c r="C130" t="n">
-        <v>-1112020732.22435</v>
+        <v>7055032.53291498</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -14622,13 +14622,13 @@
         <v>1703</v>
       </c>
       <c r="B131" t="n">
-        <v>-403250478.6902742</v>
+        <v>393764.9090481274</v>
       </c>
       <c r="C131" t="n">
-        <v>-952583244.2885956</v>
+        <v>7128545.83310325</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -14728,13 +14728,13 @@
         <v>1777</v>
       </c>
       <c r="B132" t="n">
-        <v>-253797458.5059077</v>
+        <v>547041.4481878625</v>
       </c>
       <c r="C132" t="n">
-        <v>-772401021.4198982</v>
+        <v>7669696.055025437</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -14838,17 +14838,17 @@
         <v>1779</v>
       </c>
       <c r="B133" t="n">
-        <v>-405106533.379069</v>
+        <v>562233.599460574</v>
       </c>
       <c r="C133" t="n">
-        <v>-928836127.8527223</v>
+        <v>7080796.299082004</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14944,17 +14944,17 @@
         <v>1782</v>
       </c>
       <c r="B134" t="n">
-        <v>-412929329.7213322</v>
+        <v>632693.764070207</v>
       </c>
       <c r="C134" t="n">
-        <v>-952944552.7131875</v>
+        <v>7084359.828227612</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -15046,13 +15046,13 @@
         <v>1805</v>
       </c>
       <c r="B135" t="n">
-        <v>-223893352.3988641</v>
+        <v>512112.8055117342</v>
       </c>
       <c r="C135" t="n">
-        <v>-635038035.2933764</v>
+        <v>7632106.882944928</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -15160,17 +15160,17 @@
         <v>1815</v>
       </c>
       <c r="B136" t="n">
-        <v>-523890490.0945501</v>
+        <v>357958.565935492</v>
       </c>
       <c r="C136" t="n">
-        <v>-1146423408.072479</v>
+        <v>6903166.23766749</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -15266,13 +15266,13 @@
         <v>1822</v>
       </c>
       <c r="B137" t="n">
-        <v>-210963395.1742999</v>
+        <v>476730.5110171803</v>
       </c>
       <c r="C137" t="n">
-        <v>-636153239.7776213</v>
+        <v>7728811.003820577</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -15376,13 +15376,13 @@
         <v>1829</v>
       </c>
       <c r="B138" t="n">
-        <v>-278442351.8661813</v>
+        <v>597973.5564940767</v>
       </c>
       <c r="C138" t="n">
-        <v>-749424348.9347974</v>
+        <v>7475924.526078148</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -15486,17 +15486,17 @@
         <v>1845</v>
       </c>
       <c r="B139" t="n">
-        <v>-405353357.4430854</v>
+        <v>466865.7343871326</v>
       </c>
       <c r="C139" t="n">
-        <v>-909051164.5380864</v>
+        <v>7047036.552868828</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -15588,13 +15588,13 @@
         <v>1857</v>
       </c>
       <c r="B140" t="n">
-        <v>-425782210.8277536</v>
+        <v>582350.0623837239</v>
       </c>
       <c r="C140" t="n">
-        <v>-1021825022.407848</v>
+        <v>7127831.379938778</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -15702,13 +15702,13 @@
         <v>1867</v>
       </c>
       <c r="B141" t="n">
-        <v>-279655493.7402616</v>
+        <v>414012.4506882984</v>
       </c>
       <c r="C141" t="n">
-        <v>-763054067.1700215</v>
+        <v>7492238.369350227</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -15812,17 +15812,17 @@
         <v>1873</v>
       </c>
       <c r="B142" t="n">
-        <v>-399640590.4071863</v>
+        <v>512704.0783795028</v>
       </c>
       <c r="C142" t="n">
-        <v>-912153154.7733815</v>
+        <v>7079358.464472787</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -15918,13 +15918,13 @@
         <v>1881</v>
       </c>
       <c r="B143" t="n">
-        <v>-239337878.0689565</v>
+        <v>491492.5390021149</v>
       </c>
       <c r="C143" t="n">
-        <v>-732978265.559584</v>
+        <v>7698980.791378862</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -16032,13 +16032,13 @@
         <v>1882</v>
       </c>
       <c r="B144" t="n">
-        <v>-204177102.2831562</v>
+        <v>510842.9784519713</v>
       </c>
       <c r="C144" t="n">
-        <v>-626247818.8493059</v>
+        <v>7760328.126294052</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -16142,13 +16142,13 @@
         <v>1893</v>
       </c>
       <c r="B145" t="n">
-        <v>-192470155.0614349</v>
+        <v>396698.9973668791</v>
       </c>
       <c r="C145" t="n">
-        <v>-556730176.3502364</v>
+        <v>7717937.649185988</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -16248,13 +16248,13 @@
         <v>1896</v>
       </c>
       <c r="B146" t="n">
-        <v>-244890997.0268332</v>
+        <v>557847.1436795658</v>
       </c>
       <c r="C146" t="n">
-        <v>-682007754.6485252</v>
+        <v>7573248.84199925</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -16354,13 +16354,13 @@
         <v>1900</v>
       </c>
       <c r="B147" t="n">
-        <v>-400600665.5810885</v>
+        <v>379688.2389211502</v>
       </c>
       <c r="C147" t="n">
-        <v>-946277616.0044086</v>
+        <v>7131861.380907979</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -16460,13 +16460,13 @@
         <v>1901</v>
       </c>
       <c r="B148" t="n">
-        <v>-400599737.3326749</v>
+        <v>379689.6811632259</v>
       </c>
       <c r="C148" t="n">
-        <v>-946276717.9965861</v>
+        <v>7131864.375309374</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -16566,13 +16566,13 @@
         <v>1907</v>
       </c>
       <c r="B149" t="n">
-        <v>-309893806.1786242</v>
+        <v>610069.2239571892</v>
       </c>
       <c r="C149" t="n">
-        <v>-895903759.7381681</v>
+        <v>7528468.078640593</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -16672,13 +16672,13 @@
         <v>1915</v>
       </c>
       <c r="B150" t="n">
-        <v>-267191703.3313124</v>
+        <v>470060.1989861481</v>
       </c>
       <c r="C150" t="n">
-        <v>-748532850.8949162</v>
+        <v>7544891.452296149</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -16786,13 +16786,13 @@
         <v>1924</v>
       </c>
       <c r="B151" t="n">
-        <v>-213052206.3391682</v>
+        <v>475362.0928962582</v>
       </c>
       <c r="C151" t="n">
-        <v>-640405616.9822482</v>
+        <v>7721393.668645743</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -16900,13 +16900,13 @@
         <v>1927</v>
       </c>
       <c r="B152" t="n">
-        <v>-213536615.9072528</v>
+        <v>496757.6298221537</v>
       </c>
       <c r="C152" t="n">
-        <v>-644398567.2782142</v>
+        <v>7724970.437146548</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -17014,13 +17014,13 @@
         <v>1955</v>
       </c>
       <c r="B153" t="n">
-        <v>-192132594.8742865</v>
+        <v>464537.5330962243</v>
       </c>
       <c r="C153" t="n">
-        <v>-564388940.5065968</v>
+        <v>7734546.721280309</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -17124,13 +17124,13 @@
         <v>1973</v>
       </c>
       <c r="B154" t="n">
-        <v>-317389640.9076276</v>
+        <v>529998.6787104817</v>
       </c>
       <c r="C154" t="n">
-        <v>-895519653.1016077</v>
+        <v>7484127.682007378</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -17230,13 +17230,13 @@
         <v>1988</v>
       </c>
       <c r="B155" t="n">
-        <v>-225863868.5151878</v>
+        <v>519706.5372561315</v>
       </c>
       <c r="C155" t="n">
-        <v>-673589615.9679332</v>
+        <v>7689746.013579614</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -17340,13 +17340,13 @@
         <v>1994</v>
       </c>
       <c r="B156" t="n">
-        <v>-246010499.5877506</v>
+        <v>557925.70991641</v>
       </c>
       <c r="C156" t="n">
-        <v>-684135970.9619904</v>
+        <v>7569516.447773891</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -17454,13 +17454,13 @@
         <v>1995</v>
       </c>
       <c r="B157" t="n">
-        <v>-323082994.6868351</v>
+        <v>532463.0081552574</v>
       </c>
       <c r="C157" t="n">
-        <v>-906497734.6655637</v>
+        <v>7469299.84941882</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -17564,13 +17564,13 @@
         <v>1998</v>
       </c>
       <c r="B158" t="n">
-        <v>-366807438.6604889</v>
+        <v>500240.2674189442</v>
       </c>
       <c r="C158" t="n">
-        <v>-869040797.9855794</v>
+        <v>7172424.348558117</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -17670,13 +17670,13 @@
         <v>2003</v>
       </c>
       <c r="B159" t="n">
-        <v>-365798324.256619</v>
+        <v>416625.6658150754</v>
       </c>
       <c r="C159" t="n">
-        <v>-851877588.2590313</v>
+        <v>7149242.980817909</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -17772,13 +17772,13 @@
         <v>2029</v>
       </c>
       <c r="B160" t="n">
-        <v>-204169369.4174903</v>
+        <v>503196.9096944128</v>
       </c>
       <c r="C160" t="n">
-        <v>-625185136.4798727</v>
+        <v>7758457.854930239</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -17886,13 +17886,13 @@
         <v>2035</v>
       </c>
       <c r="B161" t="n">
-        <v>-213151868.0356685</v>
+        <v>476653.4027456802</v>
       </c>
       <c r="C161" t="n">
-        <v>-640795305.5714874</v>
+        <v>7721365.683587794</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -17996,13 +17996,13 @@
         <v>2047</v>
       </c>
       <c r="B162" t="n">
-        <v>-229991147.6943958</v>
+        <v>521798.4448388324</v>
       </c>
       <c r="C162" t="n">
-        <v>-682457920.6153616</v>
+        <v>7676766.491750701</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -18110,13 +18110,13 @@
         <v>2071</v>
       </c>
       <c r="B163" t="n">
-        <v>-212123070.6127374</v>
+        <v>470200.1491714464</v>
       </c>
       <c r="C163" t="n">
-        <v>-637722341.1181444</v>
+        <v>7723315.268727377</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -18224,13 +18224,13 @@
         <v>2074</v>
       </c>
       <c r="B164" t="n">
-        <v>-298113852.9277074</v>
+        <v>592945.8681707042</v>
       </c>
       <c r="C164" t="n">
-        <v>-870039393.9477456</v>
+        <v>7555700.124706045</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -18334,13 +18334,13 @@
         <v>2093</v>
       </c>
       <c r="B165" t="n">
-        <v>-318284079.5245989</v>
+        <v>526759.0908438052</v>
       </c>
       <c r="C165" t="n">
-        <v>-896594548.8502088</v>
+        <v>7480760.458497801</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -18440,13 +18440,13 @@
         <v>2112</v>
       </c>
       <c r="B166" t="n">
-        <v>-222853035.3712662</v>
+        <v>505376.1970139076</v>
       </c>
       <c r="C166" t="n">
-        <v>-632073188.4722387</v>
+        <v>7633923.623960976</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -18550,17 +18550,17 @@
         <v>2136</v>
       </c>
       <c r="B167" t="n">
-        <v>-522281561.7664846</v>
+        <v>373027.0500290407</v>
       </c>
       <c r="C167" t="n">
-        <v>-1149078072.876034</v>
+        <v>6911853.629027975</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -18656,17 +18656,17 @@
         <v>2140</v>
       </c>
       <c r="B168" t="n">
-        <v>-524847070.9761184</v>
+        <v>633134.0313362877</v>
       </c>
       <c r="C168" t="n">
-        <v>-1136913283.19086</v>
+        <v>6887006.204097526</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -18762,13 +18762,13 @@
         <v>2141</v>
       </c>
       <c r="B169" t="n">
-        <v>-387183089.4468694</v>
+        <v>631906.4728374205</v>
       </c>
       <c r="C169" t="n">
-        <v>-1037290339.705804</v>
+        <v>7332266.797491122</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -18868,13 +18868,13 @@
         <v>2177</v>
       </c>
       <c r="B170" t="n">
-        <v>-225043508.8860755</v>
+        <v>516411.6843514922</v>
       </c>
       <c r="C170" t="n">
-        <v>-671406258.3302894</v>
+        <v>7691587.330481753</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -18978,13 +18978,13 @@
         <v>2180</v>
       </c>
       <c r="B171" t="n">
-        <v>-215671090.0423851</v>
+        <v>518138.8077889674</v>
       </c>
       <c r="C171" t="n">
-        <v>-651925212.0412349</v>
+        <v>7723191.828735448</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -19092,17 +19092,17 @@
         <v>2204</v>
       </c>
       <c r="B172" t="n">
-        <v>-516438474.495773</v>
+        <v>357880.1741731284</v>
       </c>
       <c r="C172" t="n">
-        <v>-1139696775.937006</v>
+        <v>6921754.665167541</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -19198,13 +19198,13 @@
         <v>2208</v>
       </c>
       <c r="B173" t="n">
-        <v>-337818135.3373979</v>
+        <v>520956.8272112947</v>
       </c>
       <c r="C173" t="n">
-        <v>-881828067.4966038</v>
+        <v>7349707.001639909</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -19308,13 +19308,13 @@
         <v>2270</v>
       </c>
       <c r="B174" t="n">
-        <v>-230048274.7911682</v>
+        <v>522452.1532567206</v>
       </c>
       <c r="C174" t="n">
-        <v>-682670966.1187029</v>
+        <v>7676752.868087593</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -19422,17 +19422,17 @@
         <v>2278</v>
       </c>
       <c r="B175" t="n">
-        <v>-518834139.1436157</v>
+        <v>375111.1645471174</v>
       </c>
       <c r="C175" t="n">
-        <v>-1146510684.394367</v>
+        <v>6921088.030388365</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -19532,13 +19532,13 @@
         <v>2292</v>
       </c>
       <c r="B176" t="n">
-        <v>-225865435.7725357</v>
+        <v>519704.585367147</v>
       </c>
       <c r="C176" t="n">
-        <v>-673592600.4078</v>
+        <v>7689740.345160742</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -19642,13 +19642,13 @@
         <v>2302</v>
       </c>
       <c r="B177" t="n">
-        <v>-226336247.4059579</v>
+        <v>511182.1857671334</v>
       </c>
       <c r="C177" t="n">
-        <v>-673347550.0519985</v>
+        <v>7685971.492255058</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -19752,17 +19752,17 @@
         <v>2313</v>
       </c>
       <c r="B178" t="n">
-        <v>-437946611.3429362</v>
+        <v>567731.0090219147</v>
       </c>
       <c r="C178" t="n">
-        <v>-965088694.496369</v>
+        <v>6987820.391586155</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -19858,13 +19858,13 @@
         <v>2335</v>
       </c>
       <c r="B179" t="n">
-        <v>-313545451.9924184</v>
+        <v>612574.2558295869</v>
       </c>
       <c r="C179" t="n">
-        <v>-903332767.6246082</v>
+        <v>7519282.001133986</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -19968,13 +19968,13 @@
         <v>2339</v>
       </c>
       <c r="B180" t="n">
-        <v>-224677657.7758706</v>
+        <v>519026.4309358486</v>
       </c>
       <c r="C180" t="n">
-        <v>-671017880.934039</v>
+        <v>7693475.569403541</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -20078,13 +20078,13 @@
         <v>2350</v>
       </c>
       <c r="B181" t="n">
-        <v>-302331165.2960402</v>
+        <v>546215.8824872201</v>
       </c>
       <c r="C181" t="n">
-        <v>-869943166.2235944</v>
+        <v>7530271.447308378</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -20184,13 +20184,13 @@
         <v>2387</v>
       </c>
       <c r="B182" t="n">
-        <v>-313649541.4376099</v>
+        <v>442694.8574801536</v>
       </c>
       <c r="C182" t="n">
-        <v>-873015938.4899472</v>
+        <v>7470991.129014144</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -20294,13 +20294,13 @@
         <v>2391</v>
       </c>
       <c r="B183" t="n">
-        <v>-267887108.8939367</v>
+        <v>457430.9472982238</v>
       </c>
       <c r="C183" t="n">
-        <v>-747897418.0385137</v>
+        <v>7539477.7540829</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -20400,17 +20400,17 @@
         <v>2394</v>
       </c>
       <c r="B184" t="n">
-        <v>-429657185.2158561</v>
+        <v>500213.6963153728</v>
       </c>
       <c r="C184" t="n">
-        <v>-941647923.2819018</v>
+        <v>6987235.585124226</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -20506,13 +20506,13 @@
         <v>2413</v>
       </c>
       <c r="B185" t="n">
-        <v>-223783023.2615825</v>
+        <v>405203.6227917696</v>
       </c>
       <c r="C185" t="n">
-        <v>-653133359.7782422</v>
+        <v>7669207.032037669</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -20620,13 +20620,13 @@
         <v>2430</v>
       </c>
       <c r="B186" t="n">
-        <v>-214099268.851079</v>
+        <v>519393.8280521787</v>
       </c>
       <c r="C186" t="n">
-        <v>-648758041.4981447</v>
+        <v>7728792.177853771</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -20730,13 +20730,13 @@
         <v>2446</v>
       </c>
       <c r="B187" t="n">
-        <v>-203822883.9904893</v>
+        <v>473097.765349581</v>
       </c>
       <c r="C187" t="n">
-        <v>-589629055.536177</v>
+        <v>7693516.686494404</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -20844,13 +20844,13 @@
         <v>2455</v>
       </c>
       <c r="B188" t="n">
-        <v>-309893239.4730236</v>
+        <v>610069.7937226363</v>
       </c>
       <c r="C188" t="n">
-        <v>-895902778.0590461</v>
+        <v>7528469.806264594</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -20954,13 +20954,13 @@
         <v>2472</v>
       </c>
       <c r="B189" t="n">
-        <v>-215841693.4359712</v>
+        <v>512964.1207596474</v>
       </c>
       <c r="C189" t="n">
-        <v>-651559754.9562539</v>
+        <v>7721293.432107754</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -21064,13 +21064,13 @@
         <v>2473</v>
       </c>
       <c r="B190" t="n">
-        <v>-242648479.1876917</v>
+        <v>390460.5930490982</v>
       </c>
       <c r="C190" t="n">
-        <v>-724626836.8616053</v>
+        <v>7666102.665732942</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -21170,17 +21170,17 @@
         <v>2485</v>
       </c>
       <c r="B191" t="n">
-        <v>-480908430.0951837</v>
+        <v>386324.1407960546</v>
       </c>
       <c r="C191" t="n">
-        <v>-1110845164.017801</v>
+        <v>7019176.641359211</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -21280,13 +21280,13 @@
         <v>2486</v>
       </c>
       <c r="B192" t="n">
-        <v>-225399568.5696721</v>
+        <v>510779.2338970022</v>
       </c>
       <c r="C192" t="n">
-        <v>-637815387.1152614</v>
+        <v>7626490.582492419</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -21394,13 +21394,13 @@
         <v>2512</v>
       </c>
       <c r="B193" t="n">
-        <v>-214294146.3097462</v>
+        <v>477268.8660262757</v>
       </c>
       <c r="C193" t="n">
-        <v>-643301274.6424991</v>
+        <v>7717649.688500894</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -21504,13 +21504,13 @@
         <v>2533</v>
       </c>
       <c r="B194" t="n">
-        <v>-214715944.1716465</v>
+        <v>520037.8124788268</v>
       </c>
       <c r="C194" t="n">
-        <v>-650161570.5454304</v>
+        <v>7726885.758264694</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -21614,13 +21614,13 @@
         <v>2535</v>
       </c>
       <c r="B195" t="n">
-        <v>-243688518.4641431</v>
+        <v>455504.0908459591</v>
       </c>
       <c r="C195" t="n">
-        <v>-665138936.6720879</v>
+        <v>7548817.407141957</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -21724,13 +21724,13 @@
         <v>2546</v>
       </c>
       <c r="B196" t="n">
-        <v>-218516143.2695654</v>
+        <v>504013.3308901011</v>
       </c>
       <c r="C196" t="n">
-        <v>-623303775.6079682</v>
+        <v>7648803.693517292</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -21834,13 +21834,13 @@
         <v>2567</v>
       </c>
       <c r="B197" t="n">
-        <v>-373967285.9726668</v>
+        <v>435874.7988367911</v>
       </c>
       <c r="C197" t="n">
-        <v>-865891994.5109506</v>
+        <v>7130487.189463067</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -21936,13 +21936,13 @@
         <v>2584</v>
       </c>
       <c r="B198" t="n">
-        <v>-378998454.3004702</v>
+        <v>381951.6739459805</v>
       </c>
       <c r="C198" t="n">
-        <v>-917823387.3924097</v>
+        <v>7192966.716591164</v>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -22042,13 +22042,13 @@
         <v>2592</v>
       </c>
       <c r="B199" t="n">
-        <v>-321515526.7598441</v>
+        <v>569133.3685013306</v>
       </c>
       <c r="C199" t="n">
-        <v>-910333814.6552889</v>
+        <v>7484313.163884886</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -22156,13 +22156,13 @@
         <v>2618</v>
       </c>
       <c r="B200" t="n">
-        <v>-198806404.890537</v>
+        <v>445157.9993970226</v>
       </c>
       <c r="C200" t="n">
-        <v>-575798951.7565464</v>
+        <v>7705166.422802125</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -22266,13 +22266,13 @@
         <v>2619</v>
       </c>
       <c r="B201" t="n">
-        <v>-198786983.8807504</v>
+        <v>408909.3706677227</v>
       </c>
       <c r="C201" t="n">
-        <v>-571225258.6149876</v>
+        <v>7696968.579999518</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -22376,17 +22376,17 @@
         <v>2655</v>
       </c>
       <c r="B202" t="n">
-        <v>-521566623.4774791</v>
+        <v>352074.3292126568</v>
       </c>
       <c r="C202" t="n">
-        <v>-1142774532.770281</v>
+        <v>6907161.849677065</v>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -22482,13 +22482,13 @@
         <v>2665</v>
       </c>
       <c r="B203" t="n">
-        <v>-311712976.9465635</v>
+        <v>485619.6012397517</v>
       </c>
       <c r="C203" t="n">
-        <v>-877000728.8594154</v>
+        <v>7487518.16652951</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -22588,13 +22588,13 @@
         <v>2675</v>
       </c>
       <c r="B204" t="n">
-        <v>-406851530.2764966</v>
+        <v>356095.2941620831</v>
       </c>
       <c r="C204" t="n">
-        <v>-949313638.8847589</v>
+        <v>7107781.872864412</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -22698,13 +22698,13 @@
         <v>2689</v>
       </c>
       <c r="B205" t="n">
-        <v>-376675071.1674151</v>
+        <v>454806.1473234071</v>
       </c>
       <c r="C205" t="n">
-        <v>-872936614.2686832</v>
+        <v>7128305.531844715</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -22800,13 +22800,13 @@
         <v>2696</v>
       </c>
       <c r="B206" t="n">
-        <v>-308674974.5628061</v>
+        <v>516262.0350393416</v>
       </c>
       <c r="C206" t="n">
-        <v>-876728445.7966805</v>
+        <v>7504258.476005526</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -22906,13 +22906,13 @@
         <v>2702</v>
       </c>
       <c r="B207" t="n">
-        <v>-293745935.6431011</v>
+        <v>461652.8542611515</v>
       </c>
       <c r="C207" t="n">
-        <v>-838780430.7100596</v>
+        <v>7531636.035330141</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -23012,13 +23012,13 @@
         <v>2712</v>
       </c>
       <c r="B208" t="n">
-        <v>-204028416.522783</v>
+        <v>493616.2296477694</v>
       </c>
       <c r="C208" t="n">
-        <v>-623573447.5094414</v>
+        <v>7756598.871884743</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -23122,17 +23122,17 @@
         <v>2719</v>
       </c>
       <c r="B209" t="n">
-        <v>-525716132.616509</v>
+        <v>646925.5376391539</v>
       </c>
       <c r="C209" t="n">
-        <v>-1141476250.701951</v>
+        <v>6890355.668999516</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -23228,13 +23228,13 @@
         <v>2731</v>
       </c>
       <c r="B210" t="n">
-        <v>-344118742.2340186</v>
+        <v>631170.8854002282</v>
       </c>
       <c r="C210" t="n">
-        <v>-810492590.870904</v>
+        <v>7194619.707176876</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -23338,13 +23338,13 @@
         <v>2753</v>
       </c>
       <c r="B211" t="n">
-        <v>-317221510.6784033</v>
+        <v>527650.9616622498</v>
       </c>
       <c r="C211" t="n">
-        <v>-894782300.9067611</v>
+        <v>7483921.238039941</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -23444,13 +23444,13 @@
         <v>2754</v>
       </c>
       <c r="B212" t="n">
-        <v>-202296969.4717697</v>
+        <v>480378.6404599506</v>
       </c>
       <c r="C212" t="n">
-        <v>-587440195.7583882</v>
+        <v>7700893.983423725</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -23554,13 +23554,13 @@
         <v>2795</v>
       </c>
       <c r="B213" t="n">
-        <v>-386495887.7845042</v>
+        <v>369189.9049007925</v>
       </c>
       <c r="C213" t="n">
-        <v>-982041518.3097856</v>
+        <v>7255939.075418407</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -23664,13 +23664,13 @@
         <v>2807</v>
       </c>
       <c r="B214" t="n">
-        <v>-309632338.9094254</v>
+        <v>423706.6528287728</v>
       </c>
       <c r="C214" t="n">
-        <v>-773241759.5955436</v>
+        <v>7324650.349775752</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -23770,13 +23770,13 @@
         <v>2866</v>
       </c>
       <c r="B215" t="n">
-        <v>-223132190.7743582</v>
+        <v>403952.5104674696</v>
       </c>
       <c r="C215" t="n">
-        <v>-651621246.9279692</v>
+        <v>7671118.26618634</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -23880,13 +23880,13 @@
         <v>2871</v>
       </c>
       <c r="B216" t="n">
-        <v>-308990162.5362792</v>
+        <v>533965.3551665811</v>
       </c>
       <c r="C216" t="n">
-        <v>-880471822.0307947</v>
+        <v>7508343.15856861</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -23990,13 +23990,13 @@
         <v>2892</v>
       </c>
       <c r="B217" t="n">
-        <v>-320782606.629787</v>
+        <v>595866.9532449639</v>
       </c>
       <c r="C217" t="n">
-        <v>-913904714.1686767</v>
+        <v>7494434.165848709</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -24100,13 +24100,13 @@
         <v>2902</v>
       </c>
       <c r="B218" t="n">
-        <v>-241323924.1381642</v>
+        <v>493438.8550551534</v>
       </c>
       <c r="C218" t="n">
-        <v>-737522373.3300408</v>
+        <v>7693394.074785054</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -24214,13 +24214,13 @@
         <v>2908</v>
       </c>
       <c r="B219" t="n">
-        <v>-306857557.160954</v>
+        <v>535500.4257401936</v>
       </c>
       <c r="C219" t="n">
-        <v>-876699096.6862684</v>
+        <v>7514673.159686636</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -24328,17 +24328,17 @@
         <v>2920</v>
       </c>
       <c r="B220" t="n">
-        <v>-456160951.6766787</v>
+        <v>352568.1769166845</v>
       </c>
       <c r="C220" t="n">
-        <v>-930477664.3499768</v>
+        <v>6858775.987587093</v>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -24442,13 +24442,13 @@
         <v>2947</v>
       </c>
       <c r="B221" t="n">
-        <v>-336823045.5205081</v>
+        <v>561800.1395321379</v>
       </c>
       <c r="C221" t="n">
-        <v>-887677210.577004</v>
+        <v>7365191.7059865</v>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -24552,13 +24552,13 @@
         <v>2966</v>
       </c>
       <c r="B222" t="n">
-        <v>-217491307.3612017</v>
+        <v>408953.8913971058</v>
       </c>
       <c r="C222" t="n">
-        <v>-673310602.6217136</v>
+        <v>7749036.571890327</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -24658,13 +24658,13 @@
         <v>2975</v>
       </c>
       <c r="B223" t="n">
-        <v>-304962535.6715408</v>
+        <v>597774.0760729779</v>
       </c>
       <c r="C223" t="n">
-        <v>-884198146.0198816</v>
+        <v>7538216.376915829</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -24768,13 +24768,13 @@
         <v>2977</v>
       </c>
       <c r="B224" t="n">
-        <v>-380358925.5545709</v>
+        <v>403421.4490973876</v>
       </c>
       <c r="C224" t="n">
-        <v>-867436479.9295633</v>
+        <v>7101282.270584919</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -24870,13 +24870,13 @@
         <v>2988</v>
       </c>
       <c r="B225" t="n">
-        <v>-240066476.3254406</v>
+        <v>433121.1153456967</v>
       </c>
       <c r="C225" t="n">
-        <v>-690101639.5459723</v>
+        <v>7621816.846075354</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -24980,13 +24980,13 @@
         <v>3005</v>
       </c>
       <c r="B226" t="n">
-        <v>-309048200.789822</v>
+        <v>423757.0799728755</v>
       </c>
       <c r="C226" t="n">
-        <v>-772339436.4164836</v>
+        <v>7326508.793330323</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -25086,13 +25086,13 @@
         <v>3018</v>
       </c>
       <c r="B227" t="n">
-        <v>-375319992.0642034</v>
+        <v>417591.0893552694</v>
       </c>
       <c r="C227" t="n">
-        <v>-919607417.8304399</v>
+        <v>7213319.723630893</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -25192,17 +25192,17 @@
         <v>3022</v>
       </c>
       <c r="B228" t="n">
-        <v>-506090998.6045627</v>
+        <v>632095.8136605883</v>
       </c>
       <c r="C228" t="n">
-        <v>-1120910786.829897</v>
+        <v>6935305.836963319</v>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -25298,13 +25298,13 @@
         <v>3031</v>
       </c>
       <c r="B229" t="n">
-        <v>-400849904.4402864</v>
+        <v>358928.8725820614</v>
       </c>
       <c r="C229" t="n">
-        <v>-942335124.4181108</v>
+        <v>7125310.196621728</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -25404,13 +25404,13 @@
         <v>3046</v>
       </c>
       <c r="B230" t="n">
-        <v>-371425473.9292914</v>
+        <v>391840.7812511806</v>
       </c>
       <c r="C230" t="n">
-        <v>-963019129.7710677</v>
+        <v>7301526.397680067</v>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -25514,17 +25514,17 @@
         <v>3047</v>
       </c>
       <c r="B231" t="n">
-        <v>-549191985.8578577</v>
+        <v>585293.6137760283</v>
       </c>
       <c r="C231" t="n">
-        <v>-1232676682.563102</v>
+        <v>6919073.85214085</v>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -25616,13 +25616,13 @@
         <v>3056</v>
       </c>
       <c r="B232" t="n">
-        <v>-358084345.8107129</v>
+        <v>490522.5892413479</v>
       </c>
       <c r="C232" t="n">
-        <v>-855547563.1255062</v>
+        <v>7195455.777799173</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -25722,13 +25722,13 @@
         <v>3068</v>
       </c>
       <c r="B233" t="n">
-        <v>-244382524.7167289</v>
+        <v>389552.3194688197</v>
       </c>
       <c r="C233" t="n">
-        <v>-728120183.5868399</v>
+        <v>7660578.245830559</v>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -25832,13 +25832,13 @@
         <v>3102</v>
       </c>
       <c r="B234" t="n">
-        <v>-240068780.6330601</v>
+        <v>433117.8630653176</v>
       </c>
       <c r="C234" t="n">
-        <v>-690105776.0284929</v>
+        <v>7621808.596963508</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -25942,13 +25942,13 @@
         <v>3103</v>
       </c>
       <c r="B235" t="n">
-        <v>-329078412.5709535</v>
+        <v>517561.6115236647</v>
       </c>
       <c r="C235" t="n">
-        <v>-818910527.5009742</v>
+        <v>7292081.963127476</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -26044,17 +26044,17 @@
         <v>3107</v>
       </c>
       <c r="B236" t="n">
-        <v>-410971193.7691032</v>
+        <v>399648.2113392152</v>
       </c>
       <c r="C236" t="n">
-        <v>-900915037.2325332</v>
+        <v>7008497.352314193</v>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -26154,17 +26154,17 @@
         <v>3127</v>
       </c>
       <c r="B237" t="n">
-        <v>-432611895.601133</v>
+        <v>551152.7902190492</v>
       </c>
       <c r="C237" t="n">
-        <v>-956035472.6287153</v>
+        <v>6997043.015330166</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -26260,13 +26260,13 @@
         <v>3132</v>
       </c>
       <c r="B238" t="n">
-        <v>-309351654.15253</v>
+        <v>549369.3599584843</v>
       </c>
       <c r="C238" t="n">
-        <v>-883908803.5414437</v>
+        <v>7511751.24042122</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -26370,17 +26370,17 @@
         <v>3146</v>
       </c>
       <c r="B239" t="n">
-        <v>-416498769.1670571</v>
+        <v>550420.1551479779</v>
       </c>
       <c r="C239" t="n">
-        <v>-939065763.9779805</v>
+        <v>7043434.654577083</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -26476,13 +26476,13 @@
         <v>3161</v>
       </c>
       <c r="B240" t="n">
-        <v>-224564115.7327565</v>
+        <v>396408.9026940639</v>
       </c>
       <c r="C240" t="n">
-        <v>-620823745.2168683</v>
+        <v>7600743.560649804</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -26582,13 +26582,13 @@
         <v>3205</v>
       </c>
       <c r="B241" t="n">
-        <v>-408003034.585023</v>
+        <v>596331.7673648928</v>
       </c>
       <c r="C241" t="n">
-        <v>-1062571521.983376</v>
+        <v>7267643.373269751</v>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -26688,13 +26688,13 @@
         <v>3213</v>
       </c>
       <c r="B242" t="n">
-        <v>-242854295.5947599</v>
+        <v>552889.4998248806</v>
       </c>
       <c r="C242" t="n">
-        <v>-713382647.1852175</v>
+        <v>7643763.177269054</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -26794,13 +26794,13 @@
         <v>3214</v>
       </c>
       <c r="B243" t="n">
-        <v>-199323447.5336077</v>
+        <v>409504.0149242396</v>
       </c>
       <c r="C243" t="n">
-        <v>-572395549.4323241</v>
+        <v>7695110.259586516</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -26908,13 +26908,13 @@
         <v>3218</v>
       </c>
       <c r="B244" t="n">
-        <v>-214106526.6373145</v>
+        <v>519384.7766289426</v>
       </c>
       <c r="C244" t="n">
-        <v>-648772234.2165039</v>
+        <v>7728765.447360026</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -27014,13 +27014,13 @@
         <v>3232</v>
       </c>
       <c r="B245" t="n">
-        <v>-200498201.6524523</v>
+        <v>404686.2729391882</v>
       </c>
       <c r="C245" t="n">
-        <v>-574190445.5898278</v>
+        <v>7689692.803541467</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -27124,13 +27124,13 @@
         <v>3240</v>
       </c>
       <c r="B246" t="n">
-        <v>-217102229.2118078</v>
+        <v>403833.5866248374</v>
       </c>
       <c r="C246" t="n">
-        <v>-671720791.4677515</v>
+        <v>7749257.241003549</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -27238,17 +27238,17 @@
         <v>3247</v>
       </c>
       <c r="B247" t="n">
-        <v>-423058105.4882524</v>
+        <v>445994.4440804006</v>
       </c>
       <c r="C247" t="n">
-        <v>-923126751.8324596</v>
+        <v>6987875.544744599</v>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -27348,13 +27348,13 @@
         <v>3259</v>
       </c>
       <c r="B248" t="n">
-        <v>-212770698.6983723</v>
+        <v>471465.1004422969</v>
       </c>
       <c r="C248" t="n">
-        <v>-639271115.5162843</v>
+        <v>7721417.809968207</v>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -27458,13 +27458,13 @@
         <v>3267</v>
       </c>
       <c r="B249" t="n">
-        <v>-222643425.7356054</v>
+        <v>551471.5129760357</v>
       </c>
       <c r="C249" t="n">
-        <v>-637954824.3089359</v>
+        <v>7647446.843696924</v>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -27568,13 +27568,13 @@
         <v>3268</v>
       </c>
       <c r="B250" t="n">
-        <v>-243896447.7772339</v>
+        <v>390960.5391038767</v>
       </c>
       <c r="C250" t="n">
-        <v>-727316100.8050864</v>
+        <v>7662364.339570296</v>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -27678,13 +27678,13 @@
         <v>3289</v>
       </c>
       <c r="B251" t="n">
-        <v>-218526783.0993502</v>
+        <v>399756.9463054682</v>
       </c>
       <c r="C251" t="n">
-        <v>-674263993.2720358</v>
+        <v>7743860.524476133</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -27784,13 +27784,13 @@
         <v>3293</v>
       </c>
       <c r="B252" t="n">
-        <v>-204674891.8700234</v>
+        <v>385325.364297493</v>
       </c>
       <c r="C252" t="n">
-        <v>-580221782.7109855</v>
+        <v>7670054.220276904</v>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -27890,13 +27890,13 @@
         <v>3296</v>
       </c>
       <c r="B253" t="n">
-        <v>-300607302.6342872</v>
+        <v>500566.1667510879</v>
       </c>
       <c r="C253" t="n">
-        <v>-858639228.2371796</v>
+        <v>7522436.103053682</v>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -27996,17 +27996,17 @@
         <v>3300</v>
       </c>
       <c r="B254" t="n">
-        <v>-413928711.825058</v>
+        <v>582706.2516442235</v>
       </c>
       <c r="C254" t="n">
-        <v>-943234584.3110212</v>
+        <v>7062670.95970158</v>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -28102,13 +28102,13 @@
         <v>3301</v>
       </c>
       <c r="B255" t="n">
-        <v>-390361632.7697945</v>
+        <v>597230.942318944</v>
       </c>
       <c r="C255" t="n">
-        <v>-918422421.2965401</v>
+        <v>7136388.669370436</v>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -28208,13 +28208,13 @@
         <v>3319</v>
       </c>
       <c r="B256" t="n">
-        <v>-258384315.4798246</v>
+        <v>556570.2045913173</v>
       </c>
       <c r="C256" t="n">
-        <v>-783558082.2160523</v>
+        <v>7658737.491455649</v>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -28318,13 +28318,13 @@
         <v>3330</v>
       </c>
       <c r="B257" t="n">
-        <v>-242200467.5234819</v>
+        <v>531664.2569746694</v>
       </c>
       <c r="C257" t="n">
-        <v>-673139812.3375643</v>
+        <v>7574670.138059562</v>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -28432,13 +28432,13 @@
         <v>3337</v>
       </c>
       <c r="B258" t="n">
-        <v>-298655172.7567051</v>
+        <v>591627.350721829</v>
       </c>
       <c r="C258" t="n">
-        <v>-870862195.2468983</v>
+        <v>7553799.133062257</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -28542,13 +28542,13 @@
         <v>3339</v>
       </c>
       <c r="B259" t="n">
-        <v>-286212652.9997987</v>
+        <v>529635.2016069178</v>
       </c>
       <c r="C259" t="n">
-        <v>-835645280.3907728</v>
+        <v>7570907.4032937</v>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -28648,13 +28648,13 @@
         <v>3342</v>
       </c>
       <c r="B260" t="n">
-        <v>-299552152.7190789</v>
+        <v>625634.8725377694</v>
       </c>
       <c r="C260" t="n">
-        <v>-746369011.0050592</v>
+        <v>7337569.003031509</v>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -28762,13 +28762,13 @@
         <v>3346</v>
       </c>
       <c r="B261" t="n">
-        <v>-379779207.6751794</v>
+        <v>389521.0831106392</v>
       </c>
       <c r="C261" t="n">
-        <v>-920389487.9877932</v>
+        <v>7192871.056181062</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -28868,13 +28868,13 @@
         <v>3352</v>
       </c>
       <c r="B262" t="n">
-        <v>-259992085.3948588</v>
+        <v>524661.8241184291</v>
       </c>
       <c r="C262" t="n">
-        <v>-705150501.9023222</v>
+        <v>7513238.118552247</v>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -28974,13 +28974,13 @@
         <v>3379</v>
       </c>
       <c r="B263" t="n">
-        <v>-266894067.6145639</v>
+        <v>479677.7474575302</v>
       </c>
       <c r="C263" t="n">
-        <v>-788614458.0211098</v>
+        <v>7613580.295020502</v>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -29088,13 +29088,13 @@
         <v>3392</v>
       </c>
       <c r="B264" t="n">
-        <v>-233370618.4668625</v>
+        <v>564722.4098002277</v>
       </c>
       <c r="C264" t="n">
-        <v>-695741547.8561182</v>
+        <v>7677522.633814393</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -29198,13 +29198,13 @@
         <v>3395</v>
       </c>
       <c r="B265" t="n">
-        <v>-412397248.1363726</v>
+        <v>605097.1309382393</v>
       </c>
       <c r="C265" t="n">
-        <v>-1071200523.650856</v>
+        <v>7259556.001309044</v>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -29300,13 +29300,13 @@
         <v>3403</v>
       </c>
       <c r="B266" t="n">
-        <v>-389497333.7933899</v>
+        <v>370545.8279436743</v>
       </c>
       <c r="C266" t="n">
-        <v>-929869051.237988</v>
+        <v>7160305.122591404</v>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -29406,13 +29406,13 @@
         <v>3412</v>
       </c>
       <c r="B267" t="n">
-        <v>-216869591.048274</v>
+        <v>400619.5370288805</v>
       </c>
       <c r="C267" t="n">
-        <v>-670749238.7131203</v>
+        <v>7749364.980184098</v>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -29512,13 +29512,13 @@
         <v>3416</v>
       </c>
       <c r="B268" t="n">
-        <v>-213982174.35517</v>
+        <v>547675.7144011805</v>
       </c>
       <c r="C268" t="n">
-        <v>-652493802.4039841</v>
+        <v>7736615.800846431</v>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -29622,13 +29622,13 @@
         <v>3420</v>
       </c>
       <c r="B269" t="n">
-        <v>-401108968.4769239</v>
+        <v>371060.7722043699</v>
       </c>
       <c r="C269" t="n">
-        <v>-945157004.1764328</v>
+        <v>7127997.087246113</v>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -29728,13 +29728,13 @@
         <v>3423</v>
       </c>
       <c r="B270" t="n">
-        <v>-313166795.0250726</v>
+        <v>581146.1905219053</v>
       </c>
       <c r="C270" t="n">
-        <v>-896873089.6677781</v>
+        <v>7510658.507869572</v>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -29838,17 +29838,17 @@
         <v>3428</v>
       </c>
       <c r="B271" t="n">
-        <v>-401039376.2182928</v>
+        <v>391893.2587302914</v>
       </c>
       <c r="C271" t="n">
-        <v>-888776474.7965349</v>
+        <v>7035689.812545158</v>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -29952,13 +29952,13 @@
         <v>3442</v>
       </c>
       <c r="B272" t="n">
-        <v>-368702156.040758</v>
+        <v>435378.7764357327</v>
       </c>
       <c r="C272" t="n">
-        <v>-913516719.1582154</v>
+        <v>7237020.544595779</v>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -30054,13 +30054,13 @@
         <v>3445</v>
       </c>
       <c r="B273" t="n">
-        <v>-347569895.222814</v>
+        <v>636325.3533101038</v>
       </c>
       <c r="C273" t="n">
-        <v>-815914507.2060896</v>
+        <v>7185539.202978248</v>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -30164,17 +30164,17 @@
         <v>3448</v>
       </c>
       <c r="B274" t="n">
-        <v>-445273098.9729561</v>
+        <v>627029.4551947147</v>
       </c>
       <c r="C274" t="n">
-        <v>-986010752.1691067</v>
+        <v>6989659.690565424</v>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -30270,13 +30270,13 @@
         <v>3450</v>
       </c>
       <c r="B275" t="n">
-        <v>-308377950.1307234</v>
+        <v>622330.1639270658</v>
       </c>
       <c r="C275" t="n">
-        <v>-895226659.9758137</v>
+        <v>7536456.423319577</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -30380,13 +30380,13 @@
         <v>3463</v>
       </c>
       <c r="B276" t="n">
-        <v>-212478762.0030263</v>
+        <v>467582.6093767582</v>
       </c>
       <c r="C276" t="n">
-        <v>-638117483.9722123</v>
+        <v>7721488.145328028</v>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -30490,13 +30490,13 @@
         <v>3466</v>
       </c>
       <c r="B277" t="n">
-        <v>-273689774.3788547</v>
+        <v>463062.3101414968</v>
       </c>
       <c r="C277" t="n">
-        <v>-799623970.5033848</v>
+        <v>7589610.576502786</v>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -30600,13 +30600,13 @@
         <v>3470</v>
       </c>
       <c r="B278" t="n">
-        <v>-242596850.4577149</v>
+        <v>536473.982444963</v>
       </c>
       <c r="C278" t="n">
-        <v>-674580051.3805608</v>
+        <v>7574713.69309461</v>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -30706,13 +30706,13 @@
         <v>3471</v>
       </c>
       <c r="B279" t="n">
-        <v>-202341372.6120132</v>
+        <v>423685.432132809</v>
       </c>
       <c r="C279" t="n">
-        <v>-580323132.2871858</v>
+        <v>7687161.471162235</v>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -30820,13 +30820,13 @@
         <v>3496</v>
       </c>
       <c r="B280" t="n">
-        <v>-367574036.021617</v>
+        <v>407188.563697213</v>
       </c>
       <c r="C280" t="n">
-        <v>-906468408.5661702</v>
+        <v>7232211.868973368</v>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -30926,13 +30926,13 @@
         <v>3498</v>
       </c>
       <c r="B281" t="n">
-        <v>-297378284.8649164</v>
+        <v>592179.8293681573</v>
       </c>
       <c r="C281" t="n">
-        <v>-868465907.4281815</v>
+        <v>7557514.378390969</v>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -31036,13 +31036,13 @@
         <v>3501</v>
       </c>
       <c r="B282" t="n">
-        <v>-208852988.7617818</v>
+        <v>422261.5217426305</v>
       </c>
       <c r="C282" t="n">
-        <v>-593290620.284947</v>
+        <v>7663038.771805145</v>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -31146,13 +31146,13 @@
         <v>3513</v>
       </c>
       <c r="B283" t="n">
-        <v>-381971356.2400653</v>
+        <v>448456.6784799809</v>
       </c>
       <c r="C283" t="n">
-        <v>-878212829.0144981</v>
+        <v>7110452.504985358</v>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -31248,13 +31248,13 @@
         <v>3515</v>
       </c>
       <c r="B284" t="n">
-        <v>-344526802.967841</v>
+        <v>631857.0533890114</v>
       </c>
       <c r="C284" t="n">
-        <v>-862550753.9029788</v>
+        <v>7283917.494095994</v>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -31354,13 +31354,13 @@
         <v>3520</v>
       </c>
       <c r="B285" t="n">
-        <v>-207532652.65417</v>
+        <v>396945.3543508239</v>
       </c>
       <c r="C285" t="n">
-        <v>-587421478.5654039</v>
+        <v>7662115.107010108</v>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -31464,13 +31464,13 @@
         <v>3528</v>
       </c>
       <c r="B286" t="n">
-        <v>-203019532.9924154</v>
+        <v>418954.8794860153</v>
       </c>
       <c r="C286" t="n">
-        <v>-581104459.2561823</v>
+        <v>7683589.967066253</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -31578,13 +31578,13 @@
         <v>3529</v>
       </c>
       <c r="B287" t="n">
-        <v>-299264363.786689</v>
+        <v>375252.1734562993</v>
       </c>
       <c r="C287" t="n">
-        <v>-791835694.9255079</v>
+        <v>7423072.861708234</v>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -31684,13 +31684,13 @@
         <v>3532</v>
       </c>
       <c r="B288" t="n">
-        <v>-212623093.5687821</v>
+        <v>469525.9916222497</v>
       </c>
       <c r="C288" t="n">
-        <v>-638690997.0944257</v>
+        <v>7721458.113833039</v>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -31794,13 +31794,13 @@
         <v>3537</v>
       </c>
       <c r="B289" t="n">
-        <v>-201838985.6114011</v>
+        <v>423745.8728823843</v>
       </c>
       <c r="C289" t="n">
-        <v>-579308520.5732217</v>
+        <v>7689023.73011614</v>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -31908,13 +31908,13 @@
         <v>3547</v>
       </c>
       <c r="B290" t="n">
-        <v>-430740260.5160878</v>
+        <v>557584.5377391976</v>
       </c>
       <c r="C290" t="n">
-        <v>-1087544104.45166</v>
+        <v>7197861.007069235</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -32018,13 +32018,13 @@
         <v>3548</v>
       </c>
       <c r="B291" t="n">
-        <v>-356855074.2095217</v>
+        <v>476158.3928371039</v>
       </c>
       <c r="C291" t="n">
-        <v>-955487051.6354176</v>
+        <v>7362741.281095912</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -32128,13 +32128,13 @@
         <v>3566</v>
       </c>
       <c r="B292" t="n">
-        <v>-210772345.5968922</v>
+        <v>474147.8239659168</v>
       </c>
       <c r="C292" t="n">
-        <v>-635391500.0362926</v>
+        <v>7728844.881894798</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -32238,13 +32238,13 @@
         <v>3575</v>
       </c>
       <c r="B293" t="n">
-        <v>-348642137.832606</v>
+        <v>605771.0600783288</v>
       </c>
       <c r="C293" t="n">
-        <v>-863748382.6445744</v>
+        <v>7262375.208845527</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -32344,13 +32344,13 @@
         <v>3579</v>
       </c>
       <c r="B294" t="n">
-        <v>-211011450.7095164</v>
+        <v>477375.8267273843</v>
       </c>
       <c r="C294" t="n">
-        <v>-636344319.1824957</v>
+        <v>7728801.963574843</v>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -32458,13 +32458,13 @@
         <v>3591</v>
       </c>
       <c r="B295" t="n">
-        <v>-212527378.0346285</v>
+        <v>468229.7057991509</v>
       </c>
       <c r="C295" t="n">
-        <v>-638309603.9032456</v>
+        <v>7721476.048956079</v>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -32572,13 +32572,13 @@
         <v>3603</v>
       </c>
       <c r="B296" t="n">
-        <v>-215038077.7265253</v>
+        <v>506649.514154075</v>
       </c>
       <c r="C296" t="n">
-        <v>-616712020.8367959</v>
+        <v>7661816.138631647</v>
       </c>
       <c r="D296" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -32686,13 +32686,13 @@
         <v>3605</v>
       </c>
       <c r="B297" t="n">
-        <v>-244937306.043061</v>
+        <v>470795.1268979664</v>
       </c>
       <c r="C297" t="n">
-        <v>-669624107.6128137</v>
+        <v>7548590.89659858</v>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -32796,13 +32796,13 @@
         <v>3615</v>
       </c>
       <c r="B298" t="n">
-        <v>-317015945.8020375</v>
+        <v>477445.6716198401</v>
       </c>
       <c r="C298" t="n">
-        <v>-885380664.568108</v>
+        <v>7470693.431428537</v>
       </c>
       <c r="D298" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -32902,13 +32902,13 @@
         <v>3618</v>
       </c>
       <c r="B299" t="n">
-        <v>-271985024.2388977</v>
+        <v>577521.1455246741</v>
       </c>
       <c r="C299" t="n">
-        <v>-734770608.4529843</v>
+        <v>7490124.265542895</v>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -33012,13 +33012,13 @@
         <v>3628</v>
       </c>
       <c r="B300" t="n">
-        <v>-267478429.161704</v>
+        <v>624527.1273352657</v>
       </c>
       <c r="C300" t="n">
-        <v>-733947814.2513078</v>
+        <v>7519822.625141269</v>
       </c>
       <c r="D300" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -33122,13 +33122,13 @@
         <v>3632</v>
       </c>
       <c r="B301" t="n">
-        <v>-231753206.0311945</v>
+        <v>595235.1500441887</v>
       </c>
       <c r="C301" t="n">
-        <v>-696922363.5148736</v>
+        <v>7691537.560022086</v>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -33236,13 +33236,13 @@
         <v>3634</v>
       </c>
       <c r="B302" t="n">
-        <v>-211269124.8866436</v>
+        <v>473481.7904495136</v>
       </c>
       <c r="C302" t="n">
-        <v>-636357852.4013748</v>
+        <v>7726996.488657358</v>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -33342,13 +33342,13 @@
         <v>3635</v>
       </c>
       <c r="B303" t="n">
-        <v>-367247935.4828637</v>
+        <v>440162.4697345542</v>
       </c>
       <c r="C303" t="n">
-        <v>-912307401.6418196</v>
+        <v>7242492.562301719</v>
       </c>
       <c r="D303" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -33444,13 +33444,13 @@
         <v>3645</v>
       </c>
       <c r="B304" t="n">
-        <v>-298611430.9166169</v>
+        <v>491444.5617692083</v>
       </c>
       <c r="C304" t="n">
-        <v>-853235240.7451767</v>
+        <v>7525601.834993306</v>
       </c>
       <c r="D304" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -33550,13 +33550,13 @@
         <v>3646</v>
       </c>
       <c r="B305" t="n">
-        <v>-354292581.9223208</v>
+        <v>466322.8075031813</v>
       </c>
       <c r="C305" t="n">
-        <v>-897804259.6517172</v>
+        <v>7286659.338200314</v>
       </c>
       <c r="D305" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -33660,13 +33660,13 @@
         <v>3664</v>
       </c>
       <c r="B306" t="n">
-        <v>-323276454.2014253</v>
+        <v>580662.2527608926</v>
       </c>
       <c r="C306" t="n">
-        <v>-821039850.9436991</v>
+        <v>7330335.15656391</v>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -33770,17 +33770,17 @@
         <v>3671</v>
       </c>
       <c r="B307" t="n">
-        <v>-465141277.5492185</v>
+        <v>430140.1662652948</v>
       </c>
       <c r="C307" t="n">
-        <v>-1103182939.023267</v>
+        <v>7071799.736310283</v>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -33880,13 +33880,13 @@
         <v>3674</v>
       </c>
       <c r="B308" t="n">
-        <v>-374384750.3678782</v>
+        <v>595836.0046235959</v>
       </c>
       <c r="C308" t="n">
-        <v>-897599047.2550234</v>
+        <v>7182635.888306166</v>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -33986,13 +33986,13 @@
         <v>3675</v>
       </c>
       <c r="B309" t="n">
-        <v>-190164699.3419889</v>
+        <v>406223.4086894563</v>
       </c>
       <c r="C309" t="n">
-        <v>-553106398.8504343</v>
+        <v>7728684.071065478</v>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -34092,13 +34092,13 @@
         <v>3693</v>
       </c>
       <c r="B310" t="n">
-        <v>-278035322.8320662</v>
+        <v>548145.1742883342</v>
       </c>
       <c r="C310" t="n">
-        <v>-740881950.0016016</v>
+        <v>7461518.218053704</v>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -34206,17 +34206,17 @@
         <v>3710</v>
       </c>
       <c r="B311" t="n">
-        <v>-429628130.6507552</v>
+        <v>550490.4399364325</v>
       </c>
       <c r="C311" t="n">
-        <v>-952881386.8660742</v>
+        <v>7005424.539845946</v>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -34312,13 +34312,13 @@
         <v>3713</v>
       </c>
       <c r="B312" t="n">
-        <v>-392109846.9426682</v>
+        <v>500338.8561878777</v>
       </c>
       <c r="C312" t="n">
-        <v>-900783119.7345736</v>
+        <v>7097321.944405719</v>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -34418,13 +34418,13 @@
         <v>3714</v>
       </c>
       <c r="B313" t="n">
-        <v>-213529190.8267274</v>
+        <v>496767.2307211102</v>
       </c>
       <c r="C313" t="n">
-        <v>-644384116.7291934</v>
+        <v>7724997.880738989</v>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -34532,13 +34532,13 @@
         <v>3717</v>
       </c>
       <c r="B314" t="n">
-        <v>-366120493.4895981</v>
+        <v>515724.0816502667</v>
       </c>
       <c r="C314" t="n">
-        <v>-978773760.480652</v>
+        <v>7349690.287048243</v>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -34646,13 +34646,13 @@
         <v>3734</v>
       </c>
       <c r="B315" t="n">
-        <v>-280414789.828356</v>
+        <v>536084.9345789079</v>
       </c>
       <c r="C315" t="n">
-        <v>-743136497.5736518</v>
+        <v>7450199.999797637</v>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -34752,13 +34752,13 @@
         <v>3740</v>
       </c>
       <c r="B316" t="n">
-        <v>-211318072.8085175</v>
+        <v>474126.5207017586</v>
       </c>
       <c r="C316" t="n">
-        <v>-636550610.8449961</v>
+        <v>7726983.574826778</v>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -34862,13 +34862,13 @@
         <v>3745</v>
       </c>
       <c r="B317" t="n">
-        <v>-212528382.7603702</v>
+        <v>468228.3478781576</v>
       </c>
       <c r="C317" t="n">
-        <v>-638311548.7391726</v>
+        <v>7721472.317540442</v>
       </c>
       <c r="D317" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -34976,13 +34976,13 @@
         <v>3747</v>
       </c>
       <c r="B318" t="n">
-        <v>-340102347.8423672</v>
+        <v>619209.6574685272</v>
       </c>
       <c r="C318" t="n">
-        <v>-853632608.4177492</v>
+        <v>7292655.647048389</v>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -35082,13 +35082,13 @@
         <v>3748</v>
       </c>
       <c r="B319" t="n">
-        <v>-401928992.072619</v>
+        <v>387294.1184132992</v>
       </c>
       <c r="C319" t="n">
-        <v>-949550995.3035518</v>
+        <v>7130345.193767805</v>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -35188,13 +35188,13 @@
         <v>3769</v>
       </c>
       <c r="B320" t="n">
-        <v>-398483879.6292061</v>
+        <v>610189.2956984525</v>
       </c>
       <c r="C320" t="n">
-        <v>-931089584.3622772</v>
+        <v>7117549.594812918</v>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -35298,13 +35298,13 @@
         <v>3773</v>
       </c>
       <c r="B321" t="n">
-        <v>-280287179.6679683</v>
+        <v>534637.9670110953</v>
       </c>
       <c r="C321" t="n">
-        <v>-742689133.2207383</v>
+        <v>7450171.375990409</v>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -35404,13 +35404,13 @@
         <v>3798</v>
       </c>
       <c r="B322" t="n">
-        <v>-211272202.8707868</v>
+        <v>473477.6619797593</v>
       </c>
       <c r="C322" t="n">
-        <v>-636363835.8816867</v>
+        <v>7726985.04051703</v>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -35510,13 +35510,13 @@
         <v>3809</v>
       </c>
       <c r="B323" t="n">
-        <v>-212524928.7365282</v>
+        <v>468233.0160988625</v>
       </c>
       <c r="C323" t="n">
-        <v>-638304862.803807</v>
+        <v>7721485.145341474</v>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -35616,17 +35616,17 @@
         <v>3810</v>
       </c>
       <c r="B324" t="n">
-        <v>-410861077.5955507</v>
+        <v>441847.1766623678</v>
       </c>
       <c r="C324" t="n">
-        <v>-909728544.0266548</v>
+        <v>7022482.877182796</v>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -35718,13 +35718,13 @@
         <v>3812</v>
       </c>
       <c r="B325" t="n">
-        <v>-241170769.2363451</v>
+        <v>506545.1725574979</v>
       </c>
       <c r="C325" t="n">
-        <v>-739225262.2929246</v>
+        <v>7697103.112005388</v>
       </c>
       <c r="D325" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -35828,13 +35828,13 @@
         <v>3813</v>
       </c>
       <c r="B326" t="n">
-        <v>-380273405.1091273</v>
+        <v>477776.6903766271</v>
       </c>
       <c r="C326" t="n">
-        <v>-881900683.4231943</v>
+        <v>7124939.592855904</v>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -35930,13 +35930,13 @@
         <v>3814</v>
       </c>
       <c r="B327" t="n">
-        <v>-239556722.0832418</v>
+        <v>433840.2611318767</v>
       </c>
       <c r="C327" t="n">
-        <v>-689185893.1773148</v>
+        <v>7623642.247936273</v>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -36044,13 +36044,13 @@
         <v>3858</v>
       </c>
       <c r="B328" t="n">
-        <v>-347546753.3799741</v>
+        <v>607175.9443529317</v>
       </c>
       <c r="C328" t="n">
-        <v>-862415723.1903673</v>
+        <v>7266139.298558062</v>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -36150,13 +36150,13 @@
         <v>3867</v>
       </c>
       <c r="B329" t="n">
-        <v>-312461291.3411238</v>
+        <v>595781.8793388287</v>
       </c>
       <c r="C329" t="n">
-        <v>-760676104.1741507</v>
+        <v>7284364.541069679</v>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -36256,13 +36256,13 @@
         <v>3887</v>
       </c>
       <c r="B330" t="n">
-        <v>-410532731.718966</v>
+        <v>634070.5490307729</v>
       </c>
       <c r="C330" t="n">
-        <v>-1074751701.442403</v>
+        <v>7274152.291139377</v>
       </c>
       <c r="D330" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -36358,13 +36358,13 @@
         <v>3898</v>
       </c>
       <c r="B331" t="n">
-        <v>-212525976.8409711</v>
+        <v>468231.5995560526</v>
       </c>
       <c r="C331" t="n">
-        <v>-638306891.6203775</v>
+        <v>7721481.252809231</v>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -36472,13 +36472,13 @@
         <v>3901</v>
       </c>
       <c r="B332" t="n">
-        <v>-210984195.7709849</v>
+        <v>469601.9522620729</v>
       </c>
       <c r="C332" t="n">
-        <v>-635218946.5148587</v>
+        <v>7727045.760626076</v>
       </c>
       <c r="D332" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -36586,13 +36586,13 @@
         <v>3903</v>
       </c>
       <c r="B333" t="n">
-        <v>-316315834.6820375</v>
+        <v>553285.5522768319</v>
       </c>
       <c r="C333" t="n">
-        <v>-805395713.757382</v>
+        <v>7342710.572617969</v>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -36692,13 +36692,13 @@
         <v>3917</v>
       </c>
       <c r="B334" t="n">
-        <v>-432143093.9886578</v>
+        <v>556863.9196983232</v>
       </c>
       <c r="C334" t="n">
-        <v>-1089371023.24609</v>
+        <v>7194125.89312395</v>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -36802,17 +36802,17 @@
         <v>3924</v>
       </c>
       <c r="B335" t="n">
-        <v>-410592094.0007481</v>
+        <v>440879.6386329348</v>
       </c>
       <c r="C335" t="n">
-        <v>-909238867.4974437</v>
+        <v>7022959.966624774</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -36904,13 +36904,13 @@
         <v>3926</v>
       </c>
       <c r="B336" t="n">
-        <v>-305918037.154542</v>
+        <v>597180.3812014391</v>
       </c>
       <c r="C336" t="n">
-        <v>-885933162.1308209</v>
+        <v>7535404.340467279</v>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -37014,13 +37014,13 @@
         <v>3935</v>
       </c>
       <c r="B337" t="n">
-        <v>-305616541.0605939</v>
+        <v>566652.1299531633</v>
       </c>
       <c r="C337" t="n">
-        <v>-790474801.3722771</v>
+        <v>7380165.277252884</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -37120,17 +37120,17 @@
         <v>3936</v>
       </c>
       <c r="B338" t="n">
-        <v>-423188812.3319187</v>
+        <v>600802.1384269283</v>
       </c>
       <c r="C338" t="n">
-        <v>-957369779.8722953</v>
+        <v>7042731.324953698</v>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -37222,13 +37222,13 @@
         <v>3939</v>
       </c>
       <c r="B339" t="n">
-        <v>-315181008.009892</v>
+        <v>594619.8056933145</v>
       </c>
       <c r="C339" t="n">
-        <v>-903142951.0009369</v>
+        <v>7509260.719166302</v>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -37332,13 +37332,13 @@
         <v>3944</v>
       </c>
       <c r="B340" t="n">
-        <v>-246476567.9098909</v>
+        <v>568492.3483135108</v>
       </c>
       <c r="C340" t="n">
-        <v>-723068136.0509235</v>
+        <v>7636711.143695793</v>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -37442,13 +37442,13 @@
         <v>3970</v>
       </c>
       <c r="B341" t="n">
-        <v>-242860725.5754376</v>
+        <v>492388.6776254496</v>
       </c>
       <c r="C341" t="n">
-        <v>-668795255.8599548</v>
+        <v>7561451.569846544</v>
       </c>
       <c r="D341" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -37552,13 +37552,13 @@
         <v>3974</v>
       </c>
       <c r="B342" t="n">
-        <v>-211153645.9447188</v>
+        <v>479314.4816502921</v>
       </c>
       <c r="C342" t="n">
-        <v>-636913895.4699285</v>
+        <v>7728783.420534781</v>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -37666,13 +37666,13 @@
         <v>3988</v>
       </c>
       <c r="B343" t="n">
-        <v>-401509422.5931076</v>
+        <v>364584.1180999798</v>
       </c>
       <c r="C343" t="n">
-        <v>-944337391.4056407</v>
+        <v>7125054.807433372</v>
       </c>
       <c r="D343" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -37772,13 +37772,13 @@
         <v>3995</v>
       </c>
       <c r="B344" t="n">
-        <v>-370377716.658278</v>
+        <v>427606.5526463947</v>
       </c>
       <c r="C344" t="n">
-        <v>-859792169.1443771</v>
+        <v>7138742.892185435</v>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -37882,13 +37882,13 @@
         <v>4004</v>
       </c>
       <c r="B345" t="n">
-        <v>-210014297.9040489</v>
+        <v>478704.2625789151</v>
       </c>
       <c r="C345" t="n">
-        <v>-634400200.2006689</v>
+        <v>7732513.500946485</v>
       </c>
       <c r="D345" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -37988,13 +37988,13 @@
         <v>4013</v>
       </c>
       <c r="B346" t="n">
-        <v>-215177398.2722524</v>
+        <v>424238.1791909842</v>
       </c>
       <c r="C346" t="n">
-        <v>-606139782.7299696</v>
+        <v>7640673.229333208</v>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -38094,13 +38094,13 @@
         <v>4021</v>
       </c>
       <c r="B347" t="n">
-        <v>-280660844.3732206</v>
+        <v>431824.2851543549</v>
       </c>
       <c r="C347" t="n">
-        <v>-767702868.255496</v>
+        <v>7493580.878874131</v>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -38208,13 +38208,13 @@
         <v>4025</v>
       </c>
       <c r="B348" t="n">
-        <v>-411764441.177862</v>
+        <v>378012.007627935</v>
       </c>
       <c r="C348" t="n">
-        <v>-959988676.9616613</v>
+        <v>7100390.661775339</v>
       </c>
       <c r="D348" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -38314,13 +38314,13 @@
         <v>4038</v>
       </c>
       <c r="B349" t="n">
-        <v>-375235739.309445</v>
+        <v>467403.1306641684</v>
       </c>
       <c r="C349" t="n">
-        <v>-873580686.6632323</v>
+        <v>7136623.433219549</v>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -38416,13 +38416,13 @@
         <v>4042</v>
       </c>
       <c r="B350" t="n">
-        <v>-288828890.1771163</v>
+        <v>589848.6061334636</v>
       </c>
       <c r="C350" t="n">
-        <v>-766187849.0379461</v>
+        <v>7440296.88806111</v>
       </c>
       <c r="D350" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -38530,13 +38530,13 @@
         <v>4063</v>
       </c>
       <c r="B351" t="n">
-        <v>-212526017.851302</v>
+        <v>468231.5441293783</v>
       </c>
       <c r="C351" t="n">
-        <v>-638306971.0039924</v>
+        <v>7721481.10050198</v>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -38640,17 +38640,17 @@
         <v>4071</v>
       </c>
       <c r="B352" t="n">
-        <v>-503027637.3314456</v>
+        <v>614871.5810412986</v>
       </c>
       <c r="C352" t="n">
-        <v>-1113567619.440665</v>
+        <v>6936498.439705836</v>
       </c>
       <c r="D352" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -38746,13 +38746,13 @@
         <v>4074</v>
       </c>
       <c r="B353" t="n">
-        <v>-330922473.7556771</v>
+        <v>506515.0661952597</v>
       </c>
       <c r="C353" t="n">
-        <v>-915989922.1691622</v>
+        <v>7440670.28902874</v>
       </c>
       <c r="D353" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -38860,13 +38860,13 @@
         <v>4075</v>
       </c>
       <c r="B354" t="n">
-        <v>-212525840.270657</v>
+        <v>468231.7841348444</v>
       </c>
       <c r="C354" t="n">
-        <v>-638306627.2614346</v>
+        <v>7721481.760014401</v>
       </c>
       <c r="D354" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -38966,13 +38966,13 @@
         <v>4087</v>
       </c>
       <c r="B355" t="n">
-        <v>-299464947.928876</v>
+        <v>593081.6099904083</v>
       </c>
       <c r="C355" t="n">
-        <v>-872699306.3604985</v>
+        <v>7551989.810962435</v>
       </c>
       <c r="D355" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -39076,13 +39076,13 @@
         <v>4089</v>
       </c>
       <c r="B356" t="n">
-        <v>-269110127.504075</v>
+        <v>544805.4707583281</v>
       </c>
       <c r="C356" t="n">
-        <v>-724606839.4867104</v>
+        <v>7489352.887856011</v>
       </c>
       <c r="D356" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -39186,13 +39186,13 @@
         <v>4097</v>
       </c>
       <c r="B357" t="n">
-        <v>-327433217.7693061</v>
+        <v>543333.2901219819</v>
       </c>
       <c r="C357" t="n">
-        <v>-820924213.9292307</v>
+        <v>7305356.924756153</v>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -39288,13 +39288,13 @@
         <v>4103</v>
       </c>
       <c r="B358" t="n">
-        <v>-211176252.1994637</v>
+        <v>472185.630283058</v>
       </c>
       <c r="C358" t="n">
-        <v>-635982188.4271644</v>
+        <v>7727004.255449701</v>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -39394,13 +39394,13 @@
         <v>4106</v>
       </c>
       <c r="B359" t="n">
-        <v>-212525089.0450192</v>
+        <v>468232.7994375651</v>
       </c>
       <c r="C359" t="n">
-        <v>-638305173.1134387</v>
+        <v>7721484.549974872</v>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -39508,17 +39508,17 @@
         <v>4110</v>
       </c>
       <c r="B360" t="n">
-        <v>-430216019.963105</v>
+        <v>584144.1409401165</v>
       </c>
       <c r="C360" t="n">
-        <v>-961054358.1359742</v>
+        <v>7016235.028566938</v>
       </c>
       <c r="D360" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -39614,17 +39614,17 @@
         <v>4112</v>
       </c>
       <c r="B361" t="n">
-        <v>-410259857.2134779</v>
+        <v>512422.6048141884</v>
       </c>
       <c r="C361" t="n">
-        <v>-924072905.2250663</v>
+        <v>7048140.472677274</v>
       </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -39724,13 +39724,13 @@
         <v>4117</v>
       </c>
       <c r="B362" t="n">
-        <v>-272501101.9279953</v>
+        <v>544279.3856398063</v>
       </c>
       <c r="C362" t="n">
-        <v>-730552204.2453979</v>
+        <v>7478192.16403609</v>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -39830,13 +39830,13 @@
         <v>4118</v>
       </c>
       <c r="B363" t="n">
-        <v>-216908587.9904094</v>
+        <v>401272.6602057355</v>
       </c>
       <c r="C363" t="n">
-        <v>-670928410.6703349</v>
+        <v>7749369.35282657</v>
       </c>
       <c r="D363" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -39936,13 +39936,13 @@
         <v>4121</v>
       </c>
       <c r="B364" t="n">
-        <v>-320897218.7181669</v>
+        <v>520440.7477622977</v>
       </c>
       <c r="C364" t="n">
-        <v>-806930644.1590751</v>
+        <v>7318134.67402084</v>
       </c>
       <c r="D364" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -40038,17 +40038,17 @@
         <v>4129</v>
       </c>
       <c r="B365" t="n">
-        <v>-416527976.4553583</v>
+        <v>611748.7577600926</v>
       </c>
       <c r="C365" t="n">
-        <v>-952461684.3085891</v>
+        <v>7066033.305850002</v>
       </c>
       <c r="D365" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -40140,13 +40140,13 @@
         <v>4141</v>
       </c>
       <c r="B366" t="n">
-        <v>-321754097.5965146</v>
+        <v>557801.4776523724</v>
       </c>
       <c r="C366" t="n">
-        <v>-908691830.0860935</v>
+        <v>7480293.204214863</v>
       </c>
       <c r="D366" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -40250,17 +40250,17 @@
         <v>4152</v>
       </c>
       <c r="B367" t="n">
-        <v>-503259911.74796</v>
+        <v>616588.246136546</v>
       </c>
       <c r="C367" t="n">
-        <v>-1114233232.053815</v>
+        <v>6936564.350491606</v>
       </c>
       <c r="D367" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -40356,17 +40356,17 @@
         <v>4155</v>
       </c>
       <c r="B368" t="n">
-        <v>-468066428.1653939</v>
+        <v>658051.8477913656</v>
       </c>
       <c r="C368" t="n">
-        <v>-935268071.8883067</v>
+        <v>6818352.73326298</v>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -40466,13 +40466,13 @@
         <v>4170</v>
       </c>
       <c r="B369" t="n">
-        <v>-385843573.6489109</v>
+        <v>466247.0724151699</v>
       </c>
       <c r="C369" t="n">
-        <v>-886422573.0082105</v>
+        <v>7104619.277156412</v>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -40568,13 +40568,13 @@
         <v>4172</v>
       </c>
       <c r="B370" t="n">
-        <v>-384763564.0640523</v>
+        <v>624495.0557153238</v>
       </c>
       <c r="C370" t="n">
-        <v>-916889475.5710731</v>
+        <v>7162708.473214285</v>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -40674,13 +40674,13 @@
         <v>4174</v>
       </c>
       <c r="B371" t="n">
-        <v>-354514106.9942025</v>
+        <v>614073.8469572064</v>
       </c>
       <c r="C371" t="n">
-        <v>-873760349.8746003</v>
+        <v>7247833.18560621</v>
       </c>
       <c r="D371" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -40780,17 +40780,17 @@
         <v>4180</v>
       </c>
       <c r="B372" t="n">
-        <v>-414150399.8586568</v>
+        <v>434640.4758724351</v>
       </c>
       <c r="C372" t="n">
-        <v>-911638783.4200946</v>
+        <v>7010385.512216725</v>
       </c>
       <c r="D372" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -40886,17 +40886,17 @@
         <v>4182</v>
       </c>
       <c r="B373" t="n">
-        <v>-408115570.7108548</v>
+        <v>625683.0128515357</v>
       </c>
       <c r="C373" t="n">
-        <v>-945846974.3292118</v>
+        <v>7095534.445330677</v>
       </c>
       <c r="D373" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -40988,13 +40988,13 @@
         <v>4192</v>
       </c>
       <c r="B374" t="n">
-        <v>-317742132.6971951</v>
+        <v>458231.9915135862</v>
       </c>
       <c r="C374" t="n">
-        <v>-791508817.3091886</v>
+        <v>7309064.138397426</v>
       </c>
       <c r="D374" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -41090,17 +41090,17 @@
         <v>4207</v>
       </c>
       <c r="B375" t="n">
-        <v>-467936739.1051936</v>
+        <v>633557.9051497146</v>
       </c>
       <c r="C375" t="n">
-        <v>-928934086.5971094</v>
+        <v>6808041.547381579</v>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -41196,13 +41196,13 @@
         <v>4211</v>
       </c>
       <c r="B376" t="n">
-        <v>-277720146.745836</v>
+        <v>602827.5162669218</v>
       </c>
       <c r="C376" t="n">
-        <v>-748916906.7718985</v>
+        <v>7479809.266701695</v>
       </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -41306,17 +41306,17 @@
         <v>4221</v>
       </c>
       <c r="B377" t="n">
-        <v>-524128316.6074329</v>
+        <v>640770.2491353486</v>
       </c>
       <c r="C377" t="n">
-        <v>-1138488068.215984</v>
+        <v>6891965.133789618</v>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -41412,13 +41412,13 @@
         <v>4222</v>
       </c>
       <c r="B378" t="n">
-        <v>-403913619.2815433</v>
+        <v>602828.877439747</v>
       </c>
       <c r="C378" t="n">
-        <v>-936034759.2404836</v>
+        <v>7099091.613739255</v>
       </c>
       <c r="D378" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -41518,13 +41518,13 @@
         <v>4226</v>
       </c>
       <c r="B379" t="n">
-        <v>-267580735.4928458</v>
+        <v>523631.9769224614</v>
       </c>
       <c r="C379" t="n">
-        <v>-797179267.077595</v>
+        <v>7622888.38336237</v>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -41628,13 +41628,13 @@
         <v>4231</v>
       </c>
       <c r="B380" t="n">
-        <v>-264231311.5962506</v>
+        <v>573989.239763704</v>
       </c>
       <c r="C380" t="n">
-        <v>-720273402.6056111</v>
+        <v>7514173.561426996</v>
       </c>
       <c r="D380" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -41738,13 +41738,13 @@
         <v>4233</v>
       </c>
       <c r="B381" t="n">
-        <v>-385521231.0471079</v>
+        <v>463403.4612521782</v>
       </c>
       <c r="C381" t="n">
-        <v>-885467949.1331795</v>
+        <v>7104657.383131205</v>
       </c>
       <c r="D381" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -41840,17 +41840,17 @@
         <v>4234</v>
       </c>
       <c r="B382" t="n">
-        <v>-420025308.6863416</v>
+        <v>546947.5983765835</v>
       </c>
       <c r="C382" t="n">
-        <v>-942103729.6838971</v>
+        <v>7031946.271137284</v>
       </c>
       <c r="D382" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -41950,17 +41950,17 @@
         <v>4235</v>
       </c>
       <c r="B383" t="n">
-        <v>-417178670.4309536</v>
+        <v>441646.9674543443</v>
       </c>
       <c r="C383" t="n">
-        <v>-916258901.8789048</v>
+        <v>7003754.99406701</v>
       </c>
       <c r="D383" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -42052,17 +42052,17 @@
         <v>4239</v>
       </c>
       <c r="B384" t="n">
-        <v>-423272888.5355171</v>
+        <v>442599.881798057</v>
       </c>
       <c r="C384" t="n">
-        <v>-922596478.8755221</v>
+        <v>6986103.312604414</v>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -42162,13 +42162,13 @@
         <v>4240</v>
       </c>
       <c r="B385" t="n">
-        <v>-230042135.9668493</v>
+        <v>602798.9402344294</v>
       </c>
       <c r="C385" t="n">
-        <v>-694478422.9327253</v>
+        <v>7699300.900147701</v>
       </c>
       <c r="D385" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -42268,13 +42268,13 @@
         <v>4243</v>
       </c>
       <c r="B386" t="n">
-        <v>-211578705.9997784</v>
+        <v>470222.1764290305</v>
       </c>
       <c r="C386" t="n">
-        <v>-636568649.3920821</v>
+        <v>7725170.141593059</v>
       </c>
       <c r="D386" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -42382,13 +42382,13 @@
         <v>4261</v>
       </c>
       <c r="B387" t="n">
-        <v>-374917184.0395702</v>
+        <v>379114.3666274013</v>
       </c>
       <c r="C387" t="n">
-        <v>-966059679.3144289</v>
+        <v>7289018.50683305</v>
       </c>
       <c r="D387" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -42488,13 +42488,13 @@
         <v>4271</v>
       </c>
       <c r="B388" t="n">
-        <v>-204735215.739788</v>
+        <v>464496.79807815</v>
       </c>
       <c r="C388" t="n">
-        <v>-590385068.8556496</v>
+        <v>7688073.455661357</v>
       </c>
       <c r="D388" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -42602,13 +42602,13 @@
         <v>4273</v>
       </c>
       <c r="B389" t="n">
-        <v>-242156148.8170835</v>
+        <v>551515.0268803398</v>
       </c>
       <c r="C389" t="n">
-        <v>-711760650.1808393</v>
+        <v>7645602.698555612</v>
       </c>
       <c r="D389" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -42708,13 +42708,13 @@
         <v>4276</v>
       </c>
       <c r="B390" t="n">
-        <v>-282839052.2081069</v>
+        <v>422312.8991669953</v>
       </c>
       <c r="C390" t="n">
-        <v>-770177505.4327545</v>
+        <v>7484527.07187648</v>
       </c>
       <c r="D390" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -42822,13 +42822,13 @@
         <v>4277</v>
       </c>
       <c r="B391" t="n">
-        <v>-315914496.790295</v>
+        <v>530828.7909836897</v>
       </c>
       <c r="C391" t="n">
-        <v>-800939301.3302783</v>
+        <v>7336791.160607615</v>
       </c>
       <c r="D391" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -42932,17 +42932,17 @@
         <v>4281</v>
       </c>
       <c r="B392" t="n">
-        <v>-409173706.2583002</v>
+        <v>599066.7091146453</v>
       </c>
       <c r="C392" t="n">
-        <v>-941365464.9144053</v>
+        <v>7082480.406834302</v>
       </c>
       <c r="D392" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -43034,13 +43034,13 @@
         <v>4287</v>
       </c>
       <c r="B393" t="n">
-        <v>-398129430.5202649</v>
+        <v>355604.6832008224</v>
       </c>
       <c r="C393" t="n">
-        <v>-938170174.7088522</v>
+        <v>7131987.534696823</v>
       </c>
       <c r="D393" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -43140,13 +43140,13 @@
         <v>4290</v>
       </c>
       <c r="B394" t="n">
-        <v>-217467380.4437817</v>
+        <v>475910.6500643193</v>
       </c>
       <c r="C394" t="n">
-        <v>-617468035.5945314</v>
+        <v>7645181.564126068</v>
       </c>
       <c r="D394" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -43254,13 +43254,13 @@
         <v>4291</v>
       </c>
       <c r="B395" t="n">
-        <v>-225926415.6073422</v>
+        <v>513142.0870000361</v>
       </c>
       <c r="C395" t="n">
-        <v>-672776505.8499608</v>
+        <v>7687828.591752155</v>
       </c>
       <c r="D395" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -43360,13 +43360,13 @@
         <v>4292</v>
       </c>
       <c r="B396" t="n">
-        <v>-238648913.9788632</v>
+        <v>551283.9227254686</v>
       </c>
       <c r="C396" t="n">
-        <v>-704588217.8929373</v>
+        <v>7656756.977461513</v>
       </c>
       <c r="D396" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -43470,13 +43470,13 @@
         <v>4300</v>
       </c>
       <c r="B397" t="n">
-        <v>-327808084.241874</v>
+        <v>535015.8799348943</v>
       </c>
       <c r="C397" t="n">
-        <v>-820040114.0413966</v>
+        <v>7301529.880894023</v>
       </c>
       <c r="D397" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -43572,17 +43572,17 @@
         <v>4303</v>
       </c>
       <c r="B398" t="n">
-        <v>-406189999.6536127</v>
+        <v>487596.7809547495</v>
       </c>
       <c r="C398" t="n">
-        <v>-914325962.4245098</v>
+        <v>7051544.498469559</v>
       </c>
       <c r="D398" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -43674,13 +43674,13 @@
         <v>4308</v>
       </c>
       <c r="B399" t="n">
-        <v>-210010138.8294606</v>
+        <v>478709.7985257139</v>
       </c>
       <c r="C399" t="n">
-        <v>-634392080.7792859</v>
+        <v>7732528.993246911</v>
       </c>
       <c r="D399" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -43780,13 +43780,13 @@
         <v>4320</v>
       </c>
       <c r="B400" t="n">
-        <v>-235848148.411703</v>
+        <v>545150.6020452383</v>
       </c>
       <c r="C400" t="n">
-        <v>-697944139.2677897</v>
+        <v>7664064.396862672</v>
       </c>
       <c r="D400" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -43890,13 +43890,13 @@
         <v>4322</v>
       </c>
       <c r="B401" t="n">
-        <v>-316636523.6193431</v>
+        <v>380714.3522198959</v>
       </c>
       <c r="C401" t="n">
-        <v>-776896448.4595566</v>
+        <v>7290797.253866739</v>
       </c>
       <c r="D401" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -43996,17 +43996,17 @@
         <v>4323</v>
       </c>
       <c r="B402" t="n">
-        <v>-466847645.8825548</v>
+        <v>657878.4500441813</v>
       </c>
       <c r="C402" t="n">
-        <v>-934515604.5158412</v>
+        <v>6822052.60540196</v>
       </c>
       <c r="D402" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -44106,13 +44106,13 @@
         <v>4326</v>
       </c>
       <c r="B403" t="n">
-        <v>-284607027.9697947</v>
+        <v>408464.4053474793</v>
       </c>
       <c r="C403" t="n">
-        <v>-771190802.5092168</v>
+        <v>7475690.456543647</v>
       </c>
       <c r="D403" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -44212,17 +44212,17 @@
         <v>4328</v>
       </c>
       <c r="B404" t="n">
-        <v>-429838148.7495063</v>
+        <v>500112.5179957505</v>
       </c>
       <c r="C404" t="n">
-        <v>-941803664.1774085</v>
+        <v>6986672.427367837</v>
       </c>
       <c r="D404" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -44318,13 +44318,13 @@
         <v>4333</v>
       </c>
       <c r="B405" t="n">
-        <v>-404964191.3324816</v>
+        <v>564322.7474278632</v>
       </c>
       <c r="C405" t="n">
-        <v>-990625605.4975609</v>
+        <v>7177542.524390649</v>
       </c>
       <c r="D405" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -44428,17 +44428,17 @@
         <v>4341</v>
       </c>
       <c r="B406" t="n">
-        <v>-440292634.1995859</v>
+        <v>584468.4880838995</v>
       </c>
       <c r="C406" t="n">
-        <v>-971237678.8212496</v>
+        <v>6987403.091999692</v>
       </c>
       <c r="D406" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -44534,13 +44534,13 @@
         <v>4344</v>
       </c>
       <c r="B407" t="n">
-        <v>-369873982.1298738</v>
+        <v>410136.5134054052</v>
       </c>
       <c r="C407" t="n">
-        <v>-910363196.5549514</v>
+        <v>7226540.711988273</v>
       </c>
       <c r="D407" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -44636,17 +44636,17 @@
         <v>4346</v>
       </c>
       <c r="B408" t="n">
-        <v>-414016590.4112465</v>
+        <v>375224.4399609766</v>
       </c>
       <c r="C408" t="n">
-        <v>-898840992.511234</v>
+        <v>6991701.996197738</v>
       </c>
       <c r="D408" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -44746,17 +44746,17 @@
         <v>4351</v>
       </c>
       <c r="B409" t="n">
-        <v>-420602947.1166683</v>
+        <v>600369.9466165359</v>
       </c>
       <c r="C409" t="n">
-        <v>-954468461.018258</v>
+        <v>7050007.467257551</v>
       </c>
       <c r="D409" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -44852,17 +44852,17 @@
         <v>4355</v>
       </c>
       <c r="B410" t="n">
-        <v>-425584065.1147386</v>
+        <v>517279.8371440134</v>
       </c>
       <c r="C410" t="n">
-        <v>-941362661.391374</v>
+        <v>7005150.11116361</v>
       </c>
       <c r="D410" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -44958,17 +44958,17 @@
         <v>4357</v>
       </c>
       <c r="B411" t="n">
-        <v>-411367576.8208334</v>
+        <v>413731.1595803261</v>
       </c>
       <c r="C411" t="n">
-        <v>-904304345.1713556</v>
+        <v>7011827.225842772</v>
       </c>
       <c r="D411" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -45068,13 +45068,13 @@
         <v>4366</v>
       </c>
       <c r="B412" t="n">
-        <v>-394946217.4332641</v>
+        <v>590269.0819194709</v>
       </c>
       <c r="C412" t="n">
-        <v>-982249062.631631</v>
+        <v>7213561.459119732</v>
       </c>
       <c r="D412" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -45170,17 +45170,17 @@
         <v>4367</v>
       </c>
       <c r="B413" t="n">
-        <v>-418553262.923937</v>
+        <v>512539.4005779946</v>
       </c>
       <c r="C413" t="n">
-        <v>-933032508.0852363</v>
+        <v>7023955.728620692</v>
       </c>
       <c r="D413" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -45276,13 +45276,13 @@
         <v>4369</v>
       </c>
       <c r="B414" t="n">
-        <v>-431428065.7554299</v>
+        <v>563103.1024953937</v>
       </c>
       <c r="C414" t="n">
-        <v>-1089776161.958059</v>
+        <v>7197965.454050134</v>
       </c>
       <c r="D414" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -45386,13 +45386,13 @@
         <v>4371</v>
       </c>
       <c r="B415" t="n">
-        <v>-434971490.6267573</v>
+        <v>639689.0398348235</v>
       </c>
       <c r="C415" t="n">
-        <v>-1112440052.581771</v>
+        <v>7215463.768320305</v>
       </c>
       <c r="D415" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -45500,13 +45500,13 @@
         <v>4372</v>
       </c>
       <c r="B416" t="n">
-        <v>-240551557.5891828</v>
+        <v>506549.7976078435</v>
       </c>
       <c r="C416" t="n">
-        <v>-737901420.8002195</v>
+        <v>7698989.335356523</v>
       </c>
       <c r="D416" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -45610,13 +45610,13 @@
         <v>4375</v>
       </c>
       <c r="B417" t="n">
-        <v>-247121018.0529791</v>
+        <v>569219.7696447542</v>
       </c>
       <c r="C417" t="n">
-        <v>-724477854.7476091</v>
+        <v>7634884.499456499</v>
       </c>
       <c r="D417" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -45720,17 +45720,17 @@
         <v>4379</v>
       </c>
       <c r="B418" t="n">
-        <v>-411099347.3629776</v>
+        <v>441121.58418685</v>
       </c>
       <c r="C418" t="n">
-        <v>-909826613.7143013</v>
+        <v>7021539.550377885</v>
       </c>
       <c r="D418" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -45822,17 +45822,17 @@
         <v>4382</v>
       </c>
       <c r="B419" t="n">
-        <v>-465354545.16753</v>
+        <v>425971.8300948695</v>
       </c>
       <c r="C419" t="n">
-        <v>-1102441711.068793</v>
+        <v>7070003.731501215</v>
       </c>
       <c r="D419" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -45924,13 +45924,13 @@
         <v>4393</v>
       </c>
       <c r="B420" t="n">
-        <v>-368236144.7026203</v>
+        <v>443248.7595971524</v>
       </c>
       <c r="C420" t="n">
-        <v>-914349864.499463</v>
+        <v>7240605.672822114</v>
       </c>
       <c r="D420" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -46026,17 +46026,17 @@
         <v>4402</v>
       </c>
       <c r="B421" t="n">
-        <v>-410103403.9830593</v>
+        <v>517782.1890324768</v>
       </c>
       <c r="C421" t="n">
-        <v>-925042207.8925475</v>
+        <v>7050466.611220435</v>
       </c>
       <c r="D421" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -46136,13 +46136,13 @@
         <v>4409</v>
       </c>
       <c r="B422" t="n">
-        <v>-239599195.8194441</v>
+        <v>548694.55210677</v>
       </c>
       <c r="C422" t="n">
-        <v>-706140002.5982527</v>
+        <v>7652988.705585316</v>
       </c>
       <c r="D422" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -46242,13 +46242,13 @@
         <v>4412</v>
       </c>
       <c r="B423" t="n">
-        <v>-327162190.750772</v>
+        <v>624692.5937571783</v>
       </c>
       <c r="C423" t="n">
-        <v>-931179567.8368372</v>
+        <v>7486333.199166932</v>
       </c>
       <c r="D423" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -46352,13 +46352,13 @@
         <v>4417</v>
       </c>
       <c r="B424" t="n">
-        <v>-287659635.1648</v>
+        <v>602077.9852198203</v>
       </c>
       <c r="C424" t="n">
-        <v>-851006726.7901503</v>
+        <v>7587678.52155479</v>
       </c>
       <c r="D424" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -46462,13 +46462,13 @@
         <v>4424</v>
       </c>
       <c r="B425" t="n">
-        <v>-226034801.0115843</v>
+        <v>512140.5834046251</v>
       </c>
       <c r="C425" t="n">
-        <v>-639246852.7657652</v>
+        <v>7624649.70359317</v>
       </c>
       <c r="D425" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -46576,17 +46576,17 @@
         <v>4436</v>
       </c>
       <c r="B426" t="n">
-        <v>-429889672.0076925</v>
+        <v>500667.9747586708</v>
       </c>
       <c r="C426" t="n">
-        <v>-941978669.4407628</v>
+        <v>6986718.6537124</v>
       </c>
       <c r="D426" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -46682,13 +46682,13 @@
         <v>4442</v>
       </c>
       <c r="B427" t="n">
-        <v>-258113573.7017075</v>
+        <v>489407.7110025208</v>
       </c>
       <c r="C427" t="n">
-        <v>-696531087.9338839</v>
+        <v>7509423.49144747</v>
       </c>
       <c r="D427" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -46792,17 +46792,17 @@
         <v>4454</v>
       </c>
       <c r="B428" t="n">
-        <v>-420018715.7804009</v>
+        <v>525654.5086416702</v>
       </c>
       <c r="C428" t="n">
-        <v>-937437514.7675442</v>
+        <v>7024325.456073953</v>
       </c>
       <c r="D428" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -46898,13 +46898,13 @@
         <v>4459</v>
       </c>
       <c r="B429" t="n">
-        <v>-373719739.7525775</v>
+        <v>435482.1776847946</v>
       </c>
       <c r="C429" t="n">
-        <v>-865506662.3624378</v>
+        <v>7131109.466860741</v>
       </c>
       <c r="D429" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -47004,17 +47004,17 @@
         <v>4462</v>
       </c>
       <c r="B430" t="n">
-        <v>-432698028.167506</v>
+        <v>567646.3650357889</v>
       </c>
       <c r="C430" t="n">
-        <v>-959855687.5186194</v>
+        <v>7002907.320977867</v>
       </c>
       <c r="D430" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -47110,17 +47110,17 @@
         <v>4464</v>
       </c>
       <c r="B431" t="n">
-        <v>-474010298.4749359</v>
+        <v>429639.5195992685</v>
       </c>
       <c r="C431" t="n">
-        <v>-1113611419.172422</v>
+        <v>7049503.892129757</v>
       </c>
       <c r="D431" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -47216,13 +47216,13 @@
         <v>4467</v>
       </c>
       <c r="B432" t="n">
-        <v>-378128349.1424332</v>
+        <v>469738.8253230295</v>
       </c>
       <c r="C432" t="n">
-        <v>-877659089.9262569</v>
+        <v>7128733.024267912</v>
       </c>
       <c r="D432" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -47322,17 +47322,17 @@
         <v>4468</v>
       </c>
       <c r="B433" t="n">
-        <v>-477674717.0577596</v>
+        <v>496489.501039329</v>
       </c>
       <c r="C433" t="n">
-        <v>-981289234.6116176</v>
+        <v>6846353.038538572</v>
       </c>
       <c r="D433" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -47432,13 +47432,13 @@
         <v>4470</v>
       </c>
       <c r="B434" t="n">
-        <v>-309722452.1204966</v>
+        <v>516459.0122134943</v>
       </c>
       <c r="C434" t="n">
-        <v>-788718926.0705448</v>
+        <v>7351545.496457769</v>
       </c>
       <c r="D434" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -47546,13 +47546,13 @@
         <v>4478</v>
       </c>
       <c r="B435" t="n">
-        <v>-304268697.2007005</v>
+        <v>614929.2644270017</v>
       </c>
       <c r="C435" t="n">
-        <v>-885947479.0765086</v>
+        <v>7545415.52120812</v>
       </c>
       <c r="D435" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -47652,13 +47652,13 @@
         <v>4482</v>
       </c>
       <c r="B436" t="n">
-        <v>-310657797.4292658</v>
+        <v>555750.5100526455</v>
       </c>
       <c r="C436" t="n">
-        <v>-887529513.0055163</v>
+        <v>7510007.848238676</v>
       </c>
       <c r="D436" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -47758,13 +47758,13 @@
         <v>4491</v>
       </c>
       <c r="B437" t="n">
-        <v>-313447351.3933164</v>
+        <v>590968.4419611034</v>
       </c>
       <c r="C437" t="n">
-        <v>-899193584.428324</v>
+        <v>7512871.019820468</v>
       </c>
       <c r="D437" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -47864,17 +47864,17 @@
         <v>4509</v>
       </c>
       <c r="B438" t="n">
-        <v>-406604748.6944869</v>
+        <v>573772.1748837484</v>
       </c>
       <c r="C438" t="n">
-        <v>-933008182.6308115</v>
+        <v>7080616.178552612</v>
       </c>
       <c r="D438" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -47970,13 +47970,13 @@
         <v>4518</v>
       </c>
       <c r="B439" t="n">
-        <v>-404098423.1757075</v>
+        <v>375349.3896473162</v>
       </c>
       <c r="C439" t="n">
-        <v>-949850158.7343475</v>
+        <v>7120894.969687966</v>
       </c>
       <c r="D439" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -48080,13 +48080,13 @@
         <v>4519</v>
       </c>
       <c r="B440" t="n">
-        <v>-401871163.1019269</v>
+        <v>644931.0634927788</v>
       </c>
       <c r="C440" t="n">
-        <v>-942512525.4064056</v>
+        <v>7120860.283606479</v>
       </c>
       <c r="D440" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -48190,17 +48190,17 @@
         <v>4528</v>
       </c>
       <c r="B441" t="n">
-        <v>-413245522.4966094</v>
+        <v>574543.6096545234</v>
       </c>
       <c r="C441" t="n">
-        <v>-940705866.636992</v>
+        <v>7061644.550912102</v>
       </c>
       <c r="D441" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -48296,17 +48296,17 @@
         <v>4533</v>
       </c>
       <c r="B442" t="n">
-        <v>-474828118.6184598</v>
+        <v>424592.8458909257</v>
       </c>
       <c r="C442" t="n">
-        <v>-1113331258.342199</v>
+        <v>7045919.499198525</v>
       </c>
       <c r="D442" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -48402,13 +48402,13 @@
         <v>4537</v>
       </c>
       <c r="B443" t="n">
-        <v>-402285459.7048131</v>
+        <v>607893.1760193126</v>
       </c>
       <c r="C443" t="n">
-        <v>-935174990.1688137</v>
+        <v>7105685.759238168</v>
       </c>
       <c r="D443" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -48508,13 +48508,13 @@
         <v>4545</v>
       </c>
       <c r="B444" t="n">
-        <v>-430481135.043677</v>
+        <v>561488.6278961328</v>
       </c>
       <c r="C444" t="n">
-        <v>-1088061422.001991</v>
+        <v>7199792.7347104</v>
       </c>
       <c r="D444" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -48618,13 +48618,13 @@
         <v>4549</v>
       </c>
       <c r="B445" t="n">
-        <v>-373756119.1147797</v>
+        <v>435898.2852529027</v>
       </c>
       <c r="C445" t="n">
-        <v>-865632326.7907319</v>
+        <v>7131129.233887648</v>
       </c>
       <c r="D445" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -48720,13 +48720,13 @@
         <v>4550</v>
       </c>
       <c r="B446" t="n">
-        <v>-366235012.6470867</v>
+        <v>417799.8573144451</v>
       </c>
       <c r="C446" t="n">
-        <v>-852658658.8762894</v>
+        <v>7148275.055618882</v>
       </c>
       <c r="D446" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -48822,13 +48822,13 @@
         <v>4561</v>
       </c>
       <c r="B447" t="n">
-        <v>-371311514.1598703</v>
+        <v>408023.8218599677</v>
       </c>
       <c r="C447" t="n">
-        <v>-857231316.3146783</v>
+        <v>7129970.656551847</v>
       </c>
       <c r="D447" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -48928,13 +48928,13 @@
         <v>4563</v>
       </c>
       <c r="B448" t="n">
-        <v>-377159582.9507636</v>
+        <v>410763.6990413017</v>
       </c>
       <c r="C448" t="n">
-        <v>-864987381.6769875</v>
+        <v>7113154.736158933</v>
       </c>
       <c r="D448" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -49030,13 +49030,13 @@
         <v>4567</v>
       </c>
       <c r="B449" t="n">
-        <v>-260834736.7754698</v>
+        <v>381100.81798546</v>
       </c>
       <c r="C449" t="n">
-        <v>-760671580.8156686</v>
+        <v>7608876.698084795</v>
       </c>
       <c r="D449" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -49140,13 +49140,13 @@
         <v>4569</v>
       </c>
       <c r="B450" t="n">
-        <v>-194564291.5546249</v>
+        <v>420012.2467840824</v>
       </c>
       <c r="C450" t="n">
-        <v>-563921470.7988387</v>
+        <v>7715167.388727201</v>
       </c>
       <c r="D450" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -49246,13 +49246,13 @@
         <v>4577</v>
       </c>
       <c r="B451" t="n">
-        <v>-427172870.5368069</v>
+        <v>588056.5978272097</v>
       </c>
       <c r="C451" t="n">
-        <v>-1024859075.203449</v>
+        <v>7126138.845717446</v>
       </c>
       <c r="D451" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -49352,13 +49352,13 @@
         <v>4579</v>
       </c>
       <c r="B452" t="n">
-        <v>-309439957.6597515</v>
+        <v>367054.1808696163</v>
       </c>
       <c r="C452" t="n">
-        <v>-763711351.1835034</v>
+        <v>7309990.889277015</v>
       </c>
       <c r="D452" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -49454,13 +49454,13 @@
         <v>4580</v>
       </c>
       <c r="B453" t="n">
-        <v>-366230781.5183125</v>
+        <v>417806.7700335894</v>
       </c>
       <c r="C453" t="n">
-        <v>-852654541.1299171</v>
+        <v>7148289.949363261</v>
       </c>
       <c r="D453" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -49556,17 +49556,17 @@
         <v>4584</v>
       </c>
       <c r="B454" t="n">
-        <v>-404651264.7706209</v>
+        <v>413205.8356894134</v>
       </c>
       <c r="C454" t="n">
-        <v>-897087663.4899029</v>
+        <v>7031626.834054272</v>
       </c>
       <c r="D454" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -49658,17 +49658,17 @@
         <v>4588</v>
       </c>
       <c r="B455" t="n">
-        <v>-414125619.1289129</v>
+        <v>421118.976386758</v>
       </c>
       <c r="C455" t="n">
-        <v>-908726368.0372518</v>
+        <v>7006036.162611009</v>
       </c>
       <c r="D455" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -49764,13 +49764,13 @@
         <v>4607</v>
       </c>
       <c r="B456" t="n">
-        <v>-369664157.5123308</v>
+        <v>409797.6776409381</v>
       </c>
       <c r="C456" t="n">
-        <v>-855501159.030702</v>
+        <v>7135486.387022354</v>
       </c>
       <c r="D456" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -49866,13 +49866,13 @@
         <v>4611</v>
       </c>
       <c r="B457" t="n">
-        <v>-386712352.9352888</v>
+        <v>570014.6494392548</v>
       </c>
       <c r="C457" t="n">
-        <v>-908323088.8609071</v>
+        <v>7137269.178820607</v>
       </c>
       <c r="D457" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         <v>4612</v>
       </c>
       <c r="B458" t="n">
-        <v>-317264988.695706</v>
+        <v>532380.2149975945</v>
       </c>
       <c r="C458" t="n">
-        <v>-803322025.9142455</v>
+        <v>7333105.433837191</v>
       </c>
       <c r="D458" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -50082,13 +50082,13 @@
         <v>4614</v>
       </c>
       <c r="B459" t="n">
-        <v>-374745302.0483235</v>
+        <v>411250.2119662878</v>
       </c>
       <c r="C459" t="n">
-        <v>-862116234.9339008</v>
+        <v>7120579.685835045</v>
       </c>
       <c r="D459" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -50188,13 +50188,13 @@
         <v>4622</v>
       </c>
       <c r="B460" t="n">
-        <v>-353235774.1236615</v>
+        <v>462079.3400601074</v>
       </c>
       <c r="C460" t="n">
-        <v>-946655467.3279743</v>
+        <v>7368472.832525318</v>
       </c>
       <c r="D460" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -50302,17 +50302,17 @@
         <v>4631</v>
       </c>
       <c r="B461" t="n">
-        <v>-405340729.779398</v>
+        <v>540946.1287069325</v>
       </c>
       <c r="C461" t="n">
-        <v>-924608520.1394037</v>
+        <v>7072518.906164646</v>
       </c>
       <c r="D461" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -50408,13 +50408,13 @@
         <v>4634</v>
       </c>
       <c r="B462" t="n">
-        <v>-317014235.2617598</v>
+        <v>548089.4503702362</v>
       </c>
       <c r="C462" t="n">
-        <v>-805608982.5144962</v>
+        <v>7338884.273811376</v>
       </c>
       <c r="D462" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -50514,17 +50514,17 @@
         <v>4635</v>
       </c>
       <c r="B463" t="n">
-        <v>-416381739.6813467</v>
+        <v>513112.8367179758</v>
       </c>
       <c r="C463" t="n">
-        <v>-930853180.6630977</v>
+        <v>7030493.887167912</v>
       </c>
       <c r="D463" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -50616,13 +50616,13 @@
         <v>4639</v>
       </c>
       <c r="B464" t="n">
-        <v>-391453505.471073</v>
+        <v>499185.1813066589</v>
       </c>
       <c r="C464" t="n">
-        <v>-899767432.7784271</v>
+        <v>7098871.253468935</v>
       </c>
       <c r="D464" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -50722,13 +50722,13 @@
         <v>4651</v>
       </c>
       <c r="B465" t="n">
-        <v>-217410478.8679969</v>
+        <v>620991.8827321788</v>
       </c>
       <c r="C465" t="n">
-        <v>-604493132.4709891</v>
+        <v>7621992.967163532</v>
       </c>
       <c r="D465" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -50824,13 +50824,13 @@
         <v>4655</v>
       </c>
       <c r="B466" t="n">
-        <v>-290871320.3038483</v>
+        <v>472780.8966733976</v>
       </c>
       <c r="C466" t="n">
-        <v>-750930279.0953648</v>
+        <v>7398071.270269409</v>
       </c>
       <c r="D466" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -50934,13 +50934,13 @@
         <v>4659</v>
       </c>
       <c r="B467" t="n">
-        <v>-309108272.5785383</v>
+        <v>522411.9335002928</v>
       </c>
       <c r="C467" t="n">
-        <v>-788731560.9577512</v>
+        <v>7355298.379036085</v>
       </c>
       <c r="D467" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -11894,7 +11894,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -12762,7 +12762,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -13100,7 +13100,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -13210,7 +13210,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -13320,7 +13320,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -13650,7 +13650,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -13984,7 +13984,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -14090,7 +14090,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -14192,7 +14192,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -14738,7 +14738,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -14848,7 +14848,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -15056,7 +15056,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -15170,7 +15170,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -15276,7 +15276,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -16258,7 +16258,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -16364,7 +16364,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -16470,7 +16470,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -16576,7 +16576,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -16682,7 +16682,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -17134,7 +17134,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -17240,7 +17240,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -17350,7 +17350,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -17574,7 +17574,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -18006,7 +18006,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -18344,7 +18344,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -18772,7 +18772,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -18988,7 +18988,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -19102,7 +19102,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -19318,7 +19318,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -19542,7 +19542,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -19868,7 +19868,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -19978,7 +19978,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -20088,7 +20088,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -20194,7 +20194,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -20304,7 +20304,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -20630,7 +20630,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -20740,7 +20740,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -20854,7 +20854,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -21074,7 +21074,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -21514,7 +21514,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -21624,7 +21624,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -21844,7 +21844,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -21946,7 +21946,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -22276,7 +22276,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -22386,7 +22386,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -22598,7 +22598,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -22810,7 +22810,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -22916,7 +22916,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -23022,7 +23022,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -23132,7 +23132,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -23238,7 +23238,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -23348,7 +23348,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -23454,7 +23454,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -23780,7 +23780,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -23890,7 +23890,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -24000,7 +24000,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -24110,7 +24110,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -24338,7 +24338,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -24452,7 +24452,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -24562,7 +24562,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -24668,7 +24668,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -24778,7 +24778,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -24880,7 +24880,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -25096,7 +25096,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -25308,7 +25308,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -25414,7 +25414,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -25524,7 +25524,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -25626,7 +25626,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -25732,7 +25732,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -25842,7 +25842,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -25952,7 +25952,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -26054,7 +26054,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -26164,7 +26164,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -26270,7 +26270,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -26380,7 +26380,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -26592,7 +26592,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -26804,7 +26804,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -26918,7 +26918,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -27024,7 +27024,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -27134,7 +27134,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -27248,7 +27248,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -27358,7 +27358,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -27468,7 +27468,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -27578,7 +27578,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -27688,7 +27688,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -27794,7 +27794,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -27900,7 +27900,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -28006,7 +28006,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -28112,7 +28112,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -28218,7 +28218,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -28328,7 +28328,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -28552,7 +28552,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -28878,7 +28878,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -28984,7 +28984,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -29098,7 +29098,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -29208,7 +29208,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -29310,7 +29310,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -29416,7 +29416,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -29522,7 +29522,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -29632,7 +29632,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -29738,7 +29738,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -30174,7 +30174,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -30280,7 +30280,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -30390,7 +30390,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -30500,7 +30500,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -30610,7 +30610,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -30716,7 +30716,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -30830,7 +30830,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -30936,7 +30936,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -31156,7 +31156,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -31258,7 +31258,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -31364,7 +31364,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -31474,7 +31474,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -31588,7 +31588,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -31694,7 +31694,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -31804,7 +31804,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -31918,7 +31918,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -32028,7 +32028,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -32138,7 +32138,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -32248,7 +32248,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -32354,7 +32354,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -32468,7 +32468,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -32582,7 +32582,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -32696,7 +32696,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -32806,7 +32806,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -33022,7 +33022,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -33132,7 +33132,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -33246,7 +33246,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -33352,7 +33352,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -33454,7 +33454,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -33560,7 +33560,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -33670,7 +33670,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -33780,7 +33780,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -33890,7 +33890,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -33996,7 +33996,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -34102,7 +34102,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -34216,7 +34216,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -34322,7 +34322,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -34428,7 +34428,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -34542,7 +34542,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -34656,7 +34656,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -34762,7 +34762,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -34872,7 +34872,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -34986,7 +34986,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -35092,7 +35092,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -35198,7 +35198,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -35308,7 +35308,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -35414,7 +35414,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -35520,7 +35520,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -35626,7 +35626,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -35728,7 +35728,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -35838,7 +35838,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -35940,7 +35940,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -36054,7 +36054,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -36160,7 +36160,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -36266,7 +36266,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -36368,7 +36368,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -36482,7 +36482,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -36596,7 +36596,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -36702,7 +36702,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -36812,7 +36812,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -36914,7 +36914,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -37024,7 +37024,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -37130,7 +37130,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -37232,7 +37232,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -37342,7 +37342,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -37452,7 +37452,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -37562,7 +37562,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -37676,7 +37676,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -37782,7 +37782,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -37892,7 +37892,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -37998,7 +37998,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -38104,7 +38104,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -38218,7 +38218,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -38324,7 +38324,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -38426,7 +38426,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -38540,7 +38540,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -38650,7 +38650,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -38756,7 +38756,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -38870,7 +38870,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -38976,7 +38976,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -39086,7 +39086,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -39196,7 +39196,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -39298,7 +39298,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -39404,7 +39404,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -39518,7 +39518,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -39624,7 +39624,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -39734,7 +39734,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -39840,7 +39840,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -39946,7 +39946,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -40048,7 +40048,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -40150,7 +40150,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -40260,7 +40260,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -40366,7 +40366,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -40476,7 +40476,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -40578,7 +40578,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -40684,7 +40684,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -40790,7 +40790,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -40896,7 +40896,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -40998,7 +40998,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -41100,7 +41100,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -41206,7 +41206,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -41316,7 +41316,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -41422,7 +41422,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -41528,7 +41528,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -41638,7 +41638,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -41748,7 +41748,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -41850,7 +41850,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -41960,7 +41960,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -42062,7 +42062,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -42172,7 +42172,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -42278,7 +42278,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -42392,7 +42392,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -42498,7 +42498,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -42612,7 +42612,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -42718,7 +42718,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -42832,7 +42832,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -42942,7 +42942,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -43044,7 +43044,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -43150,7 +43150,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -43264,7 +43264,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -43370,7 +43370,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -43480,7 +43480,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -43582,7 +43582,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -43684,7 +43684,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -43790,7 +43790,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -43900,7 +43900,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -44006,7 +44006,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -44116,7 +44116,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -44222,7 +44222,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -44328,7 +44328,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -44438,7 +44438,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -44544,7 +44544,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -44646,7 +44646,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -44756,7 +44756,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -44862,7 +44862,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -44968,7 +44968,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -45078,7 +45078,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -45180,7 +45180,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -45286,7 +45286,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -45396,7 +45396,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -45510,7 +45510,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -45620,7 +45620,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -45730,7 +45730,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -45832,7 +45832,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -45934,7 +45934,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -46036,7 +46036,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -46146,7 +46146,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -46252,7 +46252,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -46362,7 +46362,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -46472,7 +46472,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -46586,7 +46586,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -46692,7 +46692,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -46802,7 +46802,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -46908,7 +46908,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -47014,7 +47014,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -47120,7 +47120,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -47226,7 +47226,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -47332,7 +47332,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -47442,7 +47442,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -47556,7 +47556,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -47662,7 +47662,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -47768,7 +47768,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -47874,7 +47874,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -47980,7 +47980,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -48090,7 +48090,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -48200,7 +48200,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -48306,7 +48306,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -48412,7 +48412,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -48518,7 +48518,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -48628,7 +48628,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -48730,7 +48730,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -48832,7 +48832,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -48938,7 +48938,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -49040,7 +49040,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -49150,7 +49150,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -49256,7 +49256,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -49362,7 +49362,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -49464,7 +49464,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -49566,7 +49566,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -49668,7 +49668,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -49774,7 +49774,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -49876,7 +49876,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -49982,7 +49982,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -50092,7 +50092,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -50198,7 +50198,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -50312,7 +50312,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -50418,7 +50418,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -50524,7 +50524,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -50626,7 +50626,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -50732,7 +50732,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -50834,7 +50834,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -50944,7 +50944,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -528,13 +528,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1641085.363097306</v>
+        <v>716545.3069265599</v>
       </c>
       <c r="C2" t="n">
-        <v>7925964.410267092</v>
+        <v>7654589.650507458</v>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -642,13 +642,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>2402729.837106247</v>
+        <v>1317109.434335054</v>
       </c>
       <c r="C3" t="n">
-        <v>7698021.282765402</v>
+        <v>7163467.76034487</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -748,13 +748,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>2437378.902315104</v>
+        <v>1291318.869783413</v>
       </c>
       <c r="C4" t="n">
-        <v>7544472.611243027</v>
+        <v>7013925.435213597</v>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="n">
-        <v>2151206.862513406</v>
+        <v>1257901.619600638</v>
       </c>
       <c r="C5" t="n">
-        <v>8137300.723031249</v>
+        <v>7650809.978011907</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>62</v>
       </c>
       <c r="B6" t="n">
-        <v>2273627.871748169</v>
+        <v>1365606.063928074</v>
       </c>
       <c r="C6" t="n">
-        <v>8131891.223843045</v>
+        <v>7599094.647634769</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1070,13 +1070,13 @@
         <v>72</v>
       </c>
       <c r="B7" t="n">
-        <v>2057082.77459206</v>
+        <v>1069869.444811051</v>
       </c>
       <c r="C7" t="n">
-        <v>7865221.495164424</v>
+        <v>7442350.681928407</v>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1176,13 +1176,13 @@
         <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>2139105.324625254</v>
+        <v>1209081.86383385</v>
       </c>
       <c r="C8" t="n">
-        <v>8038030.844473839</v>
+        <v>7566463.230602886</v>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1282,13 +1282,13 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>2396688.520398211</v>
+        <v>1307277.207413263</v>
       </c>
       <c r="C9" t="n">
-        <v>7686056.922360259</v>
+        <v>7155049.473832305</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1392,13 +1392,13 @@
         <v>107</v>
       </c>
       <c r="B10" t="n">
-        <v>1822362.436133265</v>
+        <v>976243.837006319</v>
       </c>
       <c r="C10" t="n">
-        <v>8175486.577195281</v>
+        <v>7811336.278019895</v>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1502,13 +1502,13 @@
         <v>115</v>
       </c>
       <c r="B11" t="n">
-        <v>1847244.984155452</v>
+        <v>992954.9348838349</v>
       </c>
       <c r="C11" t="n">
-        <v>8160449.891435815</v>
+        <v>7788195.094970963</v>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1612,13 +1612,13 @@
         <v>130</v>
       </c>
       <c r="B12" t="n">
-        <v>1849518.749481422</v>
+        <v>613207.7691637869</v>
       </c>
       <c r="C12" t="n">
-        <v>7134073.816852202</v>
+        <v>6857478.69049342</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1722,13 +1722,13 @@
         <v>156</v>
       </c>
       <c r="B13" t="n">
-        <v>2155851.060932347</v>
+        <v>1265526.457405787</v>
       </c>
       <c r="C13" t="n">
-        <v>8146303.603746837</v>
+        <v>7657095.969186667</v>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1836,13 +1836,13 @@
         <v>187</v>
       </c>
       <c r="B14" t="n">
-        <v>1982295.26273081</v>
+        <v>1153453.643495219</v>
       </c>
       <c r="C14" t="n">
-        <v>8260679.930354149</v>
+        <v>7826518.910732556</v>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1950,13 +1950,13 @@
         <v>231</v>
       </c>
       <c r="B15" t="n">
-        <v>1825563.167884697</v>
+        <v>979995.7358453544</v>
       </c>
       <c r="C15" t="n">
-        <v>8177716.895563863</v>
+        <v>7812120.042808705</v>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2056,13 +2056,13 @@
         <v>266</v>
       </c>
       <c r="B16" t="n">
-        <v>1849932.539595473</v>
+        <v>996115.4200828257</v>
       </c>
       <c r="C16" t="n">
-        <v>8162353.849422989</v>
+        <v>7788881.611347905</v>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2162,13 +2162,13 @@
         <v>273</v>
       </c>
       <c r="B17" t="n">
-        <v>2022143.213775337</v>
+        <v>1184846.687168772</v>
       </c>
       <c r="C17" t="n">
-        <v>8249021.143775797</v>
+        <v>7800661.652034893</v>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2276,13 +2276,13 @@
         <v>323</v>
       </c>
       <c r="B18" t="n">
-        <v>1857386.206269508</v>
+        <v>718595.4453576277</v>
       </c>
       <c r="C18" t="n">
-        <v>7405143.647461669</v>
+        <v>7100953.376766212</v>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2386,13 +2386,13 @@
         <v>331</v>
       </c>
       <c r="B19" t="n">
-        <v>2045386.529553918</v>
+        <v>817906.3644586715</v>
       </c>
       <c r="C19" t="n">
-        <v>7209366.94918176</v>
+        <v>6855471.294381556</v>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2496,13 +2496,13 @@
         <v>338</v>
       </c>
       <c r="B20" t="n">
-        <v>2177623.058308703</v>
+        <v>1289343.99919946</v>
       </c>
       <c r="C20" t="n">
-        <v>8157431.168539671</v>
+        <v>7658714.591242018</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2602,13 +2602,13 @@
         <v>352</v>
       </c>
       <c r="B21" t="n">
-        <v>1838599.649958549</v>
+        <v>984604.5458906151</v>
       </c>
       <c r="C21" t="n">
-        <v>8159053.598878857</v>
+        <v>7790255.022108324</v>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2712,13 +2712,13 @@
         <v>361</v>
       </c>
       <c r="B22" t="n">
-        <v>1968972.816425802</v>
+        <v>1099911.427408059</v>
       </c>
       <c r="C22" t="n">
-        <v>8152859.373672574</v>
+        <v>7734628.197918099</v>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2818,13 +2818,13 @@
         <v>368</v>
       </c>
       <c r="B23" t="n">
-        <v>1688295.120146236</v>
+        <v>605006.4034488304</v>
       </c>
       <c r="C23" t="n">
-        <v>7514233.008605688</v>
+        <v>7262366.437419397</v>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2928,13 +2928,13 @@
         <v>371</v>
       </c>
       <c r="B24" t="n">
-        <v>1968499.615068142</v>
+        <v>1098424.835945983</v>
       </c>
       <c r="C24" t="n">
-        <v>8150098.240479514</v>
+        <v>7732324.276248082</v>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         <v>372</v>
       </c>
       <c r="B25" t="n">
-        <v>1827747.396983195</v>
+        <v>980759.3883899424</v>
       </c>
       <c r="C25" t="n">
-        <v>8174568.735453034</v>
+        <v>7808436.827824852</v>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3148,13 +3148,13 @@
         <v>377</v>
       </c>
       <c r="B26" t="n">
-        <v>2153564.196474707</v>
+        <v>1263012.575800503</v>
       </c>
       <c r="C26" t="n">
-        <v>8145103.889136414</v>
+        <v>7656897.570337172</v>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3258,13 +3258,13 @@
         <v>392</v>
       </c>
       <c r="B27" t="n">
-        <v>2236352.064321263</v>
+        <v>1157744.635303447</v>
       </c>
       <c r="C27" t="n">
-        <v>7669519.777443585</v>
+        <v>7199727.021158991</v>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3364,13 +3364,13 @@
         <v>427</v>
       </c>
       <c r="B28" t="n">
-        <v>2419334.505610837</v>
+        <v>1447881.949587269</v>
       </c>
       <c r="C28" t="n">
-        <v>8006425.230350167</v>
+        <v>7431729.165202651</v>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3466,13 +3466,13 @@
         <v>429</v>
       </c>
       <c r="B29" t="n">
-        <v>1986254.294287082</v>
+        <v>771419.7362182932</v>
       </c>
       <c r="C29" t="n">
-        <v>7228877.093705044</v>
+        <v>6894388.496487468</v>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3572,13 +3572,13 @@
         <v>446</v>
       </c>
       <c r="B30" t="n">
-        <v>1831585.152761088</v>
+        <v>978162.385763769</v>
       </c>
       <c r="C30" t="n">
-        <v>8158790.007637721</v>
+        <v>7792711.278856824</v>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3678,13 +3678,13 @@
         <v>453</v>
       </c>
       <c r="B31" t="n">
-        <v>1863992.973382225</v>
+        <v>987687.8038031845</v>
       </c>
       <c r="C31" t="n">
-        <v>8107276.994042166</v>
+        <v>7733771.065505034</v>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3788,13 +3788,13 @@
         <v>503</v>
       </c>
       <c r="B32" t="n">
-        <v>2179570.44414209</v>
+        <v>1301574.429829562</v>
       </c>
       <c r="C32" t="n">
-        <v>8184690.342885277</v>
+        <v>7682368.409099434</v>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3898,13 +3898,13 @@
         <v>537</v>
       </c>
       <c r="B33" t="n">
-        <v>2022342.966356032</v>
+        <v>1184117.962264954</v>
       </c>
       <c r="C33" t="n">
-        <v>8246668.656675782</v>
+        <v>7798470.613414782</v>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4012,13 +4012,13 @@
         <v>538</v>
       </c>
       <c r="B34" t="n">
-        <v>1664743.438076374</v>
+        <v>765000.9327314259</v>
       </c>
       <c r="C34" t="n">
-        <v>7996787.176433153</v>
+        <v>7709895.433042902</v>
       </c>
       <c r="D34" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4122,13 +4122,13 @@
         <v>539</v>
       </c>
       <c r="B35" t="n">
-        <v>1827716.432405845</v>
+        <v>981631.5596356103</v>
       </c>
       <c r="C35" t="n">
-        <v>8176908.773430345</v>
+        <v>7810562.171573332</v>
       </c>
       <c r="D35" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4232,13 +4232,13 @@
         <v>562</v>
       </c>
       <c r="B36" t="n">
-        <v>1838605.288275051</v>
+        <v>984601.9975371652</v>
       </c>
       <c r="C36" t="n">
-        <v>8159033.705182851</v>
+        <v>7790234.892417417</v>
       </c>
       <c r="D36" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4342,13 +4342,13 @@
         <v>573</v>
       </c>
       <c r="B37" t="n">
-        <v>1849936.73631738</v>
+        <v>996113.6128297481</v>
       </c>
       <c r="C37" t="n">
-        <v>8162339.279340811</v>
+        <v>7788866.846235733</v>
       </c>
       <c r="D37" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4452,13 +4452,13 @@
         <v>582</v>
       </c>
       <c r="B38" t="n">
-        <v>1808451.462216801</v>
+        <v>940623.1732359559</v>
       </c>
       <c r="C38" t="n">
-        <v>8115493.171251674</v>
+        <v>7762468.58874333</v>
       </c>
       <c r="D38" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4562,13 +4562,13 @@
         <v>586</v>
       </c>
       <c r="B39" t="n">
-        <v>2186508.369459939</v>
+        <v>1215671.591087865</v>
       </c>
       <c r="C39" t="n">
-        <v>7943340.5390868</v>
+        <v>7463628.186775266</v>
       </c>
       <c r="D39" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4672,13 +4672,13 @@
         <v>599</v>
       </c>
       <c r="B40" t="n">
-        <v>1825049.036973507</v>
+        <v>978502.4323821636</v>
       </c>
       <c r="C40" t="n">
-        <v>8175043.446214229</v>
+        <v>7809903.037452126</v>
       </c>
       <c r="D40" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4782,13 +4782,13 @@
         <v>624</v>
       </c>
       <c r="B41" t="n">
-        <v>2324044.76594247</v>
+        <v>1395369.291707831</v>
       </c>
       <c r="C41" t="n">
-        <v>8091824.772876629</v>
+        <v>7544065.702328905</v>
       </c>
       <c r="D41" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4888,13 +4888,13 @@
         <v>647</v>
       </c>
       <c r="B42" t="n">
-        <v>1982374.270153945</v>
+        <v>826350.3057048488</v>
       </c>
       <c r="C42" t="n">
-        <v>7390128.788978185</v>
+        <v>7041694.674429433</v>
       </c>
       <c r="D42" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4998,13 +4998,13 @@
         <v>648</v>
       </c>
       <c r="B43" t="n">
-        <v>1868071.601805134</v>
+        <v>619632.1958069949</v>
       </c>
       <c r="C43" t="n">
-        <v>7104876.993944513</v>
+        <v>6824263.560986303</v>
       </c>
       <c r="D43" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -5108,13 +5108,13 @@
         <v>650</v>
       </c>
       <c r="B44" t="n">
-        <v>2153601.821111365</v>
+        <v>1263158.771712763</v>
       </c>
       <c r="C44" t="n">
-        <v>8145396.761934734</v>
+        <v>7657145.518444227</v>
       </c>
       <c r="D44" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         <v>664</v>
       </c>
       <c r="B45" t="n">
-        <v>2019089.495770214</v>
+        <v>1178231.506268718</v>
       </c>
       <c r="C45" t="n">
-        <v>8239011.185887842</v>
+        <v>7792843.475297939</v>
       </c>
       <c r="D45" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5336,13 +5336,13 @@
         <v>687</v>
       </c>
       <c r="B46" t="n">
-        <v>1968446.143842587</v>
+        <v>1139466.388212251</v>
       </c>
       <c r="C46" t="n">
-        <v>8256786.873743217</v>
+        <v>7828361.872455263</v>
       </c>
       <c r="D46" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5446,13 +5446,13 @@
         <v>711</v>
       </c>
       <c r="B47" t="n">
-        <v>2179595.613876158</v>
+        <v>1289815.635090805</v>
       </c>
       <c r="C47" t="n">
-        <v>8154050.576463301</v>
+        <v>7654931.959355357</v>
       </c>
       <c r="D47" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5552,13 +5552,13 @@
         <v>712</v>
       </c>
       <c r="B48" t="n">
-        <v>2423040.575395302</v>
+        <v>1277353.564574054</v>
       </c>
       <c r="C48" t="n">
-        <v>7541251.772015903</v>
+        <v>7016313.405409556</v>
       </c>
       <c r="D48" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5662,13 +5662,13 @@
         <v>760</v>
       </c>
       <c r="B49" t="n">
-        <v>2050676.596479598</v>
+        <v>926769.1618215935</v>
       </c>
       <c r="C49" t="n">
-        <v>7495990.089922069</v>
+        <v>7112289.289315744</v>
       </c>
       <c r="D49" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5764,13 +5764,13 @@
         <v>774</v>
       </c>
       <c r="B50" t="n">
-        <v>2449966.479992907</v>
+        <v>1296199.209881424</v>
       </c>
       <c r="C50" t="n">
-        <v>7527183.892904207</v>
+        <v>6993920.367529894</v>
       </c>
       <c r="D50" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5874,13 +5874,13 @@
         <v>782</v>
       </c>
       <c r="B51" t="n">
-        <v>2020605.950043656</v>
+        <v>1182954.423963473</v>
       </c>
       <c r="C51" t="n">
-        <v>8247706.118910359</v>
+        <v>7800072.818773687</v>
       </c>
       <c r="D51" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5988,13 +5988,13 @@
         <v>797</v>
       </c>
       <c r="B52" t="n">
-        <v>2036706.640755117</v>
+        <v>933972.8689864292</v>
       </c>
       <c r="C52" t="n">
-        <v>7549830.989027231</v>
+        <v>7165969.772624996</v>
       </c>
       <c r="D52" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6094,13 +6094,13 @@
         <v>800</v>
       </c>
       <c r="B53" t="n">
-        <v>1930220.762258073</v>
+        <v>969399.4100434722</v>
       </c>
       <c r="C53" t="n">
-        <v>7902050.812875982</v>
+        <v>7523377.41203678</v>
       </c>
       <c r="D53" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6208,13 +6208,13 @@
         <v>806</v>
       </c>
       <c r="B54" t="n">
-        <v>1901766.657554942</v>
+        <v>943653.5888887567</v>
       </c>
       <c r="C54" t="n">
-        <v>7901925.201730902</v>
+        <v>7534018.995320976</v>
       </c>
       <c r="D54" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6322,13 +6322,13 @@
         <v>808</v>
       </c>
       <c r="B55" t="n">
-        <v>2392664.993576393</v>
+        <v>1306174.23881721</v>
       </c>
       <c r="C55" t="n">
-        <v>7692756.767638367</v>
+        <v>7162512.046347829</v>
       </c>
       <c r="D55" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6428,13 +6428,13 @@
         <v>811</v>
       </c>
       <c r="B56" t="n">
-        <v>1869469.373521126</v>
+        <v>961583.1122829969</v>
       </c>
       <c r="C56" t="n">
-        <v>8026011.540405631</v>
+        <v>7658312.715738625</v>
       </c>
       <c r="D56" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         <v>821</v>
       </c>
       <c r="B57" t="n">
-        <v>1558305.191921032</v>
+        <v>659791.6919986999</v>
       </c>
       <c r="C57" t="n">
-        <v>7974634.682463849</v>
+        <v>7730369.296077661</v>
       </c>
       <c r="D57" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6644,13 +6644,13 @@
         <v>831</v>
       </c>
       <c r="B58" t="n">
-        <v>1968902.101406626</v>
+        <v>1100747.207668099</v>
       </c>
       <c r="C58" t="n">
-        <v>8155202.10041103</v>
+        <v>7736764.095026573</v>
       </c>
       <c r="D58" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6758,13 +6758,13 @@
         <v>833</v>
       </c>
       <c r="B59" t="n">
-        <v>1832066.518973346</v>
+        <v>983172.1199407734</v>
       </c>
       <c r="C59" t="n">
-        <v>8170689.741866078</v>
+        <v>7803273.24599669</v>
       </c>
       <c r="D59" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -6872,13 +6872,13 @@
         <v>838</v>
       </c>
       <c r="B60" t="n">
-        <v>2014474.346205464</v>
+        <v>1163086.230637999</v>
       </c>
       <c r="C60" t="n">
-        <v>8210517.633315588</v>
+        <v>7769010.616870533</v>
       </c>
       <c r="D60" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -6982,13 +6982,13 @@
         <v>840</v>
       </c>
       <c r="B61" t="n">
-        <v>1776566.481184196</v>
+        <v>877210.4665742893</v>
       </c>
       <c r="C61" t="n">
-        <v>8025141.892328169</v>
+        <v>7692943.6989805</v>
       </c>
       <c r="D61" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7096,13 +7096,13 @@
         <v>852</v>
       </c>
       <c r="B62" t="n">
-        <v>1979204.517693233</v>
+        <v>838278.3538878042</v>
       </c>
       <c r="C62" t="n">
-        <v>7430638.626823419</v>
+        <v>7079476.659341978</v>
       </c>
       <c r="D62" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7202,13 +7202,13 @@
         <v>866</v>
       </c>
       <c r="B63" t="n">
-        <v>2416118.610160838</v>
+        <v>1276363.705185957</v>
       </c>
       <c r="C63" t="n">
-        <v>7555375.163583635</v>
+        <v>7031436.477282028</v>
       </c>
       <c r="D63" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7308,13 +7308,13 @@
         <v>867</v>
       </c>
       <c r="B64" t="n">
-        <v>1842243.618694592</v>
+        <v>994233.0387874746</v>
       </c>
       <c r="C64" t="n">
-        <v>8175530.840364268</v>
+        <v>7803732.505514419</v>
       </c>
       <c r="D64" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7422,13 +7422,13 @@
         <v>891</v>
       </c>
       <c r="B65" t="n">
-        <v>1968897.268336816</v>
+        <v>1100748.686225923</v>
       </c>
       <c r="C65" t="n">
-        <v>8155217.297002388</v>
+        <v>7736779.62819042</v>
       </c>
       <c r="D65" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7528,13 +7528,13 @@
         <v>909</v>
       </c>
       <c r="B66" t="n">
-        <v>2415659.26572754</v>
+        <v>1407593.56543087</v>
       </c>
       <c r="C66" t="n">
-        <v>7908803.45968125</v>
+        <v>7346281.374202767</v>
       </c>
       <c r="D66" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7638,13 +7638,13 @@
         <v>916</v>
       </c>
       <c r="B67" t="n">
-        <v>2043060.130356058</v>
+        <v>904787.1745641358</v>
       </c>
       <c r="C67" t="n">
-        <v>7454764.275434798</v>
+        <v>7077901.709296967</v>
       </c>
       <c r="D67" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7740,13 +7740,13 @@
         <v>918</v>
       </c>
       <c r="B68" t="n">
-        <v>2178710.954313893</v>
+        <v>1290684.901944543</v>
       </c>
       <c r="C68" t="n">
-        <v>8158380.006095069</v>
+        <v>7659146.800656578</v>
       </c>
       <c r="D68" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7846,13 +7846,13 @@
         <v>919</v>
       </c>
       <c r="B69" t="n">
-        <v>2030462.022815105</v>
+        <v>1192132.089914491</v>
       </c>
       <c r="C69" t="n">
-        <v>8248489.963868883</v>
+        <v>7796975.877846763</v>
       </c>
       <c r="D69" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7960,13 +7960,13 @@
         <v>929</v>
       </c>
       <c r="B70" t="n">
-        <v>2035611.625085386</v>
+        <v>1198443.377826289</v>
       </c>
       <c r="C70" t="n">
-        <v>8252825.778920213</v>
+        <v>7798884.693372183</v>
       </c>
       <c r="D70" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         <v>942</v>
       </c>
       <c r="B71" t="n">
-        <v>1843951.66405351</v>
+        <v>992654.98101819</v>
       </c>
       <c r="C71" t="n">
-        <v>8167412.87781406</v>
+        <v>7795746.705734865</v>
       </c>
       <c r="D71" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -8184,13 +8184,13 @@
         <v>950</v>
       </c>
       <c r="B72" t="n">
-        <v>2192586.45327676</v>
+        <v>1334774.628198704</v>
       </c>
       <c r="C72" t="n">
-        <v>8240483.813921906</v>
+        <v>7727287.848503093</v>
       </c>
       <c r="D72" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -8294,13 +8294,13 @@
         <v>957</v>
       </c>
       <c r="B73" t="n">
-        <v>2157236.428593216</v>
+        <v>1265295.017096241</v>
       </c>
       <c r="C73" t="n">
-        <v>8142459.702989873</v>
+        <v>7653121.923246186</v>
       </c>
       <c r="D73" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -8408,13 +8408,13 @@
         <v>958</v>
       </c>
       <c r="B74" t="n">
-        <v>2460980.916483301</v>
+        <v>1376869.025016262</v>
       </c>
       <c r="C74" t="n">
-        <v>7719112.007409033</v>
+        <v>7160603.209204636</v>
       </c>
       <c r="D74" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -8514,13 +8514,13 @@
         <v>963</v>
       </c>
       <c r="B75" t="n">
-        <v>1937782.313918368</v>
+        <v>789089.2370049354</v>
       </c>
       <c r="C75" t="n">
-        <v>7398607.247583091</v>
+        <v>7065637.5475065</v>
       </c>
       <c r="D75" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -8616,13 +8616,13 @@
         <v>975</v>
       </c>
       <c r="B76" t="n">
-        <v>2161380.258818134</v>
+        <v>1275227.842817889</v>
       </c>
       <c r="C76" t="n">
-        <v>8158638.943645977</v>
+        <v>7666024.974995402</v>
       </c>
       <c r="D76" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -8722,13 +8722,13 @@
         <v>977</v>
       </c>
       <c r="B77" t="n">
-        <v>2177785.468716233</v>
+        <v>1288574.506436826</v>
       </c>
       <c r="C77" t="n">
-        <v>8155048.689637467</v>
+        <v>7656519.48107017</v>
       </c>
       <c r="D77" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -8828,13 +8828,13 @@
         <v>979</v>
       </c>
       <c r="B78" t="n">
-        <v>2455345.224620869</v>
+        <v>1325565.010734642</v>
       </c>
       <c r="C78" t="n">
-        <v>7594083.911137718</v>
+        <v>7051485.772339288</v>
       </c>
       <c r="D78" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -8938,13 +8938,13 @@
         <v>984</v>
       </c>
       <c r="B79" t="n">
-        <v>2184497.250798838</v>
+        <v>1289019.168612078</v>
       </c>
       <c r="C79" t="n">
-        <v>8140519.330088887</v>
+        <v>7640941.251221206</v>
       </c>
       <c r="D79" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -9048,13 +9048,13 @@
         <v>991</v>
       </c>
       <c r="B80" t="n">
-        <v>1968971.6349057</v>
+        <v>1099911.792962415</v>
       </c>
       <c r="C80" t="n">
-        <v>8152863.099932982</v>
+        <v>7734632.005301744</v>
       </c>
       <c r="D80" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -9162,13 +9162,13 @@
         <v>1003</v>
       </c>
       <c r="B81" t="n">
-        <v>2179429.531099057</v>
+        <v>1290586.133360659</v>
       </c>
       <c r="C81" t="n">
-        <v>8156444.376269045</v>
+        <v>7657138.50883689</v>
       </c>
       <c r="D81" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -9268,13 +9268,13 @@
         <v>1070</v>
       </c>
       <c r="B82" t="n">
-        <v>1973457.55808178</v>
+        <v>1103420.446603166</v>
       </c>
       <c r="C82" t="n">
-        <v>8151469.417865915</v>
+        <v>7731656.840806731</v>
       </c>
       <c r="D82" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -9378,13 +9378,13 @@
         <v>1074</v>
       </c>
       <c r="B83" t="n">
-        <v>1857349.600398468</v>
+        <v>626765.0559981896</v>
       </c>
       <c r="C83" t="n">
-        <v>7151990.747362091</v>
+        <v>6870970.438198091</v>
       </c>
       <c r="D83" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -9488,13 +9488,13 @@
         <v>1076</v>
       </c>
       <c r="B84" t="n">
-        <v>1687521.356161641</v>
+        <v>604935.8241788865</v>
       </c>
       <c r="C84" t="n">
-        <v>7515946.163937759</v>
+        <v>7264213.123815491</v>
       </c>
       <c r="D84" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -9598,13 +9598,13 @@
         <v>1085</v>
       </c>
       <c r="B85" t="n">
-        <v>2018478.80347488</v>
+        <v>1183243.561898906</v>
       </c>
       <c r="C85" t="n">
-        <v>8253413.58644606</v>
+        <v>7806022.506910689</v>
       </c>
       <c r="D85" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -9712,13 +9712,13 @@
         <v>1086</v>
       </c>
       <c r="B86" t="n">
-        <v>2020081.511348141</v>
+        <v>1182325.211327434</v>
       </c>
       <c r="C86" t="n">
-        <v>8247299.787657304</v>
+        <v>7799909.921631613</v>
       </c>
       <c r="D86" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -9826,13 +9826,13 @@
         <v>1090</v>
       </c>
       <c r="B87" t="n">
-        <v>1900389.536051186</v>
+        <v>836861.3790207192</v>
       </c>
       <c r="C87" t="n">
-        <v>7620255.129100572</v>
+        <v>7279990.7271967</v>
       </c>
       <c r="D87" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -9932,13 +9932,13 @@
         <v>1091</v>
       </c>
       <c r="B88" t="n">
-        <v>2178884.615841716</v>
+        <v>1289915.221627235</v>
       </c>
       <c r="C88" t="n">
-        <v>8155970.933248234</v>
+        <v>7656923.635255026</v>
       </c>
       <c r="D88" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -10038,13 +10038,13 @@
         <v>1094</v>
       </c>
       <c r="B89" t="n">
-        <v>2395592.071362215</v>
+        <v>1409359.799312466</v>
       </c>
       <c r="C89" t="n">
-        <v>7960777.317704737</v>
+        <v>7400114.159695893</v>
       </c>
       <c r="D89" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -10140,13 +10140,13 @@
         <v>1097</v>
       </c>
       <c r="B90" t="n">
-        <v>2055002.410133839</v>
+        <v>935175.5479990015</v>
       </c>
       <c r="C90" t="n">
-        <v>7508258.206719857</v>
+        <v>7121760.586731764</v>
       </c>
       <c r="D90" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -10242,13 +10242,13 @@
         <v>1100</v>
       </c>
       <c r="B91" t="n">
-        <v>1849934.503313578</v>
+        <v>996114.5744490115</v>
       </c>
       <c r="C91" t="n">
-        <v>8162347.031861647</v>
+        <v>7788874.702525561</v>
       </c>
       <c r="D91" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -10352,13 +10352,13 @@
         <v>1118</v>
       </c>
       <c r="B92" t="n">
-        <v>1879730.117082351</v>
+        <v>790020.5210857922</v>
       </c>
       <c r="C92" t="n">
-        <v>7544283.464769014</v>
+        <v>7218873.875846167</v>
       </c>
       <c r="D92" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -10458,13 +10458,13 @@
         <v>1119</v>
       </c>
       <c r="B93" t="n">
-        <v>2090672.228249006</v>
+        <v>929517.9696849707</v>
       </c>
       <c r="C93" t="n">
-        <v>7404890.911347643</v>
+        <v>7015550.910753055</v>
       </c>
       <c r="D93" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -10564,13 +10564,13 @@
         <v>1126</v>
       </c>
       <c r="B94" t="n">
-        <v>2400245.650278606</v>
+        <v>1250582.293829853</v>
       </c>
       <c r="C94" t="n">
-        <v>7523696.345372427</v>
+        <v>7009017.683968499</v>
       </c>
       <c r="D94" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -10670,13 +10670,13 @@
         <v>1134</v>
       </c>
       <c r="B95" t="n">
-        <v>1922116.488288299</v>
+        <v>850484.8921374951</v>
       </c>
       <c r="C95" t="n">
-        <v>7603989.549888535</v>
+        <v>7257221.013787333</v>
       </c>
       <c r="D95" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -10780,13 +10780,13 @@
         <v>1136</v>
       </c>
       <c r="B96" t="n">
-        <v>2174558.978499715</v>
+        <v>1287531.517504689</v>
       </c>
       <c r="C96" t="n">
-        <v>8159871.354009096</v>
+        <v>7662074.249157267</v>
       </c>
       <c r="D96" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -10886,13 +10886,13 @@
         <v>1173</v>
       </c>
       <c r="B97" t="n">
-        <v>2021625.084082231</v>
+        <v>1184216.78015425</v>
       </c>
       <c r="C97" t="n">
-        <v>8248598.306547126</v>
+        <v>7800481.519248006</v>
       </c>
       <c r="D97" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -11000,13 +11000,13 @@
         <v>1179</v>
       </c>
       <c r="B98" t="n">
-        <v>1806842.792737123</v>
+        <v>958093.9354796396</v>
       </c>
       <c r="C98" t="n">
-        <v>8164786.2951838</v>
+        <v>7807634.872172534</v>
       </c>
       <c r="D98" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -11114,13 +11114,13 @@
         <v>1182</v>
       </c>
       <c r="B99" t="n">
-        <v>2402908.257600741</v>
+        <v>1318234.448884461</v>
       </c>
       <c r="C99" t="n">
-        <v>7700621.050396658</v>
+        <v>7165717.460870856</v>
       </c>
       <c r="D99" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -11220,13 +11220,13 @@
         <v>1195</v>
       </c>
       <c r="B100" t="n">
-        <v>1843371.515511009</v>
+        <v>993759.5695739661</v>
       </c>
       <c r="C100" t="n">
-        <v>8171649.261065386</v>
+        <v>7799794.467441583</v>
       </c>
       <c r="D100" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -11334,13 +11334,13 @@
         <v>1237</v>
       </c>
       <c r="B101" t="n">
-        <v>1968967.429430492</v>
+        <v>1099913.094065461</v>
       </c>
       <c r="C101" t="n">
-        <v>8152876.362980111</v>
+        <v>7734645.557110015</v>
       </c>
       <c r="D101" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -11448,13 +11448,13 @@
         <v>1271</v>
       </c>
       <c r="B102" t="n">
-        <v>1836454.961328523</v>
+        <v>978535.8351695081</v>
       </c>
       <c r="C102" t="n">
-        <v>8148302.915487453</v>
+        <v>7781370.16122144</v>
       </c>
       <c r="D102" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -11562,13 +11562,13 @@
         <v>1318</v>
       </c>
       <c r="B103" t="n">
-        <v>2425433.555622754</v>
+        <v>1263490.579900381</v>
       </c>
       <c r="C103" t="n">
-        <v>7497561.689142774</v>
+        <v>6976509.562373237</v>
       </c>
       <c r="D103" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -11668,13 +11668,13 @@
         <v>1351</v>
       </c>
       <c r="B104" t="n">
-        <v>2029574.438450744</v>
+        <v>1007978.330005782</v>
       </c>
       <c r="C104" t="n">
-        <v>7766373.863098766</v>
+        <v>7363726.480688116</v>
       </c>
       <c r="D104" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -11778,13 +11778,13 @@
         <v>1409</v>
       </c>
       <c r="B105" t="n">
-        <v>2417849.880412978</v>
+        <v>1315857.061541582</v>
       </c>
       <c r="C105" t="n">
-        <v>7658284.187026565</v>
+        <v>7122471.091267567</v>
       </c>
       <c r="D105" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -11884,13 +11884,13 @@
         <v>1410</v>
       </c>
       <c r="B106" t="n">
-        <v>2191791.944821927</v>
+        <v>1291154.321539701</v>
       </c>
       <c r="C106" t="n">
-        <v>8129023.67363564</v>
+        <v>7627859.173652189</v>
       </c>
       <c r="D106" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -11994,13 +11994,13 @@
         <v>1430</v>
       </c>
       <c r="B107" t="n">
-        <v>2389148.663752811</v>
+        <v>1281810.611341784</v>
       </c>
       <c r="C107" t="n">
-        <v>7635467.34025861</v>
+        <v>7112751.44980066</v>
       </c>
       <c r="D107" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -12104,13 +12104,13 @@
         <v>1438</v>
       </c>
       <c r="B108" t="n">
-        <v>1838593.694393497</v>
+        <v>976604.5062420471</v>
       </c>
       <c r="C108" t="n">
-        <v>8138236.995653456</v>
+        <v>7771458.936291059</v>
       </c>
       <c r="D108" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -12218,13 +12218,13 @@
         <v>1441</v>
       </c>
       <c r="B109" t="n">
-        <v>2099964.697798196</v>
+        <v>1263215.711949453</v>
       </c>
       <c r="C109" t="n">
-        <v>8270598.352411894</v>
+        <v>7789998.303437549</v>
       </c>
       <c r="D109" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -12328,13 +12328,13 @@
         <v>1442</v>
       </c>
       <c r="B110" t="n">
-        <v>2432045.142381532</v>
+        <v>1278551.107544656</v>
       </c>
       <c r="C110" t="n">
-        <v>7522612.240904008</v>
+        <v>6996409.882631944</v>
       </c>
       <c r="D110" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -12434,13 +12434,13 @@
         <v>1448</v>
       </c>
       <c r="B111" t="n">
-        <v>2389942.694299512</v>
+        <v>1407142.644124627</v>
       </c>
       <c r="C111" t="n">
-        <v>7968224.977542952</v>
+        <v>7408882.482123856</v>
       </c>
       <c r="D111" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -12536,13 +12536,13 @@
         <v>1460</v>
       </c>
       <c r="B112" t="n">
-        <v>1802000.765893515</v>
+        <v>950663.1976005753</v>
       </c>
       <c r="C112" t="n">
-        <v>8156849.51515921</v>
+        <v>7802322.724555846</v>
       </c>
       <c r="D112" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -12646,13 +12646,13 @@
         <v>1474</v>
       </c>
       <c r="B113" t="n">
-        <v>2178162.023914075</v>
+        <v>1290015.169724274</v>
       </c>
       <c r="C113" t="n">
-        <v>8157919.099319166</v>
+        <v>7658944.709160653</v>
       </c>
       <c r="D113" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -12752,13 +12752,13 @@
         <v>1486</v>
       </c>
       <c r="B114" t="n">
-        <v>2035090.521115461</v>
+        <v>1197813.276422491</v>
       </c>
       <c r="C114" t="n">
-        <v>8252409.179294589</v>
+        <v>7798711.484120715</v>
       </c>
       <c r="D114" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -12862,13 +12862,13 @@
         <v>1488</v>
       </c>
       <c r="B115" t="n">
-        <v>2150670.500025036</v>
+        <v>1259379.210916098</v>
       </c>
       <c r="C115" t="n">
-        <v>8142407.143468034</v>
+        <v>7655590.34042567</v>
       </c>
       <c r="D115" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -12976,13 +12976,13 @@
         <v>1495</v>
       </c>
       <c r="B116" t="n">
-        <v>1625519.561185392</v>
+        <v>711459.913195891</v>
       </c>
       <c r="C116" t="n">
-        <v>7949790.579276565</v>
+        <v>7682159.728179698</v>
       </c>
       <c r="D116" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -13090,13 +13090,13 @@
         <v>1496</v>
       </c>
       <c r="B117" t="n">
-        <v>1586973.490596975</v>
+        <v>694697.6209007114</v>
       </c>
       <c r="C117" t="n">
-        <v>7997745.297865357</v>
+        <v>7740446.675683501</v>
       </c>
       <c r="D117" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -13200,13 +13200,13 @@
         <v>1540</v>
       </c>
       <c r="B118" t="n">
-        <v>2209143.946811788</v>
+        <v>1293489.083865763</v>
       </c>
       <c r="C118" t="n">
-        <v>8094484.987008126</v>
+        <v>7590320.312216024</v>
       </c>
       <c r="D118" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -13310,13 +13310,13 @@
         <v>1541</v>
       </c>
       <c r="B119" t="n">
-        <v>2297340.092329778</v>
+        <v>1340775.630501401</v>
       </c>
       <c r="C119" t="n">
-        <v>8011357.025648038</v>
+        <v>7482446.910422856</v>
       </c>
       <c r="D119" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -13420,13 +13420,13 @@
         <v>1545</v>
       </c>
       <c r="B120" t="n">
-        <v>1927736.433688294</v>
+        <v>750846.9923962961</v>
       </c>
       <c r="C120" t="n">
-        <v>7318586.329227056</v>
+        <v>6996813.444971907</v>
       </c>
       <c r="D120" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -13526,13 +13526,13 @@
         <v>1551</v>
       </c>
       <c r="B121" t="n">
-        <v>2212397.014421168</v>
+        <v>1271073.456554543</v>
       </c>
       <c r="C121" t="n">
-        <v>8028113.534157316</v>
+        <v>7529700.285792477</v>
       </c>
       <c r="D121" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -13640,13 +13640,13 @@
         <v>1569</v>
       </c>
       <c r="B122" t="n">
-        <v>2165375.938982362</v>
+        <v>1214495.375454555</v>
       </c>
       <c r="C122" t="n">
-        <v>7990254.793340904</v>
+        <v>7513660.484088336</v>
       </c>
       <c r="D122" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -13754,13 +13754,13 @@
         <v>1593</v>
       </c>
       <c r="B123" t="n">
-        <v>2155302.236262343</v>
+        <v>1264856.0782337</v>
       </c>
       <c r="C123" t="n">
-        <v>8145840.932295028</v>
+        <v>7656891.826771535</v>
       </c>
       <c r="D123" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -13868,13 +13868,13 @@
         <v>1607</v>
       </c>
       <c r="B124" t="n">
-        <v>2093830.030148677</v>
+        <v>1255603.583468147</v>
       </c>
       <c r="C124" t="n">
-        <v>8265181.557213097</v>
+        <v>7787508.802159904</v>
       </c>
       <c r="D124" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -13974,13 +13974,13 @@
         <v>1627</v>
       </c>
       <c r="B125" t="n">
-        <v>1972716.626224674</v>
+        <v>843107.7577382643</v>
       </c>
       <c r="C125" t="n">
-        <v>7459847.963203099</v>
+        <v>7108256.023841661</v>
       </c>
       <c r="D125" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -14080,13 +14080,13 @@
         <v>1640</v>
       </c>
       <c r="B126" t="n">
-        <v>2051046.525684899</v>
+        <v>927381.8428808105</v>
       </c>
       <c r="C126" t="n">
-        <v>7496750.216041773</v>
+        <v>7112838.832754357</v>
       </c>
       <c r="D126" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -14182,13 +14182,13 @@
         <v>1645</v>
       </c>
       <c r="B127" t="n">
-        <v>2173478.187959904</v>
+        <v>1286191.449374038</v>
       </c>
       <c r="C127" t="n">
-        <v>8158908.402913916</v>
+        <v>7661626.626349166</v>
       </c>
       <c r="D127" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -14292,13 +14292,13 @@
         <v>1659</v>
       </c>
       <c r="B128" t="n">
-        <v>2180679.301782147</v>
+        <v>1291159.492129554</v>
       </c>
       <c r="C128" t="n">
-        <v>8155017.276515977</v>
+        <v>7655381.824496387</v>
       </c>
       <c r="D128" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -14394,13 +14394,13 @@
         <v>1677</v>
       </c>
       <c r="B129" t="n">
-        <v>1905327.867537046</v>
+        <v>937516.3871031932</v>
       </c>
       <c r="C129" t="n">
-        <v>7877166.997710537</v>
+        <v>7510320.573719691</v>
       </c>
       <c r="D129" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -14508,13 +14508,13 @@
         <v>1698</v>
       </c>
       <c r="B130" t="n">
-        <v>2403908.46191421</v>
+        <v>1317596.279432883</v>
       </c>
       <c r="C130" t="n">
-        <v>7696501.426428696</v>
+        <v>7161676.434093359</v>
       </c>
       <c r="D130" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -14622,13 +14622,13 @@
         <v>1703</v>
       </c>
       <c r="B131" t="n">
-        <v>2075426.933997836</v>
+        <v>973646.565159217</v>
       </c>
       <c r="C131" t="n">
-        <v>7562765.071984578</v>
+        <v>7163351.951049128</v>
       </c>
       <c r="D131" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -14728,13 +14728,13 @@
         <v>1777</v>
       </c>
       <c r="B132" t="n">
-        <v>2090011.065376122</v>
+        <v>1251850.847396482</v>
       </c>
       <c r="C132" t="n">
-        <v>8264358.650798758</v>
+        <v>7788244.904215088</v>
       </c>
       <c r="D132" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -14838,13 +14838,13 @@
         <v>1779</v>
       </c>
       <c r="B133" t="n">
-        <v>1988616.395906695</v>
+        <v>856706.370733253</v>
       </c>
       <c r="C133" t="n">
-        <v>7457734.053307646</v>
+        <v>7100518.707566812</v>
       </c>
       <c r="D133" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -14944,13 +14944,13 @@
         <v>1782</v>
       </c>
       <c r="B134" t="n">
-        <v>2051167.874160682</v>
+        <v>926642.42932437</v>
       </c>
       <c r="C134" t="n">
-        <v>7494437.5715969</v>
+        <v>7110709.259476858</v>
       </c>
       <c r="D134" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -15046,13 +15046,13 @@
         <v>1805</v>
       </c>
       <c r="B135" t="n">
-        <v>1679776.900984378</v>
+        <v>753876.7349086334</v>
       </c>
       <c r="C135" t="n">
-        <v>7931711.425992207</v>
+        <v>7645107.183915169</v>
       </c>
       <c r="D135" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -15160,13 +15160,13 @@
         <v>1815</v>
       </c>
       <c r="B136" t="n">
-        <v>2442229.215944408</v>
+        <v>1288118.109346545</v>
       </c>
       <c r="C136" t="n">
-        <v>7523946.331426285</v>
+        <v>6993870.294928522</v>
       </c>
       <c r="D136" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -15266,13 +15266,13 @@
         <v>1822</v>
       </c>
       <c r="B137" t="n">
-        <v>1804797.414099855</v>
+        <v>939875.8258675184</v>
       </c>
       <c r="C137" t="n">
-        <v>8122164.085230564</v>
+        <v>7769899.005393733</v>
       </c>
       <c r="D137" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -15376,13 +15376,13 @@
         <v>1829</v>
       </c>
       <c r="B138" t="n">
-        <v>1832145.566621959</v>
+        <v>854606.734983815</v>
       </c>
       <c r="C138" t="n">
-        <v>7832825.07507839</v>
+        <v>7497837.633150277</v>
       </c>
       <c r="D138" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -15486,13 +15486,13 @@
         <v>1845</v>
       </c>
       <c r="B139" t="n">
-        <v>1917691.112906063</v>
+        <v>764818.3069981275</v>
       </c>
       <c r="C139" t="n">
-        <v>7381976.797581196</v>
+        <v>7057910.004358158</v>
       </c>
       <c r="D139" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -15588,13 +15588,13 @@
         <v>1857</v>
       </c>
       <c r="B140" t="n">
-        <v>2238825.000696849</v>
+        <v>1159730.100759031</v>
       </c>
       <c r="C140" t="n">
-        <v>7668896.357195461</v>
+        <v>7198251.802415779</v>
       </c>
       <c r="D140" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -15702,13 +15702,13 @@
         <v>1867</v>
       </c>
       <c r="B141" t="n">
-        <v>1886972.657078314</v>
+        <v>924213.9339616366</v>
       </c>
       <c r="C141" t="n">
-        <v>7885863.520909546</v>
+        <v>7525104.853106213</v>
       </c>
       <c r="D141" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -15812,13 +15812,13 @@
         <v>1873</v>
       </c>
       <c r="B142" t="n">
-        <v>1944189.182699304</v>
+        <v>807465.4396816383</v>
       </c>
       <c r="C142" t="n">
-        <v>7433001.427902211</v>
+        <v>7094425.57477705</v>
       </c>
       <c r="D142" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -15918,13 +15918,13 @@
         <v>1881</v>
       </c>
       <c r="B143" t="n">
-        <v>2026976.622871039</v>
+        <v>1189794.575474169</v>
       </c>
       <c r="C143" t="n">
-        <v>8250562.884212669</v>
+        <v>7800182.681011333</v>
       </c>
       <c r="D143" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -16032,13 +16032,13 @@
         <v>1882</v>
       </c>
       <c r="B144" t="n">
-        <v>1815423.454499171</v>
+        <v>967232.2577123863</v>
       </c>
       <c r="C144" t="n">
-        <v>8168370.112295827</v>
+        <v>7807575.086716989</v>
       </c>
       <c r="D144" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -16142,13 +16142,13 @@
         <v>1893</v>
       </c>
       <c r="B145" t="n">
-        <v>1535349.317976736</v>
+        <v>630572.7494814795</v>
       </c>
       <c r="C145" t="n">
-        <v>7952829.624999011</v>
+        <v>7719276.830797356</v>
       </c>
       <c r="D145" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -16248,13 +16248,13 @@
         <v>1896</v>
       </c>
       <c r="B146" t="n">
-        <v>1749152.964796057</v>
+        <v>805173.1787222649</v>
       </c>
       <c r="C146" t="n">
-        <v>7900998.404415892</v>
+        <v>7590931.114441661</v>
       </c>
       <c r="D146" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -16354,13 +16354,13 @@
         <v>1900</v>
       </c>
       <c r="B147" t="n">
-        <v>2061419.438996932</v>
+        <v>959161.4360879404</v>
       </c>
       <c r="C147" t="n">
-        <v>7557713.790880651</v>
+        <v>7163965.842597931</v>
       </c>
       <c r="D147" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -16460,13 +16460,13 @@
         <v>1901</v>
       </c>
       <c r="B148" t="n">
-        <v>2061419.00041539</v>
+        <v>959162.2922145881</v>
       </c>
       <c r="C148" t="n">
-        <v>7557717.18538243</v>
+        <v>7163969.062343721</v>
       </c>
       <c r="D148" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -16566,13 +16566,13 @@
         <v>1907</v>
       </c>
       <c r="B149" t="n">
-        <v>2233651.713780875</v>
+        <v>1353892.105190421</v>
       </c>
       <c r="C149" t="n">
-        <v>8194573.930197372</v>
+        <v>7670426.838594964</v>
       </c>
       <c r="D149" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -16672,13 +16672,13 @@
         <v>1915</v>
       </c>
       <c r="B150" t="n">
-        <v>1904551.546183919</v>
+        <v>969156.9771305906</v>
       </c>
       <c r="C150" t="n">
-        <v>7962601.087665223</v>
+        <v>7587732.721193841</v>
       </c>
       <c r="D150" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -16786,13 +16786,13 @@
         <v>1924</v>
       </c>
       <c r="B151" t="n">
-        <v>1807903.112167418</v>
+        <v>939983.2141906936</v>
       </c>
       <c r="C151" t="n">
-        <v>8115117.774443738</v>
+        <v>7762339.442013818</v>
       </c>
       <c r="D151" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -16900,13 +16900,13 @@
         <v>1927</v>
       </c>
       <c r="B152" t="n">
-        <v>1823892.990301293</v>
+        <v>960317.8494905173</v>
       </c>
       <c r="C152" t="n">
-        <v>8130430.511640266</v>
+        <v>7770046.539915258</v>
       </c>
       <c r="D152" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -17014,13 +17014,13 @@
         <v>1955</v>
       </c>
       <c r="B153" t="n">
-        <v>1587842.248842745</v>
+        <v>696473.9308007021</v>
       </c>
       <c r="C153" t="n">
-        <v>8000327.402663325</v>
+        <v>7742462.560435812</v>
       </c>
       <c r="D153" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -17124,13 +17124,13 @@
         <v>1973</v>
       </c>
       <c r="B154" t="n">
-        <v>2199698.099531626</v>
+        <v>1289476.177031039</v>
       </c>
       <c r="C154" t="n">
-        <v>8106134.541234701</v>
+        <v>7604352.168563469</v>
       </c>
       <c r="D154" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -17230,13 +17230,13 @@
         <v>1988</v>
       </c>
       <c r="B155" t="n">
-        <v>1863519.802301328</v>
+        <v>989783.8463492303</v>
       </c>
       <c r="C155" t="n">
-        <v>8113863.68509965</v>
+        <v>7739897.839355263</v>
       </c>
       <c r="D155" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -17340,13 +17340,13 @@
         <v>1994</v>
       </c>
       <c r="B156" t="n">
-        <v>1751023.910426069</v>
+        <v>805614.6543642993</v>
       </c>
       <c r="C156" t="n">
-        <v>7897685.630933564</v>
+        <v>7587219.95039202</v>
       </c>
       <c r="D156" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -17454,13 +17454,13 @@
         <v>1995</v>
       </c>
       <c r="B157" t="n">
-        <v>2211479.082795555</v>
+        <v>1296150.38852792</v>
       </c>
       <c r="C157" t="n">
-        <v>8095967.951233638</v>
+        <v>7590755.079737671</v>
       </c>
       <c r="D157" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -17564,13 +17564,13 @@
         <v>1998</v>
       </c>
       <c r="B158" t="n">
-        <v>1888850.684805707</v>
+        <v>786262.1590514146</v>
       </c>
       <c r="C158" t="n">
-        <v>7511704.136302148</v>
+        <v>7186001.07086686</v>
       </c>
       <c r="D158" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -17670,13 +17670,13 @@
         <v>2003</v>
       </c>
       <c r="B159" t="n">
-        <v>1823976.178367255</v>
+        <v>705153.3651574381</v>
       </c>
       <c r="C159" t="n">
-        <v>7451192.899369276</v>
+        <v>7155001.793080285</v>
       </c>
       <c r="D159" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -17772,13 +17772,13 @@
         <v>2029</v>
       </c>
       <c r="B160" t="n">
-        <v>1810058.520934528</v>
+        <v>960081.6829096316</v>
       </c>
       <c r="C160" t="n">
-        <v>8162391.463731977</v>
+        <v>7804235.040183336</v>
       </c>
       <c r="D160" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -17886,13 +17886,13 @@
         <v>2035</v>
       </c>
       <c r="B161" t="n">
-        <v>1809008.227546106</v>
+        <v>941258.1280865852</v>
       </c>
       <c r="C161" t="n">
-        <v>8115835.671865964</v>
+        <v>7762564.768914432</v>
       </c>
       <c r="D161" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -17996,13 +17996,13 @@
         <v>2047</v>
       </c>
       <c r="B162" t="n">
-        <v>1872752.661757</v>
+        <v>994380.3418932953</v>
       </c>
       <c r="C162" t="n">
-        <v>8104087.690744773</v>
+        <v>7727539.001440947</v>
       </c>
       <c r="D162" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -18110,13 +18110,13 @@
         <v>2071</v>
       </c>
       <c r="B163" t="n">
-        <v>1802446.73957723</v>
+        <v>934532.6716758551</v>
       </c>
       <c r="C163" t="n">
-        <v>8113775.999252155</v>
+        <v>7763217.728749148</v>
       </c>
       <c r="D163" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -18224,13 +18224,13 @@
         <v>2074</v>
       </c>
       <c r="B164" t="n">
-        <v>2201981.107488296</v>
+        <v>1329422.452456971</v>
       </c>
       <c r="C164" t="n">
-        <v>8204778.636260362</v>
+        <v>7691729.138907047</v>
       </c>
       <c r="D164" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -18334,13 +18334,13 @@
         <v>2093</v>
       </c>
       <c r="B165" t="n">
-        <v>2199359.70264273</v>
+        <v>1287325.620925704</v>
       </c>
       <c r="C165" t="n">
-        <v>8101309.485803152</v>
+        <v>7600163.915490242</v>
       </c>
       <c r="D165" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -18440,13 +18440,13 @@
         <v>2112</v>
       </c>
       <c r="B166" t="n">
-        <v>1672871.029348063</v>
+        <v>746989.7734844527</v>
       </c>
       <c r="C166" t="n">
-        <v>7930090.184632362</v>
+        <v>7646259.090969583</v>
       </c>
       <c r="D166" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -18550,13 +18550,13 @@
         <v>2136</v>
       </c>
       <c r="B167" t="n">
-        <v>2448941.257573538</v>
+        <v>1300298.023733964</v>
       </c>
       <c r="C167" t="n">
-        <v>7540859.136426329</v>
+        <v>7006469.595316742</v>
       </c>
       <c r="D167" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -18656,13 +18656,13 @@
         <v>2140</v>
       </c>
       <c r="B168" t="n">
-        <v>2420078.066806202</v>
+        <v>1255153.163068274</v>
       </c>
       <c r="C168" t="n">
-        <v>7487815.640363977</v>
+        <v>6969779.818348994</v>
       </c>
       <c r="D168" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -18762,13 +18762,13 @@
         <v>2141</v>
       </c>
       <c r="B169" t="n">
-        <v>2381747.803346027</v>
+        <v>1431900.883137417</v>
       </c>
       <c r="C169" t="n">
-        <v>8052498.396294452</v>
+        <v>7487019.648891437</v>
       </c>
       <c r="D169" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -18868,13 +18868,13 @@
         <v>2177</v>
       </c>
       <c r="B170" t="n">
-        <v>1859677.635949678</v>
+        <v>986182.6301207168</v>
       </c>
       <c r="C170" t="n">
-        <v>8113525.668978531</v>
+        <v>7741064.369151028</v>
       </c>
       <c r="D170" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -18978,13 +18978,13 @@
         <v>2180</v>
       </c>
       <c r="B171" t="n">
-        <v>1842952.223340991</v>
+        <v>981692.1869721236</v>
       </c>
       <c r="C171" t="n">
-        <v>8141227.716753881</v>
+        <v>7772487.440195537</v>
       </c>
       <c r="D171" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -19092,13 +19092,13 @@
         <v>2204</v>
       </c>
       <c r="B172" t="n">
-        <v>2430103.282893986</v>
+        <v>1282878.271840583</v>
       </c>
       <c r="C172" t="n">
-        <v>7539144.055637033</v>
+        <v>7011846.862619011</v>
       </c>
       <c r="D172" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -19198,13 +19198,13 @@
         <v>2208</v>
       </c>
       <c r="B173" t="n">
-        <v>2059442.353511861</v>
+        <v>1056901.034259978</v>
       </c>
       <c r="C173" t="n">
-        <v>7825101.978849852</v>
+        <v>7405382.530895287</v>
       </c>
       <c r="D173" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -19308,13 +19308,13 @@
         <v>2270</v>
       </c>
       <c r="B174" t="n">
-        <v>1873312.982401557</v>
+        <v>995026.0885854417</v>
       </c>
       <c r="C174" t="n">
-        <v>8104452.12352767</v>
+        <v>7727653.41763708</v>
       </c>
       <c r="D174" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -19422,13 +19422,13 @@
         <v>2278</v>
       </c>
       <c r="B175" t="n">
-        <v>2444648.529263417</v>
+        <v>1299748.767965176</v>
       </c>
       <c r="C175" t="n">
-        <v>7549788.763889733</v>
+        <v>7015992.909775327</v>
       </c>
       <c r="D175" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -19532,13 +19532,13 @@
         <v>2292</v>
       </c>
       <c r="B176" t="n">
-        <v>1863521.414005354</v>
+        <v>989783.0354109097</v>
       </c>
       <c r="C176" t="n">
-        <v>8113857.768788924</v>
+        <v>7739891.881644828</v>
       </c>
       <c r="D176" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -19642,13 +19642,13 @@
         <v>2302</v>
       </c>
       <c r="B177" t="n">
-        <v>1858489.398553508</v>
+        <v>982137.4456807245</v>
       </c>
       <c r="C177" t="n">
-        <v>8105769.797800403</v>
+        <v>7734517.618889306</v>
       </c>
       <c r="D177" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -19752,13 +19752,13 @@
         <v>2313</v>
       </c>
       <c r="B178" t="n">
-        <v>2037593.547065566</v>
+        <v>870908.7192145777</v>
       </c>
       <c r="C178" t="n">
-        <v>7375452.088330378</v>
+        <v>7008321.638323177</v>
       </c>
       <c r="D178" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -19858,13 +19858,13 @@
         <v>2335</v>
       </c>
       <c r="B179" t="n">
-        <v>2241754.40713326</v>
+        <v>1358987.445044669</v>
       </c>
       <c r="C179" t="n">
-        <v>8188946.896484506</v>
+        <v>7662284.022116767</v>
       </c>
       <c r="D179" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -19968,13 +19968,13 @@
         <v>2339</v>
       </c>
       <c r="B180" t="n">
-        <v>1860800.032237354</v>
+        <v>988385.0827293897</v>
       </c>
       <c r="C180" t="n">
-        <v>8116626.2017831</v>
+        <v>7743433.340111808</v>
       </c>
       <c r="D180" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -20078,13 +20078,13 @@
         <v>2350</v>
       </c>
       <c r="B181" t="n">
-        <v>2181943.417015876</v>
+        <v>1291730.799322537</v>
       </c>
       <c r="C181" t="n">
-        <v>8153551.2797922</v>
+        <v>7653584.905254651</v>
       </c>
       <c r="D181" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -20184,13 +20184,13 @@
         <v>2387</v>
       </c>
       <c r="B182" t="n">
-        <v>2139115.732192019</v>
+        <v>1209078.528045419</v>
       </c>
       <c r="C182" t="n">
-        <v>8037997.556962996</v>
+        <v>7566429.426695289</v>
       </c>
       <c r="D182" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -20294,13 +20294,13 @@
         <v>2391</v>
       </c>
       <c r="B183" t="n">
-        <v>1896923.449246954</v>
+        <v>957782.5102545165</v>
       </c>
       <c r="C183" t="n">
-        <v>7950783.383286639</v>
+        <v>7579959.953656659</v>
       </c>
       <c r="D183" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -20400,13 +20400,13 @@
         <v>2394</v>
       </c>
       <c r="B184" t="n">
-        <v>1976193.189527732</v>
+        <v>803647.6617594857</v>
       </c>
       <c r="C184" t="n">
-        <v>7343125.75545033</v>
+        <v>7001431.841920082</v>
       </c>
       <c r="D184" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -20506,13 +20506,13 @@
         <v>2413</v>
       </c>
       <c r="B185" t="n">
-        <v>1778594.226528075</v>
+        <v>881228.147575083</v>
       </c>
       <c r="C185" t="n">
-        <v>8030859.149363408</v>
+        <v>7697344.098197219</v>
       </c>
       <c r="D185" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -20620,13 +20620,13 @@
         <v>2430</v>
       </c>
       <c r="B186" t="n">
-        <v>1840787.330019633</v>
+        <v>981828.6242820675</v>
       </c>
       <c r="C186" t="n">
-        <v>8146679.700769037</v>
+        <v>7778241.356020996</v>
       </c>
       <c r="D186" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -20730,13 +20730,13 @@
         <v>2446</v>
       </c>
       <c r="B187" t="n">
-        <v>1615278.563923688</v>
+        <v>709019.2764111313</v>
       </c>
       <c r="C187" t="n">
-        <v>7967824.246950907</v>
+        <v>7702449.035020803</v>
       </c>
       <c r="D187" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -20844,13 +20844,13 @@
         <v>2455</v>
       </c>
       <c r="B188" t="n">
-        <v>2233651.013304777</v>
+        <v>1353892.152101476</v>
       </c>
       <c r="C188" t="n">
-        <v>8194575.68154992</v>
+        <v>7670428.673132488</v>
       </c>
       <c r="D188" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -20954,13 +20954,13 @@
         <v>2472</v>
       </c>
       <c r="B189" t="n">
-        <v>1839678.935224154</v>
+        <v>976975.0776960705</v>
       </c>
       <c r="C189" t="n">
-        <v>8136646.522539566</v>
+        <v>7769606.278906141</v>
       </c>
       <c r="D189" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -21064,13 +21064,13 @@
         <v>2473</v>
       </c>
       <c r="B190" t="n">
-        <v>1969368.869532826</v>
+        <v>1102227.519671826</v>
       </c>
       <c r="C190" t="n">
-        <v>8157961.12803988</v>
+        <v>7739068.459021348</v>
       </c>
       <c r="D190" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -21170,13 +21170,13 @@
         <v>2485</v>
       </c>
       <c r="B191" t="n">
-        <v>2389968.448459384</v>
+        <v>1283218.174881197</v>
       </c>
       <c r="C191" t="n">
-        <v>7637295.643143505</v>
+        <v>7114078.465424569</v>
       </c>
       <c r="D191" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -21280,13 +21280,13 @@
         <v>2486</v>
       </c>
       <c r="B192" t="n">
-        <v>1681290.910236084</v>
+        <v>753096.5791323695</v>
       </c>
       <c r="C192" t="n">
-        <v>7926038.83342819</v>
+        <v>7639383.117737186</v>
       </c>
       <c r="D192" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -21394,13 +21394,13 @@
         <v>2512</v>
       </c>
       <c r="B193" t="n">
-        <v>1811661.192187897</v>
+        <v>942590.7079712577</v>
       </c>
       <c r="C193" t="n">
-        <v>8113052.006832606</v>
+        <v>7759032.151999168</v>
       </c>
       <c r="D193" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -21504,13 +21504,13 @@
         <v>2533</v>
       </c>
       <c r="B194" t="n">
-        <v>1842428.00016334</v>
+        <v>982835.7455509398</v>
       </c>
       <c r="C194" t="n">
-        <v>8145440.494754691</v>
+        <v>7776492.665937817</v>
       </c>
       <c r="D194" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -21614,13 +21614,13 @@
         <v>2535</v>
       </c>
       <c r="B195" t="n">
-        <v>1669116.145165793</v>
+        <v>705606.9292885725</v>
       </c>
       <c r="C195" t="n">
-        <v>7829861.159296779</v>
+        <v>7556649.646430125</v>
       </c>
       <c r="D195" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -21724,13 +21724,13 @@
         <v>2546</v>
       </c>
       <c r="B196" t="n">
-        <v>1664476.74247024</v>
+        <v>744179.3218058764</v>
       </c>
       <c r="C196" t="n">
-        <v>7942752.761201018</v>
+        <v>7660945.987030333</v>
       </c>
       <c r="D196" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -21834,13 +21834,13 @@
         <v>2567</v>
       </c>
       <c r="B197" t="n">
-        <v>1850262.240512596</v>
+        <v>726096.067258717</v>
       </c>
       <c r="C197" t="n">
-        <v>7443246.532268279</v>
+        <v>7138136.478293262</v>
       </c>
       <c r="D197" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -21936,13 +21936,13 @@
         <v>2584</v>
       </c>
       <c r="B198" t="n">
-        <v>2028998.146385868</v>
+        <v>949858.3086686517</v>
       </c>
       <c r="C198" t="n">
-        <v>7611650.300120723</v>
+        <v>7224547.053889313</v>
       </c>
       <c r="D198" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -22042,13 +22042,13 @@
         <v>2592</v>
       </c>
       <c r="B199" t="n">
-        <v>2230609.73250071</v>
+        <v>1327200.375281696</v>
       </c>
       <c r="C199" t="n">
-        <v>8132245.759807281</v>
+        <v>7615881.254893317</v>
       </c>
       <c r="D199" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -22156,13 +22156,13 @@
         <v>2618</v>
       </c>
       <c r="B200" t="n">
-        <v>1584718.879630001</v>
+        <v>680060.4662733198</v>
       </c>
       <c r="C200" t="n">
-        <v>7964760.526266019</v>
+        <v>7711311.648330972</v>
       </c>
       <c r="D200" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -22266,13 +22266,13 @@
         <v>2619</v>
       </c>
       <c r="B201" t="n">
-        <v>1556320.690824303</v>
+        <v>644779.3154245637</v>
       </c>
       <c r="C201" t="n">
-        <v>7939997.93689522</v>
+        <v>7699601.830151052</v>
       </c>
       <c r="D201" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -22376,13 +22376,13 @@
         <v>2655</v>
       </c>
       <c r="B202" t="n">
-        <v>2434814.014325153</v>
+        <v>1281311.252842816</v>
       </c>
       <c r="C202" t="n">
-        <v>7523408.429266261</v>
+        <v>6996105.547589625</v>
       </c>
       <c r="D202" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -22482,13 +22482,13 @@
         <v>2665</v>
       </c>
       <c r="B203" t="n">
-        <v>2162261.428501227</v>
+        <v>1245683.066034322</v>
       </c>
       <c r="C203" t="n">
-        <v>8079464.140603804</v>
+        <v>7594770.29702403</v>
       </c>
       <c r="D203" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -22588,13 +22588,13 @@
         <v>2675</v>
       </c>
       <c r="B204" t="n">
-        <v>2054577.990555084</v>
+        <v>940464.1154558179</v>
       </c>
       <c r="C204" t="n">
-        <v>7523686.854949326</v>
+        <v>7135823.108819139</v>
       </c>
       <c r="D204" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -22698,13 +22698,13 @@
         <v>2689</v>
       </c>
       <c r="B205" t="n">
-        <v>1868469.431305833</v>
+        <v>745161.0244509948</v>
       </c>
       <c r="C205" t="n">
-        <v>7450186.9850713</v>
+        <v>7137748.464508668</v>
       </c>
       <c r="D205" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -22800,13 +22800,13 @@
         <v>2696</v>
       </c>
       <c r="B206" t="n">
-        <v>2175474.502032843</v>
+        <v>1270386.863915385</v>
       </c>
       <c r="C206" t="n">
-        <v>8113038.901929713</v>
+        <v>7619792.84975382</v>
       </c>
       <c r="D206" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -22906,13 +22906,13 @@
         <v>2702</v>
       </c>
       <c r="B207" t="n">
-        <v>2114140.832322827</v>
+        <v>1209803.713335724</v>
       </c>
       <c r="C207" t="n">
-        <v>8098663.979763069</v>
+        <v>7630354.38671801</v>
       </c>
       <c r="D207" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -23012,13 +23012,13 @@
         <v>2712</v>
       </c>
       <c r="B208" t="n">
-        <v>1803056.838686908</v>
+        <v>951027.4146440395</v>
       </c>
       <c r="C208" t="n">
-        <v>8155311.475599128</v>
+        <v>7800526.961978114</v>
       </c>
       <c r="D208" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -23122,13 +23122,13 @@
         <v>2719</v>
       </c>
       <c r="B209" t="n">
-        <v>2430263.788439234</v>
+        <v>1268175.193077699</v>
       </c>
       <c r="C209" t="n">
-        <v>7498593.708165948</v>
+        <v>6975664.488843685</v>
       </c>
       <c r="D209" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -23228,13 +23228,13 @@
         <v>2731</v>
       </c>
       <c r="B210" t="n">
-        <v>1738891.628119348</v>
+        <v>631170.8854002282</v>
       </c>
       <c r="C210" t="n">
-        <v>7460339.553760263</v>
+        <v>7194619.707176876</v>
       </c>
       <c r="D210" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -23338,13 +23338,13 @@
         <v>2753</v>
       </c>
       <c r="B211" t="n">
-        <v>2197972.984505502</v>
+        <v>1287270.4217841</v>
       </c>
       <c r="C211" t="n">
-        <v>8104414.774252676</v>
+        <v>7603472.572022188</v>
       </c>
       <c r="D211" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -23444,13 +23444,13 @@
         <v>2754</v>
       </c>
       <c r="B212" t="n">
-        <v>1618222.410268374</v>
+        <v>715546.5848713694</v>
       </c>
       <c r="C212" t="n">
-        <v>7977927.011341979</v>
+        <v>7710508.006336154</v>
       </c>
       <c r="D212" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -23554,13 +23554,13 @@
         <v>2795</v>
       </c>
       <c r="B213" t="n">
-        <v>2221591.385074746</v>
+        <v>1199824.791299401</v>
       </c>
       <c r="C213" t="n">
-        <v>7817790.388284771</v>
+        <v>7337993.310199557</v>
       </c>
       <c r="D213" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -23664,13 +23664,13 @@
         <v>2807</v>
       </c>
       <c r="B214" t="n">
-        <v>1747464.47235856</v>
+        <v>695539.0832983456</v>
       </c>
       <c r="C214" t="n">
-        <v>7613128.391170558</v>
+        <v>7330361.278168046</v>
       </c>
       <c r="D214" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -23770,13 +23770,13 @@
         <v>2866</v>
       </c>
       <c r="B215" t="n">
-        <v>1776446.015102504</v>
+        <v>879626.3220678106</v>
       </c>
       <c r="C215" t="n">
-        <v>8031758.887589985</v>
+        <v>7698977.986733856</v>
       </c>
       <c r="D215" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -23880,13 +23880,13 @@
         <v>2871</v>
       </c>
       <c r="B216" t="n">
-        <v>2186791.430183372</v>
+        <v>1286280.686933513</v>
       </c>
       <c r="C216" t="n">
-        <v>8128013.853823171</v>
+        <v>7628869.384760081</v>
       </c>
       <c r="D216" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -23990,13 +23990,13 @@
         <v>2892</v>
       </c>
       <c r="B217" t="n">
-        <v>2245071.841490583</v>
+        <v>1350079.39727754</v>
       </c>
       <c r="C217" t="n">
-        <v>8158070.948324033</v>
+        <v>7633421.17247866</v>
       </c>
       <c r="D217" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -24100,13 +24100,13 @@
         <v>2902</v>
       </c>
       <c r="B218" t="n">
-        <v>2032204.870487523</v>
+        <v>1193302.326707007</v>
       </c>
       <c r="C218" t="n">
-        <v>8247457.114880671</v>
+        <v>7795375.785665431</v>
       </c>
       <c r="D218" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -24214,13 +24214,13 @@
         <v>2908</v>
       </c>
       <c r="B219" t="n">
-        <v>2183810.072826742</v>
+        <v>1285924.218523527</v>
       </c>
       <c r="C219" t="n">
-        <v>8134059.758716323</v>
+        <v>7635422.40205175</v>
       </c>
       <c r="D219" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -24328,13 +24328,13 @@
         <v>2920</v>
       </c>
       <c r="B220" t="n">
-        <v>1901247.646137964</v>
+        <v>668467.5004860456</v>
       </c>
       <c r="C220" t="n">
-        <v>7156982.709741952</v>
+        <v>6859747.870110781</v>
       </c>
       <c r="D220" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -24442,13 +24442,13 @@
         <v>2947</v>
       </c>
       <c r="B221" t="n">
-        <v>2085563.667657345</v>
+        <v>1094179.868409905</v>
       </c>
       <c r="C221" t="n">
-        <v>7861721.762851137</v>
+        <v>7428483.863466927</v>
       </c>
       <c r="D221" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -24552,13 +24552,13 @@
         <v>2966</v>
       </c>
       <c r="B222" t="n">
-        <v>1929209.213568485</v>
+        <v>1095788.064429961</v>
       </c>
       <c r="C222" t="n">
-        <v>8235306.814257673</v>
+        <v>7824158.777754895</v>
       </c>
       <c r="D222" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -24658,13 +24658,13 @@
         <v>2975</v>
       </c>
       <c r="B223" t="n">
-        <v>2217436.485306707</v>
+        <v>1339179.363398675</v>
       </c>
       <c r="C223" t="n">
-        <v>8194124.3796034</v>
+        <v>7676258.007191008</v>
       </c>
       <c r="D223" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -24768,13 +24768,13 @@
         <v>2977</v>
       </c>
       <c r="B224" t="n">
-        <v>1834548.45855925</v>
+        <v>696522.2433366963</v>
       </c>
       <c r="C224" t="n">
-        <v>7401484.413796715</v>
+        <v>7105991.190078752</v>
       </c>
       <c r="D224" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -24870,13 +24870,13 @@
         <v>2988</v>
       </c>
       <c r="B225" t="n">
-        <v>1829270.977119474</v>
+        <v>917893.3822280704</v>
       </c>
       <c r="C225" t="n">
-        <v>8006732.750388512</v>
+        <v>7656207.359608166</v>
       </c>
       <c r="D225" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -24980,13 +24980,13 @@
         <v>3005</v>
       </c>
       <c r="B226" t="n">
-        <v>1746628.027166586</v>
+        <v>695411.6103058327</v>
       </c>
       <c r="C226" t="n">
-        <v>7614828.217692543</v>
+        <v>7332216.769657646</v>
       </c>
       <c r="D226" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -25086,13 +25086,13 @@
         <v>3018</v>
       </c>
       <c r="B227" t="n">
-        <v>2048175.013833838</v>
+        <v>981091.3479000281</v>
       </c>
       <c r="C227" t="n">
-        <v>7649265.795630898</v>
+        <v>7251332.253579291</v>
       </c>
       <c r="D227" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -25192,13 +25192,13 @@
         <v>3022</v>
       </c>
       <c r="B228" t="n">
-        <v>2391711.795491747</v>
+        <v>1245110.976124048</v>
       </c>
       <c r="C228" t="n">
-        <v>7529552.233598809</v>
+        <v>7017365.507491435</v>
       </c>
       <c r="D228" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -25298,13 +25298,13 @@
         <v>3031</v>
       </c>
       <c r="B229" t="n">
-        <v>2047193.433644953</v>
+        <v>939958.1362456426</v>
       </c>
       <c r="C229" t="n">
-        <v>7540405.343154608</v>
+        <v>7153609.53225896</v>
       </c>
       <c r="D229" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -25404,13 +25404,13 @@
         <v>3046</v>
       </c>
       <c r="B230" t="n">
-        <v>2209920.737546001</v>
+        <v>1208690.112439581</v>
       </c>
       <c r="C230" t="n">
-        <v>7869223.884004817</v>
+        <v>7388424.977720258</v>
       </c>
       <c r="D230" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -25514,13 +25514,13 @@
         <v>3047</v>
       </c>
       <c r="B231" t="n">
-        <v>2618321.537039354</v>
+        <v>1504304.851634499</v>
       </c>
       <c r="C231" t="n">
-        <v>7685905.982634268</v>
+        <v>7072761.604959681</v>
       </c>
       <c r="D231" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -25616,13 +25616,13 @@
         <v>3056</v>
       </c>
       <c r="B232" t="n">
-        <v>1869126.952205723</v>
+        <v>774396.6462200845</v>
       </c>
       <c r="C232" t="n">
-        <v>7527992.010946897</v>
+        <v>7208030.437855239</v>
       </c>
       <c r="D232" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -25722,13 +25722,13 @@
         <v>3068</v>
       </c>
       <c r="B233" t="n">
-        <v>1972292.278265699</v>
+        <v>1102963.115588889</v>
       </c>
       <c r="C233" t="n">
-        <v>8153014.119978109</v>
+        <v>7733494.132142186</v>
       </c>
       <c r="D233" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -25832,13 +25832,13 @@
         <v>3102</v>
       </c>
       <c r="B234" t="n">
-        <v>1829272.94060297</v>
+        <v>917891.7899519508</v>
       </c>
       <c r="C234" t="n">
-        <v>8006723.906775486</v>
+        <v>7656198.617882285</v>
       </c>
       <c r="D234" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -25942,13 +25942,13 @@
         <v>3103</v>
       </c>
       <c r="B235" t="n">
-        <v>1847691.680978509</v>
+        <v>792144.3201732324</v>
       </c>
       <c r="C235" t="n">
-        <v>7628341.594783332</v>
+        <v>7306886.578451409</v>
       </c>
       <c r="D235" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -26044,13 +26044,13 @@
         <v>3107</v>
       </c>
       <c r="B236" t="n">
-        <v>1874574.644198098</v>
+        <v>701460.411918486</v>
       </c>
       <c r="C236" t="n">
-        <v>7315389.451861602</v>
+        <v>7013226.907939135</v>
       </c>
       <c r="D236" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -26154,13 +26154,13 @@
         <v>3127</v>
       </c>
       <c r="B237" t="n">
-        <v>2018092.687801035</v>
+        <v>853514.89382653</v>
       </c>
       <c r="C237" t="n">
-        <v>7376061.529429634</v>
+        <v>7015968.59414346</v>
       </c>
       <c r="D237" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -26260,13 +26260,13 @@
         <v>3132</v>
       </c>
       <c r="B238" t="n">
-        <v>2196729.977479015</v>
+        <v>1300155.093501842</v>
       </c>
       <c r="C238" t="n">
-        <v>8140938.429690513</v>
+        <v>7636630.423972027</v>
       </c>
       <c r="D238" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -26370,13 +26370,13 @@
         <v>3146</v>
       </c>
       <c r="B239" t="n">
-        <v>1995523.300867779</v>
+        <v>848438.8411357364</v>
       </c>
       <c r="C239" t="n">
-        <v>7418074.570468273</v>
+        <v>7062156.498153231</v>
       </c>
       <c r="D239" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -26476,13 +26476,13 @@
         <v>3161</v>
       </c>
       <c r="B240" t="n">
-        <v>1591330.25982698</v>
+        <v>641727.436038692</v>
       </c>
       <c r="C240" t="n">
-        <v>7848042.711385678</v>
+        <v>7602603.142966197</v>
       </c>
       <c r="D240" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -26582,13 +26582,13 @@
         <v>3205</v>
       </c>
       <c r="B241" t="n">
-        <v>2396242.745831731</v>
+        <v>1416048.179092123</v>
       </c>
       <c r="C241" t="n">
-        <v>7976875.612404111</v>
+        <v>7414196.782176352</v>
       </c>
       <c r="D241" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -26688,13 +26688,13 @@
         <v>3213</v>
       </c>
       <c r="B242" t="n">
-        <v>1918040.285013203</v>
+        <v>1031423.022146086</v>
       </c>
       <c r="C242" t="n">
-        <v>8094029.774382507</v>
+        <v>7701140.034389379</v>
       </c>
       <c r="D242" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -26794,13 +26794,13 @@
         <v>3214</v>
       </c>
       <c r="B243" t="n">
-        <v>1557744.654752937</v>
+        <v>645553.0700570464</v>
       </c>
       <c r="C243" t="n">
-        <v>7938625.667847796</v>
+        <v>7697810.334713333</v>
       </c>
       <c r="D243" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -26908,13 +26908,13 @@
         <v>3218</v>
       </c>
       <c r="B244" t="n">
-        <v>1840795.082817393</v>
+        <v>981824.9633127094</v>
       </c>
       <c r="C244" t="n">
-        <v>8146651.918042311</v>
+        <v>7778213.292319008</v>
       </c>
       <c r="D244" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -27014,13 +27014,13 @@
         <v>3232</v>
       </c>
       <c r="B245" t="n">
-        <v>1556050.509389007</v>
+        <v>641287.8145443674</v>
       </c>
       <c r="C245" t="n">
-        <v>7931475.562493244</v>
+        <v>7691946.682113572</v>
       </c>
       <c r="D245" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -27124,13 +27124,13 @@
         <v>3240</v>
       </c>
       <c r="B246" t="n">
-        <v>1925056.386596539</v>
+        <v>1090804.783426451</v>
       </c>
       <c r="C246" t="n">
-        <v>8232101.844208849</v>
+        <v>7822872.668099906</v>
       </c>
       <c r="D246" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -27238,13 +27238,13 @@
         <v>3247</v>
       </c>
       <c r="B247" t="n">
-        <v>1926433.254099403</v>
+        <v>749554.7422016589</v>
       </c>
       <c r="C247" t="n">
-        <v>7318280.658639509</v>
+        <v>6997009.623628081</v>
       </c>
       <c r="D247" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -27348,13 +27348,13 @@
         <v>3259</v>
       </c>
       <c r="B248" t="n">
-        <v>1804602.759261117</v>
+        <v>936147.6192644082</v>
       </c>
       <c r="C248" t="n">
-        <v>8112900.652919096</v>
+        <v>7761600.186260979</v>
       </c>
       <c r="D248" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -27458,13 +27458,13 @@
         <v>3267</v>
       </c>
       <c r="B249" t="n">
-        <v>1707607.010735581</v>
+        <v>791584.3952708081</v>
       </c>
       <c r="C249" t="n">
-        <v>7964452.51183127</v>
+        <v>7664232.058077877</v>
       </c>
       <c r="D249" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -27568,13 +27568,13 @@
         <v>3268</v>
       </c>
       <c r="B250" t="n">
-        <v>1972223.022682962</v>
+        <v>1103796.63837273</v>
       </c>
       <c r="C250" t="n">
-        <v>8155347.522796421</v>
+        <v>7735620.899316698</v>
       </c>
       <c r="D250" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -27678,13 +27678,13 @@
         <v>3289</v>
       </c>
       <c r="B251" t="n">
-        <v>1925424.594035505</v>
+        <v>1088467.360159056</v>
       </c>
       <c r="C251" t="n">
-        <v>8225181.042627179</v>
+        <v>7816496.201293737</v>
       </c>
       <c r="D251" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -27784,13 +27784,13 @@
         <v>3293</v>
       </c>
       <c r="B252" t="n">
-        <v>1548205.817024987</v>
+        <v>623938.0246091066</v>
       </c>
       <c r="C252" t="n">
-        <v>7904652.153495331</v>
+        <v>7670507.802210705</v>
       </c>
       <c r="D252" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -27890,13 +27890,13 @@
         <v>3296</v>
       </c>
       <c r="B253" t="n">
-        <v>2151013.071275414</v>
+        <v>1249977.534997655</v>
       </c>
       <c r="C253" t="n">
-        <v>8117083.959371318</v>
+        <v>7632771.040069625</v>
       </c>
       <c r="D253" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -27996,13 +27996,13 @@
         <v>3300</v>
       </c>
       <c r="B254" t="n">
-        <v>2015867.934041354</v>
+        <v>878826.0888453191</v>
       </c>
       <c r="C254" t="n">
-        <v>7450904.654438285</v>
+        <v>7084370.664899795</v>
       </c>
       <c r="D254" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -28102,13 +28102,13 @@
         <v>3301</v>
       </c>
       <c r="B255" t="n">
-        <v>1994093.658987451</v>
+        <v>886359.5320041741</v>
       </c>
       <c r="C255" t="n">
-        <v>7524992.262775909</v>
+        <v>7159254.964711838</v>
       </c>
       <c r="D255" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -28208,13 +28208,13 @@
         <v>3319</v>
       </c>
       <c r="B256" t="n">
-        <v>2104780.498323823</v>
+        <v>1264239.731179495</v>
       </c>
       <c r="C256" t="n">
-        <v>8262052.27375047</v>
+        <v>7780475.493699586</v>
       </c>
       <c r="D256" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -28318,13 +28318,13 @@
         <v>3330</v>
       </c>
       <c r="B257" t="n">
-        <v>1724979.30039863</v>
+        <v>778949.4173158791</v>
       </c>
       <c r="C257" t="n">
-        <v>7889651.593675317</v>
+        <v>7589799.336146829</v>
       </c>
       <c r="D257" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -28432,13 +28432,13 @@
         <v>3337</v>
       </c>
       <c r="B258" t="n">
-        <v>2202205.04890344</v>
+        <v>1328704.034478826</v>
       </c>
       <c r="C258" t="n">
-        <v>8202393.836223585</v>
+        <v>7689509.793573966</v>
       </c>
       <c r="D258" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -28542,13 +28542,13 @@
         <v>3339</v>
       </c>
       <c r="B259" t="n">
-        <v>2141882.223125156</v>
+        <v>1263917.688386291</v>
       </c>
       <c r="C259" t="n">
-        <v>8174766.355683025</v>
+        <v>7687953.698049333</v>
       </c>
       <c r="D259" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -28648,13 +28648,13 @@
         <v>3342</v>
       </c>
       <c r="B260" t="n">
-        <v>1678851.781698991</v>
+        <v>625634.8725377694</v>
       </c>
       <c r="C260" t="n">
-        <v>7592977.432673776</v>
+        <v>7337569.003031509</v>
       </c>
       <c r="D260" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -28762,13 +28762,13 @@
         <v>3346</v>
       </c>
       <c r="B261" t="n">
-        <v>2035563.922652958</v>
+        <v>957327.3812749988</v>
       </c>
       <c r="C261" t="n">
-        <v>7615831.333651945</v>
+        <v>7225884.552364523</v>
       </c>
       <c r="D261" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -28868,13 +28868,13 @@
         <v>3352</v>
       </c>
       <c r="B262" t="n">
-        <v>1748253.566698699</v>
+        <v>777938.9268474444</v>
       </c>
       <c r="C262" t="n">
-        <v>7831119.581639153</v>
+        <v>7527919.675720907</v>
       </c>
       <c r="D262" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -28974,13 +28974,13 @@
         <v>3379</v>
       </c>
       <c r="B263" t="n">
-        <v>2074221.241715127</v>
+        <v>1203355.166404626</v>
       </c>
       <c r="C263" t="n">
-        <v>8175427.392622278</v>
+        <v>7714523.295233181</v>
       </c>
       <c r="D263" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -29088,13 +29088,13 @@
         <v>3392</v>
       </c>
       <c r="B264" t="n">
-        <v>1908601.167029225</v>
+        <v>1036468.274160743</v>
       </c>
       <c r="C264" t="n">
-        <v>8129442.718234657</v>
+        <v>7736680.228810211</v>
       </c>
       <c r="D264" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -29198,13 +29198,13 @@
         <v>3395</v>
       </c>
       <c r="B265" t="n">
-        <v>2408654.411746812</v>
+        <v>1426859.962330731</v>
       </c>
       <c r="C265" t="n">
-        <v>7976183.92155851</v>
+        <v>7408878.906567815</v>
       </c>
       <c r="D265" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -29300,13 +29300,13 @@
         <v>3403</v>
       </c>
       <c r="B266" t="n">
-        <v>2037555.024605603</v>
+        <v>944800.5789475247</v>
       </c>
       <c r="C266" t="n">
-        <v>7577104.390253236</v>
+        <v>7190243.740476328</v>
       </c>
       <c r="D266" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -29406,13 +29406,13 @@
         <v>3412</v>
       </c>
       <c r="B267" t="n">
-        <v>1922469.990737161</v>
+        <v>1087685.948516788</v>
       </c>
       <c r="C267" t="n">
-        <v>8230066.404059096</v>
+        <v>7822035.907335639</v>
       </c>
       <c r="D267" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -29512,13 +29512,13 @@
         <v>3416</v>
       </c>
       <c r="B268" t="n">
-        <v>1860135.134244913</v>
+        <v>1008112.276767024</v>
       </c>
       <c r="C268" t="n">
-        <v>8169580.650889908</v>
+        <v>7791484.863793153</v>
       </c>
       <c r="D268" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -29622,13 +29622,13 @@
         <v>3420</v>
       </c>
       <c r="B269" t="n">
-        <v>2056148.717765377</v>
+        <v>951395.062821285</v>
       </c>
       <c r="C269" t="n">
-        <v>7549532.909487913</v>
+        <v>7158537.238432925</v>
       </c>
       <c r="D269" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -29728,13 +29728,13 @@
         <v>3423</v>
       </c>
       <c r="B270" t="n">
-        <v>2222617.90440048</v>
+        <v>1331146.298309648</v>
       </c>
       <c r="C270" t="n">
-        <v>8161177.891735645</v>
+        <v>7644810.190606979</v>
       </c>
       <c r="D270" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -29838,13 +29838,13 @@
         <v>3428</v>
       </c>
       <c r="B271" t="n">
-        <v>1854810.098187375</v>
+        <v>691194.7940718955</v>
       </c>
       <c r="C271" t="n">
-        <v>7336500.680706996</v>
+        <v>7039584.61531129</v>
       </c>
       <c r="D271" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -29952,13 +29952,13 @@
         <v>3442</v>
       </c>
       <c r="B272" t="n">
-        <v>2050069.069546538</v>
+        <v>994110.2066487197</v>
       </c>
       <c r="C272" t="n">
-        <v>7679711.238596614</v>
+        <v>7278046.413003726</v>
       </c>
       <c r="D272" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -30054,13 +30054,13 @@
         <v>3445</v>
       </c>
       <c r="B273" t="n">
-        <v>1747228.952632192</v>
+        <v>636325.3533101038</v>
       </c>
       <c r="C273" t="n">
-        <v>7453734.271316001</v>
+        <v>7185539.202978248</v>
       </c>
       <c r="D273" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -30164,13 +30164,13 @@
         <v>3448</v>
       </c>
       <c r="B274" t="n">
-        <v>2090964.479995368</v>
+        <v>929885.3897137641</v>
       </c>
       <c r="C274" t="n">
-        <v>7405176.280639994</v>
+        <v>7015701.60116192</v>
       </c>
       <c r="D274" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -30270,13 +30270,13 @@
         <v>3450</v>
       </c>
       <c r="B275" t="n">
-        <v>2238021.736339276</v>
+        <v>1363405.443341691</v>
       </c>
       <c r="C275" t="n">
-        <v>8209086.934513458</v>
+        <v>7681716.155439919</v>
       </c>
       <c r="D275" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -30380,13 +30380,13 @@
         <v>3463</v>
       </c>
       <c r="B276" t="n">
-        <v>1801288.265676834</v>
+        <v>932317.3968460555</v>
       </c>
       <c r="C276" t="n">
-        <v>8110731.304291029</v>
+        <v>7760909.239184254</v>
       </c>
       <c r="D276" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -30490,13 +30490,13 @@
         <v>3466</v>
       </c>
       <c r="B277" t="n">
-        <v>2076968.614041987</v>
+        <v>1194330.95313891</v>
       </c>
       <c r="C277" t="n">
-        <v>8145501.136773033</v>
+        <v>7686606.063067343</v>
       </c>
       <c r="D277" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -30600,13 +30600,13 @@
         <v>3470</v>
       </c>
       <c r="B278" t="n">
-        <v>1729272.252552985</v>
+        <v>783736.6983660171</v>
       </c>
       <c r="C278" t="n">
-        <v>7892008.128253391</v>
+        <v>7590310.703098295</v>
       </c>
       <c r="D278" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -30706,13 +30706,13 @@
         <v>3471</v>
       </c>
       <c r="B279" t="n">
-        <v>1574221.828188005</v>
+        <v>660447.0750001537</v>
       </c>
       <c r="C279" t="n">
-        <v>7938350.838541149</v>
+        <v>7691285.696472754</v>
       </c>
       <c r="D279" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -30820,13 +30820,13 @@
         <v>3496</v>
       </c>
       <c r="B280" t="n">
-        <v>2028564.083493936</v>
+        <v>967266.5005588008</v>
       </c>
       <c r="C280" t="n">
-        <v>7659640.992429233</v>
+        <v>7267959.869643143</v>
       </c>
       <c r="D280" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -30926,13 +30926,13 @@
         <v>3498</v>
       </c>
       <c r="B281" t="n">
-        <v>2200168.333148971</v>
+        <v>1328154.059630599</v>
       </c>
       <c r="C281" t="n">
-        <v>8205707.100248572</v>
+        <v>7693256.949634533</v>
       </c>
       <c r="D281" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -31036,13 +31036,13 @@
         <v>3501</v>
       </c>
       <c r="B282" t="n">
-        <v>1584547.990672773</v>
+        <v>661387.9095019172</v>
       </c>
       <c r="C282" t="n">
-        <v>7916124.438699013</v>
+        <v>7667133.422745484</v>
       </c>
       <c r="D282" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -31146,13 +31146,13 @@
         <v>3513</v>
       </c>
       <c r="B283" t="n">
-        <v>1871116.935712788</v>
+        <v>740517.9110555237</v>
       </c>
       <c r="C283" t="n">
-        <v>7430983.656382803</v>
+        <v>7119364.064350913</v>
       </c>
       <c r="D283" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -31248,13 +31248,13 @@
         <v>3515</v>
       </c>
       <c r="B284" t="n">
-        <v>1955061.833421457</v>
+        <v>906860.8410744863</v>
       </c>
       <c r="C284" t="n">
-        <v>7675581.519770674</v>
+        <v>7309669.625674401</v>
       </c>
       <c r="D284" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -31354,13 +31354,13 @@
         <v>3520</v>
       </c>
       <c r="B285" t="n">
-        <v>1562386.782996907</v>
+        <v>636278.6687481962</v>
       </c>
       <c r="C285" t="n">
-        <v>7903141.2673177</v>
+        <v>7663741.207198158</v>
       </c>
       <c r="D285" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -31464,13 +31464,13 @@
         <v>3528</v>
       </c>
       <c r="B286" t="n">
-        <v>1571717.102617147</v>
+        <v>656087.4728319976</v>
       </c>
       <c r="C286" t="n">
-        <v>7932887.450801981</v>
+        <v>7687267.754463362</v>
       </c>
       <c r="D286" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -31578,13 +31578,13 @@
         <v>3529</v>
       </c>
       <c r="B287" t="n">
-        <v>1893269.019996515</v>
+        <v>899415.3151114343</v>
       </c>
       <c r="C287" t="n">
-        <v>7804952.635623919</v>
+        <v>7449635.211107451</v>
       </c>
       <c r="D287" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -31684,13 +31684,13 @@
         <v>3532</v>
       </c>
       <c r="B288" t="n">
-        <v>1802944.34660894</v>
+        <v>934233.5827032961</v>
       </c>
       <c r="C288" t="n">
-        <v>8111821.483954797</v>
+        <v>7761260.172608385</v>
       </c>
       <c r="D288" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -31794,13 +31794,13 @@
         <v>3537</v>
       </c>
       <c r="B289" t="n">
-        <v>1573380.026825058</v>
+        <v>660325.0431990777</v>
       </c>
       <c r="C289" t="n">
-        <v>7940042.385605224</v>
+        <v>7693145.390364203</v>
       </c>
       <c r="D289" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -31908,13 +31908,13 @@
         <v>3547</v>
       </c>
       <c r="B290" t="n">
-        <v>2411348.377650153</v>
+        <v>1398492.112251941</v>
       </c>
       <c r="C290" t="n">
-        <v>7894876.820599451</v>
+        <v>7335513.807803744</v>
       </c>
       <c r="D290" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -32018,13 +32018,13 @@
         <v>3548</v>
       </c>
       <c r="B291" t="n">
-        <v>2237102.737913142</v>
+        <v>1272534.811309337</v>
       </c>
       <c r="C291" t="n">
-        <v>7973694.926736158</v>
+        <v>7471645.905877761</v>
       </c>
       <c r="D291" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -32128,13 +32128,13 @@
         <v>3566</v>
       </c>
       <c r="B292" t="n">
-        <v>1802600.413784585</v>
+        <v>937330.3522339901</v>
       </c>
       <c r="C292" t="n">
-        <v>8120709.40097037</v>
+        <v>7769426.422573877</v>
       </c>
       <c r="D292" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -32238,13 +32238,13 @@
         <v>3575</v>
       </c>
       <c r="B293" t="n">
-        <v>1941736.040593062</v>
+        <v>882906.4632230308</v>
       </c>
       <c r="C293" t="n">
-        <v>7643550.62966441</v>
+        <v>7285696.390073527</v>
       </c>
       <c r="D293" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -32344,13 +32344,13 @@
         <v>3579</v>
       </c>
       <c r="B294" t="n">
-        <v>1805346.70195841</v>
+        <v>940511.9671389447</v>
       </c>
       <c r="C294" t="n">
-        <v>8122527.101429903</v>
+        <v>7770016.524445752</v>
       </c>
       <c r="D294" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -32458,13 +32458,13 @@
         <v>3591</v>
       </c>
       <c r="B295" t="n">
-        <v>1801840.897334418</v>
+        <v>932955.8435390415</v>
       </c>
       <c r="C295" t="n">
-        <v>8111092.523883575</v>
+        <v>7761024.028409406</v>
       </c>
       <c r="D295" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -32572,13 +32572,13 @@
         <v>3603</v>
       </c>
       <c r="B296" t="n">
-        <v>1660557.534307548</v>
+        <v>745533.0613449832</v>
       </c>
       <c r="C296" t="n">
-        <v>7955668.127498237</v>
+        <v>7674163.372555957</v>
       </c>
       <c r="D296" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -32686,13 +32686,13 @@
         <v>3605</v>
       </c>
       <c r="B297" t="n">
-        <v>1682933.082347631</v>
+        <v>720856.0514023926</v>
       </c>
       <c r="C297" t="n">
-        <v>7836991.9759634</v>
+        <v>7557908.219210621</v>
       </c>
       <c r="D297" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -32796,13 +32796,13 @@
         <v>3615</v>
       </c>
       <c r="B298" t="n">
-        <v>2166891.008832021</v>
+        <v>1242666.956316649</v>
       </c>
       <c r="C298" t="n">
-        <v>8060683.455816337</v>
+        <v>7576181.339321886</v>
       </c>
       <c r="D298" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -32902,13 +32902,13 @@
         <v>3618</v>
       </c>
       <c r="B299" t="n">
-        <v>1806896.182983299</v>
+        <v>832847.8444632411</v>
       </c>
       <c r="C299" t="n">
-        <v>7835759.665441179</v>
+        <v>7510009.82457608</v>
       </c>
       <c r="D299" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -33012,13 +33012,13 @@
         <v>3628</v>
       </c>
       <c r="B300" t="n">
-        <v>1834858.868556736</v>
+        <v>876819.3451502406</v>
       </c>
       <c r="C300" t="n">
-        <v>7885169.31925812</v>
+        <v>7544168.64192751</v>
       </c>
       <c r="D300" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -33122,13 +33122,13 @@
         <v>3632</v>
       </c>
       <c r="B301" t="n">
-        <v>1926306.793738632</v>
+        <v>1063757.402085037</v>
       </c>
       <c r="C301" t="n">
-        <v>8158913.421090364</v>
+        <v>7756452.358480101</v>
       </c>
       <c r="D301" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -33236,13 +33236,13 @@
         <v>3634</v>
       </c>
       <c r="B302" t="n">
-        <v>1803100.282449588</v>
+        <v>937037.6605270836</v>
       </c>
       <c r="C302" t="n">
-        <v>8118767.042712965</v>
+        <v>7767478.985777365</v>
       </c>
       <c r="D302" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -33342,13 +33342,13 @@
         <v>3635</v>
       </c>
       <c r="B303" t="n">
-        <v>2051082.823815737</v>
+        <v>997781.5772948437</v>
       </c>
       <c r="C303" t="n">
-        <v>7687124.363355169</v>
+        <v>7284344.155476289</v>
       </c>
       <c r="D303" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -33444,13 +33444,13 @@
         <v>3645</v>
       </c>
       <c r="B304" t="n">
-        <v>2141699.906587231</v>
+        <v>1240265.11844501</v>
       </c>
       <c r="C304" t="n">
-        <v>8113562.216704026</v>
+        <v>7633177.140605113</v>
       </c>
       <c r="D304" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -33550,13 +33550,13 @@
         <v>3646</v>
       </c>
       <c r="B305" t="n">
-        <v>2048504.190829903</v>
+        <v>1015137.83047013</v>
       </c>
       <c r="C305" t="n">
-        <v>7739908.028019167</v>
+        <v>7332823.757942825</v>
       </c>
       <c r="D305" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -33660,13 +33660,13 @@
         <v>3664</v>
       </c>
       <c r="B306" t="n">
-        <v>1886472.284382399</v>
+        <v>851374.17317705</v>
       </c>
       <c r="C306" t="n">
-        <v>7693085.499141851</v>
+        <v>7351048.910195568</v>
       </c>
       <c r="D306" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -33770,13 +33770,13 @@
         <v>3671</v>
       </c>
       <c r="B307" t="n">
-        <v>2391223.246447153</v>
+        <v>1310836.093049647</v>
       </c>
       <c r="C307" t="n">
-        <v>7708765.696836311</v>
+        <v>7177313.192988577</v>
       </c>
       <c r="D307" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -33880,13 +33880,13 @@
         <v>3674</v>
       </c>
       <c r="B308" t="n">
-        <v>1970799.552886208</v>
+        <v>880587.8108814436</v>
       </c>
       <c r="C308" t="n">
-        <v>7566402.636788557</v>
+        <v>7205240.494811949</v>
       </c>
       <c r="D308" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -33986,13 +33986,13 @@
         <v>3675</v>
       </c>
       <c r="B309" t="n">
-        <v>1538669.4373853</v>
+        <v>638998.9656855417</v>
       </c>
       <c r="C309" t="n">
-        <v>7966992.476682454</v>
+        <v>7730906.170873526</v>
       </c>
       <c r="D309" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -34092,13 +34092,13 @@
         <v>3693</v>
       </c>
       <c r="B310" t="n">
-        <v>1794218.752582451</v>
+        <v>806341.4575047644</v>
       </c>
       <c r="C310" t="n">
-        <v>7795877.814001033</v>
+        <v>7478661.62470316</v>
       </c>
       <c r="D310" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -34206,13 +34206,13 @@
         <v>3710</v>
       </c>
       <c r="B311" t="n">
-        <v>2013534.251355763</v>
+        <v>852070.5000030847</v>
       </c>
       <c r="C311" t="n">
-        <v>7383406.938370705</v>
+        <v>7024263.996584867</v>
       </c>
       <c r="D311" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -34312,13 +34312,13 @@
         <v>3713</v>
       </c>
       <c r="B312" t="n">
-        <v>1924457.097834746</v>
+        <v>793451.0722239073</v>
       </c>
       <c r="C312" t="n">
-        <v>7443511.841890297</v>
+        <v>7111165.796282979</v>
       </c>
       <c r="D312" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -34418,13 +34418,13 @@
         <v>3714</v>
       </c>
       <c r="B313" t="n">
-        <v>1823885.310300505</v>
+        <v>960321.9127553552</v>
       </c>
       <c r="C313" t="n">
-        <v>8130459.201604553</v>
+        <v>7770075.405277894</v>
       </c>
       <c r="D313" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -34532,13 +34532,13 @@
         <v>3717</v>
       </c>
       <c r="B314" t="n">
-        <v>2277318.932023891</v>
+        <v>1314500.340813246</v>
       </c>
       <c r="C314" t="n">
-        <v>7989368.791233406</v>
+        <v>7470411.55631114</v>
       </c>
       <c r="D314" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -34646,13 +34646,13 @@
         <v>3734</v>
       </c>
       <c r="B315" t="n">
-        <v>1788796.58576223</v>
+        <v>795417.6251992576</v>
       </c>
       <c r="C315" t="n">
-        <v>7779896.486790683</v>
+        <v>7466219.108343782</v>
       </c>
       <c r="D315" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -34752,13 +34752,13 @@
         <v>3740</v>
       </c>
       <c r="B316" t="n">
-        <v>1803651.316994637</v>
+        <v>937673.9675345563</v>
       </c>
       <c r="C316" t="n">
-        <v>8119126.375304053</v>
+        <v>7767592.561358443</v>
       </c>
       <c r="D316" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -34862,13 +34862,13 @@
         <v>3745</v>
       </c>
       <c r="B317" t="n">
-        <v>1801841.894020368</v>
+        <v>932955.2392240467</v>
       </c>
       <c r="C317" t="n">
-        <v>8111088.594955014</v>
+        <v>7761020.094674127</v>
       </c>
       <c r="D317" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -34976,13 +34976,13 @@
         <v>3747</v>
       </c>
       <c r="B318" t="n">
-        <v>1939412.410810557</v>
+        <v>893413.2740193857</v>
       </c>
       <c r="C318" t="n">
-        <v>7677439.07271056</v>
+        <v>7317173.702014156</v>
       </c>
       <c r="D318" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -35082,13 +35082,13 @@
         <v>3748</v>
       </c>
       <c r="B319" t="n">
-        <v>2068832.37775786</v>
+        <v>966935.8110655572</v>
       </c>
       <c r="C319" t="n">
-        <v>7560680.012425686</v>
+        <v>7163905.234143174</v>
       </c>
       <c r="D319" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -35188,13 +35188,13 @@
         <v>3769</v>
       </c>
       <c r="B320" t="n">
-        <v>2014857.131331909</v>
+        <v>901063.3573547465</v>
       </c>
       <c r="C320" t="n">
-        <v>7513998.016382578</v>
+        <v>7141691.456389145</v>
       </c>
       <c r="D320" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -35298,13 +35298,13 @@
         <v>3773</v>
       </c>
       <c r="B321" t="n">
-        <v>1787507.808080464</v>
+        <v>793978.6563722049</v>
       </c>
       <c r="C321" t="n">
-        <v>7779176.475854752</v>
+        <v>7466050.894299788</v>
       </c>
       <c r="D321" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -35404,13 +35404,13 @@
         <v>3798</v>
       </c>
       <c r="B322" t="n">
-        <v>1803103.37523915</v>
+        <v>937035.8443000868</v>
       </c>
       <c r="C322" t="n">
-        <v>8118755.010480731</v>
+        <v>7767466.92359018</v>
       </c>
       <c r="D322" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -35510,13 +35510,13 @@
         <v>3809</v>
       </c>
       <c r="B323" t="n">
-        <v>1801838.467611874</v>
+        <v>932957.3167096926</v>
       </c>
       <c r="C323" t="n">
-        <v>8111102.101751235</v>
+        <v>7761033.618003026</v>
       </c>
       <c r="D323" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -35616,13 +35616,13 @@
         <v>3810</v>
       </c>
       <c r="B324" t="n">
-        <v>1906441.107284619</v>
+        <v>742189.8295238431</v>
       </c>
       <c r="C324" t="n">
-        <v>7347873.218454407</v>
+        <v>7031102.616702136</v>
       </c>
       <c r="D324" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -35718,13 +35718,13 @@
         <v>3812</v>
       </c>
       <c r="B325" t="n">
-        <v>2040030.140138574</v>
+        <v>1204831.096630455</v>
       </c>
       <c r="C325" t="n">
-        <v>8259061.93494989</v>
+        <v>7802781.437205079</v>
       </c>
       <c r="D325" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -35828,13 +35828,13 @@
         <v>3813</v>
       </c>
       <c r="B326" t="n">
-        <v>1890913.274601422</v>
+        <v>768364.9432803101</v>
       </c>
       <c r="C326" t="n">
-        <v>7457966.689942298</v>
+        <v>7136561.243197758</v>
       </c>
       <c r="D326" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -35930,13 +35930,13 @@
         <v>3814</v>
       </c>
       <c r="B327" t="n">
-        <v>1828835.974488501</v>
+        <v>918245.1823576771</v>
       </c>
       <c r="C327" t="n">
-        <v>8008689.373958997</v>
+        <v>7658141.67416576</v>
       </c>
       <c r="D327" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -36044,13 +36044,13 @@
         <v>3858</v>
       </c>
       <c r="B328" t="n">
-        <v>1941208.436154681</v>
+        <v>883948.0062963058</v>
       </c>
       <c r="C328" t="n">
-        <v>7647636.464533909</v>
+        <v>7289583.671315713</v>
       </c>
       <c r="D328" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -36150,13 +36150,13 @@
         <v>3867</v>
       </c>
       <c r="B329" t="n">
-        <v>1671179.051109826</v>
+        <v>595781.8793388287</v>
       </c>
       <c r="C329" t="n">
-        <v>7531422.417955859</v>
+        <v>7284364.541069679</v>
       </c>
       <c r="D329" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -36256,13 +36256,13 @@
         <v>3887</v>
       </c>
       <c r="B330" t="n">
-        <v>2422199.218405128</v>
+        <v>1450738.651482512</v>
       </c>
       <c r="C330" t="n">
-        <v>8007217.752110926</v>
+        <v>7431346.226469016</v>
       </c>
       <c r="D330" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -36358,13 +36358,13 @@
         <v>3898</v>
       </c>
       <c r="B331" t="n">
-        <v>1801839.507343647</v>
+        <v>932956.6863126344</v>
       </c>
       <c r="C331" t="n">
-        <v>8111098.003184742</v>
+        <v>7761029.514417323</v>
       </c>
       <c r="D331" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -36472,13 +36472,13 @@
         <v>3901</v>
       </c>
       <c r="B332" t="n">
-        <v>1799800.701698489</v>
+        <v>933214.175000439</v>
       </c>
       <c r="C332" t="n">
-        <v>8116580.923364165</v>
+        <v>7766767.591439922</v>
       </c>
       <c r="D332" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -36586,13 +36586,13 @@
         <v>3903</v>
       </c>
       <c r="B333" t="n">
-        <v>1855806.352569584</v>
+        <v>822900.4347418221</v>
       </c>
       <c r="C333" t="n">
-        <v>7691170.541352204</v>
+        <v>7360759.539254025</v>
       </c>
       <c r="D333" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -36692,13 +36692,13 @@
         <v>3917</v>
       </c>
       <c r="B334" t="n">
-        <v>2413239.742241597</v>
+        <v>1398859.961382667</v>
       </c>
       <c r="C334" t="n">
-        <v>7891380.102239743</v>
+        <v>7331689.938450952</v>
       </c>
       <c r="D334" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -36802,13 +36802,13 @@
         <v>3924</v>
       </c>
       <c r="B335" t="n">
-        <v>1905336.507221183</v>
+        <v>741181.2521927026</v>
       </c>
       <c r="C335" t="n">
-        <v>7347854.088667386</v>
+        <v>7031487.433753423</v>
       </c>
       <c r="D335" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -36904,13 +36904,13 @@
         <v>3926</v>
       </c>
       <c r="B336" t="n">
-        <v>2218839.362202709</v>
+        <v>1339425.420928823</v>
       </c>
       <c r="C336" t="n">
-        <v>8191497.439611167</v>
+        <v>7673369.967671252</v>
       </c>
       <c r="D336" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -37014,13 +37014,13 @@
         <v>3935</v>
       </c>
       <c r="B337" t="n">
-        <v>1849938.421824652</v>
+        <v>832626.1591297847</v>
       </c>
       <c r="C337" t="n">
-        <v>7731405.561332669</v>
+        <v>7399372.425750453</v>
       </c>
       <c r="D337" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         <v>3936</v>
       </c>
       <c r="B338" t="n">
-        <v>2041833.822692128</v>
+        <v>898747.3662114993</v>
       </c>
       <c r="C338" t="n">
-        <v>7441279.094708249</v>
+        <v>7066184.645066248</v>
       </c>
       <c r="D338" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -37222,13 +37222,13 @@
         <v>3939</v>
       </c>
       <c r="B339" t="n">
-        <v>2234216.295385768</v>
+        <v>1344563.454622347</v>
       </c>
       <c r="C339" t="n">
-        <v>8169029.306897366</v>
+        <v>7647378.951688493</v>
       </c>
       <c r="D339" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -37332,13 +37332,13 @@
         <v>3944</v>
       </c>
       <c r="B340" t="n">
-        <v>1935311.640820382</v>
+        <v>1048158.744441703</v>
       </c>
       <c r="C340" t="n">
-        <v>8097037.287876632</v>
+        <v>7697245.96729626</v>
       </c>
       <c r="D340" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -37442,13 +37442,13 @@
         <v>3970</v>
       </c>
       <c r="B341" t="n">
-        <v>1696118.854575664</v>
+        <v>741112.6057255134</v>
       </c>
       <c r="C341" t="n">
-        <v>7858895.56183242</v>
+        <v>7572813.603890932</v>
       </c>
       <c r="D341" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -37552,13 +37552,13 @@
         <v>3974</v>
       </c>
       <c r="B342" t="n">
-        <v>1806991.945842206</v>
+        <v>942421.3991615695</v>
       </c>
       <c r="C342" t="n">
-        <v>8123625.019663337</v>
+        <v>7770378.05435971</v>
       </c>
       <c r="D342" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -37666,13 +37666,13 @@
         <v>3988</v>
       </c>
       <c r="B343" t="n">
-        <v>2052214.146572333</v>
+        <v>945572.9309526996</v>
       </c>
       <c r="C343" t="n">
-        <v>7543358.130049534</v>
+        <v>7154422.044654272</v>
       </c>
       <c r="D343" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -37772,13 +37772,13 @@
         <v>3995</v>
       </c>
       <c r="B344" t="n">
-        <v>1838874.944455467</v>
+        <v>717081.4386109823</v>
       </c>
       <c r="C344" t="n">
-        <v>7446842.411341053</v>
+        <v>7145579.977586001</v>
       </c>
       <c r="D344" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -37882,13 +37882,13 @@
         <v>4004</v>
       </c>
       <c r="B345" t="n">
-        <v>1804334.765148695</v>
+        <v>941090.7619412541</v>
       </c>
       <c r="C345" t="n">
-        <v>8126422.277907358</v>
+        <v>7773925.371255712</v>
       </c>
       <c r="D345" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -37988,13 +37988,13 @@
         <v>4013</v>
       </c>
       <c r="B346" t="n">
-        <v>1597058.078469737</v>
+        <v>665539.1291105201</v>
       </c>
       <c r="C346" t="n">
-        <v>7897089.049884976</v>
+        <v>7645061.967565375</v>
       </c>
       <c r="D346" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -38094,13 +38094,13 @@
         <v>4021</v>
       </c>
       <c r="B347" t="n">
-        <v>1901350.986742238</v>
+        <v>941471.968636106</v>
       </c>
       <c r="C347" t="n">
-        <v>7897148.341452307</v>
+        <v>7529863.309869869</v>
       </c>
       <c r="D347" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -38208,13 +38208,13 @@
         <v>4025</v>
       </c>
       <c r="B348" t="n">
-        <v>2077645.622070921</v>
+        <v>963430.161283389</v>
       </c>
       <c r="C348" t="n">
-        <v>7529595.623977498</v>
+        <v>7132663.739116039</v>
       </c>
       <c r="D348" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -38314,13 +38314,13 @@
         <v>4038</v>
       </c>
       <c r="B349" t="n">
-        <v>1875979.600612678</v>
+        <v>756926.5886178723</v>
       </c>
       <c r="C349" t="n">
-        <v>7463680.948741343</v>
+        <v>7147224.038688864</v>
       </c>
       <c r="D349" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -38416,13 +38416,13 @@
         <v>4042</v>
       </c>
       <c r="B350" t="n">
-        <v>1841980.692528817</v>
+        <v>849952.5094616212</v>
       </c>
       <c r="C350" t="n">
-        <v>7796802.795625998</v>
+        <v>7461540.88379485</v>
       </c>
       <c r="D350" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -38530,13 +38530,13 @@
         <v>4063</v>
       </c>
       <c r="B351" t="n">
-        <v>1801839.548026247</v>
+        <v>932956.6616463196</v>
       </c>
       <c r="C351" t="n">
-        <v>8111097.842815708</v>
+        <v>7761029.353851941</v>
       </c>
       <c r="D351" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -38640,13 +38640,13 @@
         <v>4071</v>
       </c>
       <c r="B352" t="n">
-        <v>2375975.251399543</v>
+        <v>1227854.147484486</v>
       </c>
       <c r="C352" t="n">
-        <v>7520804.735987368</v>
+        <v>7015325.011235176</v>
       </c>
       <c r="D352" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -38746,13 +38746,13 @@
         <v>4074</v>
       </c>
       <c r="B353" t="n">
-        <v>2209821.26178743</v>
+        <v>1279387.055679167</v>
       </c>
       <c r="C353" t="n">
-        <v>8055983.911330064</v>
+        <v>7555616.698784092</v>
       </c>
       <c r="D353" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -38860,13 +38860,13 @@
         <v>4075</v>
       </c>
       <c r="B354" t="n">
-        <v>1801839.371864661</v>
+        <v>932956.7684549807</v>
       </c>
       <c r="C354" t="n">
-        <v>8111098.537236782</v>
+        <v>7761030.049123255</v>
       </c>
       <c r="D354" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -38966,13 +38966,13 @@
         <v>4087</v>
       </c>
       <c r="B355" t="n">
-        <v>2204558.29110388</v>
+        <v>1330635.212176623</v>
       </c>
       <c r="C355" t="n">
-        <v>8201927.041607631</v>
+        <v>7688187.266888417</v>
       </c>
       <c r="D355" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -39076,13 +39076,13 @@
         <v>4089</v>
       </c>
       <c r="B356" t="n">
-        <v>1777839.168837374</v>
+        <v>800321.7313554658</v>
       </c>
       <c r="C356" t="n">
-        <v>7819324.92858758</v>
+        <v>7506073.586262429</v>
       </c>
       <c r="D356" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -39186,13 +39186,13 @@
         <v>4097</v>
       </c>
       <c r="B357" t="n">
-        <v>1864663.326285969</v>
+        <v>816558.4935699872</v>
       </c>
       <c r="C357" t="n">
-        <v>7652640.971430819</v>
+        <v>7322578.642948418</v>
       </c>
       <c r="D357" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -39288,13 +39288,13 @@
         <v>4103</v>
       </c>
       <c r="B358" t="n">
-        <v>1802002.947570884</v>
+        <v>935762.0112128834</v>
       </c>
       <c r="C358" t="n">
-        <v>8118029.325896776</v>
+        <v>7767232.773530058</v>
       </c>
       <c r="D358" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -39394,13 +39394,13 @@
         <v>4106</v>
       </c>
       <c r="B359" t="n">
-        <v>1801838.626640155</v>
+        <v>932957.2202901614</v>
       </c>
       <c r="C359" t="n">
-        <v>8111101.474871689</v>
+        <v>7761032.990355647</v>
       </c>
       <c r="D359" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -39508,13 +39508,13 @@
         <v>4110</v>
       </c>
       <c r="B360" t="n">
-        <v>2039167.441708929</v>
+        <v>884618.5196295383</v>
       </c>
       <c r="C360" t="n">
-        <v>7409182.35561662</v>
+        <v>7038195.382624815</v>
       </c>
       <c r="D360" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -39614,13 +39614,13 @@
         <v>4112</v>
       </c>
       <c r="B361" t="n">
-        <v>1958662.09849776</v>
+        <v>810117.1405484569</v>
       </c>
       <c r="C361" t="n">
-        <v>7404430.284021785</v>
+        <v>7063282.586836583</v>
       </c>
       <c r="D361" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -39724,13 +39724,13 @@
         <v>4117</v>
       </c>
       <c r="B362" t="n">
-        <v>1782729.881486619</v>
+        <v>800877.479968342</v>
       </c>
       <c r="C362" t="n">
-        <v>7809029.983862158</v>
+        <v>7494902.194817801</v>
       </c>
       <c r="D362" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -39830,13 +39830,13 @@
         <v>4118</v>
       </c>
       <c r="B363" t="n">
-        <v>1922978.243456703</v>
+        <v>1088312.026990883</v>
       </c>
       <c r="C363" t="n">
-        <v>8230500.588842714</v>
+        <v>7822231.168221163</v>
       </c>
       <c r="D363" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -39936,13 +39936,13 @@
         <v>4121</v>
       </c>
       <c r="B364" t="n">
-        <v>1837873.253202236</v>
+        <v>792522.8517208797</v>
       </c>
       <c r="C364" t="n">
-        <v>7653269.431384407</v>
+        <v>7333122.484146098</v>
       </c>
       <c r="D364" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -40038,13 +40038,13 @@
         <v>4129</v>
       </c>
       <c r="B365" t="n">
-        <v>2040769.155928267</v>
+        <v>907475.4468771147</v>
       </c>
       <c r="C365" t="n">
-        <v>7467751.42984211</v>
+        <v>7090455.812982022</v>
       </c>
       <c r="D365" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -40140,13 +40140,13 @@
         <v>4141</v>
       </c>
       <c r="B366" t="n">
-        <v>2224292.276251758</v>
+        <v>1317425.047422073</v>
       </c>
       <c r="C366" t="n">
-        <v>8121522.465572145</v>
+        <v>7608711.751457619</v>
       </c>
       <c r="D366" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -40250,13 +40250,13 @@
         <v>4152</v>
       </c>
       <c r="B367" t="n">
-        <v>2377438.393022992</v>
+        <v>1229539.330205559</v>
       </c>
       <c r="C367" t="n">
-        <v>7521837.685795409</v>
+        <v>7015711.036293506</v>
       </c>
       <c r="D367" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -40356,13 +40356,13 @@
         <v>4155</v>
       </c>
       <c r="B368" t="n">
-        <v>1906874.044339445</v>
+        <v>658051.8477913656</v>
       </c>
       <c r="C368" t="n">
-        <v>7113640.18037463</v>
+        <v>6818352.73326298</v>
       </c>
       <c r="D368" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -40466,13 +40466,13 @@
         <v>4170</v>
       </c>
       <c r="B369" t="n">
-        <v>1890024.3342385</v>
+        <v>758791.7945581494</v>
       </c>
       <c r="C369" t="n">
-        <v>7434065.101002095</v>
+        <v>7115227.673961877</v>
       </c>
       <c r="D369" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -40568,13 +40568,13 @@
         <v>4172</v>
       </c>
       <c r="B370" t="n">
-        <v>2006361.652806005</v>
+        <v>911058.4929123854</v>
       </c>
       <c r="C370" t="n">
-        <v>7561943.376557656</v>
+        <v>7188085.33775318</v>
       </c>
       <c r="D370" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -40674,13 +40674,13 @@
         <v>4174</v>
       </c>
       <c r="B371" t="n">
-        <v>1956222.406067165</v>
+        <v>892572.7018842557</v>
       </c>
       <c r="C371" t="n">
-        <v>7634330.013639138</v>
+        <v>7271987.959522819</v>
       </c>
       <c r="D371" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -40780,13 +40780,13 @@
         <v>4180</v>
       </c>
       <c r="B372" t="n">
-        <v>1905547.208927434</v>
+        <v>736140.9447997462</v>
       </c>
       <c r="C372" t="n">
-        <v>7333478.219651553</v>
+        <v>7018376.531445957</v>
       </c>
       <c r="D372" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -40886,13 +40886,13 @@
         <v>4182</v>
       </c>
       <c r="B373" t="n">
-        <v>2039455.013207444</v>
+        <v>918595.2735081387</v>
       </c>
       <c r="C373" t="n">
-        <v>7501298.071634308</v>
+        <v>7121195.303258172</v>
       </c>
       <c r="D373" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -40988,13 +40988,13 @@
         <v>4192</v>
       </c>
       <c r="B374" t="n">
-        <v>1786011.789837781</v>
+        <v>731413.8905097654</v>
       </c>
       <c r="C374" t="n">
-        <v>7615458.402657841</v>
+        <v>7318138.062029734</v>
       </c>
       <c r="D374" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -41090,13 +41090,13 @@
         <v>4207</v>
       </c>
       <c r="B375" t="n">
-        <v>1887402.025312737</v>
+        <v>633557.9051497146</v>
       </c>
       <c r="C375" t="n">
-        <v>7094640.938260341</v>
+        <v>6808041.547381579</v>
       </c>
       <c r="D375" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -41196,13 +41196,13 @@
         <v>4211</v>
       </c>
       <c r="B376" t="n">
-        <v>1834643.673225024</v>
+        <v>859068.8439565091</v>
       </c>
       <c r="C376" t="n">
-        <v>7838664.134890159</v>
+        <v>7502179.611384838</v>
       </c>
       <c r="D376" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -41306,13 +41306,13 @@
         <v>4221</v>
       </c>
       <c r="B377" t="n">
-        <v>2423953.17010685</v>
+        <v>1261784.406171691</v>
       </c>
       <c r="C377" t="n">
-        <v>7496505.844442226</v>
+        <v>6976109.48943565</v>
       </c>
       <c r="D377" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -41412,13 +41412,13 @@
         <v>4222</v>
       </c>
       <c r="B378" t="n">
-        <v>2016928.845062387</v>
+        <v>895464.5893220461</v>
       </c>
       <c r="C378" t="n">
-        <v>7493673.104769103</v>
+        <v>7122587.717520681</v>
       </c>
       <c r="D378" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -41518,13 +41518,13 @@
         <v>4226</v>
       </c>
       <c r="B379" t="n">
-        <v>2102674.427856228</v>
+        <v>1242979.438939674</v>
       </c>
       <c r="C379" t="n">
-        <v>8211892.235715297</v>
+        <v>7736304.724697713</v>
       </c>
       <c r="D379" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -41628,13 +41628,13 @@
         <v>4231</v>
       </c>
       <c r="B380" t="n">
-        <v>1792134.309626983</v>
+        <v>826997.3063466386</v>
       </c>
       <c r="C380" t="n">
-        <v>7855698.003788751</v>
+        <v>7533634.112855488</v>
       </c>
       <c r="D380" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -41738,13 +41738,13 @@
         <v>4233</v>
       </c>
       <c r="B381" t="n">
-        <v>1887422.799058957</v>
+        <v>755954.953592106</v>
       </c>
       <c r="C381" t="n">
-        <v>7432759.65957224</v>
+        <v>7114997.899509427</v>
       </c>
       <c r="D381" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -41840,13 +41840,13 @@
         <v>4234</v>
       </c>
       <c r="B382" t="n">
-        <v>1997782.421111356</v>
+        <v>846054.0797774419</v>
       </c>
       <c r="C382" t="n">
-        <v>7405951.135387111</v>
+        <v>7050376.340893129</v>
       </c>
       <c r="D382" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -41950,13 +41950,13 @@
         <v>4235</v>
       </c>
       <c r="B383" t="n">
-        <v>1915034.908974461</v>
+        <v>743740.8649608215</v>
       </c>
       <c r="C383" t="n">
-        <v>7330719.123856233</v>
+        <v>7012425.186389853</v>
       </c>
       <c r="D383" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -42052,13 +42052,13 @@
         <v>4239</v>
       </c>
       <c r="B384" t="n">
-        <v>1924168.298669093</v>
+        <v>746337.8616099986</v>
       </c>
       <c r="C384" t="n">
-        <v>7315075.697250812</v>
+        <v>6994927.191403398</v>
       </c>
       <c r="D384" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -42162,13 +42162,13 @@
         <v>4240</v>
       </c>
       <c r="B385" t="n">
-        <v>1928213.224768828</v>
+        <v>1069681.430785734</v>
       </c>
       <c r="C385" t="n">
-        <v>8169854.162804519</v>
+        <v>7765578.331985452</v>
       </c>
       <c r="D385" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -42268,13 +42268,13 @@
         <v>4243</v>
       </c>
       <c r="B386" t="n">
-        <v>1801400.451371568</v>
+        <v>934191.1304383193</v>
       </c>
       <c r="C386" t="n">
-        <v>8115354.126157491</v>
+        <v>7765045.357648998</v>
       </c>
       <c r="D386" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -42382,13 +42382,13 @@
         <v>4261</v>
       </c>
       <c r="B387" t="n">
-        <v>2207916.459713933</v>
+        <v>1199981.113510629</v>
       </c>
       <c r="C387" t="n">
-        <v>7850854.205869231</v>
+        <v>7372729.705773313</v>
       </c>
       <c r="D387" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -42488,13 +42488,13 @@
         <v>4271</v>
       </c>
       <c r="B388" t="n">
-        <v>1610220.901322407</v>
+        <v>700988.1585922581</v>
       </c>
       <c r="C388" t="n">
-        <v>7958814.831504736</v>
+        <v>7696187.191234428</v>
       </c>
       <c r="D388" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -42602,13 +42602,13 @@
         <v>4273</v>
       </c>
       <c r="B389" t="n">
-        <v>1915817.868121061</v>
+        <v>1029710.941166419</v>
       </c>
       <c r="C389" t="n">
-        <v>8094797.492988885</v>
+        <v>7702682.060825936</v>
       </c>
       <c r="D389" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -42708,13 +42708,13 @@
         <v>4276</v>
       </c>
       <c r="B390" t="n">
-        <v>1898419.253783789</v>
+        <v>933864.6865614713</v>
       </c>
       <c r="C390" t="n">
-        <v>7884026.929128624</v>
+        <v>7519122.989052285</v>
       </c>
       <c r="D390" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -42822,13 +42822,13 @@
         <v>4277</v>
       </c>
       <c r="B391" t="n">
-        <v>1838351.470560767</v>
+        <v>801088.0348656627</v>
       </c>
       <c r="C391" t="n">
-        <v>7675086.899970133</v>
+        <v>7352707.953988129</v>
       </c>
       <c r="D391" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -42932,13 +42932,13 @@
         <v>4281</v>
       </c>
       <c r="B392" t="n">
-        <v>2021390.624855704</v>
+        <v>893278.0735982689</v>
       </c>
       <c r="C392" t="n">
-        <v>7476737.612188234</v>
+        <v>7105666.154510666</v>
       </c>
       <c r="D392" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -43034,13 +43034,13 @@
         <v>4287</v>
       </c>
       <c r="B393" t="n">
-        <v>2040581.332846737</v>
+        <v>935429.8592254971</v>
       </c>
       <c r="C393" t="n">
-        <v>7544300.910486443</v>
+        <v>7159556.414963406</v>
       </c>
       <c r="D393" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -43140,13 +43140,13 @@
         <v>4290</v>
       </c>
       <c r="B394" t="n">
-        <v>1641084.725384216</v>
+        <v>716546.465768992</v>
       </c>
       <c r="C394" t="n">
-        <v>7925968.984424772</v>
+        <v>7654594.048810294</v>
       </c>
       <c r="D394" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -43254,13 +43254,13 @@
         <v>4291</v>
       </c>
       <c r="B395" t="n">
-        <v>1859077.319840057</v>
+        <v>983701.9591929991</v>
       </c>
       <c r="C395" t="n">
-        <v>8108467.086115994</v>
+        <v>7736727.592965069</v>
       </c>
       <c r="D395" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -43360,13 +43360,13 @@
         <v>4292</v>
       </c>
       <c r="B396" t="n">
-        <v>1909200.101506271</v>
+        <v>1027304.066563739</v>
       </c>
       <c r="C396" t="n">
-        <v>8104115.18783743</v>
+        <v>7713614.724844063</v>
       </c>
       <c r="D396" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -43470,13 +43470,13 @@
         <v>4300</v>
       </c>
       <c r="B397" t="n">
-        <v>1858969.030934479</v>
+        <v>808635.2399149899</v>
       </c>
       <c r="C397" t="n">
-        <v>7645209.447939668</v>
+        <v>7317969.387485085</v>
       </c>
       <c r="D397" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -43572,13 +43572,13 @@
         <v>4303</v>
       </c>
       <c r="B398" t="n">
-        <v>1934444.749871182</v>
+        <v>785054.4047317558</v>
       </c>
       <c r="C398" t="n">
-        <v>7395835.015887243</v>
+        <v>7064346.353197711</v>
       </c>
       <c r="D398" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -43674,13 +43674,13 @@
         <v>4308</v>
       </c>
       <c r="B399" t="n">
-        <v>1804330.532630768</v>
+        <v>941093.168617904</v>
       </c>
       <c r="C399" t="n">
-        <v>8126438.531004326</v>
+        <v>7773941.685477682</v>
       </c>
       <c r="D399" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -43780,13 +43780,13 @@
         <v>4320</v>
       </c>
       <c r="B400" t="n">
-        <v>1899804.654196187</v>
+        <v>1019839.856118537</v>
       </c>
       <c r="C400" t="n">
-        <v>8106772.89589512</v>
+        <v>7719607.072087442</v>
       </c>
       <c r="D400" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -43890,13 +43890,13 @@
         <v>4322</v>
       </c>
       <c r="B401" t="n">
-        <v>1724733.644733144</v>
+        <v>655963.8947753001</v>
       </c>
       <c r="C401" t="n">
-        <v>7562236.514498056</v>
+        <v>7292549.41708691</v>
       </c>
       <c r="D401" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -43996,13 +43996,13 @@
         <v>4323</v>
       </c>
       <c r="B402" t="n">
-        <v>1905321.258962498</v>
+        <v>657878.4500441813</v>
       </c>
       <c r="C402" t="n">
-        <v>7117100.601168008</v>
+        <v>6822052.60540196</v>
       </c>
       <c r="D402" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -44106,13 +44106,13 @@
         <v>4326</v>
       </c>
       <c r="B403" t="n">
-        <v>1891669.014666299</v>
+        <v>921949.8163392654</v>
       </c>
       <c r="C403" t="n">
-        <v>7868626.448245585</v>
+        <v>7507762.249294478</v>
       </c>
       <c r="D403" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -44212,13 +44212,13 @@
         <v>4328</v>
       </c>
       <c r="B404" t="n">
-        <v>1976365.413352341</v>
+        <v>803599.3848936844</v>
       </c>
       <c r="C404" t="n">
-        <v>7342564.049330031</v>
+        <v>7000861.058985945</v>
       </c>
       <c r="D404" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -44318,13 +44318,13 @@
         <v>4333</v>
       </c>
       <c r="B405" t="n">
-        <v>2194913.918396527</v>
+        <v>1132513.143785673</v>
       </c>
       <c r="C405" t="n">
-        <v>7701646.166449486</v>
+        <v>7243899.79349531</v>
       </c>
       <c r="D405" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -44428,13 +44428,13 @@
         <v>4341</v>
       </c>
       <c r="B406" t="n">
-        <v>2053094.109278327</v>
+        <v>887640.3656196744</v>
       </c>
       <c r="C406" t="n">
-        <v>7382973.639556714</v>
+        <v>7009469.959449735</v>
       </c>
       <c r="D406" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -44534,13 +44534,13 @@
         <v>4344</v>
       </c>
       <c r="B407" t="n">
-        <v>2034299.764555109</v>
+        <v>971244.631381192</v>
       </c>
       <c r="C407" t="n">
-        <v>7656429.491878632</v>
+        <v>7262936.003014339</v>
       </c>
       <c r="D407" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -44636,13 +44636,13 @@
         <v>4346</v>
       </c>
       <c r="B408" t="n">
-        <v>1860187.672430184</v>
+        <v>678703.3495062788</v>
       </c>
       <c r="C408" t="n">
-        <v>7288704.448701348</v>
+        <v>6994220.969581655</v>
       </c>
       <c r="D408" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -44746,13 +44746,13 @@
         <v>4351</v>
       </c>
       <c r="B409" t="n">
-        <v>2037989.156287745</v>
+        <v>897632.8050516389</v>
       </c>
       <c r="C409" t="n">
-        <v>7447719.364644736</v>
+        <v>7073401.308640633</v>
       </c>
       <c r="D409" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -44852,13 +44852,13 @@
         <v>4355</v>
       </c>
       <c r="B410" t="n">
-        <v>1983344.629489467</v>
+        <v>818985.6247727564</v>
       </c>
       <c r="C410" t="n">
-        <v>7367506.044513294</v>
+        <v>7020883.93838266</v>
       </c>
       <c r="D410" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -44958,13 +44958,13 @@
         <v>4357</v>
       </c>
       <c r="B411" t="n">
-        <v>1885835.101443906</v>
+        <v>715176.7682708891</v>
       </c>
       <c r="C411" t="n">
-        <v>7325004.46883441</v>
+        <v>7017859.088678977</v>
       </c>
       <c r="D411" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -45068,13 +45068,13 @@
         <v>4366</v>
       </c>
       <c r="B412" t="n">
-        <v>2196747.743504643</v>
+        <v>1151268.626958098</v>
       </c>
       <c r="C412" t="n">
-        <v>7747565.085348806</v>
+        <v>7284377.771682632</v>
       </c>
       <c r="D412" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -45170,13 +45170,13 @@
         <v>4367</v>
       </c>
       <c r="B413" t="n">
-        <v>1970165.334397752</v>
+        <v>812500.3938900877</v>
       </c>
       <c r="C413" t="n">
-        <v>7382433.929423925</v>
+        <v>7039186.458984583</v>
       </c>
       <c r="D413" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -45276,13 +45276,13 @@
         <v>4369</v>
       </c>
       <c r="B414" t="n">
-        <v>2415727.83057964</v>
+        <v>1403808.236667383</v>
       </c>
       <c r="C414" t="n">
-        <v>7898614.749269055</v>
+        <v>7337190.225941119</v>
       </c>
       <c r="D414" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -45386,13 +45386,13 @@
         <v>4371</v>
       </c>
       <c r="B415" t="n">
-        <v>2465808.624509737</v>
+        <v>1473038.200221292</v>
       </c>
       <c r="C415" t="n">
-        <v>7963616.314928639</v>
+        <v>7376061.910436039</v>
       </c>
       <c r="D415" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -45500,13 +45500,13 @@
         <v>4372</v>
       </c>
       <c r="B416" t="n">
-        <v>2038783.127164007</v>
+        <v>1204283.315785436</v>
       </c>
       <c r="C416" t="n">
-        <v>8260548.967981491</v>
+        <v>7804598.354878897</v>
       </c>
       <c r="D416" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -45610,13 +45610,13 @@
         <v>4375</v>
       </c>
       <c r="B417" t="n">
-        <v>1936980.068181583</v>
+        <v>1049231.602475701</v>
       </c>
       <c r="C417" t="n">
-        <v>8095907.410266573</v>
+        <v>7695589.812407699</v>
       </c>
       <c r="D417" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -45720,13 +45720,13 @@
         <v>4379</v>
       </c>
       <c r="B418" t="n">
-        <v>1906222.67730506</v>
+        <v>741555.1601668685</v>
       </c>
       <c r="C418" t="n">
-        <v>7346673.983053016</v>
+        <v>7030094.917851634</v>
       </c>
       <c r="D418" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -45822,13 +45822,13 @@
         <v>4382</v>
       </c>
       <c r="B419" t="n">
-        <v>2389014.272784133</v>
+        <v>1307307.75626615</v>
       </c>
       <c r="C419" t="n">
-        <v>7704577.152471779</v>
+        <v>7174401.016910886</v>
       </c>
       <c r="D419" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -45924,13 +45924,13 @@
         <v>4393</v>
       </c>
       <c r="B420" t="n">
-        <v>2054803.166370664</v>
+        <v>1001179.676160902</v>
       </c>
       <c r="C420" t="n">
-        <v>7687249.067520503</v>
+        <v>7283072.355525585</v>
       </c>
       <c r="D420" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -46026,13 +46026,13 @@
         <v>4402</v>
       </c>
       <c r="B421" t="n">
-        <v>1962448.789900562</v>
+        <v>815241.2551401245</v>
       </c>
       <c r="C421" t="n">
-        <v>7409077.982552608</v>
+        <v>7066104.139167313</v>
       </c>
       <c r="D421" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -46136,13 +46136,13 @@
         <v>4409</v>
       </c>
       <c r="B422" t="n">
-        <v>1909178.917754884</v>
+        <v>1025492.154410649</v>
       </c>
       <c r="C422" t="n">
-        <v>8099432.136392394</v>
+        <v>7709400.16853808</v>
       </c>
       <c r="D422" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -46242,13 +46242,13 @@
         <v>4412</v>
       </c>
       <c r="B423" t="n">
-        <v>2273313.631102453</v>
+        <v>1380286.019433746</v>
       </c>
       <c r="C423" t="n">
-        <v>8170823.49780247</v>
+        <v>7633975.751870103</v>
       </c>
       <c r="D423" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -46352,13 +46352,13 @@
         <v>4417</v>
       </c>
       <c r="B424" t="n">
-        <v>2187891.2692836</v>
+        <v>1328902.754502517</v>
       </c>
       <c r="C424" t="n">
-        <v>8236192.647362433</v>
+        <v>7725258.188436828</v>
       </c>
       <c r="D424" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -46462,13 +46462,13 @@
         <v>4424</v>
       </c>
       <c r="B425" t="n">
-        <v>1683397.219072427</v>
+        <v>754632.1239694392</v>
       </c>
       <c r="C425" t="n">
-        <v>7925046.368293658</v>
+        <v>7637682.392250299</v>
       </c>
       <c r="D425" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -46576,13 +46576,13 @@
         <v>4436</v>
       </c>
       <c r="B426" t="n">
-        <v>1976850.726115263</v>
+        <v>804148.7317468097</v>
       </c>
       <c r="C426" t="n">
-        <v>7342867.217843911</v>
+        <v>7000958.990562608</v>
       </c>
       <c r="D426" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -46682,13 +46682,13 @@
         <v>4442</v>
       </c>
       <c r="B427" t="n">
-        <v>1718422.291451611</v>
+        <v>743190.8139517823</v>
       </c>
       <c r="C427" t="n">
-        <v>7810767.156605036</v>
+        <v>7520704.263634744</v>
       </c>
       <c r="D427" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -46792,13 +46792,13 @@
         <v>4454</v>
       </c>
       <c r="B428" t="n">
-        <v>1981952.788397779</v>
+        <v>825539.6019553869</v>
       </c>
       <c r="C428" t="n">
-        <v>7388950.906090406</v>
+        <v>7040783.296693402</v>
       </c>
       <c r="D428" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -46898,13 +46898,13 @@
         <v>4459</v>
       </c>
       <c r="B429" t="n">
-        <v>1849612.984433461</v>
+        <v>725646.2862649208</v>
       </c>
       <c r="C429" t="n">
-        <v>7443626.276008854</v>
+        <v>7138719.315813894</v>
       </c>
       <c r="D429" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -47004,13 +47004,13 @@
         <v>4462</v>
       </c>
       <c r="B430" t="n">
-        <v>2030393.79633777</v>
+        <v>869413.4325444818</v>
       </c>
       <c r="C430" t="n">
-        <v>7389204.453270487</v>
+        <v>7023359.130377598</v>
       </c>
       <c r="D430" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -47110,13 +47110,13 @@
         <v>4464</v>
       </c>
       <c r="B431" t="n">
-        <v>2405406.291573273</v>
+        <v>1316627.087103874</v>
       </c>
       <c r="C431" t="n">
-        <v>7690293.358817382</v>
+        <v>7155590.619163917</v>
       </c>
       <c r="D431" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -47216,13 +47216,13 @@
         <v>4467</v>
       </c>
       <c r="B432" t="n">
-        <v>1881823.808952784</v>
+        <v>759998.2711238523</v>
       </c>
       <c r="C432" t="n">
-        <v>7457618.580195861</v>
+        <v>7139582.832866422</v>
       </c>
       <c r="D432" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -47322,13 +47322,13 @@
         <v>4468</v>
       </c>
       <c r="B433" t="n">
-        <v>2038748.431081227</v>
+        <v>813013.733108615</v>
       </c>
       <c r="C433" t="n">
-        <v>7212454.691544692</v>
+        <v>6860647.069206988</v>
       </c>
       <c r="D433" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -47432,13 +47432,13 @@
         <v>4470</v>
       </c>
       <c r="B434" t="n">
-        <v>1818331.176558931</v>
+        <v>785355.0676290115</v>
       </c>
       <c r="C434" t="n">
-        <v>7681549.254976866</v>
+        <v>7366032.468815591</v>
       </c>
       <c r="D434" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -47546,13 +47546,13 @@
         <v>4478</v>
       </c>
       <c r="B435" t="n">
-        <v>2226199.357067144</v>
+        <v>1353645.198373404</v>
       </c>
       <c r="C435" t="n">
-        <v>8211263.281824611</v>
+        <v>7688210.415547162</v>
       </c>
       <c r="D435" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -47652,13 +47652,13 @@
         <v>4482</v>
       </c>
       <c r="B436" t="n">
-        <v>2202940.352188088</v>
+        <v>1306819.906852901</v>
       </c>
       <c r="C436" t="n">
-        <v>8143788.681121105</v>
+        <v>7636801.36517616</v>
       </c>
       <c r="D436" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -47758,13 +47758,13 @@
         <v>4491</v>
       </c>
       <c r="B437" t="n">
-        <v>2228922.785340267</v>
+        <v>1339987.087739875</v>
       </c>
       <c r="C437" t="n">
-        <v>8169468.803789869</v>
+        <v>7649803.326145631</v>
       </c>
       <c r="D437" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -47864,13 +47864,13 @@
         <v>4509</v>
       </c>
       <c r="B438" t="n">
-        <v>1999216.606831029</v>
+        <v>868228.669114528</v>
       </c>
       <c r="C438" t="n">
-        <v>7463037.319476943</v>
+        <v>7101425.226468498</v>
       </c>
       <c r="D438" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -47970,13 +47970,13 @@
         <v>4518</v>
       </c>
       <c r="B439" t="n">
-        <v>2063836.299776184</v>
+        <v>956953.654913855</v>
       </c>
       <c r="C439" t="n">
-        <v>7545810.966217021</v>
+        <v>7152352.132933694</v>
       </c>
       <c r="D439" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -48080,13 +48080,13 @@
         <v>4519</v>
       </c>
       <c r="B440" t="n">
-        <v>2044936.022170056</v>
+        <v>935404.6545233275</v>
       </c>
       <c r="C440" t="n">
-        <v>7533567.491387164</v>
+        <v>7148276.677335054</v>
       </c>
       <c r="D440" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -48190,13 +48190,13 @@
         <v>4528</v>
       </c>
       <c r="B441" t="n">
-        <v>2008909.513700901</v>
+        <v>870782.6060115555</v>
       </c>
       <c r="C441" t="n">
-        <v>7446100.793011979</v>
+        <v>7082579.702642032</v>
       </c>
       <c r="D441" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -48296,13 +48296,13 @@
         <v>4533</v>
       </c>
       <c r="B442" t="n">
-        <v>2403647.587002712</v>
+        <v>1312749.542992215</v>
       </c>
       <c r="C442" t="n">
-        <v>7684073.023105011</v>
+        <v>7150701.59799769</v>
       </c>
       <c r="D442" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -48402,13 +48402,13 @@
         <v>4537</v>
       </c>
       <c r="B443" t="n">
-        <v>2018408.968562859</v>
+        <v>899893.37193707</v>
       </c>
       <c r="C443" t="n">
-        <v>7502092.377314866</v>
+        <v>7129642.153771379</v>
       </c>
       <c r="D443" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -48508,13 +48508,13 @@
         <v>4545</v>
       </c>
       <c r="B444" t="n">
-        <v>2413216.45211604</v>
+        <v>1401722.570740789</v>
       </c>
       <c r="C444" t="n">
-        <v>7899022.881518495</v>
+        <v>7338499.516503187</v>
       </c>
       <c r="D444" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -48618,13 +48618,13 @@
         <v>4549</v>
       </c>
       <c r="B445" t="n">
-        <v>1849981.169083416</v>
+        <v>726058.9151955633</v>
       </c>
       <c r="C445" t="n">
-        <v>7443840.185300016</v>
+        <v>7138778.247586998</v>
       </c>
       <c r="D445" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -48720,13 +48720,13 @@
         <v>4550</v>
       </c>
       <c r="B446" t="n">
-        <v>1825496.084733537</v>
+        <v>706414.2047294204</v>
       </c>
       <c r="C446" t="n">
-        <v>7450868.295420004</v>
+        <v>7154148.621156714</v>
       </c>
       <c r="D446" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -48822,13 +48822,13 @@
         <v>4561</v>
       </c>
       <c r="B447" t="n">
-        <v>1825245.825611675</v>
+        <v>698404.5065780235</v>
       </c>
       <c r="C447" t="n">
-        <v>7429672.541727646</v>
+        <v>7134996.105120971</v>
       </c>
       <c r="D447" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -48928,13 +48928,13 @@
         <v>4563</v>
       </c>
       <c r="B448" t="n">
-        <v>1835634.36961845</v>
+        <v>702717.4776401871</v>
       </c>
       <c r="C448" t="n">
-        <v>7415706.496154618</v>
+        <v>7118506.468513691</v>
       </c>
       <c r="D448" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -49030,13 +49030,13 @@
         <v>4567</v>
       </c>
       <c r="B449" t="n">
-        <v>1999659.027443948</v>
+        <v>1109868.194280577</v>
       </c>
       <c r="C449" t="n">
-        <v>8106697.175848476</v>
+        <v>7681333.95040018</v>
       </c>
       <c r="D449" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -49140,13 +49140,13 @@
         <v>4569</v>
       </c>
       <c r="B450" t="n">
-        <v>1557469.03654526</v>
+        <v>654048.655040067</v>
       </c>
       <c r="C450" t="n">
-        <v>7961575.488941259</v>
+        <v>7718803.829059006</v>
       </c>
       <c r="D450" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -49246,13 +49246,13 @@
         <v>4577</v>
       </c>
       <c r="B451" t="n">
-        <v>2244729.583207733</v>
+        <v>1165684.610376059</v>
       </c>
       <c r="C451" t="n">
-        <v>7670681.604099244</v>
+        <v>7197661.008526952</v>
       </c>
       <c r="D451" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -49352,13 +49352,13 @@
         <v>4579</v>
       </c>
       <c r="B452" t="n">
-        <v>1703348.369396201</v>
+        <v>640534.0427043657</v>
       </c>
       <c r="C452" t="n">
-        <v>7573081.361165373</v>
+        <v>7310353.859851683</v>
       </c>
       <c r="D452" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -49454,13 +49454,13 @@
         <v>4580</v>
       </c>
       <c r="B453" t="n">
-        <v>1825495.337952681</v>
+        <v>706419.6835784412</v>
       </c>
       <c r="C453" t="n">
-        <v>7450885.051607602</v>
+        <v>7154164.107549788</v>
       </c>
       <c r="D453" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -49556,13 +49556,13 @@
         <v>4584</v>
       </c>
       <c r="B454" t="n">
-        <v>1876091.595969415</v>
+        <v>712802.2557810557</v>
       </c>
       <c r="C454" t="n">
-        <v>7342777.843329567</v>
+        <v>7037532.177732982</v>
       </c>
       <c r="D454" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -49658,13 +49658,13 @@
         <v>4588</v>
       </c>
       <c r="B455" t="n">
-        <v>1895269.943125459</v>
+        <v>723076.9747472624</v>
       </c>
       <c r="C455" t="n">
-        <v>7323187.488598228</v>
+        <v>7012780.509478183</v>
       </c>
       <c r="D455" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -49764,13 +49764,13 @@
         <v>4607</v>
       </c>
       <c r="B456" t="n">
-        <v>1824260.357528686</v>
+        <v>699651.0857749057</v>
       </c>
       <c r="C456" t="n">
-        <v>7435508.222291674</v>
+        <v>7140656.639148206</v>
       </c>
       <c r="D456" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -49866,13 +49866,13 @@
         <v>4611</v>
       </c>
       <c r="B457" t="n">
-        <v>1968911.917917104</v>
+        <v>859137.7153092435</v>
       </c>
       <c r="C457" t="n">
-        <v>7512854.469271375</v>
+        <v>7157559.744527712</v>
       </c>
       <c r="D457" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         <v>4612</v>
       </c>
       <c r="B458" t="n">
-        <v>1841513.255539552</v>
+        <v>802987.1524434208</v>
       </c>
       <c r="C458" t="n">
-        <v>7672497.718479305</v>
+        <v>7349183.721803095</v>
       </c>
       <c r="D458" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -50082,13 +50082,13 @@
         <v>4614</v>
       </c>
       <c r="B459" t="n">
-        <v>1832586.296453903</v>
+        <v>702502.7661407557</v>
       </c>
       <c r="C459" t="n">
-        <v>7422671.601275139</v>
+        <v>7125947.262864502</v>
       </c>
       <c r="D459" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -50188,13 +50188,13 @@
         <v>4622</v>
       </c>
       <c r="B460" t="n">
-        <v>2222087.108814477</v>
+        <v>1257297.633256143</v>
       </c>
       <c r="C460" t="n">
-        <v>7969000.235127258</v>
+        <v>7473134.234206335</v>
       </c>
       <c r="D460" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -50302,13 +50302,13 @@
         <v>4631</v>
       </c>
       <c r="B461" t="n">
-        <v>1973139.016163049</v>
+        <v>836261.263998023</v>
       </c>
       <c r="C461" t="n">
-        <v>7440115.712750654</v>
+        <v>7090263.418918243</v>
       </c>
       <c r="D461" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -50408,13 +50408,13 @@
         <v>4634</v>
       </c>
       <c r="B462" t="n">
-        <v>1852942.341462358</v>
+        <v>818088.6829599985</v>
       </c>
       <c r="C462" t="n">
-        <v>7685227.416379438</v>
+        <v>7356448.009733859</v>
       </c>
       <c r="D462" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -50514,13 +50514,13 @@
         <v>4635</v>
       </c>
       <c r="B463" t="n">
-        <v>1967608.328981286</v>
+        <v>812459.5887319738</v>
       </c>
       <c r="C463" t="n">
-        <v>7388667.264020307</v>
+        <v>7045757.429179742</v>
       </c>
       <c r="D463" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -50616,13 +50616,13 @@
         <v>4639</v>
       </c>
       <c r="B464" t="n">
-        <v>1922676.396530209</v>
+        <v>792155.4301664867</v>
       </c>
       <c r="C464" t="n">
-        <v>7444376.505624406</v>
+        <v>7112601.233078413</v>
       </c>
       <c r="D464" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -50722,13 +50722,13 @@
         <v>4651</v>
       </c>
       <c r="B465" t="n">
-        <v>1564367.292532743</v>
+        <v>620991.8827321788</v>
       </c>
       <c r="C465" t="n">
-        <v>7858118.619559167</v>
+        <v>7621992.967163532</v>
       </c>
       <c r="D465" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -50824,13 +50824,13 @@
         <v>4655</v>
       </c>
       <c r="B466" t="n">
-        <v>1756744.614645534</v>
+        <v>737374.9123652017</v>
       </c>
       <c r="C466" t="n">
-        <v>7702655.079118814</v>
+        <v>7408188.687970732</v>
       </c>
       <c r="D466" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -50934,13 +50934,13 @@
         <v>4659</v>
       </c>
       <c r="B467" t="n">
-        <v>1821911.209001755</v>
+        <v>790926.6699975308</v>
       </c>
       <c r="C467" t="n">
-        <v>7687780.837120468</v>
+        <v>7370342.798530737</v>
       </c>
       <c r="D467" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG467"/>
+  <dimension ref="A1:AH467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>area</t>
         </is>
       </c>
@@ -643,7 +648,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -754,7 +764,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -865,7 +880,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -980,7 +1000,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1091,7 +1116,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1202,7 +1232,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1313,7 +1348,12 @@
           <t>syeno granite</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1428,7 +1468,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1543,7 +1588,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1658,7 +1708,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1773,7 +1828,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1892,7 +1952,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2011,7 +2076,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2122,7 +2192,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2233,7 +2308,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2352,7 +2432,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2467,7 +2552,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2582,7 +2672,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2693,7 +2788,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2808,7 +2908,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2919,7 +3024,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3034,7 +3144,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3145,7 +3260,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3264,7 +3384,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3379,7 +3504,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3490,7 +3620,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3597,7 +3732,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3708,7 +3848,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3819,7 +3964,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3934,7 +4084,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4049,7 +4204,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4168,7 +4328,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4283,7 +4448,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4398,7 +4568,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4513,7 +4688,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4628,7 +4808,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4743,7 +4928,12 @@
           <t>syeno granite</t>
         </is>
       </c>
-      <c r="AG38" t="n">
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4858,7 +5048,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG39" t="n">
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4973,7 +5168,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG40" t="n">
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5084,7 +5284,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG41" t="n">
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5199,7 +5404,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG42" t="n">
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5314,7 +5524,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG43" t="n">
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5433,7 +5648,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG44" t="n">
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5552,7 +5772,12 @@
           <t>syeno granite</t>
         </is>
       </c>
-      <c r="AG45" t="n">
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH45" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5667,7 +5892,12 @@
           <t>syeno granite</t>
         </is>
       </c>
-      <c r="AG46" t="n">
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5778,7 +6008,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG47" t="n">
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5893,7 +6128,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG48" t="n">
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6000,7 +6240,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG49" t="n">
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6115,7 +6360,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6234,7 +6484,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>MnO   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH51" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6345,7 +6600,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6464,7 +6724,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6583,7 +6848,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6694,7 +6964,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6805,7 +7080,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6920,7 +7200,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7039,7 +7324,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7158,7 +7448,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7273,7 +7568,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH60" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7392,7 +7692,12 @@
           <t>syeno granite</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TiO2   </t>
+        </is>
+      </c>
+      <c r="AH61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7503,7 +7808,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7614,7 +7924,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG63" t="n">
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7733,7 +8048,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG64" t="n">
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7844,7 +8164,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG65" t="n">
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7959,7 +8284,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG66" t="n">
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH66" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8066,7 +8396,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG67" t="n">
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8177,7 +8512,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG68" t="n">
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8296,7 +8636,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG69" t="n">
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8411,7 +8756,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG70" t="n">
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8530,7 +8880,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG71" t="n">
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH71" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8645,7 +9000,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG72" t="n">
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8764,7 +9124,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG73" t="n">
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH73" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8875,7 +9240,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG74" t="n">
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8982,7 +9352,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG75" t="n">
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9093,7 +9468,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG76" t="n">
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9204,7 +9584,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG77" t="n">
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH77" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9319,7 +9704,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG78" t="n">
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH78" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9434,7 +9824,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG79" t="n">
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9553,7 +9948,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG80" t="n">
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9664,7 +10064,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG81" t="n">
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH81" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9779,7 +10184,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG82" t="n">
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH82" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9894,7 +10304,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG83" t="n">
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10009,7 +10424,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG84" t="n">
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH84" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10128,7 +10548,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG85" t="n">
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH85" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10247,7 +10672,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG86" t="n">
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10358,7 +10788,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG87" t="n">
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10469,7 +10904,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG88" t="n">
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10576,7 +11016,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG89" t="n">
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10683,7 +11128,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG90" t="n">
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH90" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10798,7 +11248,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG91" t="n">
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH91" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10909,7 +11364,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG92" t="n">
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH92" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11020,7 +11480,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG93" t="n">
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH93" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11131,7 +11596,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG94" t="n">
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH94" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11246,7 +11716,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG95" t="n">
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>MnO TiO2  P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH95" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11357,7 +11832,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG96" t="n">
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH96" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11476,7 +11956,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG97" t="n">
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH97" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11595,7 +12080,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG98" t="n">
+      <c r="AG98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH98" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11706,7 +12196,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG99" t="n">
+      <c r="AG99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH99" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11825,7 +12320,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG100" t="n">
+      <c r="AG100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11944,7 +12444,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG101" t="n">
+      <c r="AG101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12063,7 +12568,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG102" t="n">
+      <c r="AG102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH102" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12174,7 +12684,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG103" t="n">
+      <c r="AG103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12289,7 +12804,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG104" t="n">
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH104" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12400,7 +12920,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG105" t="n">
+      <c r="AG105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12515,7 +13040,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG106" t="n">
+      <c r="AG106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12630,7 +13160,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG107" t="n">
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH107" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12749,7 +13284,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG108" t="n">
+      <c r="AG108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH108" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12864,7 +13404,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG109" t="n">
+      <c r="AG109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH109" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12975,7 +13520,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG110" t="n">
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH110" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13082,7 +13632,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG111" t="n">
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13197,7 +13752,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG112" t="n">
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH112" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13308,7 +13868,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG113" t="n">
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH113" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13423,7 +13988,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG114" t="n">
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH114" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13542,7 +14112,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG115" t="n">
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH115" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13661,7 +14236,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG116" t="n">
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH116" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13776,7 +14356,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG117" t="n">
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH117" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13891,7 +14476,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG118" t="n">
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH118" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14006,7 +14596,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG119" t="n">
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH119" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14117,7 +14712,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG120" t="n">
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14236,7 +14836,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG121" t="n">
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH121" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14355,7 +14960,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG122" t="n">
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH122" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14474,7 +15084,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG123" t="n">
+      <c r="AG123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH123" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14585,7 +15200,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG124" t="n">
+      <c r="AG124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH124" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14696,7 +15316,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG125" t="n">
+      <c r="AG125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH125" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14803,7 +15428,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG126" t="n">
+      <c r="AG126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14918,7 +15548,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG127" t="n">
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15025,7 +15660,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG128" t="n">
+      <c r="AG128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH128" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15144,7 +15784,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG129" t="n">
+      <c r="AG129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH129" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15263,7 +15908,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG130" t="n">
+      <c r="AG130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH130" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15374,7 +16024,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG131" t="n">
+      <c r="AG131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH131" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15489,7 +16144,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG132" t="n">
+      <c r="AG132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH132" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15600,7 +16260,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG133" t="n">
+      <c r="AG133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH133" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15707,7 +16372,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG134" t="n">
+      <c r="AG134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH134" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15826,7 +16496,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG135" t="n">
+      <c r="AG135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15937,7 +16612,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG136" t="n">
+      <c r="AG136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH136" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16052,7 +16732,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG137" t="n">
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16167,7 +16852,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG138" t="n">
+      <c r="AG138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH138" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16274,7 +16964,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG139" t="n">
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH139" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16393,7 +17088,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG140" t="n">
+      <c r="AG140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH140" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16508,7 +17208,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG141" t="n">
+      <c r="AG141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH141" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16619,7 +17324,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG142" t="n">
+      <c r="AG142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH142" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16738,7 +17448,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG143" t="n">
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH143" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16853,7 +17568,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG144" t="n">
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH144" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16964,7 +17684,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG145" t="n">
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH145" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17075,7 +17800,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG146" t="n">
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH146" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17186,7 +17916,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG147" t="n">
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH147" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17297,7 +18032,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG148" t="n">
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH148" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17408,7 +18148,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG149" t="n">
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH149" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17527,7 +18272,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG150" t="n">
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH150" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17646,7 +18396,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG151" t="n">
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH151" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17765,7 +18520,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG152" t="n">
+      <c r="AG152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH152" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17880,7 +18640,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG153" t="n">
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH153" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17991,7 +18756,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG154" t="n">
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH154" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18106,7 +18876,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG155" t="n">
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH155" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18225,7 +19000,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG156" t="n">
+      <c r="AG156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH156" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18340,7 +19120,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG157" t="n">
+      <c r="AG157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18451,7 +19236,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG158" t="n">
+      <c r="AG158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH158" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18558,7 +19348,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG159" t="n">
+      <c r="AG159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH159" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18677,7 +19472,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG160" t="n">
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH160" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18792,7 +19592,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG161" t="n">
+      <c r="AG161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH161" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18911,7 +19716,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG162" t="n">
+      <c r="AG162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH162" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19030,7 +19840,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG163" t="n">
+      <c r="AG163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH163" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19145,7 +19960,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG164" t="n">
+      <c r="AG164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH164" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19256,7 +20076,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG165" t="n">
+      <c r="AG165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH165" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19371,7 +20196,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG166" t="n">
+      <c r="AG166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH166" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19482,7 +20312,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG167" t="n">
+      <c r="AG167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH167" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19593,7 +20428,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG168" t="n">
+      <c r="AG168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH168" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19704,7 +20544,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG169" t="n">
+      <c r="AG169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH169" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19819,7 +20664,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG170" t="n">
+      <c r="AG170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19938,7 +20788,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG171" t="n">
+      <c r="AG171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH171" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20049,7 +20904,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG172" t="n">
+      <c r="AG172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH172" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20164,7 +21024,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG173" t="n">
+      <c r="AG173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH173" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20283,7 +21148,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG174" t="n">
+      <c r="AG174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH174" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20398,7 +21268,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG175" t="n">
+      <c r="AG175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH175" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20513,7 +21388,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG176" t="n">
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH176" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20628,7 +21508,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG177" t="n">
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH177" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20739,7 +21624,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG178" t="n">
+      <c r="AG178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH178" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20854,7 +21744,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG179" t="n">
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH179" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20969,7 +21864,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG180" t="n">
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21080,7 +21980,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG181" t="n">
+      <c r="AG181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH181" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21195,7 +22100,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG182" t="n">
+      <c r="AG182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH182" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21306,7 +22216,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG183" t="n">
+      <c r="AG183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH183" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21417,7 +22332,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG184" t="n">
+      <c r="AG184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH184" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21536,7 +22456,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG185" t="n">
+      <c r="AG185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH185" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21651,7 +22576,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG186" t="n">
+      <c r="AG186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH186" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21770,7 +22700,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG187" t="n">
+      <c r="AG187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH187" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21885,7 +22820,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG188" t="n">
+      <c r="AG188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH188" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22000,7 +22940,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG189" t="n">
+      <c r="AG189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH189" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22111,7 +23056,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG190" t="n">
+      <c r="AG190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH190" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22226,7 +23176,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG191" t="n">
+      <c r="AG191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH191" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22345,7 +23300,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG192" t="n">
+      <c r="AG192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH192" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22460,7 +23420,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG193" t="n">
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH193" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22575,7 +23540,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG194" t="n">
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH194" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22690,7 +23660,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG195" t="n">
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH195" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22805,7 +23780,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG196" t="n">
+      <c r="AG196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH196" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22912,7 +23892,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG197" t="n">
+      <c r="AG197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH197" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23023,7 +24008,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG198" t="n">
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH198" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23142,7 +24132,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG199" t="n">
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH199" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23257,7 +24252,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG200" t="n">
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH200" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23372,7 +24372,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG201" t="n">
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH201" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23483,7 +24488,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG202" t="n">
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH202" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23594,7 +24604,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG203" t="n">
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH203" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23709,7 +24724,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG204" t="n">
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH204" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23816,7 +24836,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG205" t="n">
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH205" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23927,7 +24952,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG206" t="n">
+      <c r="AG206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH206" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24038,7 +25068,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG207" t="n">
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH207" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24153,7 +25188,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG208" t="n">
+      <c r="AG208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH208" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24264,7 +25304,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG209" t="n">
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH209" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24379,7 +25424,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG210" t="n">
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH210" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24490,7 +25540,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG211" t="n">
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH211" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24605,7 +25660,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG212" t="n">
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH212" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24720,7 +25780,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG213" t="n">
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH213" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24831,7 +25896,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG214" t="n">
+      <c r="AG214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH214" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24946,7 +26016,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG215" t="n">
+      <c r="AG215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH215" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25061,7 +26136,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG216" t="n">
+      <c r="AG216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH216" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25176,7 +26256,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG217" t="n">
+      <c r="AG217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH217" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25295,7 +26380,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG218" t="n">
+      <c r="AG218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH218" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25414,7 +26504,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG219" t="n">
+      <c r="AG219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH219" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25533,7 +26628,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG220" t="n">
+      <c r="AG220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH220" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25648,7 +26748,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG221" t="n">
+      <c r="AG221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH221" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25759,7 +26864,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG222" t="n">
+      <c r="AG222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH222" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25874,7 +26984,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG223" t="n">
+      <c r="AG223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH223" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25981,7 +27096,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG224" t="n">
+      <c r="AG224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH224" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26096,7 +27216,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG225" t="n">
+      <c r="AG225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH225" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26207,7 +27332,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG226" t="n">
+      <c r="AG226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH226" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26318,7 +27448,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG227" t="n">
+      <c r="AG227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH227" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26429,7 +27564,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG228" t="n">
+      <c r="AG228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH228" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26540,7 +27680,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG229" t="n">
+      <c r="AG229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH229" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26655,7 +27800,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG230" t="n">
+      <c r="AG230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH230" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26762,7 +27912,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG231" t="n">
+      <c r="AG231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH231" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26873,7 +28028,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG232" t="n">
+      <c r="AG232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH232" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26988,7 +28148,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG233" t="n">
+      <c r="AG233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH233" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27103,7 +28268,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG234" t="n">
+      <c r="AG234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH234" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27210,7 +28380,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG235" t="n">
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH235" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27325,7 +28500,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG236" t="n">
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH236" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27436,7 +28616,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG237" t="n">
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH237" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27551,7 +28736,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG238" t="n">
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH238" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27662,7 +28852,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG239" t="n">
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH239" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27773,7 +28968,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG240" t="n">
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH240" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27884,7 +29084,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG241" t="n">
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH241" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27995,7 +29200,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG242" t="n">
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH242" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28114,7 +29324,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG243" t="n">
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH243" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28225,7 +29440,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG244" t="n">
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH244" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28340,7 +29560,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG245" t="n">
+      <c r="AG245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH245" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28459,7 +29684,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG246" t="n">
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH246" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28574,7 +29804,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG247" t="n">
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH247" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28689,7 +29924,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG248" t="n">
+      <c r="AG248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH248" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28804,7 +30044,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG249" t="n">
+      <c r="AG249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH249" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28919,7 +30164,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG250" t="n">
+      <c r="AG250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH250" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29030,7 +30280,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG251" t="n">
+      <c r="AG251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH251" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29141,7 +30396,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG252" t="n">
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH252" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29252,7 +30512,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG253" t="n">
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH253" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29363,7 +30628,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG254" t="n">
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH254" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29474,7 +30744,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG255" t="n">
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH255" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29589,7 +30864,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG256" t="n">
+      <c r="AG256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH256" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29708,7 +30988,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG257" t="n">
+      <c r="AG257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH257" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29823,7 +31108,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG258" t="n">
+      <c r="AG258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH258" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29934,7 +31224,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG259" t="n">
+      <c r="AG259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH259" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30053,7 +31348,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG260" t="n">
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH260" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30164,7 +31464,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG261" t="n">
+      <c r="AG261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH261" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30275,7 +31580,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG262" t="n">
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH262" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30394,7 +31704,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG263" t="n">
+      <c r="AG263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH263" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30509,7 +31824,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG264" t="n">
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH264" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30616,7 +31936,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG265" t="n">
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH265" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30727,7 +32052,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG266" t="n">
+      <c r="AG266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH266" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30838,7 +32168,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG267" t="n">
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH267" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30953,7 +32288,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG268" t="n">
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH268" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31064,7 +32404,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG269" t="n">
+      <c r="AG269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH269" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31179,7 +32524,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG270" t="n">
+      <c r="AG270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH270" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31298,7 +32648,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG271" t="n">
+      <c r="AG271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH271" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31405,7 +32760,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG272" t="n">
+      <c r="AG272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH272" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31520,7 +32880,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG273" t="n">
+      <c r="AG273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH273" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31631,7 +32996,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG274" t="n">
+      <c r="AG274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH274" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31746,7 +33116,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG275" t="n">
+      <c r="AG275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH275" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31861,7 +33236,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG276" t="n">
+      <c r="AG276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH276" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31976,7 +33356,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG277" t="n">
+      <c r="AG277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH277" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32087,7 +33472,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG278" t="n">
+      <c r="AG278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH278" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32206,7 +33596,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG279" t="n">
+      <c r="AG279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH279" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32317,7 +33712,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG280" t="n">
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH280" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32432,7 +33832,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG281" t="n">
+      <c r="AG281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH281" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32547,7 +33952,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG282" t="n">
+      <c r="AG282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH282" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32654,7 +34064,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG283" t="n">
+      <c r="AG283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH283" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32765,7 +34180,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG284" t="n">
+      <c r="AG284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH284" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32880,7 +34300,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG285" t="n">
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH285" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32999,7 +34424,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG286" t="n">
+      <c r="AG286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH286" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33110,7 +34540,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG287" t="n">
+      <c r="AG287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH287" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33225,7 +34660,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG288" t="n">
+      <c r="AG288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH288" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33344,7 +34784,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG289" t="n">
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH289" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33459,7 +34904,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG290" t="n">
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH290" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33574,7 +35024,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG291" t="n">
+      <c r="AG291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH291" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33689,7 +35144,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG292" t="n">
+      <c r="AG292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH292" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33800,7 +35260,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG293" t="n">
+      <c r="AG293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH293" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33919,7 +35384,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG294" t="n">
+      <c r="AG294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH294" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34038,7 +35508,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG295" t="n">
+      <c r="AG295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH295" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34157,7 +35632,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG296" t="n">
+      <c r="AG296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH296" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34272,7 +35752,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG297" t="n">
+      <c r="AG297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH297" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34383,7 +35868,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG298" t="n">
+      <c r="AG298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH298" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34498,7 +35988,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG299" t="n">
+      <c r="AG299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH299" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34613,7 +36108,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG300" t="n">
+      <c r="AG300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH300" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34732,7 +36232,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG301" t="n">
+      <c r="AG301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH301" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34843,7 +36348,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG302" t="n">
+      <c r="AG302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH302" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34950,7 +36460,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG303" t="n">
+      <c r="AG303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH303" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35061,7 +36576,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG304" t="n">
+      <c r="AG304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH304" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35176,7 +36696,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG305" t="n">
+      <c r="AG305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH305" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35291,7 +36816,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG306" t="n">
+      <c r="AG306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH306" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35406,7 +36936,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG307" t="n">
+      <c r="AG307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH307" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35517,7 +37052,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG308" t="n">
+      <c r="AG308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH308" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35628,7 +37168,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG309" t="n">
+      <c r="AG309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH309" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35747,7 +37292,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG310" t="n">
+      <c r="AG310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH310" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35858,7 +37408,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG311" t="n">
+      <c r="AG311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH311" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35969,7 +37524,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG312" t="n">
+      <c r="AG312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH312" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36088,7 +37648,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG313" t="n">
+      <c r="AG313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH313" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36207,7 +37772,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG314" t="n">
+      <c r="AG314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH314" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36318,7 +37888,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG315" t="n">
+      <c r="AG315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH315" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36433,7 +38008,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG316" t="n">
+      <c r="AG316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH316" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36552,7 +38132,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG317" t="n">
+      <c r="AG317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH317" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36663,7 +38248,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG318" t="n">
+      <c r="AG318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH318" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36774,7 +38364,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG319" t="n">
+      <c r="AG319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH319" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36889,7 +38484,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG320" t="n">
+      <c r="AG320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH320" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37000,7 +38600,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG321" t="n">
+      <c r="AG321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH321" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37111,7 +38716,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG322" t="n">
+      <c r="AG322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH322" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37222,7 +38832,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG323" t="n">
+      <c r="AG323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH323" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37329,7 +38944,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG324" t="n">
+      <c r="AG324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH324" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37444,7 +39064,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG325" t="n">
+      <c r="AG325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH325" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37551,7 +39176,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG326" t="n">
+      <c r="AG326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH326" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37670,7 +39300,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG327" t="n">
+      <c r="AG327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH327" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37781,7 +39416,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG328" t="n">
+      <c r="AG328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH328" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37892,7 +39532,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG329" t="n">
+      <c r="AG329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH329" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37999,7 +39644,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG330" t="n">
+      <c r="AG330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH330" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38118,7 +39768,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG331" t="n">
+      <c r="AG331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH331" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38237,7 +39892,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG332" t="n">
+      <c r="AG332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH332" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38348,7 +40008,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG333" t="n">
+      <c r="AG333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH333" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38463,7 +40128,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG334" t="n">
+      <c r="AG334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH334" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38570,7 +40240,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG335" t="n">
+      <c r="AG335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH335" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38685,7 +40360,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG336" t="n">
+      <c r="AG336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH336" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38796,7 +40476,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG337" t="n">
+      <c r="AG337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH337" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38903,7 +40588,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG338" t="n">
+      <c r="AG338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH338" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39018,7 +40708,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG339" t="n">
+      <c r="AG339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH339" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39133,7 +40828,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG340" t="n">
+      <c r="AG340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH340" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39248,7 +40948,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG341" t="n">
+      <c r="AG341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH341" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39367,7 +41072,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG342" t="n">
+      <c r="AG342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH342" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39478,7 +41188,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG343" t="n">
+      <c r="AG343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH343" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39593,7 +41308,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG344" t="n">
+      <c r="AG344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH344" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39704,7 +41424,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG345" t="n">
+      <c r="AG345" t="inlineStr">
+        <is>
+          <t>MnO   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH345" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39815,7 +41540,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG346" t="n">
+      <c r="AG346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH346" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39934,7 +41664,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG347" t="n">
+      <c r="AG347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH347" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40045,7 +41780,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG348" t="n">
+      <c r="AG348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH348" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40152,7 +41892,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG349" t="n">
+      <c r="AG349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH349" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40271,7 +42016,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG350" t="n">
+      <c r="AG350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH350" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40386,7 +42136,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG351" t="n">
+      <c r="AG351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH351" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40497,7 +42252,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG352" t="n">
+      <c r="AG352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH352" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40616,7 +42376,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG353" t="n">
+      <c r="AG353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH353" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40727,7 +42492,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG354" t="n">
+      <c r="AG354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH354" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40842,7 +42612,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG355" t="n">
+      <c r="AG355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH355" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40957,7 +42732,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG356" t="n">
+      <c r="AG356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH356" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41064,7 +42844,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG357" t="n">
+      <c r="AG357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH357" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41175,7 +42960,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG358" t="n">
+      <c r="AG358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH358" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41294,7 +43084,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG359" t="n">
+      <c r="AG359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH359" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41405,7 +43200,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG360" t="n">
+      <c r="AG360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH360" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41520,7 +43320,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG361" t="n">
+      <c r="AG361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH361" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41631,7 +43436,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG362" t="n">
+      <c r="AG362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH362" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41742,7 +43552,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG363" t="n">
+      <c r="AG363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH363" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41849,7 +43664,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG364" t="n">
+      <c r="AG364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH364" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41956,7 +43776,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG365" t="n">
+      <c r="AG365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH365" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42071,7 +43896,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG366" t="n">
+      <c r="AG366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH366" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42182,7 +44012,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG367" t="n">
+      <c r="AG367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH367" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42297,7 +44132,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG368" t="n">
+      <c r="AG368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH368" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42404,7 +44244,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG369" t="n">
+      <c r="AG369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH369" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42515,7 +44360,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG370" t="n">
+      <c r="AG370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH370" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42626,7 +44476,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG371" t="n">
+      <c r="AG371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH371" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42737,7 +44592,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG372" t="n">
+      <c r="AG372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH372" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42844,7 +44704,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG373" t="n">
+      <c r="AG373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH373" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42951,7 +44816,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG374" t="n">
+      <c r="AG374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH374" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43062,7 +44932,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG375" t="n">
+      <c r="AG375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH375" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43177,7 +45052,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG376" t="n">
+      <c r="AG376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH376" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43288,7 +45168,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG377" t="n">
+      <c r="AG377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH377" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43399,7 +45284,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG378" t="n">
+      <c r="AG378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH378" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43514,7 +45404,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG379" t="n">
+      <c r="AG379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH379" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43629,7 +45524,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG380" t="n">
+      <c r="AG380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH380" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43736,7 +45636,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG381" t="n">
+      <c r="AG381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH381" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43851,7 +45756,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG382" t="n">
+      <c r="AG382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH382" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43958,7 +45868,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG383" t="n">
+      <c r="AG383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH383" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44073,7 +45988,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG384" t="n">
+      <c r="AG384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH384" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44184,7 +46104,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG385" t="n">
+      <c r="AG385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH385" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44303,7 +46228,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG386" t="n">
+      <c r="AG386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH386" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44414,7 +46344,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG387" t="n">
+      <c r="AG387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH387" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44533,7 +46468,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG388" t="n">
+      <c r="AG388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH388" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44644,7 +46584,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG389" t="n">
+      <c r="AG389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH389" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44763,7 +46708,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG390" t="n">
+      <c r="AG390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH390" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44878,7 +46828,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG391" t="n">
+      <c r="AG391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH391" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44985,7 +46940,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG392" t="n">
+      <c r="AG392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH392" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45096,7 +47056,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG393" t="n">
+      <c r="AG393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH393" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45215,7 +47180,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG394" t="n">
+      <c r="AG394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH394" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45326,7 +47296,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG395" t="n">
+      <c r="AG395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH395" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45441,7 +47416,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG396" t="n">
+      <c r="AG396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH396" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45548,7 +47528,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG397" t="n">
+      <c r="AG397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH397" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45655,7 +47640,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG398" t="n">
+      <c r="AG398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH398" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45766,7 +47756,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG399" t="n">
+      <c r="AG399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH399" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45881,7 +47876,12 @@
           <t>monzo granite</t>
         </is>
       </c>
-      <c r="AG400" t="n">
+      <c r="AG400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH400" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45992,7 +47992,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG401" t="n">
+      <c r="AG401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH401" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46107,7 +48112,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG402" t="n">
+      <c r="AG402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH402" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46218,7 +48228,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG403" t="n">
+      <c r="AG403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH403" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46329,7 +48344,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG404" t="n">
+      <c r="AG404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH404" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46444,7 +48464,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG405" t="n">
+      <c r="AG405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH405" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46555,7 +48580,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG406" t="n">
+      <c r="AG406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH406" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46662,7 +48692,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG407" t="n">
+      <c r="AG407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH407" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46777,7 +48812,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG408" t="n">
+      <c r="AG408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH408" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46888,7 +48928,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG409" t="n">
+      <c r="AG409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH409" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46999,7 +49044,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG410" t="n">
+      <c r="AG410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH410" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47114,7 +49164,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG411" t="n">
+      <c r="AG411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH411" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47221,7 +49276,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG412" t="n">
+      <c r="AG412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH412" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47332,7 +49392,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG413" t="n">
+      <c r="AG413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH413" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47447,7 +49512,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG414" t="n">
+      <c r="AG414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH414" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47566,7 +49636,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG415" t="n">
+      <c r="AG415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH415" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47681,7 +49756,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG416" t="n">
+      <c r="AG416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH416" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47796,7 +49876,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG417" t="n">
+      <c r="AG417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH417" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47903,7 +49988,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG418" t="n">
+      <c r="AG418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH418" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48010,7 +50100,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG419" t="n">
+      <c r="AG419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH419" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48117,7 +50212,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG420" t="n">
+      <c r="AG420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH420" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48232,7 +50332,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG421" t="n">
+      <c r="AG421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH421" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48343,7 +50448,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG422" t="n">
+      <c r="AG422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH422" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48458,7 +50568,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG423" t="n">
+      <c r="AG423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH423" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48573,7 +50688,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG424" t="n">
+      <c r="AG424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH424" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48692,7 +50812,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG425" t="n">
+      <c r="AG425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH425" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48803,7 +50928,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG426" t="n">
+      <c r="AG426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH426" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48918,7 +51048,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG427" t="n">
+      <c r="AG427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH427" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49029,7 +51164,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG428" t="n">
+      <c r="AG428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH428" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49140,7 +51280,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG429" t="n">
+      <c r="AG429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH429" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49251,7 +51396,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG430" t="n">
+      <c r="AG430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH430" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49362,7 +51512,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG431" t="n">
+      <c r="AG431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH431" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49473,7 +51628,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG432" t="n">
+      <c r="AG432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH432" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49588,7 +51748,12 @@
           <t>diorite gabbro anorthosite</t>
         </is>
       </c>
-      <c r="AG433" t="n">
+      <c r="AG433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH433" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49707,7 +51872,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG434" t="n">
+      <c r="AG434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH434" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49818,7 +51988,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG435" t="n">
+      <c r="AG435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH435" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49929,7 +52104,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG436" t="n">
+      <c r="AG436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH436" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50040,7 +52220,12 @@
           <t>granodiorite</t>
         </is>
       </c>
-      <c r="AG437" t="n">
+      <c r="AG437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH437" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50151,7 +52336,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG438" t="n">
+      <c r="AG438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH438" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50266,7 +52456,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG439" t="n">
+      <c r="AG439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH439" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50381,7 +52576,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG440" t="n">
+      <c r="AG440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH440" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50492,7 +52692,12 @@
           <t>quartz diorite\quartz gabbro\quartz anorthosite</t>
         </is>
       </c>
-      <c r="AG441" t="n">
+      <c r="AG441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH441" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50603,7 +52808,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG442" t="n">
+      <c r="AG442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH442" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50714,7 +52924,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG443" t="n">
+      <c r="AG443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH443" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50829,7 +53044,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG444" t="n">
+      <c r="AG444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH444" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50936,7 +53156,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG445" t="n">
+      <c r="AG445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH445" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51043,7 +53268,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG446" t="n">
+      <c r="AG446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH446" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51154,7 +53384,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG447" t="n">
+      <c r="AG447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH447" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51261,7 +53496,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG448" t="n">
+      <c r="AG448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH448" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51376,7 +53616,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG449" t="n">
+      <c r="AG449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH449" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51487,7 +53732,12 @@
           <t>quartz monzonite</t>
         </is>
       </c>
-      <c r="AG450" t="n">
+      <c r="AG450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH450" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51598,7 +53848,12 @@
           <t>tonalite</t>
         </is>
       </c>
-      <c r="AG451" t="n">
+      <c r="AG451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH451" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51705,7 +53960,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG452" t="n">
+      <c r="AG452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH452" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51812,7 +54072,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG453" t="n">
+      <c r="AG453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 oth</t>
+        </is>
+      </c>
+      <c r="AH453" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51919,7 +54184,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG454" t="n">
+      <c r="AG454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH454" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52030,7 +54300,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG455" t="n">
+      <c r="AG455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH455" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52137,7 +54412,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG456" t="n">
+      <c r="AG456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH456" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52248,7 +54528,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG457" t="n">
+      <c r="AG457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH457" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52363,7 +54648,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG458" t="n">
+      <c r="AG458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH458" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52474,7 +54764,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG459" t="n">
+      <c r="AG459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AH459" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52593,7 +54888,12 @@
           <t>quartz diorite\quartz gabbro\quartz anorthosite</t>
         </is>
       </c>
-      <c r="AG460" t="n">
+      <c r="AG460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH460" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52704,7 +55004,12 @@
           <t>monzodiorite monzogabbro</t>
         </is>
       </c>
-      <c r="AG461" t="n">
+      <c r="AG461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH461" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52815,7 +55120,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG462" t="n">
+      <c r="AG462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH462" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52922,7 +55232,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG463" t="n">
+      <c r="AG463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH463" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53033,7 +55348,12 @@
           <t>quartz monzodiorite\quartz monzogabbro</t>
         </is>
       </c>
-      <c r="AG464" t="n">
+      <c r="AG464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH464" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53140,7 +55460,12 @@
           <t>monzodiorite monzogabbro</t>
         </is>
       </c>
-      <c r="AG465" t="n">
+      <c r="AG465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH465" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53255,7 +55580,12 @@
           <t>monzodiorite monzogabbro</t>
         </is>
       </c>
-      <c r="AG466" t="n">
+      <c r="AG466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    oth</t>
+        </is>
+      </c>
+      <c r="AH466" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53374,7 +55704,12 @@
           <t>monzodiorite monzogabbro</t>
         </is>
       </c>
-      <c r="AG467" t="n">
+      <c r="AG467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   P2O5 </t>
+        </is>
+      </c>
+      <c r="AH467" t="n">
         <v>4</v>
       </c>
     </row>

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -766,7 +766,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>MnO   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TiO2   </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH82" t="n">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="AG83" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH83" t="n">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="AG84" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH84" t="n">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH85" t="n">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="AG86" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH86" t="n">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH87" t="n">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="AG88" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH88" t="n">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="AG89" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH89" t="n">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="AG90" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH90" t="n">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="AG91" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH91" t="n">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH92" t="n">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="AG93" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH93" t="n">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="AG94" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH94" t="n">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="AG95" t="inlineStr">
         <is>
-          <t>MnO TiO2  P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH95" t="n">
@@ -11834,7 +11834,7 @@
       </c>
       <c r="AG96" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH96" t="n">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH97" t="n">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="AG98" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH98" t="n">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="AG99" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH99" t="n">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="AG100" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH100" t="n">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="AG101" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH101" t="n">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH102" t="n">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="AG103" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH103" t="n">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="AG104" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH104" t="n">
@@ -12922,7 +12922,7 @@
       </c>
       <c r="AG105" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH105" t="n">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="AG106" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH106" t="n">
@@ -13162,7 +13162,7 @@
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH107" t="n">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="AG108" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH108" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="AG109" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH109" t="n">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="AG110" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH110" t="n">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="AG111" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH111" t="n">
@@ -13754,7 +13754,7 @@
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH112" t="n">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="AG113" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH113" t="n">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="AG114" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH114" t="n">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="AG115" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH115" t="n">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="AG116" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH116" t="n">
@@ -14358,7 +14358,7 @@
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH117" t="n">
@@ -14478,7 +14478,7 @@
       </c>
       <c r="AG118" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH118" t="n">
@@ -14598,7 +14598,7 @@
       </c>
       <c r="AG119" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH119" t="n">
@@ -14714,7 +14714,7 @@
       </c>
       <c r="AG120" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH120" t="n">
@@ -14838,7 +14838,7 @@
       </c>
       <c r="AG121" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH121" t="n">
@@ -14962,7 +14962,7 @@
       </c>
       <c r="AG122" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH122" t="n">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="AG123" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH123" t="n">
@@ -15202,7 +15202,7 @@
       </c>
       <c r="AG124" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH124" t="n">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="AG125" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH125" t="n">
@@ -15430,7 +15430,7 @@
       </c>
       <c r="AG126" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH126" t="n">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH127" t="n">
@@ -15662,7 +15662,7 @@
       </c>
       <c r="AG128" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH128" t="n">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="AG129" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH129" t="n">
@@ -15910,7 +15910,7 @@
       </c>
       <c r="AG130" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH130" t="n">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="AG131" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH131" t="n">
@@ -16146,7 +16146,7 @@
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH132" t="n">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="AG133" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH133" t="n">
@@ -16374,7 +16374,7 @@
       </c>
       <c r="AG134" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH134" t="n">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="AG135" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH135" t="n">
@@ -16614,7 +16614,7 @@
       </c>
       <c r="AG136" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH136" t="n">
@@ -16734,7 +16734,7 @@
       </c>
       <c r="AG137" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH137" t="n">
@@ -16854,7 +16854,7 @@
       </c>
       <c r="AG138" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH138" t="n">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="AG139" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH139" t="n">
@@ -17090,7 +17090,7 @@
       </c>
       <c r="AG140" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH140" t="n">
@@ -17210,7 +17210,7 @@
       </c>
       <c r="AG141" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH141" t="n">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH142" t="n">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="AG143" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH143" t="n">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="AG144" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH144" t="n">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="AG145" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH145" t="n">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="AG146" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH146" t="n">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH147" t="n">
@@ -18034,7 +18034,7 @@
       </c>
       <c r="AG148" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH148" t="n">
@@ -18150,7 +18150,7 @@
       </c>
       <c r="AG149" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH149" t="n">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="AG150" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH150" t="n">
@@ -18398,7 +18398,7 @@
       </c>
       <c r="AG151" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH151" t="n">
@@ -18522,7 +18522,7 @@
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH152" t="n">
@@ -18642,7 +18642,7 @@
       </c>
       <c r="AG153" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH153" t="n">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="AG154" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH154" t="n">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="AG155" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH155" t="n">
@@ -19002,7 +19002,7 @@
       </c>
       <c r="AG156" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH156" t="n">
@@ -19122,7 +19122,7 @@
       </c>
       <c r="AG157" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH157" t="n">
@@ -19238,7 +19238,7 @@
       </c>
       <c r="AG158" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH158" t="n">
@@ -19350,7 +19350,7 @@
       </c>
       <c r="AG159" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH159" t="n">
@@ -19474,7 +19474,7 @@
       </c>
       <c r="AG160" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH160" t="n">
@@ -19594,7 +19594,7 @@
       </c>
       <c r="AG161" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH161" t="n">
@@ -19718,7 +19718,7 @@
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH162" t="n">
@@ -19842,7 +19842,7 @@
       </c>
       <c r="AG163" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH163" t="n">
@@ -19962,7 +19962,7 @@
       </c>
       <c r="AG164" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH164" t="n">
@@ -20078,7 +20078,7 @@
       </c>
       <c r="AG165" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH165" t="n">
@@ -20198,7 +20198,7 @@
       </c>
       <c r="AG166" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH166" t="n">
@@ -20314,7 +20314,7 @@
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH167" t="n">
@@ -20430,7 +20430,7 @@
       </c>
       <c r="AG168" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH168" t="n">
@@ -20546,7 +20546,7 @@
       </c>
       <c r="AG169" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH169" t="n">
@@ -20666,7 +20666,7 @@
       </c>
       <c r="AG170" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH170" t="n">
@@ -20790,7 +20790,7 @@
       </c>
       <c r="AG171" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH171" t="n">
@@ -20906,7 +20906,7 @@
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH172" t="n">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="AG173" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH173" t="n">
@@ -21150,7 +21150,7 @@
       </c>
       <c r="AG174" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH174" t="n">
@@ -21270,7 +21270,7 @@
       </c>
       <c r="AG175" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH175" t="n">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="AG176" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH176" t="n">
@@ -21510,7 +21510,7 @@
       </c>
       <c r="AG177" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH177" t="n">
@@ -21626,7 +21626,7 @@
       </c>
       <c r="AG178" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH178" t="n">
@@ -21746,7 +21746,7 @@
       </c>
       <c r="AG179" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH179" t="n">
@@ -21866,7 +21866,7 @@
       </c>
       <c r="AG180" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH180" t="n">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="AG181" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH181" t="n">
@@ -22102,7 +22102,7 @@
       </c>
       <c r="AG182" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH182" t="n">
@@ -22218,7 +22218,7 @@
       </c>
       <c r="AG183" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH183" t="n">
@@ -22334,7 +22334,7 @@
       </c>
       <c r="AG184" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH184" t="n">
@@ -22458,7 +22458,7 @@
       </c>
       <c r="AG185" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH185" t="n">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="AG186" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH186" t="n">
@@ -22702,7 +22702,7 @@
       </c>
       <c r="AG187" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH187" t="n">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="AG188" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH188" t="n">
@@ -22942,7 +22942,7 @@
       </c>
       <c r="AG189" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH189" t="n">
@@ -23058,7 +23058,7 @@
       </c>
       <c r="AG190" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH190" t="n">
@@ -23178,7 +23178,7 @@
       </c>
       <c r="AG191" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH191" t="n">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="AG192" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH192" t="n">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="AG193" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH193" t="n">
@@ -23542,7 +23542,7 @@
       </c>
       <c r="AG194" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH194" t="n">
@@ -23662,7 +23662,7 @@
       </c>
       <c r="AG195" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH195" t="n">
@@ -23782,7 +23782,7 @@
       </c>
       <c r="AG196" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH196" t="n">
@@ -23894,7 +23894,7 @@
       </c>
       <c r="AG197" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH197" t="n">
@@ -24010,7 +24010,7 @@
       </c>
       <c r="AG198" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH198" t="n">
@@ -24134,7 +24134,7 @@
       </c>
       <c r="AG199" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH199" t="n">
@@ -24254,7 +24254,7 @@
       </c>
       <c r="AG200" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH200" t="n">
@@ -24374,7 +24374,7 @@
       </c>
       <c r="AG201" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH201" t="n">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="AG202" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH202" t="n">
@@ -24606,7 +24606,7 @@
       </c>
       <c r="AG203" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH203" t="n">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="AG204" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH204" t="n">
@@ -24838,7 +24838,7 @@
       </c>
       <c r="AG205" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH205" t="n">
@@ -24954,7 +24954,7 @@
       </c>
       <c r="AG206" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH206" t="n">
@@ -25070,7 +25070,7 @@
       </c>
       <c r="AG207" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH207" t="n">
@@ -25190,7 +25190,7 @@
       </c>
       <c r="AG208" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH208" t="n">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="AG209" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH209" t="n">
@@ -25426,7 +25426,7 @@
       </c>
       <c r="AG210" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH210" t="n">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="AG211" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH211" t="n">
@@ -25662,7 +25662,7 @@
       </c>
       <c r="AG212" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH212" t="n">
@@ -25782,7 +25782,7 @@
       </c>
       <c r="AG213" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH213" t="n">
@@ -25898,7 +25898,7 @@
       </c>
       <c r="AG214" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH214" t="n">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="AG215" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH215" t="n">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="AG216" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH216" t="n">
@@ -26258,7 +26258,7 @@
       </c>
       <c r="AG217" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH217" t="n">
@@ -26382,7 +26382,7 @@
       </c>
       <c r="AG218" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH218" t="n">
@@ -26506,7 +26506,7 @@
       </c>
       <c r="AG219" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH219" t="n">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="AG220" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH220" t="n">
@@ -26750,7 +26750,7 @@
       </c>
       <c r="AG221" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH221" t="n">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="AG222" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH222" t="n">
@@ -26986,7 +26986,7 @@
       </c>
       <c r="AG223" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH223" t="n">
@@ -27098,7 +27098,7 @@
       </c>
       <c r="AG224" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH224" t="n">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="AG225" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH225" t="n">
@@ -27334,7 +27334,7 @@
       </c>
       <c r="AG226" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH226" t="n">
@@ -27450,7 +27450,7 @@
       </c>
       <c r="AG227" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH227" t="n">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="AG228" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH228" t="n">
@@ -27682,7 +27682,7 @@
       </c>
       <c r="AG229" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH229" t="n">
@@ -27802,7 +27802,7 @@
       </c>
       <c r="AG230" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH230" t="n">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="AG231" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH231" t="n">
@@ -28030,7 +28030,7 @@
       </c>
       <c r="AG232" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH232" t="n">
@@ -28150,7 +28150,7 @@
       </c>
       <c r="AG233" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH233" t="n">
@@ -28270,7 +28270,7 @@
       </c>
       <c r="AG234" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH234" t="n">
@@ -28382,7 +28382,7 @@
       </c>
       <c r="AG235" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH235" t="n">
@@ -28502,7 +28502,7 @@
       </c>
       <c r="AG236" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH236" t="n">
@@ -28618,7 +28618,7 @@
       </c>
       <c r="AG237" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH237" t="n">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="AG238" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH238" t="n">
@@ -28854,7 +28854,7 @@
       </c>
       <c r="AG239" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH239" t="n">
@@ -28970,7 +28970,7 @@
       </c>
       <c r="AG240" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH240" t="n">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="AG241" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH241" t="n">
@@ -29202,7 +29202,7 @@
       </c>
       <c r="AG242" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH242" t="n">
@@ -29326,7 +29326,7 @@
       </c>
       <c r="AG243" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH243" t="n">
@@ -29442,7 +29442,7 @@
       </c>
       <c r="AG244" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH244" t="n">
@@ -29562,7 +29562,7 @@
       </c>
       <c r="AG245" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH245" t="n">
@@ -29686,7 +29686,7 @@
       </c>
       <c r="AG246" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH246" t="n">
@@ -29806,7 +29806,7 @@
       </c>
       <c r="AG247" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH247" t="n">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="AG248" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH248" t="n">
@@ -30046,7 +30046,7 @@
       </c>
       <c r="AG249" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH249" t="n">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="AG250" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH250" t="n">
@@ -30282,7 +30282,7 @@
       </c>
       <c r="AG251" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH251" t="n">
@@ -30398,7 +30398,7 @@
       </c>
       <c r="AG252" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH252" t="n">
@@ -30514,7 +30514,7 @@
       </c>
       <c r="AG253" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH253" t="n">
@@ -30630,7 +30630,7 @@
       </c>
       <c r="AG254" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH254" t="n">
@@ -30746,7 +30746,7 @@
       </c>
       <c r="AG255" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH255" t="n">
@@ -30866,7 +30866,7 @@
       </c>
       <c r="AG256" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH256" t="n">
@@ -30990,7 +30990,7 @@
       </c>
       <c r="AG257" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH257" t="n">
@@ -31110,7 +31110,7 @@
       </c>
       <c r="AG258" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH258" t="n">
@@ -31226,7 +31226,7 @@
       </c>
       <c r="AG259" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH259" t="n">
@@ -31350,7 +31350,7 @@
       </c>
       <c r="AG260" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH260" t="n">
@@ -31466,7 +31466,7 @@
       </c>
       <c r="AG261" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH261" t="n">
@@ -31582,7 +31582,7 @@
       </c>
       <c r="AG262" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH262" t="n">
@@ -31706,7 +31706,7 @@
       </c>
       <c r="AG263" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH263" t="n">
@@ -31826,7 +31826,7 @@
       </c>
       <c r="AG264" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH264" t="n">
@@ -31938,7 +31938,7 @@
       </c>
       <c r="AG265" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH265" t="n">
@@ -32054,7 +32054,7 @@
       </c>
       <c r="AG266" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH266" t="n">
@@ -32170,7 +32170,7 @@
       </c>
       <c r="AG267" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH267" t="n">
@@ -32290,7 +32290,7 @@
       </c>
       <c r="AG268" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH268" t="n">
@@ -32406,7 +32406,7 @@
       </c>
       <c r="AG269" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH269" t="n">
@@ -32526,7 +32526,7 @@
       </c>
       <c r="AG270" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH270" t="n">
@@ -32650,7 +32650,7 @@
       </c>
       <c r="AG271" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH271" t="n">
@@ -32762,7 +32762,7 @@
       </c>
       <c r="AG272" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH272" t="n">
@@ -32882,7 +32882,7 @@
       </c>
       <c r="AG273" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH273" t="n">
@@ -32998,7 +32998,7 @@
       </c>
       <c r="AG274" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH274" t="n">
@@ -33118,7 +33118,7 @@
       </c>
       <c r="AG275" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH275" t="n">
@@ -33238,7 +33238,7 @@
       </c>
       <c r="AG276" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH276" t="n">
@@ -33358,7 +33358,7 @@
       </c>
       <c r="AG277" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH277" t="n">
@@ -33474,7 +33474,7 @@
       </c>
       <c r="AG278" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH278" t="n">
@@ -33598,7 +33598,7 @@
       </c>
       <c r="AG279" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH279" t="n">
@@ -33714,7 +33714,7 @@
       </c>
       <c r="AG280" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH280" t="n">
@@ -33834,7 +33834,7 @@
       </c>
       <c r="AG281" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH281" t="n">
@@ -33954,7 +33954,7 @@
       </c>
       <c r="AG282" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH282" t="n">
@@ -34066,7 +34066,7 @@
       </c>
       <c r="AG283" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH283" t="n">
@@ -34182,7 +34182,7 @@
       </c>
       <c r="AG284" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH284" t="n">
@@ -34302,7 +34302,7 @@
       </c>
       <c r="AG285" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH285" t="n">
@@ -34426,7 +34426,7 @@
       </c>
       <c r="AG286" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH286" t="n">
@@ -34542,7 +34542,7 @@
       </c>
       <c r="AG287" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH287" t="n">
@@ -34662,7 +34662,7 @@
       </c>
       <c r="AG288" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH288" t="n">
@@ -34786,7 +34786,7 @@
       </c>
       <c r="AG289" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH289" t="n">
@@ -34906,7 +34906,7 @@
       </c>
       <c r="AG290" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH290" t="n">
@@ -35026,7 +35026,7 @@
       </c>
       <c r="AG291" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH291" t="n">
@@ -35146,7 +35146,7 @@
       </c>
       <c r="AG292" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH292" t="n">
@@ -35262,7 +35262,7 @@
       </c>
       <c r="AG293" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH293" t="n">
@@ -35386,7 +35386,7 @@
       </c>
       <c r="AG294" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH294" t="n">
@@ -35510,7 +35510,7 @@
       </c>
       <c r="AG295" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH295" t="n">
@@ -35634,7 +35634,7 @@
       </c>
       <c r="AG296" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH296" t="n">
@@ -35754,7 +35754,7 @@
       </c>
       <c r="AG297" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH297" t="n">
@@ -35870,7 +35870,7 @@
       </c>
       <c r="AG298" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH298" t="n">
@@ -35990,7 +35990,7 @@
       </c>
       <c r="AG299" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH299" t="n">
@@ -36110,7 +36110,7 @@
       </c>
       <c r="AG300" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH300" t="n">
@@ -36234,7 +36234,7 @@
       </c>
       <c r="AG301" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH301" t="n">
@@ -36350,7 +36350,7 @@
       </c>
       <c r="AG302" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH302" t="n">
@@ -36462,7 +36462,7 @@
       </c>
       <c r="AG303" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH303" t="n">
@@ -36578,7 +36578,7 @@
       </c>
       <c r="AG304" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH304" t="n">
@@ -36698,7 +36698,7 @@
       </c>
       <c r="AG305" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH305" t="n">
@@ -36818,7 +36818,7 @@
       </c>
       <c r="AG306" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH306" t="n">
@@ -36938,7 +36938,7 @@
       </c>
       <c r="AG307" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH307" t="n">
@@ -37054,7 +37054,7 @@
       </c>
       <c r="AG308" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH308" t="n">
@@ -37170,7 +37170,7 @@
       </c>
       <c r="AG309" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH309" t="n">
@@ -37294,7 +37294,7 @@
       </c>
       <c r="AG310" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH310" t="n">
@@ -37410,7 +37410,7 @@
       </c>
       <c r="AG311" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH311" t="n">
@@ -37526,7 +37526,7 @@
       </c>
       <c r="AG312" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH312" t="n">
@@ -37650,7 +37650,7 @@
       </c>
       <c r="AG313" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH313" t="n">
@@ -37774,7 +37774,7 @@
       </c>
       <c r="AG314" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH314" t="n">
@@ -37890,7 +37890,7 @@
       </c>
       <c r="AG315" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH315" t="n">
@@ -38010,7 +38010,7 @@
       </c>
       <c r="AG316" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH316" t="n">
@@ -38134,7 +38134,7 @@
       </c>
       <c r="AG317" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH317" t="n">
@@ -38250,7 +38250,7 @@
       </c>
       <c r="AG318" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH318" t="n">
@@ -38366,7 +38366,7 @@
       </c>
       <c r="AG319" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH319" t="n">
@@ -38486,7 +38486,7 @@
       </c>
       <c r="AG320" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH320" t="n">
@@ -38602,7 +38602,7 @@
       </c>
       <c r="AG321" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH321" t="n">
@@ -38718,7 +38718,7 @@
       </c>
       <c r="AG322" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH322" t="n">
@@ -38834,7 +38834,7 @@
       </c>
       <c r="AG323" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH323" t="n">
@@ -38946,7 +38946,7 @@
       </c>
       <c r="AG324" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH324" t="n">
@@ -39066,7 +39066,7 @@
       </c>
       <c r="AG325" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH325" t="n">
@@ -39178,7 +39178,7 @@
       </c>
       <c r="AG326" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH326" t="n">
@@ -39302,7 +39302,7 @@
       </c>
       <c r="AG327" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH327" t="n">
@@ -39418,7 +39418,7 @@
       </c>
       <c r="AG328" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH328" t="n">
@@ -39534,7 +39534,7 @@
       </c>
       <c r="AG329" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH329" t="n">
@@ -39646,7 +39646,7 @@
       </c>
       <c r="AG330" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH330" t="n">
@@ -39770,7 +39770,7 @@
       </c>
       <c r="AG331" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH331" t="n">
@@ -39894,7 +39894,7 @@
       </c>
       <c r="AG332" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH332" t="n">
@@ -40010,7 +40010,7 @@
       </c>
       <c r="AG333" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH333" t="n">
@@ -40130,7 +40130,7 @@
       </c>
       <c r="AG334" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH334" t="n">
@@ -40242,7 +40242,7 @@
       </c>
       <c r="AG335" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH335" t="n">
@@ -40362,7 +40362,7 @@
       </c>
       <c r="AG336" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH336" t="n">
@@ -40478,7 +40478,7 @@
       </c>
       <c r="AG337" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH337" t="n">
@@ -40590,7 +40590,7 @@
       </c>
       <c r="AG338" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH338" t="n">
@@ -40710,7 +40710,7 @@
       </c>
       <c r="AG339" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH339" t="n">
@@ -40830,7 +40830,7 @@
       </c>
       <c r="AG340" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH340" t="n">
@@ -40950,7 +40950,7 @@
       </c>
       <c r="AG341" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH341" t="n">
@@ -41074,7 +41074,7 @@
       </c>
       <c r="AG342" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH342" t="n">
@@ -41190,7 +41190,7 @@
       </c>
       <c r="AG343" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH343" t="n">
@@ -41310,7 +41310,7 @@
       </c>
       <c r="AG344" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH344" t="n">
@@ -41426,7 +41426,7 @@
       </c>
       <c r="AG345" t="inlineStr">
         <is>
-          <t>MnO   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH345" t="n">
@@ -41542,7 +41542,7 @@
       </c>
       <c r="AG346" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH346" t="n">
@@ -41666,7 +41666,7 @@
       </c>
       <c r="AG347" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH347" t="n">
@@ -41782,7 +41782,7 @@
       </c>
       <c r="AG348" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH348" t="n">
@@ -41894,7 +41894,7 @@
       </c>
       <c r="AG349" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH349" t="n">
@@ -42018,7 +42018,7 @@
       </c>
       <c r="AG350" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH350" t="n">
@@ -42138,7 +42138,7 @@
       </c>
       <c r="AG351" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH351" t="n">
@@ -42254,7 +42254,7 @@
       </c>
       <c r="AG352" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH352" t="n">
@@ -42378,7 +42378,7 @@
       </c>
       <c r="AG353" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH353" t="n">
@@ -42494,7 +42494,7 @@
       </c>
       <c r="AG354" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH354" t="n">
@@ -42614,7 +42614,7 @@
       </c>
       <c r="AG355" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH355" t="n">
@@ -42734,7 +42734,7 @@
       </c>
       <c r="AG356" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH356" t="n">
@@ -42846,7 +42846,7 @@
       </c>
       <c r="AG357" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH357" t="n">
@@ -42962,7 +42962,7 @@
       </c>
       <c r="AG358" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH358" t="n">
@@ -43086,7 +43086,7 @@
       </c>
       <c r="AG359" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH359" t="n">
@@ -43202,7 +43202,7 @@
       </c>
       <c r="AG360" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH360" t="n">
@@ -43322,7 +43322,7 @@
       </c>
       <c r="AG361" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH361" t="n">
@@ -43438,7 +43438,7 @@
       </c>
       <c r="AG362" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH362" t="n">
@@ -43554,7 +43554,7 @@
       </c>
       <c r="AG363" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH363" t="n">
@@ -43666,7 +43666,7 @@
       </c>
       <c r="AG364" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH364" t="n">
@@ -43778,7 +43778,7 @@
       </c>
       <c r="AG365" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH365" t="n">
@@ -43898,7 +43898,7 @@
       </c>
       <c r="AG366" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH366" t="n">
@@ -44014,7 +44014,7 @@
       </c>
       <c r="AG367" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH367" t="n">
@@ -44134,7 +44134,7 @@
       </c>
       <c r="AG368" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH368" t="n">
@@ -44246,7 +44246,7 @@
       </c>
       <c r="AG369" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH369" t="n">
@@ -44362,7 +44362,7 @@
       </c>
       <c r="AG370" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH370" t="n">
@@ -44478,7 +44478,7 @@
       </c>
       <c r="AG371" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH371" t="n">
@@ -44594,7 +44594,7 @@
       </c>
       <c r="AG372" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH372" t="n">
@@ -44706,7 +44706,7 @@
       </c>
       <c r="AG373" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH373" t="n">
@@ -44818,7 +44818,7 @@
       </c>
       <c r="AG374" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH374" t="n">
@@ -44934,7 +44934,7 @@
       </c>
       <c r="AG375" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH375" t="n">
@@ -45054,7 +45054,7 @@
       </c>
       <c r="AG376" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH376" t="n">
@@ -45170,7 +45170,7 @@
       </c>
       <c r="AG377" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH377" t="n">
@@ -45286,7 +45286,7 @@
       </c>
       <c r="AG378" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH378" t="n">
@@ -45406,7 +45406,7 @@
       </c>
       <c r="AG379" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH379" t="n">
@@ -45526,7 +45526,7 @@
       </c>
       <c r="AG380" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH380" t="n">
@@ -45638,7 +45638,7 @@
       </c>
       <c r="AG381" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH381" t="n">
@@ -45758,7 +45758,7 @@
       </c>
       <c r="AG382" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH382" t="n">
@@ -45870,7 +45870,7 @@
       </c>
       <c r="AG383" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH383" t="n">
@@ -45990,7 +45990,7 @@
       </c>
       <c r="AG384" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH384" t="n">
@@ -46106,7 +46106,7 @@
       </c>
       <c r="AG385" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH385" t="n">
@@ -46230,7 +46230,7 @@
       </c>
       <c r="AG386" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH386" t="n">
@@ -46346,7 +46346,7 @@
       </c>
       <c r="AG387" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH387" t="n">
@@ -46470,7 +46470,7 @@
       </c>
       <c r="AG388" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH388" t="n">
@@ -46586,7 +46586,7 @@
       </c>
       <c r="AG389" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH389" t="n">
@@ -46710,7 +46710,7 @@
       </c>
       <c r="AG390" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH390" t="n">
@@ -46830,7 +46830,7 @@
       </c>
       <c r="AG391" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH391" t="n">
@@ -46942,7 +46942,7 @@
       </c>
       <c r="AG392" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH392" t="n">
@@ -47058,7 +47058,7 @@
       </c>
       <c r="AG393" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH393" t="n">
@@ -47182,7 +47182,7 @@
       </c>
       <c r="AG394" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH394" t="n">
@@ -47298,7 +47298,7 @@
       </c>
       <c r="AG395" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH395" t="n">
@@ -47418,7 +47418,7 @@
       </c>
       <c r="AG396" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH396" t="n">
@@ -47530,7 +47530,7 @@
       </c>
       <c r="AG397" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH397" t="n">
@@ -47642,7 +47642,7 @@
       </c>
       <c r="AG398" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH398" t="n">
@@ -47758,7 +47758,7 @@
       </c>
       <c r="AG399" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH399" t="n">
@@ -47878,7 +47878,7 @@
       </c>
       <c r="AG400" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH400" t="n">
@@ -47994,7 +47994,7 @@
       </c>
       <c r="AG401" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH401" t="n">
@@ -48114,7 +48114,7 @@
       </c>
       <c r="AG402" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH402" t="n">
@@ -48230,7 +48230,7 @@
       </c>
       <c r="AG403" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH403" t="n">
@@ -48346,7 +48346,7 @@
       </c>
       <c r="AG404" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH404" t="n">
@@ -48466,7 +48466,7 @@
       </c>
       <c r="AG405" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH405" t="n">
@@ -48582,7 +48582,7 @@
       </c>
       <c r="AG406" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH406" t="n">
@@ -48694,7 +48694,7 @@
       </c>
       <c r="AG407" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH407" t="n">
@@ -48814,7 +48814,7 @@
       </c>
       <c r="AG408" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH408" t="n">
@@ -48930,7 +48930,7 @@
       </c>
       <c r="AG409" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH409" t="n">
@@ -49046,7 +49046,7 @@
       </c>
       <c r="AG410" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH410" t="n">
@@ -49166,7 +49166,7 @@
       </c>
       <c r="AG411" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH411" t="n">
@@ -49278,7 +49278,7 @@
       </c>
       <c r="AG412" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH412" t="n">
@@ -49394,7 +49394,7 @@
       </c>
       <c r="AG413" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH413" t="n">
@@ -49514,7 +49514,7 @@
       </c>
       <c r="AG414" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH414" t="n">
@@ -49638,7 +49638,7 @@
       </c>
       <c r="AG415" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH415" t="n">
@@ -49758,7 +49758,7 @@
       </c>
       <c r="AG416" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH416" t="n">
@@ -49878,7 +49878,7 @@
       </c>
       <c r="AG417" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH417" t="n">
@@ -49990,7 +49990,7 @@
       </c>
       <c r="AG418" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH418" t="n">
@@ -50102,7 +50102,7 @@
       </c>
       <c r="AG419" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH419" t="n">
@@ -50214,7 +50214,7 @@
       </c>
       <c r="AG420" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH420" t="n">
@@ -50334,7 +50334,7 @@
       </c>
       <c r="AG421" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH421" t="n">
@@ -50450,7 +50450,7 @@
       </c>
       <c r="AG422" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH422" t="n">
@@ -50570,7 +50570,7 @@
       </c>
       <c r="AG423" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH423" t="n">
@@ -50690,7 +50690,7 @@
       </c>
       <c r="AG424" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH424" t="n">
@@ -50814,7 +50814,7 @@
       </c>
       <c r="AG425" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH425" t="n">
@@ -50930,7 +50930,7 @@
       </c>
       <c r="AG426" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH426" t="n">
@@ -51050,7 +51050,7 @@
       </c>
       <c r="AG427" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH427" t="n">
@@ -51166,7 +51166,7 @@
       </c>
       <c r="AG428" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH428" t="n">
@@ -51282,7 +51282,7 @@
       </c>
       <c r="AG429" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH429" t="n">
@@ -51398,7 +51398,7 @@
       </c>
       <c r="AG430" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH430" t="n">
@@ -51514,7 +51514,7 @@
       </c>
       <c r="AG431" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH431" t="n">
@@ -51630,7 +51630,7 @@
       </c>
       <c r="AG432" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH432" t="n">
@@ -51750,7 +51750,7 @@
       </c>
       <c r="AG433" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH433" t="n">
@@ -51874,7 +51874,7 @@
       </c>
       <c r="AG434" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH434" t="n">
@@ -51990,7 +51990,7 @@
       </c>
       <c r="AG435" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH435" t="n">
@@ -52106,7 +52106,7 @@
       </c>
       <c r="AG436" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH436" t="n">
@@ -52222,7 +52222,7 @@
       </c>
       <c r="AG437" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH437" t="n">
@@ -52338,7 +52338,7 @@
       </c>
       <c r="AG438" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH438" t="n">
@@ -52458,7 +52458,7 @@
       </c>
       <c r="AG439" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH439" t="n">
@@ -52578,7 +52578,7 @@
       </c>
       <c r="AG440" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH440" t="n">
@@ -52694,7 +52694,7 @@
       </c>
       <c r="AG441" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH441" t="n">
@@ -52810,7 +52810,7 @@
       </c>
       <c r="AG442" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH442" t="n">
@@ -52926,7 +52926,7 @@
       </c>
       <c r="AG443" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH443" t="n">
@@ -53046,7 +53046,7 @@
       </c>
       <c r="AG444" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH444" t="n">
@@ -53158,7 +53158,7 @@
       </c>
       <c r="AG445" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH445" t="n">
@@ -53270,7 +53270,7 @@
       </c>
       <c r="AG446" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH446" t="n">
@@ -53386,7 +53386,7 @@
       </c>
       <c r="AG447" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH447" t="n">
@@ -53498,7 +53498,7 @@
       </c>
       <c r="AG448" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH448" t="n">
@@ -53618,7 +53618,7 @@
       </c>
       <c r="AG449" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH449" t="n">
@@ -53734,7 +53734,7 @@
       </c>
       <c r="AG450" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH450" t="n">
@@ -53850,7 +53850,7 @@
       </c>
       <c r="AG451" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH451" t="n">
@@ -53962,7 +53962,7 @@
       </c>
       <c r="AG452" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH452" t="n">
@@ -54074,7 +54074,7 @@
       </c>
       <c r="AG453" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 oth</t>
+          <t>mineraloth</t>
         </is>
       </c>
       <c r="AH453" t="n">
@@ -54186,7 +54186,7 @@
       </c>
       <c r="AG454" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH454" t="n">
@@ -54302,7 +54302,7 @@
       </c>
       <c r="AG455" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH455" t="n">
@@ -54414,7 +54414,7 @@
       </c>
       <c r="AG456" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH456" t="n">
@@ -54530,7 +54530,7 @@
       </c>
       <c r="AG457" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH457" t="n">
@@ -54650,7 +54650,7 @@
       </c>
       <c r="AG458" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH458" t="n">
@@ -54766,7 +54766,7 @@
       </c>
       <c r="AG459" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AH459" t="n">
@@ -54890,7 +54890,7 @@
       </c>
       <c r="AG460" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH460" t="n">
@@ -55006,7 +55006,7 @@
       </c>
       <c r="AG461" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH461" t="n">
@@ -55122,7 +55122,7 @@
       </c>
       <c r="AG462" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH462" t="n">
@@ -55234,7 +55234,7 @@
       </c>
       <c r="AG463" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH463" t="n">
@@ -55350,7 +55350,7 @@
       </c>
       <c r="AG464" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH464" t="n">
@@ -55462,7 +55462,7 @@
       </c>
       <c r="AG465" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH465" t="n">
@@ -55582,7 +55582,7 @@
       </c>
       <c r="AG466" t="inlineStr">
         <is>
-          <t xml:space="preserve">    oth</t>
+          <t>oth</t>
         </is>
       </c>
       <c r="AH466" t="n">
@@ -55706,7 +55706,7 @@
       </c>
       <c r="AG467" t="inlineStr">
         <is>
-          <t xml:space="preserve">   P2O5 </t>
+          <t>mineral</t>
         </is>
       </c>
       <c r="AH467" t="n">

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1641085.363097306</v>
+        <v>716545.3069265599</v>
       </c>
       <c r="C2" t="n">
-        <v>7925964.410267092</v>
+        <v>7654589.650507458</v>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -626,13 +626,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>2402729.837106247</v>
+        <v>1317109.434335054</v>
       </c>
       <c r="C3" t="n">
-        <v>7698021.282765402</v>
+        <v>7163467.76034487</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -726,13 +726,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>2437378.902315104</v>
+        <v>1291318.869783413</v>
       </c>
       <c r="C4" t="n">
-        <v>7544472.611243027</v>
+        <v>7013925.435213597</v>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -826,13 +826,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="n">
-        <v>2151206.862513406</v>
+        <v>1257901.619600638</v>
       </c>
       <c r="C5" t="n">
-        <v>8137300.723031249</v>
+        <v>7650809.978011907</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -930,13 +930,13 @@
         <v>62</v>
       </c>
       <c r="B6" t="n">
-        <v>2273627.871748169</v>
+        <v>1365606.063928074</v>
       </c>
       <c r="C6" t="n">
-        <v>8131891.223843045</v>
+        <v>7599094.647634769</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1030,13 +1030,13 @@
         <v>72</v>
       </c>
       <c r="B7" t="n">
-        <v>2057082.77459206</v>
+        <v>1069869.444811051</v>
       </c>
       <c r="C7" t="n">
-        <v>7865221.495164424</v>
+        <v>7442350.681928407</v>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1130,13 +1130,13 @@
         <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>2139105.324625254</v>
+        <v>1209081.86383385</v>
       </c>
       <c r="C8" t="n">
-        <v>8038030.844473839</v>
+        <v>7566463.230602886</v>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>2396688.520398211</v>
+        <v>1307277.207413263</v>
       </c>
       <c r="C9" t="n">
-        <v>7686056.922360259</v>
+        <v>7155049.473832305</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1334,13 +1334,13 @@
         <v>107</v>
       </c>
       <c r="B10" t="n">
-        <v>1822362.436133265</v>
+        <v>976243.837006319</v>
       </c>
       <c r="C10" t="n">
-        <v>8175486.577195281</v>
+        <v>7811336.278019895</v>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1438,13 +1438,13 @@
         <v>115</v>
       </c>
       <c r="B11" t="n">
-        <v>1847244.984155452</v>
+        <v>992954.9348838349</v>
       </c>
       <c r="C11" t="n">
-        <v>8160449.891435815</v>
+        <v>7788195.094970963</v>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1542,13 +1542,13 @@
         <v>130</v>
       </c>
       <c r="B12" t="n">
-        <v>1849518.749481422</v>
+        <v>613207.7691637869</v>
       </c>
       <c r="C12" t="n">
-        <v>7134073.816852202</v>
+        <v>6857478.69049342</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1646,13 +1646,13 @@
         <v>156</v>
       </c>
       <c r="B13" t="n">
-        <v>2155851.060932347</v>
+        <v>1265526.457405787</v>
       </c>
       <c r="C13" t="n">
-        <v>8146303.603746837</v>
+        <v>7657095.969186667</v>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1754,13 +1754,13 @@
         <v>187</v>
       </c>
       <c r="B14" t="n">
-        <v>1982295.26273081</v>
+        <v>1153453.643495219</v>
       </c>
       <c r="C14" t="n">
-        <v>8260679.930354149</v>
+        <v>7826518.910732556</v>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1862,13 +1862,13 @@
         <v>231</v>
       </c>
       <c r="B15" t="n">
-        <v>1825563.167884697</v>
+        <v>979995.7358453544</v>
       </c>
       <c r="C15" t="n">
-        <v>8177716.895563863</v>
+        <v>7812120.042808705</v>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1962,13 +1962,13 @@
         <v>266</v>
       </c>
       <c r="B16" t="n">
-        <v>1849932.539595473</v>
+        <v>996115.4200828257</v>
       </c>
       <c r="C16" t="n">
-        <v>8162353.849422989</v>
+        <v>7788881.611347905</v>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2062,13 +2062,13 @@
         <v>273</v>
       </c>
       <c r="B17" t="n">
-        <v>2022143.213775337</v>
+        <v>1184846.687168772</v>
       </c>
       <c r="C17" t="n">
-        <v>8249021.143775797</v>
+        <v>7800661.652034893</v>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2170,13 +2170,13 @@
         <v>323</v>
       </c>
       <c r="B18" t="n">
-        <v>1857386.206269508</v>
+        <v>718595.4453576277</v>
       </c>
       <c r="C18" t="n">
-        <v>7405143.647461669</v>
+        <v>7100953.376766212</v>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2274,13 +2274,13 @@
         <v>331</v>
       </c>
       <c r="B19" t="n">
-        <v>2045386.529553918</v>
+        <v>817906.3644586715</v>
       </c>
       <c r="C19" t="n">
-        <v>7209366.94918176</v>
+        <v>6855471.294381556</v>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         <v>338</v>
       </c>
       <c r="B20" t="n">
-        <v>2177623.058308703</v>
+        <v>1289343.99919946</v>
       </c>
       <c r="C20" t="n">
-        <v>8157431.168539671</v>
+        <v>7658714.591242018</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2478,13 +2478,13 @@
         <v>352</v>
       </c>
       <c r="B21" t="n">
-        <v>1838599.649958549</v>
+        <v>984604.5458906151</v>
       </c>
       <c r="C21" t="n">
-        <v>8159053.598878857</v>
+        <v>7790255.022108324</v>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2582,13 +2582,13 @@
         <v>361</v>
       </c>
       <c r="B22" t="n">
-        <v>1968972.816425802</v>
+        <v>1099911.427408059</v>
       </c>
       <c r="C22" t="n">
-        <v>8152859.373672574</v>
+        <v>7734628.197918099</v>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2682,13 +2682,13 @@
         <v>368</v>
       </c>
       <c r="B23" t="n">
-        <v>1688295.120146236</v>
+        <v>605006.4034488304</v>
       </c>
       <c r="C23" t="n">
-        <v>7514233.008605688</v>
+        <v>7262366.437419397</v>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2786,13 +2786,13 @@
         <v>371</v>
       </c>
       <c r="B24" t="n">
-        <v>1968499.615068142</v>
+        <v>1098424.835945983</v>
       </c>
       <c r="C24" t="n">
-        <v>8150098.240479514</v>
+        <v>7732324.276248082</v>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2886,13 +2886,13 @@
         <v>372</v>
       </c>
       <c r="B25" t="n">
-        <v>1827747.396983195</v>
+        <v>980759.3883899424</v>
       </c>
       <c r="C25" t="n">
-        <v>8174568.735453034</v>
+        <v>7808436.827824852</v>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2994,13 +2994,13 @@
         <v>377</v>
       </c>
       <c r="B26" t="n">
-        <v>2153564.196474707</v>
+        <v>1263012.575800503</v>
       </c>
       <c r="C26" t="n">
-        <v>8145103.889136414</v>
+        <v>7656897.570337172</v>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3098,13 +3098,13 @@
         <v>392</v>
       </c>
       <c r="B27" t="n">
-        <v>2236352.064321263</v>
+        <v>1157744.635303447</v>
       </c>
       <c r="C27" t="n">
-        <v>7669519.777443585</v>
+        <v>7199727.021158991</v>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3198,13 +3198,13 @@
         <v>427</v>
       </c>
       <c r="B28" t="n">
-        <v>2419334.505610837</v>
+        <v>1447881.949587269</v>
       </c>
       <c r="C28" t="n">
-        <v>8006425.230350167</v>
+        <v>7431729.165202651</v>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3294,13 +3294,13 @@
         <v>429</v>
       </c>
       <c r="B29" t="n">
-        <v>1986254.294287082</v>
+        <v>771419.7362182932</v>
       </c>
       <c r="C29" t="n">
-        <v>7228877.093705044</v>
+        <v>6894388.496487468</v>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3394,13 +3394,13 @@
         <v>446</v>
       </c>
       <c r="B30" t="n">
-        <v>1831585.152761088</v>
+        <v>978162.385763769</v>
       </c>
       <c r="C30" t="n">
-        <v>8158790.007637721</v>
+        <v>7792711.278856824</v>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3494,13 +3494,13 @@
         <v>453</v>
       </c>
       <c r="B31" t="n">
-        <v>1863992.973382225</v>
+        <v>987687.8038031845</v>
       </c>
       <c r="C31" t="n">
-        <v>8107276.994042166</v>
+        <v>7733771.065505034</v>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3598,13 +3598,13 @@
         <v>503</v>
       </c>
       <c r="B32" t="n">
-        <v>2179570.44414209</v>
+        <v>1301574.429829562</v>
       </c>
       <c r="C32" t="n">
-        <v>8184690.342885277</v>
+        <v>7682368.409099434</v>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3702,13 +3702,13 @@
         <v>537</v>
       </c>
       <c r="B33" t="n">
-        <v>2022342.966356032</v>
+        <v>1184117.962264954</v>
       </c>
       <c r="C33" t="n">
-        <v>8246668.656675782</v>
+        <v>7798470.613414782</v>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3810,13 +3810,13 @@
         <v>538</v>
       </c>
       <c r="B34" t="n">
-        <v>1664743.438076374</v>
+        <v>765000.9327314259</v>
       </c>
       <c r="C34" t="n">
-        <v>7996787.176433153</v>
+        <v>7709895.433042902</v>
       </c>
       <c r="D34" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3914,13 +3914,13 @@
         <v>539</v>
       </c>
       <c r="B35" t="n">
-        <v>1827716.432405845</v>
+        <v>981631.5596356103</v>
       </c>
       <c r="C35" t="n">
-        <v>8176908.773430345</v>
+        <v>7810562.171573332</v>
       </c>
       <c r="D35" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         <v>562</v>
       </c>
       <c r="B36" t="n">
-        <v>1838605.288275051</v>
+        <v>984601.9975371652</v>
       </c>
       <c r="C36" t="n">
-        <v>8159033.705182851</v>
+        <v>7790234.892417417</v>
       </c>
       <c r="D36" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4122,13 +4122,13 @@
         <v>573</v>
       </c>
       <c r="B37" t="n">
-        <v>1849936.73631738</v>
+        <v>996113.6128297481</v>
       </c>
       <c r="C37" t="n">
-        <v>8162339.279340811</v>
+        <v>7788866.846235733</v>
       </c>
       <c r="D37" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4226,13 +4226,13 @@
         <v>582</v>
       </c>
       <c r="B38" t="n">
-        <v>1808451.462216801</v>
+        <v>940623.1732359559</v>
       </c>
       <c r="C38" t="n">
-        <v>8115493.171251674</v>
+        <v>7762468.58874333</v>
       </c>
       <c r="D38" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4330,13 +4330,13 @@
         <v>586</v>
       </c>
       <c r="B39" t="n">
-        <v>2186508.369459939</v>
+        <v>1215671.591087865</v>
       </c>
       <c r="C39" t="n">
-        <v>7943340.5390868</v>
+        <v>7463628.186775266</v>
       </c>
       <c r="D39" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4434,13 +4434,13 @@
         <v>599</v>
       </c>
       <c r="B40" t="n">
-        <v>1825049.036973507</v>
+        <v>978502.4323821636</v>
       </c>
       <c r="C40" t="n">
-        <v>8175043.446214229</v>
+        <v>7809903.037452126</v>
       </c>
       <c r="D40" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4538,13 +4538,13 @@
         <v>624</v>
       </c>
       <c r="B41" t="n">
-        <v>2324044.76594247</v>
+        <v>1395369.291707831</v>
       </c>
       <c r="C41" t="n">
-        <v>8091824.772876629</v>
+        <v>7544065.702328905</v>
       </c>
       <c r="D41" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4638,13 +4638,13 @@
         <v>647</v>
       </c>
       <c r="B42" t="n">
-        <v>1982374.270153945</v>
+        <v>826350.3057048488</v>
       </c>
       <c r="C42" t="n">
-        <v>7390128.788978185</v>
+        <v>7041694.674429433</v>
       </c>
       <c r="D42" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4742,13 +4742,13 @@
         <v>648</v>
       </c>
       <c r="B43" t="n">
-        <v>1868071.601805134</v>
+        <v>619632.1958069949</v>
       </c>
       <c r="C43" t="n">
-        <v>7104876.993944513</v>
+        <v>6824263.560986303</v>
       </c>
       <c r="D43" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4846,13 +4846,13 @@
         <v>650</v>
       </c>
       <c r="B44" t="n">
-        <v>2153601.821111365</v>
+        <v>1263158.771712763</v>
       </c>
       <c r="C44" t="n">
-        <v>8145396.761934734</v>
+        <v>7657145.518444227</v>
       </c>
       <c r="D44" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4954,13 +4954,13 @@
         <v>664</v>
       </c>
       <c r="B45" t="n">
-        <v>2019089.495770214</v>
+        <v>1178231.506268718</v>
       </c>
       <c r="C45" t="n">
-        <v>8239011.185887842</v>
+        <v>7792843.475297939</v>
       </c>
       <c r="D45" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5062,13 +5062,13 @@
         <v>687</v>
       </c>
       <c r="B46" t="n">
-        <v>1968446.143842587</v>
+        <v>1139466.388212251</v>
       </c>
       <c r="C46" t="n">
-        <v>8256786.873743217</v>
+        <v>7828361.872455263</v>
       </c>
       <c r="D46" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         <v>711</v>
       </c>
       <c r="B47" t="n">
-        <v>2179595.613876158</v>
+        <v>1289815.635090805</v>
       </c>
       <c r="C47" t="n">
-        <v>8154050.576463301</v>
+        <v>7654931.959355357</v>
       </c>
       <c r="D47" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5266,13 +5266,13 @@
         <v>712</v>
       </c>
       <c r="B48" t="n">
-        <v>2423040.575395302</v>
+        <v>1277353.564574054</v>
       </c>
       <c r="C48" t="n">
-        <v>7541251.772015903</v>
+        <v>7016313.405409556</v>
       </c>
       <c r="D48" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5370,13 +5370,13 @@
         <v>760</v>
       </c>
       <c r="B49" t="n">
-        <v>2050676.596479598</v>
+        <v>926769.1618215935</v>
       </c>
       <c r="C49" t="n">
-        <v>7495990.089922069</v>
+        <v>7112289.289315744</v>
       </c>
       <c r="D49" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5466,13 +5466,13 @@
         <v>774</v>
       </c>
       <c r="B50" t="n">
-        <v>2449966.479992907</v>
+        <v>1296199.209881424</v>
       </c>
       <c r="C50" t="n">
-        <v>7527183.892904207</v>
+        <v>6993920.367529894</v>
       </c>
       <c r="D50" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5570,13 +5570,13 @@
         <v>782</v>
       </c>
       <c r="B51" t="n">
-        <v>2020605.950043656</v>
+        <v>1182954.423963473</v>
       </c>
       <c r="C51" t="n">
-        <v>8247706.118910359</v>
+        <v>7800072.818773687</v>
       </c>
       <c r="D51" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5678,13 +5678,13 @@
         <v>797</v>
       </c>
       <c r="B52" t="n">
-        <v>2036706.640755117</v>
+        <v>933972.8689864292</v>
       </c>
       <c r="C52" t="n">
-        <v>7549830.989027231</v>
+        <v>7165969.772624996</v>
       </c>
       <c r="D52" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -5778,13 +5778,13 @@
         <v>800</v>
       </c>
       <c r="B53" t="n">
-        <v>1930220.762258073</v>
+        <v>969399.4100434722</v>
       </c>
       <c r="C53" t="n">
-        <v>7902050.812875982</v>
+        <v>7523377.41203678</v>
       </c>
       <c r="D53" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5886,13 +5886,13 @@
         <v>806</v>
       </c>
       <c r="B54" t="n">
-        <v>1901766.657554942</v>
+        <v>943653.5888887567</v>
       </c>
       <c r="C54" t="n">
-        <v>7901925.201730902</v>
+        <v>7534018.995320976</v>
       </c>
       <c r="D54" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -5994,13 +5994,13 @@
         <v>808</v>
       </c>
       <c r="B55" t="n">
-        <v>2392664.993576393</v>
+        <v>1306174.23881721</v>
       </c>
       <c r="C55" t="n">
-        <v>7692756.767638367</v>
+        <v>7162512.046347829</v>
       </c>
       <c r="D55" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6094,13 +6094,13 @@
         <v>811</v>
       </c>
       <c r="B56" t="n">
-        <v>1869469.373521126</v>
+        <v>961583.1122829969</v>
       </c>
       <c r="C56" t="n">
-        <v>8026011.540405631</v>
+        <v>7658312.715738625</v>
       </c>
       <c r="D56" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6194,13 +6194,13 @@
         <v>821</v>
       </c>
       <c r="B57" t="n">
-        <v>1558305.191921032</v>
+        <v>659791.6919986999</v>
       </c>
       <c r="C57" t="n">
-        <v>7974634.682463849</v>
+        <v>7730369.296077661</v>
       </c>
       <c r="D57" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6298,13 +6298,13 @@
         <v>831</v>
       </c>
       <c r="B58" t="n">
-        <v>1968902.101406626</v>
+        <v>1100747.207668099</v>
       </c>
       <c r="C58" t="n">
-        <v>8155202.10041103</v>
+        <v>7736764.095026573</v>
       </c>
       <c r="D58" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6406,13 +6406,13 @@
         <v>833</v>
       </c>
       <c r="B59" t="n">
-        <v>1832066.518973346</v>
+        <v>983172.1199407734</v>
       </c>
       <c r="C59" t="n">
-        <v>8170689.741866078</v>
+        <v>7803273.24599669</v>
       </c>
       <c r="D59" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -6514,13 +6514,13 @@
         <v>838</v>
       </c>
       <c r="B60" t="n">
-        <v>2014474.346205464</v>
+        <v>1163086.230637999</v>
       </c>
       <c r="C60" t="n">
-        <v>8210517.633315588</v>
+        <v>7769010.616870533</v>
       </c>
       <c r="D60" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         <v>840</v>
       </c>
       <c r="B61" t="n">
-        <v>1776566.481184196</v>
+        <v>877210.4665742893</v>
       </c>
       <c r="C61" t="n">
-        <v>8025141.892328169</v>
+        <v>7692943.6989805</v>
       </c>
       <c r="D61" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         <v>852</v>
       </c>
       <c r="B62" t="n">
-        <v>1979204.517693233</v>
+        <v>838278.3538878042</v>
       </c>
       <c r="C62" t="n">
-        <v>7430638.626823419</v>
+        <v>7079476.659341978</v>
       </c>
       <c r="D62" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -6826,13 +6826,13 @@
         <v>866</v>
       </c>
       <c r="B63" t="n">
-        <v>2416118.610160838</v>
+        <v>1276363.705185957</v>
       </c>
       <c r="C63" t="n">
-        <v>7555375.163583635</v>
+        <v>7031436.477282028</v>
       </c>
       <c r="D63" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -6926,13 +6926,13 @@
         <v>867</v>
       </c>
       <c r="B64" t="n">
-        <v>1842243.618694592</v>
+        <v>994233.0387874746</v>
       </c>
       <c r="C64" t="n">
-        <v>8175530.840364268</v>
+        <v>7803732.505514419</v>
       </c>
       <c r="D64" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7034,13 +7034,13 @@
         <v>891</v>
       </c>
       <c r="B65" t="n">
-        <v>1968897.268336816</v>
+        <v>1100748.686225923</v>
       </c>
       <c r="C65" t="n">
-        <v>8155217.297002388</v>
+        <v>7736779.62819042</v>
       </c>
       <c r="D65" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         <v>909</v>
       </c>
       <c r="B66" t="n">
-        <v>2415659.26572754</v>
+        <v>1407593.56543087</v>
       </c>
       <c r="C66" t="n">
-        <v>7908803.45968125</v>
+        <v>7346281.374202767</v>
       </c>
       <c r="D66" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7238,13 +7238,13 @@
         <v>916</v>
       </c>
       <c r="B67" t="n">
-        <v>2043060.130356058</v>
+        <v>904787.1745641358</v>
       </c>
       <c r="C67" t="n">
-        <v>7454764.275434798</v>
+        <v>7077901.709296967</v>
       </c>
       <c r="D67" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7334,13 +7334,13 @@
         <v>918</v>
       </c>
       <c r="B68" t="n">
-        <v>2178710.954313893</v>
+        <v>1290684.901944543</v>
       </c>
       <c r="C68" t="n">
-        <v>8158380.006095069</v>
+        <v>7659146.800656578</v>
       </c>
       <c r="D68" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7434,13 +7434,13 @@
         <v>919</v>
       </c>
       <c r="B69" t="n">
-        <v>2030462.022815105</v>
+        <v>1192132.089914491</v>
       </c>
       <c r="C69" t="n">
-        <v>8248489.963868883</v>
+        <v>7796975.877846763</v>
       </c>
       <c r="D69" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         <v>929</v>
       </c>
       <c r="B70" t="n">
-        <v>2035611.625085386</v>
+        <v>1198443.377826289</v>
       </c>
       <c r="C70" t="n">
-        <v>8252825.778920213</v>
+        <v>7798884.693372183</v>
       </c>
       <c r="D70" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7646,13 +7646,13 @@
         <v>942</v>
       </c>
       <c r="B71" t="n">
-        <v>1843951.66405351</v>
+        <v>992654.98101819</v>
       </c>
       <c r="C71" t="n">
-        <v>8167412.87781406</v>
+        <v>7795746.705734865</v>
       </c>
       <c r="D71" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7754,13 +7754,13 @@
         <v>950</v>
       </c>
       <c r="B72" t="n">
-        <v>2192586.45327676</v>
+        <v>1334774.628198704</v>
       </c>
       <c r="C72" t="n">
-        <v>8240483.813921906</v>
+        <v>7727287.848503093</v>
       </c>
       <c r="D72" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7858,13 +7858,13 @@
         <v>957</v>
       </c>
       <c r="B73" t="n">
-        <v>2157236.428593216</v>
+        <v>1265295.017096241</v>
       </c>
       <c r="C73" t="n">
-        <v>8142459.702989873</v>
+        <v>7653121.923246186</v>
       </c>
       <c r="D73" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7966,13 +7966,13 @@
         <v>958</v>
       </c>
       <c r="B74" t="n">
-        <v>2460980.916483301</v>
+        <v>1376869.025016262</v>
       </c>
       <c r="C74" t="n">
-        <v>7719112.007409033</v>
+        <v>7160603.209204636</v>
       </c>
       <c r="D74" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -8066,13 +8066,13 @@
         <v>963</v>
       </c>
       <c r="B75" t="n">
-        <v>1937782.313918368</v>
+        <v>789089.2370049354</v>
       </c>
       <c r="C75" t="n">
-        <v>7398607.247583091</v>
+        <v>7065637.5475065</v>
       </c>
       <c r="D75" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -8162,13 +8162,13 @@
         <v>975</v>
       </c>
       <c r="B76" t="n">
-        <v>2161380.258818134</v>
+        <v>1275227.842817889</v>
       </c>
       <c r="C76" t="n">
-        <v>8158638.943645977</v>
+        <v>7666024.974995402</v>
       </c>
       <c r="D76" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -8262,13 +8262,13 @@
         <v>977</v>
       </c>
       <c r="B77" t="n">
-        <v>2177785.468716233</v>
+        <v>1288574.506436826</v>
       </c>
       <c r="C77" t="n">
-        <v>8155048.689637467</v>
+        <v>7656519.48107017</v>
       </c>
       <c r="D77" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -8362,13 +8362,13 @@
         <v>979</v>
       </c>
       <c r="B78" t="n">
-        <v>2455345.224620869</v>
+        <v>1325565.010734642</v>
       </c>
       <c r="C78" t="n">
-        <v>7594083.911137718</v>
+        <v>7051485.772339288</v>
       </c>
       <c r="D78" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -8466,13 +8466,13 @@
         <v>984</v>
       </c>
       <c r="B79" t="n">
-        <v>2184497.250798838</v>
+        <v>1289019.168612078</v>
       </c>
       <c r="C79" t="n">
-        <v>8140519.330088887</v>
+        <v>7640941.251221206</v>
       </c>
       <c r="D79" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -8570,13 +8570,13 @@
         <v>991</v>
       </c>
       <c r="B80" t="n">
-        <v>1968971.6349057</v>
+        <v>1099911.792962415</v>
       </c>
       <c r="C80" t="n">
-        <v>8152863.099932982</v>
+        <v>7734632.005301744</v>
       </c>
       <c r="D80" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -8678,13 +8678,13 @@
         <v>1003</v>
       </c>
       <c r="B81" t="n">
-        <v>2179429.531099057</v>
+        <v>1290586.133360659</v>
       </c>
       <c r="C81" t="n">
-        <v>8156444.376269045</v>
+        <v>7657138.50883689</v>
       </c>
       <c r="D81" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -8778,13 +8778,13 @@
         <v>1070</v>
       </c>
       <c r="B82" t="n">
-        <v>1973457.55808178</v>
+        <v>1103420.446603166</v>
       </c>
       <c r="C82" t="n">
-        <v>8151469.417865915</v>
+        <v>7731656.840806731</v>
       </c>
       <c r="D82" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -8882,13 +8882,13 @@
         <v>1074</v>
       </c>
       <c r="B83" t="n">
-        <v>1857349.600398468</v>
+        <v>626765.0559981896</v>
       </c>
       <c r="C83" t="n">
-        <v>7151990.747362091</v>
+        <v>6870970.438198091</v>
       </c>
       <c r="D83" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8986,13 +8986,13 @@
         <v>1076</v>
       </c>
       <c r="B84" t="n">
-        <v>1687521.356161641</v>
+        <v>604935.8241788865</v>
       </c>
       <c r="C84" t="n">
-        <v>7515946.163937759</v>
+        <v>7264213.123815491</v>
       </c>
       <c r="D84" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -9090,13 +9090,13 @@
         <v>1085</v>
       </c>
       <c r="B85" t="n">
-        <v>2018478.80347488</v>
+        <v>1183243.561898906</v>
       </c>
       <c r="C85" t="n">
-        <v>8253413.58644606</v>
+        <v>7806022.506910689</v>
       </c>
       <c r="D85" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -9198,13 +9198,13 @@
         <v>1086</v>
       </c>
       <c r="B86" t="n">
-        <v>2020081.511348141</v>
+        <v>1182325.211327434</v>
       </c>
       <c r="C86" t="n">
-        <v>8247299.787657304</v>
+        <v>7799909.921631613</v>
       </c>
       <c r="D86" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -9306,13 +9306,13 @@
         <v>1090</v>
       </c>
       <c r="B87" t="n">
-        <v>1900389.536051186</v>
+        <v>836861.3790207192</v>
       </c>
       <c r="C87" t="n">
-        <v>7620255.129100572</v>
+        <v>7279990.7271967</v>
       </c>
       <c r="D87" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -9406,13 +9406,13 @@
         <v>1091</v>
       </c>
       <c r="B88" t="n">
-        <v>2178884.615841716</v>
+        <v>1289915.221627235</v>
       </c>
       <c r="C88" t="n">
-        <v>8155970.933248234</v>
+        <v>7656923.635255026</v>
       </c>
       <c r="D88" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -9506,13 +9506,13 @@
         <v>1094</v>
       </c>
       <c r="B89" t="n">
-        <v>2395592.071362215</v>
+        <v>1409359.799312466</v>
       </c>
       <c r="C89" t="n">
-        <v>7960777.317704737</v>
+        <v>7400114.159695893</v>
       </c>
       <c r="D89" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -9602,13 +9602,13 @@
         <v>1097</v>
       </c>
       <c r="B90" t="n">
-        <v>2055002.410133839</v>
+        <v>935175.5479990015</v>
       </c>
       <c r="C90" t="n">
-        <v>7508258.206719857</v>
+        <v>7121760.586731764</v>
       </c>
       <c r="D90" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -9698,13 +9698,13 @@
         <v>1100</v>
       </c>
       <c r="B91" t="n">
-        <v>1849934.503313578</v>
+        <v>996114.5744490115</v>
       </c>
       <c r="C91" t="n">
-        <v>8162347.031861647</v>
+        <v>7788874.702525561</v>
       </c>
       <c r="D91" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -9802,13 +9802,13 @@
         <v>1118</v>
       </c>
       <c r="B92" t="n">
-        <v>1879730.117082351</v>
+        <v>790020.5210857922</v>
       </c>
       <c r="C92" t="n">
-        <v>7544283.464769014</v>
+        <v>7218873.875846167</v>
       </c>
       <c r="D92" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -9902,13 +9902,13 @@
         <v>1119</v>
       </c>
       <c r="B93" t="n">
-        <v>2090672.228249006</v>
+        <v>929517.9696849707</v>
       </c>
       <c r="C93" t="n">
-        <v>7404890.911347643</v>
+        <v>7015550.910753055</v>
       </c>
       <c r="D93" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -10002,13 +10002,13 @@
         <v>1126</v>
       </c>
       <c r="B94" t="n">
-        <v>2400245.650278606</v>
+        <v>1250582.293829853</v>
       </c>
       <c r="C94" t="n">
-        <v>7523696.345372427</v>
+        <v>7009017.683968499</v>
       </c>
       <c r="D94" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -10102,13 +10102,13 @@
         <v>1134</v>
       </c>
       <c r="B95" t="n">
-        <v>1922116.488288299</v>
+        <v>850484.8921374951</v>
       </c>
       <c r="C95" t="n">
-        <v>7603989.549888535</v>
+        <v>7257221.013787333</v>
       </c>
       <c r="D95" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -10206,13 +10206,13 @@
         <v>1136</v>
       </c>
       <c r="B96" t="n">
-        <v>2174558.978499715</v>
+        <v>1287531.517504689</v>
       </c>
       <c r="C96" t="n">
-        <v>8159871.354009096</v>
+        <v>7662074.249157267</v>
       </c>
       <c r="D96" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -10306,13 +10306,13 @@
         <v>1173</v>
       </c>
       <c r="B97" t="n">
-        <v>2021625.084082231</v>
+        <v>1184216.78015425</v>
       </c>
       <c r="C97" t="n">
-        <v>8248598.306547126</v>
+        <v>7800481.519248006</v>
       </c>
       <c r="D97" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -10414,13 +10414,13 @@
         <v>1179</v>
       </c>
       <c r="B98" t="n">
-        <v>1806842.792737123</v>
+        <v>958093.9354796396</v>
       </c>
       <c r="C98" t="n">
-        <v>8164786.2951838</v>
+        <v>7807634.872172534</v>
       </c>
       <c r="D98" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -10522,13 +10522,13 @@
         <v>1182</v>
       </c>
       <c r="B99" t="n">
-        <v>2402908.257600741</v>
+        <v>1318234.448884461</v>
       </c>
       <c r="C99" t="n">
-        <v>7700621.050396658</v>
+        <v>7165717.460870856</v>
       </c>
       <c r="D99" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -10622,13 +10622,13 @@
         <v>1195</v>
       </c>
       <c r="B100" t="n">
-        <v>1843371.515511009</v>
+        <v>993759.5695739661</v>
       </c>
       <c r="C100" t="n">
-        <v>8171649.261065386</v>
+        <v>7799794.467441583</v>
       </c>
       <c r="D100" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -10730,13 +10730,13 @@
         <v>1237</v>
       </c>
       <c r="B101" t="n">
-        <v>1968967.429430492</v>
+        <v>1099913.094065461</v>
       </c>
       <c r="C101" t="n">
-        <v>8152876.362980111</v>
+        <v>7734645.557110015</v>
       </c>
       <c r="D101" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -10838,13 +10838,13 @@
         <v>1271</v>
       </c>
       <c r="B102" t="n">
-        <v>1836454.961328523</v>
+        <v>978535.8351695081</v>
       </c>
       <c r="C102" t="n">
-        <v>8148302.915487453</v>
+        <v>7781370.16122144</v>
       </c>
       <c r="D102" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -10946,13 +10946,13 @@
         <v>1318</v>
       </c>
       <c r="B103" t="n">
-        <v>2425433.555622754</v>
+        <v>1263490.579900381</v>
       </c>
       <c r="C103" t="n">
-        <v>7497561.689142774</v>
+        <v>6976509.562373237</v>
       </c>
       <c r="D103" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -11046,13 +11046,13 @@
         <v>1351</v>
       </c>
       <c r="B104" t="n">
-        <v>2029574.438450744</v>
+        <v>1007978.330005782</v>
       </c>
       <c r="C104" t="n">
-        <v>7766373.863098766</v>
+        <v>7363726.480688116</v>
       </c>
       <c r="D104" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -11150,13 +11150,13 @@
         <v>1409</v>
       </c>
       <c r="B105" t="n">
-        <v>2417849.880412978</v>
+        <v>1315857.061541582</v>
       </c>
       <c r="C105" t="n">
-        <v>7658284.187026565</v>
+        <v>7122471.091267567</v>
       </c>
       <c r="D105" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -11250,13 +11250,13 @@
         <v>1410</v>
       </c>
       <c r="B106" t="n">
-        <v>2191791.944821927</v>
+        <v>1291154.321539701</v>
       </c>
       <c r="C106" t="n">
-        <v>8129023.67363564</v>
+        <v>7627859.173652189</v>
       </c>
       <c r="D106" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -11354,13 +11354,13 @@
         <v>1430</v>
       </c>
       <c r="B107" t="n">
-        <v>2389148.663752811</v>
+        <v>1281810.611341784</v>
       </c>
       <c r="C107" t="n">
-        <v>7635467.34025861</v>
+        <v>7112751.44980066</v>
       </c>
       <c r="D107" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -11458,13 +11458,13 @@
         <v>1438</v>
       </c>
       <c r="B108" t="n">
-        <v>1838593.694393497</v>
+        <v>976604.5062420471</v>
       </c>
       <c r="C108" t="n">
-        <v>8138236.995653456</v>
+        <v>7771458.936291059</v>
       </c>
       <c r="D108" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -11566,13 +11566,13 @@
         <v>1441</v>
       </c>
       <c r="B109" t="n">
-        <v>2099964.697798196</v>
+        <v>1263215.711949453</v>
       </c>
       <c r="C109" t="n">
-        <v>8270598.352411894</v>
+        <v>7789998.303437549</v>
       </c>
       <c r="D109" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -11670,13 +11670,13 @@
         <v>1442</v>
       </c>
       <c r="B110" t="n">
-        <v>2432045.142381532</v>
+        <v>1278551.107544656</v>
       </c>
       <c r="C110" t="n">
-        <v>7522612.240904008</v>
+        <v>6996409.882631944</v>
       </c>
       <c r="D110" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -11770,13 +11770,13 @@
         <v>1448</v>
       </c>
       <c r="B111" t="n">
-        <v>2389942.694299512</v>
+        <v>1407142.644124627</v>
       </c>
       <c r="C111" t="n">
-        <v>7968224.977542952</v>
+        <v>7408882.482123856</v>
       </c>
       <c r="D111" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -11866,13 +11866,13 @@
         <v>1460</v>
       </c>
       <c r="B112" t="n">
-        <v>1802000.765893515</v>
+        <v>950663.1976005753</v>
       </c>
       <c r="C112" t="n">
-        <v>8156849.51515921</v>
+        <v>7802322.724555846</v>
       </c>
       <c r="D112" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -11970,13 +11970,13 @@
         <v>1474</v>
       </c>
       <c r="B113" t="n">
-        <v>2178162.023914075</v>
+        <v>1290015.169724274</v>
       </c>
       <c r="C113" t="n">
-        <v>8157919.099319166</v>
+        <v>7658944.709160653</v>
       </c>
       <c r="D113" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -12070,13 +12070,13 @@
         <v>1486</v>
       </c>
       <c r="B114" t="n">
-        <v>2035090.521115461</v>
+        <v>1197813.276422491</v>
       </c>
       <c r="C114" t="n">
-        <v>8252409.179294589</v>
+        <v>7798711.484120715</v>
       </c>
       <c r="D114" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -12174,13 +12174,13 @@
         <v>1488</v>
       </c>
       <c r="B115" t="n">
-        <v>2150670.500025036</v>
+        <v>1259379.210916098</v>
       </c>
       <c r="C115" t="n">
-        <v>8142407.143468034</v>
+        <v>7655590.34042567</v>
       </c>
       <c r="D115" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -12282,13 +12282,13 @@
         <v>1495</v>
       </c>
       <c r="B116" t="n">
-        <v>1625519.561185392</v>
+        <v>711459.913195891</v>
       </c>
       <c r="C116" t="n">
-        <v>7949790.579276565</v>
+        <v>7682159.728179698</v>
       </c>
       <c r="D116" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -12390,13 +12390,13 @@
         <v>1496</v>
       </c>
       <c r="B117" t="n">
-        <v>1586973.490596975</v>
+        <v>694697.6209007114</v>
       </c>
       <c r="C117" t="n">
-        <v>7997745.297865357</v>
+        <v>7740446.675683501</v>
       </c>
       <c r="D117" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -12494,13 +12494,13 @@
         <v>1540</v>
       </c>
       <c r="B118" t="n">
-        <v>2209143.946811788</v>
+        <v>1293489.083865763</v>
       </c>
       <c r="C118" t="n">
-        <v>8094484.987008126</v>
+        <v>7590320.312216024</v>
       </c>
       <c r="D118" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -12598,13 +12598,13 @@
         <v>1541</v>
       </c>
       <c r="B119" t="n">
-        <v>2297340.092329778</v>
+        <v>1340775.630501401</v>
       </c>
       <c r="C119" t="n">
-        <v>8011357.025648038</v>
+        <v>7482446.910422856</v>
       </c>
       <c r="D119" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -12702,13 +12702,13 @@
         <v>1545</v>
       </c>
       <c r="B120" t="n">
-        <v>1927736.433688294</v>
+        <v>750846.9923962961</v>
       </c>
       <c r="C120" t="n">
-        <v>7318586.329227056</v>
+        <v>6996813.444971907</v>
       </c>
       <c r="D120" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -12802,13 +12802,13 @@
         <v>1551</v>
       </c>
       <c r="B121" t="n">
-        <v>2212397.014421168</v>
+        <v>1271073.456554543</v>
       </c>
       <c r="C121" t="n">
-        <v>8028113.534157316</v>
+        <v>7529700.285792477</v>
       </c>
       <c r="D121" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -12910,13 +12910,13 @@
         <v>1569</v>
       </c>
       <c r="B122" t="n">
-        <v>2165375.938982362</v>
+        <v>1214495.375454555</v>
       </c>
       <c r="C122" t="n">
-        <v>7990254.793340904</v>
+        <v>7513660.484088336</v>
       </c>
       <c r="D122" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -13018,13 +13018,13 @@
         <v>1593</v>
       </c>
       <c r="B123" t="n">
-        <v>2155302.236262343</v>
+        <v>1264856.0782337</v>
       </c>
       <c r="C123" t="n">
-        <v>8145840.932295028</v>
+        <v>7656891.826771535</v>
       </c>
       <c r="D123" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -13126,13 +13126,13 @@
         <v>1607</v>
       </c>
       <c r="B124" t="n">
-        <v>2093830.030148677</v>
+        <v>1255603.583468147</v>
       </c>
       <c r="C124" t="n">
-        <v>8265181.557213097</v>
+        <v>7787508.802159904</v>
       </c>
       <c r="D124" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -13226,13 +13226,13 @@
         <v>1627</v>
       </c>
       <c r="B125" t="n">
-        <v>1972716.626224674</v>
+        <v>843107.7577382643</v>
       </c>
       <c r="C125" t="n">
-        <v>7459847.963203099</v>
+        <v>7108256.023841661</v>
       </c>
       <c r="D125" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -13326,13 +13326,13 @@
         <v>1640</v>
       </c>
       <c r="B126" t="n">
-        <v>2051046.525684899</v>
+        <v>927381.8428808105</v>
       </c>
       <c r="C126" t="n">
-        <v>7496750.216041773</v>
+        <v>7112838.832754357</v>
       </c>
       <c r="D126" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -13422,13 +13422,13 @@
         <v>1645</v>
       </c>
       <c r="B127" t="n">
-        <v>2173478.187959904</v>
+        <v>1286191.449374038</v>
       </c>
       <c r="C127" t="n">
-        <v>8158908.402913916</v>
+        <v>7661626.626349166</v>
       </c>
       <c r="D127" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -13526,13 +13526,13 @@
         <v>1659</v>
       </c>
       <c r="B128" t="n">
-        <v>2180679.301782147</v>
+        <v>1291159.492129554</v>
       </c>
       <c r="C128" t="n">
-        <v>8155017.276515977</v>
+        <v>7655381.824496387</v>
       </c>
       <c r="D128" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -13622,13 +13622,13 @@
         <v>1677</v>
       </c>
       <c r="B129" t="n">
-        <v>1905327.867537046</v>
+        <v>937516.3871031932</v>
       </c>
       <c r="C129" t="n">
-        <v>7877166.997710537</v>
+        <v>7510320.573719691</v>
       </c>
       <c r="D129" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -13730,13 +13730,13 @@
         <v>1698</v>
       </c>
       <c r="B130" t="n">
-        <v>2403908.46191421</v>
+        <v>1317596.279432883</v>
       </c>
       <c r="C130" t="n">
-        <v>7696501.426428696</v>
+        <v>7161676.434093359</v>
       </c>
       <c r="D130" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -13838,13 +13838,13 @@
         <v>1703</v>
       </c>
       <c r="B131" t="n">
-        <v>2075426.933997836</v>
+        <v>973646.565159217</v>
       </c>
       <c r="C131" t="n">
-        <v>7562765.071984578</v>
+        <v>7163351.951049128</v>
       </c>
       <c r="D131" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -13938,13 +13938,13 @@
         <v>1777</v>
       </c>
       <c r="B132" t="n">
-        <v>2090011.065376122</v>
+        <v>1251850.847396482</v>
       </c>
       <c r="C132" t="n">
-        <v>8264358.650798758</v>
+        <v>7788244.904215088</v>
       </c>
       <c r="D132" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -14042,13 +14042,13 @@
         <v>1779</v>
       </c>
       <c r="B133" t="n">
-        <v>1988616.395906695</v>
+        <v>856706.370733253</v>
       </c>
       <c r="C133" t="n">
-        <v>7457734.053307646</v>
+        <v>7100518.707566812</v>
       </c>
       <c r="D133" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -14142,13 +14142,13 @@
         <v>1782</v>
       </c>
       <c r="B134" t="n">
-        <v>2051167.874160682</v>
+        <v>926642.42932437</v>
       </c>
       <c r="C134" t="n">
-        <v>7494437.5715969</v>
+        <v>7110709.259476858</v>
       </c>
       <c r="D134" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -14238,13 +14238,13 @@
         <v>1805</v>
       </c>
       <c r="B135" t="n">
-        <v>1679776.900984378</v>
+        <v>753876.7349086334</v>
       </c>
       <c r="C135" t="n">
-        <v>7931711.425992207</v>
+        <v>7645107.183915169</v>
       </c>
       <c r="D135" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -14346,13 +14346,13 @@
         <v>1815</v>
       </c>
       <c r="B136" t="n">
-        <v>2442229.215944408</v>
+        <v>1288118.109346545</v>
       </c>
       <c r="C136" t="n">
-        <v>7523946.331426285</v>
+        <v>6993870.294928522</v>
       </c>
       <c r="D136" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -14446,13 +14446,13 @@
         <v>1822</v>
       </c>
       <c r="B137" t="n">
-        <v>1804797.414099855</v>
+        <v>939875.8258675184</v>
       </c>
       <c r="C137" t="n">
-        <v>8122164.085230564</v>
+        <v>7769899.005393733</v>
       </c>
       <c r="D137" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -14550,13 +14550,13 @@
         <v>1829</v>
       </c>
       <c r="B138" t="n">
-        <v>1832145.566621959</v>
+        <v>854606.734983815</v>
       </c>
       <c r="C138" t="n">
-        <v>7832825.07507839</v>
+        <v>7497837.633150277</v>
       </c>
       <c r="D138" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -14654,13 +14654,13 @@
         <v>1845</v>
       </c>
       <c r="B139" t="n">
-        <v>1917691.112906063</v>
+        <v>764818.3069981275</v>
       </c>
       <c r="C139" t="n">
-        <v>7381976.797581196</v>
+        <v>7057910.004358158</v>
       </c>
       <c r="D139" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -14750,13 +14750,13 @@
         <v>1857</v>
       </c>
       <c r="B140" t="n">
-        <v>2238825.000696849</v>
+        <v>1159730.100759031</v>
       </c>
       <c r="C140" t="n">
-        <v>7668896.357195461</v>
+        <v>7198251.802415779</v>
       </c>
       <c r="D140" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -14858,13 +14858,13 @@
         <v>1867</v>
       </c>
       <c r="B141" t="n">
-        <v>1886972.657078314</v>
+        <v>924213.9339616366</v>
       </c>
       <c r="C141" t="n">
-        <v>7885863.520909546</v>
+        <v>7525104.853106213</v>
       </c>
       <c r="D141" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -14962,13 +14962,13 @@
         <v>1873</v>
       </c>
       <c r="B142" t="n">
-        <v>1944189.182699304</v>
+        <v>807465.4396816383</v>
       </c>
       <c r="C142" t="n">
-        <v>7433001.427902211</v>
+        <v>7094425.57477705</v>
       </c>
       <c r="D142" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -15062,13 +15062,13 @@
         <v>1881</v>
       </c>
       <c r="B143" t="n">
-        <v>2026976.622871039</v>
+        <v>1189794.575474169</v>
       </c>
       <c r="C143" t="n">
-        <v>8250562.884212669</v>
+        <v>7800182.681011333</v>
       </c>
       <c r="D143" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -15170,13 +15170,13 @@
         <v>1882</v>
       </c>
       <c r="B144" t="n">
-        <v>1815423.454499171</v>
+        <v>967232.2577123863</v>
       </c>
       <c r="C144" t="n">
-        <v>8168370.112295827</v>
+        <v>7807575.086716989</v>
       </c>
       <c r="D144" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -15274,13 +15274,13 @@
         <v>1893</v>
       </c>
       <c r="B145" t="n">
-        <v>1535349.317976736</v>
+        <v>630572.7494814795</v>
       </c>
       <c r="C145" t="n">
-        <v>7952829.624999011</v>
+        <v>7719276.830797356</v>
       </c>
       <c r="D145" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -15374,13 +15374,13 @@
         <v>1896</v>
       </c>
       <c r="B146" t="n">
-        <v>1749152.964796057</v>
+        <v>805173.1787222649</v>
       </c>
       <c r="C146" t="n">
-        <v>7900998.404415892</v>
+        <v>7590931.114441661</v>
       </c>
       <c r="D146" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -15474,13 +15474,13 @@
         <v>1900</v>
       </c>
       <c r="B147" t="n">
-        <v>2061419.438996932</v>
+        <v>959161.4360879404</v>
       </c>
       <c r="C147" t="n">
-        <v>7557713.790880651</v>
+        <v>7163965.842597931</v>
       </c>
       <c r="D147" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -15574,13 +15574,13 @@
         <v>1901</v>
       </c>
       <c r="B148" t="n">
-        <v>2061419.00041539</v>
+        <v>959162.2922145881</v>
       </c>
       <c r="C148" t="n">
-        <v>7557717.18538243</v>
+        <v>7163969.062343721</v>
       </c>
       <c r="D148" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -15674,13 +15674,13 @@
         <v>1907</v>
       </c>
       <c r="B149" t="n">
-        <v>2233651.713780875</v>
+        <v>1353892.105190421</v>
       </c>
       <c r="C149" t="n">
-        <v>8194573.930197372</v>
+        <v>7670426.838594964</v>
       </c>
       <c r="D149" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -15774,13 +15774,13 @@
         <v>1915</v>
       </c>
       <c r="B150" t="n">
-        <v>1904551.546183919</v>
+        <v>969156.9771305906</v>
       </c>
       <c r="C150" t="n">
-        <v>7962601.087665223</v>
+        <v>7587732.721193841</v>
       </c>
       <c r="D150" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -15882,13 +15882,13 @@
         <v>1924</v>
       </c>
       <c r="B151" t="n">
-        <v>1807903.112167418</v>
+        <v>939983.2141906936</v>
       </c>
       <c r="C151" t="n">
-        <v>8115117.774443738</v>
+        <v>7762339.442013818</v>
       </c>
       <c r="D151" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -15990,13 +15990,13 @@
         <v>1927</v>
       </c>
       <c r="B152" t="n">
-        <v>1823892.990301293</v>
+        <v>960317.8494905173</v>
       </c>
       <c r="C152" t="n">
-        <v>8130430.511640266</v>
+        <v>7770046.539915258</v>
       </c>
       <c r="D152" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -16098,13 +16098,13 @@
         <v>1955</v>
       </c>
       <c r="B153" t="n">
-        <v>1587842.248842745</v>
+        <v>696473.9308007021</v>
       </c>
       <c r="C153" t="n">
-        <v>8000327.402663325</v>
+        <v>7742462.560435812</v>
       </c>
       <c r="D153" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -16202,13 +16202,13 @@
         <v>1973</v>
       </c>
       <c r="B154" t="n">
-        <v>2199698.099531626</v>
+        <v>1289476.177031039</v>
       </c>
       <c r="C154" t="n">
-        <v>8106134.541234701</v>
+        <v>7604352.168563469</v>
       </c>
       <c r="D154" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -16302,13 +16302,13 @@
         <v>1988</v>
       </c>
       <c r="B155" t="n">
-        <v>1863519.802301328</v>
+        <v>989783.8463492303</v>
       </c>
       <c r="C155" t="n">
-        <v>8113863.68509965</v>
+        <v>7739897.839355263</v>
       </c>
       <c r="D155" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -16406,13 +16406,13 @@
         <v>1994</v>
       </c>
       <c r="B156" t="n">
-        <v>1751023.910426069</v>
+        <v>805614.6543642993</v>
       </c>
       <c r="C156" t="n">
-        <v>7897685.630933564</v>
+        <v>7587219.95039202</v>
       </c>
       <c r="D156" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -16514,13 +16514,13 @@
         <v>1995</v>
       </c>
       <c r="B157" t="n">
-        <v>2211479.082795555</v>
+        <v>1296150.38852792</v>
       </c>
       <c r="C157" t="n">
-        <v>8095967.951233638</v>
+        <v>7590755.079737671</v>
       </c>
       <c r="D157" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -16618,13 +16618,13 @@
         <v>1998</v>
       </c>
       <c r="B158" t="n">
-        <v>1888850.684805707</v>
+        <v>786262.1590514146</v>
       </c>
       <c r="C158" t="n">
-        <v>7511704.136302148</v>
+        <v>7186001.07086686</v>
       </c>
       <c r="D158" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -16718,13 +16718,13 @@
         <v>2003</v>
       </c>
       <c r="B159" t="n">
-        <v>1823976.178367255</v>
+        <v>705153.3651574381</v>
       </c>
       <c r="C159" t="n">
-        <v>7451192.899369276</v>
+        <v>7155001.793080285</v>
       </c>
       <c r="D159" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -16814,13 +16814,13 @@
         <v>2029</v>
       </c>
       <c r="B160" t="n">
-        <v>1810058.520934528</v>
+        <v>960081.6829096316</v>
       </c>
       <c r="C160" t="n">
-        <v>8162391.463731977</v>
+        <v>7804235.040183336</v>
       </c>
       <c r="D160" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -16922,13 +16922,13 @@
         <v>2035</v>
       </c>
       <c r="B161" t="n">
-        <v>1809008.227546106</v>
+        <v>941258.1280865852</v>
       </c>
       <c r="C161" t="n">
-        <v>8115835.671865964</v>
+        <v>7762564.768914432</v>
       </c>
       <c r="D161" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -17026,13 +17026,13 @@
         <v>2047</v>
       </c>
       <c r="B162" t="n">
-        <v>1872752.661757</v>
+        <v>994380.3418932953</v>
       </c>
       <c r="C162" t="n">
-        <v>8104087.690744773</v>
+        <v>7727539.001440947</v>
       </c>
       <c r="D162" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -17134,13 +17134,13 @@
         <v>2071</v>
       </c>
       <c r="B163" t="n">
-        <v>1802446.73957723</v>
+        <v>934532.6716758551</v>
       </c>
       <c r="C163" t="n">
-        <v>8113775.999252155</v>
+        <v>7763217.728749148</v>
       </c>
       <c r="D163" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -17242,13 +17242,13 @@
         <v>2074</v>
       </c>
       <c r="B164" t="n">
-        <v>2201981.107488296</v>
+        <v>1329422.452456971</v>
       </c>
       <c r="C164" t="n">
-        <v>8204778.636260362</v>
+        <v>7691729.138907047</v>
       </c>
       <c r="D164" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -17346,13 +17346,13 @@
         <v>2093</v>
       </c>
       <c r="B165" t="n">
-        <v>2199359.70264273</v>
+        <v>1287325.620925704</v>
       </c>
       <c r="C165" t="n">
-        <v>8101309.485803152</v>
+        <v>7600163.915490242</v>
       </c>
       <c r="D165" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -17446,13 +17446,13 @@
         <v>2112</v>
       </c>
       <c r="B166" t="n">
-        <v>1672871.029348063</v>
+        <v>746989.7734844527</v>
       </c>
       <c r="C166" t="n">
-        <v>7930090.184632362</v>
+        <v>7646259.090969583</v>
       </c>
       <c r="D166" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -17550,13 +17550,13 @@
         <v>2136</v>
       </c>
       <c r="B167" t="n">
-        <v>2448941.257573538</v>
+        <v>1300298.023733964</v>
       </c>
       <c r="C167" t="n">
-        <v>7540859.136426329</v>
+        <v>7006469.595316742</v>
       </c>
       <c r="D167" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -17650,13 +17650,13 @@
         <v>2140</v>
       </c>
       <c r="B168" t="n">
-        <v>2420078.066806202</v>
+        <v>1255153.163068274</v>
       </c>
       <c r="C168" t="n">
-        <v>7487815.640363977</v>
+        <v>6969779.818348994</v>
       </c>
       <c r="D168" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -17750,13 +17750,13 @@
         <v>2141</v>
       </c>
       <c r="B169" t="n">
-        <v>2381747.803346027</v>
+        <v>1431900.883137417</v>
       </c>
       <c r="C169" t="n">
-        <v>8052498.396294452</v>
+        <v>7487019.648891437</v>
       </c>
       <c r="D169" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -17850,13 +17850,13 @@
         <v>2177</v>
       </c>
       <c r="B170" t="n">
-        <v>1859677.635949678</v>
+        <v>986182.6301207168</v>
       </c>
       <c r="C170" t="n">
-        <v>8113525.668978531</v>
+        <v>7741064.369151028</v>
       </c>
       <c r="D170" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -17954,13 +17954,13 @@
         <v>2180</v>
       </c>
       <c r="B171" t="n">
-        <v>1842952.223340991</v>
+        <v>981692.1869721236</v>
       </c>
       <c r="C171" t="n">
-        <v>8141227.716753881</v>
+        <v>7772487.440195537</v>
       </c>
       <c r="D171" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -18062,13 +18062,13 @@
         <v>2204</v>
       </c>
       <c r="B172" t="n">
-        <v>2430103.282893986</v>
+        <v>1282878.271840583</v>
       </c>
       <c r="C172" t="n">
-        <v>7539144.055637033</v>
+        <v>7011846.862619011</v>
       </c>
       <c r="D172" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -18162,13 +18162,13 @@
         <v>2208</v>
       </c>
       <c r="B173" t="n">
-        <v>2059442.353511861</v>
+        <v>1056901.034259978</v>
       </c>
       <c r="C173" t="n">
-        <v>7825101.978849852</v>
+        <v>7405382.530895287</v>
       </c>
       <c r="D173" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -18266,13 +18266,13 @@
         <v>2270</v>
       </c>
       <c r="B174" t="n">
-        <v>1873312.982401557</v>
+        <v>995026.0885854417</v>
       </c>
       <c r="C174" t="n">
-        <v>8104452.12352767</v>
+        <v>7727653.41763708</v>
       </c>
       <c r="D174" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -18374,13 +18374,13 @@
         <v>2278</v>
       </c>
       <c r="B175" t="n">
-        <v>2444648.529263417</v>
+        <v>1299748.767965176</v>
       </c>
       <c r="C175" t="n">
-        <v>7549788.763889733</v>
+        <v>7015992.909775327</v>
       </c>
       <c r="D175" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -18478,13 +18478,13 @@
         <v>2292</v>
       </c>
       <c r="B176" t="n">
-        <v>1863521.414005354</v>
+        <v>989783.0354109097</v>
       </c>
       <c r="C176" t="n">
-        <v>8113857.768788924</v>
+        <v>7739891.881644828</v>
       </c>
       <c r="D176" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -18582,13 +18582,13 @@
         <v>2302</v>
       </c>
       <c r="B177" t="n">
-        <v>1858489.398553508</v>
+        <v>982137.4456807245</v>
       </c>
       <c r="C177" t="n">
-        <v>8105769.797800403</v>
+        <v>7734517.618889306</v>
       </c>
       <c r="D177" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -18686,13 +18686,13 @@
         <v>2313</v>
       </c>
       <c r="B178" t="n">
-        <v>2037593.547065566</v>
+        <v>870908.7192145777</v>
       </c>
       <c r="C178" t="n">
-        <v>7375452.088330378</v>
+        <v>7008321.638323177</v>
       </c>
       <c r="D178" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -18786,13 +18786,13 @@
         <v>2335</v>
       </c>
       <c r="B179" t="n">
-        <v>2241754.40713326</v>
+        <v>1358987.445044669</v>
       </c>
       <c r="C179" t="n">
-        <v>8188946.896484506</v>
+        <v>7662284.022116767</v>
       </c>
       <c r="D179" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -18890,13 +18890,13 @@
         <v>2339</v>
       </c>
       <c r="B180" t="n">
-        <v>1860800.032237354</v>
+        <v>988385.0827293897</v>
       </c>
       <c r="C180" t="n">
-        <v>8116626.2017831</v>
+        <v>7743433.340111808</v>
       </c>
       <c r="D180" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -18994,13 +18994,13 @@
         <v>2350</v>
       </c>
       <c r="B181" t="n">
-        <v>2181943.417015876</v>
+        <v>1291730.799322537</v>
       </c>
       <c r="C181" t="n">
-        <v>8153551.2797922</v>
+        <v>7653584.905254651</v>
       </c>
       <c r="D181" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -19094,13 +19094,13 @@
         <v>2387</v>
       </c>
       <c r="B182" t="n">
-        <v>2139115.732192019</v>
+        <v>1209078.528045419</v>
       </c>
       <c r="C182" t="n">
-        <v>8037997.556962996</v>
+        <v>7566429.426695289</v>
       </c>
       <c r="D182" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -19198,13 +19198,13 @@
         <v>2391</v>
       </c>
       <c r="B183" t="n">
-        <v>1896923.449246954</v>
+        <v>957782.5102545165</v>
       </c>
       <c r="C183" t="n">
-        <v>7950783.383286639</v>
+        <v>7579959.953656659</v>
       </c>
       <c r="D183" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -19298,13 +19298,13 @@
         <v>2394</v>
       </c>
       <c r="B184" t="n">
-        <v>1976193.189527732</v>
+        <v>803647.6617594857</v>
       </c>
       <c r="C184" t="n">
-        <v>7343125.75545033</v>
+        <v>7001431.841920082</v>
       </c>
       <c r="D184" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -19398,13 +19398,13 @@
         <v>2413</v>
       </c>
       <c r="B185" t="n">
-        <v>1778594.226528075</v>
+        <v>881228.147575083</v>
       </c>
       <c r="C185" t="n">
-        <v>8030859.149363408</v>
+        <v>7697344.098197219</v>
       </c>
       <c r="D185" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -19506,13 +19506,13 @@
         <v>2430</v>
       </c>
       <c r="B186" t="n">
-        <v>1840787.330019633</v>
+        <v>981828.6242820675</v>
       </c>
       <c r="C186" t="n">
-        <v>8146679.700769037</v>
+        <v>7778241.356020996</v>
       </c>
       <c r="D186" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -19610,13 +19610,13 @@
         <v>2446</v>
       </c>
       <c r="B187" t="n">
-        <v>1615278.563923688</v>
+        <v>709019.2764111313</v>
       </c>
       <c r="C187" t="n">
-        <v>7967824.246950907</v>
+        <v>7702449.035020803</v>
       </c>
       <c r="D187" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -19718,13 +19718,13 @@
         <v>2455</v>
       </c>
       <c r="B188" t="n">
-        <v>2233651.013304777</v>
+        <v>1353892.152101476</v>
       </c>
       <c r="C188" t="n">
-        <v>8194575.68154992</v>
+        <v>7670428.673132488</v>
       </c>
       <c r="D188" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -19822,13 +19822,13 @@
         <v>2472</v>
       </c>
       <c r="B189" t="n">
-        <v>1839678.935224154</v>
+        <v>976975.0776960705</v>
       </c>
       <c r="C189" t="n">
-        <v>8136646.522539566</v>
+        <v>7769606.278906141</v>
       </c>
       <c r="D189" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -19926,13 +19926,13 @@
         <v>2473</v>
       </c>
       <c r="B190" t="n">
-        <v>1969368.869532826</v>
+        <v>1102227.519671826</v>
       </c>
       <c r="C190" t="n">
-        <v>8157961.12803988</v>
+        <v>7739068.459021348</v>
       </c>
       <c r="D190" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -20026,13 +20026,13 @@
         <v>2485</v>
       </c>
       <c r="B191" t="n">
-        <v>2389968.448459384</v>
+        <v>1283218.174881197</v>
       </c>
       <c r="C191" t="n">
-        <v>7637295.643143505</v>
+        <v>7114078.465424569</v>
       </c>
       <c r="D191" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -20130,13 +20130,13 @@
         <v>2486</v>
       </c>
       <c r="B192" t="n">
-        <v>1681290.910236084</v>
+        <v>753096.5791323695</v>
       </c>
       <c r="C192" t="n">
-        <v>7926038.83342819</v>
+        <v>7639383.117737186</v>
       </c>
       <c r="D192" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -20238,13 +20238,13 @@
         <v>2512</v>
       </c>
       <c r="B193" t="n">
-        <v>1811661.192187897</v>
+        <v>942590.7079712577</v>
       </c>
       <c r="C193" t="n">
-        <v>8113052.006832606</v>
+        <v>7759032.151999168</v>
       </c>
       <c r="D193" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -20342,13 +20342,13 @@
         <v>2533</v>
       </c>
       <c r="B194" t="n">
-        <v>1842428.00016334</v>
+        <v>982835.7455509398</v>
       </c>
       <c r="C194" t="n">
-        <v>8145440.494754691</v>
+        <v>7776492.665937817</v>
       </c>
       <c r="D194" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -20446,13 +20446,13 @@
         <v>2535</v>
       </c>
       <c r="B195" t="n">
-        <v>1669116.145165793</v>
+        <v>705606.9292885725</v>
       </c>
       <c r="C195" t="n">
-        <v>7829861.159296779</v>
+        <v>7556649.646430125</v>
       </c>
       <c r="D195" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -20550,13 +20550,13 @@
         <v>2546</v>
       </c>
       <c r="B196" t="n">
-        <v>1664476.74247024</v>
+        <v>744179.3218058764</v>
       </c>
       <c r="C196" t="n">
-        <v>7942752.761201018</v>
+        <v>7660945.987030333</v>
       </c>
       <c r="D196" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -20654,13 +20654,13 @@
         <v>2567</v>
       </c>
       <c r="B197" t="n">
-        <v>1850262.240512596</v>
+        <v>726096.067258717</v>
       </c>
       <c r="C197" t="n">
-        <v>7443246.532268279</v>
+        <v>7138136.478293262</v>
       </c>
       <c r="D197" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -20750,13 +20750,13 @@
         <v>2584</v>
       </c>
       <c r="B198" t="n">
-        <v>2028998.146385868</v>
+        <v>949858.3086686517</v>
       </c>
       <c r="C198" t="n">
-        <v>7611650.300120723</v>
+        <v>7224547.053889313</v>
       </c>
       <c r="D198" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -20850,13 +20850,13 @@
         <v>2592</v>
       </c>
       <c r="B199" t="n">
-        <v>2230609.73250071</v>
+        <v>1327200.375281696</v>
       </c>
       <c r="C199" t="n">
-        <v>8132245.759807281</v>
+        <v>7615881.254893317</v>
       </c>
       <c r="D199" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -20958,13 +20958,13 @@
         <v>2618</v>
       </c>
       <c r="B200" t="n">
-        <v>1584718.879630001</v>
+        <v>680060.4662733198</v>
       </c>
       <c r="C200" t="n">
-        <v>7964760.526266019</v>
+        <v>7711311.648330972</v>
       </c>
       <c r="D200" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -21062,13 +21062,13 @@
         <v>2619</v>
       </c>
       <c r="B201" t="n">
-        <v>1556320.690824303</v>
+        <v>644779.3154245637</v>
       </c>
       <c r="C201" t="n">
-        <v>7939997.93689522</v>
+        <v>7699601.830151052</v>
       </c>
       <c r="D201" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -21166,13 +21166,13 @@
         <v>2655</v>
       </c>
       <c r="B202" t="n">
-        <v>2434814.014325153</v>
+        <v>1281311.252842816</v>
       </c>
       <c r="C202" t="n">
-        <v>7523408.429266261</v>
+        <v>6996105.547589625</v>
       </c>
       <c r="D202" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -21266,13 +21266,13 @@
         <v>2665</v>
       </c>
       <c r="B203" t="n">
-        <v>2162261.428501227</v>
+        <v>1245683.066034322</v>
       </c>
       <c r="C203" t="n">
-        <v>8079464.140603804</v>
+        <v>7594770.29702403</v>
       </c>
       <c r="D203" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -21366,13 +21366,13 @@
         <v>2675</v>
       </c>
       <c r="B204" t="n">
-        <v>2054577.990555084</v>
+        <v>940464.1154558179</v>
       </c>
       <c r="C204" t="n">
-        <v>7523686.854949326</v>
+        <v>7135823.108819139</v>
       </c>
       <c r="D204" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -21470,13 +21470,13 @@
         <v>2689</v>
       </c>
       <c r="B205" t="n">
-        <v>1868469.431305833</v>
+        <v>745161.0244509948</v>
       </c>
       <c r="C205" t="n">
-        <v>7450186.9850713</v>
+        <v>7137748.464508668</v>
       </c>
       <c r="D205" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -21566,13 +21566,13 @@
         <v>2696</v>
       </c>
       <c r="B206" t="n">
-        <v>2175474.502032843</v>
+        <v>1270386.863915385</v>
       </c>
       <c r="C206" t="n">
-        <v>8113038.901929713</v>
+        <v>7619792.84975382</v>
       </c>
       <c r="D206" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -21666,13 +21666,13 @@
         <v>2702</v>
       </c>
       <c r="B207" t="n">
-        <v>2114140.832322827</v>
+        <v>1209803.713335724</v>
       </c>
       <c r="C207" t="n">
-        <v>8098663.979763069</v>
+        <v>7630354.38671801</v>
       </c>
       <c r="D207" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -21766,13 +21766,13 @@
         <v>2712</v>
       </c>
       <c r="B208" t="n">
-        <v>1803056.838686908</v>
+        <v>951027.4146440395</v>
       </c>
       <c r="C208" t="n">
-        <v>8155311.475599128</v>
+        <v>7800526.961978114</v>
       </c>
       <c r="D208" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -21870,13 +21870,13 @@
         <v>2719</v>
       </c>
       <c r="B209" t="n">
-        <v>2430263.788439234</v>
+        <v>1268175.193077699</v>
       </c>
       <c r="C209" t="n">
-        <v>7498593.708165948</v>
+        <v>6975664.488843685</v>
       </c>
       <c r="D209" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -21970,13 +21970,13 @@
         <v>2731</v>
       </c>
       <c r="B210" t="n">
-        <v>1738891.628119348</v>
+        <v>631170.8854002282</v>
       </c>
       <c r="C210" t="n">
-        <v>7460339.553760263</v>
+        <v>7194619.707176876</v>
       </c>
       <c r="D210" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -22074,13 +22074,13 @@
         <v>2753</v>
       </c>
       <c r="B211" t="n">
-        <v>2197972.984505502</v>
+        <v>1287270.4217841</v>
       </c>
       <c r="C211" t="n">
-        <v>8104414.774252676</v>
+        <v>7603472.572022188</v>
       </c>
       <c r="D211" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -22174,13 +22174,13 @@
         <v>2754</v>
       </c>
       <c r="B212" t="n">
-        <v>1618222.410268374</v>
+        <v>715546.5848713694</v>
       </c>
       <c r="C212" t="n">
-        <v>7977927.011341979</v>
+        <v>7710508.006336154</v>
       </c>
       <c r="D212" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -22278,13 +22278,13 @@
         <v>2795</v>
       </c>
       <c r="B213" t="n">
-        <v>2221591.385074746</v>
+        <v>1199824.791299401</v>
       </c>
       <c r="C213" t="n">
-        <v>7817790.388284771</v>
+        <v>7337993.310199557</v>
       </c>
       <c r="D213" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -22382,13 +22382,13 @@
         <v>2807</v>
       </c>
       <c r="B214" t="n">
-        <v>1747464.47235856</v>
+        <v>695539.0832983456</v>
       </c>
       <c r="C214" t="n">
-        <v>7613128.391170558</v>
+        <v>7330361.278168046</v>
       </c>
       <c r="D214" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -22482,13 +22482,13 @@
         <v>2866</v>
       </c>
       <c r="B215" t="n">
-        <v>1776446.015102504</v>
+        <v>879626.3220678106</v>
       </c>
       <c r="C215" t="n">
-        <v>8031758.887589985</v>
+        <v>7698977.986733856</v>
       </c>
       <c r="D215" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -22586,13 +22586,13 @@
         <v>2871</v>
       </c>
       <c r="B216" t="n">
-        <v>2186791.430183372</v>
+        <v>1286280.686933513</v>
       </c>
       <c r="C216" t="n">
-        <v>8128013.853823171</v>
+        <v>7628869.384760081</v>
       </c>
       <c r="D216" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -22690,13 +22690,13 @@
         <v>2892</v>
       </c>
       <c r="B217" t="n">
-        <v>2245071.841490583</v>
+        <v>1350079.39727754</v>
       </c>
       <c r="C217" t="n">
-        <v>8158070.948324033</v>
+        <v>7633421.17247866</v>
       </c>
       <c r="D217" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -22794,13 +22794,13 @@
         <v>2902</v>
       </c>
       <c r="B218" t="n">
-        <v>2032204.870487523</v>
+        <v>1193302.326707007</v>
       </c>
       <c r="C218" t="n">
-        <v>8247457.114880671</v>
+        <v>7795375.785665431</v>
       </c>
       <c r="D218" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -22902,13 +22902,13 @@
         <v>2908</v>
       </c>
       <c r="B219" t="n">
-        <v>2183810.072826742</v>
+        <v>1285924.218523527</v>
       </c>
       <c r="C219" t="n">
-        <v>8134059.758716323</v>
+        <v>7635422.40205175</v>
       </c>
       <c r="D219" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -23010,13 +23010,13 @@
         <v>2920</v>
       </c>
       <c r="B220" t="n">
-        <v>1901247.646137964</v>
+        <v>668467.5004860456</v>
       </c>
       <c r="C220" t="n">
-        <v>7156982.709741952</v>
+        <v>6859747.870110781</v>
       </c>
       <c r="D220" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -23118,13 +23118,13 @@
         <v>2947</v>
       </c>
       <c r="B221" t="n">
-        <v>2085563.667657345</v>
+        <v>1094179.868409905</v>
       </c>
       <c r="C221" t="n">
-        <v>7861721.762851137</v>
+        <v>7428483.863466927</v>
       </c>
       <c r="D221" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -23222,13 +23222,13 @@
         <v>2966</v>
       </c>
       <c r="B222" t="n">
-        <v>1929209.213568485</v>
+        <v>1095788.064429961</v>
       </c>
       <c r="C222" t="n">
-        <v>8235306.814257673</v>
+        <v>7824158.777754895</v>
       </c>
       <c r="D222" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -23322,13 +23322,13 @@
         <v>2975</v>
       </c>
       <c r="B223" t="n">
-        <v>2217436.485306707</v>
+        <v>1339179.363398675</v>
       </c>
       <c r="C223" t="n">
-        <v>8194124.3796034</v>
+        <v>7676258.007191008</v>
       </c>
       <c r="D223" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -23426,13 +23426,13 @@
         <v>2977</v>
       </c>
       <c r="B224" t="n">
-        <v>1834548.45855925</v>
+        <v>696522.2433366963</v>
       </c>
       <c r="C224" t="n">
-        <v>7401484.413796715</v>
+        <v>7105991.190078752</v>
       </c>
       <c r="D224" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -23522,13 +23522,13 @@
         <v>2988</v>
       </c>
       <c r="B225" t="n">
-        <v>1829270.977119474</v>
+        <v>917893.3822280704</v>
       </c>
       <c r="C225" t="n">
-        <v>8006732.750388512</v>
+        <v>7656207.359608166</v>
       </c>
       <c r="D225" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -23626,13 +23626,13 @@
         <v>3005</v>
       </c>
       <c r="B226" t="n">
-        <v>1746628.027166586</v>
+        <v>695411.6103058327</v>
       </c>
       <c r="C226" t="n">
-        <v>7614828.217692543</v>
+        <v>7332216.769657646</v>
       </c>
       <c r="D226" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -23726,13 +23726,13 @@
         <v>3018</v>
       </c>
       <c r="B227" t="n">
-        <v>2048175.013833838</v>
+        <v>981091.3479000281</v>
       </c>
       <c r="C227" t="n">
-        <v>7649265.795630898</v>
+        <v>7251332.253579291</v>
       </c>
       <c r="D227" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -23826,13 +23826,13 @@
         <v>3022</v>
       </c>
       <c r="B228" t="n">
-        <v>2391711.795491747</v>
+        <v>1245110.976124048</v>
       </c>
       <c r="C228" t="n">
-        <v>7529552.233598809</v>
+        <v>7017365.507491435</v>
       </c>
       <c r="D228" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -23926,13 +23926,13 @@
         <v>3031</v>
       </c>
       <c r="B229" t="n">
-        <v>2047193.433644953</v>
+        <v>939958.1362456426</v>
       </c>
       <c r="C229" t="n">
-        <v>7540405.343154608</v>
+        <v>7153609.53225896</v>
       </c>
       <c r="D229" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -24026,13 +24026,13 @@
         <v>3046</v>
       </c>
       <c r="B230" t="n">
-        <v>2209920.737546001</v>
+        <v>1208690.112439581</v>
       </c>
       <c r="C230" t="n">
-        <v>7869223.884004817</v>
+        <v>7388424.977720258</v>
       </c>
       <c r="D230" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -24130,13 +24130,13 @@
         <v>3047</v>
       </c>
       <c r="B231" t="n">
-        <v>2618321.537039354</v>
+        <v>1504304.851634499</v>
       </c>
       <c r="C231" t="n">
-        <v>7685905.982634268</v>
+        <v>7072761.604959681</v>
       </c>
       <c r="D231" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -24226,13 +24226,13 @@
         <v>3056</v>
       </c>
       <c r="B232" t="n">
-        <v>1869126.952205723</v>
+        <v>774396.6462200845</v>
       </c>
       <c r="C232" t="n">
-        <v>7527992.010946897</v>
+        <v>7208030.437855239</v>
       </c>
       <c r="D232" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -24326,13 +24326,13 @@
         <v>3068</v>
       </c>
       <c r="B233" t="n">
-        <v>1972292.278265699</v>
+        <v>1102963.115588889</v>
       </c>
       <c r="C233" t="n">
-        <v>8153014.119978109</v>
+        <v>7733494.132142186</v>
       </c>
       <c r="D233" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -24430,13 +24430,13 @@
         <v>3102</v>
       </c>
       <c r="B234" t="n">
-        <v>1829272.94060297</v>
+        <v>917891.7899519508</v>
       </c>
       <c r="C234" t="n">
-        <v>8006723.906775486</v>
+        <v>7656198.617882285</v>
       </c>
       <c r="D234" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -24534,13 +24534,13 @@
         <v>3103</v>
       </c>
       <c r="B235" t="n">
-        <v>1847691.680978509</v>
+        <v>792144.3201732324</v>
       </c>
       <c r="C235" t="n">
-        <v>7628341.594783332</v>
+        <v>7306886.578451409</v>
       </c>
       <c r="D235" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -24630,13 +24630,13 @@
         <v>3107</v>
       </c>
       <c r="B236" t="n">
-        <v>1874574.644198098</v>
+        <v>701460.411918486</v>
       </c>
       <c r="C236" t="n">
-        <v>7315389.451861602</v>
+        <v>7013226.907939135</v>
       </c>
       <c r="D236" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -24734,13 +24734,13 @@
         <v>3127</v>
       </c>
       <c r="B237" t="n">
-        <v>2018092.687801035</v>
+        <v>853514.89382653</v>
       </c>
       <c r="C237" t="n">
-        <v>7376061.529429634</v>
+        <v>7015968.59414346</v>
       </c>
       <c r="D237" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -24834,13 +24834,13 @@
         <v>3132</v>
       </c>
       <c r="B238" t="n">
-        <v>2196729.977479015</v>
+        <v>1300155.093501842</v>
       </c>
       <c r="C238" t="n">
-        <v>8140938.429690513</v>
+        <v>7636630.423972027</v>
       </c>
       <c r="D238" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -24938,13 +24938,13 @@
         <v>3146</v>
       </c>
       <c r="B239" t="n">
-        <v>1995523.300867779</v>
+        <v>848438.8411357364</v>
       </c>
       <c r="C239" t="n">
-        <v>7418074.570468273</v>
+        <v>7062156.498153231</v>
       </c>
       <c r="D239" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -25038,13 +25038,13 @@
         <v>3161</v>
       </c>
       <c r="B240" t="n">
-        <v>1591330.25982698</v>
+        <v>641727.436038692</v>
       </c>
       <c r="C240" t="n">
-        <v>7848042.711385678</v>
+        <v>7602603.142966197</v>
       </c>
       <c r="D240" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -25138,13 +25138,13 @@
         <v>3205</v>
       </c>
       <c r="B241" t="n">
-        <v>2396242.745831731</v>
+        <v>1416048.179092123</v>
       </c>
       <c r="C241" t="n">
-        <v>7976875.612404111</v>
+        <v>7414196.782176352</v>
       </c>
       <c r="D241" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -25238,13 +25238,13 @@
         <v>3213</v>
       </c>
       <c r="B242" t="n">
-        <v>1918040.285013203</v>
+        <v>1031423.022146086</v>
       </c>
       <c r="C242" t="n">
-        <v>8094029.774382507</v>
+        <v>7701140.034389379</v>
       </c>
       <c r="D242" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -25338,13 +25338,13 @@
         <v>3214</v>
       </c>
       <c r="B243" t="n">
-        <v>1557744.654752937</v>
+        <v>645553.0700570464</v>
       </c>
       <c r="C243" t="n">
-        <v>7938625.667847796</v>
+        <v>7697810.334713333</v>
       </c>
       <c r="D243" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -25446,13 +25446,13 @@
         <v>3218</v>
       </c>
       <c r="B244" t="n">
-        <v>1840795.082817393</v>
+        <v>981824.9633127094</v>
       </c>
       <c r="C244" t="n">
-        <v>8146651.918042311</v>
+        <v>7778213.292319008</v>
       </c>
       <c r="D244" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -25546,13 +25546,13 @@
         <v>3232</v>
       </c>
       <c r="B245" t="n">
-        <v>1556050.509389007</v>
+        <v>641287.8145443674</v>
       </c>
       <c r="C245" t="n">
-        <v>7931475.562493244</v>
+        <v>7691946.682113572</v>
       </c>
       <c r="D245" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -25650,13 +25650,13 @@
         <v>3240</v>
       </c>
       <c r="B246" t="n">
-        <v>1925056.386596539</v>
+        <v>1090804.783426451</v>
       </c>
       <c r="C246" t="n">
-        <v>8232101.844208849</v>
+        <v>7822872.668099906</v>
       </c>
       <c r="D246" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -25758,13 +25758,13 @@
         <v>3247</v>
       </c>
       <c r="B247" t="n">
-        <v>1926433.254099403</v>
+        <v>749554.7422016589</v>
       </c>
       <c r="C247" t="n">
-        <v>7318280.658639509</v>
+        <v>6997009.623628081</v>
       </c>
       <c r="D247" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -25862,13 +25862,13 @@
         <v>3259</v>
       </c>
       <c r="B248" t="n">
-        <v>1804602.759261117</v>
+        <v>936147.6192644082</v>
       </c>
       <c r="C248" t="n">
-        <v>8112900.652919096</v>
+        <v>7761600.186260979</v>
       </c>
       <c r="D248" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -25966,13 +25966,13 @@
         <v>3267</v>
       </c>
       <c r="B249" t="n">
-        <v>1707607.010735581</v>
+        <v>791584.3952708081</v>
       </c>
       <c r="C249" t="n">
-        <v>7964452.51183127</v>
+        <v>7664232.058077877</v>
       </c>
       <c r="D249" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -26070,13 +26070,13 @@
         <v>3268</v>
       </c>
       <c r="B250" t="n">
-        <v>1972223.022682962</v>
+        <v>1103796.63837273</v>
       </c>
       <c r="C250" t="n">
-        <v>8155347.522796421</v>
+        <v>7735620.899316698</v>
       </c>
       <c r="D250" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -26174,13 +26174,13 @@
         <v>3289</v>
       </c>
       <c r="B251" t="n">
-        <v>1925424.594035505</v>
+        <v>1088467.360159056</v>
       </c>
       <c r="C251" t="n">
-        <v>8225181.042627179</v>
+        <v>7816496.201293737</v>
       </c>
       <c r="D251" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -26274,13 +26274,13 @@
         <v>3293</v>
       </c>
       <c r="B252" t="n">
-        <v>1548205.817024987</v>
+        <v>623938.0246091066</v>
       </c>
       <c r="C252" t="n">
-        <v>7904652.153495331</v>
+        <v>7670507.802210705</v>
       </c>
       <c r="D252" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -26374,13 +26374,13 @@
         <v>3296</v>
       </c>
       <c r="B253" t="n">
-        <v>2151013.071275414</v>
+        <v>1249977.534997655</v>
       </c>
       <c r="C253" t="n">
-        <v>8117083.959371318</v>
+        <v>7632771.040069625</v>
       </c>
       <c r="D253" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -26474,13 +26474,13 @@
         <v>3300</v>
       </c>
       <c r="B254" t="n">
-        <v>2015867.934041354</v>
+        <v>878826.0888453191</v>
       </c>
       <c r="C254" t="n">
-        <v>7450904.654438285</v>
+        <v>7084370.664899795</v>
       </c>
       <c r="D254" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -26574,13 +26574,13 @@
         <v>3301</v>
       </c>
       <c r="B255" t="n">
-        <v>1994093.658987451</v>
+        <v>886359.5320041741</v>
       </c>
       <c r="C255" t="n">
-        <v>7524992.262775909</v>
+        <v>7159254.964711838</v>
       </c>
       <c r="D255" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -26674,13 +26674,13 @@
         <v>3319</v>
       </c>
       <c r="B256" t="n">
-        <v>2104780.498323823</v>
+        <v>1264239.731179495</v>
       </c>
       <c r="C256" t="n">
-        <v>8262052.27375047</v>
+        <v>7780475.493699586</v>
       </c>
       <c r="D256" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -26778,13 +26778,13 @@
         <v>3330</v>
       </c>
       <c r="B257" t="n">
-        <v>1724979.30039863</v>
+        <v>778949.4173158791</v>
       </c>
       <c r="C257" t="n">
-        <v>7889651.593675317</v>
+        <v>7589799.336146829</v>
       </c>
       <c r="D257" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -26886,13 +26886,13 @@
         <v>3337</v>
       </c>
       <c r="B258" t="n">
-        <v>2202205.04890344</v>
+        <v>1328704.034478826</v>
       </c>
       <c r="C258" t="n">
-        <v>8202393.836223585</v>
+        <v>7689509.793573966</v>
       </c>
       <c r="D258" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -26990,13 +26990,13 @@
         <v>3339</v>
       </c>
       <c r="B259" t="n">
-        <v>2141882.223125156</v>
+        <v>1263917.688386291</v>
       </c>
       <c r="C259" t="n">
-        <v>8174766.355683025</v>
+        <v>7687953.698049333</v>
       </c>
       <c r="D259" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -27090,13 +27090,13 @@
         <v>3342</v>
       </c>
       <c r="B260" t="n">
-        <v>1678851.781698991</v>
+        <v>625634.8725377694</v>
       </c>
       <c r="C260" t="n">
-        <v>7592977.432673776</v>
+        <v>7337569.003031509</v>
       </c>
       <c r="D260" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -27198,13 +27198,13 @@
         <v>3346</v>
       </c>
       <c r="B261" t="n">
-        <v>2035563.922652958</v>
+        <v>957327.3812749988</v>
       </c>
       <c r="C261" t="n">
-        <v>7615831.333651945</v>
+        <v>7225884.552364523</v>
       </c>
       <c r="D261" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -27298,13 +27298,13 @@
         <v>3352</v>
       </c>
       <c r="B262" t="n">
-        <v>1748253.566698699</v>
+        <v>777938.9268474444</v>
       </c>
       <c r="C262" t="n">
-        <v>7831119.581639153</v>
+        <v>7527919.675720907</v>
       </c>
       <c r="D262" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -27398,13 +27398,13 @@
         <v>3379</v>
       </c>
       <c r="B263" t="n">
-        <v>2074221.241715127</v>
+        <v>1203355.166404626</v>
       </c>
       <c r="C263" t="n">
-        <v>8175427.392622278</v>
+        <v>7714523.295233181</v>
       </c>
       <c r="D263" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -27506,13 +27506,13 @@
         <v>3392</v>
       </c>
       <c r="B264" t="n">
-        <v>1908601.167029225</v>
+        <v>1036468.274160743</v>
       </c>
       <c r="C264" t="n">
-        <v>8129442.718234657</v>
+        <v>7736680.228810211</v>
       </c>
       <c r="D264" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -27610,13 +27610,13 @@
         <v>3395</v>
       </c>
       <c r="B265" t="n">
-        <v>2408654.411746812</v>
+        <v>1426859.962330731</v>
       </c>
       <c r="C265" t="n">
-        <v>7976183.92155851</v>
+        <v>7408878.906567815</v>
       </c>
       <c r="D265" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -27706,13 +27706,13 @@
         <v>3403</v>
       </c>
       <c r="B266" t="n">
-        <v>2037555.024605603</v>
+        <v>944800.5789475247</v>
       </c>
       <c r="C266" t="n">
-        <v>7577104.390253236</v>
+        <v>7190243.740476328</v>
       </c>
       <c r="D266" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -27806,13 +27806,13 @@
         <v>3412</v>
       </c>
       <c r="B267" t="n">
-        <v>1922469.990737161</v>
+        <v>1087685.948516788</v>
       </c>
       <c r="C267" t="n">
-        <v>8230066.404059096</v>
+        <v>7822035.907335639</v>
       </c>
       <c r="D267" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -27906,13 +27906,13 @@
         <v>3416</v>
       </c>
       <c r="B268" t="n">
-        <v>1860135.134244913</v>
+        <v>1008112.276767024</v>
       </c>
       <c r="C268" t="n">
-        <v>8169580.650889908</v>
+        <v>7791484.863793153</v>
       </c>
       <c r="D268" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -28010,13 +28010,13 @@
         <v>3420</v>
       </c>
       <c r="B269" t="n">
-        <v>2056148.717765377</v>
+        <v>951395.062821285</v>
       </c>
       <c r="C269" t="n">
-        <v>7549532.909487913</v>
+        <v>7158537.238432925</v>
       </c>
       <c r="D269" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -28110,13 +28110,13 @@
         <v>3423</v>
       </c>
       <c r="B270" t="n">
-        <v>2222617.90440048</v>
+        <v>1331146.298309648</v>
       </c>
       <c r="C270" t="n">
-        <v>8161177.891735645</v>
+        <v>7644810.190606979</v>
       </c>
       <c r="D270" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -28214,13 +28214,13 @@
         <v>3428</v>
       </c>
       <c r="B271" t="n">
-        <v>1854810.098187375</v>
+        <v>691194.7940718955</v>
       </c>
       <c r="C271" t="n">
-        <v>7336500.680706996</v>
+        <v>7039584.61531129</v>
       </c>
       <c r="D271" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -28322,13 +28322,13 @@
         <v>3442</v>
       </c>
       <c r="B272" t="n">
-        <v>2050069.069546538</v>
+        <v>994110.2066487197</v>
       </c>
       <c r="C272" t="n">
-        <v>7679711.238596614</v>
+        <v>7278046.413003726</v>
       </c>
       <c r="D272" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -28418,13 +28418,13 @@
         <v>3445</v>
       </c>
       <c r="B273" t="n">
-        <v>1747228.952632192</v>
+        <v>636325.3533101038</v>
       </c>
       <c r="C273" t="n">
-        <v>7453734.271316001</v>
+        <v>7185539.202978248</v>
       </c>
       <c r="D273" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -28522,13 +28522,13 @@
         <v>3448</v>
       </c>
       <c r="B274" t="n">
-        <v>2090964.479995368</v>
+        <v>929885.3897137641</v>
       </c>
       <c r="C274" t="n">
-        <v>7405176.280639994</v>
+        <v>7015701.60116192</v>
       </c>
       <c r="D274" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -28622,13 +28622,13 @@
         <v>3450</v>
       </c>
       <c r="B275" t="n">
-        <v>2238021.736339276</v>
+        <v>1363405.443341691</v>
       </c>
       <c r="C275" t="n">
-        <v>8209086.934513458</v>
+        <v>7681716.155439919</v>
       </c>
       <c r="D275" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -28726,13 +28726,13 @@
         <v>3463</v>
       </c>
       <c r="B276" t="n">
-        <v>1801288.265676834</v>
+        <v>932317.3968460555</v>
       </c>
       <c r="C276" t="n">
-        <v>8110731.304291029</v>
+        <v>7760909.239184254</v>
       </c>
       <c r="D276" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -28830,13 +28830,13 @@
         <v>3466</v>
       </c>
       <c r="B277" t="n">
-        <v>2076968.614041987</v>
+        <v>1194330.95313891</v>
       </c>
       <c r="C277" t="n">
-        <v>8145501.136773033</v>
+        <v>7686606.063067343</v>
       </c>
       <c r="D277" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -28934,13 +28934,13 @@
         <v>3470</v>
       </c>
       <c r="B278" t="n">
-        <v>1729272.252552985</v>
+        <v>783736.6983660171</v>
       </c>
       <c r="C278" t="n">
-        <v>7892008.128253391</v>
+        <v>7590310.703098295</v>
       </c>
       <c r="D278" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -29034,13 +29034,13 @@
         <v>3471</v>
       </c>
       <c r="B279" t="n">
-        <v>1574221.828188005</v>
+        <v>660447.0750001537</v>
       </c>
       <c r="C279" t="n">
-        <v>7938350.838541149</v>
+        <v>7691285.696472754</v>
       </c>
       <c r="D279" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -29142,13 +29142,13 @@
         <v>3496</v>
       </c>
       <c r="B280" t="n">
-        <v>2028564.083493936</v>
+        <v>967266.5005588008</v>
       </c>
       <c r="C280" t="n">
-        <v>7659640.992429233</v>
+        <v>7267959.869643143</v>
       </c>
       <c r="D280" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -29242,13 +29242,13 @@
         <v>3498</v>
       </c>
       <c r="B281" t="n">
-        <v>2200168.333148971</v>
+        <v>1328154.059630599</v>
       </c>
       <c r="C281" t="n">
-        <v>8205707.100248572</v>
+        <v>7693256.949634533</v>
       </c>
       <c r="D281" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -29346,13 +29346,13 @@
         <v>3501</v>
       </c>
       <c r="B282" t="n">
-        <v>1584547.990672773</v>
+        <v>661387.9095019172</v>
       </c>
       <c r="C282" t="n">
-        <v>7916124.438699013</v>
+        <v>7667133.422745484</v>
       </c>
       <c r="D282" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -29450,13 +29450,13 @@
         <v>3513</v>
       </c>
       <c r="B283" t="n">
-        <v>1871116.935712788</v>
+        <v>740517.9110555237</v>
       </c>
       <c r="C283" t="n">
-        <v>7430983.656382803</v>
+        <v>7119364.064350913</v>
       </c>
       <c r="D283" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -29546,13 +29546,13 @@
         <v>3515</v>
       </c>
       <c r="B284" t="n">
-        <v>1955061.833421457</v>
+        <v>906860.8410744863</v>
       </c>
       <c r="C284" t="n">
-        <v>7675581.519770674</v>
+        <v>7309669.625674401</v>
       </c>
       <c r="D284" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -29646,13 +29646,13 @@
         <v>3520</v>
       </c>
       <c r="B285" t="n">
-        <v>1562386.782996907</v>
+        <v>636278.6687481962</v>
       </c>
       <c r="C285" t="n">
-        <v>7903141.2673177</v>
+        <v>7663741.207198158</v>
       </c>
       <c r="D285" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -29750,13 +29750,13 @@
         <v>3528</v>
       </c>
       <c r="B286" t="n">
-        <v>1571717.102617147</v>
+        <v>656087.4728319976</v>
       </c>
       <c r="C286" t="n">
-        <v>7932887.450801981</v>
+        <v>7687267.754463362</v>
       </c>
       <c r="D286" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -29858,13 +29858,13 @@
         <v>3529</v>
       </c>
       <c r="B287" t="n">
-        <v>1893269.019996515</v>
+        <v>899415.3151114343</v>
       </c>
       <c r="C287" t="n">
-        <v>7804952.635623919</v>
+        <v>7449635.211107451</v>
       </c>
       <c r="D287" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -29958,13 +29958,13 @@
         <v>3532</v>
       </c>
       <c r="B288" t="n">
-        <v>1802944.34660894</v>
+        <v>934233.5827032961</v>
       </c>
       <c r="C288" t="n">
-        <v>8111821.483954797</v>
+        <v>7761260.172608385</v>
       </c>
       <c r="D288" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -30062,13 +30062,13 @@
         <v>3537</v>
       </c>
       <c r="B289" t="n">
-        <v>1573380.026825058</v>
+        <v>660325.0431990777</v>
       </c>
       <c r="C289" t="n">
-        <v>7940042.385605224</v>
+        <v>7693145.390364203</v>
       </c>
       <c r="D289" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -30170,13 +30170,13 @@
         <v>3547</v>
       </c>
       <c r="B290" t="n">
-        <v>2411348.377650153</v>
+        <v>1398492.112251941</v>
       </c>
       <c r="C290" t="n">
-        <v>7894876.820599451</v>
+        <v>7335513.807803744</v>
       </c>
       <c r="D290" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -30274,13 +30274,13 @@
         <v>3548</v>
       </c>
       <c r="B291" t="n">
-        <v>2237102.737913142</v>
+        <v>1272534.811309337</v>
       </c>
       <c r="C291" t="n">
-        <v>7973694.926736158</v>
+        <v>7471645.905877761</v>
       </c>
       <c r="D291" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -30378,13 +30378,13 @@
         <v>3566</v>
       </c>
       <c r="B292" t="n">
-        <v>1802600.413784585</v>
+        <v>937330.3522339901</v>
       </c>
       <c r="C292" t="n">
-        <v>8120709.40097037</v>
+        <v>7769426.422573877</v>
       </c>
       <c r="D292" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -30482,13 +30482,13 @@
         <v>3575</v>
       </c>
       <c r="B293" t="n">
-        <v>1941736.040593062</v>
+        <v>882906.4632230308</v>
       </c>
       <c r="C293" t="n">
-        <v>7643550.62966441</v>
+        <v>7285696.390073527</v>
       </c>
       <c r="D293" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -30582,13 +30582,13 @@
         <v>3579</v>
       </c>
       <c r="B294" t="n">
-        <v>1805346.70195841</v>
+        <v>940511.9671389447</v>
       </c>
       <c r="C294" t="n">
-        <v>8122527.101429903</v>
+        <v>7770016.524445752</v>
       </c>
       <c r="D294" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -30690,13 +30690,13 @@
         <v>3591</v>
       </c>
       <c r="B295" t="n">
-        <v>1801840.897334418</v>
+        <v>932955.8435390415</v>
       </c>
       <c r="C295" t="n">
-        <v>8111092.523883575</v>
+        <v>7761024.028409406</v>
       </c>
       <c r="D295" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -30798,13 +30798,13 @@
         <v>3603</v>
       </c>
       <c r="B296" t="n">
-        <v>1660557.534307548</v>
+        <v>745533.0613449832</v>
       </c>
       <c r="C296" t="n">
-        <v>7955668.127498237</v>
+        <v>7674163.372555957</v>
       </c>
       <c r="D296" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -30906,13 +30906,13 @@
         <v>3605</v>
       </c>
       <c r="B297" t="n">
-        <v>1682933.082347631</v>
+        <v>720856.0514023926</v>
       </c>
       <c r="C297" t="n">
-        <v>7836991.9759634</v>
+        <v>7557908.219210621</v>
       </c>
       <c r="D297" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -31010,13 +31010,13 @@
         <v>3615</v>
       </c>
       <c r="B298" t="n">
-        <v>2166891.008832021</v>
+        <v>1242666.956316649</v>
       </c>
       <c r="C298" t="n">
-        <v>8060683.455816337</v>
+        <v>7576181.339321886</v>
       </c>
       <c r="D298" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -31110,13 +31110,13 @@
         <v>3618</v>
       </c>
       <c r="B299" t="n">
-        <v>1806896.182983299</v>
+        <v>832847.8444632411</v>
       </c>
       <c r="C299" t="n">
-        <v>7835759.665441179</v>
+        <v>7510009.82457608</v>
       </c>
       <c r="D299" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -31214,13 +31214,13 @@
         <v>3628</v>
       </c>
       <c r="B300" t="n">
-        <v>1834858.868556736</v>
+        <v>876819.3451502406</v>
       </c>
       <c r="C300" t="n">
-        <v>7885169.31925812</v>
+        <v>7544168.64192751</v>
       </c>
       <c r="D300" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -31318,13 +31318,13 @@
         <v>3632</v>
       </c>
       <c r="B301" t="n">
-        <v>1926306.793738632</v>
+        <v>1063757.402085037</v>
       </c>
       <c r="C301" t="n">
-        <v>8158913.421090364</v>
+        <v>7756452.358480101</v>
       </c>
       <c r="D301" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -31426,13 +31426,13 @@
         <v>3634</v>
       </c>
       <c r="B302" t="n">
-        <v>1803100.282449588</v>
+        <v>937037.6605270836</v>
       </c>
       <c r="C302" t="n">
-        <v>8118767.042712965</v>
+        <v>7767478.985777365</v>
       </c>
       <c r="D302" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -31526,13 +31526,13 @@
         <v>3635</v>
       </c>
       <c r="B303" t="n">
-        <v>2051082.823815737</v>
+        <v>997781.5772948437</v>
       </c>
       <c r="C303" t="n">
-        <v>7687124.363355169</v>
+        <v>7284344.155476289</v>
       </c>
       <c r="D303" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -31622,13 +31622,13 @@
         <v>3645</v>
       </c>
       <c r="B304" t="n">
-        <v>2141699.906587231</v>
+        <v>1240265.11844501</v>
       </c>
       <c r="C304" t="n">
-        <v>8113562.216704026</v>
+        <v>7633177.140605113</v>
       </c>
       <c r="D304" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -31722,13 +31722,13 @@
         <v>3646</v>
       </c>
       <c r="B305" t="n">
-        <v>2048504.190829903</v>
+        <v>1015137.83047013</v>
       </c>
       <c r="C305" t="n">
-        <v>7739908.028019167</v>
+        <v>7332823.757942825</v>
       </c>
       <c r="D305" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -31826,13 +31826,13 @@
         <v>3664</v>
       </c>
       <c r="B306" t="n">
-        <v>1886472.284382399</v>
+        <v>851374.17317705</v>
       </c>
       <c r="C306" t="n">
-        <v>7693085.499141851</v>
+        <v>7351048.910195568</v>
       </c>
       <c r="D306" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -31930,13 +31930,13 @@
         <v>3671</v>
       </c>
       <c r="B307" t="n">
-        <v>2391223.246447153</v>
+        <v>1310836.093049647</v>
       </c>
       <c r="C307" t="n">
-        <v>7708765.696836311</v>
+        <v>7177313.192988577</v>
       </c>
       <c r="D307" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -32034,13 +32034,13 @@
         <v>3674</v>
       </c>
       <c r="B308" t="n">
-        <v>1970799.552886208</v>
+        <v>880587.8108814436</v>
       </c>
       <c r="C308" t="n">
-        <v>7566402.636788557</v>
+        <v>7205240.494811949</v>
       </c>
       <c r="D308" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -32134,13 +32134,13 @@
         <v>3675</v>
       </c>
       <c r="B309" t="n">
-        <v>1538669.4373853</v>
+        <v>638998.9656855417</v>
       </c>
       <c r="C309" t="n">
-        <v>7966992.476682454</v>
+        <v>7730906.170873526</v>
       </c>
       <c r="D309" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -32234,13 +32234,13 @@
         <v>3693</v>
       </c>
       <c r="B310" t="n">
-        <v>1794218.752582451</v>
+        <v>806341.4575047644</v>
       </c>
       <c r="C310" t="n">
-        <v>7795877.814001033</v>
+        <v>7478661.62470316</v>
       </c>
       <c r="D310" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -32342,13 +32342,13 @@
         <v>3710</v>
       </c>
       <c r="B311" t="n">
-        <v>2013534.251355763</v>
+        <v>852070.5000030847</v>
       </c>
       <c r="C311" t="n">
-        <v>7383406.938370705</v>
+        <v>7024263.996584867</v>
       </c>
       <c r="D311" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -32442,13 +32442,13 @@
         <v>3713</v>
       </c>
       <c r="B312" t="n">
-        <v>1924457.097834746</v>
+        <v>793451.0722239073</v>
       </c>
       <c r="C312" t="n">
-        <v>7443511.841890297</v>
+        <v>7111165.796282979</v>
       </c>
       <c r="D312" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -32542,13 +32542,13 @@
         <v>3714</v>
       </c>
       <c r="B313" t="n">
-        <v>1823885.310300505</v>
+        <v>960321.9127553552</v>
       </c>
       <c r="C313" t="n">
-        <v>8130459.201604553</v>
+        <v>7770075.405277894</v>
       </c>
       <c r="D313" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -32650,13 +32650,13 @@
         <v>3717</v>
       </c>
       <c r="B314" t="n">
-        <v>2277318.932023891</v>
+        <v>1314500.340813246</v>
       </c>
       <c r="C314" t="n">
-        <v>7989368.791233406</v>
+        <v>7470411.55631114</v>
       </c>
       <c r="D314" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -32758,13 +32758,13 @@
         <v>3734</v>
       </c>
       <c r="B315" t="n">
-        <v>1788796.58576223</v>
+        <v>795417.6251992576</v>
       </c>
       <c r="C315" t="n">
-        <v>7779896.486790683</v>
+        <v>7466219.108343782</v>
       </c>
       <c r="D315" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -32858,13 +32858,13 @@
         <v>3740</v>
       </c>
       <c r="B316" t="n">
-        <v>1803651.316994637</v>
+        <v>937673.9675345563</v>
       </c>
       <c r="C316" t="n">
-        <v>8119126.375304053</v>
+        <v>7767592.561358443</v>
       </c>
       <c r="D316" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -32962,13 +32962,13 @@
         <v>3745</v>
       </c>
       <c r="B317" t="n">
-        <v>1801841.894020368</v>
+        <v>932955.2392240467</v>
       </c>
       <c r="C317" t="n">
-        <v>8111088.594955014</v>
+        <v>7761020.094674127</v>
       </c>
       <c r="D317" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -33070,13 +33070,13 @@
         <v>3747</v>
       </c>
       <c r="B318" t="n">
-        <v>1939412.410810557</v>
+        <v>893413.2740193857</v>
       </c>
       <c r="C318" t="n">
-        <v>7677439.07271056</v>
+        <v>7317173.702014156</v>
       </c>
       <c r="D318" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -33170,13 +33170,13 @@
         <v>3748</v>
       </c>
       <c r="B319" t="n">
-        <v>2068832.37775786</v>
+        <v>966935.8110655572</v>
       </c>
       <c r="C319" t="n">
-        <v>7560680.012425686</v>
+        <v>7163905.234143174</v>
       </c>
       <c r="D319" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -33270,13 +33270,13 @@
         <v>3769</v>
       </c>
       <c r="B320" t="n">
-        <v>2014857.131331909</v>
+        <v>901063.3573547465</v>
       </c>
       <c r="C320" t="n">
-        <v>7513998.016382578</v>
+        <v>7141691.456389145</v>
       </c>
       <c r="D320" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -33374,13 +33374,13 @@
         <v>3773</v>
       </c>
       <c r="B321" t="n">
-        <v>1787507.808080464</v>
+        <v>793978.6563722049</v>
       </c>
       <c r="C321" t="n">
-        <v>7779176.475854752</v>
+        <v>7466050.894299788</v>
       </c>
       <c r="D321" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -33474,13 +33474,13 @@
         <v>3798</v>
       </c>
       <c r="B322" t="n">
-        <v>1803103.37523915</v>
+        <v>937035.8443000868</v>
       </c>
       <c r="C322" t="n">
-        <v>8118755.010480731</v>
+        <v>7767466.92359018</v>
       </c>
       <c r="D322" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -33574,13 +33574,13 @@
         <v>3809</v>
       </c>
       <c r="B323" t="n">
-        <v>1801838.467611874</v>
+        <v>932957.3167096926</v>
       </c>
       <c r="C323" t="n">
-        <v>8111102.101751235</v>
+        <v>7761033.618003026</v>
       </c>
       <c r="D323" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -33674,13 +33674,13 @@
         <v>3810</v>
       </c>
       <c r="B324" t="n">
-        <v>1906441.107284619</v>
+        <v>742189.8295238431</v>
       </c>
       <c r="C324" t="n">
-        <v>7347873.218454407</v>
+        <v>7031102.616702136</v>
       </c>
       <c r="D324" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -33770,13 +33770,13 @@
         <v>3812</v>
       </c>
       <c r="B325" t="n">
-        <v>2040030.140138574</v>
+        <v>1204831.096630455</v>
       </c>
       <c r="C325" t="n">
-        <v>8259061.93494989</v>
+        <v>7802781.437205079</v>
       </c>
       <c r="D325" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -33874,13 +33874,13 @@
         <v>3813</v>
       </c>
       <c r="B326" t="n">
-        <v>1890913.274601422</v>
+        <v>768364.9432803101</v>
       </c>
       <c r="C326" t="n">
-        <v>7457966.689942298</v>
+        <v>7136561.243197758</v>
       </c>
       <c r="D326" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -33970,13 +33970,13 @@
         <v>3814</v>
       </c>
       <c r="B327" t="n">
-        <v>1828835.974488501</v>
+        <v>918245.1823576771</v>
       </c>
       <c r="C327" t="n">
-        <v>8008689.373958997</v>
+        <v>7658141.67416576</v>
       </c>
       <c r="D327" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -34078,13 +34078,13 @@
         <v>3858</v>
       </c>
       <c r="B328" t="n">
-        <v>1941208.436154681</v>
+        <v>883948.0062963058</v>
       </c>
       <c r="C328" t="n">
-        <v>7647636.464533909</v>
+        <v>7289583.671315713</v>
       </c>
       <c r="D328" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -34178,13 +34178,13 @@
         <v>3867</v>
       </c>
       <c r="B329" t="n">
-        <v>1671179.051109826</v>
+        <v>595781.8793388287</v>
       </c>
       <c r="C329" t="n">
-        <v>7531422.417955859</v>
+        <v>7284364.541069679</v>
       </c>
       <c r="D329" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -34278,13 +34278,13 @@
         <v>3887</v>
       </c>
       <c r="B330" t="n">
-        <v>2422199.218405128</v>
+        <v>1450738.651482512</v>
       </c>
       <c r="C330" t="n">
-        <v>8007217.752110926</v>
+        <v>7431346.226469016</v>
       </c>
       <c r="D330" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -34374,13 +34374,13 @@
         <v>3898</v>
       </c>
       <c r="B331" t="n">
-        <v>1801839.507343647</v>
+        <v>932956.6863126344</v>
       </c>
       <c r="C331" t="n">
-        <v>8111098.003184742</v>
+        <v>7761029.514417323</v>
       </c>
       <c r="D331" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -34482,13 +34482,13 @@
         <v>3901</v>
       </c>
       <c r="B332" t="n">
-        <v>1799800.701698489</v>
+        <v>933214.175000439</v>
       </c>
       <c r="C332" t="n">
-        <v>8116580.923364165</v>
+        <v>7766767.591439922</v>
       </c>
       <c r="D332" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -34590,13 +34590,13 @@
         <v>3903</v>
       </c>
       <c r="B333" t="n">
-        <v>1855806.352569584</v>
+        <v>822900.4347418221</v>
       </c>
       <c r="C333" t="n">
-        <v>7691170.541352204</v>
+        <v>7360759.539254025</v>
       </c>
       <c r="D333" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -34690,13 +34690,13 @@
         <v>3917</v>
       </c>
       <c r="B334" t="n">
-        <v>2413239.742241597</v>
+        <v>1398859.961382667</v>
       </c>
       <c r="C334" t="n">
-        <v>7891380.102239743</v>
+        <v>7331689.938450952</v>
       </c>
       <c r="D334" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -34794,13 +34794,13 @@
         <v>3924</v>
       </c>
       <c r="B335" t="n">
-        <v>1905336.507221183</v>
+        <v>741181.2521927026</v>
       </c>
       <c r="C335" t="n">
-        <v>7347854.088667386</v>
+        <v>7031487.433753423</v>
       </c>
       <c r="D335" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -34890,13 +34890,13 @@
         <v>3926</v>
       </c>
       <c r="B336" t="n">
-        <v>2218839.362202709</v>
+        <v>1339425.420928823</v>
       </c>
       <c r="C336" t="n">
-        <v>8191497.439611167</v>
+        <v>7673369.967671252</v>
       </c>
       <c r="D336" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -34994,13 +34994,13 @@
         <v>3935</v>
       </c>
       <c r="B337" t="n">
-        <v>1849938.421824652</v>
+        <v>832626.1591297847</v>
       </c>
       <c r="C337" t="n">
-        <v>7731405.561332669</v>
+        <v>7399372.425750453</v>
       </c>
       <c r="D337" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -35094,13 +35094,13 @@
         <v>3936</v>
       </c>
       <c r="B338" t="n">
-        <v>2041833.822692128</v>
+        <v>898747.3662114993</v>
       </c>
       <c r="C338" t="n">
-        <v>7441279.094708249</v>
+        <v>7066184.645066248</v>
       </c>
       <c r="D338" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -35190,13 +35190,13 @@
         <v>3939</v>
       </c>
       <c r="B339" t="n">
-        <v>2234216.295385768</v>
+        <v>1344563.454622347</v>
       </c>
       <c r="C339" t="n">
-        <v>8169029.306897366</v>
+        <v>7647378.951688493</v>
       </c>
       <c r="D339" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -35294,13 +35294,13 @@
         <v>3944</v>
       </c>
       <c r="B340" t="n">
-        <v>1935311.640820382</v>
+        <v>1048158.744441703</v>
       </c>
       <c r="C340" t="n">
-        <v>8097037.287876632</v>
+        <v>7697245.96729626</v>
       </c>
       <c r="D340" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -35398,13 +35398,13 @@
         <v>3970</v>
       </c>
       <c r="B341" t="n">
-        <v>1696118.854575664</v>
+        <v>741112.6057255134</v>
       </c>
       <c r="C341" t="n">
-        <v>7858895.56183242</v>
+        <v>7572813.603890932</v>
       </c>
       <c r="D341" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -35502,13 +35502,13 @@
         <v>3974</v>
       </c>
       <c r="B342" t="n">
-        <v>1806991.945842206</v>
+        <v>942421.3991615695</v>
       </c>
       <c r="C342" t="n">
-        <v>8123625.019663337</v>
+        <v>7770378.05435971</v>
       </c>
       <c r="D342" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -35610,13 +35610,13 @@
         <v>3988</v>
       </c>
       <c r="B343" t="n">
-        <v>2052214.146572333</v>
+        <v>945572.9309526996</v>
       </c>
       <c r="C343" t="n">
-        <v>7543358.130049534</v>
+        <v>7154422.044654272</v>
       </c>
       <c r="D343" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -35710,13 +35710,13 @@
         <v>3995</v>
       </c>
       <c r="B344" t="n">
-        <v>1838874.944455467</v>
+        <v>717081.4386109823</v>
       </c>
       <c r="C344" t="n">
-        <v>7446842.411341053</v>
+        <v>7145579.977586001</v>
       </c>
       <c r="D344" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -35814,13 +35814,13 @@
         <v>4004</v>
       </c>
       <c r="B345" t="n">
-        <v>1804334.765148695</v>
+        <v>941090.7619412541</v>
       </c>
       <c r="C345" t="n">
-        <v>8126422.277907358</v>
+        <v>7773925.371255712</v>
       </c>
       <c r="D345" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -35914,13 +35914,13 @@
         <v>4013</v>
       </c>
       <c r="B346" t="n">
-        <v>1597058.078469737</v>
+        <v>665539.1291105201</v>
       </c>
       <c r="C346" t="n">
-        <v>7897089.049884976</v>
+        <v>7645061.967565375</v>
       </c>
       <c r="D346" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -36014,13 +36014,13 @@
         <v>4021</v>
       </c>
       <c r="B347" t="n">
-        <v>1901350.986742238</v>
+        <v>941471.968636106</v>
       </c>
       <c r="C347" t="n">
-        <v>7897148.341452307</v>
+        <v>7529863.309869869</v>
       </c>
       <c r="D347" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -36122,13 +36122,13 @@
         <v>4025</v>
       </c>
       <c r="B348" t="n">
-        <v>2077645.622070921</v>
+        <v>963430.161283389</v>
       </c>
       <c r="C348" t="n">
-        <v>7529595.623977498</v>
+        <v>7132663.739116039</v>
       </c>
       <c r="D348" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -36222,13 +36222,13 @@
         <v>4038</v>
       </c>
       <c r="B349" t="n">
-        <v>1875979.600612678</v>
+        <v>756926.5886178723</v>
       </c>
       <c r="C349" t="n">
-        <v>7463680.948741343</v>
+        <v>7147224.038688864</v>
       </c>
       <c r="D349" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -36318,13 +36318,13 @@
         <v>4042</v>
       </c>
       <c r="B350" t="n">
-        <v>1841980.692528817</v>
+        <v>849952.5094616212</v>
       </c>
       <c r="C350" t="n">
-        <v>7796802.795625998</v>
+        <v>7461540.88379485</v>
       </c>
       <c r="D350" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -36426,13 +36426,13 @@
         <v>4063</v>
       </c>
       <c r="B351" t="n">
-        <v>1801839.548026247</v>
+        <v>932956.6616463196</v>
       </c>
       <c r="C351" t="n">
-        <v>8111097.842815708</v>
+        <v>7761029.353851941</v>
       </c>
       <c r="D351" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -36530,13 +36530,13 @@
         <v>4071</v>
       </c>
       <c r="B352" t="n">
-        <v>2375975.251399543</v>
+        <v>1227854.147484486</v>
       </c>
       <c r="C352" t="n">
-        <v>7520804.735987368</v>
+        <v>7015325.011235176</v>
       </c>
       <c r="D352" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -36630,13 +36630,13 @@
         <v>4074</v>
       </c>
       <c r="B353" t="n">
-        <v>2209821.26178743</v>
+        <v>1279387.055679167</v>
       </c>
       <c r="C353" t="n">
-        <v>8055983.911330064</v>
+        <v>7555616.698784092</v>
       </c>
       <c r="D353" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -36738,13 +36738,13 @@
         <v>4075</v>
       </c>
       <c r="B354" t="n">
-        <v>1801839.371864661</v>
+        <v>932956.7684549807</v>
       </c>
       <c r="C354" t="n">
-        <v>8111098.537236782</v>
+        <v>7761030.049123255</v>
       </c>
       <c r="D354" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -36838,13 +36838,13 @@
         <v>4087</v>
       </c>
       <c r="B355" t="n">
-        <v>2204558.29110388</v>
+        <v>1330635.212176623</v>
       </c>
       <c r="C355" t="n">
-        <v>8201927.041607631</v>
+        <v>7688187.266888417</v>
       </c>
       <c r="D355" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -36942,13 +36942,13 @@
         <v>4089</v>
       </c>
       <c r="B356" t="n">
-        <v>1777839.168837374</v>
+        <v>800321.7313554658</v>
       </c>
       <c r="C356" t="n">
-        <v>7819324.92858758</v>
+        <v>7506073.586262429</v>
       </c>
       <c r="D356" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -37046,13 +37046,13 @@
         <v>4097</v>
       </c>
       <c r="B357" t="n">
-        <v>1864663.326285969</v>
+        <v>816558.4935699872</v>
       </c>
       <c r="C357" t="n">
-        <v>7652640.971430819</v>
+        <v>7322578.642948418</v>
       </c>
       <c r="D357" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -37142,13 +37142,13 @@
         <v>4103</v>
       </c>
       <c r="B358" t="n">
-        <v>1802002.947570884</v>
+        <v>935762.0112128834</v>
       </c>
       <c r="C358" t="n">
-        <v>8118029.325896776</v>
+        <v>7767232.773530058</v>
       </c>
       <c r="D358" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -37242,13 +37242,13 @@
         <v>4106</v>
       </c>
       <c r="B359" t="n">
-        <v>1801838.626640155</v>
+        <v>932957.2202901614</v>
       </c>
       <c r="C359" t="n">
-        <v>8111101.474871689</v>
+        <v>7761032.990355647</v>
       </c>
       <c r="D359" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -37350,13 +37350,13 @@
         <v>4110</v>
       </c>
       <c r="B360" t="n">
-        <v>2039167.441708929</v>
+        <v>884618.5196295383</v>
       </c>
       <c r="C360" t="n">
-        <v>7409182.35561662</v>
+        <v>7038195.382624815</v>
       </c>
       <c r="D360" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -37450,13 +37450,13 @@
         <v>4112</v>
       </c>
       <c r="B361" t="n">
-        <v>1958662.09849776</v>
+        <v>810117.1405484569</v>
       </c>
       <c r="C361" t="n">
-        <v>7404430.284021785</v>
+        <v>7063282.586836583</v>
       </c>
       <c r="D361" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -37554,13 +37554,13 @@
         <v>4117</v>
       </c>
       <c r="B362" t="n">
-        <v>1782729.881486619</v>
+        <v>800877.479968342</v>
       </c>
       <c r="C362" t="n">
-        <v>7809029.983862158</v>
+        <v>7494902.194817801</v>
       </c>
       <c r="D362" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -37654,13 +37654,13 @@
         <v>4118</v>
       </c>
       <c r="B363" t="n">
-        <v>1922978.243456703</v>
+        <v>1088312.026990883</v>
       </c>
       <c r="C363" t="n">
-        <v>8230500.588842714</v>
+        <v>7822231.168221163</v>
       </c>
       <c r="D363" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -37754,13 +37754,13 @@
         <v>4121</v>
       </c>
       <c r="B364" t="n">
-        <v>1837873.253202236</v>
+        <v>792522.8517208797</v>
       </c>
       <c r="C364" t="n">
-        <v>7653269.431384407</v>
+        <v>7333122.484146098</v>
       </c>
       <c r="D364" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -37850,13 +37850,13 @@
         <v>4129</v>
       </c>
       <c r="B365" t="n">
-        <v>2040769.155928267</v>
+        <v>907475.4468771147</v>
       </c>
       <c r="C365" t="n">
-        <v>7467751.42984211</v>
+        <v>7090455.812982022</v>
       </c>
       <c r="D365" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -37946,13 +37946,13 @@
         <v>4141</v>
       </c>
       <c r="B366" t="n">
-        <v>2224292.276251758</v>
+        <v>1317425.047422073</v>
       </c>
       <c r="C366" t="n">
-        <v>8121522.465572145</v>
+        <v>7608711.751457619</v>
       </c>
       <c r="D366" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -38050,13 +38050,13 @@
         <v>4152</v>
       </c>
       <c r="B367" t="n">
-        <v>2377438.393022992</v>
+        <v>1229539.330205559</v>
       </c>
       <c r="C367" t="n">
-        <v>7521837.685795409</v>
+        <v>7015711.036293506</v>
       </c>
       <c r="D367" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -38150,13 +38150,13 @@
         <v>4155</v>
       </c>
       <c r="B368" t="n">
-        <v>1906874.044339445</v>
+        <v>658051.8477913656</v>
       </c>
       <c r="C368" t="n">
-        <v>7113640.18037463</v>
+        <v>6818352.73326298</v>
       </c>
       <c r="D368" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -38254,13 +38254,13 @@
         <v>4170</v>
       </c>
       <c r="B369" t="n">
-        <v>1890024.3342385</v>
+        <v>758791.7945581494</v>
       </c>
       <c r="C369" t="n">
-        <v>7434065.101002095</v>
+        <v>7115227.673961877</v>
       </c>
       <c r="D369" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -38350,13 +38350,13 @@
         <v>4172</v>
       </c>
       <c r="B370" t="n">
-        <v>2006361.652806005</v>
+        <v>911058.4929123854</v>
       </c>
       <c r="C370" t="n">
-        <v>7561943.376557656</v>
+        <v>7188085.33775318</v>
       </c>
       <c r="D370" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -38450,13 +38450,13 @@
         <v>4174</v>
       </c>
       <c r="B371" t="n">
-        <v>1956222.406067165</v>
+        <v>892572.7018842557</v>
       </c>
       <c r="C371" t="n">
-        <v>7634330.013639138</v>
+        <v>7271987.959522819</v>
       </c>
       <c r="D371" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -38550,13 +38550,13 @@
         <v>4180</v>
       </c>
       <c r="B372" t="n">
-        <v>1905547.208927434</v>
+        <v>736140.9447997462</v>
       </c>
       <c r="C372" t="n">
-        <v>7333478.219651553</v>
+        <v>7018376.531445957</v>
       </c>
       <c r="D372" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -38650,13 +38650,13 @@
         <v>4182</v>
       </c>
       <c r="B373" t="n">
-        <v>2039455.013207444</v>
+        <v>918595.2735081387</v>
       </c>
       <c r="C373" t="n">
-        <v>7501298.071634308</v>
+        <v>7121195.303258172</v>
       </c>
       <c r="D373" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -38746,13 +38746,13 @@
         <v>4192</v>
       </c>
       <c r="B374" t="n">
-        <v>1786011.789837781</v>
+        <v>731413.8905097654</v>
       </c>
       <c r="C374" t="n">
-        <v>7615458.402657841</v>
+        <v>7318138.062029734</v>
       </c>
       <c r="D374" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -38842,13 +38842,13 @@
         <v>4207</v>
       </c>
       <c r="B375" t="n">
-        <v>1887402.025312737</v>
+        <v>633557.9051497146</v>
       </c>
       <c r="C375" t="n">
-        <v>7094640.938260341</v>
+        <v>6808041.547381579</v>
       </c>
       <c r="D375" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -38942,13 +38942,13 @@
         <v>4211</v>
       </c>
       <c r="B376" t="n">
-        <v>1834643.673225024</v>
+        <v>859068.8439565091</v>
       </c>
       <c r="C376" t="n">
-        <v>7838664.134890159</v>
+        <v>7502179.611384838</v>
       </c>
       <c r="D376" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -39046,13 +39046,13 @@
         <v>4221</v>
       </c>
       <c r="B377" t="n">
-        <v>2423953.17010685</v>
+        <v>1261784.406171691</v>
       </c>
       <c r="C377" t="n">
-        <v>7496505.844442226</v>
+        <v>6976109.48943565</v>
       </c>
       <c r="D377" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -39146,13 +39146,13 @@
         <v>4222</v>
       </c>
       <c r="B378" t="n">
-        <v>2016928.845062387</v>
+        <v>895464.5893220461</v>
       </c>
       <c r="C378" t="n">
-        <v>7493673.104769103</v>
+        <v>7122587.717520681</v>
       </c>
       <c r="D378" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -39246,13 +39246,13 @@
         <v>4226</v>
       </c>
       <c r="B379" t="n">
-        <v>2102674.427856228</v>
+        <v>1242979.438939674</v>
       </c>
       <c r="C379" t="n">
-        <v>8211892.235715297</v>
+        <v>7736304.724697713</v>
       </c>
       <c r="D379" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -39350,13 +39350,13 @@
         <v>4231</v>
       </c>
       <c r="B380" t="n">
-        <v>1792134.309626983</v>
+        <v>826997.3063466386</v>
       </c>
       <c r="C380" t="n">
-        <v>7855698.003788751</v>
+        <v>7533634.112855488</v>
       </c>
       <c r="D380" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -39454,13 +39454,13 @@
         <v>4233</v>
       </c>
       <c r="B381" t="n">
-        <v>1887422.799058957</v>
+        <v>755954.953592106</v>
       </c>
       <c r="C381" t="n">
-        <v>7432759.65957224</v>
+        <v>7114997.899509427</v>
       </c>
       <c r="D381" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -39550,13 +39550,13 @@
         <v>4234</v>
       </c>
       <c r="B382" t="n">
-        <v>1997782.421111356</v>
+        <v>846054.0797774419</v>
       </c>
       <c r="C382" t="n">
-        <v>7405951.135387111</v>
+        <v>7050376.340893129</v>
       </c>
       <c r="D382" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -39654,13 +39654,13 @@
         <v>4235</v>
       </c>
       <c r="B383" t="n">
-        <v>1915034.908974461</v>
+        <v>743740.8649608215</v>
       </c>
       <c r="C383" t="n">
-        <v>7330719.123856233</v>
+        <v>7012425.186389853</v>
       </c>
       <c r="D383" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -39750,13 +39750,13 @@
         <v>4239</v>
       </c>
       <c r="B384" t="n">
-        <v>1924168.298669093</v>
+        <v>746337.8616099986</v>
       </c>
       <c r="C384" t="n">
-        <v>7315075.697250812</v>
+        <v>6994927.191403398</v>
       </c>
       <c r="D384" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -39854,13 +39854,13 @@
         <v>4240</v>
       </c>
       <c r="B385" t="n">
-        <v>1928213.224768828</v>
+        <v>1069681.430785734</v>
       </c>
       <c r="C385" t="n">
-        <v>8169854.162804519</v>
+        <v>7765578.331985452</v>
       </c>
       <c r="D385" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -39954,13 +39954,13 @@
         <v>4243</v>
       </c>
       <c r="B386" t="n">
-        <v>1801400.451371568</v>
+        <v>934191.1304383193</v>
       </c>
       <c r="C386" t="n">
-        <v>8115354.126157491</v>
+        <v>7765045.357648998</v>
       </c>
       <c r="D386" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -40062,13 +40062,13 @@
         <v>4261</v>
       </c>
       <c r="B387" t="n">
-        <v>2207916.459713933</v>
+        <v>1199981.113510629</v>
       </c>
       <c r="C387" t="n">
-        <v>7850854.205869231</v>
+        <v>7372729.705773313</v>
       </c>
       <c r="D387" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -40162,13 +40162,13 @@
         <v>4271</v>
       </c>
       <c r="B388" t="n">
-        <v>1610220.901322407</v>
+        <v>700988.1585922581</v>
       </c>
       <c r="C388" t="n">
-        <v>7958814.831504736</v>
+        <v>7696187.191234428</v>
       </c>
       <c r="D388" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -40270,13 +40270,13 @@
         <v>4273</v>
       </c>
       <c r="B389" t="n">
-        <v>1915817.868121061</v>
+        <v>1029710.941166419</v>
       </c>
       <c r="C389" t="n">
-        <v>8094797.492988885</v>
+        <v>7702682.060825936</v>
       </c>
       <c r="D389" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -40370,13 +40370,13 @@
         <v>4276</v>
       </c>
       <c r="B390" t="n">
-        <v>1898419.253783789</v>
+        <v>933864.6865614713</v>
       </c>
       <c r="C390" t="n">
-        <v>7884026.929128624</v>
+        <v>7519122.989052285</v>
       </c>
       <c r="D390" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -40478,13 +40478,13 @@
         <v>4277</v>
       </c>
       <c r="B391" t="n">
-        <v>1838351.470560767</v>
+        <v>801088.0348656627</v>
       </c>
       <c r="C391" t="n">
-        <v>7675086.899970133</v>
+        <v>7352707.953988129</v>
       </c>
       <c r="D391" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -40582,13 +40582,13 @@
         <v>4281</v>
       </c>
       <c r="B392" t="n">
-        <v>2021390.624855704</v>
+        <v>893278.0735982689</v>
       </c>
       <c r="C392" t="n">
-        <v>7476737.612188234</v>
+        <v>7105666.154510666</v>
       </c>
       <c r="D392" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -40678,13 +40678,13 @@
         <v>4287</v>
       </c>
       <c r="B393" t="n">
-        <v>2040581.332846737</v>
+        <v>935429.8592254971</v>
       </c>
       <c r="C393" t="n">
-        <v>7544300.910486443</v>
+        <v>7159556.414963406</v>
       </c>
       <c r="D393" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -40778,13 +40778,13 @@
         <v>4290</v>
       </c>
       <c r="B394" t="n">
-        <v>1641084.725384216</v>
+        <v>716546.465768992</v>
       </c>
       <c r="C394" t="n">
-        <v>7925968.984424772</v>
+        <v>7654594.048810294</v>
       </c>
       <c r="D394" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -40886,13 +40886,13 @@
         <v>4291</v>
       </c>
       <c r="B395" t="n">
-        <v>1859077.319840057</v>
+        <v>983701.9591929991</v>
       </c>
       <c r="C395" t="n">
-        <v>8108467.086115994</v>
+        <v>7736727.592965069</v>
       </c>
       <c r="D395" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -40986,13 +40986,13 @@
         <v>4292</v>
       </c>
       <c r="B396" t="n">
-        <v>1909200.101506271</v>
+        <v>1027304.066563739</v>
       </c>
       <c r="C396" t="n">
-        <v>8104115.18783743</v>
+        <v>7713614.724844063</v>
       </c>
       <c r="D396" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -41090,13 +41090,13 @@
         <v>4300</v>
       </c>
       <c r="B397" t="n">
-        <v>1858969.030934479</v>
+        <v>808635.2399149899</v>
       </c>
       <c r="C397" t="n">
-        <v>7645209.447939668</v>
+        <v>7317969.387485085</v>
       </c>
       <c r="D397" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -41186,13 +41186,13 @@
         <v>4303</v>
       </c>
       <c r="B398" t="n">
-        <v>1934444.749871182</v>
+        <v>785054.4047317558</v>
       </c>
       <c r="C398" t="n">
-        <v>7395835.015887243</v>
+        <v>7064346.353197711</v>
       </c>
       <c r="D398" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -41282,13 +41282,13 @@
         <v>4308</v>
       </c>
       <c r="B399" t="n">
-        <v>1804330.532630768</v>
+        <v>941093.168617904</v>
       </c>
       <c r="C399" t="n">
-        <v>8126438.531004326</v>
+        <v>7773941.685477682</v>
       </c>
       <c r="D399" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -41382,13 +41382,13 @@
         <v>4320</v>
       </c>
       <c r="B400" t="n">
-        <v>1899804.654196187</v>
+        <v>1019839.856118537</v>
       </c>
       <c r="C400" t="n">
-        <v>8106772.89589512</v>
+        <v>7719607.072087442</v>
       </c>
       <c r="D400" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -41486,13 +41486,13 @@
         <v>4322</v>
       </c>
       <c r="B401" t="n">
-        <v>1724733.644733144</v>
+        <v>655963.8947753001</v>
       </c>
       <c r="C401" t="n">
-        <v>7562236.514498056</v>
+        <v>7292549.41708691</v>
       </c>
       <c r="D401" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -41586,13 +41586,13 @@
         <v>4323</v>
       </c>
       <c r="B402" t="n">
-        <v>1905321.258962498</v>
+        <v>657878.4500441813</v>
       </c>
       <c r="C402" t="n">
-        <v>7117100.601168008</v>
+        <v>6822052.60540196</v>
       </c>
       <c r="D402" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -41690,13 +41690,13 @@
         <v>4326</v>
       </c>
       <c r="B403" t="n">
-        <v>1891669.014666299</v>
+        <v>921949.8163392654</v>
       </c>
       <c r="C403" t="n">
-        <v>7868626.448245585</v>
+        <v>7507762.249294478</v>
       </c>
       <c r="D403" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -41790,13 +41790,13 @@
         <v>4328</v>
       </c>
       <c r="B404" t="n">
-        <v>1976365.413352341</v>
+        <v>803599.3848936844</v>
       </c>
       <c r="C404" t="n">
-        <v>7342564.049330031</v>
+        <v>7000861.058985945</v>
       </c>
       <c r="D404" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -41890,13 +41890,13 @@
         <v>4333</v>
       </c>
       <c r="B405" t="n">
-        <v>2194913.918396527</v>
+        <v>1132513.143785673</v>
       </c>
       <c r="C405" t="n">
-        <v>7701646.166449486</v>
+        <v>7243899.79349531</v>
       </c>
       <c r="D405" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -41994,13 +41994,13 @@
         <v>4341</v>
       </c>
       <c r="B406" t="n">
-        <v>2053094.109278327</v>
+        <v>887640.3656196744</v>
       </c>
       <c r="C406" t="n">
-        <v>7382973.639556714</v>
+        <v>7009469.959449735</v>
       </c>
       <c r="D406" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -42094,13 +42094,13 @@
         <v>4344</v>
       </c>
       <c r="B407" t="n">
-        <v>2034299.764555109</v>
+        <v>971244.631381192</v>
       </c>
       <c r="C407" t="n">
-        <v>7656429.491878632</v>
+        <v>7262936.003014339</v>
       </c>
       <c r="D407" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -42190,13 +42190,13 @@
         <v>4346</v>
       </c>
       <c r="B408" t="n">
-        <v>1860187.672430184</v>
+        <v>678703.3495062788</v>
       </c>
       <c r="C408" t="n">
-        <v>7288704.448701348</v>
+        <v>6994220.969581655</v>
       </c>
       <c r="D408" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -42294,13 +42294,13 @@
         <v>4351</v>
       </c>
       <c r="B409" t="n">
-        <v>2037989.156287745</v>
+        <v>897632.8050516389</v>
       </c>
       <c r="C409" t="n">
-        <v>7447719.364644736</v>
+        <v>7073401.308640633</v>
       </c>
       <c r="D409" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -42394,13 +42394,13 @@
         <v>4355</v>
       </c>
       <c r="B410" t="n">
-        <v>1983344.629489467</v>
+        <v>818985.6247727564</v>
       </c>
       <c r="C410" t="n">
-        <v>7367506.044513294</v>
+        <v>7020883.93838266</v>
       </c>
       <c r="D410" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -42494,13 +42494,13 @@
         <v>4357</v>
       </c>
       <c r="B411" t="n">
-        <v>1885835.101443906</v>
+        <v>715176.7682708891</v>
       </c>
       <c r="C411" t="n">
-        <v>7325004.46883441</v>
+        <v>7017859.088678977</v>
       </c>
       <c r="D411" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -42598,13 +42598,13 @@
         <v>4366</v>
       </c>
       <c r="B412" t="n">
-        <v>2196747.743504643</v>
+        <v>1151268.626958098</v>
       </c>
       <c r="C412" t="n">
-        <v>7747565.085348806</v>
+        <v>7284377.771682632</v>
       </c>
       <c r="D412" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -42694,13 +42694,13 @@
         <v>4367</v>
       </c>
       <c r="B413" t="n">
-        <v>1970165.334397752</v>
+        <v>812500.3938900877</v>
       </c>
       <c r="C413" t="n">
-        <v>7382433.929423925</v>
+        <v>7039186.458984583</v>
       </c>
       <c r="D413" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -42794,13 +42794,13 @@
         <v>4369</v>
       </c>
       <c r="B414" t="n">
-        <v>2415727.83057964</v>
+        <v>1403808.236667383</v>
       </c>
       <c r="C414" t="n">
-        <v>7898614.749269055</v>
+        <v>7337190.225941119</v>
       </c>
       <c r="D414" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -42898,13 +42898,13 @@
         <v>4371</v>
       </c>
       <c r="B415" t="n">
-        <v>2465808.624509737</v>
+        <v>1473038.200221292</v>
       </c>
       <c r="C415" t="n">
-        <v>7963616.314928639</v>
+        <v>7376061.910436039</v>
       </c>
       <c r="D415" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -43006,13 +43006,13 @@
         <v>4372</v>
       </c>
       <c r="B416" t="n">
-        <v>2038783.127164007</v>
+        <v>1204283.315785436</v>
       </c>
       <c r="C416" t="n">
-        <v>8260548.967981491</v>
+        <v>7804598.354878897</v>
       </c>
       <c r="D416" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -43110,13 +43110,13 @@
         <v>4375</v>
       </c>
       <c r="B417" t="n">
-        <v>1936980.068181583</v>
+        <v>1049231.602475701</v>
       </c>
       <c r="C417" t="n">
-        <v>8095907.410266573</v>
+        <v>7695589.812407699</v>
       </c>
       <c r="D417" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -43214,13 +43214,13 @@
         <v>4379</v>
       </c>
       <c r="B418" t="n">
-        <v>1906222.67730506</v>
+        <v>741555.1601668685</v>
       </c>
       <c r="C418" t="n">
-        <v>7346673.983053016</v>
+        <v>7030094.917851634</v>
       </c>
       <c r="D418" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -43310,13 +43310,13 @@
         <v>4382</v>
       </c>
       <c r="B419" t="n">
-        <v>2389014.272784133</v>
+        <v>1307307.75626615</v>
       </c>
       <c r="C419" t="n">
-        <v>7704577.152471779</v>
+        <v>7174401.016910886</v>
       </c>
       <c r="D419" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -43406,13 +43406,13 @@
         <v>4393</v>
       </c>
       <c r="B420" t="n">
-        <v>2054803.166370664</v>
+        <v>1001179.676160902</v>
       </c>
       <c r="C420" t="n">
-        <v>7687249.067520503</v>
+        <v>7283072.355525585</v>
       </c>
       <c r="D420" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -43502,13 +43502,13 @@
         <v>4402</v>
       </c>
       <c r="B421" t="n">
-        <v>1962448.789900562</v>
+        <v>815241.2551401245</v>
       </c>
       <c r="C421" t="n">
-        <v>7409077.982552608</v>
+        <v>7066104.139167313</v>
       </c>
       <c r="D421" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -43606,13 +43606,13 @@
         <v>4409</v>
       </c>
       <c r="B422" t="n">
-        <v>1909178.917754884</v>
+        <v>1025492.154410649</v>
       </c>
       <c r="C422" t="n">
-        <v>8099432.136392394</v>
+        <v>7709400.16853808</v>
       </c>
       <c r="D422" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -43706,13 +43706,13 @@
         <v>4412</v>
       </c>
       <c r="B423" t="n">
-        <v>2273313.631102453</v>
+        <v>1380286.019433746</v>
       </c>
       <c r="C423" t="n">
-        <v>8170823.49780247</v>
+        <v>7633975.751870103</v>
       </c>
       <c r="D423" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -43810,13 +43810,13 @@
         <v>4417</v>
       </c>
       <c r="B424" t="n">
-        <v>2187891.2692836</v>
+        <v>1328902.754502517</v>
       </c>
       <c r="C424" t="n">
-        <v>8236192.647362433</v>
+        <v>7725258.188436828</v>
       </c>
       <c r="D424" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -43914,13 +43914,13 @@
         <v>4424</v>
       </c>
       <c r="B425" t="n">
-        <v>1683397.219072427</v>
+        <v>754632.1239694392</v>
       </c>
       <c r="C425" t="n">
-        <v>7925046.368293658</v>
+        <v>7637682.392250299</v>
       </c>
       <c r="D425" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -44022,13 +44022,13 @@
         <v>4436</v>
       </c>
       <c r="B426" t="n">
-        <v>1976850.726115263</v>
+        <v>804148.7317468097</v>
       </c>
       <c r="C426" t="n">
-        <v>7342867.217843911</v>
+        <v>7000958.990562608</v>
       </c>
       <c r="D426" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -44122,13 +44122,13 @@
         <v>4442</v>
       </c>
       <c r="B427" t="n">
-        <v>1718422.291451611</v>
+        <v>743190.8139517823</v>
       </c>
       <c r="C427" t="n">
-        <v>7810767.156605036</v>
+        <v>7520704.263634744</v>
       </c>
       <c r="D427" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -44226,13 +44226,13 @@
         <v>4454</v>
       </c>
       <c r="B428" t="n">
-        <v>1981952.788397779</v>
+        <v>825539.6019553869</v>
       </c>
       <c r="C428" t="n">
-        <v>7388950.906090406</v>
+        <v>7040783.296693402</v>
       </c>
       <c r="D428" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -44326,13 +44326,13 @@
         <v>4459</v>
       </c>
       <c r="B429" t="n">
-        <v>1849612.984433461</v>
+        <v>725646.2862649208</v>
       </c>
       <c r="C429" t="n">
-        <v>7443626.276008854</v>
+        <v>7138719.315813894</v>
       </c>
       <c r="D429" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -44426,13 +44426,13 @@
         <v>4462</v>
       </c>
       <c r="B430" t="n">
-        <v>2030393.79633777</v>
+        <v>869413.4325444818</v>
       </c>
       <c r="C430" t="n">
-        <v>7389204.453270487</v>
+        <v>7023359.130377598</v>
       </c>
       <c r="D430" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -44526,13 +44526,13 @@
         <v>4464</v>
       </c>
       <c r="B431" t="n">
-        <v>2405406.291573273</v>
+        <v>1316627.087103874</v>
       </c>
       <c r="C431" t="n">
-        <v>7690293.358817382</v>
+        <v>7155590.619163917</v>
       </c>
       <c r="D431" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -44626,13 +44626,13 @@
         <v>4467</v>
       </c>
       <c r="B432" t="n">
-        <v>1881823.808952784</v>
+        <v>759998.2711238523</v>
       </c>
       <c r="C432" t="n">
-        <v>7457618.580195861</v>
+        <v>7139582.832866422</v>
       </c>
       <c r="D432" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -44726,13 +44726,13 @@
         <v>4468</v>
       </c>
       <c r="B433" t="n">
-        <v>2038748.431081227</v>
+        <v>813013.733108615</v>
       </c>
       <c r="C433" t="n">
-        <v>7212454.691544692</v>
+        <v>6860647.069206988</v>
       </c>
       <c r="D433" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -44830,13 +44830,13 @@
         <v>4470</v>
       </c>
       <c r="B434" t="n">
-        <v>1818331.176558931</v>
+        <v>785355.0676290115</v>
       </c>
       <c r="C434" t="n">
-        <v>7681549.254976866</v>
+        <v>7366032.468815591</v>
       </c>
       <c r="D434" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -44938,13 +44938,13 @@
         <v>4478</v>
       </c>
       <c r="B435" t="n">
-        <v>2226199.357067144</v>
+        <v>1353645.198373404</v>
       </c>
       <c r="C435" t="n">
-        <v>8211263.281824611</v>
+        <v>7688210.415547162</v>
       </c>
       <c r="D435" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -45038,13 +45038,13 @@
         <v>4482</v>
       </c>
       <c r="B436" t="n">
-        <v>2202940.352188088</v>
+        <v>1306819.906852901</v>
       </c>
       <c r="C436" t="n">
-        <v>8143788.681121105</v>
+        <v>7636801.36517616</v>
       </c>
       <c r="D436" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -45138,13 +45138,13 @@
         <v>4491</v>
       </c>
       <c r="B437" t="n">
-        <v>2228922.785340267</v>
+        <v>1339987.087739875</v>
       </c>
       <c r="C437" t="n">
-        <v>8169468.803789869</v>
+        <v>7649803.326145631</v>
       </c>
       <c r="D437" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -45238,13 +45238,13 @@
         <v>4509</v>
       </c>
       <c r="B438" t="n">
-        <v>1999216.606831029</v>
+        <v>868228.669114528</v>
       </c>
       <c r="C438" t="n">
-        <v>7463037.319476943</v>
+        <v>7101425.226468498</v>
       </c>
       <c r="D438" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -45338,13 +45338,13 @@
         <v>4518</v>
       </c>
       <c r="B439" t="n">
-        <v>2063836.299776184</v>
+        <v>956953.654913855</v>
       </c>
       <c r="C439" t="n">
-        <v>7545810.966217021</v>
+        <v>7152352.132933694</v>
       </c>
       <c r="D439" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -45442,13 +45442,13 @@
         <v>4519</v>
       </c>
       <c r="B440" t="n">
-        <v>2044936.022170056</v>
+        <v>935404.6545233275</v>
       </c>
       <c r="C440" t="n">
-        <v>7533567.491387164</v>
+        <v>7148276.677335054</v>
       </c>
       <c r="D440" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -45546,13 +45546,13 @@
         <v>4528</v>
       </c>
       <c r="B441" t="n">
-        <v>2008909.513700901</v>
+        <v>870782.6060115555</v>
       </c>
       <c r="C441" t="n">
-        <v>7446100.793011979</v>
+        <v>7082579.702642032</v>
       </c>
       <c r="D441" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -45646,13 +45646,13 @@
         <v>4533</v>
       </c>
       <c r="B442" t="n">
-        <v>2403647.587002712</v>
+        <v>1312749.542992215</v>
       </c>
       <c r="C442" t="n">
-        <v>7684073.023105011</v>
+        <v>7150701.59799769</v>
       </c>
       <c r="D442" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -45746,13 +45746,13 @@
         <v>4537</v>
       </c>
       <c r="B443" t="n">
-        <v>2018408.968562859</v>
+        <v>899893.37193707</v>
       </c>
       <c r="C443" t="n">
-        <v>7502092.377314866</v>
+        <v>7129642.153771379</v>
       </c>
       <c r="D443" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -45846,13 +45846,13 @@
         <v>4545</v>
       </c>
       <c r="B444" t="n">
-        <v>2413216.45211604</v>
+        <v>1401722.570740789</v>
       </c>
       <c r="C444" t="n">
-        <v>7899022.881518495</v>
+        <v>7338499.516503187</v>
       </c>
       <c r="D444" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -45950,13 +45950,13 @@
         <v>4549</v>
       </c>
       <c r="B445" t="n">
-        <v>1849981.169083416</v>
+        <v>726058.9151955633</v>
       </c>
       <c r="C445" t="n">
-        <v>7443840.185300016</v>
+        <v>7138778.247586998</v>
       </c>
       <c r="D445" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -46046,13 +46046,13 @@
         <v>4550</v>
       </c>
       <c r="B446" t="n">
-        <v>1825496.084733537</v>
+        <v>706414.2047294204</v>
       </c>
       <c r="C446" t="n">
-        <v>7450868.295420004</v>
+        <v>7154148.621156714</v>
       </c>
       <c r="D446" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -46142,13 +46142,13 @@
         <v>4561</v>
       </c>
       <c r="B447" t="n">
-        <v>1825245.825611675</v>
+        <v>698404.5065780235</v>
       </c>
       <c r="C447" t="n">
-        <v>7429672.541727646</v>
+        <v>7134996.105120971</v>
       </c>
       <c r="D447" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -46242,13 +46242,13 @@
         <v>4563</v>
       </c>
       <c r="B448" t="n">
-        <v>1835634.36961845</v>
+        <v>702717.4776401871</v>
       </c>
       <c r="C448" t="n">
-        <v>7415706.496154618</v>
+        <v>7118506.468513691</v>
       </c>
       <c r="D448" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -46338,13 +46338,13 @@
         <v>4567</v>
       </c>
       <c r="B449" t="n">
-        <v>1999659.027443948</v>
+        <v>1109868.194280577</v>
       </c>
       <c r="C449" t="n">
-        <v>8106697.175848476</v>
+        <v>7681333.95040018</v>
       </c>
       <c r="D449" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -46442,13 +46442,13 @@
         <v>4569</v>
       </c>
       <c r="B450" t="n">
-        <v>1557469.03654526</v>
+        <v>654048.655040067</v>
       </c>
       <c r="C450" t="n">
-        <v>7961575.488941259</v>
+        <v>7718803.829059006</v>
       </c>
       <c r="D450" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -46542,13 +46542,13 @@
         <v>4577</v>
       </c>
       <c r="B451" t="n">
-        <v>2244729.583207733</v>
+        <v>1165684.610376059</v>
       </c>
       <c r="C451" t="n">
-        <v>7670681.604099244</v>
+        <v>7197661.008526952</v>
       </c>
       <c r="D451" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -46642,13 +46642,13 @@
         <v>4579</v>
       </c>
       <c r="B452" t="n">
-        <v>1703348.369396201</v>
+        <v>640534.0427043657</v>
       </c>
       <c r="C452" t="n">
-        <v>7573081.361165373</v>
+        <v>7310353.859851683</v>
       </c>
       <c r="D452" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -46738,13 +46738,13 @@
         <v>4580</v>
       </c>
       <c r="B453" t="n">
-        <v>1825495.337952681</v>
+        <v>706419.6835784412</v>
       </c>
       <c r="C453" t="n">
-        <v>7450885.051607602</v>
+        <v>7154164.107549788</v>
       </c>
       <c r="D453" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -46834,13 +46834,13 @@
         <v>4584</v>
       </c>
       <c r="B454" t="n">
-        <v>1876091.595969415</v>
+        <v>712802.2557810557</v>
       </c>
       <c r="C454" t="n">
-        <v>7342777.843329567</v>
+        <v>7037532.177732982</v>
       </c>
       <c r="D454" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -46930,13 +46930,13 @@
         <v>4588</v>
       </c>
       <c r="B455" t="n">
-        <v>1895269.943125459</v>
+        <v>723076.9747472624</v>
       </c>
       <c r="C455" t="n">
-        <v>7323187.488598228</v>
+        <v>7012780.509478183</v>
       </c>
       <c r="D455" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -47030,13 +47030,13 @@
         <v>4607</v>
       </c>
       <c r="B456" t="n">
-        <v>1824260.357528686</v>
+        <v>699651.0857749057</v>
       </c>
       <c r="C456" t="n">
-        <v>7435508.222291674</v>
+        <v>7140656.639148206</v>
       </c>
       <c r="D456" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -47126,13 +47126,13 @@
         <v>4611</v>
       </c>
       <c r="B457" t="n">
-        <v>1968911.917917104</v>
+        <v>859137.7153092435</v>
       </c>
       <c r="C457" t="n">
-        <v>7512854.469271375</v>
+        <v>7157559.744527712</v>
       </c>
       <c r="D457" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -47226,13 +47226,13 @@
         <v>4612</v>
       </c>
       <c r="B458" t="n">
-        <v>1841513.255539552</v>
+        <v>802987.1524434208</v>
       </c>
       <c r="C458" t="n">
-        <v>7672497.718479305</v>
+        <v>7349183.721803095</v>
       </c>
       <c r="D458" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -47330,13 +47330,13 @@
         <v>4614</v>
       </c>
       <c r="B459" t="n">
-        <v>1832586.296453903</v>
+        <v>702502.7661407557</v>
       </c>
       <c r="C459" t="n">
-        <v>7422671.601275139</v>
+        <v>7125947.262864502</v>
       </c>
       <c r="D459" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -47430,13 +47430,13 @@
         <v>4622</v>
       </c>
       <c r="B460" t="n">
-        <v>2222087.108814477</v>
+        <v>1257297.633256143</v>
       </c>
       <c r="C460" t="n">
-        <v>7969000.235127258</v>
+        <v>7473134.234206335</v>
       </c>
       <c r="D460" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -47538,13 +47538,13 @@
         <v>4631</v>
       </c>
       <c r="B461" t="n">
-        <v>1973139.016163049</v>
+        <v>836261.263998023</v>
       </c>
       <c r="C461" t="n">
-        <v>7440115.712750654</v>
+        <v>7090263.418918243</v>
       </c>
       <c r="D461" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -47638,13 +47638,13 @@
         <v>4634</v>
       </c>
       <c r="B462" t="n">
-        <v>1852942.341462358</v>
+        <v>818088.6829599985</v>
       </c>
       <c r="C462" t="n">
-        <v>7685227.416379438</v>
+        <v>7356448.009733859</v>
       </c>
       <c r="D462" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -47738,13 +47738,13 @@
         <v>4635</v>
       </c>
       <c r="B463" t="n">
-        <v>1967608.328981286</v>
+        <v>812459.5887319738</v>
       </c>
       <c r="C463" t="n">
-        <v>7388667.264020307</v>
+        <v>7045757.429179742</v>
       </c>
       <c r="D463" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -47834,13 +47834,13 @@
         <v>4639</v>
       </c>
       <c r="B464" t="n">
-        <v>1922676.396530209</v>
+        <v>792155.4301664867</v>
       </c>
       <c r="C464" t="n">
-        <v>7444376.505624406</v>
+        <v>7112601.233078413</v>
       </c>
       <c r="D464" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -47934,13 +47934,13 @@
         <v>4651</v>
       </c>
       <c r="B465" t="n">
-        <v>1564367.292532743</v>
+        <v>620991.8827321788</v>
       </c>
       <c r="C465" t="n">
-        <v>7858118.619559167</v>
+        <v>7621992.967163532</v>
       </c>
       <c r="D465" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -48030,13 +48030,13 @@
         <v>4655</v>
       </c>
       <c r="B466" t="n">
-        <v>1756744.614645534</v>
+        <v>737374.9123652017</v>
       </c>
       <c r="C466" t="n">
-        <v>7702655.079118814</v>
+        <v>7408188.687970732</v>
       </c>
       <c r="D466" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -48134,13 +48134,13 @@
         <v>4659</v>
       </c>
       <c r="B467" t="n">
-        <v>1821911.209001755</v>
+        <v>790926.6699975308</v>
       </c>
       <c r="C467" t="n">
-        <v>7687780.837120468</v>
+        <v>7370342.798530737</v>
       </c>
       <c r="D467" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -10848,7 +10848,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -11056,7 +11056,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -12400,7 +12400,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -14760,7 +14760,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -16524,7 +16524,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -17252,7 +17252,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -17356,7 +17356,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -17660,7 +17660,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -17760,7 +17760,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -18276,7 +18276,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -18488,7 +18488,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -18592,7 +18592,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -19104,7 +19104,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -19308,7 +19308,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -19832,7 +19832,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -19936,7 +19936,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -20352,7 +20352,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -20560,7 +20560,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -21072,7 +21072,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -21276,7 +21276,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -21480,7 +21480,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -21576,7 +21576,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -21980,7 +21980,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -22084,7 +22084,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -22392,7 +22392,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -22700,7 +22700,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -22804,7 +22804,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -22912,7 +22912,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -23232,7 +23232,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -23436,7 +23436,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -23532,7 +23532,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -23736,7 +23736,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -24036,7 +24036,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -24140,7 +24140,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -24336,7 +24336,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -24440,7 +24440,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -24544,7 +24544,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -24640,7 +24640,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -24744,7 +24744,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -24948,7 +24948,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -25148,7 +25148,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -25348,7 +25348,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -25456,7 +25456,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -25660,7 +25660,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -25872,7 +25872,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -26080,7 +26080,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -26184,7 +26184,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -26284,7 +26284,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -26384,7 +26384,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -26484,7 +26484,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -26584,7 +26584,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -26896,7 +26896,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -27000,7 +27000,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -27308,7 +27308,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -27408,7 +27408,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -27516,7 +27516,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -27620,7 +27620,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -27716,7 +27716,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -27816,7 +27816,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -27916,7 +27916,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -28020,7 +28020,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -28120,7 +28120,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -28332,7 +28332,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -28632,7 +28632,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -28944,7 +28944,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -29152,7 +29152,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -29252,7 +29252,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -29356,7 +29356,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -29460,7 +29460,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -29556,7 +29556,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -29868,7 +29868,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -29968,7 +29968,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -30072,7 +30072,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -30180,7 +30180,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -30284,7 +30284,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -30388,7 +30388,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -30492,7 +30492,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -30700,7 +30700,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -30808,7 +30808,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -30916,7 +30916,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -31020,7 +31020,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -31120,7 +31120,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -31224,7 +31224,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -31328,7 +31328,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -31436,7 +31436,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -31536,7 +31536,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -31632,7 +31632,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -31732,7 +31732,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -31836,7 +31836,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -31940,7 +31940,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -32044,7 +32044,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -32144,7 +32144,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -32244,7 +32244,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -32352,7 +32352,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -32452,7 +32452,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -32552,7 +32552,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -32660,7 +32660,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -32768,7 +32768,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -32868,7 +32868,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -32972,7 +32972,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -33080,7 +33080,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -33180,7 +33180,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -33280,7 +33280,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -33384,7 +33384,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -33484,7 +33484,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -33584,7 +33584,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -33684,7 +33684,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -33780,7 +33780,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -33884,7 +33884,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -33980,7 +33980,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -34088,7 +34088,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -34188,7 +34188,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -34288,7 +34288,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -34384,7 +34384,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -34492,7 +34492,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -34600,7 +34600,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -34700,7 +34700,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -34804,7 +34804,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -34900,7 +34900,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -35004,7 +35004,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -35104,7 +35104,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -35200,7 +35200,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -35304,7 +35304,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -35408,7 +35408,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -35512,7 +35512,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -35620,7 +35620,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -35824,7 +35824,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -35924,7 +35924,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -36024,7 +36024,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -36132,7 +36132,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -36232,7 +36232,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -36328,7 +36328,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -36540,7 +36540,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -36640,7 +36640,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -36748,7 +36748,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -36848,7 +36848,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -36952,7 +36952,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -37056,7 +37056,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -37152,7 +37152,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -37252,7 +37252,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -37360,7 +37360,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -37460,7 +37460,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -37564,7 +37564,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -37664,7 +37664,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -37764,7 +37764,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -37860,7 +37860,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -37956,7 +37956,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -38060,7 +38060,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -38160,7 +38160,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -38264,7 +38264,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -38360,7 +38360,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -38460,7 +38460,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -38560,7 +38560,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -38660,7 +38660,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -38756,7 +38756,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -38852,7 +38852,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -38952,7 +38952,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -39056,7 +39056,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -39156,7 +39156,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -39256,7 +39256,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -39360,7 +39360,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -39464,7 +39464,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -39560,7 +39560,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -39664,7 +39664,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -39760,7 +39760,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -39864,7 +39864,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -39964,7 +39964,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -40072,7 +40072,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -40172,7 +40172,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -40280,7 +40280,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -40380,7 +40380,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -40488,7 +40488,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -40592,7 +40592,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -40688,7 +40688,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -40788,7 +40788,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -40896,7 +40896,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -40996,7 +40996,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -41100,7 +41100,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -41196,7 +41196,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -41292,7 +41292,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -41392,7 +41392,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -41496,7 +41496,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -41596,7 +41596,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -41700,7 +41700,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -41800,7 +41800,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -41900,7 +41900,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -42004,7 +42004,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -42104,7 +42104,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -42200,7 +42200,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -42304,7 +42304,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -42404,7 +42404,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -42504,7 +42504,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -42608,7 +42608,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -42704,7 +42704,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -42804,7 +42804,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -42908,7 +42908,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -43016,7 +43016,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -43120,7 +43120,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -43224,7 +43224,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -43320,7 +43320,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -43416,7 +43416,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -43512,7 +43512,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -43616,7 +43616,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -43716,7 +43716,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -43820,7 +43820,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -43924,7 +43924,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -44032,7 +44032,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -44132,7 +44132,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -44236,7 +44236,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -44336,7 +44336,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -44436,7 +44436,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -44536,7 +44536,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -44636,7 +44636,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -44736,7 +44736,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -44840,7 +44840,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -44948,7 +44948,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -45048,7 +45048,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -45148,7 +45148,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -45248,7 +45248,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -45348,7 +45348,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -45452,7 +45452,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -45556,7 +45556,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -45656,7 +45656,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -45756,7 +45756,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -45856,7 +45856,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -45960,7 +45960,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -46056,7 +46056,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -46152,7 +46152,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -46252,7 +46252,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -46348,7 +46348,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -46452,7 +46452,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -46552,7 +46552,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -46652,7 +46652,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -46748,7 +46748,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -46844,7 +46844,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -46940,7 +46940,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -47040,7 +47040,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -47136,7 +47136,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -47236,7 +47236,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -47340,7 +47340,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -47440,7 +47440,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -47548,7 +47548,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -47648,7 +47648,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -47748,7 +47748,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -47844,7 +47844,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -47944,7 +47944,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -48040,7 +48040,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -48144,7 +48144,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">

--- a/_INTERPOLATION/area4.xlsx
+++ b/_INTERPOLATION/area4.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -10848,7 +10848,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -11056,7 +11056,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -12400,7 +12400,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -14760,7 +14760,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -16524,7 +16524,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -17252,7 +17252,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -17356,7 +17356,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -17660,7 +17660,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -17760,7 +17760,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -18276,7 +18276,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -18488,7 +18488,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -18592,7 +18592,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -19104,7 +19104,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -19308,7 +19308,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -19832,7 +19832,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -19936,7 +19936,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -20352,7 +20352,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -20560,7 +20560,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -21072,7 +21072,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -21276,7 +21276,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -21480,7 +21480,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -21576,7 +21576,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -21980,7 +21980,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -22084,7 +22084,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -22392,7 +22392,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -22700,7 +22700,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -22804,7 +22804,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -22912,7 +22912,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -23232,7 +23232,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -23436,7 +23436,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -23532,7 +23532,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -23736,7 +23736,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -24036,7 +24036,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -24140,7 +24140,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -24336,7 +24336,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -24440,7 +24440,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -24544,7 +24544,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -24640,7 +24640,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -24744,7 +24744,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -24948,7 +24948,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -25148,7 +25148,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -25348,7 +25348,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -25456,7 +25456,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -25660,7 +25660,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -25872,7 +25872,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -26080,7 +26080,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -26184,7 +26184,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -26284,7 +26284,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -26384,7 +26384,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -26484,7 +26484,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -26584,7 +26584,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -26896,7 +26896,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -27000,7 +27000,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -27308,7 +27308,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -27408,7 +27408,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -27516,7 +27516,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -27620,7 +27620,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -27716,7 +27716,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -27816,7 +27816,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -27916,7 +27916,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -28020,7 +28020,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -28120,7 +28120,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -28332,7 +28332,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -28632,7 +28632,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -28944,7 +28944,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -29152,7 +29152,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -29252,7 +29252,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -29356,7 +29356,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -29460,7 +29460,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -29556,7 +29556,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -29868,7 +29868,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -29968,7 +29968,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -30072,7 +30072,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -30180,7 +30180,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -30284,7 +30284,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -30388,7 +30388,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -30492,7 +30492,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -30700,7 +30700,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -30808,7 +30808,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -30916,7 +30916,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -31020,7 +31020,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -31120,7 +31120,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -31224,7 +31224,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -31328,7 +31328,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -31436,7 +31436,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -31536,7 +31536,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -31632,7 +31632,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -31732,7 +31732,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -31836,7 +31836,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -31940,7 +31940,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -32044,7 +32044,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -32144,7 +32144,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -32244,7 +32244,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -32352,7 +32352,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -32452,7 +32452,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -32552,7 +32552,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -32660,7 +32660,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -32768,7 +32768,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -32868,7 +32868,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -32972,7 +32972,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -33080,7 +33080,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -33180,7 +33180,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -33280,7 +33280,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -33384,7 +33384,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -33484,7 +33484,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -33584,7 +33584,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -33684,7 +33684,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -33780,7 +33780,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -33884,7 +33884,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -33980,7 +33980,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -34088,7 +34088,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -34188,7 +34188,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -34288,7 +34288,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -34384,7 +34384,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -34492,7 +34492,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -34600,7 +34600,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -34700,7 +34700,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -34804,7 +34804,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -34900,7 +34900,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -35004,7 +35004,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -35104,7 +35104,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -35200,7 +35200,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -35304,7 +35304,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -35408,7 +35408,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -35512,7 +35512,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -35620,7 +35620,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -35824,7 +35824,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -35924,7 +35924,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -36024,7 +36024,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -36132,7 +36132,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -36232,7 +36232,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -36328,7 +36328,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -36540,7 +36540,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -36640,7 +36640,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -36748,7 +36748,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -36848,7 +36848,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -36952,7 +36952,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -37056,7 +37056,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -37152,7 +37152,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -37252,7 +37252,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -37360,7 +37360,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -37460,7 +37460,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -37564,7 +37564,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -37664,7 +37664,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -37764,7 +37764,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -37860,7 +37860,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -37956,7 +37956,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -38060,7 +38060,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -38160,7 +38160,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -38264,7 +38264,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -38360,7 +38360,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -38460,7 +38460,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -38560,7 +38560,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -38660,7 +38660,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -38756,7 +38756,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -38852,7 +38852,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -38952,7 +38952,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -39056,7 +39056,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -39156,7 +39156,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -39256,7 +39256,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -39360,7 +39360,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -39464,7 +39464,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -39560,7 +39560,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -39664,7 +39664,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -39760,7 +39760,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -39864,7 +39864,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -39964,7 +39964,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -40072,7 +40072,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -40172,7 +40172,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -40280,7 +40280,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -40380,7 +40380,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -40488,7 +40488,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -40592,7 +40592,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -40688,7 +40688,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -40788,7 +40788,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -40896,7 +40896,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -40996,7 +40996,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -41100,7 +41100,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -41196,7 +41196,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -41292,7 +41292,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -41392,7 +41392,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -41496,7 +41496,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -41596,7 +41596,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -41700,7 +41700,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -41800,7 +41800,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -41900,7 +41900,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -42004,7 +42004,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -42104,7 +42104,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -42200,7 +42200,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -42304,7 +42304,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -42404,7 +42404,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -42504,7 +42504,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -42608,7 +42608,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -42704,7 +42704,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -42804,7 +42804,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -42908,7 +42908,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -43016,7 +43016,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -43120,7 +43120,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -43224,7 +43224,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -43320,7 +43320,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -43416,7 +43416,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -43512,7 +43512,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -43616,7 +43616,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -43716,7 +43716,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -43820,7 +43820,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -43924,7 +43924,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -44032,7 +44032,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -44132,7 +44132,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -44236,7 +44236,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -44336,7 +44336,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -44436,7 +44436,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -44536,7 +44536,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -44636,7 +44636,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -44736,7 +44736,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -44840,7 +44840,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -44948,7 +44948,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -45048,7 +45048,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -45148,7 +45148,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -45248,7 +45248,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -45348,7 +45348,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -45452,7 +45452,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -45556,7 +45556,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -45656,7 +45656,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -45756,7 +45756,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -45856,7 +45856,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -45960,7 +45960,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -46056,7 +46056,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -46152,7 +46152,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -46252,7 +46252,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -46348,7 +46348,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -46452,7 +46452,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -46552,7 +46552,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -46652,7 +46652,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -46748,7 +46748,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -46844,7 +46844,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -46940,7 +46940,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -47040,7 +47040,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -47136,7 +47136,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -47236,7 +47236,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -47340,7 +47340,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -47440,7 +47440,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -47548,7 +47548,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -47648,7 +47648,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -47748,7 +47748,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -47844,7 +47844,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -47944,7 +47944,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -48040,7 +48040,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -48144,7 +48144,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
